--- a/corona-kanjajokyou.xlsx
+++ b/corona-kanjajokyou.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Lb16z0190\広報戦略\11Twitter対応について\98 コロナ(毎日の発生状況)\HP作業用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F349837-486D-4E5D-AC09-3FCFED0E4F50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BE9C1D5-4947-4404-B290-978194B01F65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$96</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="95">
   <si>
     <t>非公表</t>
   </si>
@@ -466,11 +466,43 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>令和2年3月1日以降の総数 78,548件 ※欠番249件（医療機関での発生届の取り下げ等）</t>
-  </si>
-  <si>
     <t>新型コロナウィルスに感染した患者の状況（令和3年11月1日～）</t>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>神戸</t>
+    <rPh sb="0" eb="2">
+      <t>コウベ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>令和2年3月1日以降の総数 78,552件 ※欠番250件（医療機関での発生届の取り下げ等）</t>
   </si>
 </sst>
 </file>
@@ -2475,13 +2507,13 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2503,7 +2535,7 @@
     <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2514,7 +2546,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="30">
         <f ca="1">TODAY()-1</f>
-        <v>44507</v>
+        <v>44508</v>
       </c>
       <c r="K1" s="30"/>
       <c r="L1" s="4" t="s">
@@ -2551,7 +2583,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2613,285 +2645,275 @@
     <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="17">
-        <v>78797</v>
+        <v>78802</v>
       </c>
       <c r="C6" s="18">
-        <v>44507</v>
+        <v>44508</v>
       </c>
       <c r="D6" s="19">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>59</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="J6" s="24"/>
       <c r="K6" s="27"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26" t="s">
-        <v>85</v>
-      </c>
+      <c r="L6" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="17">
-        <v>78796</v>
+        <v>78801</v>
       </c>
       <c r="C7" s="18">
-        <v>44507</v>
+        <v>44508</v>
       </c>
       <c r="D7" s="19">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="27"/>
       <c r="L7" s="25" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="17">
-        <v>78795</v>
+        <v>78800</v>
       </c>
       <c r="C8" s="18">
-        <v>44506</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>47</v>
+        <v>44508</v>
+      </c>
+      <c r="D8" s="19">
+        <v>50</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="23">
-        <v>44502</v>
+        <v>92</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="27"/>
       <c r="L8" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="M8" s="26" t="s">
-        <v>2</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="17">
-        <v>78794</v>
+        <v>78799</v>
       </c>
       <c r="C9" s="18">
-        <v>44506</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>11</v>
+        <v>44508</v>
+      </c>
+      <c r="D9" s="19">
+        <v>80</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="23">
-        <v>44502</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>86</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="24"/>
       <c r="K9" s="27"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26" t="s">
-        <v>26</v>
-      </c>
+      <c r="L9" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="17">
-        <v>78793</v>
+        <v>78798</v>
       </c>
       <c r="C10" s="18">
-        <v>44506</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>11</v>
+        <v>44508</v>
+      </c>
+      <c r="D10" s="19">
+        <v>30</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="23">
-        <v>44501</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>86</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="24"/>
       <c r="K10" s="27"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26" t="s">
-        <v>26</v>
-      </c>
+      <c r="L10" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="17">
-        <v>78792</v>
+        <v>78797</v>
       </c>
       <c r="C11" s="18">
-        <v>44506</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>49</v>
+        <v>44507</v>
+      </c>
+      <c r="D11" s="19">
+        <v>10</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="23">
-        <v>44505</v>
+        <v>55</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="K11" s="27"/>
       <c r="L11" s="25"/>
       <c r="M11" s="26" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
       <c r="B12" s="17">
-        <v>78791</v>
+        <v>78796</v>
       </c>
       <c r="C12" s="18">
-        <v>44506</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>49</v>
+        <v>44507</v>
+      </c>
+      <c r="D12" s="19">
+        <v>50</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>86</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J12" s="24"/>
       <c r="K12" s="27"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="26" t="s">
-        <v>26</v>
-      </c>
+      <c r="L12" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="17">
-        <v>78790</v>
+        <v>78795</v>
       </c>
       <c r="C13" s="18">
         <v>44506</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="23">
+        <v>44502</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="25"/>
       <c r="M13" s="26" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="17">
-        <v>78789</v>
+        <v>78794</v>
       </c>
       <c r="C14" s="18">
         <v>44506</v>
@@ -2903,16 +2925,16 @@
         <v>23</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="I14" s="23">
+        <v>44502</v>
       </c>
       <c r="J14" s="24" t="s">
         <v>86</v>
@@ -2926,28 +2948,28 @@
     <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="17">
-        <v>78788</v>
+        <v>78793</v>
       </c>
       <c r="C15" s="18">
         <v>44506</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I15" s="23">
-        <v>44502</v>
+        <v>44501</v>
       </c>
       <c r="J15" s="24" t="s">
         <v>86</v>
@@ -2961,42 +2983,42 @@
     <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="17">
-        <v>78787</v>
+        <v>78792</v>
       </c>
       <c r="C16" s="18">
         <v>44506</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I16" s="23">
-        <v>44502</v>
-      </c>
-      <c r="J16" s="24"/>
+        <v>44505</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="K16" s="27"/>
-      <c r="L16" s="25" t="s">
-        <v>86</v>
-      </c>
+      <c r="L16" s="25"/>
       <c r="M16" s="26" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="17">
-        <v>78786</v>
+        <v>78791</v>
       </c>
       <c r="C17" s="18">
         <v>44506</v>
@@ -3008,117 +3030,121 @@
         <v>22</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="23">
-        <v>44503</v>
-      </c>
-      <c r="J17" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="K17" s="27"/>
-      <c r="L17" s="25" t="s">
-        <v>86</v>
-      </c>
+      <c r="L17" s="25"/>
       <c r="M17" s="26" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="17">
-        <v>78785</v>
+        <v>78790</v>
       </c>
       <c r="C18" s="18">
         <v>44506</v>
       </c>
-      <c r="D18" s="19">
-        <v>30</v>
+      <c r="D18" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" s="23">
-        <v>44503</v>
-      </c>
-      <c r="J18" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="K18" s="27"/>
-      <c r="L18" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="M18" s="26"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="26" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
       <c r="B19" s="17">
-        <v>78784</v>
+        <v>78789</v>
       </c>
       <c r="C19" s="18">
         <v>44506</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="K19" s="27"/>
-      <c r="L19" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="M19" s="26"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
       <c r="B20" s="17">
-        <v>78783</v>
+        <v>78788</v>
       </c>
       <c r="C20" s="18">
         <v>44506</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="I20" s="23">
+        <v>44502</v>
       </c>
       <c r="J20" s="24" t="s">
         <v>86</v>
@@ -3126,133 +3152,131 @@
       <c r="K20" s="27"/>
       <c r="L20" s="25"/>
       <c r="M20" s="26" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="17">
-        <v>78782</v>
+        <v>78787</v>
       </c>
       <c r="C21" s="18">
         <v>44506</v>
       </c>
-      <c r="D21" s="19">
-        <v>10</v>
+      <c r="D21" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="J21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="23">
+        <v>44502</v>
+      </c>
+      <c r="J21" s="24"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="25"/>
       <c r="M21" s="26" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="17">
-        <v>78781</v>
+        <v>78786</v>
       </c>
       <c r="C22" s="18">
         <v>44506</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="J22" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="23">
+        <v>44503</v>
+      </c>
+      <c r="J22" s="24"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="K22" s="27"/>
-      <c r="L22" s="25"/>
       <c r="M22" s="26" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
       <c r="B23" s="17">
-        <v>78780</v>
+        <v>78785</v>
       </c>
       <c r="C23" s="18">
         <v>44506</v>
       </c>
       <c r="D23" s="19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H23" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="I23" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="J23" s="24" t="s">
+      <c r="I23" s="23">
+        <v>44503</v>
+      </c>
+      <c r="J23" s="24"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="K23" s="27"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="26" t="s">
-        <v>85</v>
-      </c>
+      <c r="M23" s="26"/>
     </row>
     <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="B24" s="17">
-        <v>78779</v>
+        <v>78784</v>
       </c>
       <c r="C24" s="18">
         <v>44506</v>
       </c>
-      <c r="D24" s="19">
-        <v>80</v>
+      <c r="D24" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H24" s="22" t="s">
         <v>82</v>
@@ -3270,22 +3294,22 @@
     <row r="25" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="17">
-        <v>78778</v>
+        <v>78783</v>
       </c>
       <c r="C25" s="18">
         <v>44506</v>
       </c>
-      <c r="D25" s="19">
-        <v>20</v>
+      <c r="D25" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H25" s="22" t="s">
         <v>82</v>
@@ -3293,32 +3317,34 @@
       <c r="I25" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="J25" s="24"/>
+      <c r="J25" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="K25" s="27"/>
-      <c r="L25" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="M25" s="26"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="26" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="17">
-        <v>78777</v>
+        <v>78782</v>
       </c>
       <c r="C26" s="18">
         <v>44506</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>11</v>
+      <c r="D26" s="19">
+        <v>10</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H26" s="22" t="s">
         <v>82</v>
@@ -3326,32 +3352,34 @@
       <c r="I26" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="J26" s="24"/>
+      <c r="J26" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="K26" s="27"/>
-      <c r="L26" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="M26" s="26"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="26" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="17">
-        <v>78776</v>
+        <v>78781</v>
       </c>
       <c r="C27" s="18">
         <v>44506</v>
       </c>
-      <c r="D27" s="19">
-        <v>30</v>
+      <c r="D27" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H27" s="22" t="s">
         <v>82</v>
@@ -3359,59 +3387,63 @@
       <c r="I27" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="J27" s="24"/>
+      <c r="J27" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="K27" s="27"/>
-      <c r="L27" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="M27" s="26"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="26" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="13"/>
       <c r="B28" s="17">
-        <v>78775</v>
+        <v>78780</v>
       </c>
       <c r="C28" s="18">
         <v>44506</v>
       </c>
       <c r="D28" s="19">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I28" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="J28" s="24"/>
+      <c r="J28" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="K28" s="27"/>
-      <c r="L28" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="M28" s="26"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="26" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
       <c r="B29" s="17">
-        <v>78774</v>
+        <v>78779</v>
       </c>
       <c r="C29" s="18">
         <v>44506</v>
       </c>
       <c r="D29" s="19">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>81</v>
@@ -3435,16 +3467,16 @@
     <row r="30" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
       <c r="B30" s="17">
-        <v>78773</v>
+        <v>78778</v>
       </c>
       <c r="C30" s="18">
         <v>44506</v>
       </c>
       <c r="D30" s="19">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F30" s="21" t="s">
         <v>81</v>
@@ -3468,362 +3500,362 @@
     <row r="31" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="13"/>
       <c r="B31" s="17">
-        <v>78772</v>
+        <v>78777</v>
       </c>
       <c r="C31" s="18">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J31" s="24" t="s">
-        <v>59</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="J31" s="24"/>
       <c r="K31" s="27"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="26" t="s">
-        <v>26</v>
-      </c>
+      <c r="L31" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="M31" s="26"/>
     </row>
     <row r="32" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13"/>
       <c r="B32" s="17">
-        <v>78771</v>
+        <v>78776</v>
       </c>
       <c r="C32" s="18">
-        <v>44505</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>45</v>
+        <v>44506</v>
+      </c>
+      <c r="D32" s="19">
+        <v>30</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="23">
-        <v>44501</v>
+        <v>82</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="J32" s="24"/>
       <c r="K32" s="27"/>
       <c r="L32" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="M32" s="26" t="s">
-        <v>2</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="M32" s="26"/>
     </row>
     <row r="33" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="13"/>
       <c r="B33" s="17">
-        <v>78770</v>
+        <v>78775</v>
       </c>
       <c r="C33" s="18">
-        <v>44505</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>44</v>
+        <v>44506</v>
+      </c>
+      <c r="D33" s="19">
+        <v>60</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="23">
-        <v>44504</v>
+        <v>82</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="27"/>
       <c r="L33" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="M33" s="26" t="s">
-        <v>2</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="M33" s="26"/>
     </row>
     <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="13"/>
       <c r="B34" s="17">
-        <v>78769</v>
+        <v>78774</v>
       </c>
       <c r="C34" s="18">
-        <v>44505</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>49</v>
+        <v>44506</v>
+      </c>
+      <c r="D34" s="19">
+        <v>30</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="23">
-        <v>44500</v>
+        <v>82</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="J34" s="24"/>
       <c r="K34" s="27"/>
       <c r="L34" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="M34" s="26" t="s">
-        <v>2</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="M34" s="26"/>
     </row>
     <row r="35" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="13"/>
       <c r="B35" s="17">
-        <v>78768</v>
+        <v>78773</v>
       </c>
       <c r="C35" s="18">
-        <v>44505</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>45</v>
+        <v>44506</v>
+      </c>
+      <c r="D35" s="19">
+        <v>40</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="23">
-        <v>44498</v>
-      </c>
-      <c r="J35" s="24" t="s">
-        <v>59</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="J35" s="24"/>
       <c r="K35" s="27"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="26" t="s">
-        <v>26</v>
-      </c>
+      <c r="L35" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="M35" s="26"/>
     </row>
     <row r="36" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="13"/>
       <c r="B36" s="17">
-        <v>78767</v>
+        <v>78772</v>
       </c>
       <c r="C36" s="18">
         <v>44505</v>
       </c>
-      <c r="D36" s="19">
-        <v>30</v>
+      <c r="D36" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J36" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="K36" s="27"/>
-      <c r="L36" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="M36" s="26"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="26" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="37" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="13"/>
       <c r="B37" s="17">
-        <v>78766</v>
+        <v>78771</v>
       </c>
       <c r="C37" s="18">
         <v>44505</v>
       </c>
-      <c r="D37" s="19">
-        <v>10</v>
+      <c r="D37" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I37" s="23" t="s">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="I37" s="23">
+        <v>44501</v>
       </c>
       <c r="J37" s="24"/>
       <c r="K37" s="27"/>
       <c r="L37" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="M37" s="26"/>
+      <c r="M37" s="26" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="13"/>
       <c r="B38" s="17">
-        <v>78765</v>
+        <v>78770</v>
       </c>
       <c r="C38" s="18">
         <v>44505</v>
       </c>
-      <c r="D38" s="19">
-        <v>60</v>
+      <c r="D38" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I38" s="23" t="s">
-        <v>65</v>
+        <v>9</v>
+      </c>
+      <c r="I38" s="23">
+        <v>44504</v>
       </c>
       <c r="J38" s="24"/>
       <c r="K38" s="27"/>
       <c r="L38" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="M38" s="26"/>
+      <c r="M38" s="26" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
       <c r="B39" s="17">
-        <v>78764</v>
+        <v>78769</v>
       </c>
       <c r="C39" s="18">
         <v>44505</v>
       </c>
-      <c r="D39" s="19">
-        <v>20</v>
+      <c r="D39" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I39" s="23" t="s">
-        <v>65</v>
+        <v>6</v>
+      </c>
+      <c r="I39" s="23">
+        <v>44500</v>
       </c>
       <c r="J39" s="24"/>
       <c r="K39" s="27"/>
       <c r="L39" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="M39" s="26"/>
+      <c r="M39" s="26" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
       <c r="B40" s="17">
-        <v>78763</v>
+        <v>78768</v>
       </c>
       <c r="C40" s="18">
         <v>44505</v>
       </c>
-      <c r="D40" s="19">
-        <v>20</v>
+      <c r="D40" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I40" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J40" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="I40" s="23">
+        <v>44498</v>
+      </c>
+      <c r="J40" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="K40" s="27"/>
-      <c r="L40" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="M40" s="26"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="26" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="41" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
       <c r="B41" s="17">
-        <v>78762</v>
+        <v>78767</v>
       </c>
       <c r="C41" s="18">
         <v>44505</v>
       </c>
       <c r="D41" s="19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H41" s="22" t="s">
         <v>65</v>
@@ -3841,22 +3873,22 @@
     <row r="42" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="17">
-        <v>78761</v>
+        <v>78766</v>
       </c>
       <c r="C42" s="18">
         <v>44505</v>
       </c>
       <c r="D42" s="19">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H42" s="22" t="s">
         <v>65</v>
@@ -3874,25 +3906,25 @@
     <row r="43" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="17">
-        <v>78760</v>
+        <v>78765</v>
       </c>
       <c r="C43" s="18">
         <v>44505</v>
       </c>
       <c r="D43" s="19">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="I43" s="23" t="s">
         <v>65</v>
@@ -3907,7 +3939,7 @@
     <row r="44" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
       <c r="B44" s="17">
-        <v>78759</v>
+        <v>78764</v>
       </c>
       <c r="C44" s="18">
         <v>44505</v>
@@ -3916,7 +3948,7 @@
         <v>20</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F44" s="21" t="s">
         <v>60</v>
@@ -3940,13 +3972,13 @@
     <row r="45" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="13"/>
       <c r="B45" s="17">
-        <v>78758</v>
+        <v>78763</v>
       </c>
       <c r="C45" s="18">
         <v>44505</v>
       </c>
-      <c r="D45" s="19" t="s">
-        <v>11</v>
+      <c r="D45" s="19">
+        <v>20</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>23</v>
@@ -3973,13 +4005,13 @@
     <row r="46" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="13"/>
       <c r="B46" s="17">
-        <v>78757</v>
+        <v>78762</v>
       </c>
       <c r="C46" s="18">
         <v>44505</v>
       </c>
       <c r="D46" s="19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>22</v>
@@ -4006,13 +4038,13 @@
     <row r="47" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="13"/>
       <c r="B47" s="17">
-        <v>78756</v>
+        <v>78761</v>
       </c>
       <c r="C47" s="18">
         <v>44505</v>
       </c>
       <c r="D47" s="19">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>23</v>
@@ -4039,351 +4071,365 @@
     <row r="48" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="13"/>
       <c r="B48" s="17">
-        <v>78755</v>
+        <v>78760</v>
       </c>
       <c r="C48" s="18">
-        <v>44504</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>49</v>
+        <v>44505</v>
+      </c>
+      <c r="D48" s="19">
+        <v>30</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J48" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J48" s="24"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="K48" s="27"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="26" t="s">
-        <v>26</v>
-      </c>
+      <c r="M48" s="26"/>
     </row>
     <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="13"/>
       <c r="B49" s="17">
-        <v>78754</v>
+        <v>78759</v>
       </c>
       <c r="C49" s="18">
-        <v>44504</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>45</v>
+        <v>44505</v>
+      </c>
+      <c r="D49" s="19">
+        <v>20</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" s="23">
-        <v>44502</v>
-      </c>
-      <c r="J49" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J49" s="24"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="K49" s="27"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="26" t="s">
-        <v>26</v>
-      </c>
+      <c r="M49" s="26"/>
     </row>
     <row r="50" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="13"/>
       <c r="B50" s="17">
-        <v>78753</v>
+        <v>78758</v>
       </c>
       <c r="C50" s="18">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" s="23">
-        <v>44501</v>
-      </c>
-      <c r="J50" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J50" s="24"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="K50" s="27"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="26" t="s">
-        <v>26</v>
-      </c>
+      <c r="M50" s="26"/>
     </row>
     <row r="51" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="13"/>
       <c r="B51" s="17">
-        <v>78752</v>
+        <v>78757</v>
       </c>
       <c r="C51" s="18">
-        <v>44504</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>44</v>
+        <v>44505</v>
+      </c>
+      <c r="D51" s="19">
+        <v>30</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51" s="23">
-        <v>44502</v>
-      </c>
-      <c r="J51" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J51" s="24"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="K51" s="27"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="26" t="s">
-        <v>26</v>
-      </c>
+      <c r="M51" s="26"/>
     </row>
     <row r="52" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="13"/>
       <c r="B52" s="17">
-        <v>78751</v>
+        <v>78756</v>
       </c>
       <c r="C52" s="18">
-        <v>44504</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>45</v>
+        <v>44505</v>
+      </c>
+      <c r="D52" s="19">
+        <v>20</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I52" s="23">
-        <v>44502</v>
-      </c>
-      <c r="J52" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J52" s="24"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="K52" s="27"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="26" t="s">
-        <v>26</v>
-      </c>
+      <c r="M52" s="26"/>
     </row>
     <row r="53" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="13"/>
       <c r="B53" s="17">
-        <v>78750</v>
+        <v>78755</v>
       </c>
       <c r="C53" s="18">
         <v>44504</v>
       </c>
-      <c r="D53" s="19">
-        <v>40</v>
+      <c r="D53" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J53" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="J53" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="K53" s="27"/>
-      <c r="L53" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="M53" s="26"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="26" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="54" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="13"/>
       <c r="B54" s="17">
-        <v>78749</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="24"/>
+        <v>78754</v>
+      </c>
+      <c r="C54" s="18">
+        <v>44504</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" s="23">
+        <v>44502</v>
+      </c>
+      <c r="J54" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="K54" s="27"/>
       <c r="L54" s="25"/>
-      <c r="M54" s="26"/>
+      <c r="M54" s="26" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="55" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="13"/>
       <c r="B55" s="17">
-        <v>78748</v>
+        <v>78753</v>
       </c>
       <c r="C55" s="18">
         <v>44504</v>
       </c>
-      <c r="D55" s="19">
-        <v>40</v>
+      <c r="D55" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I55" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J55" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="I55" s="23">
+        <v>44501</v>
+      </c>
+      <c r="J55" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="K55" s="27"/>
-      <c r="L55" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="M55" s="26"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="26" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="13"/>
       <c r="B56" s="17">
-        <v>78747</v>
+        <v>78752</v>
       </c>
       <c r="C56" s="18">
         <v>44504</v>
       </c>
-      <c r="D56" s="19">
-        <v>70</v>
+      <c r="D56" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I56" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J56" s="24"/>
+        <v>9</v>
+      </c>
+      <c r="I56" s="23">
+        <v>44502</v>
+      </c>
+      <c r="J56" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="K56" s="27"/>
-      <c r="L56" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="M56" s="26"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="26" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="57" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="13"/>
       <c r="B57" s="17">
-        <v>78746</v>
+        <v>78751</v>
       </c>
       <c r="C57" s="18">
         <v>44504</v>
       </c>
-      <c r="D57" s="19">
-        <v>60</v>
+      <c r="D57" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I57" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J57" s="24"/>
+        <v>9</v>
+      </c>
+      <c r="I57" s="23">
+        <v>44502</v>
+      </c>
+      <c r="J57" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="K57" s="27"/>
-      <c r="L57" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="M57" s="26"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="26" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="58" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="13"/>
       <c r="B58" s="17">
-        <v>78745</v>
+        <v>78750</v>
       </c>
       <c r="C58" s="18">
         <v>44504</v>
       </c>
       <c r="D58" s="19">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="I58" s="23" t="s">
         <v>65</v>
@@ -4398,238 +4444,214 @@
     <row r="59" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="13"/>
       <c r="B59" s="17">
-        <v>78744</v>
-      </c>
-      <c r="C59" s="18">
-        <v>44503</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H59" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="23">
-        <v>44497</v>
-      </c>
+        <v>78749</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="19"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="23"/>
       <c r="J59" s="24"/>
       <c r="K59" s="27"/>
-      <c r="L59" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="M59" s="26" t="s">
-        <v>2</v>
-      </c>
+      <c r="L59" s="25"/>
+      <c r="M59" s="26"/>
     </row>
     <row r="60" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="13"/>
       <c r="B60" s="17">
-        <v>78743</v>
+        <v>78748</v>
       </c>
       <c r="C60" s="18">
-        <v>44503</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>49</v>
+        <v>44504</v>
+      </c>
+      <c r="D60" s="19">
+        <v>40</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="G60" s="27" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="23">
-        <v>44497</v>
-      </c>
-      <c r="J60" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I60" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J60" s="24"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="K60" s="27"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="26" t="s">
-        <v>26</v>
-      </c>
+      <c r="M60" s="26"/>
     </row>
     <row r="61" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="13"/>
       <c r="B61" s="17">
-        <v>78742</v>
+        <v>78747</v>
       </c>
       <c r="C61" s="18">
-        <v>44503</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>45</v>
+        <v>44504</v>
+      </c>
+      <c r="D61" s="19">
+        <v>70</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I61" s="23">
-        <v>44498</v>
-      </c>
-      <c r="J61" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I61" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J61" s="24"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="K61" s="27"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="26" t="s">
-        <v>26</v>
-      </c>
+      <c r="M61" s="26"/>
     </row>
     <row r="62" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="13"/>
       <c r="B62" s="17">
-        <v>78741</v>
+        <v>78746</v>
       </c>
       <c r="C62" s="18">
-        <v>44503</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>43</v>
+        <v>44504</v>
+      </c>
+      <c r="D62" s="19">
+        <v>60</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G62" s="27" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I62" s="23">
-        <v>44501</v>
-      </c>
-      <c r="J62" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I62" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J62" s="24"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="K62" s="27"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="26" t="s">
-        <v>26</v>
-      </c>
+      <c r="M62" s="26"/>
     </row>
     <row r="63" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="13"/>
       <c r="B63" s="17">
-        <v>78740</v>
+        <v>78745</v>
       </c>
       <c r="C63" s="18">
-        <v>44503</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>44</v>
+        <v>44504</v>
+      </c>
+      <c r="D63" s="19">
+        <v>10</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G63" s="27" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I63" s="23">
-        <v>44497</v>
-      </c>
-      <c r="J63" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I63" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J63" s="24"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="27"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="26" t="s">
-        <v>26</v>
-      </c>
+      <c r="M63" s="26"/>
     </row>
     <row r="64" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="13"/>
       <c r="B64" s="17">
-        <v>78739</v>
+        <v>78744</v>
       </c>
       <c r="C64" s="18">
         <v>44503</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G64" s="27" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I64" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J64" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I64" s="23">
+        <v>44497</v>
+      </c>
+      <c r="J64" s="24"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="27"/>
-      <c r="L64" s="25"/>
       <c r="M64" s="26" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="13"/>
       <c r="B65" s="17">
-        <v>78738</v>
+        <v>78743</v>
       </c>
       <c r="C65" s="18">
         <v>44503</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G65" s="27" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I65" s="23">
-        <v>44500</v>
+        <v>44497</v>
       </c>
       <c r="J65" s="24" t="s">
         <v>59</v>
@@ -4643,63 +4665,63 @@
     <row r="66" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="13"/>
       <c r="B66" s="17">
-        <v>78737</v>
+        <v>78742</v>
       </c>
       <c r="C66" s="18">
         <v>44503</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E66" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G66" s="27" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I66" s="23">
-        <v>44499</v>
-      </c>
-      <c r="J66" s="24"/>
+        <v>44498</v>
+      </c>
+      <c r="J66" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="K66" s="27"/>
-      <c r="L66" s="25" t="s">
-        <v>59</v>
-      </c>
+      <c r="L66" s="25"/>
       <c r="M66" s="26" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="13"/>
       <c r="B67" s="17">
-        <v>78736</v>
+        <v>78741</v>
       </c>
       <c r="C67" s="18">
         <v>44503</v>
       </c>
-      <c r="D67" s="19">
-        <v>60</v>
+      <c r="D67" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="E67" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I67" s="23" t="s">
-        <v>65</v>
+        <v>27</v>
+      </c>
+      <c r="I67" s="23">
+        <v>44501</v>
       </c>
       <c r="J67" s="24" t="s">
         <v>59</v>
@@ -4707,162 +4729,168 @@
       <c r="K67" s="27"/>
       <c r="L67" s="25"/>
       <c r="M67" s="26" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="13"/>
       <c r="B68" s="17">
-        <v>78735</v>
+        <v>78740</v>
       </c>
       <c r="C68" s="18">
         <v>44503</v>
       </c>
-      <c r="D68" s="19">
-        <v>20</v>
+      <c r="D68" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="E68" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G68" s="27" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I68" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J68" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="23">
+        <v>44497</v>
+      </c>
+      <c r="J68" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="K68" s="27"/>
-      <c r="L68" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="M68" s="26"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="26" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="69" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="13"/>
       <c r="B69" s="17">
-        <v>78734</v>
+        <v>78739</v>
       </c>
       <c r="C69" s="18">
         <v>44503</v>
       </c>
-      <c r="D69" s="19">
-        <v>80</v>
+      <c r="D69" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="E69" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G69" s="27" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I69" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J69" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="J69" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="K69" s="27"/>
-      <c r="L69" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="M69" s="26"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="26" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="70" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="13"/>
       <c r="B70" s="17">
-        <v>78733</v>
+        <v>78738</v>
       </c>
       <c r="C70" s="18">
         <v>44503</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F70" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G70" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="H70" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I70" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J70" s="24"/>
+      <c r="I70" s="23">
+        <v>44500</v>
+      </c>
+      <c r="J70" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="K70" s="27"/>
-      <c r="L70" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="M70" s="26"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="26" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="71" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="13"/>
       <c r="B71" s="17">
-        <v>78732</v>
+        <v>78737</v>
       </c>
       <c r="C71" s="18">
         <v>44503</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="G71" s="27" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I71" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J71" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="23">
+        <v>44499</v>
+      </c>
+      <c r="J71" s="24"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="K71" s="27"/>
-      <c r="L71" s="25"/>
       <c r="M71" s="26" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="13"/>
       <c r="B72" s="17">
-        <v>78731</v>
+        <v>78736</v>
       </c>
       <c r="C72" s="18">
         <v>44503</v>
       </c>
-      <c r="D72" s="19" t="s">
-        <v>11</v>
+      <c r="D72" s="19">
+        <v>60</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G72" s="27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H72" s="22" t="s">
         <v>65</v>
@@ -4870,32 +4898,34 @@
       <c r="I72" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="J72" s="24"/>
+      <c r="J72" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="K72" s="27"/>
-      <c r="L72" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="M72" s="26"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="26" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="73" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="13"/>
       <c r="B73" s="17">
-        <v>78730</v>
+        <v>78735</v>
       </c>
       <c r="C73" s="18">
         <v>44503</v>
       </c>
-      <c r="D73" s="19" t="s">
-        <v>11</v>
+      <c r="D73" s="19">
+        <v>20</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G73" s="27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H73" s="22" t="s">
         <v>65</v>
@@ -4913,25 +4943,25 @@
     <row r="74" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="13"/>
       <c r="B74" s="17">
-        <v>78729</v>
+        <v>78734</v>
       </c>
       <c r="C74" s="18">
         <v>44503</v>
       </c>
-      <c r="D74" s="19" t="s">
-        <v>11</v>
+      <c r="D74" s="19">
+        <v>80</v>
       </c>
       <c r="E74" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G74" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="I74" s="23" t="s">
         <v>65</v>
@@ -4946,25 +4976,25 @@
     <row r="75" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="13"/>
       <c r="B75" s="17">
-        <v>78728</v>
+        <v>78733</v>
       </c>
       <c r="C75" s="18">
         <v>44503</v>
       </c>
       <c r="D75" s="19">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G75" s="27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I75" s="23" t="s">
         <v>65</v>
@@ -4979,46 +5009,48 @@
     <row r="76" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="13"/>
       <c r="B76" s="17">
-        <v>78727</v>
+        <v>78732</v>
       </c>
       <c r="C76" s="18">
         <v>44503</v>
       </c>
-      <c r="D76" s="19">
-        <v>50</v>
+      <c r="D76" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="E76" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G76" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I76" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="J76" s="24"/>
+      <c r="J76" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="K76" s="27"/>
-      <c r="L76" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="M76" s="26"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="26" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="77" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="13"/>
       <c r="B77" s="17">
-        <v>78726</v>
+        <v>78731</v>
       </c>
       <c r="C77" s="18">
         <v>44503</v>
       </c>
-      <c r="D77" s="19">
-        <v>10</v>
+      <c r="D77" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="E77" s="20" t="s">
         <v>22</v>
@@ -5045,13 +5077,13 @@
     <row r="78" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="13"/>
       <c r="B78" s="17">
-        <v>78725</v>
+        <v>78730</v>
       </c>
       <c r="C78" s="18">
         <v>44503</v>
       </c>
-      <c r="D78" s="19">
-        <v>10</v>
+      <c r="D78" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="E78" s="20" t="s">
         <v>22</v>
@@ -5078,13 +5110,13 @@
     <row r="79" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="13"/>
       <c r="B79" s="17">
-        <v>78724</v>
+        <v>78729</v>
       </c>
       <c r="C79" s="18">
         <v>44503</v>
       </c>
-      <c r="D79" s="19">
-        <v>50</v>
+      <c r="D79" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="E79" s="20" t="s">
         <v>23</v>
@@ -5111,7 +5143,7 @@
     <row r="80" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="13"/>
       <c r="B80" s="17">
-        <v>78723</v>
+        <v>78728</v>
       </c>
       <c r="C80" s="18">
         <v>44503</v>
@@ -5144,13 +5176,13 @@
     <row r="81" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="13"/>
       <c r="B81" s="17">
-        <v>78722</v>
+        <v>78727</v>
       </c>
       <c r="C81" s="18">
         <v>44503</v>
       </c>
-      <c r="D81" s="19" t="s">
-        <v>11</v>
+      <c r="D81" s="19">
+        <v>50</v>
       </c>
       <c r="E81" s="20" t="s">
         <v>22</v>
@@ -5177,13 +5209,13 @@
     <row r="82" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="13"/>
       <c r="B82" s="17">
-        <v>78721</v>
+        <v>78726</v>
       </c>
       <c r="C82" s="18">
         <v>44503</v>
       </c>
       <c r="D82" s="19">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E82" s="20" t="s">
         <v>22</v>
@@ -5210,16 +5242,16 @@
     <row r="83" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="13"/>
       <c r="B83" s="17">
-        <v>78720</v>
+        <v>78725</v>
       </c>
       <c r="C83" s="18">
         <v>44503</v>
       </c>
       <c r="D83" s="19">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F83" s="21" t="s">
         <v>60</v>
@@ -5243,55 +5275,55 @@
     <row r="84" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="13"/>
       <c r="B84" s="17">
-        <v>78719</v>
+        <v>78724</v>
       </c>
       <c r="C84" s="18">
-        <v>44502</v>
-      </c>
-      <c r="D84" s="19" t="s">
-        <v>44</v>
+        <v>44503</v>
+      </c>
+      <c r="D84" s="19">
+        <v>50</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F84" s="21" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G84" s="27" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I84" s="23">
-        <v>44493</v>
+        <v>65</v>
+      </c>
+      <c r="I84" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="J84" s="24"/>
       <c r="K84" s="27"/>
       <c r="L84" s="25" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M84" s="26"/>
     </row>
     <row r="85" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="13"/>
       <c r="B85" s="17">
-        <v>78718</v>
+        <v>78723</v>
       </c>
       <c r="C85" s="18">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D85" s="19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E85" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="H85" s="22" t="s">
         <v>65</v>
@@ -5302,29 +5334,29 @@
       <c r="J85" s="24"/>
       <c r="K85" s="27"/>
       <c r="L85" s="25" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M85" s="26"/>
     </row>
     <row r="86" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="13"/>
       <c r="B86" s="17">
-        <v>78717</v>
+        <v>78722</v>
       </c>
       <c r="C86" s="18">
-        <v>44502</v>
-      </c>
-      <c r="D86" s="19">
-        <v>30</v>
+        <v>44503</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="E86" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G86" s="27" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H86" s="22" t="s">
         <v>65</v>
@@ -5335,29 +5367,29 @@
       <c r="J86" s="24"/>
       <c r="K86" s="27"/>
       <c r="L86" s="25" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M86" s="26"/>
     </row>
     <row r="87" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="13"/>
       <c r="B87" s="17">
-        <v>78716</v>
+        <v>78721</v>
       </c>
       <c r="C87" s="18">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D87" s="19">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G87" s="27" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="H87" s="22" t="s">
         <v>65</v>
@@ -5368,70 +5400,68 @@
       <c r="J87" s="24"/>
       <c r="K87" s="27"/>
       <c r="L87" s="25" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M87" s="26"/>
     </row>
     <row r="88" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="13"/>
       <c r="B88" s="17">
-        <v>78715</v>
+        <v>78720</v>
       </c>
       <c r="C88" s="18">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D88" s="19">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G88" s="27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H88" s="22" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I88" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="J88" s="24" t="s">
-        <v>66</v>
-      </c>
+      <c r="J88" s="24"/>
       <c r="K88" s="27"/>
-      <c r="L88" s="25"/>
-      <c r="M88" s="26" t="s">
-        <v>67</v>
-      </c>
+      <c r="L88" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="M88" s="26"/>
     </row>
     <row r="89" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="13"/>
       <c r="B89" s="17">
-        <v>78714</v>
+        <v>78719</v>
       </c>
       <c r="C89" s="18">
         <v>44502</v>
       </c>
-      <c r="D89" s="19">
-        <v>40</v>
+      <c r="D89" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="E89" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="G89" s="27" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I89" s="23" t="s">
-        <v>65</v>
+        <v>9</v>
+      </c>
+      <c r="I89" s="23">
+        <v>44493</v>
       </c>
       <c r="J89" s="24"/>
       <c r="K89" s="27"/>
@@ -5443,22 +5473,22 @@
     <row r="90" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="13"/>
       <c r="B90" s="17">
-        <v>78713</v>
+        <v>78718</v>
       </c>
       <c r="C90" s="18">
         <v>44502</v>
       </c>
       <c r="D90" s="19">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E90" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G90" s="27" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="H90" s="22" t="s">
         <v>65</v>
@@ -5476,22 +5506,22 @@
     <row r="91" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="13"/>
       <c r="B91" s="17">
-        <v>78712</v>
+        <v>78717</v>
       </c>
       <c r="C91" s="18">
         <v>44502</v>
       </c>
       <c r="D91" s="19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E91" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G91" s="27" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="H91" s="22" t="s">
         <v>65</v>
@@ -5509,7 +5539,7 @@
     <row r="92" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="13"/>
       <c r="B92" s="17">
-        <v>78711</v>
+        <v>78716</v>
       </c>
       <c r="C92" s="18">
         <v>44502</v>
@@ -5518,13 +5548,13 @@
         <v>30</v>
       </c>
       <c r="E92" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F92" s="21" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G92" s="27" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="H92" s="22" t="s">
         <v>65</v>
@@ -5542,49 +5572,51 @@
     <row r="93" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="13"/>
       <c r="B93" s="17">
-        <v>78710</v>
+        <v>78715</v>
       </c>
       <c r="C93" s="18">
         <v>44502</v>
       </c>
       <c r="D93" s="19">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F93" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G93" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H93" s="22" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="I93" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="J93" s="24"/>
+      <c r="J93" s="24" t="s">
+        <v>66</v>
+      </c>
       <c r="K93" s="27"/>
-      <c r="L93" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="M93" s="26"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="26" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="94" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="13"/>
       <c r="B94" s="17">
-        <v>78709</v>
+        <v>78714</v>
       </c>
       <c r="C94" s="18">
         <v>44502</v>
       </c>
       <c r="D94" s="19">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E94" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F94" s="21" t="s">
         <v>64</v>
@@ -5608,68 +5640,233 @@
     <row r="95" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="13"/>
       <c r="B95" s="17">
-        <v>78708</v>
+        <v>78713</v>
       </c>
       <c r="C95" s="18">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="D95" s="19">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="F95" s="21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G95" s="27" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H95" s="22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I95" s="23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J95" s="24"/>
       <c r="K95" s="27"/>
       <c r="L95" s="25" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M95" s="26"/>
     </row>
     <row r="96" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="13"/>
       <c r="B96" s="17">
-        <v>78707</v>
+        <v>78712</v>
       </c>
       <c r="C96" s="18">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="D96" s="19">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G96" s="27" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I96" s="23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J96" s="24"/>
       <c r="K96" s="27"/>
       <c r="L96" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M96" s="26"/>
+    </row>
+    <row r="97" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="13"/>
+      <c r="B97" s="17">
+        <v>78711</v>
+      </c>
+      <c r="C97" s="18">
+        <v>44502</v>
+      </c>
+      <c r="D97" s="19">
+        <v>30</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G97" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H97" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I97" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J97" s="24"/>
+      <c r="K97" s="27"/>
+      <c r="L97" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M97" s="26"/>
+    </row>
+    <row r="98" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="13"/>
+      <c r="B98" s="17">
+        <v>78710</v>
+      </c>
+      <c r="C98" s="18">
+        <v>44502</v>
+      </c>
+      <c r="D98" s="19">
+        <v>70</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G98" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H98" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I98" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J98" s="24"/>
+      <c r="K98" s="27"/>
+      <c r="L98" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M98" s="26"/>
+    </row>
+    <row r="99" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="13"/>
+      <c r="B99" s="17">
+        <v>78709</v>
+      </c>
+      <c r="C99" s="18">
+        <v>44502</v>
+      </c>
+      <c r="D99" s="19">
+        <v>10</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G99" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H99" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I99" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J99" s="24"/>
+      <c r="K99" s="27"/>
+      <c r="L99" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M99" s="26"/>
+    </row>
+    <row r="100" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="13"/>
+      <c r="B100" s="17">
+        <v>78708</v>
+      </c>
+      <c r="C100" s="18">
+        <v>44501</v>
+      </c>
+      <c r="D100" s="19">
+        <v>30</v>
+      </c>
+      <c r="E100" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G100" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H100" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I100" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J100" s="24"/>
+      <c r="K100" s="27"/>
+      <c r="L100" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="M96" s="26"/>
+      <c r="M100" s="26"/>
+    </row>
+    <row r="101" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="13"/>
+      <c r="B101" s="17">
+        <v>78707</v>
+      </c>
+      <c r="C101" s="18">
+        <v>44501</v>
+      </c>
+      <c r="D101" s="19">
+        <v>80</v>
+      </c>
+      <c r="E101" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F101" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G101" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H101" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I101" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J101" s="24"/>
+      <c r="K101" s="27"/>
+      <c r="L101" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="M101" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/corona-kanjajokyou.xlsx
+++ b/corona-kanjajokyou.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Lb16z0190\広報戦略\11Twitter対応について\98 コロナ(毎日の発生状況)\HP作業用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0727F91-A721-437D-A358-90DBA5458E1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A09632F-577C-45A9-AB9B-FFCA1FFD520C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$117</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$132</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,11 +28,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="108">
   <si>
     <t>非公表</t>
   </si>
   <si>
+    <t>赤穂</t>
+  </si>
+  <si>
+    <t>赤穂健康福祉事務所管内</t>
+  </si>
+  <si>
     <t>症状なし</t>
   </si>
   <si>
@@ -45,6 +51,9 @@
     <t>龍野健康福祉事務所管内</t>
   </si>
   <si>
+    <t>学生</t>
+  </si>
+  <si>
     <t>無職</t>
   </si>
   <si>
@@ -112,6 +121,12 @@
   </si>
   <si>
     <t>陽性患者の濃厚接触者</t>
+  </si>
+  <si>
+    <t>丹波</t>
+  </si>
+  <si>
+    <t>丹波健康福祉事務所管内</t>
   </si>
   <si>
     <t>児童</t>
@@ -192,6 +207,9 @@
   </si>
   <si>
     <t>80</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
   <si>
     <t>40</t>
@@ -240,6 +258,9 @@
       <t>ニシノミヤ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>猪名川町</t>
   </si>
   <si>
     <t>10歳未満</t>
@@ -505,8 +526,45 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>令和2年3月1日以降の総数 78,568件 ※欠番250件（医療機関での発生届の取り下げ等）</t>
+    <t>大阪市</t>
+    <rPh sb="0" eb="2">
+      <t>オオサカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>感染者と接触歴あり</t>
+    <rPh sb="0" eb="3">
+      <t>カンセンシャ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>セッショクレキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>欠番</t>
+    <rPh sb="0" eb="2">
+      <t>ケツバン</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>令和2年3月1日以降の総数 78,582件 ※欠番251件（医療機関での発生届の取り下げ等）</t>
   </si>
 </sst>
 </file>
@@ -2521,13 +2579,13 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1:S1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2550,7 +2608,7 @@
     <row r="1" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2561,11 +2619,11 @@
       <c r="I1" s="3"/>
       <c r="J1" s="31">
         <f ca="1">TODAY()-1</f>
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="K1" s="31"/>
       <c r="L1" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="3"/>
@@ -2600,43 +2658,43 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K4" s="43"/>
       <c r="L4" s="44"/>
       <c r="M4" s="29" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N4" s="13"/>
     </row>
@@ -2651,3376 +2709,3372 @@
       <c r="H5" s="38"/>
       <c r="I5" s="41"/>
       <c r="J5" s="15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M5" s="30"/>
     </row>
     <row r="6" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="18">
-        <v>78818</v>
+        <v>78833</v>
       </c>
       <c r="C6" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="24">
-        <v>44508</v>
+        <v>0</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K6" s="28"/>
       <c r="L6" s="26"/>
       <c r="M6" s="27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="18">
-        <v>78817</v>
+        <v>78832</v>
       </c>
       <c r="C7" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I7" s="24">
-        <v>44505</v>
+        <v>44508</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="28"/>
       <c r="L7" s="26" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
       <c r="B8" s="18">
-        <v>78816</v>
+        <v>78831</v>
       </c>
       <c r="C8" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I8" s="24">
-        <v>44505</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>60</v>
-      </c>
+        <v>44508</v>
+      </c>
+      <c r="J8" s="25"/>
       <c r="K8" s="28"/>
-      <c r="L8" s="26"/>
+      <c r="L8" s="26" t="s">
+        <v>105</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="18">
-        <v>78815</v>
+        <v>78830</v>
       </c>
       <c r="C9" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I9" s="24">
-        <v>44505</v>
+        <v>44508</v>
       </c>
       <c r="J9" s="25"/>
       <c r="K9" s="28"/>
       <c r="L9" s="26" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="18">
-        <v>78814</v>
+        <v>78829</v>
       </c>
       <c r="C10" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D10" s="20">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J10" s="25"/>
       <c r="K10" s="28"/>
       <c r="L10" s="26" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="18">
-        <v>78813</v>
+        <v>78828</v>
       </c>
       <c r="C11" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D11" s="20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J11" s="25"/>
       <c r="K11" s="28"/>
       <c r="L11" s="26" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="18">
-        <v>78812</v>
+        <v>78827</v>
       </c>
       <c r="C12" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D12" s="20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J12" s="25"/>
       <c r="K12" s="28"/>
       <c r="L12" s="26" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="18">
-        <v>78811</v>
+        <v>78826</v>
       </c>
       <c r="C13" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D13" s="20">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K13" s="28"/>
       <c r="L13" s="26"/>
       <c r="M13" s="27" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="18">
-        <v>78810</v>
+        <v>78825</v>
       </c>
       <c r="C14" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D14" s="20">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K14" s="28"/>
       <c r="L14" s="26"/>
       <c r="M14" s="27" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="18">
-        <v>78809</v>
+        <v>78824</v>
       </c>
       <c r="C15" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D15" s="20">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J15" s="25"/>
       <c r="K15" s="28"/>
       <c r="L15" s="26" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="18">
-        <v>78808</v>
+        <v>78823</v>
       </c>
       <c r="C16" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D16" s="20">
         <v>20</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J16" s="25"/>
       <c r="K16" s="28"/>
       <c r="L16" s="26" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="18">
-        <v>78807</v>
+        <v>78822</v>
       </c>
       <c r="C17" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D17" s="20">
         <v>20</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J17" s="25"/>
       <c r="K17" s="28"/>
       <c r="L17" s="26" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="M17" s="27"/>
     </row>
     <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="18">
-        <v>78806</v>
+        <v>78821</v>
       </c>
       <c r="C18" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D18" s="20">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J18" s="25"/>
       <c r="K18" s="28"/>
       <c r="L18" s="26" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="18">
-        <v>78805</v>
+        <v>78820</v>
       </c>
       <c r="C19" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D19" s="20">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J19" s="25"/>
       <c r="K19" s="28"/>
       <c r="L19" s="26" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="M19" s="27"/>
     </row>
     <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="18">
-        <v>78804</v>
+        <v>78819</v>
       </c>
       <c r="C20" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D20" s="20">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J20" s="25"/>
       <c r="K20" s="28"/>
       <c r="L20" s="26" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="18">
-        <v>78803</v>
+        <v>78818</v>
       </c>
       <c r="C21" s="19">
         <v>44509</v>
       </c>
-      <c r="D21" s="20">
-        <v>80</v>
+      <c r="D21" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="I21" s="24">
+        <v>44508</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K21" s="28"/>
-      <c r="L21" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M21" s="27"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="18">
-        <v>78802</v>
+        <v>78817</v>
       </c>
       <c r="C22" s="19">
-        <v>44508</v>
-      </c>
-      <c r="D22" s="20">
-        <v>60</v>
+        <v>44509</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>93</v>
+        <v>21</v>
+      </c>
+      <c r="I22" s="24">
+        <v>44505</v>
       </c>
       <c r="J22" s="25"/>
       <c r="K22" s="28"/>
       <c r="L22" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M22" s="27"/>
+        <v>67</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="18">
-        <v>78801</v>
+        <v>78816</v>
       </c>
       <c r="C23" s="19">
-        <v>44508</v>
-      </c>
-      <c r="D23" s="20">
-        <v>20</v>
+        <v>44509</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="J23" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="I23" s="24">
+        <v>44505</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K23" s="28"/>
-      <c r="L23" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M23" s="27"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="18">
-        <v>78800</v>
+        <v>78815</v>
       </c>
       <c r="C24" s="19">
-        <v>44508</v>
-      </c>
-      <c r="D24" s="20">
-        <v>50</v>
+        <v>44509</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>93</v>
+        <v>9</v>
+      </c>
+      <c r="I24" s="24">
+        <v>44505</v>
       </c>
       <c r="J24" s="25"/>
       <c r="K24" s="28"/>
       <c r="L24" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M24" s="27"/>
+        <v>67</v>
+      </c>
+      <c r="M24" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="18">
-        <v>78799</v>
+        <v>78814</v>
       </c>
       <c r="C25" s="19">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="D25" s="20">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="J25" s="25"/>
       <c r="K25" s="28"/>
       <c r="L25" s="26" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="M25" s="27"/>
     </row>
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="18">
-        <v>78798</v>
+        <v>78813</v>
       </c>
       <c r="C26" s="19">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="D26" s="20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="J26" s="25"/>
       <c r="K26" s="28"/>
       <c r="L26" s="26" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="M26" s="27"/>
     </row>
     <row r="27" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="18">
-        <v>78797</v>
+        <v>78812</v>
       </c>
       <c r="C27" s="19">
-        <v>44507</v>
+        <v>44509</v>
       </c>
       <c r="D27" s="20">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J27" s="25" t="s">
-        <v>60</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J27" s="25"/>
       <c r="K27" s="28"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="27" t="s">
-        <v>86</v>
-      </c>
+      <c r="L27" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M27" s="27"/>
     </row>
     <row r="28" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="18">
-        <v>78796</v>
+        <v>78811</v>
       </c>
       <c r="C28" s="19">
-        <v>44507</v>
+        <v>44509</v>
       </c>
       <c r="D28" s="20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J28" s="25"/>
+        <v>73</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K28" s="28"/>
-      <c r="L28" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M28" s="27"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="18">
-        <v>78795</v>
+        <v>78810</v>
       </c>
       <c r="C29" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>48</v>
+        <v>44509</v>
+      </c>
+      <c r="D29" s="20">
+        <v>20</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J29" s="25"/>
+        <v>61</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K29" s="28"/>
-      <c r="L29" s="26" t="s">
-        <v>87</v>
-      </c>
+      <c r="L29" s="26"/>
       <c r="M29" s="27" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
       <c r="B30" s="18">
-        <v>78794</v>
+        <v>78809</v>
       </c>
       <c r="C30" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>11</v>
+        <v>44509</v>
+      </c>
+      <c r="D30" s="20">
+        <v>20</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="I30" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J30" s="25" t="s">
-        <v>87</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J30" s="25"/>
       <c r="K30" s="28"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="L30" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30" s="27"/>
     </row>
     <row r="31" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
       <c r="B31" s="18">
-        <v>78793</v>
+        <v>78808</v>
       </c>
       <c r="C31" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>11</v>
+        <v>44509</v>
+      </c>
+      <c r="D31" s="20">
+        <v>20</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="24">
-        <v>44501</v>
-      </c>
-      <c r="J31" s="25" t="s">
-        <v>87</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J31" s="25"/>
       <c r="K31" s="28"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="L31" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M31" s="27"/>
     </row>
     <row r="32" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="18">
-        <v>78792</v>
+        <v>78807</v>
       </c>
       <c r="C32" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>50</v>
+        <v>44509</v>
+      </c>
+      <c r="D32" s="20">
+        <v>20</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="24">
-        <v>44505</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>87</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32" s="25"/>
       <c r="K32" s="28"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="L32" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M32" s="27"/>
     </row>
     <row r="33" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="18">
-        <v>78791</v>
+        <v>78806</v>
       </c>
       <c r="C33" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>50</v>
+        <v>44509</v>
+      </c>
+      <c r="D33" s="20">
+        <v>40</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="J33" s="25" t="s">
-        <v>87</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J33" s="25"/>
       <c r="K33" s="28"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="L33" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M33" s="27"/>
     </row>
     <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="18">
-        <v>78790</v>
+        <v>78805</v>
       </c>
       <c r="C34" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>11</v>
+        <v>44509</v>
+      </c>
+      <c r="D34" s="20">
+        <v>60</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>87</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J34" s="25"/>
       <c r="K34" s="28"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="L34" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M34" s="27"/>
     </row>
     <row r="35" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="18">
-        <v>78789</v>
+        <v>78804</v>
       </c>
       <c r="C35" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>11</v>
+        <v>44509</v>
+      </c>
+      <c r="D35" s="20">
+        <v>10</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="J35" s="25" t="s">
-        <v>87</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J35" s="25"/>
       <c r="K35" s="28"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="L35" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M35" s="27"/>
     </row>
     <row r="36" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
       <c r="B36" s="18">
-        <v>78788</v>
-      </c>
-      <c r="C36" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J36" s="25" t="s">
-        <v>87</v>
-      </c>
+        <v>78803</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="25"/>
       <c r="K36" s="28"/>
       <c r="L36" s="26"/>
-      <c r="M36" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="M36" s="27"/>
     </row>
     <row r="37" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="14"/>
       <c r="B37" s="18">
-        <v>78787</v>
+        <v>78802</v>
       </c>
       <c r="C37" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>48</v>
+        <v>44508</v>
+      </c>
+      <c r="D37" s="20">
+        <v>60</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="24">
-        <v>44502</v>
+        <v>100</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="J37" s="25"/>
       <c r="K37" s="28"/>
       <c r="L37" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="M37" s="27" t="s">
-        <v>2</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M37" s="27"/>
     </row>
     <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="14"/>
       <c r="B38" s="18">
-        <v>78786</v>
+        <v>78801</v>
       </c>
       <c r="C38" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>50</v>
+        <v>44508</v>
+      </c>
+      <c r="D38" s="20">
+        <v>20</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" s="24">
-        <v>44503</v>
+        <v>100</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="J38" s="25"/>
       <c r="K38" s="28"/>
       <c r="L38" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="M38" s="27" t="s">
-        <v>2</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M38" s="27"/>
     </row>
     <row r="39" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="14"/>
       <c r="B39" s="18">
-        <v>78785</v>
+        <v>78800</v>
       </c>
       <c r="C39" s="19">
-        <v>44506</v>
+        <v>44508</v>
       </c>
       <c r="D39" s="20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="I39" s="24">
-        <v>44503</v>
+        <v>100</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="J39" s="25"/>
       <c r="K39" s="28"/>
       <c r="L39" s="26" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="M39" s="27"/>
     </row>
     <row r="40" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
       <c r="B40" s="18">
-        <v>78784</v>
+        <v>78799</v>
       </c>
       <c r="C40" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>58</v>
+        <v>44508</v>
+      </c>
+      <c r="D40" s="20">
+        <v>80</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="J40" s="25"/>
       <c r="K40" s="28"/>
       <c r="L40" s="26" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="M40" s="27"/>
     </row>
     <row r="41" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="14"/>
       <c r="B41" s="18">
-        <v>78783</v>
+        <v>78798</v>
       </c>
       <c r="C41" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>58</v>
+        <v>44508</v>
+      </c>
+      <c r="D41" s="20">
+        <v>30</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="J41" s="25" t="s">
-        <v>87</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="J41" s="25"/>
       <c r="K41" s="28"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="27" t="s">
-        <v>85</v>
-      </c>
+      <c r="L41" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="M41" s="27"/>
     </row>
     <row r="42" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="14"/>
       <c r="B42" s="18">
-        <v>78782</v>
+        <v>78797</v>
       </c>
       <c r="C42" s="19">
-        <v>44506</v>
+        <v>44507</v>
       </c>
       <c r="D42" s="20">
         <v>10</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="K42" s="28"/>
       <c r="L42" s="26"/>
       <c r="M42" s="27" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="14"/>
       <c r="B43" s="18">
-        <v>78781</v>
+        <v>78796</v>
       </c>
       <c r="C43" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>58</v>
+        <v>44507</v>
+      </c>
+      <c r="D43" s="20">
+        <v>50</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="J43" s="25" t="s">
-        <v>87</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J43" s="25"/>
       <c r="K43" s="28"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="27" t="s">
-        <v>85</v>
-      </c>
+      <c r="L43" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M43" s="27"/>
     </row>
     <row r="44" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="14"/>
       <c r="B44" s="18">
-        <v>78780</v>
+        <v>78795</v>
       </c>
       <c r="C44" s="19">
         <v>44506</v>
       </c>
-      <c r="D44" s="20">
-        <v>20</v>
+      <c r="D44" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="I44" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="J44" s="25" t="s">
-        <v>87</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I44" s="24">
+        <v>44502</v>
+      </c>
+      <c r="J44" s="25"/>
       <c r="K44" s="28"/>
-      <c r="L44" s="26"/>
+      <c r="L44" s="26" t="s">
+        <v>94</v>
+      </c>
       <c r="M44" s="27" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="14"/>
       <c r="B45" s="18">
-        <v>78779</v>
+        <v>78794</v>
       </c>
       <c r="C45" s="19">
         <v>44506</v>
       </c>
-      <c r="D45" s="20">
-        <v>80</v>
+      <c r="D45" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I45" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="J45" s="25"/>
+        <v>66</v>
+      </c>
+      <c r="I45" s="24">
+        <v>44502</v>
+      </c>
+      <c r="J45" s="25" t="s">
+        <v>94</v>
+      </c>
       <c r="K45" s="28"/>
-      <c r="L45" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="M45" s="27"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="46" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="14"/>
       <c r="B46" s="18">
-        <v>78778</v>
+        <v>78793</v>
       </c>
       <c r="C46" s="19">
         <v>44506</v>
       </c>
-      <c r="D46" s="20">
-        <v>20</v>
+      <c r="D46" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I46" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="J46" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="I46" s="24">
+        <v>44501</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>94</v>
+      </c>
       <c r="K46" s="28"/>
-      <c r="L46" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="M46" s="27"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="47" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="14"/>
       <c r="B47" s="18">
-        <v>78777</v>
+        <v>78792</v>
       </c>
       <c r="C47" s="19">
         <v>44506</v>
       </c>
       <c r="D47" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G47" s="28" t="s">
-        <v>83</v>
-      </c>
       <c r="H47" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I47" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="J47" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="24">
+        <v>44505</v>
+      </c>
+      <c r="J47" s="25" t="s">
+        <v>94</v>
+      </c>
       <c r="K47" s="28"/>
-      <c r="L47" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="M47" s="27"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="48" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
       <c r="B48" s="18">
-        <v>78776</v>
+        <v>78791</v>
       </c>
       <c r="C48" s="19">
         <v>44506</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="K48" s="28"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G48" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="H48" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I48" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="J48" s="25"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="M48" s="27"/>
     </row>
     <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="14"/>
       <c r="B49" s="18">
-        <v>78775</v>
+        <v>78790</v>
       </c>
       <c r="C49" s="19">
         <v>44506</v>
       </c>
-      <c r="D49" s="20">
-        <v>60</v>
+      <c r="D49" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="J49" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="J49" s="25" t="s">
+        <v>94</v>
+      </c>
       <c r="K49" s="28"/>
-      <c r="L49" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="M49" s="27"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="50" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="14"/>
       <c r="B50" s="18">
-        <v>78774</v>
+        <v>78789</v>
       </c>
       <c r="C50" s="19">
         <v>44506</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="K50" s="28"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="H50" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I50" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="J50" s="25"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="M50" s="27"/>
     </row>
     <row r="51" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="14"/>
       <c r="B51" s="18">
-        <v>78773</v>
+        <v>78788</v>
       </c>
       <c r="C51" s="19">
         <v>44506</v>
       </c>
-      <c r="D51" s="20">
-        <v>40</v>
+      <c r="D51" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I51" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="J51" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="24">
+        <v>44502</v>
+      </c>
+      <c r="J51" s="25" t="s">
+        <v>94</v>
+      </c>
       <c r="K51" s="28"/>
-      <c r="L51" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="M51" s="27"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="52" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="14"/>
       <c r="B52" s="18">
-        <v>78772</v>
+        <v>78787</v>
       </c>
       <c r="C52" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I52" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="J52" s="25" t="s">
-        <v>60</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I52" s="24">
+        <v>44502</v>
+      </c>
+      <c r="J52" s="25"/>
       <c r="K52" s="28"/>
-      <c r="L52" s="26"/>
+      <c r="L52" s="26" t="s">
+        <v>94</v>
+      </c>
       <c r="M52" s="27" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="14"/>
       <c r="B53" s="18">
-        <v>78771</v>
+        <v>78786</v>
       </c>
       <c r="C53" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E53" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>4</v>
-      </c>
       <c r="H53" s="23" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I53" s="24">
-        <v>44501</v>
+        <v>44503</v>
       </c>
       <c r="J53" s="25"/>
       <c r="K53" s="28"/>
       <c r="L53" s="26" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M53" s="27" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="14"/>
       <c r="B54" s="18">
-        <v>78770</v>
+        <v>78785</v>
       </c>
       <c r="C54" s="19">
-        <v>44505</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>45</v>
+        <v>44506</v>
+      </c>
+      <c r="D54" s="20">
+        <v>30</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="I54" s="24">
-        <v>44504</v>
+        <v>44503</v>
       </c>
       <c r="J54" s="25"/>
       <c r="K54" s="28"/>
       <c r="L54" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M54" s="27" t="s">
-        <v>2</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M54" s="27"/>
     </row>
     <row r="55" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="14"/>
       <c r="B55" s="18">
-        <v>78769</v>
+        <v>78784</v>
       </c>
       <c r="C55" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="I55" s="24">
-        <v>44500</v>
+        <v>90</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="J55" s="25"/>
       <c r="K55" s="28"/>
       <c r="L55" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M55" s="27" t="s">
-        <v>2</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M55" s="27"/>
     </row>
     <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="14"/>
       <c r="B56" s="18">
-        <v>78768</v>
+        <v>78783</v>
       </c>
       <c r="C56" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I56" s="24">
-        <v>44498</v>
+        <v>90</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="J56" s="25" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="K56" s="28"/>
       <c r="L56" s="26"/>
       <c r="M56" s="27" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="14"/>
       <c r="B57" s="18">
-        <v>78767</v>
+        <v>78782</v>
       </c>
       <c r="C57" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D57" s="20">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="G57" s="28" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J57" s="25"/>
+        <v>90</v>
+      </c>
+      <c r="J57" s="25" t="s">
+        <v>94</v>
+      </c>
       <c r="K57" s="28"/>
-      <c r="L57" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M57" s="27"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="27" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="58" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="14"/>
       <c r="B58" s="18">
-        <v>78766</v>
+        <v>78781</v>
       </c>
       <c r="C58" s="19">
-        <v>44505</v>
-      </c>
-      <c r="D58" s="20">
-        <v>10</v>
+        <v>44506</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G58" s="28" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J58" s="25"/>
+        <v>90</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>94</v>
+      </c>
       <c r="K58" s="28"/>
-      <c r="L58" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M58" s="27"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="27" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="59" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="14"/>
       <c r="B59" s="18">
-        <v>78765</v>
+        <v>78780</v>
       </c>
       <c r="C59" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D59" s="20">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="I59" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J59" s="25"/>
+        <v>90</v>
+      </c>
+      <c r="J59" s="25" t="s">
+        <v>94</v>
+      </c>
       <c r="K59" s="28"/>
-      <c r="L59" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M59" s="27"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="27" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="60" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="14"/>
       <c r="B60" s="18">
-        <v>78764</v>
+        <v>78779</v>
       </c>
       <c r="C60" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D60" s="20">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="J60" s="25"/>
       <c r="K60" s="28"/>
       <c r="L60" s="26" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M60" s="27"/>
     </row>
     <row r="61" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="14"/>
       <c r="B61" s="18">
-        <v>78763</v>
+        <v>78778</v>
       </c>
       <c r="C61" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D61" s="20">
         <v>20</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="I61" s="24" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="J61" s="25"/>
       <c r="K61" s="28"/>
       <c r="L61" s="26" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M61" s="27"/>
     </row>
     <row r="62" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="14"/>
       <c r="B62" s="18">
-        <v>78762</v>
+        <v>78777</v>
       </c>
       <c r="C62" s="19">
-        <v>44505</v>
-      </c>
-      <c r="D62" s="20">
-        <v>20</v>
+        <v>44506</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="I62" s="24" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="J62" s="25"/>
       <c r="K62" s="28"/>
       <c r="L62" s="26" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M62" s="27"/>
     </row>
     <row r="63" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="14"/>
       <c r="B63" s="18">
-        <v>78761</v>
+        <v>78776</v>
       </c>
       <c r="C63" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D63" s="20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="J63" s="25"/>
       <c r="K63" s="28"/>
       <c r="L63" s="26" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M63" s="27"/>
     </row>
     <row r="64" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="14"/>
       <c r="B64" s="18">
-        <v>78760</v>
+        <v>78775</v>
       </c>
       <c r="C64" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D64" s="20">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="I64" s="24" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="J64" s="25"/>
       <c r="K64" s="28"/>
       <c r="L64" s="26" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M64" s="27"/>
     </row>
     <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="14"/>
       <c r="B65" s="18">
-        <v>78759</v>
+        <v>78774</v>
       </c>
       <c r="C65" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D65" s="20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="J65" s="25"/>
       <c r="K65" s="28"/>
       <c r="L65" s="26" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M65" s="27"/>
     </row>
     <row r="66" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="14"/>
       <c r="B66" s="18">
-        <v>78758</v>
+        <v>78773</v>
       </c>
       <c r="C66" s="19">
-        <v>44505</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>11</v>
+        <v>44506</v>
+      </c>
+      <c r="D66" s="20">
+        <v>40</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="G66" s="28" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="J66" s="25"/>
       <c r="K66" s="28"/>
       <c r="L66" s="26" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M66" s="27"/>
     </row>
     <row r="67" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="14"/>
       <c r="B67" s="18">
-        <v>78757</v>
+        <v>78772</v>
       </c>
       <c r="C67" s="19">
         <v>44505</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J67" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K67" s="28"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E67" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F67" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G67" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H67" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I67" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J67" s="25"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M67" s="27"/>
     </row>
     <row r="68" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="14"/>
       <c r="B68" s="18">
-        <v>78756</v>
+        <v>78771</v>
       </c>
       <c r="C68" s="19">
         <v>44505</v>
       </c>
-      <c r="D68" s="20">
-        <v>20</v>
+      <c r="D68" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="H68" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I68" s="24" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="I68" s="24">
+        <v>44501</v>
       </c>
       <c r="J68" s="25"/>
       <c r="K68" s="28"/>
       <c r="L68" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M68" s="27"/>
+        <v>67</v>
+      </c>
+      <c r="M68" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="69" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="14"/>
       <c r="B69" s="18">
-        <v>78755</v>
+        <v>78770</v>
       </c>
       <c r="C69" s="19">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>50</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H69" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I69" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="J69" s="25" t="s">
-        <v>60</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I69" s="24">
+        <v>44504</v>
+      </c>
+      <c r="J69" s="25"/>
       <c r="K69" s="28"/>
-      <c r="L69" s="26"/>
+      <c r="L69" s="26" t="s">
+        <v>67</v>
+      </c>
       <c r="M69" s="27" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="14"/>
       <c r="B70" s="18">
-        <v>78754</v>
+        <v>78769</v>
       </c>
       <c r="C70" s="19">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H70" s="23" t="s">
         <v>9</v>
       </c>
       <c r="I70" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J70" s="25" t="s">
-        <v>60</v>
-      </c>
+        <v>44500</v>
+      </c>
+      <c r="J70" s="25"/>
       <c r="K70" s="28"/>
-      <c r="L70" s="26"/>
+      <c r="L70" s="26" t="s">
+        <v>67</v>
+      </c>
       <c r="M70" s="27" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="14"/>
       <c r="B71" s="18">
-        <v>78753</v>
+        <v>78768</v>
       </c>
       <c r="C71" s="19">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I71" s="24">
-        <v>44501</v>
+        <v>44498</v>
       </c>
       <c r="J71" s="25" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K71" s="28"/>
       <c r="L71" s="26"/>
       <c r="M71" s="27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="14"/>
       <c r="B72" s="18">
-        <v>78752</v>
+        <v>78767</v>
       </c>
       <c r="C72" s="19">
-        <v>44504</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>45</v>
+        <v>44505</v>
+      </c>
+      <c r="D72" s="20">
+        <v>30</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="G72" s="28" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I72" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J72" s="25" t="s">
-        <v>60</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I72" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J72" s="25"/>
       <c r="K72" s="28"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="L72" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M72" s="27"/>
     </row>
     <row r="73" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="14"/>
       <c r="B73" s="18">
-        <v>78751</v>
+        <v>78766</v>
       </c>
       <c r="C73" s="19">
-        <v>44504</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>46</v>
+        <v>44505</v>
+      </c>
+      <c r="D73" s="20">
+        <v>10</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="H73" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I73" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J73" s="25" t="s">
-        <v>60</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I73" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J73" s="25"/>
       <c r="K73" s="28"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="L73" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M73" s="27"/>
     </row>
     <row r="74" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="14"/>
       <c r="B74" s="18">
-        <v>78750</v>
+        <v>78765</v>
       </c>
       <c r="C74" s="19">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D74" s="20">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H74" s="23" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I74" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J74" s="25"/>
       <c r="K74" s="28"/>
       <c r="L74" s="26" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M74" s="27"/>
     </row>
     <row r="75" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="14"/>
       <c r="B75" s="18">
-        <v>78749</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D75" s="20"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="24"/>
+        <v>78764</v>
+      </c>
+      <c r="C75" s="19">
+        <v>44505</v>
+      </c>
+      <c r="D75" s="20">
+        <v>20</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G75" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I75" s="24" t="s">
+        <v>73</v>
+      </c>
       <c r="J75" s="25"/>
       <c r="K75" s="28"/>
-      <c r="L75" s="26"/>
+      <c r="L75" s="26" t="s">
+        <v>67</v>
+      </c>
       <c r="M75" s="27"/>
     </row>
     <row r="76" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="14"/>
       <c r="B76" s="18">
-        <v>78748</v>
+        <v>78763</v>
       </c>
       <c r="C76" s="19">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D76" s="20">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G76" s="28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H76" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I76" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J76" s="25"/>
       <c r="K76" s="28"/>
       <c r="L76" s="26" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M76" s="27"/>
     </row>
     <row r="77" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="14"/>
       <c r="B77" s="18">
-        <v>78747</v>
+        <v>78762</v>
       </c>
       <c r="C77" s="19">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D77" s="20">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G77" s="28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H77" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J77" s="25"/>
       <c r="K77" s="28"/>
       <c r="L77" s="26" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M77" s="27"/>
     </row>
     <row r="78" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="14"/>
       <c r="B78" s="18">
-        <v>78746</v>
+        <v>78761</v>
       </c>
       <c r="C78" s="19">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D78" s="20">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G78" s="28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H78" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I78" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J78" s="25"/>
       <c r="K78" s="28"/>
       <c r="L78" s="26" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M78" s="27"/>
     </row>
     <row r="79" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="14"/>
       <c r="B79" s="18">
-        <v>78745</v>
+        <v>78760</v>
       </c>
       <c r="C79" s="19">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D79" s="20">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G79" s="28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H79" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I79" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J79" s="25"/>
       <c r="K79" s="28"/>
       <c r="L79" s="26" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M79" s="27"/>
     </row>
     <row r="80" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="14"/>
       <c r="B80" s="18">
-        <v>78744</v>
+        <v>78759</v>
       </c>
       <c r="C80" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>47</v>
+        <v>44505</v>
+      </c>
+      <c r="D80" s="20">
+        <v>20</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G80" s="28" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H80" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I80" s="24">
-        <v>44497</v>
+        <v>73</v>
+      </c>
+      <c r="I80" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="J80" s="25"/>
       <c r="K80" s="28"/>
       <c r="L80" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M80" s="27" t="s">
-        <v>2</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M80" s="27"/>
     </row>
     <row r="81" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="14"/>
       <c r="B81" s="18">
-        <v>78743</v>
+        <v>78758</v>
       </c>
       <c r="C81" s="19">
-        <v>44503</v>
+        <v>44505</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="G81" s="28" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="24">
-        <v>44497</v>
-      </c>
-      <c r="J81" s="25" t="s">
-        <v>60</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I81" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J81" s="25"/>
       <c r="K81" s="28"/>
-      <c r="L81" s="26"/>
-      <c r="M81" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="L81" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M81" s="27"/>
     </row>
     <row r="82" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="14"/>
       <c r="B82" s="18">
-        <v>78742</v>
+        <v>78757</v>
       </c>
       <c r="C82" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>46</v>
+        <v>44505</v>
+      </c>
+      <c r="D82" s="20">
+        <v>30</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="G82" s="28" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I82" s="24">
-        <v>44498</v>
-      </c>
-      <c r="J82" s="25" t="s">
-        <v>60</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I82" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J82" s="25"/>
       <c r="K82" s="28"/>
-      <c r="L82" s="26"/>
-      <c r="M82" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="L82" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M82" s="27"/>
     </row>
     <row r="83" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="14"/>
       <c r="B83" s="18">
-        <v>78741</v>
+        <v>78756</v>
       </c>
       <c r="C83" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>44</v>
+        <v>44505</v>
+      </c>
+      <c r="D83" s="20">
+        <v>20</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="G83" s="28" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I83" s="24">
-        <v>44501</v>
-      </c>
-      <c r="J83" s="25" t="s">
-        <v>60</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I83" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J83" s="25"/>
       <c r="K83" s="28"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="L83" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M83" s="27"/>
     </row>
     <row r="84" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="14"/>
       <c r="B84" s="18">
-        <v>78740</v>
+        <v>78755</v>
       </c>
       <c r="C84" s="19">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F84" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I84" s="24">
-        <v>44497</v>
+      <c r="I84" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="J84" s="25" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K84" s="28"/>
       <c r="L84" s="26"/>
       <c r="M84" s="27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="14"/>
       <c r="B85" s="18">
-        <v>78739</v>
+        <v>78754</v>
       </c>
       <c r="C85" s="19">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E85" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F85" s="22" t="s">
+      <c r="G85" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H85" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G85" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H85" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I85" s="24" t="s">
-        <v>1</v>
+      <c r="I85" s="24">
+        <v>44502</v>
       </c>
       <c r="J85" s="25" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K85" s="28"/>
       <c r="L85" s="26"/>
       <c r="M85" s="27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="14"/>
       <c r="B86" s="18">
-        <v>78738</v>
+        <v>78753</v>
       </c>
       <c r="C86" s="19">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E86" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F86" s="22" t="s">
-        <v>19</v>
-      </c>
       <c r="G86" s="28" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H86" s="23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I86" s="24">
-        <v>44500</v>
+        <v>44501</v>
       </c>
       <c r="J86" s="25" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K86" s="28"/>
       <c r="L86" s="26"/>
       <c r="M86" s="27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="14"/>
       <c r="B87" s="18">
-        <v>78737</v>
+        <v>78752</v>
       </c>
       <c r="C87" s="19">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F87" s="22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G87" s="28" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H87" s="23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I87" s="24">
-        <v>44499</v>
-      </c>
-      <c r="J87" s="25"/>
+        <v>44502</v>
+      </c>
+      <c r="J87" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K87" s="28"/>
-      <c r="L87" s="26" t="s">
-        <v>60</v>
-      </c>
+      <c r="L87" s="26"/>
       <c r="M87" s="27" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="14"/>
       <c r="B88" s="18">
-        <v>78736</v>
+        <v>78751</v>
       </c>
       <c r="C88" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D88" s="20">
-        <v>60</v>
+        <v>44504</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="E88" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F88" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F88" s="22" t="s">
-        <v>57</v>
-      </c>
       <c r="G88" s="28" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="H88" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I88" s="24" t="s">
-        <v>66</v>
+        <v>12</v>
+      </c>
+      <c r="I88" s="24">
+        <v>44502</v>
       </c>
       <c r="J88" s="25" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K88" s="28"/>
       <c r="L88" s="26"/>
       <c r="M88" s="27" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="14"/>
       <c r="B89" s="18">
-        <v>78735</v>
+        <v>78750</v>
       </c>
       <c r="C89" s="19">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="D89" s="20">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F89" s="22" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G89" s="28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H89" s="23" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="I89" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J89" s="25"/>
       <c r="K89" s="28"/>
       <c r="L89" s="26" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M89" s="27"/>
     </row>
     <row r="90" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="14"/>
       <c r="B90" s="18">
-        <v>78734</v>
-      </c>
-      <c r="C90" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D90" s="20">
-        <v>80</v>
-      </c>
-      <c r="E90" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F90" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G90" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="H90" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="I90" s="24" t="s">
-        <v>66</v>
-      </c>
+        <v>78749</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" s="20"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="24"/>
       <c r="J90" s="25"/>
       <c r="K90" s="28"/>
-      <c r="L90" s="26" t="s">
-        <v>60</v>
-      </c>
+      <c r="L90" s="26"/>
       <c r="M90" s="27"/>
     </row>
     <row r="91" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="14"/>
       <c r="B91" s="18">
-        <v>78733</v>
+        <v>78748</v>
       </c>
       <c r="C91" s="19">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="D91" s="20">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G91" s="28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H91" s="23" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="I91" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J91" s="25"/>
       <c r="K91" s="28"/>
       <c r="L91" s="26" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M91" s="27"/>
     </row>
     <row r="92" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="14"/>
       <c r="B92" s="18">
-        <v>78732</v>
+        <v>78747</v>
       </c>
       <c r="C92" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D92" s="20" t="s">
-        <v>11</v>
+        <v>44504</v>
+      </c>
+      <c r="D92" s="20">
+        <v>70</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G92" s="28" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H92" s="23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I92" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J92" s="25" t="s">
-        <v>60</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J92" s="25"/>
       <c r="K92" s="28"/>
-      <c r="L92" s="26"/>
-      <c r="M92" s="27" t="s">
-        <v>68</v>
-      </c>
+      <c r="L92" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M92" s="27"/>
     </row>
     <row r="93" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="14"/>
       <c r="B93" s="18">
-        <v>78731</v>
+        <v>78746</v>
       </c>
       <c r="C93" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D93" s="20" t="s">
-        <v>11</v>
+        <v>44504</v>
+      </c>
+      <c r="D93" s="20">
+        <v>60</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F93" s="22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G93" s="28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H93" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I93" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J93" s="25"/>
       <c r="K93" s="28"/>
       <c r="L93" s="26" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M93" s="27"/>
     </row>
     <row r="94" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="14"/>
       <c r="B94" s="18">
-        <v>78730</v>
+        <v>78745</v>
       </c>
       <c r="C94" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>11</v>
+        <v>44504</v>
+      </c>
+      <c r="D94" s="20">
+        <v>10</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F94" s="22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G94" s="28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H94" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I94" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J94" s="25"/>
       <c r="K94" s="28"/>
       <c r="L94" s="26" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M94" s="27"/>
     </row>
     <row r="95" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="14"/>
       <c r="B95" s="18">
-        <v>78729</v>
+        <v>78744</v>
       </c>
       <c r="C95" s="19">
         <v>44503</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G95" s="28" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H95" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I95" s="24" t="s">
-        <v>66</v>
+        <v>8</v>
+      </c>
+      <c r="I95" s="24">
+        <v>44497</v>
       </c>
       <c r="J95" s="25"/>
       <c r="K95" s="28"/>
       <c r="L95" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M95" s="27"/>
+        <v>67</v>
+      </c>
+      <c r="M95" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="96" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="14"/>
       <c r="B96" s="18">
-        <v>78728</v>
+        <v>78743</v>
       </c>
       <c r="C96" s="19">
         <v>44503</v>
       </c>
-      <c r="D96" s="20">
+      <c r="D96" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F96" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" s="24">
+        <v>44497</v>
+      </c>
+      <c r="J96" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K96" s="28"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E96" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F96" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G96" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H96" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I96" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J96" s="25"/>
-      <c r="K96" s="28"/>
-      <c r="L96" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M96" s="27"/>
     </row>
     <row r="97" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="14"/>
       <c r="B97" s="18">
-        <v>78727</v>
+        <v>78742</v>
       </c>
       <c r="C97" s="19">
         <v>44503</v>
       </c>
-      <c r="D97" s="20">
-        <v>50</v>
+      <c r="D97" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="G97" s="28" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="H97" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I97" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J97" s="25"/>
+        <v>8</v>
+      </c>
+      <c r="I97" s="24">
+        <v>44498</v>
+      </c>
+      <c r="J97" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K97" s="28"/>
-      <c r="L97" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M97" s="27"/>
+      <c r="L97" s="26"/>
+      <c r="M97" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="98" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="14"/>
       <c r="B98" s="18">
-        <v>78726</v>
+        <v>78741</v>
       </c>
       <c r="C98" s="19">
         <v>44503</v>
       </c>
-      <c r="D98" s="20">
-        <v>10</v>
+      <c r="D98" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F98" s="22" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="H98" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I98" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J98" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="I98" s="24">
+        <v>44501</v>
+      </c>
+      <c r="J98" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K98" s="28"/>
-      <c r="L98" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M98" s="27"/>
+      <c r="L98" s="26"/>
+      <c r="M98" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="99" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="14"/>
       <c r="B99" s="18">
-        <v>78725</v>
+        <v>78740</v>
       </c>
       <c r="C99" s="19">
         <v>44503</v>
       </c>
-      <c r="D99" s="20">
-        <v>10</v>
+      <c r="D99" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F99" s="22" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="H99" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I99" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J99" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="I99" s="24">
+        <v>44497</v>
+      </c>
+      <c r="J99" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K99" s="28"/>
-      <c r="L99" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M99" s="27"/>
+      <c r="L99" s="26"/>
+      <c r="M99" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="100" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="14"/>
       <c r="B100" s="18">
-        <v>78724</v>
+        <v>78739</v>
       </c>
       <c r="C100" s="19">
         <v>44503</v>
       </c>
-      <c r="D100" s="20">
-        <v>50</v>
+      <c r="D100" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F100" s="22" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G100" s="28" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="H100" s="23" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="I100" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J100" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="J100" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K100" s="28"/>
-      <c r="L100" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M100" s="27"/>
+      <c r="L100" s="26"/>
+      <c r="M100" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="101" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="14"/>
       <c r="B101" s="18">
-        <v>78723</v>
+        <v>78738</v>
       </c>
       <c r="C101" s="19">
         <v>44503</v>
       </c>
-      <c r="D101" s="20">
+      <c r="D101" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H101" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" s="24">
+        <v>44500</v>
+      </c>
+      <c r="J101" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K101" s="28"/>
+      <c r="L101" s="26"/>
+      <c r="M101" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E101" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F101" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G101" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H101" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I101" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J101" s="25"/>
-      <c r="K101" s="28"/>
-      <c r="L101" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M101" s="27"/>
     </row>
     <row r="102" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="14"/>
       <c r="B102" s="18">
-        <v>78722</v>
+        <v>78737</v>
       </c>
       <c r="C102" s="19">
         <v>44503</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F102" s="22" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="H102" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I102" s="24" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="I102" s="24">
+        <v>44499</v>
       </c>
       <c r="J102" s="25"/>
       <c r="K102" s="28"/>
       <c r="L102" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M102" s="27"/>
+        <v>67</v>
+      </c>
+      <c r="M102" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="103" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="14"/>
       <c r="B103" s="18">
-        <v>78721</v>
+        <v>78736</v>
       </c>
       <c r="C103" s="19">
         <v>44503</v>
       </c>
       <c r="D103" s="20">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G103" s="28" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H103" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I103" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J103" s="25"/>
+        <v>73</v>
+      </c>
+      <c r="J103" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K103" s="28"/>
-      <c r="L103" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M103" s="27"/>
+      <c r="L103" s="26"/>
+      <c r="M103" s="27" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="104" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="14"/>
       <c r="B104" s="18">
-        <v>78720</v>
+        <v>78735</v>
       </c>
       <c r="C104" s="19">
         <v>44503</v>
       </c>
       <c r="D104" s="20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F104" s="22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G104" s="28" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H104" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I104" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J104" s="25"/>
       <c r="K104" s="28"/>
       <c r="L104" s="26" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M104" s="27"/>
     </row>
     <row r="105" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="14"/>
       <c r="B105" s="18">
-        <v>78719</v>
+        <v>78734</v>
       </c>
       <c r="C105" s="19">
-        <v>44502</v>
-      </c>
-      <c r="D105" s="20" t="s">
-        <v>45</v>
+        <v>44503</v>
+      </c>
+      <c r="D105" s="20">
+        <v>80</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F105" s="22" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="G105" s="28" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="H105" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I105" s="24">
-        <v>44493</v>
+        <v>60</v>
+      </c>
+      <c r="I105" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="J105" s="25"/>
       <c r="K105" s="28"/>
@@ -6032,28 +6086,28 @@
     <row r="106" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="14"/>
       <c r="B106" s="18">
-        <v>78718</v>
+        <v>78733</v>
       </c>
       <c r="C106" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D106" s="20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F106" s="22" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G106" s="28" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="H106" s="23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I106" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J106" s="25"/>
       <c r="K106" s="28"/>
@@ -6065,61 +6119,63 @@
     <row r="107" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="14"/>
       <c r="B107" s="18">
-        <v>78717</v>
+        <v>78732</v>
       </c>
       <c r="C107" s="19">
-        <v>44502</v>
-      </c>
-      <c r="D107" s="20">
-        <v>30</v>
+        <v>44503</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F107" s="22" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G107" s="28" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="H107" s="23" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I107" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J107" s="25"/>
+        <v>73</v>
+      </c>
+      <c r="J107" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K107" s="28"/>
-      <c r="L107" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M107" s="27"/>
+      <c r="L107" s="26"/>
+      <c r="M107" s="27" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="108" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="14"/>
       <c r="B108" s="18">
-        <v>78716</v>
+        <v>78731</v>
       </c>
       <c r="C108" s="19">
-        <v>44502</v>
-      </c>
-      <c r="D108" s="20">
-        <v>30</v>
+        <v>44503</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F108" s="22" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G108" s="28" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="H108" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I108" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J108" s="25"/>
       <c r="K108" s="28"/>
@@ -6131,63 +6187,61 @@
     <row r="109" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="14"/>
       <c r="B109" s="18">
-        <v>78715</v>
+        <v>78730</v>
       </c>
       <c r="C109" s="19">
-        <v>44502</v>
-      </c>
-      <c r="D109" s="20">
-        <v>40</v>
+        <v>44503</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F109" s="22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G109" s="28" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H109" s="23" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I109" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J109" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J109" s="25"/>
       <c r="K109" s="28"/>
-      <c r="L109" s="26"/>
-      <c r="M109" s="27" t="s">
-        <v>68</v>
-      </c>
+      <c r="L109" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M109" s="27"/>
     </row>
     <row r="110" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="14"/>
       <c r="B110" s="18">
-        <v>78714</v>
+        <v>78729</v>
       </c>
       <c r="C110" s="19">
-        <v>44502</v>
-      </c>
-      <c r="D110" s="20">
-        <v>40</v>
+        <v>44503</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G110" s="28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H110" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I110" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J110" s="25"/>
       <c r="K110" s="28"/>
@@ -6199,28 +6253,28 @@
     <row r="111" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="14"/>
       <c r="B111" s="18">
-        <v>78713</v>
+        <v>78728</v>
       </c>
       <c r="C111" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D111" s="20">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G111" s="28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H111" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I111" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J111" s="25"/>
       <c r="K111" s="28"/>
@@ -6232,28 +6286,28 @@
     <row r="112" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="14"/>
       <c r="B112" s="18">
-        <v>78712</v>
+        <v>78727</v>
       </c>
       <c r="C112" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D112" s="20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F112" s="22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G112" s="28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H112" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I112" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J112" s="25"/>
       <c r="K112" s="28"/>
@@ -6265,28 +6319,28 @@
     <row r="113" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="14"/>
       <c r="B113" s="18">
-        <v>78711</v>
+        <v>78726</v>
       </c>
       <c r="C113" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D113" s="20">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E113" s="21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F113" s="22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G113" s="28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H113" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I113" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J113" s="25"/>
       <c r="K113" s="28"/>
@@ -6298,28 +6352,28 @@
     <row r="114" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="14"/>
       <c r="B114" s="18">
-        <v>78710</v>
+        <v>78725</v>
       </c>
       <c r="C114" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D114" s="20">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G114" s="28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H114" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I114" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J114" s="25"/>
       <c r="K114" s="28"/>
@@ -6331,28 +6385,28 @@
     <row r="115" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="14"/>
       <c r="B115" s="18">
-        <v>78709</v>
+        <v>78724</v>
       </c>
       <c r="C115" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D115" s="20">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F115" s="22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G115" s="28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H115" s="23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I115" s="24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J115" s="25"/>
       <c r="K115" s="28"/>
@@ -6364,68 +6418,565 @@
     <row r="116" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="14"/>
       <c r="B116" s="18">
-        <v>78708</v>
+        <v>78723</v>
       </c>
       <c r="C116" s="19">
-        <v>44501</v>
+        <v>44503</v>
       </c>
       <c r="D116" s="20">
         <v>30</v>
       </c>
       <c r="E116" s="21" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F116" s="22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G116" s="28" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H116" s="23" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="I116" s="24" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="J116" s="25"/>
       <c r="K116" s="28"/>
       <c r="L116" s="26" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M116" s="27"/>
     </row>
     <row r="117" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="14"/>
       <c r="B117" s="18">
-        <v>78707</v>
+        <v>78722</v>
       </c>
       <c r="C117" s="19">
-        <v>44501</v>
-      </c>
-      <c r="D117" s="20">
-        <v>80</v>
+        <v>44503</v>
+      </c>
+      <c r="D117" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F117" s="22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G117" s="28" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H117" s="23" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="I117" s="24" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="J117" s="25"/>
       <c r="K117" s="28"/>
       <c r="L117" s="26" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M117" s="27"/>
+    </row>
+    <row r="118" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="14"/>
+      <c r="B118" s="18">
+        <v>78721</v>
+      </c>
+      <c r="C118" s="19">
+        <v>44503</v>
+      </c>
+      <c r="D118" s="20">
+        <v>50</v>
+      </c>
+      <c r="E118" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F118" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G118" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H118" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I118" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J118" s="25"/>
+      <c r="K118" s="28"/>
+      <c r="L118" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M118" s="27"/>
+    </row>
+    <row r="119" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="14"/>
+      <c r="B119" s="18">
+        <v>78720</v>
+      </c>
+      <c r="C119" s="19">
+        <v>44503</v>
+      </c>
+      <c r="D119" s="20">
+        <v>30</v>
+      </c>
+      <c r="E119" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F119" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G119" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H119" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I119" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J119" s="25"/>
+      <c r="K119" s="28"/>
+      <c r="L119" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M119" s="27"/>
+    </row>
+    <row r="120" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="14"/>
+      <c r="B120" s="18">
+        <v>78719</v>
+      </c>
+      <c r="C120" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D120" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E120" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F120" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="24">
+        <v>44493</v>
+      </c>
+      <c r="J120" s="25"/>
+      <c r="K120" s="28"/>
+      <c r="L120" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M120" s="27"/>
+    </row>
+    <row r="121" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="14"/>
+      <c r="B121" s="18">
+        <v>78718</v>
+      </c>
+      <c r="C121" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D121" s="20">
+        <v>20</v>
+      </c>
+      <c r="E121" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F121" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G121" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H121" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I121" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J121" s="25"/>
+      <c r="K121" s="28"/>
+      <c r="L121" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M121" s="27"/>
+    </row>
+    <row r="122" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="14"/>
+      <c r="B122" s="18">
+        <v>78717</v>
+      </c>
+      <c r="C122" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D122" s="20">
+        <v>30</v>
+      </c>
+      <c r="E122" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F122" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G122" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H122" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I122" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J122" s="25"/>
+      <c r="K122" s="28"/>
+      <c r="L122" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M122" s="27"/>
+    </row>
+    <row r="123" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="14"/>
+      <c r="B123" s="18">
+        <v>78716</v>
+      </c>
+      <c r="C123" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D123" s="20">
+        <v>30</v>
+      </c>
+      <c r="E123" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F123" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G123" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H123" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I123" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J123" s="25"/>
+      <c r="K123" s="28"/>
+      <c r="L123" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M123" s="27"/>
+    </row>
+    <row r="124" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="14"/>
+      <c r="B124" s="18">
+        <v>78715</v>
+      </c>
+      <c r="C124" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D124" s="20">
+        <v>40</v>
+      </c>
+      <c r="E124" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F124" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G124" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H124" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I124" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J124" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="K124" s="28"/>
+      <c r="L124" s="26"/>
+      <c r="M124" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="14"/>
+      <c r="B125" s="18">
+        <v>78714</v>
+      </c>
+      <c r="C125" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D125" s="20">
+        <v>40</v>
+      </c>
+      <c r="E125" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F125" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G125" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H125" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I125" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J125" s="25"/>
+      <c r="K125" s="28"/>
+      <c r="L125" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M125" s="27"/>
+    </row>
+    <row r="126" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="14"/>
+      <c r="B126" s="18">
+        <v>78713</v>
+      </c>
+      <c r="C126" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D126" s="20">
+        <v>70</v>
+      </c>
+      <c r="E126" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F126" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G126" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H126" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I126" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J126" s="25"/>
+      <c r="K126" s="28"/>
+      <c r="L126" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M126" s="27"/>
+    </row>
+    <row r="127" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="14"/>
+      <c r="B127" s="18">
+        <v>78712</v>
+      </c>
+      <c r="C127" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D127" s="20">
+        <v>20</v>
+      </c>
+      <c r="E127" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F127" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G127" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H127" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I127" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J127" s="25"/>
+      <c r="K127" s="28"/>
+      <c r="L127" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M127" s="27"/>
+    </row>
+    <row r="128" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="14"/>
+      <c r="B128" s="18">
+        <v>78711</v>
+      </c>
+      <c r="C128" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D128" s="20">
+        <v>30</v>
+      </c>
+      <c r="E128" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F128" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G128" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H128" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I128" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J128" s="25"/>
+      <c r="K128" s="28"/>
+      <c r="L128" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M128" s="27"/>
+    </row>
+    <row r="129" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="14"/>
+      <c r="B129" s="18">
+        <v>78710</v>
+      </c>
+      <c r="C129" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D129" s="20">
+        <v>70</v>
+      </c>
+      <c r="E129" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F129" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G129" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H129" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I129" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J129" s="25"/>
+      <c r="K129" s="28"/>
+      <c r="L129" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M129" s="27"/>
+    </row>
+    <row r="130" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="14"/>
+      <c r="B130" s="18">
+        <v>78709</v>
+      </c>
+      <c r="C130" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D130" s="20">
+        <v>10</v>
+      </c>
+      <c r="E130" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F130" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G130" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H130" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I130" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J130" s="25"/>
+      <c r="K130" s="28"/>
+      <c r="L130" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M130" s="27"/>
+    </row>
+    <row r="131" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="14"/>
+      <c r="B131" s="18">
+        <v>78708</v>
+      </c>
+      <c r="C131" s="19">
+        <v>44501</v>
+      </c>
+      <c r="D131" s="20">
+        <v>30</v>
+      </c>
+      <c r="E131" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F131" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G131" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H131" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I131" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J131" s="25"/>
+      <c r="K131" s="28"/>
+      <c r="L131" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M131" s="27"/>
+    </row>
+    <row r="132" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="14"/>
+      <c r="B132" s="18">
+        <v>78707</v>
+      </c>
+      <c r="C132" s="19">
+        <v>44501</v>
+      </c>
+      <c r="D132" s="20">
+        <v>80</v>
+      </c>
+      <c r="E132" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F132" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G132" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H132" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I132" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J132" s="25"/>
+      <c r="K132" s="28"/>
+      <c r="L132" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M132" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/corona-kanjajokyou.xlsx
+++ b/corona-kanjajokyou.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Lb16z0190\広報戦略\11Twitter対応について\98 コロナ(毎日の発生状況)\HP作業用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lb16z0190\広報戦略\11Twitter対応について\98 コロナ(毎日の発生状況)\HP作業用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A09632F-577C-45A9-AB9B-FFCA1FFD520C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83836FDC-4BDF-4B6E-8AC5-A28E05CCC08F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$136</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="114">
   <si>
     <t>非公表</t>
   </si>
@@ -564,7 +564,50 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>令和2年3月1日以降の総数 78,582件 ※欠番251件（医療機関での発生届の取り下げ等）</t>
+    <t>令和2年3月1日以降の総数 78,586件 ※欠番251件（医療機関での発生届の取り下げ等）</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>西宮</t>
+    <rPh sb="0" eb="2">
+      <t>ニシノミヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>西宮市</t>
+    <rPh sb="0" eb="3">
+      <t>ニシノミヤシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>神戸</t>
+    <rPh sb="0" eb="2">
+      <t>コウベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2579,13 +2622,13 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N132"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2619,7 +2662,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="31">
         <f ca="1">TODAY()-1</f>
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="K1" s="31"/>
       <c r="L1" s="4" t="s">
@@ -2722,287 +2765,285 @@
     <row r="6" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="18">
-        <v>78833</v>
+        <v>78837</v>
       </c>
       <c r="C6" s="19">
-        <v>44510</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>51</v>
+        <v>44511</v>
+      </c>
+      <c r="D6" s="20">
+        <v>40</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>105</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="J6" s="25"/>
       <c r="K6" s="28"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L6" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="18">
-        <v>78832</v>
+        <v>78836</v>
       </c>
       <c r="C7" s="19">
-        <v>44510</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>55</v>
+        <v>44511</v>
+      </c>
+      <c r="D7" s="20">
+        <v>20</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="24">
-        <v>44508</v>
+        <v>113</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>113</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="28"/>
       <c r="L7" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
       <c r="B8" s="18">
-        <v>78831</v>
+        <v>78835</v>
       </c>
       <c r="C8" s="19">
-        <v>44510</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>56</v>
+        <v>44511</v>
+      </c>
+      <c r="D8" s="20">
+        <v>20</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="24">
-        <v>44508</v>
+        <v>113</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>113</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="28"/>
       <c r="L8" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="18">
-        <v>78830</v>
+        <v>78834</v>
       </c>
       <c r="C9" s="19">
-        <v>44510</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>49</v>
+        <v>44511</v>
+      </c>
+      <c r="D9" s="20">
+        <v>50</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="24">
-        <v>44508</v>
+        <v>113</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>113</v>
       </c>
       <c r="J9" s="25"/>
       <c r="K9" s="28"/>
       <c r="L9" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="18">
-        <v>78829</v>
+        <v>78833</v>
       </c>
       <c r="C10" s="19">
         <v>44510</v>
       </c>
-      <c r="D10" s="20">
-        <v>50</v>
+      <c r="D10" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="K10" s="28"/>
-      <c r="L10" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="M10" s="27"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="18">
-        <v>78828</v>
+        <v>78832</v>
       </c>
       <c r="C11" s="19">
         <v>44510</v>
       </c>
-      <c r="D11" s="20">
-        <v>30</v>
+      <c r="D11" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>73</v>
+        <v>0</v>
+      </c>
+      <c r="I11" s="24">
+        <v>44508</v>
       </c>
       <c r="J11" s="25"/>
       <c r="K11" s="28"/>
       <c r="L11" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="M11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="18">
-        <v>78827</v>
+        <v>78831</v>
       </c>
       <c r="C12" s="19">
         <v>44510</v>
       </c>
-      <c r="D12" s="20">
-        <v>30</v>
+      <c r="D12" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>73</v>
+        <v>0</v>
+      </c>
+      <c r="I12" s="24">
+        <v>44508</v>
       </c>
       <c r="J12" s="25"/>
       <c r="K12" s="28"/>
       <c r="L12" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="M12" s="27"/>
+      <c r="M12" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="18">
-        <v>78826</v>
+        <v>78830</v>
       </c>
       <c r="C13" s="19">
         <v>44510</v>
       </c>
-      <c r="D13" s="20">
-        <v>60</v>
+      <c r="D13" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="24">
+        <v>44508</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="26"/>
       <c r="M13" s="27" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="18">
-        <v>78825</v>
+        <v>78829</v>
       </c>
       <c r="C14" s="19">
         <v>44510</v>
       </c>
       <c r="D14" s="20">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>27</v>
@@ -3014,42 +3055,40 @@
         <v>78</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="I14" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="25"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="27" t="s">
-        <v>104</v>
-      </c>
+      <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="18">
-        <v>78824</v>
+        <v>78828</v>
       </c>
       <c r="C15" s="19">
         <v>44510</v>
       </c>
       <c r="D15" s="20">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>73</v>
@@ -3064,22 +3103,22 @@
     <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="18">
-        <v>78823</v>
+        <v>78827</v>
       </c>
       <c r="C16" s="19">
         <v>44510</v>
       </c>
       <c r="D16" s="20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="H16" s="23" t="s">
         <v>73</v>
@@ -3097,82 +3136,86 @@
     <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="18">
-        <v>78822</v>
+        <v>78826</v>
       </c>
       <c r="C17" s="19">
         <v>44510</v>
       </c>
       <c r="D17" s="20">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="I17" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="25"/>
+      <c r="J17" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="K17" s="28"/>
-      <c r="L17" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="M17" s="27"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="18">
-        <v>78821</v>
+        <v>78825</v>
       </c>
       <c r="C18" s="19">
         <v>44510</v>
       </c>
       <c r="D18" s="20">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="I18" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="25"/>
+      <c r="J18" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="K18" s="28"/>
-      <c r="L18" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="M18" s="27"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="27" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="18">
-        <v>78820</v>
+        <v>78824</v>
       </c>
       <c r="C19" s="19">
         <v>44510</v>
       </c>
       <c r="D19" s="20">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>68</v>
@@ -3196,13 +3239,13 @@
     <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="18">
-        <v>78819</v>
+        <v>78823</v>
       </c>
       <c r="C20" s="19">
         <v>44510</v>
       </c>
       <c r="D20" s="20">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>27</v>
@@ -3229,331 +3272,327 @@
     <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="18">
-        <v>78818</v>
+        <v>78822</v>
       </c>
       <c r="C21" s="19">
-        <v>44509</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>53</v>
+        <v>44510</v>
+      </c>
+      <c r="D21" s="20">
+        <v>20</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="24">
-        <v>44508</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="25"/>
       <c r="K21" s="28"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L21" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="M21" s="27"/>
     </row>
     <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="18">
-        <v>78817</v>
+        <v>78821</v>
       </c>
       <c r="C22" s="19">
-        <v>44509</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>50</v>
+        <v>44510</v>
+      </c>
+      <c r="D22" s="20">
+        <v>10</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="24">
-        <v>44505</v>
+        <v>73</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="J22" s="25"/>
       <c r="K22" s="28"/>
       <c r="L22" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="M22" s="27"/>
     </row>
     <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="18">
-        <v>78816</v>
+        <v>78820</v>
       </c>
       <c r="C23" s="19">
-        <v>44509</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>14</v>
+        <v>44510</v>
+      </c>
+      <c r="D23" s="20">
+        <v>10</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="24">
-        <v>44505</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="25"/>
       <c r="K23" s="28"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L23" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="M23" s="27"/>
     </row>
     <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="18">
-        <v>78815</v>
+        <v>78819</v>
       </c>
       <c r="C24" s="19">
-        <v>44509</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>56</v>
+        <v>44510</v>
+      </c>
+      <c r="D24" s="20">
+        <v>40</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="24">
-        <v>44505</v>
+        <v>73</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="J24" s="25"/>
       <c r="K24" s="28"/>
       <c r="L24" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M24" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="M24" s="27"/>
     </row>
     <row r="25" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="18">
-        <v>78814</v>
+        <v>78818</v>
       </c>
       <c r="C25" s="19">
         <v>44509</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>63</v>
-      </c>
       <c r="G25" s="28" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J25" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="I25" s="24">
+        <v>44508</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K25" s="28"/>
-      <c r="L25" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M25" s="27"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="18">
-        <v>78813</v>
+        <v>78817</v>
       </c>
       <c r="C26" s="19">
         <v>44509</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="20" t="s">
         <v>50</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>73</v>
+        <v>21</v>
+      </c>
+      <c r="I26" s="24">
+        <v>44505</v>
       </c>
       <c r="J26" s="25"/>
       <c r="K26" s="28"/>
       <c r="L26" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="M26" s="27"/>
+      <c r="M26" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="18">
-        <v>78812</v>
+        <v>78816</v>
       </c>
       <c r="C27" s="19">
         <v>44509</v>
       </c>
-      <c r="D27" s="20">
-        <v>50</v>
+      <c r="D27" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J27" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="I27" s="24">
+        <v>44505</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K27" s="28"/>
-      <c r="L27" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M27" s="27"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="18">
-        <v>78811</v>
+        <v>78815</v>
       </c>
       <c r="C28" s="19">
         <v>44509</v>
       </c>
-      <c r="D28" s="20">
-        <v>20</v>
+      <c r="D28" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J28" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I28" s="24">
+        <v>44505</v>
+      </c>
+      <c r="J28" s="25"/>
       <c r="K28" s="28"/>
-      <c r="L28" s="26"/>
+      <c r="L28" s="26" t="s">
+        <v>67</v>
+      </c>
       <c r="M28" s="27" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="18">
-        <v>78810</v>
+        <v>78814</v>
       </c>
       <c r="C29" s="19">
         <v>44509</v>
       </c>
       <c r="D29" s="20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="I29" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="J29" s="25" t="s">
-        <v>67</v>
-      </c>
+      <c r="J29" s="25"/>
       <c r="K29" s="28"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L29" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M29" s="27"/>
     </row>
     <row r="30" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
       <c r="B30" s="18">
-        <v>78809</v>
+        <v>78813</v>
       </c>
       <c r="C30" s="19">
         <v>44509</v>
       </c>
       <c r="D30" s="20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E30" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H30" s="23" t="s">
         <v>73</v>
@@ -3571,25 +3610,25 @@
     <row r="31" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
       <c r="B31" s="18">
-        <v>78808</v>
+        <v>78812</v>
       </c>
       <c r="C31" s="19">
         <v>44509</v>
       </c>
       <c r="D31" s="20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I31" s="24" t="s">
         <v>73</v>
@@ -3604,7 +3643,7 @@
     <row r="32" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="18">
-        <v>78807</v>
+        <v>78811</v>
       </c>
       <c r="C32" s="19">
         <v>44509</v>
@@ -3616,67 +3655,71 @@
         <v>27</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I32" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="J32" s="25"/>
+      <c r="J32" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K32" s="28"/>
-      <c r="L32" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M32" s="27"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="33" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="18">
-        <v>78806</v>
+        <v>78810</v>
       </c>
       <c r="C33" s="19">
         <v>44509</v>
       </c>
       <c r="D33" s="20">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I33" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="J33" s="25"/>
+      <c r="J33" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K33" s="28"/>
-      <c r="L33" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M33" s="27"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="18">
-        <v>78805</v>
+        <v>78809</v>
       </c>
       <c r="C34" s="19">
         <v>44509</v>
       </c>
       <c r="D34" s="20">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E34" s="21" t="s">
         <v>26</v>
@@ -3703,13 +3746,13 @@
     <row r="35" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="18">
-        <v>78804</v>
+        <v>78808</v>
       </c>
       <c r="C35" s="19">
         <v>44509</v>
       </c>
       <c r="D35" s="20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>26</v>
@@ -3736,167 +3779,167 @@
     <row r="36" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
       <c r="B36" s="18">
-        <v>78803</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="24"/>
+        <v>78807</v>
+      </c>
+      <c r="C36" s="19">
+        <v>44509</v>
+      </c>
+      <c r="D36" s="20">
+        <v>20</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>73</v>
+      </c>
       <c r="J36" s="25"/>
       <c r="K36" s="28"/>
-      <c r="L36" s="26"/>
+      <c r="L36" s="26" t="s">
+        <v>67</v>
+      </c>
       <c r="M36" s="27"/>
     </row>
     <row r="37" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="14"/>
       <c r="B37" s="18">
-        <v>78802</v>
+        <v>78806</v>
       </c>
       <c r="C37" s="19">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="D37" s="20">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="J37" s="25"/>
       <c r="K37" s="28"/>
       <c r="L37" s="26" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="M37" s="27"/>
     </row>
     <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="14"/>
       <c r="B38" s="18">
-        <v>78801</v>
+        <v>78805</v>
       </c>
       <c r="C38" s="19">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="D38" s="20">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="J38" s="25"/>
       <c r="K38" s="28"/>
       <c r="L38" s="26" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="M38" s="27"/>
     </row>
     <row r="39" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="14"/>
       <c r="B39" s="18">
-        <v>78800</v>
+        <v>78804</v>
       </c>
       <c r="C39" s="19">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="D39" s="20">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="J39" s="25"/>
       <c r="K39" s="28"/>
       <c r="L39" s="26" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="M39" s="27"/>
     </row>
     <row r="40" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
       <c r="B40" s="18">
-        <v>78799</v>
-      </c>
-      <c r="C40" s="19">
-        <v>44508</v>
-      </c>
-      <c r="D40" s="20">
-        <v>80</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="H40" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="I40" s="24" t="s">
-        <v>100</v>
-      </c>
+        <v>78803</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="24"/>
       <c r="J40" s="25"/>
       <c r="K40" s="28"/>
-      <c r="L40" s="26" t="s">
-        <v>101</v>
-      </c>
+      <c r="L40" s="26"/>
       <c r="M40" s="27"/>
     </row>
     <row r="41" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="14"/>
       <c r="B41" s="18">
-        <v>78798</v>
+        <v>78802</v>
       </c>
       <c r="C41" s="19">
         <v>44508</v>
       </c>
       <c r="D41" s="20">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>99</v>
@@ -3920,250 +3963,242 @@
     <row r="42" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="14"/>
       <c r="B42" s="18">
-        <v>78797</v>
+        <v>78801</v>
       </c>
       <c r="C42" s="19">
-        <v>44507</v>
+        <v>44508</v>
       </c>
       <c r="D42" s="20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J42" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="J42" s="25"/>
       <c r="K42" s="28"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="27" t="s">
-        <v>93</v>
-      </c>
+      <c r="L42" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="M42" s="27"/>
     </row>
     <row r="43" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="14"/>
       <c r="B43" s="18">
-        <v>78796</v>
+        <v>78800</v>
       </c>
       <c r="C43" s="19">
-        <v>44507</v>
+        <v>44508</v>
       </c>
       <c r="D43" s="20">
         <v>50</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="J43" s="25"/>
       <c r="K43" s="28"/>
       <c r="L43" s="26" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="M43" s="27"/>
     </row>
     <row r="44" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="14"/>
       <c r="B44" s="18">
-        <v>78795</v>
+        <v>78799</v>
       </c>
       <c r="C44" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>53</v>
+        <v>44508</v>
+      </c>
+      <c r="D44" s="20">
+        <v>80</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="24">
-        <v>44502</v>
+        <v>100</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="J44" s="25"/>
       <c r="K44" s="28"/>
       <c r="L44" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M44" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M44" s="27"/>
     </row>
     <row r="45" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="14"/>
       <c r="B45" s="18">
-        <v>78794</v>
+        <v>78798</v>
       </c>
       <c r="C45" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>14</v>
+        <v>44508</v>
+      </c>
+      <c r="D45" s="20">
+        <v>30</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I45" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J45" s="25" t="s">
-        <v>94</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="J45" s="25"/>
       <c r="K45" s="28"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L45" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="M45" s="27"/>
     </row>
     <row r="46" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="14"/>
       <c r="B46" s="18">
-        <v>78793</v>
+        <v>78797</v>
       </c>
       <c r="C46" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>14</v>
+        <v>44507</v>
+      </c>
+      <c r="D46" s="20">
+        <v>10</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I46" s="24">
-        <v>44501</v>
+        <v>62</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="K46" s="28"/>
       <c r="L46" s="26"/>
       <c r="M46" s="27" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="14"/>
       <c r="B47" s="18">
-        <v>78792</v>
+        <v>78796</v>
       </c>
       <c r="C47" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>56</v>
+        <v>44507</v>
+      </c>
+      <c r="D47" s="20">
+        <v>50</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I47" s="24">
-        <v>44505</v>
-      </c>
-      <c r="J47" s="25" t="s">
-        <v>94</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I47" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J47" s="25"/>
       <c r="K47" s="28"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L47" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M47" s="27"/>
     </row>
     <row r="48" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
       <c r="B48" s="18">
-        <v>78791</v>
+        <v>78795</v>
       </c>
       <c r="C48" s="19">
         <v>44506</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I48" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="24">
+        <v>44502</v>
+      </c>
+      <c r="J48" s="25"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="K48" s="28"/>
-      <c r="L48" s="26"/>
       <c r="M48" s="27" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="14"/>
       <c r="B49" s="18">
-        <v>78790</v>
+        <v>78794</v>
       </c>
       <c r="C49" s="19">
         <v>44506</v>
@@ -4172,19 +4207,19 @@
         <v>14</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>3</v>
+        <v>66</v>
+      </c>
+      <c r="I49" s="24">
+        <v>44502</v>
       </c>
       <c r="J49" s="25" t="s">
         <v>94</v>
@@ -4198,7 +4233,7 @@
     <row r="50" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="14"/>
       <c r="B50" s="18">
-        <v>78789</v>
+        <v>78793</v>
       </c>
       <c r="C50" s="19">
         <v>44506</v>
@@ -4210,16 +4245,16 @@
         <v>27</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I50" s="24" t="s">
-        <v>3</v>
+        <v>33</v>
+      </c>
+      <c r="I50" s="24">
+        <v>44501</v>
       </c>
       <c r="J50" s="25" t="s">
         <v>94</v>
@@ -4233,28 +4268,28 @@
     <row r="51" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="14"/>
       <c r="B51" s="18">
-        <v>78788</v>
+        <v>78792</v>
       </c>
       <c r="C51" s="19">
         <v>44506</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H51" s="23" t="s">
         <v>0</v>
       </c>
       <c r="I51" s="24">
-        <v>44502</v>
+        <v>44505</v>
       </c>
       <c r="J51" s="25" t="s">
         <v>94</v>
@@ -4268,298 +4303,298 @@
     <row r="52" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="14"/>
       <c r="B52" s="18">
-        <v>78787</v>
+        <v>78791</v>
       </c>
       <c r="C52" s="19">
         <v>44506</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I52" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J52" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="25" t="s">
+        <v>94</v>
+      </c>
       <c r="K52" s="28"/>
-      <c r="L52" s="26" t="s">
-        <v>94</v>
-      </c>
+      <c r="L52" s="26"/>
       <c r="M52" s="27" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="14"/>
       <c r="B53" s="18">
-        <v>78786</v>
+        <v>78790</v>
       </c>
       <c r="C53" s="19">
         <v>44506</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="24">
-        <v>44503</v>
-      </c>
-      <c r="J53" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J53" s="25" t="s">
+        <v>94</v>
+      </c>
       <c r="K53" s="28"/>
-      <c r="L53" s="26" t="s">
-        <v>94</v>
-      </c>
+      <c r="L53" s="26"/>
       <c r="M53" s="27" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="14"/>
       <c r="B54" s="18">
-        <v>78785</v>
+        <v>78789</v>
       </c>
       <c r="C54" s="19">
         <v>44506</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I54" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="K54" s="28"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="H54" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="I54" s="24">
-        <v>44503</v>
-      </c>
-      <c r="J54" s="25"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M54" s="27"/>
     </row>
     <row r="55" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="14"/>
       <c r="B55" s="18">
-        <v>78784</v>
+        <v>78788</v>
       </c>
       <c r="C55" s="19">
         <v>44506</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I55" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="J55" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="24">
+        <v>44502</v>
+      </c>
+      <c r="J55" s="25" t="s">
+        <v>94</v>
+      </c>
       <c r="K55" s="28"/>
-      <c r="L55" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M55" s="27"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="14"/>
       <c r="B56" s="18">
-        <v>78783</v>
+        <v>78787</v>
       </c>
       <c r="C56" s="19">
         <v>44506</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E56" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I56" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="J56" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="24">
+        <v>44502</v>
+      </c>
+      <c r="J56" s="25"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="K56" s="28"/>
-      <c r="L56" s="26"/>
       <c r="M56" s="27" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="14"/>
       <c r="B57" s="18">
-        <v>78782</v>
+        <v>78786</v>
       </c>
       <c r="C57" s="19">
         <v>44506</v>
       </c>
-      <c r="D57" s="20">
-        <v>10</v>
+      <c r="D57" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="E57" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G57" s="28" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I57" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="J57" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="24">
+        <v>44503</v>
+      </c>
+      <c r="J57" s="25"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="K57" s="28"/>
-      <c r="L57" s="26"/>
       <c r="M57" s="27" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="14"/>
       <c r="B58" s="18">
-        <v>78781</v>
+        <v>78785</v>
       </c>
       <c r="C58" s="19">
         <v>44506</v>
       </c>
-      <c r="D58" s="20" t="s">
-        <v>65</v>
+      <c r="D58" s="20">
+        <v>30</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G58" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I58" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="J58" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" s="24">
+        <v>44503</v>
+      </c>
+      <c r="J58" s="25"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="K58" s="28"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="27" t="s">
-        <v>92</v>
-      </c>
+      <c r="M58" s="27"/>
     </row>
     <row r="59" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="14"/>
       <c r="B59" s="18">
-        <v>78780</v>
+        <v>78784</v>
       </c>
       <c r="C59" s="19">
         <v>44506</v>
       </c>
-      <c r="D59" s="20">
-        <v>20</v>
+      <c r="D59" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I59" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="J59" s="25" t="s">
+      <c r="J59" s="25"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="K59" s="28"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="27" t="s">
-        <v>93</v>
-      </c>
+      <c r="M59" s="27"/>
     </row>
     <row r="60" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="14"/>
       <c r="B60" s="18">
-        <v>78779</v>
+        <v>78783</v>
       </c>
       <c r="C60" s="19">
         <v>44506</v>
       </c>
-      <c r="D60" s="20">
-        <v>80</v>
+      <c r="D60" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H60" s="23" t="s">
         <v>90</v>
@@ -4567,32 +4602,34 @@
       <c r="I60" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="J60" s="25"/>
+      <c r="J60" s="25" t="s">
+        <v>94</v>
+      </c>
       <c r="K60" s="28"/>
-      <c r="L60" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M60" s="27"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="27" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="61" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="14"/>
       <c r="B61" s="18">
-        <v>78778</v>
+        <v>78782</v>
       </c>
       <c r="C61" s="19">
         <v>44506</v>
       </c>
       <c r="D61" s="20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H61" s="23" t="s">
         <v>90</v>
@@ -4600,32 +4637,34 @@
       <c r="I61" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="J61" s="25"/>
+      <c r="J61" s="25" t="s">
+        <v>94</v>
+      </c>
       <c r="K61" s="28"/>
-      <c r="L61" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M61" s="27"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="27" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="62" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="14"/>
       <c r="B62" s="18">
-        <v>78777</v>
+        <v>78781</v>
       </c>
       <c r="C62" s="19">
         <v>44506</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H62" s="23" t="s">
         <v>90</v>
@@ -4633,56 +4672,60 @@
       <c r="I62" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="J62" s="25"/>
+      <c r="J62" s="25" t="s">
+        <v>94</v>
+      </c>
       <c r="K62" s="28"/>
-      <c r="L62" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M62" s="27"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="27" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="63" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="14"/>
       <c r="B63" s="18">
-        <v>78776</v>
+        <v>78780</v>
       </c>
       <c r="C63" s="19">
         <v>44506</v>
       </c>
       <c r="D63" s="20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I63" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="J63" s="25"/>
+      <c r="J63" s="25" t="s">
+        <v>94</v>
+      </c>
       <c r="K63" s="28"/>
-      <c r="L63" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M63" s="27"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="27" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="64" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="14"/>
       <c r="B64" s="18">
-        <v>78775</v>
+        <v>78779</v>
       </c>
       <c r="C64" s="19">
         <v>44506</v>
       </c>
       <c r="D64" s="20">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E64" s="21" t="s">
         <v>27</v>
@@ -4709,16 +4752,16 @@
     <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="14"/>
       <c r="B65" s="18">
-        <v>78774</v>
+        <v>78778</v>
       </c>
       <c r="C65" s="19">
         <v>44506</v>
       </c>
       <c r="D65" s="20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F65" s="22" t="s">
         <v>89</v>
@@ -4742,13 +4785,13 @@
     <row r="66" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="14"/>
       <c r="B66" s="18">
-        <v>78773</v>
+        <v>78777</v>
       </c>
       <c r="C66" s="19">
         <v>44506</v>
       </c>
-      <c r="D66" s="20">
-        <v>40</v>
+      <c r="D66" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E66" s="21" t="s">
         <v>26</v>
@@ -4775,168 +4818,160 @@
     <row r="67" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="14"/>
       <c r="B67" s="18">
-        <v>78772</v>
+        <v>78776</v>
       </c>
       <c r="C67" s="19">
-        <v>44505</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>52</v>
+        <v>44506</v>
+      </c>
+      <c r="D67" s="20">
+        <v>30</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H67" s="23" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I67" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J67" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J67" s="25"/>
       <c r="K67" s="28"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L67" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="M67" s="27"/>
     </row>
     <row r="68" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="14"/>
       <c r="B68" s="18">
-        <v>78771</v>
+        <v>78775</v>
       </c>
       <c r="C68" s="19">
-        <v>44505</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>51</v>
+        <v>44506</v>
+      </c>
+      <c r="D68" s="20">
+        <v>60</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="H68" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I68" s="24">
-        <v>44501</v>
+        <v>90</v>
+      </c>
+      <c r="I68" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="J68" s="25"/>
       <c r="K68" s="28"/>
       <c r="L68" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M68" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M68" s="27"/>
     </row>
     <row r="69" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="14"/>
       <c r="B69" s="18">
-        <v>78770</v>
+        <v>78774</v>
       </c>
       <c r="C69" s="19">
-        <v>44505</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>50</v>
+        <v>44506</v>
+      </c>
+      <c r="D69" s="20">
+        <v>30</v>
       </c>
       <c r="E69" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="H69" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="24">
-        <v>44504</v>
+        <v>90</v>
+      </c>
+      <c r="I69" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="J69" s="25"/>
       <c r="K69" s="28"/>
       <c r="L69" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M69" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M69" s="27"/>
     </row>
     <row r="70" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="14"/>
       <c r="B70" s="18">
-        <v>78769</v>
+        <v>78773</v>
       </c>
       <c r="C70" s="19">
-        <v>44505</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>56</v>
+        <v>44506</v>
+      </c>
+      <c r="D70" s="20">
+        <v>40</v>
       </c>
       <c r="E70" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I70" s="24">
-        <v>44500</v>
+        <v>90</v>
+      </c>
+      <c r="I70" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="J70" s="25"/>
       <c r="K70" s="28"/>
       <c r="L70" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M70" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M70" s="27"/>
     </row>
     <row r="71" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="14"/>
       <c r="B71" s="18">
-        <v>78768</v>
+        <v>78772</v>
       </c>
       <c r="C71" s="19">
         <v>44505</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E71" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I71" s="24">
-        <v>44498</v>
+        <v>12</v>
+      </c>
+      <c r="I71" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="J71" s="25" t="s">
         <v>67</v>
@@ -4950,154 +4985,162 @@
     <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="14"/>
       <c r="B72" s="18">
-        <v>78767</v>
+        <v>78771</v>
       </c>
       <c r="C72" s="19">
         <v>44505</v>
       </c>
-      <c r="D72" s="20">
-        <v>30</v>
+      <c r="D72" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="G72" s="28" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I72" s="24" t="s">
-        <v>73</v>
+        <v>0</v>
+      </c>
+      <c r="I72" s="24">
+        <v>44501</v>
       </c>
       <c r="J72" s="25"/>
       <c r="K72" s="28"/>
       <c r="L72" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="M72" s="27"/>
+      <c r="M72" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="73" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="14"/>
       <c r="B73" s="18">
-        <v>78766</v>
+        <v>78770</v>
       </c>
       <c r="C73" s="19">
         <v>44505</v>
       </c>
-      <c r="D73" s="20">
-        <v>10</v>
+      <c r="D73" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="E73" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="H73" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I73" s="24" t="s">
-        <v>73</v>
+        <v>12</v>
+      </c>
+      <c r="I73" s="24">
+        <v>44504</v>
       </c>
       <c r="J73" s="25"/>
       <c r="K73" s="28"/>
       <c r="L73" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="M73" s="27"/>
+      <c r="M73" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="74" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="14"/>
       <c r="B74" s="18">
-        <v>78765</v>
+        <v>78769</v>
       </c>
       <c r="C74" s="19">
         <v>44505</v>
       </c>
-      <c r="D74" s="20">
-        <v>60</v>
+      <c r="D74" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="H74" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I74" s="24" t="s">
-        <v>73</v>
+        <v>9</v>
+      </c>
+      <c r="I74" s="24">
+        <v>44500</v>
       </c>
       <c r="J74" s="25"/>
       <c r="K74" s="28"/>
       <c r="L74" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="M74" s="27"/>
+      <c r="M74" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="75" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="14"/>
       <c r="B75" s="18">
-        <v>78764</v>
+        <v>78768</v>
       </c>
       <c r="C75" s="19">
         <v>44505</v>
       </c>
-      <c r="D75" s="20">
+      <c r="D75" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E75" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F75" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G75" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H75" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I75" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J75" s="25"/>
+      <c r="I75" s="24">
+        <v>44498</v>
+      </c>
+      <c r="J75" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K75" s="28"/>
-      <c r="L75" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M75" s="27"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="76" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="14"/>
       <c r="B76" s="18">
-        <v>78763</v>
+        <v>78767</v>
       </c>
       <c r="C76" s="19">
         <v>44505</v>
       </c>
       <c r="D76" s="20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E76" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G76" s="28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H76" s="23" t="s">
         <v>73</v>
@@ -5115,22 +5158,22 @@
     <row r="77" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="14"/>
       <c r="B77" s="18">
-        <v>78762</v>
+        <v>78766</v>
       </c>
       <c r="C77" s="19">
         <v>44505</v>
       </c>
       <c r="D77" s="20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E77" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G77" s="28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H77" s="23" t="s">
         <v>73</v>
@@ -5148,25 +5191,25 @@
     <row r="78" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="14"/>
       <c r="B78" s="18">
-        <v>78761</v>
+        <v>78765</v>
       </c>
       <c r="C78" s="19">
         <v>44505</v>
       </c>
       <c r="D78" s="20">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E78" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G78" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H78" s="23" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I78" s="24" t="s">
         <v>73</v>
@@ -5181,16 +5224,16 @@
     <row r="79" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="14"/>
       <c r="B79" s="18">
-        <v>78760</v>
+        <v>78764</v>
       </c>
       <c r="C79" s="19">
         <v>44505</v>
       </c>
       <c r="D79" s="20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F79" s="22" t="s">
         <v>68</v>
@@ -5214,7 +5257,7 @@
     <row r="80" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="14"/>
       <c r="B80" s="18">
-        <v>78759</v>
+        <v>78763</v>
       </c>
       <c r="C80" s="19">
         <v>44505</v>
@@ -5223,7 +5266,7 @@
         <v>20</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F80" s="22" t="s">
         <v>68</v>
@@ -5247,16 +5290,16 @@
     <row r="81" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="14"/>
       <c r="B81" s="18">
-        <v>78758</v>
+        <v>78762</v>
       </c>
       <c r="C81" s="19">
         <v>44505</v>
       </c>
-      <c r="D81" s="20" t="s">
-        <v>14</v>
+      <c r="D81" s="20">
+        <v>20</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F81" s="22" t="s">
         <v>68</v>
@@ -5280,16 +5323,16 @@
     <row r="82" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="14"/>
       <c r="B82" s="18">
-        <v>78757</v>
+        <v>78761</v>
       </c>
       <c r="C82" s="19">
         <v>44505</v>
       </c>
       <c r="D82" s="20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F82" s="22" t="s">
         <v>68</v>
@@ -5313,16 +5356,16 @@
     <row r="83" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="14"/>
       <c r="B83" s="18">
-        <v>78756</v>
+        <v>78760</v>
       </c>
       <c r="C83" s="19">
         <v>44505</v>
       </c>
       <c r="D83" s="20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F83" s="22" t="s">
         <v>68</v>
@@ -5346,168 +5389,160 @@
     <row r="84" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="14"/>
       <c r="B84" s="18">
-        <v>78755</v>
+        <v>78759</v>
       </c>
       <c r="C84" s="19">
-        <v>44504</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>56</v>
+        <v>44505</v>
+      </c>
+      <c r="D84" s="20">
+        <v>20</v>
       </c>
       <c r="E84" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="G84" s="28" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="H84" s="23" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I84" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J84" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J84" s="25"/>
       <c r="K84" s="28"/>
-      <c r="L84" s="26"/>
-      <c r="M84" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L84" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M84" s="27"/>
     </row>
     <row r="85" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="14"/>
       <c r="B85" s="18">
-        <v>78754</v>
+        <v>78758</v>
       </c>
       <c r="C85" s="19">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="G85" s="28" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="H85" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I85" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J85" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I85" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J85" s="25"/>
       <c r="K85" s="28"/>
-      <c r="L85" s="26"/>
-      <c r="M85" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L85" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M85" s="27"/>
     </row>
     <row r="86" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="14"/>
       <c r="B86" s="18">
-        <v>78753</v>
+        <v>78757</v>
       </c>
       <c r="C86" s="19">
-        <v>44504</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>54</v>
+        <v>44505</v>
+      </c>
+      <c r="D86" s="20">
+        <v>30</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="H86" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="24">
-        <v>44501</v>
-      </c>
-      <c r="J86" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I86" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J86" s="25"/>
       <c r="K86" s="28"/>
-      <c r="L86" s="26"/>
-      <c r="M86" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L86" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M86" s="27"/>
     </row>
     <row r="87" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="14"/>
       <c r="B87" s="18">
-        <v>78752</v>
+        <v>78756</v>
       </c>
       <c r="C87" s="19">
-        <v>44504</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>50</v>
+        <v>44505</v>
+      </c>
+      <c r="D87" s="20">
+        <v>20</v>
       </c>
       <c r="E87" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F87" s="22" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="G87" s="28" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="H87" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I87" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J87" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I87" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J87" s="25"/>
       <c r="K87" s="28"/>
-      <c r="L87" s="26"/>
-      <c r="M87" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L87" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M87" s="27"/>
     </row>
     <row r="88" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="14"/>
       <c r="B88" s="18">
-        <v>78751</v>
+        <v>78755</v>
       </c>
       <c r="C88" s="19">
         <v>44504</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G88" s="28" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H88" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I88" s="24">
-        <v>44502</v>
+      <c r="I88" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="J88" s="25" t="s">
         <v>67</v>
@@ -5521,143 +5556,165 @@
     <row r="89" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="14"/>
       <c r="B89" s="18">
-        <v>78750</v>
+        <v>78754</v>
       </c>
       <c r="C89" s="19">
         <v>44504</v>
       </c>
-      <c r="D89" s="20">
-        <v>40</v>
+      <c r="D89" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F89" s="22" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="G89" s="28" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="H89" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J89" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="I89" s="24">
+        <v>44502</v>
+      </c>
+      <c r="J89" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K89" s="28"/>
-      <c r="L89" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M89" s="27"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="90" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="14"/>
       <c r="B90" s="18">
-        <v>78749</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D90" s="20"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="25"/>
+        <v>78753</v>
+      </c>
+      <c r="C90" s="19">
+        <v>44504</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F90" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" s="24">
+        <v>44501</v>
+      </c>
+      <c r="J90" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K90" s="28"/>
       <c r="L90" s="26"/>
-      <c r="M90" s="27"/>
+      <c r="M90" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="91" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="14"/>
       <c r="B91" s="18">
-        <v>78748</v>
+        <v>78752</v>
       </c>
       <c r="C91" s="19">
         <v>44504</v>
       </c>
-      <c r="D91" s="20">
-        <v>40</v>
+      <c r="D91" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="E91" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="G91" s="28" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="H91" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I91" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J91" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="I91" s="24">
+        <v>44502</v>
+      </c>
+      <c r="J91" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K91" s="28"/>
-      <c r="L91" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M91" s="27"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="92" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="14"/>
       <c r="B92" s="18">
-        <v>78747</v>
+        <v>78751</v>
       </c>
       <c r="C92" s="19">
         <v>44504</v>
       </c>
-      <c r="D92" s="20">
-        <v>70</v>
+      <c r="D92" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="E92" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="G92" s="28" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="H92" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I92" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J92" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="I92" s="24">
+        <v>44502</v>
+      </c>
+      <c r="J92" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K92" s="28"/>
-      <c r="L92" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M92" s="27"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="93" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="14"/>
       <c r="B93" s="18">
-        <v>78746</v>
+        <v>78750</v>
       </c>
       <c r="C93" s="19">
         <v>44504</v>
       </c>
       <c r="D93" s="20">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E93" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F93" s="22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G93" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H93" s="23" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="I93" s="24" t="s">
         <v>73</v>
@@ -5672,236 +5729,214 @@
     <row r="94" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="14"/>
       <c r="B94" s="18">
-        <v>78745</v>
-      </c>
-      <c r="C94" s="19">
-        <v>44504</v>
-      </c>
-      <c r="D94" s="20">
-        <v>10</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F94" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G94" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H94" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I94" s="24" t="s">
-        <v>73</v>
-      </c>
+        <v>78749</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" s="20"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="24"/>
       <c r="J94" s="25"/>
       <c r="K94" s="28"/>
-      <c r="L94" s="26" t="s">
-        <v>67</v>
-      </c>
+      <c r="L94" s="26"/>
       <c r="M94" s="27"/>
     </row>
     <row r="95" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="14"/>
       <c r="B95" s="18">
-        <v>78744</v>
+        <v>78748</v>
       </c>
       <c r="C95" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>52</v>
+        <v>44504</v>
+      </c>
+      <c r="D95" s="20">
+        <v>40</v>
       </c>
       <c r="E95" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="G95" s="28" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="H95" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I95" s="24">
-        <v>44497</v>
+        <v>73</v>
+      </c>
+      <c r="I95" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="J95" s="25"/>
       <c r="K95" s="28"/>
       <c r="L95" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="M95" s="27" t="s">
-        <v>4</v>
-      </c>
+      <c r="M95" s="27"/>
     </row>
     <row r="96" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="14"/>
       <c r="B96" s="18">
-        <v>78743</v>
+        <v>78747</v>
       </c>
       <c r="C96" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>56</v>
+        <v>44504</v>
+      </c>
+      <c r="D96" s="20">
+        <v>70</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F96" s="22" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="G96" s="28" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H96" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I96" s="24">
-        <v>44497</v>
-      </c>
-      <c r="J96" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I96" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J96" s="25"/>
       <c r="K96" s="28"/>
-      <c r="L96" s="26"/>
-      <c r="M96" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L96" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M96" s="27"/>
     </row>
     <row r="97" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="14"/>
       <c r="B97" s="18">
-        <v>78742</v>
+        <v>78746</v>
       </c>
       <c r="C97" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>51</v>
+        <v>44504</v>
+      </c>
+      <c r="D97" s="20">
+        <v>60</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="G97" s="28" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H97" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I97" s="24">
-        <v>44498</v>
-      </c>
-      <c r="J97" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I97" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J97" s="25"/>
       <c r="K97" s="28"/>
-      <c r="L97" s="26"/>
-      <c r="M97" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L97" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M97" s="27"/>
     </row>
     <row r="98" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="14"/>
       <c r="B98" s="18">
-        <v>78741</v>
+        <v>78745</v>
       </c>
       <c r="C98" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>49</v>
+        <v>44504</v>
+      </c>
+      <c r="D98" s="20">
+        <v>10</v>
       </c>
       <c r="E98" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F98" s="22" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="H98" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I98" s="24">
-        <v>44501</v>
-      </c>
-      <c r="J98" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I98" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J98" s="25"/>
       <c r="K98" s="28"/>
-      <c r="L98" s="26"/>
-      <c r="M98" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L98" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M98" s="27"/>
     </row>
     <row r="99" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="14"/>
       <c r="B99" s="18">
-        <v>78740</v>
+        <v>78744</v>
       </c>
       <c r="C99" s="19">
         <v>44503</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E99" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F99" s="22" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="H99" s="23" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I99" s="24">
         <v>44497</v>
       </c>
-      <c r="J99" s="25" t="s">
-        <v>67</v>
-      </c>
+      <c r="J99" s="25"/>
       <c r="K99" s="28"/>
-      <c r="L99" s="26"/>
+      <c r="L99" s="26" t="s">
+        <v>67</v>
+      </c>
       <c r="M99" s="27" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="14"/>
       <c r="B100" s="18">
-        <v>78739</v>
+        <v>78743</v>
       </c>
       <c r="C100" s="19">
         <v>44503</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F100" s="22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G100" s="28" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H100" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I100" s="24" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="I100" s="24">
+        <v>44497</v>
       </c>
       <c r="J100" s="25" t="s">
         <v>67</v>
@@ -5915,28 +5950,28 @@
     <row r="101" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="14"/>
       <c r="B101" s="18">
-        <v>78738</v>
+        <v>78742</v>
       </c>
       <c r="C101" s="19">
         <v>44503</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F101" s="22" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G101" s="28" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H101" s="23" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I101" s="24">
-        <v>44500</v>
+        <v>44498</v>
       </c>
       <c r="J101" s="25" t="s">
         <v>67</v>
@@ -5950,63 +5985,63 @@
     <row r="102" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="14"/>
       <c r="B102" s="18">
-        <v>78737</v>
+        <v>78741</v>
       </c>
       <c r="C102" s="19">
         <v>44503</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F102" s="22" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H102" s="23" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="I102" s="24">
-        <v>44499</v>
-      </c>
-      <c r="J102" s="25"/>
+        <v>44501</v>
+      </c>
+      <c r="J102" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K102" s="28"/>
-      <c r="L102" s="26" t="s">
-        <v>67</v>
-      </c>
+      <c r="L102" s="26"/>
       <c r="M102" s="27" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="14"/>
       <c r="B103" s="18">
-        <v>78736</v>
+        <v>78740</v>
       </c>
       <c r="C103" s="19">
         <v>44503</v>
       </c>
-      <c r="D103" s="20">
-        <v>60</v>
+      <c r="D103" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="E103" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="G103" s="28" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="H103" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I103" s="24" t="s">
-        <v>73</v>
+        <v>0</v>
+      </c>
+      <c r="I103" s="24">
+        <v>44497</v>
       </c>
       <c r="J103" s="25" t="s">
         <v>67</v>
@@ -6014,130 +6049,136 @@
       <c r="K103" s="28"/>
       <c r="L103" s="26"/>
       <c r="M103" s="27" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="14"/>
       <c r="B104" s="18">
-        <v>78735</v>
+        <v>78739</v>
       </c>
       <c r="C104" s="19">
         <v>44503</v>
       </c>
-      <c r="D104" s="20">
-        <v>20</v>
+      <c r="D104" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="E104" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F104" s="22" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="G104" s="28" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="H104" s="23" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="I104" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J104" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="J104" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K104" s="28"/>
-      <c r="L104" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M104" s="27"/>
+      <c r="L104" s="26"/>
+      <c r="M104" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="105" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="14"/>
       <c r="B105" s="18">
-        <v>78734</v>
+        <v>78738</v>
       </c>
       <c r="C105" s="19">
         <v>44503</v>
       </c>
-      <c r="D105" s="20">
-        <v>80</v>
+      <c r="D105" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="E105" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F105" s="22" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="G105" s="28" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="H105" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I105" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J105" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="I105" s="24">
+        <v>44500</v>
+      </c>
+      <c r="J105" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K105" s="28"/>
-      <c r="L105" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M105" s="27"/>
+      <c r="L105" s="26"/>
+      <c r="M105" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="106" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="14"/>
       <c r="B106" s="18">
-        <v>78733</v>
+        <v>78737</v>
       </c>
       <c r="C106" s="19">
         <v>44503</v>
       </c>
-      <c r="D106" s="20">
-        <v>10</v>
+      <c r="D106" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="E106" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F106" s="22" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="G106" s="28" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="H106" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="I106" s="24" t="s">
-        <v>73</v>
+        <v>13</v>
+      </c>
+      <c r="I106" s="24">
+        <v>44499</v>
       </c>
       <c r="J106" s="25"/>
       <c r="K106" s="28"/>
       <c r="L106" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="M106" s="27"/>
+      <c r="M106" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="107" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="14"/>
       <c r="B107" s="18">
-        <v>78732</v>
+        <v>78736</v>
       </c>
       <c r="C107" s="19">
         <v>44503</v>
       </c>
-      <c r="D107" s="20" t="s">
-        <v>14</v>
+      <c r="D107" s="20">
+        <v>60</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F107" s="22" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G107" s="28" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H107" s="23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I107" s="24" t="s">
         <v>73</v>
@@ -6148,28 +6189,28 @@
       <c r="K107" s="28"/>
       <c r="L107" s="26"/>
       <c r="M107" s="27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="14"/>
       <c r="B108" s="18">
-        <v>78731</v>
+        <v>78735</v>
       </c>
       <c r="C108" s="19">
         <v>44503</v>
       </c>
-      <c r="D108" s="20" t="s">
-        <v>14</v>
+      <c r="D108" s="20">
+        <v>20</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F108" s="22" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G108" s="28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H108" s="23" t="s">
         <v>73</v>
@@ -6187,25 +6228,25 @@
     <row r="109" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="14"/>
       <c r="B109" s="18">
-        <v>78730</v>
+        <v>78734</v>
       </c>
       <c r="C109" s="19">
         <v>44503</v>
       </c>
-      <c r="D109" s="20" t="s">
-        <v>14</v>
+      <c r="D109" s="20">
+        <v>80</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F109" s="22" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G109" s="28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H109" s="23" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I109" s="24" t="s">
         <v>73</v>
@@ -6220,25 +6261,25 @@
     <row r="110" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="14"/>
       <c r="B110" s="18">
-        <v>78729</v>
+        <v>78733</v>
       </c>
       <c r="C110" s="19">
         <v>44503</v>
       </c>
-      <c r="D110" s="20" t="s">
-        <v>14</v>
+      <c r="D110" s="20">
+        <v>10</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G110" s="28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H110" s="23" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I110" s="24" t="s">
         <v>73</v>
@@ -6253,46 +6294,48 @@
     <row r="111" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="14"/>
       <c r="B111" s="18">
-        <v>78728</v>
+        <v>78732</v>
       </c>
       <c r="C111" s="19">
         <v>44503</v>
       </c>
-      <c r="D111" s="20">
-        <v>30</v>
+      <c r="D111" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G111" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H111" s="23" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I111" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="J111" s="25"/>
+      <c r="J111" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="K111" s="28"/>
-      <c r="L111" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M111" s="27"/>
+      <c r="L111" s="26"/>
+      <c r="M111" s="27" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="112" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="14"/>
       <c r="B112" s="18">
-        <v>78727</v>
+        <v>78731</v>
       </c>
       <c r="C112" s="19">
         <v>44503</v>
       </c>
-      <c r="D112" s="20">
-        <v>50</v>
+      <c r="D112" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E112" s="21" t="s">
         <v>26</v>
@@ -6319,13 +6362,13 @@
     <row r="113" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="14"/>
       <c r="B113" s="18">
-        <v>78726</v>
+        <v>78730</v>
       </c>
       <c r="C113" s="19">
         <v>44503</v>
       </c>
-      <c r="D113" s="20">
-        <v>10</v>
+      <c r="D113" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E113" s="21" t="s">
         <v>26</v>
@@ -6352,16 +6395,16 @@
     <row r="114" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="14"/>
       <c r="B114" s="18">
-        <v>78725</v>
+        <v>78729</v>
       </c>
       <c r="C114" s="19">
         <v>44503</v>
       </c>
-      <c r="D114" s="20">
-        <v>10</v>
+      <c r="D114" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F114" s="22" t="s">
         <v>68</v>
@@ -6385,13 +6428,13 @@
     <row r="115" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="14"/>
       <c r="B115" s="18">
-        <v>78724</v>
+        <v>78728</v>
       </c>
       <c r="C115" s="19">
         <v>44503</v>
       </c>
       <c r="D115" s="20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E115" s="21" t="s">
         <v>27</v>
@@ -6418,16 +6461,16 @@
     <row r="116" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="14"/>
       <c r="B116" s="18">
-        <v>78723</v>
+        <v>78727</v>
       </c>
       <c r="C116" s="19">
         <v>44503</v>
       </c>
       <c r="D116" s="20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E116" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F116" s="22" t="s">
         <v>68</v>
@@ -6451,13 +6494,13 @@
     <row r="117" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="14"/>
       <c r="B117" s="18">
-        <v>78722</v>
+        <v>78726</v>
       </c>
       <c r="C117" s="19">
         <v>44503</v>
       </c>
-      <c r="D117" s="20" t="s">
-        <v>14</v>
+      <c r="D117" s="20">
+        <v>10</v>
       </c>
       <c r="E117" s="21" t="s">
         <v>26</v>
@@ -6484,13 +6527,13 @@
     <row r="118" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="14"/>
       <c r="B118" s="18">
-        <v>78721</v>
+        <v>78725</v>
       </c>
       <c r="C118" s="19">
         <v>44503</v>
       </c>
       <c r="D118" s="20">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E118" s="21" t="s">
         <v>26</v>
@@ -6517,13 +6560,13 @@
     <row r="119" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="14"/>
       <c r="B119" s="18">
-        <v>78720</v>
+        <v>78724</v>
       </c>
       <c r="C119" s="19">
         <v>44503</v>
       </c>
       <c r="D119" s="20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E119" s="21" t="s">
         <v>27</v>
@@ -6550,55 +6593,55 @@
     <row r="120" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="14"/>
       <c r="B120" s="18">
-        <v>78719</v>
+        <v>78723</v>
       </c>
       <c r="C120" s="19">
-        <v>44502</v>
-      </c>
-      <c r="D120" s="20" t="s">
-        <v>50</v>
+        <v>44503</v>
+      </c>
+      <c r="D120" s="20">
+        <v>30</v>
       </c>
       <c r="E120" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F120" s="22" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="G120" s="28" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="H120" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I120" s="24">
-        <v>44493</v>
+        <v>73</v>
+      </c>
+      <c r="I120" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="J120" s="25"/>
       <c r="K120" s="28"/>
       <c r="L120" s="26" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="M120" s="27"/>
     </row>
     <row r="121" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="14"/>
       <c r="B121" s="18">
-        <v>78718</v>
+        <v>78722</v>
       </c>
       <c r="C121" s="19">
-        <v>44502</v>
-      </c>
-      <c r="D121" s="20">
-        <v>20</v>
+        <v>44503</v>
+      </c>
+      <c r="D121" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F121" s="22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G121" s="28" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="H121" s="23" t="s">
         <v>73</v>
@@ -6609,29 +6652,29 @@
       <c r="J121" s="25"/>
       <c r="K121" s="28"/>
       <c r="L121" s="26" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="M121" s="27"/>
     </row>
     <row r="122" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="14"/>
       <c r="B122" s="18">
-        <v>78717</v>
+        <v>78721</v>
       </c>
       <c r="C122" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D122" s="20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E122" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F122" s="22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G122" s="28" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="H122" s="23" t="s">
         <v>73</v>
@@ -6642,17 +6685,17 @@
       <c r="J122" s="25"/>
       <c r="K122" s="28"/>
       <c r="L122" s="26" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="M122" s="27"/>
     </row>
     <row r="123" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="14"/>
       <c r="B123" s="18">
-        <v>78716</v>
+        <v>78720</v>
       </c>
       <c r="C123" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D123" s="20">
         <v>30</v>
@@ -6661,10 +6704,10 @@
         <v>27</v>
       </c>
       <c r="F123" s="22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G123" s="28" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="H123" s="23" t="s">
         <v>73</v>
@@ -6675,64 +6718,62 @@
       <c r="J123" s="25"/>
       <c r="K123" s="28"/>
       <c r="L123" s="26" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="M123" s="27"/>
     </row>
     <row r="124" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="14"/>
       <c r="B124" s="18">
-        <v>78715</v>
+        <v>78719</v>
       </c>
       <c r="C124" s="19">
         <v>44502</v>
       </c>
-      <c r="D124" s="20">
-        <v>40</v>
+      <c r="D124" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="E124" s="21" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F124" s="22" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="G124" s="28" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="H124" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="I124" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J124" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I124" s="24">
+        <v>44493</v>
+      </c>
+      <c r="J124" s="25"/>
+      <c r="K124" s="28"/>
+      <c r="L124" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="K124" s="28"/>
-      <c r="L124" s="26"/>
-      <c r="M124" s="27" t="s">
-        <v>75</v>
-      </c>
+      <c r="M124" s="27"/>
     </row>
     <row r="125" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="14"/>
       <c r="B125" s="18">
-        <v>78714</v>
+        <v>78718</v>
       </c>
       <c r="C125" s="19">
         <v>44502</v>
       </c>
       <c r="D125" s="20">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F125" s="22" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G125" s="28" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="H125" s="23" t="s">
         <v>73</v>
@@ -6750,22 +6791,22 @@
     <row r="126" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="14"/>
       <c r="B126" s="18">
-        <v>78713</v>
+        <v>78717</v>
       </c>
       <c r="C126" s="19">
         <v>44502</v>
       </c>
       <c r="D126" s="20">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E126" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F126" s="22" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G126" s="28" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="H126" s="23" t="s">
         <v>73</v>
@@ -6783,22 +6824,22 @@
     <row r="127" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="14"/>
       <c r="B127" s="18">
-        <v>78712</v>
+        <v>78716</v>
       </c>
       <c r="C127" s="19">
         <v>44502</v>
       </c>
       <c r="D127" s="20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F127" s="22" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G127" s="28" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="H127" s="23" t="s">
         <v>73</v>
@@ -6816,46 +6857,48 @@
     <row r="128" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="14"/>
       <c r="B128" s="18">
-        <v>78711</v>
+        <v>78715</v>
       </c>
       <c r="C128" s="19">
         <v>44502</v>
       </c>
       <c r="D128" s="20">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F128" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G128" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H128" s="23" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I128" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="J128" s="25"/>
+      <c r="J128" s="25" t="s">
+        <v>74</v>
+      </c>
       <c r="K128" s="28"/>
-      <c r="L128" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="M128" s="27"/>
+      <c r="L128" s="26"/>
+      <c r="M128" s="27" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="129" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="14"/>
       <c r="B129" s="18">
-        <v>78710</v>
+        <v>78714</v>
       </c>
       <c r="C129" s="19">
         <v>44502</v>
       </c>
       <c r="D129" s="20">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E129" s="21" t="s">
         <v>26</v>
@@ -6882,16 +6925,16 @@
     <row r="130" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="14"/>
       <c r="B130" s="18">
-        <v>78709</v>
+        <v>78713</v>
       </c>
       <c r="C130" s="19">
         <v>44502</v>
       </c>
       <c r="D130" s="20">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E130" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F130" s="22" t="s">
         <v>72</v>
@@ -6915,68 +6958,200 @@
     <row r="131" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="14"/>
       <c r="B131" s="18">
-        <v>78708</v>
+        <v>78712</v>
       </c>
       <c r="C131" s="19">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="D131" s="20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E131" s="21" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="F131" s="22" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G131" s="28" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H131" s="23" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I131" s="24" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J131" s="25"/>
       <c r="K131" s="28"/>
       <c r="L131" s="26" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="M131" s="27"/>
     </row>
     <row r="132" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="14"/>
       <c r="B132" s="18">
-        <v>78707</v>
+        <v>78711</v>
       </c>
       <c r="C132" s="19">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="D132" s="20">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E132" s="21" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="F132" s="22" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G132" s="28" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H132" s="23" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I132" s="24" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J132" s="25"/>
       <c r="K132" s="28"/>
       <c r="L132" s="26" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="M132" s="27"/>
+    </row>
+    <row r="133" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="14"/>
+      <c r="B133" s="18">
+        <v>78710</v>
+      </c>
+      <c r="C133" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D133" s="20">
+        <v>70</v>
+      </c>
+      <c r="E133" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F133" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G133" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H133" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I133" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J133" s="25"/>
+      <c r="K133" s="28"/>
+      <c r="L133" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M133" s="27"/>
+    </row>
+    <row r="134" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="14"/>
+      <c r="B134" s="18">
+        <v>78709</v>
+      </c>
+      <c r="C134" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D134" s="20">
+        <v>10</v>
+      </c>
+      <c r="E134" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F134" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G134" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H134" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I134" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J134" s="25"/>
+      <c r="K134" s="28"/>
+      <c r="L134" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M134" s="27"/>
+    </row>
+    <row r="135" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="14"/>
+      <c r="B135" s="18">
+        <v>78708</v>
+      </c>
+      <c r="C135" s="19">
+        <v>44501</v>
+      </c>
+      <c r="D135" s="20">
+        <v>30</v>
+      </c>
+      <c r="E135" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F135" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G135" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H135" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I135" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J135" s="25"/>
+      <c r="K135" s="28"/>
+      <c r="L135" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M135" s="27"/>
+    </row>
+    <row r="136" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="14"/>
+      <c r="B136" s="18">
+        <v>78707</v>
+      </c>
+      <c r="C136" s="19">
+        <v>44501</v>
+      </c>
+      <c r="D136" s="20">
+        <v>80</v>
+      </c>
+      <c r="E136" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F136" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G136" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H136" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I136" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J136" s="25"/>
+      <c r="K136" s="28"/>
+      <c r="L136" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M136" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/corona-kanjajokyou.xlsx
+++ b/corona-kanjajokyou.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lb16z0190\広報戦略\11Twitter対応について\98 コロナ(毎日の発生状況)\HP作業用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Lb16z0190\広報戦略\11Twitter対応について\98 コロナ(毎日の発生状況)\HP作業用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83836FDC-4BDF-4B6E-8AC5-A28E05CCC08F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDE6FE28-1177-42B8-9B27-7F3964F91550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$136</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$146</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="128">
   <si>
     <t>非公表</t>
   </si>
@@ -84,6 +84,9 @@
     <t>加古川健康福祉事務所管内</t>
   </si>
   <si>
+    <t>姫路市</t>
+  </si>
+  <si>
     <t>伊丹</t>
   </si>
   <si>
@@ -118,6 +121,9 @@
   </si>
   <si>
     <t>西宮市外</t>
+  </si>
+  <si>
+    <t>尼崎市</t>
   </si>
   <si>
     <t>陽性患者の濃厚接触者</t>
@@ -564,10 +570,6 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>令和2年3月1日以降の総数 78,586件 ※欠番251件（医療機関での発生届の取り下げ等）</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
     <t>男性</t>
     <rPh sb="0" eb="2">
       <t>ダンセイ</t>
@@ -608,6 +610,93 @@
       <t>チョウサチュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>尼崎</t>
+    <rPh sb="0" eb="2">
+      <t>アマガサキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="1" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>姫路</t>
+    <rPh sb="0" eb="2">
+      <t>ヒメジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>滞在者</t>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>感染者と接触歴あり</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>神戸市発表患者の濃厚接触者</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陽性患者の接触者</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンジャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陽性患者の接触者</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンジャ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>欠番</t>
+    <rPh sb="0" eb="2">
+      <t>ケツバン</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>令和2年3月1日以降の総数 78,595件 ※欠番252件（医療機関での発生届の取り下げ等）</t>
+    <phoneticPr fontId="0"/>
   </si>
 </sst>
 </file>
@@ -2622,13 +2711,13 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2651,7 +2740,7 @@
     <row r="1" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2662,11 +2751,11 @@
       <c r="I1" s="3"/>
       <c r="J1" s="31">
         <f ca="1">TODAY()-1</f>
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="K1" s="31"/>
       <c r="L1" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="3"/>
@@ -2701,43 +2790,43 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K4" s="43"/>
       <c r="L4" s="44"/>
       <c r="M4" s="29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N4" s="13"/>
     </row>
@@ -2752,904 +2841,896 @@
       <c r="H5" s="38"/>
       <c r="I5" s="41"/>
       <c r="J5" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M5" s="30"/>
     </row>
     <row r="6" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="18">
-        <v>78837</v>
+        <v>78847</v>
       </c>
       <c r="C6" s="19">
-        <v>44511</v>
-      </c>
-      <c r="D6" s="20">
-        <v>40</v>
+        <v>44512</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="J6" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>124</v>
+      </c>
       <c r="K6" s="28"/>
-      <c r="L6" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M6" s="27"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="18">
-        <v>78836</v>
+        <v>78846</v>
       </c>
       <c r="C7" s="19">
-        <v>44511</v>
-      </c>
-      <c r="D7" s="20">
-        <v>20</v>
+        <v>44512</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>113</v>
+        <v>7</v>
+      </c>
+      <c r="I7" s="24">
+        <v>44509</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="28"/>
       <c r="L7" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="27"/>
+        <v>124</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
       <c r="B8" s="18">
-        <v>78835</v>
+        <v>78845</v>
       </c>
       <c r="C8" s="19">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="D8" s="20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" s="25"/>
+        <v>125</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>124</v>
+      </c>
       <c r="K8" s="28"/>
-      <c r="L8" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M8" s="27"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="18">
-        <v>78834</v>
+        <v>78844</v>
       </c>
       <c r="C9" s="19">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="D9" s="20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="J9" s="25"/>
+        <v>125</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>124</v>
+      </c>
       <c r="K9" s="28"/>
-      <c r="L9" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M9" s="27"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="27" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="18">
-        <v>78833</v>
+        <v>78843</v>
       </c>
       <c r="C10" s="19">
-        <v>44510</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>51</v>
+        <v>44512</v>
+      </c>
+      <c r="D10" s="20">
+        <v>80</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="28" t="s">
-        <v>32</v>
-      </c>
       <c r="H10" s="23" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>105</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="J10" s="25"/>
       <c r="K10" s="28"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L10" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="18">
-        <v>78832</v>
+        <v>78842</v>
       </c>
       <c r="C11" s="19">
-        <v>44510</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>55</v>
+        <v>44512</v>
+      </c>
+      <c r="D11" s="20">
+        <v>60</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>32</v>
-      </c>
       <c r="H11" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="24">
-        <v>44508</v>
+        <v>21</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="J11" s="25"/>
       <c r="K11" s="28"/>
       <c r="L11" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="18">
-        <v>78831</v>
+        <v>78841</v>
       </c>
       <c r="C12" s="19">
-        <v>44510</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>56</v>
+        <v>44512</v>
+      </c>
+      <c r="D12" s="20">
+        <v>30</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="24">
-        <v>44508</v>
-      </c>
-      <c r="J12" s="25"/>
+        <v>118</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>124</v>
+      </c>
       <c r="K12" s="28"/>
-      <c r="L12" s="26" t="s">
-        <v>105</v>
-      </c>
+      <c r="L12" s="26"/>
       <c r="M12" s="27" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="18">
-        <v>78830</v>
+        <v>78840</v>
       </c>
       <c r="C13" s="19">
-        <v>44510</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>49</v>
+        <v>44512</v>
+      </c>
+      <c r="D13" s="20">
+        <v>20</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="F13" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>64</v>
-      </c>
       <c r="H13" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="24">
-        <v>44508</v>
-      </c>
-      <c r="J13" s="25"/>
+        <v>118</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>124</v>
+      </c>
       <c r="K13" s="28"/>
-      <c r="L13" s="26" t="s">
-        <v>105</v>
-      </c>
+      <c r="L13" s="26"/>
       <c r="M13" s="27" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="18">
-        <v>78829</v>
+        <v>78839</v>
       </c>
       <c r="C14" s="19">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="D14" s="20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="25"/>
+        <v>119</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>124</v>
+      </c>
       <c r="K14" s="28"/>
-      <c r="L14" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="M14" s="27"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="27" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="18">
-        <v>78828</v>
+        <v>78838</v>
       </c>
       <c r="C15" s="19">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="D15" s="20">
         <v>30</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J15" s="25"/>
       <c r="K15" s="28"/>
       <c r="L15" s="26" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="18">
-        <v>78827</v>
+        <v>78837</v>
       </c>
       <c r="C16" s="19">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="D16" s="20">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="J16" s="25"/>
       <c r="K16" s="28"/>
       <c r="L16" s="26" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="18">
-        <v>78826</v>
-      </c>
-      <c r="C17" s="19">
-        <v>44510</v>
-      </c>
-      <c r="D17" s="20">
-        <v>60</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>105</v>
-      </c>
+        <v>78836</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
       <c r="K17" s="28"/>
       <c r="L17" s="26"/>
-      <c r="M17" s="27" t="s">
-        <v>104</v>
-      </c>
+      <c r="M17" s="27"/>
     </row>
     <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="18">
-        <v>78825</v>
+        <v>78835</v>
       </c>
       <c r="C18" s="19">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="D18" s="20">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>105</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="J18" s="25"/>
       <c r="K18" s="28"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27" t="s">
-        <v>104</v>
-      </c>
+      <c r="L18" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="18">
-        <v>78824</v>
+        <v>78834</v>
       </c>
       <c r="C19" s="19">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="D19" s="20">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="J19" s="25"/>
       <c r="K19" s="28"/>
       <c r="L19" s="26" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="M19" s="27"/>
     </row>
     <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="18">
-        <v>78823</v>
+        <v>78833</v>
       </c>
       <c r="C20" s="19">
         <v>44510</v>
       </c>
-      <c r="D20" s="20">
-        <v>20</v>
+      <c r="D20" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>107</v>
+      </c>
       <c r="K20" s="28"/>
-      <c r="L20" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="M20" s="27"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="18">
-        <v>78822</v>
+        <v>78832</v>
       </c>
       <c r="C21" s="19">
         <v>44510</v>
       </c>
-      <c r="D21" s="20">
-        <v>20</v>
+      <c r="D21" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>73</v>
+        <v>0</v>
+      </c>
+      <c r="I21" s="24">
+        <v>44508</v>
       </c>
       <c r="J21" s="25"/>
       <c r="K21" s="28"/>
       <c r="L21" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="M21" s="27"/>
+        <v>107</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="18">
-        <v>78821</v>
+        <v>78831</v>
       </c>
       <c r="C22" s="19">
         <v>44510</v>
       </c>
-      <c r="D22" s="20">
-        <v>10</v>
+      <c r="D22" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>73</v>
+        <v>0</v>
+      </c>
+      <c r="I22" s="24">
+        <v>44508</v>
       </c>
       <c r="J22" s="25"/>
       <c r="K22" s="28"/>
       <c r="L22" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="M22" s="27"/>
+        <v>107</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="18">
-        <v>78820</v>
+        <v>78830</v>
       </c>
       <c r="C23" s="19">
         <v>44510</v>
       </c>
-      <c r="D23" s="20">
-        <v>10</v>
+      <c r="D23" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>73</v>
+        <v>7</v>
+      </c>
+      <c r="I23" s="24">
+        <v>44508</v>
       </c>
       <c r="J23" s="25"/>
       <c r="K23" s="28"/>
       <c r="L23" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="M23" s="27"/>
+        <v>107</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="18">
-        <v>78819</v>
+        <v>78829</v>
       </c>
       <c r="C24" s="19">
         <v>44510</v>
       </c>
       <c r="D24" s="20">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J24" s="25"/>
       <c r="K24" s="28"/>
       <c r="L24" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M24" s="27"/>
     </row>
     <row r="25" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="18">
-        <v>78818</v>
+        <v>78828</v>
       </c>
       <c r="C25" s="19">
-        <v>44509</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>53</v>
+        <v>44510</v>
+      </c>
+      <c r="D25" s="20">
+        <v>30</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="24">
-        <v>44508</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="25"/>
       <c r="K25" s="28"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L25" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="M25" s="27"/>
     </row>
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="18">
-        <v>78817</v>
+        <v>78827</v>
       </c>
       <c r="C26" s="19">
-        <v>44509</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>50</v>
+        <v>44510</v>
+      </c>
+      <c r="D26" s="20">
+        <v>30</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="24">
-        <v>44505</v>
+        <v>75</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="J26" s="25"/>
       <c r="K26" s="28"/>
       <c r="L26" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M26" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="M26" s="27"/>
     </row>
     <row r="27" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="18">
-        <v>78816</v>
+        <v>78826</v>
       </c>
       <c r="C27" s="19">
-        <v>44509</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>14</v>
+        <v>44510</v>
+      </c>
+      <c r="D27" s="20">
+        <v>60</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="24">
-        <v>44505</v>
+        <v>13</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="K27" s="28"/>
       <c r="L27" s="26"/>
       <c r="M27" s="27" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="18">
-        <v>78815</v>
+        <v>78825</v>
       </c>
       <c r="C28" s="19">
-        <v>44509</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>56</v>
+        <v>44510</v>
+      </c>
+      <c r="D28" s="20">
+        <v>60</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="24">
-        <v>44505</v>
-      </c>
-      <c r="J28" s="25"/>
+        <v>105</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>107</v>
+      </c>
       <c r="K28" s="28"/>
-      <c r="L28" s="26" t="s">
-        <v>67</v>
-      </c>
+      <c r="L28" s="26"/>
       <c r="M28" s="27" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="18">
-        <v>78814</v>
+        <v>78824</v>
       </c>
       <c r="C29" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D29" s="20">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J29" s="25"/>
       <c r="K29" s="28"/>
       <c r="L29" s="26" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="M29" s="27"/>
     </row>
     <row r="30" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
       <c r="B30" s="18">
-        <v>78813</v>
+        <v>78823</v>
       </c>
       <c r="C30" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D30" s="20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J30" s="25"/>
       <c r="K30" s="28"/>
       <c r="L30" s="26" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="M30" s="27"/>
     </row>
     <row r="31" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
       <c r="B31" s="18">
-        <v>78812</v>
+        <v>78822</v>
       </c>
       <c r="C31" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D31" s="20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J31" s="25"/>
       <c r="K31" s="28"/>
       <c r="L31" s="26" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="18">
-        <v>78811</v>
+        <v>78821</v>
       </c>
       <c r="C32" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D32" s="20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>27</v>
@@ -3658,227 +3739,231 @@
         <v>70</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J32" s="25"/>
       <c r="K32" s="28"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L32" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="M32" s="27"/>
     </row>
     <row r="33" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="18">
-        <v>78810</v>
+        <v>78820</v>
       </c>
       <c r="C33" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D33" s="20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F33" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J33" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J33" s="25"/>
       <c r="K33" s="28"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L33" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="M33" s="27"/>
     </row>
     <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="18">
-        <v>78809</v>
+        <v>78819</v>
       </c>
       <c r="C34" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D34" s="20">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J34" s="25"/>
       <c r="K34" s="28"/>
       <c r="L34" s="26" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="M34" s="27"/>
     </row>
     <row r="35" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="18">
-        <v>78808</v>
+        <v>78818</v>
       </c>
       <c r="C35" s="19">
         <v>44509</v>
       </c>
-      <c r="D35" s="20">
-        <v>20</v>
+      <c r="D35" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I35" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J35" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="I35" s="24">
+        <v>44508</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K35" s="28"/>
-      <c r="L35" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M35" s="27"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="36" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
       <c r="B36" s="18">
-        <v>78807</v>
+        <v>78817</v>
       </c>
       <c r="C36" s="19">
         <v>44509</v>
       </c>
-      <c r="D36" s="20">
-        <v>20</v>
+      <c r="D36" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="E36" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I36" s="24" t="s">
-        <v>73</v>
+        <v>22</v>
+      </c>
+      <c r="I36" s="24">
+        <v>44505</v>
       </c>
       <c r="J36" s="25"/>
       <c r="K36" s="28"/>
       <c r="L36" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M36" s="27"/>
+        <v>69</v>
+      </c>
+      <c r="M36" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="14"/>
       <c r="B37" s="18">
-        <v>78806</v>
+        <v>78816</v>
       </c>
       <c r="C37" s="19">
         <v>44509</v>
       </c>
-      <c r="D37" s="20">
-        <v>40</v>
+      <c r="D37" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E37" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I37" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J37" s="25"/>
+        <v>35</v>
+      </c>
+      <c r="I37" s="24">
+        <v>44505</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K37" s="28"/>
-      <c r="L37" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M37" s="27"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="14"/>
       <c r="B38" s="18">
-        <v>78805</v>
+        <v>78815</v>
       </c>
       <c r="C38" s="19">
         <v>44509</v>
       </c>
-      <c r="D38" s="20">
-        <v>60</v>
+      <c r="D38" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I38" s="24" t="s">
-        <v>73</v>
+        <v>9</v>
+      </c>
+      <c r="I38" s="24">
+        <v>44505</v>
       </c>
       <c r="J38" s="25"/>
       <c r="K38" s="28"/>
       <c r="L38" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M38" s="27"/>
+        <v>69</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="14"/>
       <c r="B39" s="18">
-        <v>78804</v>
+        <v>78814</v>
       </c>
       <c r="C39" s="19">
         <v>44509</v>
@@ -3887,1575 +3972,1581 @@
         <v>10</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J39" s="25"/>
       <c r="K39" s="28"/>
       <c r="L39" s="26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M39" s="27"/>
     </row>
     <row r="40" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
       <c r="B40" s="18">
-        <v>78803</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="24"/>
+        <v>78813</v>
+      </c>
+      <c r="C40" s="19">
+        <v>44509</v>
+      </c>
+      <c r="D40" s="20">
+        <v>50</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I40" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="J40" s="25"/>
       <c r="K40" s="28"/>
-      <c r="L40" s="26"/>
+      <c r="L40" s="26" t="s">
+        <v>69</v>
+      </c>
       <c r="M40" s="27"/>
     </row>
     <row r="41" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="14"/>
       <c r="B41" s="18">
-        <v>78802</v>
+        <v>78812</v>
       </c>
       <c r="C41" s="19">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="D41" s="20">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J41" s="25"/>
       <c r="K41" s="28"/>
       <c r="L41" s="26" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="M41" s="27"/>
     </row>
     <row r="42" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="14"/>
       <c r="B42" s="18">
-        <v>78801</v>
+        <v>78811</v>
       </c>
       <c r="C42" s="19">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="D42" s="20">
         <v>20</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="J42" s="25"/>
+        <v>75</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K42" s="28"/>
-      <c r="L42" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="M42" s="27"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="43" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="14"/>
       <c r="B43" s="18">
-        <v>78800</v>
+        <v>78810</v>
       </c>
       <c r="C43" s="19">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="D43" s="20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="J43" s="25"/>
+        <v>75</v>
+      </c>
+      <c r="J43" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K43" s="28"/>
-      <c r="L43" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="M43" s="27"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="44" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="14"/>
       <c r="B44" s="18">
-        <v>78799</v>
+        <v>78809</v>
       </c>
       <c r="C44" s="19">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="D44" s="20">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J44" s="25"/>
       <c r="K44" s="28"/>
       <c r="L44" s="26" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="M44" s="27"/>
     </row>
     <row r="45" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="14"/>
       <c r="B45" s="18">
-        <v>78798</v>
+        <v>78808</v>
       </c>
       <c r="C45" s="19">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="D45" s="20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J45" s="25"/>
       <c r="K45" s="28"/>
       <c r="L45" s="26" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="M45" s="27"/>
     </row>
     <row r="46" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="14"/>
       <c r="B46" s="18">
-        <v>78797</v>
+        <v>78807</v>
       </c>
       <c r="C46" s="19">
-        <v>44507</v>
+        <v>44509</v>
       </c>
       <c r="D46" s="20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F46" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J46" s="25"/>
       <c r="K46" s="28"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="27" t="s">
-        <v>93</v>
-      </c>
+      <c r="L46" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M46" s="27"/>
     </row>
     <row r="47" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="14"/>
       <c r="B47" s="18">
-        <v>78796</v>
+        <v>78806</v>
       </c>
       <c r="C47" s="19">
-        <v>44507</v>
+        <v>44509</v>
       </c>
       <c r="D47" s="20">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J47" s="25"/>
       <c r="K47" s="28"/>
       <c r="L47" s="26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M47" s="27"/>
     </row>
     <row r="48" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
       <c r="B48" s="18">
-        <v>78795</v>
+        <v>78805</v>
       </c>
       <c r="C48" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>53</v>
+        <v>44509</v>
+      </c>
+      <c r="D48" s="20">
+        <v>60</v>
       </c>
       <c r="E48" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="24">
-        <v>44502</v>
+        <v>75</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="J48" s="25"/>
       <c r="K48" s="28"/>
       <c r="L48" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M48" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M48" s="27"/>
     </row>
     <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="14"/>
       <c r="B49" s="18">
-        <v>78794</v>
+        <v>78804</v>
       </c>
       <c r="C49" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>14</v>
+        <v>44509</v>
+      </c>
+      <c r="D49" s="20">
+        <v>10</v>
       </c>
       <c r="E49" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I49" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J49" s="25" t="s">
-        <v>94</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J49" s="25"/>
       <c r="K49" s="28"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L49" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M49" s="27"/>
     </row>
     <row r="50" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="14"/>
       <c r="B50" s="18">
-        <v>78793</v>
-      </c>
-      <c r="C50" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I50" s="24">
-        <v>44501</v>
-      </c>
-      <c r="J50" s="25" t="s">
-        <v>94</v>
-      </c>
+        <v>78803</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="25"/>
       <c r="K50" s="28"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L50" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="M50" s="27"/>
     </row>
     <row r="51" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="14"/>
       <c r="B51" s="18">
-        <v>78792</v>
+        <v>78802</v>
       </c>
       <c r="C51" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>56</v>
+        <v>44508</v>
+      </c>
+      <c r="D51" s="20">
+        <v>60</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I51" s="24">
-        <v>44505</v>
-      </c>
-      <c r="J51" s="25" t="s">
-        <v>94</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J51" s="25"/>
       <c r="K51" s="28"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L51" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="M51" s="27"/>
     </row>
     <row r="52" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="14"/>
       <c r="B52" s="18">
-        <v>78791</v>
+        <v>78801</v>
       </c>
       <c r="C52" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>56</v>
+        <v>44508</v>
+      </c>
+      <c r="D52" s="20">
+        <v>20</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="25" t="s">
-        <v>94</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J52" s="25"/>
       <c r="K52" s="28"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L52" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="M52" s="27"/>
     </row>
     <row r="53" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="14"/>
       <c r="B53" s="18">
-        <v>78790</v>
+        <v>78800</v>
       </c>
       <c r="C53" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>14</v>
+        <v>44508</v>
+      </c>
+      <c r="D53" s="20">
+        <v>50</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J53" s="25" t="s">
-        <v>94</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J53" s="25"/>
       <c r="K53" s="28"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L53" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="M53" s="27"/>
     </row>
     <row r="54" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="14"/>
       <c r="B54" s="18">
-        <v>78789</v>
+        <v>78799</v>
       </c>
       <c r="C54" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>14</v>
+        <v>44508</v>
+      </c>
+      <c r="D54" s="20">
+        <v>80</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="25" t="s">
-        <v>94</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J54" s="25"/>
       <c r="K54" s="28"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L54" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="M54" s="27"/>
     </row>
     <row r="55" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="14"/>
       <c r="B55" s="18">
-        <v>78788</v>
+        <v>78798</v>
       </c>
       <c r="C55" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>53</v>
+        <v>44508</v>
+      </c>
+      <c r="D55" s="20">
+        <v>30</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I55" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J55" s="25" t="s">
-        <v>94</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J55" s="25"/>
       <c r="K55" s="28"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L55" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="M55" s="27"/>
     </row>
     <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="14"/>
       <c r="B56" s="18">
-        <v>78787</v>
+        <v>78797</v>
       </c>
       <c r="C56" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>53</v>
+        <v>44507</v>
+      </c>
+      <c r="D56" s="20">
+        <v>10</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J56" s="25"/>
+        <v>64</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J56" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K56" s="28"/>
-      <c r="L56" s="26" t="s">
-        <v>94</v>
-      </c>
+      <c r="L56" s="26"/>
       <c r="M56" s="27" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="14"/>
       <c r="B57" s="18">
-        <v>78786</v>
+        <v>78796</v>
       </c>
       <c r="C57" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>56</v>
+        <v>44507</v>
+      </c>
+      <c r="D57" s="20">
+        <v>50</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G57" s="28" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="24">
-        <v>44503</v>
+        <v>75</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="J57" s="25"/>
       <c r="K57" s="28"/>
       <c r="L57" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M57" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M57" s="27"/>
     </row>
     <row r="58" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="14"/>
       <c r="B58" s="18">
-        <v>78785</v>
+        <v>78795</v>
       </c>
       <c r="C58" s="19">
         <v>44506</v>
       </c>
-      <c r="D58" s="20">
-        <v>30</v>
+      <c r="D58" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="G58" s="28" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I58" s="24">
-        <v>44503</v>
+        <v>44502</v>
       </c>
       <c r="J58" s="25"/>
       <c r="K58" s="28"/>
       <c r="L58" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M58" s="27"/>
+        <v>96</v>
+      </c>
+      <c r="M58" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="59" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="14"/>
       <c r="B59" s="18">
-        <v>78784</v>
+        <v>78794</v>
       </c>
       <c r="C59" s="19">
         <v>44506</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I59" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="J59" s="25"/>
+        <v>68</v>
+      </c>
+      <c r="I59" s="24">
+        <v>44502</v>
+      </c>
+      <c r="J59" s="25" t="s">
+        <v>96</v>
+      </c>
       <c r="K59" s="28"/>
-      <c r="L59" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M59" s="27"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="60" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="14"/>
       <c r="B60" s="18">
-        <v>78783</v>
+        <v>78793</v>
       </c>
       <c r="C60" s="19">
         <v>44506</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I60" s="24" t="s">
-        <v>90</v>
+        <v>35</v>
+      </c>
+      <c r="I60" s="24">
+        <v>44501</v>
       </c>
       <c r="J60" s="25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K60" s="28"/>
       <c r="L60" s="26"/>
       <c r="M60" s="27" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="14"/>
       <c r="B61" s="18">
-        <v>78782</v>
+        <v>78792</v>
       </c>
       <c r="C61" s="19">
         <v>44506</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F61" s="22" t="s">
-        <v>84</v>
-      </c>
       <c r="G61" s="28" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I61" s="24" t="s">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="I61" s="24">
+        <v>44505</v>
       </c>
       <c r="J61" s="25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K61" s="28"/>
       <c r="L61" s="26"/>
       <c r="M61" s="27" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="14"/>
       <c r="B62" s="18">
-        <v>78781</v>
+        <v>78791</v>
       </c>
       <c r="C62" s="19">
         <v>44506</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E62" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I62" s="24" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="J62" s="25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K62" s="28"/>
       <c r="L62" s="26"/>
       <c r="M62" s="27" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="14"/>
       <c r="B63" s="18">
-        <v>78780</v>
+        <v>78790</v>
       </c>
       <c r="C63" s="19">
         <v>44506</v>
       </c>
-      <c r="D63" s="20">
-        <v>20</v>
+      <c r="D63" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="J63" s="25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K63" s="28"/>
       <c r="L63" s="26"/>
       <c r="M63" s="27" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="14"/>
       <c r="B64" s="18">
-        <v>78779</v>
+        <v>78789</v>
       </c>
       <c r="C64" s="19">
         <v>44506</v>
       </c>
-      <c r="D64" s="20">
-        <v>80</v>
+      <c r="D64" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I64" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="J64" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="J64" s="25" t="s">
+        <v>96</v>
+      </c>
       <c r="K64" s="28"/>
-      <c r="L64" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M64" s="27"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="14"/>
       <c r="B65" s="18">
-        <v>78778</v>
+        <v>78788</v>
       </c>
       <c r="C65" s="19">
         <v>44506</v>
       </c>
-      <c r="D65" s="20">
-        <v>20</v>
+      <c r="D65" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I65" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="J65" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="24">
+        <v>44502</v>
+      </c>
+      <c r="J65" s="25" t="s">
+        <v>96</v>
+      </c>
       <c r="K65" s="28"/>
-      <c r="L65" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M65" s="27"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="66" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="14"/>
       <c r="B66" s="18">
-        <v>78777</v>
+        <v>78787</v>
       </c>
       <c r="C66" s="19">
         <v>44506</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="G66" s="28" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I66" s="24" t="s">
-        <v>90</v>
+        <v>21</v>
+      </c>
+      <c r="I66" s="24">
+        <v>44502</v>
       </c>
       <c r="J66" s="25"/>
       <c r="K66" s="28"/>
       <c r="L66" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M66" s="27"/>
+        <v>96</v>
+      </c>
+      <c r="M66" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="67" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="14"/>
       <c r="B67" s="18">
-        <v>78776</v>
+        <v>78786</v>
       </c>
       <c r="C67" s="19">
         <v>44506</v>
       </c>
-      <c r="D67" s="20">
-        <v>30</v>
+      <c r="D67" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="E67" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="H67" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I67" s="24" t="s">
-        <v>90</v>
+        <v>12</v>
+      </c>
+      <c r="I67" s="24">
+        <v>44503</v>
       </c>
       <c r="J67" s="25"/>
       <c r="K67" s="28"/>
       <c r="L67" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M67" s="27"/>
+        <v>96</v>
+      </c>
+      <c r="M67" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="68" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="14"/>
       <c r="B68" s="18">
-        <v>78775</v>
+        <v>78785</v>
       </c>
       <c r="C68" s="19">
         <v>44506</v>
       </c>
       <c r="D68" s="20">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H68" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I68" s="24" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="I68" s="24">
+        <v>44503</v>
       </c>
       <c r="J68" s="25"/>
       <c r="K68" s="28"/>
       <c r="L68" s="26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M68" s="27"/>
     </row>
     <row r="69" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="14"/>
       <c r="B69" s="18">
-        <v>78774</v>
+        <v>78784</v>
       </c>
       <c r="C69" s="19">
         <v>44506</v>
       </c>
-      <c r="D69" s="20">
-        <v>30</v>
+      <c r="D69" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H69" s="23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I69" s="24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J69" s="25"/>
       <c r="K69" s="28"/>
       <c r="L69" s="26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M69" s="27"/>
     </row>
     <row r="70" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="14"/>
       <c r="B70" s="18">
-        <v>78773</v>
+        <v>78783</v>
       </c>
       <c r="C70" s="19">
         <v>44506</v>
       </c>
-      <c r="D70" s="20">
-        <v>40</v>
+      <c r="D70" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="J70" s="25"/>
+        <v>92</v>
+      </c>
+      <c r="J70" s="25" t="s">
+        <v>96</v>
+      </c>
       <c r="K70" s="28"/>
-      <c r="L70" s="26" t="s">
+      <c r="L70" s="26"/>
+      <c r="M70" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="M70" s="27"/>
     </row>
     <row r="71" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="14"/>
       <c r="B71" s="18">
-        <v>78772</v>
+        <v>78782</v>
       </c>
       <c r="C71" s="19">
-        <v>44505</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>52</v>
+        <v>44506</v>
+      </c>
+      <c r="D71" s="20">
+        <v>10</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I71" s="24" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="J71" s="25" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="K71" s="28"/>
       <c r="L71" s="26"/>
       <c r="M71" s="27" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="14"/>
       <c r="B72" s="18">
-        <v>78771</v>
+        <v>78781</v>
       </c>
       <c r="C72" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="G72" s="28" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I72" s="24">
-        <v>44501</v>
-      </c>
-      <c r="J72" s="25"/>
+        <v>92</v>
+      </c>
+      <c r="I72" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="J72" s="25" t="s">
+        <v>96</v>
+      </c>
       <c r="K72" s="28"/>
-      <c r="L72" s="26" t="s">
-        <v>67</v>
-      </c>
+      <c r="L72" s="26"/>
       <c r="M72" s="27" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="14"/>
       <c r="B73" s="18">
-        <v>78770</v>
+        <v>78780</v>
       </c>
       <c r="C73" s="19">
-        <v>44505</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>50</v>
+        <v>44506</v>
+      </c>
+      <c r="D73" s="20">
+        <v>20</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="H73" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="24">
-        <v>44504</v>
-      </c>
-      <c r="J73" s="25"/>
+        <v>93</v>
+      </c>
+      <c r="I73" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="J73" s="25" t="s">
+        <v>96</v>
+      </c>
       <c r="K73" s="28"/>
-      <c r="L73" s="26" t="s">
-        <v>67</v>
-      </c>
+      <c r="L73" s="26"/>
       <c r="M73" s="27" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="14"/>
       <c r="B74" s="18">
-        <v>78769</v>
+        <v>78779</v>
       </c>
       <c r="C74" s="19">
-        <v>44505</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>56</v>
+        <v>44506</v>
+      </c>
+      <c r="D74" s="20">
+        <v>80</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="H74" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I74" s="24">
-        <v>44500</v>
+        <v>92</v>
+      </c>
+      <c r="I74" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="J74" s="25"/>
       <c r="K74" s="28"/>
       <c r="L74" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M74" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="M74" s="27"/>
     </row>
     <row r="75" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="14"/>
       <c r="B75" s="18">
-        <v>78768</v>
+        <v>78778</v>
       </c>
       <c r="C75" s="19">
-        <v>44505</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>51</v>
+        <v>44506</v>
+      </c>
+      <c r="D75" s="20">
+        <v>20</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="G75" s="28" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="H75" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I75" s="24">
-        <v>44498</v>
-      </c>
-      <c r="J75" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="I75" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="J75" s="25"/>
       <c r="K75" s="28"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L75" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="M75" s="27"/>
     </row>
     <row r="76" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="14"/>
       <c r="B76" s="18">
-        <v>78767</v>
+        <v>78777</v>
       </c>
       <c r="C76" s="19">
-        <v>44505</v>
-      </c>
-      <c r="D76" s="20">
-        <v>30</v>
+        <v>44506</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E76" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="G76" s="28" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="H76" s="23" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="I76" s="24" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="J76" s="25"/>
       <c r="K76" s="28"/>
       <c r="L76" s="26" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="M76" s="27"/>
     </row>
     <row r="77" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="14"/>
       <c r="B77" s="18">
-        <v>78766</v>
+        <v>78776</v>
       </c>
       <c r="C77" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D77" s="20">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G77" s="28" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="H77" s="23" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="J77" s="25"/>
       <c r="K77" s="28"/>
       <c r="L77" s="26" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="M77" s="27"/>
     </row>
     <row r="78" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="14"/>
       <c r="B78" s="18">
-        <v>78765</v>
+        <v>78775</v>
       </c>
       <c r="C78" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D78" s="20">
         <v>60</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="G78" s="28" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="H78" s="23" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="I78" s="24" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="J78" s="25"/>
       <c r="K78" s="28"/>
       <c r="L78" s="26" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="M78" s="27"/>
     </row>
     <row r="79" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="14"/>
       <c r="B79" s="18">
-        <v>78764</v>
+        <v>78774</v>
       </c>
       <c r="C79" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D79" s="20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E79" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="G79" s="28" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="H79" s="23" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="I79" s="24" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="J79" s="25"/>
       <c r="K79" s="28"/>
       <c r="L79" s="26" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="M79" s="27"/>
     </row>
     <row r="80" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="14"/>
       <c r="B80" s="18">
-        <v>78763</v>
+        <v>78773</v>
       </c>
       <c r="C80" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D80" s="20">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E80" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="G80" s="28" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="H80" s="23" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="J80" s="25"/>
       <c r="K80" s="28"/>
       <c r="L80" s="26" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="M80" s="27"/>
     </row>
     <row r="81" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="14"/>
       <c r="B81" s="18">
-        <v>78762</v>
+        <v>78772</v>
       </c>
       <c r="C81" s="19">
         <v>44505</v>
       </c>
-      <c r="D81" s="20">
-        <v>20</v>
+      <c r="D81" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="G81" s="28" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I81" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J81" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="J81" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K81" s="28"/>
-      <c r="L81" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M81" s="27"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="82" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="14"/>
       <c r="B82" s="18">
-        <v>78761</v>
+        <v>78771</v>
       </c>
       <c r="C82" s="19">
         <v>44505</v>
       </c>
-      <c r="D82" s="20">
-        <v>50</v>
+      <c r="D82" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="E82" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="G82" s="28" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I82" s="24" t="s">
-        <v>73</v>
+        <v>0</v>
+      </c>
+      <c r="I82" s="24">
+        <v>44501</v>
       </c>
       <c r="J82" s="25"/>
       <c r="K82" s="28"/>
       <c r="L82" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M82" s="27"/>
+        <v>69</v>
+      </c>
+      <c r="M82" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="83" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="14"/>
       <c r="B83" s="18">
-        <v>78760</v>
+        <v>78770</v>
       </c>
       <c r="C83" s="19">
         <v>44505</v>
       </c>
-      <c r="D83" s="20">
-        <v>30</v>
+      <c r="D83" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="G83" s="28" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I83" s="24" t="s">
-        <v>73</v>
+        <v>12</v>
+      </c>
+      <c r="I83" s="24">
+        <v>44504</v>
       </c>
       <c r="J83" s="25"/>
       <c r="K83" s="28"/>
       <c r="L83" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M83" s="27"/>
+        <v>69</v>
+      </c>
+      <c r="M83" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="84" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="14"/>
       <c r="B84" s="18">
-        <v>78759</v>
+        <v>78769</v>
       </c>
       <c r="C84" s="19">
         <v>44505</v>
       </c>
-      <c r="D84" s="20">
-        <v>20</v>
+      <c r="D84" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="G84" s="28" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="H84" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I84" s="24" t="s">
-        <v>73</v>
+        <v>9</v>
+      </c>
+      <c r="I84" s="24">
+        <v>44500</v>
       </c>
       <c r="J84" s="25"/>
       <c r="K84" s="28"/>
       <c r="L84" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M84" s="27"/>
+        <v>69</v>
+      </c>
+      <c r="M84" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="85" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="14"/>
       <c r="B85" s="18">
-        <v>78758</v>
+        <v>78768</v>
       </c>
       <c r="C85" s="19">
         <v>44505</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E85" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="G85" s="28" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="H85" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I85" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J85" s="25"/>
+        <v>21</v>
+      </c>
+      <c r="I85" s="24">
+        <v>44498</v>
+      </c>
+      <c r="J85" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K85" s="28"/>
-      <c r="L85" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M85" s="27"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="86" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="14"/>
       <c r="B86" s="18">
-        <v>78757</v>
+        <v>78767</v>
       </c>
       <c r="C86" s="19">
         <v>44505</v>
@@ -5464,245 +5555,235 @@
         <v>30</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H86" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I86" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J86" s="25"/>
       <c r="K86" s="28"/>
       <c r="L86" s="26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M86" s="27"/>
     </row>
     <row r="87" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="14"/>
       <c r="B87" s="18">
-        <v>78756</v>
+        <v>78766</v>
       </c>
       <c r="C87" s="19">
         <v>44505</v>
       </c>
       <c r="D87" s="20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E87" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F87" s="22" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G87" s="28" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H87" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I87" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J87" s="25"/>
       <c r="K87" s="28"/>
       <c r="L87" s="26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M87" s="27"/>
     </row>
     <row r="88" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="14"/>
       <c r="B88" s="18">
-        <v>78755</v>
+        <v>78765</v>
       </c>
       <c r="C88" s="19">
-        <v>44504</v>
-      </c>
-      <c r="D88" s="20" t="s">
-        <v>56</v>
+        <v>44505</v>
+      </c>
+      <c r="D88" s="20">
+        <v>60</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="G88" s="28" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="H88" s="23" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I88" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J88" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J88" s="25"/>
       <c r="K88" s="28"/>
-      <c r="L88" s="26"/>
-      <c r="M88" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L88" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M88" s="27"/>
     </row>
     <row r="89" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="14"/>
       <c r="B89" s="18">
-        <v>78754</v>
+        <v>78764</v>
       </c>
       <c r="C89" s="19">
-        <v>44504</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>51</v>
+        <v>44505</v>
+      </c>
+      <c r="D89" s="20">
+        <v>20</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F89" s="22" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="G89" s="28" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H89" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I89" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J89" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I89" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J89" s="25"/>
       <c r="K89" s="28"/>
-      <c r="L89" s="26"/>
-      <c r="M89" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L89" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M89" s="27"/>
     </row>
     <row r="90" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="14"/>
       <c r="B90" s="18">
-        <v>78753</v>
+        <v>78763</v>
       </c>
       <c r="C90" s="19">
-        <v>44504</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>54</v>
+        <v>44505</v>
+      </c>
+      <c r="D90" s="20">
+        <v>20</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F90" s="22" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="G90" s="28" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H90" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I90" s="24">
-        <v>44501</v>
-      </c>
-      <c r="J90" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I90" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J90" s="25"/>
       <c r="K90" s="28"/>
-      <c r="L90" s="26"/>
-      <c r="M90" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L90" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M90" s="27"/>
     </row>
     <row r="91" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="14"/>
       <c r="B91" s="18">
-        <v>78752</v>
+        <v>78762</v>
       </c>
       <c r="C91" s="19">
-        <v>44504</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>50</v>
+        <v>44505</v>
+      </c>
+      <c r="D91" s="20">
+        <v>20</v>
       </c>
       <c r="E91" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="G91" s="28" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H91" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I91" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J91" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I91" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J91" s="25"/>
       <c r="K91" s="28"/>
-      <c r="L91" s="26"/>
-      <c r="M91" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L91" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M91" s="27"/>
     </row>
     <row r="92" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="14"/>
       <c r="B92" s="18">
-        <v>78751</v>
+        <v>78761</v>
       </c>
       <c r="C92" s="19">
-        <v>44504</v>
-      </c>
-      <c r="D92" s="20" t="s">
-        <v>51</v>
+        <v>44505</v>
+      </c>
+      <c r="D92" s="20">
+        <v>50</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="G92" s="28" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H92" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I92" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J92" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I92" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J92" s="25"/>
       <c r="K92" s="28"/>
-      <c r="L92" s="26"/>
-      <c r="M92" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L92" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M92" s="27"/>
     </row>
     <row r="93" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="14"/>
       <c r="B93" s="18">
-        <v>78750</v>
+        <v>78760</v>
       </c>
       <c r="C93" s="19">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D93" s="20">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E93" s="21" t="s">
         <v>27</v>
@@ -5711,922 +5792,932 @@
         <v>70</v>
       </c>
       <c r="G93" s="28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H93" s="23" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="I93" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J93" s="25"/>
       <c r="K93" s="28"/>
       <c r="L93" s="26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M93" s="27"/>
     </row>
     <row r="94" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="14"/>
       <c r="B94" s="18">
-        <v>78749</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D94" s="20"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="24"/>
+        <v>78759</v>
+      </c>
+      <c r="C94" s="19">
+        <v>44505</v>
+      </c>
+      <c r="D94" s="20">
+        <v>20</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G94" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H94" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I94" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="J94" s="25"/>
       <c r="K94" s="28"/>
-      <c r="L94" s="26"/>
+      <c r="L94" s="26" t="s">
+        <v>69</v>
+      </c>
       <c r="M94" s="27"/>
     </row>
     <row r="95" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="14"/>
       <c r="B95" s="18">
-        <v>78748</v>
+        <v>78758</v>
       </c>
       <c r="C95" s="19">
-        <v>44504</v>
-      </c>
-      <c r="D95" s="20">
-        <v>40</v>
+        <v>44505</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G95" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H95" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I95" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J95" s="25"/>
       <c r="K95" s="28"/>
       <c r="L95" s="26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M95" s="27"/>
     </row>
     <row r="96" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="14"/>
       <c r="B96" s="18">
-        <v>78747</v>
+        <v>78757</v>
       </c>
       <c r="C96" s="19">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D96" s="20">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E96" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F96" s="22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G96" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H96" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I96" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J96" s="25"/>
       <c r="K96" s="28"/>
       <c r="L96" s="26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M96" s="27"/>
     </row>
     <row r="97" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="14"/>
       <c r="B97" s="18">
-        <v>78746</v>
+        <v>78756</v>
       </c>
       <c r="C97" s="19">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D97" s="20">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G97" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H97" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I97" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J97" s="25"/>
       <c r="K97" s="28"/>
       <c r="L97" s="26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M97" s="27"/>
     </row>
     <row r="98" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="14"/>
       <c r="B98" s="18">
-        <v>78745</v>
+        <v>78755</v>
       </c>
       <c r="C98" s="19">
         <v>44504</v>
       </c>
-      <c r="D98" s="20">
-        <v>10</v>
+      <c r="D98" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="E98" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F98" s="22" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="H98" s="23" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I98" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J98" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="J98" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K98" s="28"/>
-      <c r="L98" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M98" s="27"/>
+      <c r="L98" s="26"/>
+      <c r="M98" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="99" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="14"/>
       <c r="B99" s="18">
-        <v>78744</v>
+        <v>78754</v>
       </c>
       <c r="C99" s="19">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E99" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F99" s="22" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="H99" s="23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I99" s="24">
-        <v>44497</v>
-      </c>
-      <c r="J99" s="25"/>
+        <v>44502</v>
+      </c>
+      <c r="J99" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K99" s="28"/>
-      <c r="L99" s="26" t="s">
-        <v>67</v>
-      </c>
+      <c r="L99" s="26"/>
       <c r="M99" s="27" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="14"/>
       <c r="B100" s="18">
-        <v>78743</v>
+        <v>78753</v>
       </c>
       <c r="C100" s="19">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="D100" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E100" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F100" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="28" t="s">
-        <v>11</v>
-      </c>
       <c r="H100" s="23" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I100" s="24">
-        <v>44497</v>
+        <v>44501</v>
       </c>
       <c r="J100" s="25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K100" s="28"/>
       <c r="L100" s="26"/>
       <c r="M100" s="27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="14"/>
       <c r="B101" s="18">
-        <v>78742</v>
+        <v>78752</v>
       </c>
       <c r="C101" s="19">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E101" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F101" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="28" t="s">
-        <v>11</v>
-      </c>
       <c r="H101" s="23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I101" s="24">
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="J101" s="25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K101" s="28"/>
       <c r="L101" s="26"/>
       <c r="M101" s="27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="14"/>
       <c r="B102" s="18">
-        <v>78741</v>
+        <v>78751</v>
       </c>
       <c r="C102" s="19">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F102" s="22" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H102" s="23" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I102" s="24">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="J102" s="25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K102" s="28"/>
       <c r="L102" s="26"/>
       <c r="M102" s="27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="14"/>
       <c r="B103" s="18">
-        <v>78740</v>
+        <v>78750</v>
       </c>
       <c r="C103" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D103" s="20" t="s">
-        <v>50</v>
+        <v>44504</v>
+      </c>
+      <c r="D103" s="20">
+        <v>40</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="G103" s="28" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="H103" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I103" s="24">
-        <v>44497</v>
-      </c>
-      <c r="J103" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I103" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J103" s="25"/>
       <c r="K103" s="28"/>
-      <c r="L103" s="26"/>
-      <c r="M103" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L103" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M103" s="27"/>
     </row>
     <row r="104" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="14"/>
       <c r="B104" s="18">
-        <v>78739</v>
-      </c>
-      <c r="C104" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D104" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E104" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F104" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G104" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H104" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I104" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J104" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>78749</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D104" s="20"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="25"/>
       <c r="K104" s="28"/>
-      <c r="L104" s="26"/>
-      <c r="M104" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L104" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="M104" s="27"/>
     </row>
     <row r="105" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="14"/>
       <c r="B105" s="18">
-        <v>78738</v>
+        <v>78748</v>
       </c>
       <c r="C105" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D105" s="20" t="s">
-        <v>52</v>
+        <v>44504</v>
+      </c>
+      <c r="D105" s="20">
+        <v>40</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F105" s="22" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G105" s="28" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="H105" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I105" s="24">
-        <v>44500</v>
-      </c>
-      <c r="J105" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I105" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J105" s="25"/>
       <c r="K105" s="28"/>
-      <c r="L105" s="26"/>
-      <c r="M105" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="L105" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M105" s="27"/>
     </row>
     <row r="106" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="14"/>
       <c r="B106" s="18">
-        <v>78737</v>
+        <v>78747</v>
       </c>
       <c r="C106" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D106" s="20" t="s">
-        <v>50</v>
+        <v>44504</v>
+      </c>
+      <c r="D106" s="20">
+        <v>70</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F106" s="22" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="G106" s="28" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H106" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I106" s="24">
-        <v>44499</v>
+        <v>75</v>
+      </c>
+      <c r="I106" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="J106" s="25"/>
       <c r="K106" s="28"/>
       <c r="L106" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M106" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M106" s="27"/>
     </row>
     <row r="107" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="14"/>
       <c r="B107" s="18">
-        <v>78736</v>
+        <v>78746</v>
       </c>
       <c r="C107" s="19">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="D107" s="20">
         <v>60</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F107" s="22" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G107" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H107" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I107" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J107" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J107" s="25"/>
       <c r="K107" s="28"/>
-      <c r="L107" s="26"/>
-      <c r="M107" s="27" t="s">
-        <v>80</v>
-      </c>
+      <c r="L107" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M107" s="27"/>
     </row>
     <row r="108" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="14"/>
       <c r="B108" s="18">
-        <v>78735</v>
+        <v>78745</v>
       </c>
       <c r="C108" s="19">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="D108" s="20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F108" s="22" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G108" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H108" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I108" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J108" s="25"/>
       <c r="K108" s="28"/>
       <c r="L108" s="26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M108" s="27"/>
     </row>
     <row r="109" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="14"/>
       <c r="B109" s="18">
-        <v>78734</v>
+        <v>78744</v>
       </c>
       <c r="C109" s="19">
         <v>44503</v>
       </c>
-      <c r="D109" s="20">
-        <v>80</v>
+      <c r="D109" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F109" s="22" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="G109" s="28" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="H109" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I109" s="24" t="s">
-        <v>73</v>
+        <v>8</v>
+      </c>
+      <c r="I109" s="24">
+        <v>44497</v>
       </c>
       <c r="J109" s="25"/>
       <c r="K109" s="28"/>
       <c r="L109" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M109" s="27"/>
+        <v>69</v>
+      </c>
+      <c r="M109" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="110" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="14"/>
       <c r="B110" s="18">
-        <v>78733</v>
+        <v>78743</v>
       </c>
       <c r="C110" s="19">
         <v>44503</v>
       </c>
-      <c r="D110" s="20">
+      <c r="D110" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F110" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E110" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F110" s="22" t="s">
-        <v>77</v>
-      </c>
       <c r="G110" s="28" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="H110" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="I110" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J110" s="25"/>
+        <v>8</v>
+      </c>
+      <c r="I110" s="24">
+        <v>44497</v>
+      </c>
+      <c r="J110" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K110" s="28"/>
-      <c r="L110" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M110" s="27"/>
+      <c r="L110" s="26"/>
+      <c r="M110" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="111" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="14"/>
       <c r="B111" s="18">
-        <v>78732</v>
+        <v>78742</v>
       </c>
       <c r="C111" s="19">
         <v>44503</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G111" s="28" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="H111" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="I111" s="24" t="s">
-        <v>73</v>
+        <v>8</v>
+      </c>
+      <c r="I111" s="24">
+        <v>44498</v>
       </c>
       <c r="J111" s="25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K111" s="28"/>
       <c r="L111" s="26"/>
       <c r="M111" s="27" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="14"/>
       <c r="B112" s="18">
-        <v>78731</v>
+        <v>78741</v>
       </c>
       <c r="C112" s="19">
         <v>44503</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F112" s="22" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G112" s="28" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="H112" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I112" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J112" s="25"/>
+        <v>35</v>
+      </c>
+      <c r="I112" s="24">
+        <v>44501</v>
+      </c>
+      <c r="J112" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K112" s="28"/>
-      <c r="L112" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M112" s="27"/>
+      <c r="L112" s="26"/>
+      <c r="M112" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="113" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="14"/>
       <c r="B113" s="18">
-        <v>78730</v>
+        <v>78740</v>
       </c>
       <c r="C113" s="19">
         <v>44503</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E113" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F113" s="22" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G113" s="28" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="H113" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I113" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J113" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="I113" s="24">
+        <v>44497</v>
+      </c>
+      <c r="J113" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K113" s="28"/>
-      <c r="L113" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M113" s="27"/>
+      <c r="L113" s="26"/>
+      <c r="M113" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="114" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="14"/>
       <c r="B114" s="18">
-        <v>78729</v>
+        <v>78739</v>
       </c>
       <c r="C114" s="19">
         <v>44503</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G114" s="28" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="H114" s="23" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="I114" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J114" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="J114" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K114" s="28"/>
-      <c r="L114" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M114" s="27"/>
+      <c r="L114" s="26"/>
+      <c r="M114" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="115" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="14"/>
       <c r="B115" s="18">
-        <v>78728</v>
+        <v>78738</v>
       </c>
       <c r="C115" s="19">
         <v>44503</v>
       </c>
-      <c r="D115" s="20">
-        <v>30</v>
+      <c r="D115" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F115" s="22" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="G115" s="28" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H115" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I115" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J115" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="I115" s="24">
+        <v>44500</v>
+      </c>
+      <c r="J115" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K115" s="28"/>
-      <c r="L115" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M115" s="27"/>
+      <c r="L115" s="26"/>
+      <c r="M115" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="116" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="14"/>
       <c r="B116" s="18">
-        <v>78727</v>
+        <v>78737</v>
       </c>
       <c r="C116" s="19">
         <v>44503</v>
       </c>
-      <c r="D116" s="20">
-        <v>50</v>
+      <c r="D116" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="E116" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F116" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G116" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F116" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G116" s="28" t="s">
-        <v>73</v>
-      </c>
       <c r="H116" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I116" s="24" t="s">
-        <v>73</v>
+        <v>13</v>
+      </c>
+      <c r="I116" s="24">
+        <v>44499</v>
       </c>
       <c r="J116" s="25"/>
       <c r="K116" s="28"/>
       <c r="L116" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M116" s="27"/>
+        <v>69</v>
+      </c>
+      <c r="M116" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="117" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="14"/>
       <c r="B117" s="18">
-        <v>78726</v>
+        <v>78736</v>
       </c>
       <c r="C117" s="19">
         <v>44503</v>
       </c>
       <c r="D117" s="20">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F117" s="22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G117" s="28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H117" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I117" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J117" s="25"/>
+        <v>75</v>
+      </c>
+      <c r="J117" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K117" s="28"/>
-      <c r="L117" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M117" s="27"/>
+      <c r="L117" s="26"/>
+      <c r="M117" s="27" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="118" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="14"/>
       <c r="B118" s="18">
-        <v>78725</v>
+        <v>78735</v>
       </c>
       <c r="C118" s="19">
         <v>44503</v>
       </c>
       <c r="D118" s="20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F118" s="22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G118" s="28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H118" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I118" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J118" s="25"/>
       <c r="K118" s="28"/>
       <c r="L118" s="26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M118" s="27"/>
     </row>
     <row r="119" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="14"/>
       <c r="B119" s="18">
-        <v>78724</v>
+        <v>78734</v>
       </c>
       <c r="C119" s="19">
         <v>44503</v>
       </c>
       <c r="D119" s="20">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E119" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F119" s="22" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G119" s="28" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H119" s="23" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I119" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J119" s="25"/>
       <c r="K119" s="28"/>
       <c r="L119" s="26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M119" s="27"/>
     </row>
     <row r="120" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="14"/>
       <c r="B120" s="18">
-        <v>78723</v>
+        <v>78733</v>
       </c>
       <c r="C120" s="19">
         <v>44503</v>
       </c>
       <c r="D120" s="20">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E120" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F120" s="22" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G120" s="28" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H120" s="23" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I120" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J120" s="25"/>
       <c r="K120" s="28"/>
       <c r="L120" s="26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M120" s="27"/>
     </row>
     <row r="121" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="14"/>
       <c r="B121" s="18">
-        <v>78722</v>
+        <v>78732</v>
       </c>
       <c r="C121" s="19">
         <v>44503</v>
@@ -6635,523 +6726,855 @@
         <v>14</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F121" s="22" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G121" s="28" t="s">
         <v>73</v>
       </c>
       <c r="H121" s="23" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I121" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J121" s="25"/>
+        <v>75</v>
+      </c>
+      <c r="J121" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K121" s="28"/>
-      <c r="L121" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="M121" s="27"/>
+      <c r="L121" s="26"/>
+      <c r="M121" s="27" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="122" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="14"/>
       <c r="B122" s="18">
-        <v>78721</v>
+        <v>78731</v>
       </c>
       <c r="C122" s="19">
         <v>44503</v>
       </c>
-      <c r="D122" s="20">
-        <v>50</v>
+      <c r="D122" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F122" s="22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G122" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H122" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I122" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J122" s="25"/>
       <c r="K122" s="28"/>
       <c r="L122" s="26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M122" s="27"/>
     </row>
     <row r="123" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="14"/>
       <c r="B123" s="18">
-        <v>78720</v>
+        <v>78730</v>
       </c>
       <c r="C123" s="19">
         <v>44503</v>
       </c>
-      <c r="D123" s="20">
-        <v>30</v>
+      <c r="D123" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E123" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F123" s="22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G123" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H123" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I123" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J123" s="25"/>
       <c r="K123" s="28"/>
       <c r="L123" s="26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M123" s="27"/>
     </row>
     <row r="124" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="14"/>
       <c r="B124" s="18">
-        <v>78719</v>
+        <v>78729</v>
       </c>
       <c r="C124" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E124" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F124" s="22" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="G124" s="28" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="H124" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I124" s="24">
-        <v>44493</v>
+        <v>75</v>
+      </c>
+      <c r="I124" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="J124" s="25"/>
       <c r="K124" s="28"/>
       <c r="L124" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M124" s="27"/>
     </row>
     <row r="125" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="14"/>
       <c r="B125" s="18">
-        <v>78718</v>
+        <v>78728</v>
       </c>
       <c r="C125" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D125" s="20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F125" s="22" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G125" s="28" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="H125" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I125" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J125" s="25"/>
       <c r="K125" s="28"/>
       <c r="L125" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M125" s="27"/>
     </row>
     <row r="126" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="14"/>
       <c r="B126" s="18">
-        <v>78717</v>
+        <v>78727</v>
       </c>
       <c r="C126" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D126" s="20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E126" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F126" s="22" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G126" s="28" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="H126" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I126" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J126" s="25"/>
       <c r="K126" s="28"/>
       <c r="L126" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M126" s="27"/>
     </row>
     <row r="127" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="14"/>
       <c r="B127" s="18">
-        <v>78716</v>
+        <v>78726</v>
       </c>
       <c r="C127" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D127" s="20">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E127" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F127" s="22" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G127" s="28" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="H127" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I127" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J127" s="25"/>
       <c r="K127" s="28"/>
       <c r="L127" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M127" s="27"/>
     </row>
     <row r="128" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="14"/>
       <c r="B128" s="18">
-        <v>78715</v>
+        <v>78725</v>
       </c>
       <c r="C128" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D128" s="20">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F128" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G128" s="28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H128" s="23" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I128" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J128" s="25" t="s">
-        <v>74</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J128" s="25"/>
       <c r="K128" s="28"/>
-      <c r="L128" s="26"/>
-      <c r="M128" s="27" t="s">
-        <v>75</v>
-      </c>
+      <c r="L128" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M128" s="27"/>
     </row>
     <row r="129" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="14"/>
       <c r="B129" s="18">
-        <v>78714</v>
+        <v>78724</v>
       </c>
       <c r="C129" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D129" s="20">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E129" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F129" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G129" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H129" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I129" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J129" s="25"/>
       <c r="K129" s="28"/>
       <c r="L129" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M129" s="27"/>
     </row>
     <row r="130" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="14"/>
       <c r="B130" s="18">
-        <v>78713</v>
+        <v>78723</v>
       </c>
       <c r="C130" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D130" s="20">
+        <v>30</v>
+      </c>
+      <c r="E130" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F130" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E130" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F130" s="22" t="s">
-        <v>72</v>
-      </c>
       <c r="G130" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H130" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I130" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J130" s="25"/>
       <c r="K130" s="28"/>
       <c r="L130" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M130" s="27"/>
     </row>
     <row r="131" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="14"/>
       <c r="B131" s="18">
-        <v>78712</v>
+        <v>78722</v>
       </c>
       <c r="C131" s="19">
-        <v>44502</v>
-      </c>
-      <c r="D131" s="20">
-        <v>20</v>
+        <v>44503</v>
+      </c>
+      <c r="D131" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E131" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F131" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G131" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H131" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I131" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J131" s="25"/>
       <c r="K131" s="28"/>
       <c r="L131" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M131" s="27"/>
     </row>
     <row r="132" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="14"/>
       <c r="B132" s="18">
-        <v>78711</v>
+        <v>78721</v>
       </c>
       <c r="C132" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D132" s="20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E132" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F132" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G132" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H132" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I132" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J132" s="25"/>
       <c r="K132" s="28"/>
       <c r="L132" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M132" s="27"/>
     </row>
     <row r="133" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="14"/>
       <c r="B133" s="18">
-        <v>78710</v>
+        <v>78720</v>
       </c>
       <c r="C133" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D133" s="20">
+        <v>30</v>
+      </c>
+      <c r="E133" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F133" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E133" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F133" s="22" t="s">
-        <v>72</v>
-      </c>
       <c r="G133" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H133" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I133" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J133" s="25"/>
       <c r="K133" s="28"/>
       <c r="L133" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M133" s="27"/>
     </row>
     <row r="134" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="14"/>
       <c r="B134" s="18">
-        <v>78709</v>
+        <v>78719</v>
       </c>
       <c r="C134" s="19">
         <v>44502</v>
       </c>
-      <c r="D134" s="20">
-        <v>10</v>
+      <c r="D134" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="E134" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F134" s="22" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="G134" s="28" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="H134" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I134" s="24" t="s">
-        <v>73</v>
+        <v>12</v>
+      </c>
+      <c r="I134" s="24">
+        <v>44493</v>
       </c>
       <c r="J134" s="25"/>
       <c r="K134" s="28"/>
       <c r="L134" s="26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M134" s="27"/>
     </row>
     <row r="135" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="14"/>
       <c r="B135" s="18">
-        <v>78708</v>
+        <v>78718</v>
       </c>
       <c r="C135" s="19">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="D135" s="20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E135" s="21" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F135" s="22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G135" s="28" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="H135" s="23" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I135" s="24" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J135" s="25"/>
       <c r="K135" s="28"/>
       <c r="L135" s="26" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M135" s="27"/>
     </row>
     <row r="136" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="14"/>
       <c r="B136" s="18">
-        <v>78707</v>
+        <v>78717</v>
       </c>
       <c r="C136" s="19">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="D136" s="20">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F136" s="22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G136" s="28" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="H136" s="23" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I136" s="24" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J136" s="25"/>
       <c r="K136" s="28"/>
       <c r="L136" s="26" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M136" s="27"/>
+    </row>
+    <row r="137" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="14"/>
+      <c r="B137" s="18">
+        <v>78716</v>
+      </c>
+      <c r="C137" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D137" s="20">
+        <v>30</v>
+      </c>
+      <c r="E137" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F137" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G137" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H137" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I137" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J137" s="25"/>
+      <c r="K137" s="28"/>
+      <c r="L137" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M137" s="27"/>
+    </row>
+    <row r="138" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="14"/>
+      <c r="B138" s="18">
+        <v>78715</v>
+      </c>
+      <c r="C138" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D138" s="20">
+        <v>40</v>
+      </c>
+      <c r="E138" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F138" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G138" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H138" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I138" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J138" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="K138" s="28"/>
+      <c r="L138" s="26"/>
+      <c r="M138" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="14"/>
+      <c r="B139" s="18">
+        <v>78714</v>
+      </c>
+      <c r="C139" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D139" s="20">
+        <v>40</v>
+      </c>
+      <c r="E139" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F139" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G139" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H139" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I139" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J139" s="25"/>
+      <c r="K139" s="28"/>
+      <c r="L139" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M139" s="27"/>
+    </row>
+    <row r="140" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="14"/>
+      <c r="B140" s="18">
+        <v>78713</v>
+      </c>
+      <c r="C140" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D140" s="20">
+        <v>70</v>
+      </c>
+      <c r="E140" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F140" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G140" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H140" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I140" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J140" s="25"/>
+      <c r="K140" s="28"/>
+      <c r="L140" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M140" s="27"/>
+    </row>
+    <row r="141" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="14"/>
+      <c r="B141" s="18">
+        <v>78712</v>
+      </c>
+      <c r="C141" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D141" s="20">
+        <v>20</v>
+      </c>
+      <c r="E141" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F141" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G141" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H141" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I141" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J141" s="25"/>
+      <c r="K141" s="28"/>
+      <c r="L141" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M141" s="27"/>
+    </row>
+    <row r="142" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="14"/>
+      <c r="B142" s="18">
+        <v>78711</v>
+      </c>
+      <c r="C142" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D142" s="20">
+        <v>30</v>
+      </c>
+      <c r="E142" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F142" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G142" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H142" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I142" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J142" s="25"/>
+      <c r="K142" s="28"/>
+      <c r="L142" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M142" s="27"/>
+    </row>
+    <row r="143" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="14"/>
+      <c r="B143" s="18">
+        <v>78710</v>
+      </c>
+      <c r="C143" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D143" s="20">
+        <v>70</v>
+      </c>
+      <c r="E143" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F143" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G143" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H143" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I143" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J143" s="25"/>
+      <c r="K143" s="28"/>
+      <c r="L143" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M143" s="27"/>
+    </row>
+    <row r="144" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="14"/>
+      <c r="B144" s="18">
+        <v>78709</v>
+      </c>
+      <c r="C144" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D144" s="20">
+        <v>10</v>
+      </c>
+      <c r="E144" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F144" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G144" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H144" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I144" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J144" s="25"/>
+      <c r="K144" s="28"/>
+      <c r="L144" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M144" s="27"/>
+    </row>
+    <row r="145" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="14"/>
+      <c r="B145" s="18">
+        <v>78708</v>
+      </c>
+      <c r="C145" s="19">
+        <v>44501</v>
+      </c>
+      <c r="D145" s="20">
+        <v>30</v>
+      </c>
+      <c r="E145" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F145" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G145" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H145" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I145" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="J145" s="25"/>
+      <c r="K145" s="28"/>
+      <c r="L145" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M145" s="27"/>
+    </row>
+    <row r="146" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="14"/>
+      <c r="B146" s="18">
+        <v>78707</v>
+      </c>
+      <c r="C146" s="19">
+        <v>44501</v>
+      </c>
+      <c r="D146" s="20">
+        <v>80</v>
+      </c>
+      <c r="E146" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F146" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G146" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H146" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I146" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="J146" s="25"/>
+      <c r="K146" s="28"/>
+      <c r="L146" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M146" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/corona-kanjajokyou.xlsx
+++ b/corona-kanjajokyou.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Lb16z0190\広報戦略\11Twitter対応について\98 コロナ(毎日の発生状況)\HP作業用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDE6FE28-1177-42B8-9B27-7F3964F91550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34DAEF68-1AAE-4692-8BEB-098A627F88B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$162</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="138">
   <si>
     <t>非公表</t>
   </si>
@@ -695,8 +695,92 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>令和2年3月1日以降の総数 78,595件 ※欠番252件（医療機関での発生届の取り下げ等）</t>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>姫路</t>
+    <rPh sb="0" eb="2">
+      <t>ヒメジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>姫路市</t>
+    <rPh sb="0" eb="3">
+      <t>ヒメジシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>神戸</t>
+    <rPh sb="0" eb="2">
+      <t>コウベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陽性患者の濃厚接触者</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンジャ</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>ノウコウセッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陽性患者の接触者</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンジャ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セッショクシャ</t>
+    </rPh>
     <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>令和2年3月1日以降の総数 78,611件 ※欠番252件（医療機関での発生届の取り下げ等）</t>
   </si>
 </sst>
 </file>
@@ -2711,13 +2795,13 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N146"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2751,7 +2835,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="31">
         <f ca="1">TODAY()-1</f>
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="K1" s="31"/>
       <c r="L1" s="4" t="s">
@@ -2790,7 +2874,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="N3" s="3"/>
     </row>
@@ -2854,600 +2938,618 @@
     <row r="6" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="18">
-        <v>78847</v>
+        <v>78863</v>
       </c>
       <c r="C6" s="19">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I6" s="24">
+        <v>44511</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K6" s="28"/>
       <c r="L6" s="26"/>
       <c r="M6" s="27" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="18">
-        <v>78846</v>
+        <v>78862</v>
       </c>
       <c r="C7" s="19">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I7" s="24">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="28"/>
       <c r="L7" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
       <c r="B8" s="18">
-        <v>78845</v>
+        <v>78861</v>
       </c>
       <c r="C8" s="19">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="D8" s="20">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K8" s="28"/>
       <c r="L8" s="26"/>
       <c r="M8" s="27" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="18">
-        <v>78844</v>
+        <v>78860</v>
       </c>
       <c r="C9" s="19">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="D9" s="20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K9" s="28"/>
       <c r="L9" s="26"/>
       <c r="M9" s="27" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="18">
-        <v>78843</v>
+        <v>78859</v>
       </c>
       <c r="C10" s="19">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="D10" s="20">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="J10" s="25"/>
+        <v>132</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="K10" s="28"/>
-      <c r="L10" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="M10" s="27"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="18">
-        <v>78842</v>
+        <v>78858</v>
       </c>
       <c r="C11" s="19">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="D11" s="20">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="J11" s="25"/>
+        <v>132</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="K11" s="28"/>
-      <c r="L11" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="M11" s="27"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="18">
-        <v>78841</v>
+        <v>78857</v>
       </c>
       <c r="C12" s="19">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="D12" s="20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="H12" s="23" t="s">
         <v>118</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K12" s="28"/>
       <c r="L12" s="26"/>
       <c r="M12" s="27" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="18">
-        <v>78840</v>
+        <v>78856</v>
       </c>
       <c r="C13" s="19">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="D13" s="20">
         <v>20</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="H13" s="23" t="s">
         <v>118</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K13" s="28"/>
       <c r="L13" s="26"/>
       <c r="M13" s="27" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="18">
-        <v>78839</v>
+        <v>78855</v>
       </c>
       <c r="C14" s="19">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="D14" s="20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="H14" s="23" t="s">
         <v>118</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K14" s="28"/>
       <c r="L14" s="26"/>
       <c r="M14" s="27" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="18">
-        <v>78838</v>
+        <v>78854</v>
       </c>
       <c r="C15" s="19">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="D15" s="20">
         <v>30</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="25"/>
+        <v>132</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="K15" s="28"/>
-      <c r="L15" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="M15" s="27"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="18">
-        <v>78837</v>
+        <v>78853</v>
       </c>
       <c r="C16" s="19">
-        <v>44511</v>
+        <v>44513</v>
       </c>
       <c r="D16" s="20">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="J16" s="25"/>
+        <v>132</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="K16" s="28"/>
-      <c r="L16" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="27"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="27" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="18">
-        <v>78836</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
+        <v>78852</v>
+      </c>
+      <c r="C17" s="19">
+        <v>44513</v>
+      </c>
+      <c r="D17" s="20">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="K17" s="28"/>
       <c r="L17" s="26"/>
-      <c r="M17" s="27"/>
+      <c r="M17" s="27" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="18">
-        <v>78835</v>
+        <v>78851</v>
       </c>
       <c r="C18" s="19">
-        <v>44511</v>
+        <v>44513</v>
       </c>
       <c r="D18" s="20">
         <v>20</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J18" s="25"/>
       <c r="K18" s="28"/>
       <c r="L18" s="26" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="18">
-        <v>78834</v>
+        <v>78850</v>
       </c>
       <c r="C19" s="19">
-        <v>44511</v>
+        <v>44513</v>
       </c>
       <c r="D19" s="20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J19" s="25"/>
       <c r="K19" s="28"/>
       <c r="L19" s="26" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="M19" s="27"/>
     </row>
     <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="18">
-        <v>78833</v>
+        <v>78849</v>
       </c>
       <c r="C20" s="19">
-        <v>44510</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>53</v>
+        <v>44513</v>
+      </c>
+      <c r="D20" s="20">
+        <v>20</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>107</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="J20" s="25"/>
       <c r="K20" s="28"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L20" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="18">
-        <v>78832</v>
+        <v>78848</v>
       </c>
       <c r="C21" s="19">
-        <v>44510</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>57</v>
+        <v>44513</v>
+      </c>
+      <c r="D21" s="20">
+        <v>30</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="24">
-        <v>44508</v>
+        <v>132</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="J21" s="25"/>
       <c r="K21" s="28"/>
       <c r="L21" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M21" s="27"/>
     </row>
     <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="18">
-        <v>78831</v>
+        <v>78847</v>
       </c>
       <c r="C22" s="19">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="24">
-        <v>44508</v>
-      </c>
-      <c r="J22" s="25"/>
+        <v>35</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>124</v>
+      </c>
       <c r="K22" s="28"/>
-      <c r="L22" s="26" t="s">
-        <v>107</v>
-      </c>
+      <c r="L22" s="26"/>
       <c r="M22" s="27" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="18">
-        <v>78830</v>
+        <v>78846</v>
       </c>
       <c r="C23" s="19">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="H23" s="23" t="s">
         <v>7</v>
       </c>
       <c r="I23" s="24">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="J23" s="25"/>
       <c r="K23" s="28"/>
       <c r="L23" s="26" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="M23" s="27" t="s">
         <v>4</v>
@@ -3456,10 +3558,10 @@
     <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="18">
-        <v>78829</v>
+        <v>78845</v>
       </c>
       <c r="C24" s="19">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="D24" s="20">
         <v>50</v>
@@ -3468,239 +3570,245 @@
         <v>28</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J24" s="25"/>
+        <v>125</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>124</v>
+      </c>
       <c r="K24" s="28"/>
-      <c r="L24" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="M24" s="27"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="18">
-        <v>78828</v>
+        <v>78844</v>
       </c>
       <c r="C25" s="19">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="D25" s="20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J25" s="25"/>
+        <v>125</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>124</v>
+      </c>
       <c r="K25" s="28"/>
-      <c r="L25" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="M25" s="27"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="27" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="18">
-        <v>78827</v>
+        <v>78843</v>
       </c>
       <c r="C26" s="19">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="D26" s="20">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="J26" s="25"/>
       <c r="K26" s="28"/>
       <c r="L26" s="26" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="M26" s="27"/>
     </row>
     <row r="27" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="18">
-        <v>78826</v>
+        <v>78842</v>
       </c>
       <c r="C27" s="19">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="D27" s="20">
         <v>60</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27" s="25" t="s">
-        <v>107</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="J27" s="25"/>
       <c r="K27" s="28"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="27" t="s">
-        <v>106</v>
-      </c>
+      <c r="L27" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="M27" s="27"/>
     </row>
     <row r="28" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="18">
-        <v>78825</v>
+        <v>78841</v>
       </c>
       <c r="C28" s="19">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="D28" s="20">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="K28" s="28"/>
       <c r="L28" s="26"/>
       <c r="M28" s="27" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="18">
-        <v>78824</v>
+        <v>78840</v>
       </c>
       <c r="C29" s="19">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="D29" s="20">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J29" s="25"/>
+        <v>119</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>124</v>
+      </c>
       <c r="K29" s="28"/>
-      <c r="L29" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="M29" s="27"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="27" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="30" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
       <c r="B30" s="18">
-        <v>78823</v>
+        <v>78839</v>
       </c>
       <c r="C30" s="19">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="D30" s="20">
         <v>20</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J30" s="25"/>
+        <v>119</v>
+      </c>
+      <c r="J30" s="25" t="s">
+        <v>124</v>
+      </c>
       <c r="K30" s="28"/>
-      <c r="L30" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="M30" s="27"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="27" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
       <c r="B31" s="18">
-        <v>78822</v>
+        <v>78838</v>
       </c>
       <c r="C31" s="19">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="D31" s="20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>70</v>
@@ -3717,244 +3825,228 @@
       <c r="J31" s="25"/>
       <c r="K31" s="28"/>
       <c r="L31" s="26" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="18">
-        <v>78821</v>
+        <v>78837</v>
       </c>
       <c r="C32" s="19">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="D32" s="20">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="J32" s="25"/>
       <c r="K32" s="28"/>
       <c r="L32" s="26" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="18">
-        <v>78820</v>
-      </c>
-      <c r="C33" s="19">
-        <v>44510</v>
-      </c>
-      <c r="D33" s="20">
-        <v>10</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>75</v>
-      </c>
+        <v>78836</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="24"/>
       <c r="J33" s="25"/>
       <c r="K33" s="28"/>
-      <c r="L33" s="26" t="s">
-        <v>107</v>
-      </c>
+      <c r="L33" s="26"/>
       <c r="M33" s="27"/>
     </row>
     <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="18">
-        <v>78819</v>
+        <v>78835</v>
       </c>
       <c r="C34" s="19">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="D34" s="20">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>75</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="J34" s="25"/>
       <c r="K34" s="28"/>
       <c r="L34" s="26" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="M34" s="27"/>
     </row>
     <row r="35" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="18">
-        <v>78818</v>
+        <v>78834</v>
       </c>
       <c r="C35" s="19">
-        <v>44509</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>55</v>
+        <v>44511</v>
+      </c>
+      <c r="D35" s="20">
+        <v>50</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="24">
-        <v>44508</v>
-      </c>
-      <c r="J35" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="J35" s="25"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K35" s="28"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="M35" s="27"/>
     </row>
     <row r="36" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
       <c r="B36" s="18">
-        <v>78817</v>
+        <v>78833</v>
       </c>
       <c r="C36" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="24">
-        <v>44505</v>
-      </c>
-      <c r="J36" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>107</v>
+      </c>
       <c r="K36" s="28"/>
-      <c r="L36" s="26" t="s">
-        <v>69</v>
-      </c>
+      <c r="L36" s="26"/>
       <c r="M36" s="27" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="14"/>
       <c r="B37" s="18">
-        <v>78816</v>
+        <v>78832</v>
       </c>
       <c r="C37" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="E37" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I37" s="24">
-        <v>44505</v>
-      </c>
-      <c r="J37" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>44508</v>
+      </c>
+      <c r="J37" s="25"/>
       <c r="K37" s="28"/>
-      <c r="L37" s="26"/>
+      <c r="L37" s="26" t="s">
+        <v>107</v>
+      </c>
       <c r="M37" s="27" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="14"/>
       <c r="B38" s="18">
-        <v>78815</v>
+        <v>78831</v>
       </c>
       <c r="C38" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>58</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I38" s="24">
-        <v>44505</v>
+        <v>44508</v>
       </c>
       <c r="J38" s="25"/>
       <c r="K38" s="28"/>
       <c r="L38" s="26" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="M38" s="27" t="s">
         <v>4</v>
@@ -3963,58 +4055,60 @@
     <row r="39" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="14"/>
       <c r="B39" s="18">
-        <v>78814</v>
+        <v>78830</v>
       </c>
       <c r="C39" s="19">
-        <v>44509</v>
-      </c>
-      <c r="D39" s="20">
-        <v>10</v>
+        <v>44510</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I39" s="24" t="s">
-        <v>75</v>
+        <v>7</v>
+      </c>
+      <c r="I39" s="24">
+        <v>44508</v>
       </c>
       <c r="J39" s="25"/>
       <c r="K39" s="28"/>
       <c r="L39" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M39" s="27"/>
+        <v>107</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="40" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
       <c r="B40" s="18">
-        <v>78813</v>
+        <v>78829</v>
       </c>
       <c r="C40" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D40" s="20">
         <v>50</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I40" s="24" t="s">
         <v>75</v>
@@ -4022,20 +4116,20 @@
       <c r="J40" s="25"/>
       <c r="K40" s="28"/>
       <c r="L40" s="26" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="M40" s="27"/>
     </row>
     <row r="41" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="14"/>
       <c r="B41" s="18">
-        <v>78812</v>
+        <v>78828</v>
       </c>
       <c r="C41" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D41" s="20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>28</v>
@@ -4047,7 +4141,7 @@
         <v>80</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="I41" s="24" t="s">
         <v>75</v>
@@ -4055,126 +4149,126 @@
       <c r="J41" s="25"/>
       <c r="K41" s="28"/>
       <c r="L41" s="26" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="M41" s="27"/>
     </row>
     <row r="42" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="14"/>
       <c r="B42" s="18">
-        <v>78811</v>
+        <v>78827</v>
       </c>
       <c r="C42" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D42" s="20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I42" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="J42" s="25" t="s">
-        <v>69</v>
-      </c>
+      <c r="J42" s="25"/>
       <c r="K42" s="28"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L42" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="M42" s="27"/>
     </row>
     <row r="43" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="14"/>
       <c r="B43" s="18">
-        <v>78810</v>
+        <v>78826</v>
       </c>
       <c r="C43" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D43" s="20">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="I43" s="24" t="s">
         <v>75</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="K43" s="28"/>
       <c r="L43" s="26"/>
       <c r="M43" s="27" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="14"/>
       <c r="B44" s="18">
-        <v>78809</v>
+        <v>78825</v>
       </c>
       <c r="C44" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D44" s="20">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="I44" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="J44" s="25"/>
+      <c r="J44" s="25" t="s">
+        <v>107</v>
+      </c>
       <c r="K44" s="28"/>
-      <c r="L44" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M44" s="27"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="27" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="45" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="14"/>
       <c r="B45" s="18">
-        <v>78808</v>
+        <v>78824</v>
       </c>
       <c r="C45" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D45" s="20">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F45" s="22" t="s">
         <v>70</v>
@@ -4191,17 +4285,17 @@
       <c r="J45" s="25"/>
       <c r="K45" s="28"/>
       <c r="L45" s="26" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="M45" s="27"/>
     </row>
     <row r="46" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="14"/>
       <c r="B46" s="18">
-        <v>78807</v>
+        <v>78823</v>
       </c>
       <c r="C46" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D46" s="20">
         <v>20</v>
@@ -4224,23 +4318,23 @@
       <c r="J46" s="25"/>
       <c r="K46" s="28"/>
       <c r="L46" s="26" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="M46" s="27"/>
     </row>
     <row r="47" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="14"/>
       <c r="B47" s="18">
-        <v>78806</v>
+        <v>78822</v>
       </c>
       <c r="C47" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D47" s="20">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F47" s="22" t="s">
         <v>70</v>
@@ -4257,20 +4351,20 @@
       <c r="J47" s="25"/>
       <c r="K47" s="28"/>
       <c r="L47" s="26" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="M47" s="27"/>
     </row>
     <row r="48" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
       <c r="B48" s="18">
-        <v>78805</v>
+        <v>78821</v>
       </c>
       <c r="C48" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D48" s="20">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E48" s="21" t="s">
         <v>27</v>
@@ -4290,17 +4384,17 @@
       <c r="J48" s="25"/>
       <c r="K48" s="28"/>
       <c r="L48" s="26" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="M48" s="27"/>
     </row>
     <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="14"/>
       <c r="B49" s="18">
-        <v>78804</v>
+        <v>78820</v>
       </c>
       <c r="C49" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D49" s="20">
         <v>10</v>
@@ -4323,253 +4417,271 @@
       <c r="J49" s="25"/>
       <c r="K49" s="28"/>
       <c r="L49" s="26" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="M49" s="27"/>
     </row>
     <row r="50" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="14"/>
       <c r="B50" s="18">
-        <v>78803</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="24"/>
+        <v>78819</v>
+      </c>
+      <c r="C50" s="19">
+        <v>44510</v>
+      </c>
+      <c r="D50" s="20">
+        <v>40</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="J50" s="25"/>
       <c r="K50" s="28"/>
       <c r="L50" s="26" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="M50" s="27"/>
     </row>
     <row r="51" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="14"/>
       <c r="B51" s="18">
-        <v>78802</v>
+        <v>78818</v>
       </c>
       <c r="C51" s="19">
+        <v>44509</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="24">
         <v>44508</v>
       </c>
-      <c r="D51" s="20">
-        <v>60</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="G51" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="H51" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="I51" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="J51" s="25"/>
+      <c r="J51" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K51" s="28"/>
-      <c r="L51" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="M51" s="27"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="52" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="14"/>
       <c r="B52" s="18">
-        <v>78801</v>
+        <v>78817</v>
       </c>
       <c r="C52" s="19">
-        <v>44508</v>
-      </c>
-      <c r="D52" s="20">
-        <v>20</v>
+        <v>44509</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="I52" s="24" t="s">
-        <v>102</v>
+        <v>22</v>
+      </c>
+      <c r="I52" s="24">
+        <v>44505</v>
       </c>
       <c r="J52" s="25"/>
       <c r="K52" s="28"/>
       <c r="L52" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="M52" s="27"/>
+        <v>69</v>
+      </c>
+      <c r="M52" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="53" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="14"/>
       <c r="B53" s="18">
-        <v>78800</v>
+        <v>78816</v>
       </c>
       <c r="C53" s="19">
-        <v>44508</v>
-      </c>
-      <c r="D53" s="20">
-        <v>50</v>
+        <v>44509</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="I53" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="J53" s="25"/>
+        <v>35</v>
+      </c>
+      <c r="I53" s="24">
+        <v>44505</v>
+      </c>
+      <c r="J53" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K53" s="28"/>
-      <c r="L53" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="M53" s="27"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="54" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="14"/>
       <c r="B54" s="18">
-        <v>78799</v>
+        <v>78815</v>
       </c>
       <c r="C54" s="19">
-        <v>44508</v>
-      </c>
-      <c r="D54" s="20">
-        <v>80</v>
+        <v>44509</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="I54" s="24" t="s">
-        <v>102</v>
+        <v>9</v>
+      </c>
+      <c r="I54" s="24">
+        <v>44505</v>
       </c>
       <c r="J54" s="25"/>
       <c r="K54" s="28"/>
       <c r="L54" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="M54" s="27"/>
+        <v>69</v>
+      </c>
+      <c r="M54" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="55" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="14"/>
       <c r="B55" s="18">
-        <v>78798</v>
+        <v>78814</v>
       </c>
       <c r="C55" s="19">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="D55" s="20">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="J55" s="25"/>
       <c r="K55" s="28"/>
       <c r="L55" s="26" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="M55" s="27"/>
     </row>
     <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="14"/>
       <c r="B56" s="18">
-        <v>78797</v>
+        <v>78813</v>
       </c>
       <c r="C56" s="19">
-        <v>44507</v>
+        <v>44509</v>
       </c>
       <c r="D56" s="20">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E56" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I56" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="J56" s="25" t="s">
+      <c r="J56" s="25"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K56" s="28"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="27" t="s">
-        <v>95</v>
-      </c>
+      <c r="M56" s="27"/>
     </row>
     <row r="57" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="14"/>
       <c r="B57" s="18">
-        <v>78796</v>
+        <v>78812</v>
       </c>
       <c r="C57" s="19">
-        <v>44507</v>
+        <v>44509</v>
       </c>
       <c r="D57" s="20">
         <v>50</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G57" s="28" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="I57" s="24" t="s">
         <v>75</v>
@@ -4584,66 +4696,66 @@
     <row r="58" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="14"/>
       <c r="B58" s="18">
-        <v>78795</v>
+        <v>78811</v>
       </c>
       <c r="C58" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>55</v>
+        <v>44509</v>
+      </c>
+      <c r="D58" s="20">
+        <v>20</v>
       </c>
       <c r="E58" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="G58" s="28" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J58" s="25"/>
+        <v>62</v>
+      </c>
+      <c r="I58" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K58" s="28"/>
-      <c r="L58" s="26" t="s">
-        <v>96</v>
-      </c>
+      <c r="L58" s="26"/>
       <c r="M58" s="27" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="14"/>
       <c r="B59" s="18">
-        <v>78794</v>
+        <v>78810</v>
       </c>
       <c r="C59" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>14</v>
+        <v>44509</v>
+      </c>
+      <c r="D59" s="20">
+        <v>20</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="I59" s="24">
-        <v>44502</v>
+        <v>63</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="J59" s="25" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="K59" s="28"/>
       <c r="L59" s="26"/>
@@ -4654,559 +4766,529 @@
     <row r="60" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="14"/>
       <c r="B60" s="18">
-        <v>78793</v>
+        <v>78809</v>
       </c>
       <c r="C60" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>14</v>
+        <v>44509</v>
+      </c>
+      <c r="D60" s="20">
+        <v>20</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I60" s="24">
-        <v>44501</v>
-      </c>
-      <c r="J60" s="25" t="s">
-        <v>96</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J60" s="25"/>
       <c r="K60" s="28"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L60" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M60" s="27"/>
     </row>
     <row r="61" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="14"/>
       <c r="B61" s="18">
-        <v>78792</v>
+        <v>78808</v>
       </c>
       <c r="C61" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>58</v>
+        <v>44509</v>
+      </c>
+      <c r="D61" s="20">
+        <v>20</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I61" s="24">
-        <v>44505</v>
-      </c>
-      <c r="J61" s="25" t="s">
-        <v>96</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I61" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J61" s="25"/>
       <c r="K61" s="28"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L61" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M61" s="27"/>
     </row>
     <row r="62" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="14"/>
       <c r="B62" s="18">
-        <v>78791</v>
+        <v>78807</v>
       </c>
       <c r="C62" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>58</v>
+        <v>44509</v>
+      </c>
+      <c r="D62" s="20">
+        <v>20</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I62" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="25" t="s">
-        <v>96</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J62" s="25"/>
       <c r="K62" s="28"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L62" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M62" s="27"/>
     </row>
     <row r="63" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="14"/>
       <c r="B63" s="18">
-        <v>78790</v>
+        <v>78806</v>
       </c>
       <c r="C63" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>14</v>
+        <v>44509</v>
+      </c>
+      <c r="D63" s="20">
+        <v>40</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J63" s="25" t="s">
-        <v>96</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J63" s="25"/>
       <c r="K63" s="28"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L63" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M63" s="27"/>
     </row>
     <row r="64" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="14"/>
       <c r="B64" s="18">
-        <v>78789</v>
+        <v>78805</v>
       </c>
       <c r="C64" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>14</v>
+        <v>44509</v>
+      </c>
+      <c r="D64" s="20">
+        <v>60</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I64" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J64" s="25" t="s">
-        <v>96</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J64" s="25"/>
       <c r="K64" s="28"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L64" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M64" s="27"/>
     </row>
     <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="14"/>
       <c r="B65" s="18">
-        <v>78788</v>
+        <v>78804</v>
       </c>
       <c r="C65" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>55</v>
+        <v>44509</v>
+      </c>
+      <c r="D65" s="20">
+        <v>10</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I65" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J65" s="25" t="s">
-        <v>96</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I65" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J65" s="25"/>
       <c r="K65" s="28"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L65" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M65" s="27"/>
     </row>
     <row r="66" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="14"/>
       <c r="B66" s="18">
-        <v>78787</v>
-      </c>
-      <c r="C66" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F66" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" s="24">
-        <v>44502</v>
-      </c>
+        <v>78803</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="20"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="24"/>
       <c r="J66" s="25"/>
       <c r="K66" s="28"/>
       <c r="L66" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="M66" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="M66" s="27"/>
     </row>
     <row r="67" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="14"/>
       <c r="B67" s="18">
-        <v>78786</v>
+        <v>78802</v>
       </c>
       <c r="C67" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>58</v>
+        <v>44508</v>
+      </c>
+      <c r="D67" s="20">
+        <v>60</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="H67" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="24">
-        <v>44503</v>
+        <v>102</v>
+      </c>
+      <c r="I67" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="J67" s="25"/>
       <c r="K67" s="28"/>
       <c r="L67" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="M67" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="M67" s="27"/>
     </row>
     <row r="68" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="14"/>
       <c r="B68" s="18">
-        <v>78785</v>
+        <v>78801</v>
       </c>
       <c r="C68" s="19">
-        <v>44506</v>
+        <v>44508</v>
       </c>
       <c r="D68" s="20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="H68" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="I68" s="24">
-        <v>44503</v>
+        <v>102</v>
+      </c>
+      <c r="I68" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="J68" s="25"/>
       <c r="K68" s="28"/>
       <c r="L68" s="26" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M68" s="27"/>
     </row>
     <row r="69" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="14"/>
       <c r="B69" s="18">
-        <v>78784</v>
+        <v>78800</v>
       </c>
       <c r="C69" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>67</v>
+        <v>44508</v>
+      </c>
+      <c r="D69" s="20">
+        <v>50</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="H69" s="23" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I69" s="24" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="J69" s="25"/>
       <c r="K69" s="28"/>
       <c r="L69" s="26" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M69" s="27"/>
     </row>
     <row r="70" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="14"/>
       <c r="B70" s="18">
-        <v>78783</v>
+        <v>78799</v>
       </c>
       <c r="C70" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>67</v>
+        <v>44508</v>
+      </c>
+      <c r="D70" s="20">
+        <v>80</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J70" s="25" t="s">
-        <v>96</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J70" s="25"/>
       <c r="K70" s="28"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="27" t="s">
-        <v>94</v>
-      </c>
+      <c r="L70" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="M70" s="27"/>
     </row>
     <row r="71" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="14"/>
       <c r="B71" s="18">
-        <v>78782</v>
+        <v>78798</v>
       </c>
       <c r="C71" s="19">
-        <v>44506</v>
+        <v>44508</v>
       </c>
       <c r="D71" s="20">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I71" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J71" s="25" t="s">
-        <v>96</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J71" s="25"/>
       <c r="K71" s="28"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="27" t="s">
-        <v>94</v>
-      </c>
+      <c r="L71" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="M71" s="27"/>
     </row>
     <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="14"/>
       <c r="B72" s="18">
-        <v>78781</v>
+        <v>78797</v>
       </c>
       <c r="C72" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>67</v>
+        <v>44507</v>
+      </c>
+      <c r="D72" s="20">
+        <v>10</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G72" s="28" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="I72" s="24" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J72" s="25" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="K72" s="28"/>
       <c r="L72" s="26"/>
       <c r="M72" s="27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="14"/>
       <c r="B73" s="18">
-        <v>78780</v>
+        <v>78796</v>
       </c>
       <c r="C73" s="19">
-        <v>44506</v>
+        <v>44507</v>
       </c>
       <c r="D73" s="20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H73" s="23" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="I73" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J73" s="25" t="s">
-        <v>96</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J73" s="25"/>
       <c r="K73" s="28"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="27" t="s">
-        <v>95</v>
-      </c>
+      <c r="L73" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M73" s="27"/>
     </row>
     <row r="74" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="14"/>
       <c r="B74" s="18">
-        <v>78779</v>
+        <v>78795</v>
       </c>
       <c r="C74" s="19">
         <v>44506</v>
       </c>
-      <c r="D74" s="20">
-        <v>80</v>
+      <c r="D74" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="E74" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="H74" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I74" s="24" t="s">
-        <v>92</v>
+        <v>12</v>
+      </c>
+      <c r="I74" s="24">
+        <v>44502</v>
       </c>
       <c r="J74" s="25"/>
       <c r="K74" s="28"/>
       <c r="L74" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="M74" s="27"/>
+      <c r="M74" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="75" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="14"/>
       <c r="B75" s="18">
-        <v>78778</v>
+        <v>78794</v>
       </c>
       <c r="C75" s="19">
         <v>44506</v>
       </c>
-      <c r="D75" s="20">
-        <v>20</v>
+      <c r="D75" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E75" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="G75" s="28" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="H75" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I75" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J75" s="25"/>
+        <v>68</v>
+      </c>
+      <c r="I75" s="24">
+        <v>44502</v>
+      </c>
+      <c r="J75" s="25" t="s">
+        <v>96</v>
+      </c>
       <c r="K75" s="28"/>
-      <c r="L75" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="M75" s="27"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="76" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="14"/>
       <c r="B76" s="18">
-        <v>78777</v>
+        <v>78793</v>
       </c>
       <c r="C76" s="19">
         <v>44506</v>
@@ -5215,187 +5297,197 @@
         <v>14</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="G76" s="28" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="H76" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I76" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J76" s="25"/>
+        <v>35</v>
+      </c>
+      <c r="I76" s="24">
+        <v>44501</v>
+      </c>
+      <c r="J76" s="25" t="s">
+        <v>96</v>
+      </c>
       <c r="K76" s="28"/>
-      <c r="L76" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="M76" s="27"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="77" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="14"/>
       <c r="B77" s="18">
-        <v>78776</v>
+        <v>78792</v>
       </c>
       <c r="C77" s="19">
         <v>44506</v>
       </c>
-      <c r="D77" s="20">
-        <v>30</v>
+      <c r="D77" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="E77" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="G77" s="28" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="H77" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I77" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J77" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="24">
+        <v>44505</v>
+      </c>
+      <c r="J77" s="25" t="s">
+        <v>96</v>
+      </c>
       <c r="K77" s="28"/>
-      <c r="L77" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="M77" s="27"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="78" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="14"/>
       <c r="B78" s="18">
-        <v>78775</v>
+        <v>78791</v>
       </c>
       <c r="C78" s="19">
         <v>44506</v>
       </c>
-      <c r="D78" s="20">
-        <v>60</v>
+      <c r="D78" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="G78" s="28" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="H78" s="23" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="I78" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J78" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="J78" s="25" t="s">
+        <v>96</v>
+      </c>
       <c r="K78" s="28"/>
-      <c r="L78" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="M78" s="27"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="79" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="14"/>
       <c r="B79" s="18">
-        <v>78774</v>
+        <v>78790</v>
       </c>
       <c r="C79" s="19">
         <v>44506</v>
       </c>
-      <c r="D79" s="20">
-        <v>30</v>
+      <c r="D79" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E79" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="G79" s="28" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="H79" s="23" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="I79" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J79" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="J79" s="25" t="s">
+        <v>96</v>
+      </c>
       <c r="K79" s="28"/>
-      <c r="L79" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="M79" s="27"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="80" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="14"/>
       <c r="B80" s="18">
-        <v>78773</v>
+        <v>78789</v>
       </c>
       <c r="C80" s="19">
         <v>44506</v>
       </c>
-      <c r="D80" s="20">
-        <v>40</v>
+      <c r="D80" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="G80" s="28" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="H80" s="23" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J80" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="J80" s="25" t="s">
+        <v>96</v>
+      </c>
       <c r="K80" s="28"/>
-      <c r="L80" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="M80" s="27"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="81" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="14"/>
       <c r="B81" s="18">
-        <v>78772</v>
+        <v>78788</v>
       </c>
       <c r="C81" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G81" s="28" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="24" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I81" s="24">
+        <v>44502</v>
       </c>
       <c r="J81" s="25" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="K81" s="28"/>
       <c r="L81" s="26"/>
@@ -5406,33 +5498,33 @@
     <row r="82" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="14"/>
       <c r="B82" s="18">
-        <v>78771</v>
+        <v>78787</v>
       </c>
       <c r="C82" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E82" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G82" s="28" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I82" s="24">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="J82" s="25"/>
       <c r="K82" s="28"/>
       <c r="L82" s="26" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="M82" s="27" t="s">
         <v>4</v>
@@ -5441,33 +5533,33 @@
     <row r="83" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="14"/>
       <c r="B83" s="18">
-        <v>78770</v>
+        <v>78786</v>
       </c>
       <c r="C83" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E83" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G83" s="28" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H83" s="23" t="s">
         <v>12</v>
       </c>
       <c r="I83" s="24">
-        <v>44504</v>
+        <v>44503</v>
       </c>
       <c r="J83" s="25"/>
       <c r="K83" s="28"/>
       <c r="L83" s="26" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="M83" s="27" t="s">
         <v>4</v>
@@ -5476,113 +5568,111 @@
     <row r="84" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="14"/>
       <c r="B84" s="18">
-        <v>78769</v>
+        <v>78785</v>
       </c>
       <c r="C84" s="19">
-        <v>44505</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>58</v>
+        <v>44506</v>
+      </c>
+      <c r="D84" s="20">
+        <v>30</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="G84" s="28" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="H84" s="23" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="I84" s="24">
-        <v>44500</v>
+        <v>44503</v>
       </c>
       <c r="J84" s="25"/>
       <c r="K84" s="28"/>
       <c r="L84" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M84" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="M84" s="27"/>
     </row>
     <row r="85" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="14"/>
       <c r="B85" s="18">
-        <v>78768</v>
+        <v>78784</v>
       </c>
       <c r="C85" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E85" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="G85" s="28" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="H85" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I85" s="24">
-        <v>44498</v>
-      </c>
-      <c r="J85" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="I85" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="J85" s="25"/>
       <c r="K85" s="28"/>
-      <c r="L85" s="26"/>
-      <c r="M85" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L85" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="M85" s="27"/>
     </row>
     <row r="86" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="14"/>
       <c r="B86" s="18">
-        <v>78767</v>
+        <v>78783</v>
       </c>
       <c r="C86" s="19">
-        <v>44505</v>
-      </c>
-      <c r="D86" s="20">
-        <v>30</v>
+        <v>44506</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H86" s="23" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="I86" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J86" s="25"/>
+        <v>92</v>
+      </c>
+      <c r="J86" s="25" t="s">
+        <v>96</v>
+      </c>
       <c r="K86" s="28"/>
-      <c r="L86" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M86" s="27"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="27" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="87" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="14"/>
       <c r="B87" s="18">
-        <v>78766</v>
+        <v>78782</v>
       </c>
       <c r="C87" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D87" s="20">
         <v>10</v>
@@ -5591,484 +5681,492 @@
         <v>27</v>
       </c>
       <c r="F87" s="22" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G87" s="28" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H87" s="23" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="I87" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J87" s="25"/>
+        <v>92</v>
+      </c>
+      <c r="J87" s="25" t="s">
+        <v>96</v>
+      </c>
       <c r="K87" s="28"/>
-      <c r="L87" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M87" s="27"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="27" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="88" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="14"/>
       <c r="B88" s="18">
-        <v>78765</v>
+        <v>78781</v>
       </c>
       <c r="C88" s="19">
-        <v>44505</v>
-      </c>
-      <c r="D88" s="20">
-        <v>60</v>
+        <v>44506</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="E88" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G88" s="28" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="H88" s="23" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="I88" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J88" s="25"/>
+        <v>92</v>
+      </c>
+      <c r="J88" s="25" t="s">
+        <v>96</v>
+      </c>
       <c r="K88" s="28"/>
-      <c r="L88" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M88" s="27"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="27" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="89" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="14"/>
       <c r="B89" s="18">
-        <v>78764</v>
+        <v>78780</v>
       </c>
       <c r="C89" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D89" s="20">
         <v>20</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F89" s="22" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="G89" s="28" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H89" s="23" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="I89" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J89" s="25"/>
+        <v>92</v>
+      </c>
+      <c r="J89" s="25" t="s">
+        <v>96</v>
+      </c>
       <c r="K89" s="28"/>
-      <c r="L89" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M89" s="27"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="27" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="90" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="14"/>
       <c r="B90" s="18">
-        <v>78763</v>
+        <v>78779</v>
       </c>
       <c r="C90" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D90" s="20">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E90" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F90" s="22" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="G90" s="28" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="H90" s="23" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="I90" s="24" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="J90" s="25"/>
       <c r="K90" s="28"/>
       <c r="L90" s="26" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="M90" s="27"/>
     </row>
     <row r="91" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="14"/>
       <c r="B91" s="18">
-        <v>78762</v>
+        <v>78778</v>
       </c>
       <c r="C91" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D91" s="20">
         <v>20</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="G91" s="28" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="H91" s="23" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="I91" s="24" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="J91" s="25"/>
       <c r="K91" s="28"/>
       <c r="L91" s="26" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="M91" s="27"/>
     </row>
     <row r="92" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="14"/>
       <c r="B92" s="18">
-        <v>78761</v>
+        <v>78777</v>
       </c>
       <c r="C92" s="19">
-        <v>44505</v>
-      </c>
-      <c r="D92" s="20">
-        <v>50</v>
+        <v>44506</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="G92" s="28" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="H92" s="23" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="I92" s="24" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="J92" s="25"/>
       <c r="K92" s="28"/>
       <c r="L92" s="26" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="M92" s="27"/>
     </row>
     <row r="93" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="14"/>
       <c r="B93" s="18">
-        <v>78760</v>
+        <v>78776</v>
       </c>
       <c r="C93" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D93" s="20">
         <v>30</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F93" s="22" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="G93" s="28" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="H93" s="23" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="I93" s="24" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="J93" s="25"/>
       <c r="K93" s="28"/>
       <c r="L93" s="26" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="M93" s="27"/>
     </row>
     <row r="94" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="14"/>
       <c r="B94" s="18">
-        <v>78759</v>
+        <v>78775</v>
       </c>
       <c r="C94" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D94" s="20">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F94" s="22" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="G94" s="28" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="H94" s="23" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="I94" s="24" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="J94" s="25"/>
       <c r="K94" s="28"/>
       <c r="L94" s="26" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="M94" s="27"/>
     </row>
     <row r="95" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="14"/>
       <c r="B95" s="18">
-        <v>78758</v>
+        <v>78774</v>
       </c>
       <c r="C95" s="19">
-        <v>44505</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>14</v>
+        <v>44506</v>
+      </c>
+      <c r="D95" s="20">
+        <v>30</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="G95" s="28" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="H95" s="23" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="I95" s="24" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="J95" s="25"/>
       <c r="K95" s="28"/>
       <c r="L95" s="26" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="M95" s="27"/>
     </row>
     <row r="96" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="14"/>
       <c r="B96" s="18">
-        <v>78757</v>
+        <v>78773</v>
       </c>
       <c r="C96" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D96" s="20">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E96" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F96" s="22" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="G96" s="28" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="H96" s="23" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="I96" s="24" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="J96" s="25"/>
       <c r="K96" s="28"/>
       <c r="L96" s="26" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="M96" s="27"/>
     </row>
     <row r="97" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="14"/>
       <c r="B97" s="18">
-        <v>78756</v>
+        <v>78772</v>
       </c>
       <c r="C97" s="19">
         <v>44505</v>
       </c>
-      <c r="D97" s="20">
-        <v>20</v>
+      <c r="D97" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="G97" s="28" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="H97" s="23" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I97" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J97" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="J97" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K97" s="28"/>
-      <c r="L97" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M97" s="27"/>
+      <c r="L97" s="26"/>
+      <c r="M97" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="98" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="14"/>
       <c r="B98" s="18">
-        <v>78755</v>
+        <v>78771</v>
       </c>
       <c r="C98" s="19">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E98" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F98" s="22" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H98" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I98" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J98" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I98" s="24">
+        <v>44501</v>
+      </c>
+      <c r="J98" s="25"/>
+      <c r="K98" s="28"/>
+      <c r="L98" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K98" s="28"/>
-      <c r="L98" s="26"/>
       <c r="M98" s="27" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="14"/>
       <c r="B99" s="18">
-        <v>78754</v>
+        <v>78770</v>
       </c>
       <c r="C99" s="19">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E99" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F99" s="22" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H99" s="23" t="s">
         <v>12</v>
       </c>
       <c r="I99" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J99" s="25" t="s">
+        <v>44504</v>
+      </c>
+      <c r="J99" s="25"/>
+      <c r="K99" s="28"/>
+      <c r="L99" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K99" s="28"/>
-      <c r="L99" s="26"/>
       <c r="M99" s="27" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="14"/>
       <c r="B100" s="18">
-        <v>78753</v>
+        <v>78769</v>
       </c>
       <c r="C100" s="19">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F100" s="22" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G100" s="28" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H100" s="23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I100" s="24">
-        <v>44501</v>
-      </c>
-      <c r="J100" s="25" t="s">
+        <v>44500</v>
+      </c>
+      <c r="J100" s="25"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K100" s="28"/>
-      <c r="L100" s="26"/>
       <c r="M100" s="27" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="14"/>
       <c r="B101" s="18">
-        <v>78752</v>
+        <v>78768</v>
       </c>
       <c r="C101" s="19">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F101" s="22" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G101" s="28" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H101" s="23" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I101" s="24">
-        <v>44502</v>
+        <v>44498</v>
       </c>
       <c r="J101" s="25" t="s">
         <v>69</v>
@@ -6082,60 +6180,58 @@
     <row r="102" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="14"/>
       <c r="B102" s="18">
-        <v>78751</v>
+        <v>78767</v>
       </c>
       <c r="C102" s="19">
-        <v>44504</v>
-      </c>
-      <c r="D102" s="20" t="s">
-        <v>53</v>
+        <v>44505</v>
+      </c>
+      <c r="D102" s="20">
+        <v>30</v>
       </c>
       <c r="E102" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F102" s="22" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="H102" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I102" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J102" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I102" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J102" s="25"/>
+      <c r="K102" s="28"/>
+      <c r="L102" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K102" s="28"/>
-      <c r="L102" s="26"/>
-      <c r="M102" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="M102" s="27"/>
     </row>
     <row r="103" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="14"/>
       <c r="B103" s="18">
-        <v>78750</v>
+        <v>78766</v>
       </c>
       <c r="C103" s="19">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D103" s="20">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G103" s="28" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H103" s="23" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="I103" s="24" t="s">
         <v>75</v>
@@ -6150,34 +6246,46 @@
     <row r="104" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="14"/>
       <c r="B104" s="18">
-        <v>78749</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D104" s="20"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="23"/>
-      <c r="I104" s="24"/>
+        <v>78765</v>
+      </c>
+      <c r="C104" s="19">
+        <v>44505</v>
+      </c>
+      <c r="D104" s="20">
+        <v>60</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F104" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G104" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H104" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I104" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="J104" s="25"/>
       <c r="K104" s="28"/>
       <c r="L104" s="26" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="M104" s="27"/>
     </row>
     <row r="105" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="14"/>
       <c r="B105" s="18">
-        <v>78748</v>
+        <v>78764</v>
       </c>
       <c r="C105" s="19">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D105" s="20">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E105" s="21" t="s">
         <v>28</v>
@@ -6204,13 +6312,13 @@
     <row r="106" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="14"/>
       <c r="B106" s="18">
-        <v>78747</v>
+        <v>78763</v>
       </c>
       <c r="C106" s="19">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D106" s="20">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E106" s="21" t="s">
         <v>28</v>
@@ -6237,16 +6345,16 @@
     <row r="107" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="14"/>
       <c r="B107" s="18">
-        <v>78746</v>
+        <v>78762</v>
       </c>
       <c r="C107" s="19">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D107" s="20">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F107" s="22" t="s">
         <v>70</v>
@@ -6270,13 +6378,13 @@
     <row r="108" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="14"/>
       <c r="B108" s="18">
-        <v>78745</v>
+        <v>78761</v>
       </c>
       <c r="C108" s="19">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D108" s="20">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E108" s="21" t="s">
         <v>28</v>
@@ -6303,200 +6411,190 @@
     <row r="109" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="14"/>
       <c r="B109" s="18">
-        <v>78744</v>
+        <v>78760</v>
       </c>
       <c r="C109" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D109" s="20" t="s">
-        <v>54</v>
+        <v>44505</v>
+      </c>
+      <c r="D109" s="20">
+        <v>30</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F109" s="22" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="G109" s="28" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H109" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109" s="24">
-        <v>44497</v>
+        <v>75</v>
+      </c>
+      <c r="I109" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="J109" s="25"/>
       <c r="K109" s="28"/>
       <c r="L109" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="M109" s="27" t="s">
-        <v>4</v>
-      </c>
+      <c r="M109" s="27"/>
     </row>
     <row r="110" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="14"/>
       <c r="B110" s="18">
-        <v>78743</v>
+        <v>78759</v>
       </c>
       <c r="C110" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>58</v>
+        <v>44505</v>
+      </c>
+      <c r="D110" s="20">
+        <v>20</v>
       </c>
       <c r="E110" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G110" s="28" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H110" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I110" s="24">
-        <v>44497</v>
-      </c>
-      <c r="J110" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I110" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J110" s="25"/>
+      <c r="K110" s="28"/>
+      <c r="L110" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K110" s="28"/>
-      <c r="L110" s="26"/>
-      <c r="M110" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="M110" s="27"/>
     </row>
     <row r="111" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="14"/>
       <c r="B111" s="18">
-        <v>78742</v>
+        <v>78758</v>
       </c>
       <c r="C111" s="19">
-        <v>44503</v>
+        <v>44505</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G111" s="28" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H111" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I111" s="24">
-        <v>44498</v>
-      </c>
-      <c r="J111" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I111" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J111" s="25"/>
+      <c r="K111" s="28"/>
+      <c r="L111" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K111" s="28"/>
-      <c r="L111" s="26"/>
-      <c r="M111" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="M111" s="27"/>
     </row>
     <row r="112" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="14"/>
       <c r="B112" s="18">
-        <v>78741</v>
+        <v>78757</v>
       </c>
       <c r="C112" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D112" s="20" t="s">
-        <v>51</v>
+        <v>44505</v>
+      </c>
+      <c r="D112" s="20">
+        <v>30</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F112" s="22" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="G112" s="28" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="H112" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I112" s="24">
-        <v>44501</v>
-      </c>
-      <c r="J112" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I112" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J112" s="25"/>
+      <c r="K112" s="28"/>
+      <c r="L112" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K112" s="28"/>
-      <c r="L112" s="26"/>
-      <c r="M112" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="M112" s="27"/>
     </row>
     <row r="113" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="14"/>
       <c r="B113" s="18">
-        <v>78740</v>
+        <v>78756</v>
       </c>
       <c r="C113" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D113" s="20" t="s">
-        <v>52</v>
+        <v>44505</v>
+      </c>
+      <c r="D113" s="20">
+        <v>20</v>
       </c>
       <c r="E113" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F113" s="22" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="G113" s="28" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="H113" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I113" s="24">
-        <v>44497</v>
-      </c>
-      <c r="J113" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I113" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J113" s="25"/>
+      <c r="K113" s="28"/>
+      <c r="L113" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K113" s="28"/>
-      <c r="L113" s="26"/>
-      <c r="M113" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="M113" s="27"/>
     </row>
     <row r="114" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="14"/>
       <c r="B114" s="18">
-        <v>78739</v>
+        <v>78755</v>
       </c>
       <c r="C114" s="19">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G114" s="28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H114" s="23" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I114" s="24" t="s">
         <v>3</v>
@@ -6513,28 +6611,28 @@
     <row r="115" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="14"/>
       <c r="B115" s="18">
-        <v>78738</v>
+        <v>78754</v>
       </c>
       <c r="C115" s="19">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F115" s="22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G115" s="28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H115" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I115" s="24">
-        <v>44500</v>
+        <v>44502</v>
       </c>
       <c r="J115" s="25" t="s">
         <v>69</v>
@@ -6548,16 +6646,16 @@
     <row r="116" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="14"/>
       <c r="B116" s="18">
-        <v>78737</v>
+        <v>78753</v>
       </c>
       <c r="C116" s="19">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E116" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F116" s="22" t="s">
         <v>25</v>
@@ -6569,42 +6667,42 @@
         <v>13</v>
       </c>
       <c r="I116" s="24">
-        <v>44499</v>
-      </c>
-      <c r="J116" s="25"/>
+        <v>44501</v>
+      </c>
+      <c r="J116" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K116" s="28"/>
-      <c r="L116" s="26" t="s">
-        <v>69</v>
-      </c>
+      <c r="L116" s="26"/>
       <c r="M116" s="27" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="14"/>
       <c r="B117" s="18">
-        <v>78736</v>
+        <v>78752</v>
       </c>
       <c r="C117" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D117" s="20">
-        <v>60</v>
+        <v>44504</v>
+      </c>
+      <c r="D117" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="E117" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F117" s="22" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="G117" s="28" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="H117" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I117" s="24" t="s">
-        <v>75</v>
+        <v>12</v>
+      </c>
+      <c r="I117" s="24">
+        <v>44502</v>
       </c>
       <c r="J117" s="25" t="s">
         <v>69</v>
@@ -6612,64 +6710,66 @@
       <c r="K117" s="28"/>
       <c r="L117" s="26"/>
       <c r="M117" s="27" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="14"/>
       <c r="B118" s="18">
-        <v>78735</v>
+        <v>78751</v>
       </c>
       <c r="C118" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D118" s="20">
-        <v>20</v>
+        <v>44504</v>
+      </c>
+      <c r="D118" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="E118" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F118" s="22" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="G118" s="28" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="H118" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I118" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J118" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="I118" s="24">
+        <v>44502</v>
+      </c>
+      <c r="J118" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K118" s="28"/>
-      <c r="L118" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M118" s="27"/>
+      <c r="L118" s="26"/>
+      <c r="M118" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="119" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="14"/>
       <c r="B119" s="18">
-        <v>78734</v>
+        <v>78750</v>
       </c>
       <c r="C119" s="19">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="D119" s="20">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E119" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F119" s="22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G119" s="28" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H119" s="23" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="I119" s="24" t="s">
         <v>75</v>
@@ -6684,84 +6784,70 @@
     <row r="120" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="14"/>
       <c r="B120" s="18">
-        <v>78733</v>
-      </c>
-      <c r="C120" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D120" s="20">
-        <v>10</v>
-      </c>
-      <c r="E120" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F120" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="G120" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="H120" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="I120" s="24" t="s">
-        <v>75</v>
-      </c>
+        <v>78749</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D120" s="20"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="23"/>
+      <c r="I120" s="24"/>
       <c r="J120" s="25"/>
       <c r="K120" s="28"/>
       <c r="L120" s="26" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="M120" s="27"/>
     </row>
     <row r="121" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="14"/>
       <c r="B121" s="18">
-        <v>78732</v>
+        <v>78748</v>
       </c>
       <c r="C121" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D121" s="20" t="s">
-        <v>14</v>
+        <v>44504</v>
+      </c>
+      <c r="D121" s="20">
+        <v>40</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F121" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G121" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H121" s="23" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I121" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="J121" s="25" t="s">
+      <c r="J121" s="25"/>
+      <c r="K121" s="28"/>
+      <c r="L121" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K121" s="28"/>
-      <c r="L121" s="26"/>
-      <c r="M121" s="27" t="s">
-        <v>77</v>
-      </c>
+      <c r="M121" s="27"/>
     </row>
     <row r="122" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="14"/>
       <c r="B122" s="18">
-        <v>78731</v>
+        <v>78747</v>
       </c>
       <c r="C122" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D122" s="20" t="s">
-        <v>14</v>
+        <v>44504</v>
+      </c>
+      <c r="D122" s="20">
+        <v>70</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F122" s="22" t="s">
         <v>70</v>
@@ -6785,16 +6871,16 @@
     <row r="123" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="14"/>
       <c r="B123" s="18">
-        <v>78730</v>
+        <v>78746</v>
       </c>
       <c r="C123" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D123" s="20" t="s">
-        <v>14</v>
+        <v>44504</v>
+      </c>
+      <c r="D123" s="20">
+        <v>60</v>
       </c>
       <c r="E123" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F123" s="22" t="s">
         <v>70</v>
@@ -6818,13 +6904,13 @@
     <row r="124" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="14"/>
       <c r="B124" s="18">
-        <v>78729</v>
+        <v>78745</v>
       </c>
       <c r="C124" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D124" s="20" t="s">
-        <v>14</v>
+        <v>44504</v>
+      </c>
+      <c r="D124" s="20">
+        <v>10</v>
       </c>
       <c r="E124" s="21" t="s">
         <v>28</v>
@@ -6851,286 +6937,302 @@
     <row r="125" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="14"/>
       <c r="B125" s="18">
-        <v>78728</v>
+        <v>78744</v>
       </c>
       <c r="C125" s="19">
         <v>44503</v>
       </c>
-      <c r="D125" s="20">
-        <v>30</v>
+      <c r="D125" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E125" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F125" s="22" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="G125" s="28" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="H125" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I125" s="24" t="s">
-        <v>75</v>
+        <v>8</v>
+      </c>
+      <c r="I125" s="24">
+        <v>44497</v>
       </c>
       <c r="J125" s="25"/>
       <c r="K125" s="28"/>
       <c r="L125" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="M125" s="27"/>
+      <c r="M125" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="126" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="14"/>
       <c r="B126" s="18">
-        <v>78727</v>
+        <v>78743</v>
       </c>
       <c r="C126" s="19">
         <v>44503</v>
       </c>
-      <c r="D126" s="20">
-        <v>50</v>
+      <c r="D126" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="E126" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F126" s="22" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G126" s="28" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="H126" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I126" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J126" s="25"/>
+        <v>8</v>
+      </c>
+      <c r="I126" s="24">
+        <v>44497</v>
+      </c>
+      <c r="J126" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K126" s="28"/>
-      <c r="L126" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M126" s="27"/>
+      <c r="L126" s="26"/>
+      <c r="M126" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="127" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="14"/>
       <c r="B127" s="18">
-        <v>78726</v>
+        <v>78742</v>
       </c>
       <c r="C127" s="19">
         <v>44503</v>
       </c>
-      <c r="D127" s="20">
-        <v>10</v>
+      <c r="D127" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="E127" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F127" s="22" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G127" s="28" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="H127" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I127" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J127" s="25"/>
+        <v>8</v>
+      </c>
+      <c r="I127" s="24">
+        <v>44498</v>
+      </c>
+      <c r="J127" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K127" s="28"/>
-      <c r="L127" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M127" s="27"/>
+      <c r="L127" s="26"/>
+      <c r="M127" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="128" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="14"/>
       <c r="B128" s="18">
-        <v>78725</v>
+        <v>78741</v>
       </c>
       <c r="C128" s="19">
         <v>44503</v>
       </c>
-      <c r="D128" s="20">
-        <v>10</v>
+      <c r="D128" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F128" s="22" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G128" s="28" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="H128" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I128" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J128" s="25"/>
+        <v>35</v>
+      </c>
+      <c r="I128" s="24">
+        <v>44501</v>
+      </c>
+      <c r="J128" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K128" s="28"/>
-      <c r="L128" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M128" s="27"/>
+      <c r="L128" s="26"/>
+      <c r="M128" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="129" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="14"/>
       <c r="B129" s="18">
-        <v>78724</v>
+        <v>78740</v>
       </c>
       <c r="C129" s="19">
         <v>44503</v>
       </c>
-      <c r="D129" s="20">
-        <v>50</v>
+      <c r="D129" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="E129" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F129" s="22" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G129" s="28" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="H129" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I129" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J129" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="I129" s="24">
+        <v>44497</v>
+      </c>
+      <c r="J129" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K129" s="28"/>
-      <c r="L129" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M129" s="27"/>
+      <c r="L129" s="26"/>
+      <c r="M129" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="130" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="14"/>
       <c r="B130" s="18">
-        <v>78723</v>
+        <v>78739</v>
       </c>
       <c r="C130" s="19">
         <v>44503</v>
       </c>
-      <c r="D130" s="20">
-        <v>30</v>
+      <c r="D130" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="E130" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F130" s="22" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G130" s="28" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="H130" s="23" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I130" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J130" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="J130" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K130" s="28"/>
-      <c r="L130" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M130" s="27"/>
+      <c r="L130" s="26"/>
+      <c r="M130" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="131" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="14"/>
       <c r="B131" s="18">
-        <v>78722</v>
+        <v>78738</v>
       </c>
       <c r="C131" s="19">
         <v>44503</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E131" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F131" s="22" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="G131" s="28" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="H131" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I131" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J131" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="I131" s="24">
+        <v>44500</v>
+      </c>
+      <c r="J131" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K131" s="28"/>
-      <c r="L131" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M131" s="27"/>
+      <c r="L131" s="26"/>
+      <c r="M131" s="27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="132" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="14"/>
       <c r="B132" s="18">
-        <v>78721</v>
+        <v>78737</v>
       </c>
       <c r="C132" s="19">
         <v>44503</v>
       </c>
-      <c r="D132" s="20">
-        <v>50</v>
+      <c r="D132" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="E132" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F132" s="22" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="G132" s="28" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H132" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I132" s="24" t="s">
-        <v>75</v>
+        <v>13</v>
+      </c>
+      <c r="I132" s="24">
+        <v>44499</v>
       </c>
       <c r="J132" s="25"/>
       <c r="K132" s="28"/>
       <c r="L132" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="M132" s="27"/>
+      <c r="M132" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="133" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="14"/>
       <c r="B133" s="18">
-        <v>78720</v>
+        <v>78736</v>
       </c>
       <c r="C133" s="19">
         <v>44503</v>
       </c>
       <c r="D133" s="20">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E133" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F133" s="22" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G133" s="28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H133" s="23" t="s">
         <v>75</v>
@@ -7138,68 +7240,70 @@
       <c r="I133" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="J133" s="25"/>
+      <c r="J133" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K133" s="28"/>
-      <c r="L133" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M133" s="27"/>
+      <c r="L133" s="26"/>
+      <c r="M133" s="27" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="134" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="14"/>
       <c r="B134" s="18">
-        <v>78719</v>
+        <v>78735</v>
       </c>
       <c r="C134" s="19">
-        <v>44502</v>
-      </c>
-      <c r="D134" s="20" t="s">
-        <v>52</v>
+        <v>44503</v>
+      </c>
+      <c r="D134" s="20">
+        <v>20</v>
       </c>
       <c r="E134" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F134" s="22" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="G134" s="28" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="H134" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I134" s="24">
-        <v>44493</v>
+        <v>75</v>
+      </c>
+      <c r="I134" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="J134" s="25"/>
       <c r="K134" s="28"/>
       <c r="L134" s="26" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M134" s="27"/>
     </row>
     <row r="135" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="14"/>
       <c r="B135" s="18">
-        <v>78718</v>
+        <v>78734</v>
       </c>
       <c r="C135" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D135" s="20">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E135" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F135" s="22" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G135" s="28" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="H135" s="23" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="I135" s="24" t="s">
         <v>75</v>
@@ -7207,32 +7311,32 @@
       <c r="J135" s="25"/>
       <c r="K135" s="28"/>
       <c r="L135" s="26" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M135" s="27"/>
     </row>
     <row r="136" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="14"/>
       <c r="B136" s="18">
-        <v>78717</v>
+        <v>78733</v>
       </c>
       <c r="C136" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D136" s="20">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E136" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F136" s="22" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G136" s="28" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="H136" s="23" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I136" s="24" t="s">
         <v>75</v>
@@ -7240,94 +7344,94 @@
       <c r="J136" s="25"/>
       <c r="K136" s="28"/>
       <c r="L136" s="26" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M136" s="27"/>
     </row>
     <row r="137" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="14"/>
       <c r="B137" s="18">
-        <v>78716</v>
+        <v>78732</v>
       </c>
       <c r="C137" s="19">
-        <v>44502</v>
-      </c>
-      <c r="D137" s="20">
-        <v>30</v>
+        <v>44503</v>
+      </c>
+      <c r="D137" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E137" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F137" s="22" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G137" s="28" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="H137" s="23" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I137" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="J137" s="25"/>
+      <c r="J137" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K137" s="28"/>
-      <c r="L137" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="M137" s="27"/>
+      <c r="L137" s="26"/>
+      <c r="M137" s="27" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="138" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="14"/>
       <c r="B138" s="18">
-        <v>78715</v>
+        <v>78731</v>
       </c>
       <c r="C138" s="19">
-        <v>44502</v>
-      </c>
-      <c r="D138" s="20">
-        <v>40</v>
+        <v>44503</v>
+      </c>
+      <c r="D138" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E138" s="21" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F138" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G138" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H138" s="23" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="I138" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="J138" s="25" t="s">
-        <v>76</v>
-      </c>
+      <c r="J138" s="25"/>
       <c r="K138" s="28"/>
-      <c r="L138" s="26"/>
-      <c r="M138" s="27" t="s">
-        <v>77</v>
-      </c>
+      <c r="L138" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M138" s="27"/>
     </row>
     <row r="139" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="14"/>
       <c r="B139" s="18">
-        <v>78714</v>
+        <v>78730</v>
       </c>
       <c r="C139" s="19">
-        <v>44502</v>
-      </c>
-      <c r="D139" s="20">
-        <v>40</v>
+        <v>44503</v>
+      </c>
+      <c r="D139" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E139" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F139" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G139" s="28" t="s">
         <v>75</v>
@@ -7341,26 +7445,26 @@
       <c r="J139" s="25"/>
       <c r="K139" s="28"/>
       <c r="L139" s="26" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M139" s="27"/>
     </row>
     <row r="140" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="14"/>
       <c r="B140" s="18">
-        <v>78713</v>
+        <v>78729</v>
       </c>
       <c r="C140" s="19">
-        <v>44502</v>
-      </c>
-      <c r="D140" s="20">
+        <v>44503</v>
+      </c>
+      <c r="D140" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F140" s="22" t="s">
         <v>70</v>
-      </c>
-      <c r="E140" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F140" s="22" t="s">
-        <v>74</v>
       </c>
       <c r="G140" s="28" t="s">
         <v>75</v>
@@ -7374,26 +7478,26 @@
       <c r="J140" s="25"/>
       <c r="K140" s="28"/>
       <c r="L140" s="26" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M140" s="27"/>
     </row>
     <row r="141" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="14"/>
       <c r="B141" s="18">
-        <v>78712</v>
+        <v>78728</v>
       </c>
       <c r="C141" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D141" s="20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E141" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F141" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G141" s="28" t="s">
         <v>75</v>
@@ -7407,26 +7511,26 @@
       <c r="J141" s="25"/>
       <c r="K141" s="28"/>
       <c r="L141" s="26" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M141" s="27"/>
     </row>
     <row r="142" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="14"/>
       <c r="B142" s="18">
-        <v>78711</v>
+        <v>78727</v>
       </c>
       <c r="C142" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D142" s="20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E142" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F142" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G142" s="28" t="s">
         <v>75</v>
@@ -7440,26 +7544,26 @@
       <c r="J142" s="25"/>
       <c r="K142" s="28"/>
       <c r="L142" s="26" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M142" s="27"/>
     </row>
     <row r="143" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="14"/>
       <c r="B143" s="18">
-        <v>78710</v>
+        <v>78726</v>
       </c>
       <c r="C143" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D143" s="20">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E143" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F143" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G143" s="28" t="s">
         <v>75</v>
@@ -7473,26 +7577,26 @@
       <c r="J143" s="25"/>
       <c r="K143" s="28"/>
       <c r="L143" s="26" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M143" s="27"/>
     </row>
     <row r="144" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="14"/>
       <c r="B144" s="18">
-        <v>78709</v>
+        <v>78725</v>
       </c>
       <c r="C144" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D144" s="20">
         <v>10</v>
       </c>
       <c r="E144" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F144" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G144" s="28" t="s">
         <v>75</v>
@@ -7506,35 +7610,35 @@
       <c r="J144" s="25"/>
       <c r="K144" s="28"/>
       <c r="L144" s="26" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M144" s="27"/>
     </row>
     <row r="145" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="14"/>
       <c r="B145" s="18">
-        <v>78708</v>
+        <v>78724</v>
       </c>
       <c r="C145" s="19">
-        <v>44501</v>
+        <v>44503</v>
       </c>
       <c r="D145" s="20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E145" s="21" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F145" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G145" s="28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H145" s="23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I145" s="24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J145" s="25"/>
       <c r="K145" s="28"/>
@@ -7546,28 +7650,28 @@
     <row r="146" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="14"/>
       <c r="B146" s="18">
-        <v>78707</v>
+        <v>78723</v>
       </c>
       <c r="C146" s="19">
-        <v>44501</v>
+        <v>44503</v>
       </c>
       <c r="D146" s="20">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E146" s="21" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F146" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G146" s="28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H146" s="23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I146" s="24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J146" s="25"/>
       <c r="K146" s="28"/>
@@ -7575,6 +7679,536 @@
         <v>69</v>
       </c>
       <c r="M146" s="27"/>
+    </row>
+    <row r="147" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="14"/>
+      <c r="B147" s="18">
+        <v>78722</v>
+      </c>
+      <c r="C147" s="19">
+        <v>44503</v>
+      </c>
+      <c r="D147" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F147" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G147" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H147" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I147" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J147" s="25"/>
+      <c r="K147" s="28"/>
+      <c r="L147" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M147" s="27"/>
+    </row>
+    <row r="148" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="14"/>
+      <c r="B148" s="18">
+        <v>78721</v>
+      </c>
+      <c r="C148" s="19">
+        <v>44503</v>
+      </c>
+      <c r="D148" s="20">
+        <v>50</v>
+      </c>
+      <c r="E148" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F148" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G148" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H148" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I148" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J148" s="25"/>
+      <c r="K148" s="28"/>
+      <c r="L148" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M148" s="27"/>
+    </row>
+    <row r="149" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="14"/>
+      <c r="B149" s="18">
+        <v>78720</v>
+      </c>
+      <c r="C149" s="19">
+        <v>44503</v>
+      </c>
+      <c r="D149" s="20">
+        <v>30</v>
+      </c>
+      <c r="E149" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F149" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G149" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H149" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I149" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J149" s="25"/>
+      <c r="K149" s="28"/>
+      <c r="L149" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M149" s="27"/>
+    </row>
+    <row r="150" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="14"/>
+      <c r="B150" s="18">
+        <v>78719</v>
+      </c>
+      <c r="C150" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D150" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E150" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F150" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G150" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H150" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I150" s="24">
+        <v>44493</v>
+      </c>
+      <c r="J150" s="25"/>
+      <c r="K150" s="28"/>
+      <c r="L150" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M150" s="27"/>
+    </row>
+    <row r="151" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="14"/>
+      <c r="B151" s="18">
+        <v>78718</v>
+      </c>
+      <c r="C151" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D151" s="20">
+        <v>20</v>
+      </c>
+      <c r="E151" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F151" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G151" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H151" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I151" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J151" s="25"/>
+      <c r="K151" s="28"/>
+      <c r="L151" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M151" s="27"/>
+    </row>
+    <row r="152" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="14"/>
+      <c r="B152" s="18">
+        <v>78717</v>
+      </c>
+      <c r="C152" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D152" s="20">
+        <v>30</v>
+      </c>
+      <c r="E152" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F152" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G152" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H152" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I152" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J152" s="25"/>
+      <c r="K152" s="28"/>
+      <c r="L152" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M152" s="27"/>
+    </row>
+    <row r="153" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="14"/>
+      <c r="B153" s="18">
+        <v>78716</v>
+      </c>
+      <c r="C153" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D153" s="20">
+        <v>30</v>
+      </c>
+      <c r="E153" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F153" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G153" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H153" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I153" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J153" s="25"/>
+      <c r="K153" s="28"/>
+      <c r="L153" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M153" s="27"/>
+    </row>
+    <row r="154" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="14"/>
+      <c r="B154" s="18">
+        <v>78715</v>
+      </c>
+      <c r="C154" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D154" s="20">
+        <v>40</v>
+      </c>
+      <c r="E154" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F154" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G154" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H154" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I154" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J154" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="K154" s="28"/>
+      <c r="L154" s="26"/>
+      <c r="M154" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="14"/>
+      <c r="B155" s="18">
+        <v>78714</v>
+      </c>
+      <c r="C155" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D155" s="20">
+        <v>40</v>
+      </c>
+      <c r="E155" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F155" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G155" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H155" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I155" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J155" s="25"/>
+      <c r="K155" s="28"/>
+      <c r="L155" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M155" s="27"/>
+    </row>
+    <row r="156" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="14"/>
+      <c r="B156" s="18">
+        <v>78713</v>
+      </c>
+      <c r="C156" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D156" s="20">
+        <v>70</v>
+      </c>
+      <c r="E156" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F156" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G156" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H156" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I156" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J156" s="25"/>
+      <c r="K156" s="28"/>
+      <c r="L156" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M156" s="27"/>
+    </row>
+    <row r="157" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="14"/>
+      <c r="B157" s="18">
+        <v>78712</v>
+      </c>
+      <c r="C157" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D157" s="20">
+        <v>20</v>
+      </c>
+      <c r="E157" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F157" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G157" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H157" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I157" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J157" s="25"/>
+      <c r="K157" s="28"/>
+      <c r="L157" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M157" s="27"/>
+    </row>
+    <row r="158" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="14"/>
+      <c r="B158" s="18">
+        <v>78711</v>
+      </c>
+      <c r="C158" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D158" s="20">
+        <v>30</v>
+      </c>
+      <c r="E158" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F158" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G158" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H158" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I158" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J158" s="25"/>
+      <c r="K158" s="28"/>
+      <c r="L158" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M158" s="27"/>
+    </row>
+    <row r="159" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="14"/>
+      <c r="B159" s="18">
+        <v>78710</v>
+      </c>
+      <c r="C159" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D159" s="20">
+        <v>70</v>
+      </c>
+      <c r="E159" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F159" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G159" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H159" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I159" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J159" s="25"/>
+      <c r="K159" s="28"/>
+      <c r="L159" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M159" s="27"/>
+    </row>
+    <row r="160" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="14"/>
+      <c r="B160" s="18">
+        <v>78709</v>
+      </c>
+      <c r="C160" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D160" s="20">
+        <v>10</v>
+      </c>
+      <c r="E160" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F160" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G160" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H160" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I160" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J160" s="25"/>
+      <c r="K160" s="28"/>
+      <c r="L160" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M160" s="27"/>
+    </row>
+    <row r="161" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="14"/>
+      <c r="B161" s="18">
+        <v>78708</v>
+      </c>
+      <c r="C161" s="19">
+        <v>44501</v>
+      </c>
+      <c r="D161" s="20">
+        <v>30</v>
+      </c>
+      <c r="E161" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F161" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G161" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H161" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I161" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="J161" s="25"/>
+      <c r="K161" s="28"/>
+      <c r="L161" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M161" s="27"/>
+    </row>
+    <row r="162" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="14"/>
+      <c r="B162" s="18">
+        <v>78707</v>
+      </c>
+      <c r="C162" s="19">
+        <v>44501</v>
+      </c>
+      <c r="D162" s="20">
+        <v>80</v>
+      </c>
+      <c r="E162" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F162" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G162" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H162" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I162" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="J162" s="25"/>
+      <c r="K162" s="28"/>
+      <c r="L162" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M162" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/corona-kanjajokyou.xlsx
+++ b/corona-kanjajokyou.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Lb16z0190\広報戦略\11Twitter対応について\98 コロナ(毎日の発生状況)\HP作業用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34DAEF68-1AAE-4692-8BEB-098A627F88B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95012ABF-7910-4196-9375-20B103C2A5AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$162</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$169</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="138">
   <si>
     <t>非公表</t>
   </si>
@@ -623,7 +623,7 @@
     <rPh sb="1" eb="2">
       <t>セイ</t>
     </rPh>
-    <phoneticPr fontId="26"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>姫路</t>
@@ -780,7 +780,8 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>令和2年3月1日以降の総数 78,611件 ※欠番252件（医療機関での発生届の取り下げ等）</t>
+    <t>令和2年3月1日以降の総数 78,618件 ※欠番252件（医療機関での発生届の取り下げ等）</t>
+    <phoneticPr fontId="0"/>
   </si>
 </sst>
 </file>
@@ -790,7 +791,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -952,13 +953,6 @@
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1703,7 +1697,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
@@ -1718,7 +1712,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1727,28 +1721,28 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1835,46 +1829,46 @@
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1883,10 +1877,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1895,10 +1889,10 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1907,10 +1901,10 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1919,10 +1913,10 @@
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1931,10 +1925,10 @@
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1943,10 +1937,10 @@
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1955,7 +1949,7 @@
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
@@ -1965,61 +1959,61 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2028,10 +2022,10 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2040,10 +2034,10 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2052,10 +2046,10 @@
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2064,10 +2058,10 @@
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2076,10 +2070,10 @@
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2088,7 +2082,7 @@
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -2118,7 +2112,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -2153,7 +2147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2192,9 +2186,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2795,13 +2786,13 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N162"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2817,11 +2808,10 @@
     <col min="9" max="9" width="10.625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="5" style="6" customWidth="1"/>
     <col min="13" max="13" width="48" style="6" customWidth="1"/>
-    <col min="14" max="14" width="13" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="6"/>
+    <col min="14" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>98</v>
@@ -2833,18 +2823,17 @@
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="31">
+      <c r="J1" s="30">
         <f ca="1">TODAY()-1</f>
-        <v>44513</v>
-      </c>
-      <c r="K1" s="31"/>
+        <v>44514</v>
+      </c>
+      <c r="K1" s="30"/>
       <c r="L1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="M1" s="5"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="7"/>
       <c r="C2" s="3"/>
@@ -2858,9 +2847,8 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2876,5339 +2864,5576 @@
       <c r="M3" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="29" t="s">
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="13"/>
-    </row>
-    <row r="5" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="15" t="s">
+    </row>
+    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="30"/>
-    </row>
-    <row r="6" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="18">
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="17">
+        <v>78870</v>
+      </c>
+      <c r="C6" s="18">
+        <v>44514</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="23">
+        <v>44512</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="17">
+        <v>78869</v>
+      </c>
+      <c r="C7" s="18">
+        <v>44514</v>
+      </c>
+      <c r="D7" s="19">
+        <v>30</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="26"/>
+    </row>
+    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="17">
+        <v>78868</v>
+      </c>
+      <c r="C8" s="18">
+        <v>44514</v>
+      </c>
+      <c r="D8" s="19">
+        <v>20</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="17">
+        <v>78867</v>
+      </c>
+      <c r="C9" s="18">
+        <v>44514</v>
+      </c>
+      <c r="D9" s="19">
+        <v>40</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="17">
+        <v>78866</v>
+      </c>
+      <c r="C10" s="18">
+        <v>44514</v>
+      </c>
+      <c r="D10" s="19">
+        <v>20</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="17">
+        <v>78865</v>
+      </c>
+      <c r="C11" s="18">
+        <v>44514</v>
+      </c>
+      <c r="D11" s="19">
+        <v>20</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="17">
+        <v>78864</v>
+      </c>
+      <c r="C12" s="18">
+        <v>44514</v>
+      </c>
+      <c r="D12" s="19">
+        <v>30</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="17">
         <v>78863</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C13" s="18">
         <v>44513</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G13" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H13" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I13" s="23">
         <v>44511</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J13" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="27" t="s">
+      <c r="K13" s="27"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="26" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="18">
+    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="17">
         <v>78862</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C14" s="18">
         <v>44513</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G14" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I14" s="23">
         <v>44508</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="26" t="s">
+      <c r="J14" s="24"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="M7" s="27"/>
-    </row>
-    <row r="8" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="18">
+      <c r="M14" s="26"/>
+    </row>
+    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="17">
         <v>78861</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C15" s="18">
         <v>44513</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D15" s="19">
         <v>60</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G15" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I15" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J15" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="27" t="s">
+      <c r="K15" s="27"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="18">
+    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="17">
         <v>78860</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C16" s="18">
         <v>44513</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D16" s="19">
         <v>30</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E16" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F16" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G16" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H16" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I16" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J16" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="27" t="s">
+      <c r="K16" s="27"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="18">
+    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="17">
         <v>78859</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C17" s="18">
         <v>44513</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D17" s="19">
         <v>30</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F17" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G17" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H17" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I17" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J17" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="27" t="s">
+      <c r="K17" s="27"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="18">
+    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="17">
         <v>78858</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C18" s="18">
         <v>44513</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D18" s="19">
         <v>30</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F18" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G18" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H18" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I18" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J18" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27" t="s">
+      <c r="K18" s="27"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="18">
+    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="17">
         <v>78857</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C19" s="18">
         <v>44513</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D19" s="19">
         <v>20</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G19" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H19" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I19" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J19" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="27" t="s">
+      <c r="K19" s="27"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="18">
+    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="17">
         <v>78856</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C20" s="18">
         <v>44513</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D20" s="19">
         <v>20</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E20" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F20" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G20" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H20" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I20" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J20" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27" t="s">
+      <c r="K20" s="27"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="18">
+    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="13"/>
+      <c r="B21" s="17">
         <v>78855</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C21" s="18">
         <v>44513</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D21" s="19">
         <v>30</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G21" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H21" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I21" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J21" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="27" t="s">
+      <c r="K21" s="27"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="18">
+    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="17">
         <v>78854</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C22" s="18">
         <v>44513</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D22" s="19">
         <v>30</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E22" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F22" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G22" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H22" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I22" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J22" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27" t="s">
+      <c r="K22" s="27"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="18">
+    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="17">
         <v>78853</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C23" s="18">
         <v>44513</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D23" s="19">
         <v>20</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E23" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F23" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G23" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H23" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I23" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J23" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="27" t="s">
+      <c r="K23" s="27"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="18">
+    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="17">
         <v>78852</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C24" s="18">
         <v>44513</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D24" s="19">
         <v>30</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E24" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F24" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G24" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H24" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I24" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J24" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="27" t="s">
+      <c r="K24" s="27"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="18">
+    <row r="25" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="17">
         <v>78851</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C25" s="18">
         <v>44513</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D25" s="19">
         <v>20</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F25" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G25" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H25" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I25" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="26" t="s">
+      <c r="J25" s="24"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="M18" s="27"/>
-    </row>
-    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="18">
+      <c r="M25" s="26"/>
+    </row>
+    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="13"/>
+      <c r="B26" s="17">
         <v>78850</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C26" s="18">
         <v>44513</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D26" s="19">
         <v>20</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E26" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F26" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G26" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H26" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I26" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="26" t="s">
+      <c r="J26" s="24"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="27"/>
-    </row>
-    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="18">
+      <c r="M26" s="26"/>
+    </row>
+    <row r="27" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="13"/>
+      <c r="B27" s="17">
         <v>78849</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C27" s="18">
         <v>44513</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D27" s="19">
         <v>20</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E27" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F27" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G27" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H27" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="I20" s="24" t="s">
+      <c r="I27" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="26" t="s">
+      <c r="J27" s="24"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="M20" s="27"/>
-    </row>
-    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="18">
+      <c r="M27" s="26"/>
+    </row>
+    <row r="28" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="13"/>
+      <c r="B28" s="17">
         <v>78848</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C28" s="18">
         <v>44513</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D28" s="19">
         <v>30</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E28" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F28" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G28" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H28" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I28" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="26" t="s">
+      <c r="J28" s="24"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="M21" s="27"/>
-    </row>
-    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="18">
+      <c r="M28" s="26"/>
+    </row>
+    <row r="29" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="13"/>
+      <c r="B29" s="17">
         <v>78847</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C29" s="18">
         <v>44512</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D29" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E29" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F29" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G29" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H29" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I29" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J29" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="K22" s="28"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="27" t="s">
+      <c r="K29" s="27"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="18">
+    <row r="30" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="13"/>
+      <c r="B30" s="17">
         <v>78846</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C30" s="18">
         <v>44512</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D30" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E30" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F30" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G30" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H30" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I30" s="23">
         <v>44509</v>
       </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="26" t="s">
+      <c r="J30" s="24"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="M23" s="27" t="s">
+      <c r="M30" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="18">
+    <row r="31" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="13"/>
+      <c r="B31" s="17">
         <v>78845</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C31" s="18">
         <v>44512</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D31" s="19">
         <v>50</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F31" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G31" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H31" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="I31" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J24" s="25" t="s">
+      <c r="J31" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="K24" s="28"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="27" t="s">
+      <c r="K31" s="27"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="26" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="18">
+    <row r="32" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="13"/>
+      <c r="B32" s="17">
         <v>78844</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C32" s="18">
         <v>44512</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D32" s="19">
         <v>20</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E32" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F32" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G32" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H32" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I32" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J32" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="K25" s="28"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="27" t="s">
+      <c r="K32" s="27"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="26" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="18">
+    <row r="33" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="13"/>
+      <c r="B33" s="17">
         <v>78843</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C33" s="18">
         <v>44512</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D33" s="19">
         <v>80</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E33" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F33" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G33" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H33" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I33" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J26" s="25"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="26" t="s">
+      <c r="J33" s="24"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="M26" s="27"/>
-    </row>
-    <row r="27" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="18">
+      <c r="M33" s="26"/>
+    </row>
+    <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="13"/>
+      <c r="B34" s="17">
         <v>78842</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C34" s="18">
         <v>44512</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D34" s="19">
         <v>60</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E34" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F34" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G34" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H34" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I34" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="26" t="s">
+      <c r="J34" s="24"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="M27" s="27"/>
-    </row>
-    <row r="28" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="18">
+      <c r="M34" s="26"/>
+    </row>
+    <row r="35" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="13"/>
+      <c r="B35" s="17">
         <v>78841</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C35" s="18">
         <v>44512</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D35" s="19">
         <v>30</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E35" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F35" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G35" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H35" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I35" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="J35" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="K28" s="28"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="27" t="s">
+      <c r="K35" s="27"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="18">
+    <row r="36" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="13"/>
+      <c r="B36" s="17">
         <v>78840</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C36" s="18">
         <v>44512</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D36" s="19">
         <v>20</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E36" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F36" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G36" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H36" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I36" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="J29" s="25" t="s">
+      <c r="J36" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="K29" s="28"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="27" t="s">
+      <c r="K36" s="27"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="26" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="18">
+    <row r="37" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="13"/>
+      <c r="B37" s="17">
         <v>78839</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C37" s="18">
         <v>44512</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D37" s="19">
         <v>20</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E37" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F37" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G37" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H37" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I37" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="J30" s="25" t="s">
+      <c r="J37" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="K30" s="28"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="27" t="s">
+      <c r="K37" s="27"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="26" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="18">
+    <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="13"/>
+      <c r="B38" s="17">
         <v>78838</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C38" s="18">
         <v>44512</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D38" s="19">
         <v>30</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E38" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F38" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I31" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J31" s="25"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="26" t="s">
+      <c r="G38" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J38" s="24"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="M31" s="27"/>
-    </row>
-    <row r="32" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="18">
+      <c r="M38" s="26"/>
+    </row>
+    <row r="39" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="13"/>
+      <c r="B39" s="17">
         <v>78837</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C39" s="18">
         <v>44511</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D39" s="19">
         <v>40</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E39" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F39" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G39" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H39" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I39" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="J32" s="25"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="26" t="s">
+      <c r="J39" s="24"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M32" s="27"/>
-    </row>
-    <row r="33" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="18">
+      <c r="M39" s="26"/>
+    </row>
+    <row r="40" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="13"/>
+      <c r="B40" s="17">
         <v>78836</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C40" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="27"/>
-    </row>
-    <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="18">
+      <c r="D40" s="19"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="26"/>
+    </row>
+    <row r="41" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="13"/>
+      <c r="B41" s="17">
         <v>78835</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C41" s="18">
         <v>44511</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D41" s="19">
         <v>20</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E41" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F41" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="G34" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="23" t="s">
+      <c r="G41" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="I34" s="24" t="s">
+      <c r="I41" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="J34" s="25"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="26" t="s">
+      <c r="J41" s="24"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M34" s="27"/>
-    </row>
-    <row r="35" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
-      <c r="B35" s="18">
+      <c r="M41" s="26"/>
+    </row>
+    <row r="42" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="13"/>
+      <c r="B42" s="17">
         <v>78834</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C42" s="18">
         <v>44511</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D42" s="19">
         <v>50</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E42" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F42" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="G35" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H35" s="23" t="s">
+      <c r="G42" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I42" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="J35" s="25"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="26" t="s">
+      <c r="J42" s="24"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M35" s="27"/>
-    </row>
-    <row r="36" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="14"/>
-      <c r="B36" s="18">
+      <c r="M42" s="26"/>
+    </row>
+    <row r="43" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="13"/>
+      <c r="B43" s="17">
         <v>78833</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C43" s="18">
         <v>44510</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D43" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E43" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F43" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="28" t="s">
+      <c r="G43" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H36" s="23" t="s">
+      <c r="H43" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I43" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J36" s="25" t="s">
+      <c r="J43" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="K36" s="28"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="27" t="s">
+      <c r="K43" s="27"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="14"/>
-      <c r="B37" s="18">
+    <row r="44" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="13"/>
+      <c r="B44" s="17">
         <v>78832</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C44" s="18">
         <v>44510</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D44" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E44" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F44" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G37" s="28" t="s">
+      <c r="G44" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H44" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I44" s="23">
         <v>44508</v>
       </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="26" t="s">
+      <c r="J44" s="24"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M37" s="27" t="s">
+      <c r="M44" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="14"/>
-      <c r="B38" s="18">
+    <row r="45" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="13"/>
+      <c r="B45" s="17">
         <v>78831</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C45" s="18">
         <v>44510</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D45" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E45" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F45" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G38" s="28" t="s">
+      <c r="G45" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="H45" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I45" s="23">
         <v>44508</v>
       </c>
-      <c r="J38" s="25"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="26" t="s">
+      <c r="J45" s="24"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M38" s="27" t="s">
+      <c r="M45" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="14"/>
-      <c r="B39" s="18">
+    <row r="46" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="13"/>
+      <c r="B46" s="17">
         <v>78830</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C46" s="18">
         <v>44510</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D46" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E46" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F46" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="28" t="s">
+      <c r="G46" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="H46" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I46" s="23">
         <v>44508</v>
       </c>
-      <c r="J39" s="25"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="26" t="s">
+      <c r="J46" s="24"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M39" s="27" t="s">
+      <c r="M46" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="14"/>
-      <c r="B40" s="18">
+    <row r="47" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="13"/>
+      <c r="B47" s="17">
         <v>78829</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C47" s="18">
         <v>44510</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D47" s="19">
         <v>50</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E47" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F47" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G40" s="28" t="s">
+      <c r="G47" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="H40" s="23" t="s">
+      <c r="H47" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J40" s="25"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="26" t="s">
+      <c r="I47" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J47" s="24"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M40" s="27"/>
-    </row>
-    <row r="41" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="14"/>
-      <c r="B41" s="18">
+      <c r="M47" s="26"/>
+    </row>
+    <row r="48" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="13"/>
+      <c r="B48" s="17">
         <v>78828</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C48" s="18">
         <v>44510</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D48" s="19">
         <v>30</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E48" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F48" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="28" t="s">
+      <c r="G48" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="H48" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I41" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J41" s="25"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="26" t="s">
+      <c r="I48" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J48" s="24"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M41" s="27"/>
-    </row>
-    <row r="42" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="14"/>
-      <c r="B42" s="18">
+      <c r="M48" s="26"/>
+    </row>
+    <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="13"/>
+      <c r="B49" s="17">
         <v>78827</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C49" s="18">
         <v>44510</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D49" s="19">
         <v>30</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E49" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F49" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="28" t="s">
+      <c r="G49" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="H42" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I42" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J42" s="25"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="26" t="s">
+      <c r="H49" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J49" s="24"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M42" s="27"/>
-    </row>
-    <row r="43" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="14"/>
-      <c r="B43" s="18">
+      <c r="M49" s="26"/>
+    </row>
+    <row r="50" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="13"/>
+      <c r="B50" s="17">
         <v>78826</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C50" s="18">
         <v>44510</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D50" s="19">
         <v>60</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E50" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F50" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="28" t="s">
+      <c r="G50" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="H43" s="23" t="s">
+      <c r="H50" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I43" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J43" s="25" t="s">
+      <c r="I50" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J50" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="K43" s="28"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="27" t="s">
+      <c r="K50" s="27"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="14"/>
-      <c r="B44" s="18">
+    <row r="51" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="13"/>
+      <c r="B51" s="17">
         <v>78825</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C51" s="18">
         <v>44510</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D51" s="19">
         <v>60</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E51" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F51" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G44" s="28" t="s">
+      <c r="G51" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="H44" s="23" t="s">
+      <c r="H51" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I44" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J44" s="25" t="s">
+      <c r="I51" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J51" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="K44" s="28"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="27" t="s">
+      <c r="K51" s="27"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="14"/>
-      <c r="B45" s="18">
+    <row r="52" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="13"/>
+      <c r="B52" s="17">
         <v>78824</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C52" s="18">
         <v>44510</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D52" s="19">
         <v>60</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E52" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F52" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G45" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H45" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I45" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="26" t="s">
+      <c r="G52" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J52" s="24"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M45" s="27"/>
-    </row>
-    <row r="46" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="14"/>
-      <c r="B46" s="18">
+      <c r="M52" s="26"/>
+    </row>
+    <row r="53" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="13"/>
+      <c r="B53" s="17">
         <v>78823</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C53" s="18">
         <v>44510</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D53" s="19">
         <v>20</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E53" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F53" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G46" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H46" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I46" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J46" s="25"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="26" t="s">
+      <c r="G53" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J53" s="24"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M46" s="27"/>
-    </row>
-    <row r="47" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="14"/>
-      <c r="B47" s="18">
+      <c r="M53" s="26"/>
+    </row>
+    <row r="54" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="13"/>
+      <c r="B54" s="17">
         <v>78822</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C54" s="18">
         <v>44510</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D54" s="19">
         <v>20</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E54" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F54" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G47" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H47" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I47" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J47" s="25"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="26" t="s">
+      <c r="G54" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I54" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J54" s="24"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M47" s="27"/>
-    </row>
-    <row r="48" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="14"/>
-      <c r="B48" s="18">
+      <c r="M54" s="26"/>
+    </row>
+    <row r="55" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="13"/>
+      <c r="B55" s="17">
         <v>78821</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C55" s="18">
         <v>44510</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D55" s="19">
         <v>10</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E55" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="F55" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G48" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H48" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I48" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J48" s="25"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="26" t="s">
+      <c r="G55" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I55" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J55" s="24"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M48" s="27"/>
-    </row>
-    <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="14"/>
-      <c r="B49" s="18">
+      <c r="M55" s="26"/>
+    </row>
+    <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="13"/>
+      <c r="B56" s="17">
         <v>78820</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C56" s="18">
         <v>44510</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D56" s="19">
         <v>10</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="E56" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F56" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H49" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J49" s="25"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="26" t="s">
+      <c r="G56" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J56" s="24"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M49" s="27"/>
-    </row>
-    <row r="50" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="14"/>
-      <c r="B50" s="18">
+      <c r="M56" s="26"/>
+    </row>
+    <row r="57" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="13"/>
+      <c r="B57" s="17">
         <v>78819</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C57" s="18">
         <v>44510</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D57" s="19">
         <v>40</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="E57" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F50" s="22" t="s">
+      <c r="F57" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G50" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H50" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I50" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J50" s="25"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="26" t="s">
+      <c r="G57" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J57" s="24"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M50" s="27"/>
-    </row>
-    <row r="51" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="14"/>
-      <c r="B51" s="18">
+      <c r="M57" s="26"/>
+    </row>
+    <row r="58" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="13"/>
+      <c r="B58" s="17">
         <v>78818</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C58" s="18">
         <v>44509</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D58" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="E58" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F58" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="28" t="s">
+      <c r="G58" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="23" t="s">
+      <c r="H58" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I51" s="24">
+      <c r="I58" s="23">
         <v>44508</v>
       </c>
-      <c r="J51" s="25" t="s">
+      <c r="J58" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K51" s="28"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="27" t="s">
+      <c r="K58" s="27"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="14"/>
-      <c r="B52" s="18">
+    <row r="59" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="13"/>
+      <c r="B59" s="17">
         <v>78817</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C59" s="18">
         <v>44509</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D59" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E59" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F59" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="28" t="s">
+      <c r="G59" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="23" t="s">
+      <c r="H59" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I52" s="24">
+      <c r="I59" s="23">
         <v>44505</v>
       </c>
-      <c r="J52" s="25"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="26" t="s">
+      <c r="J59" s="24"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M52" s="27" t="s">
+      <c r="M59" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="14"/>
-      <c r="B53" s="18">
+    <row r="60" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="13"/>
+      <c r="B60" s="17">
         <v>78816</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C60" s="18">
         <v>44509</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D60" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="E60" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F60" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="28" t="s">
+      <c r="G60" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="23" t="s">
+      <c r="H60" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I53" s="24">
+      <c r="I60" s="23">
         <v>44505</v>
       </c>
-      <c r="J53" s="25" t="s">
+      <c r="J60" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K53" s="28"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="27" t="s">
+      <c r="K60" s="27"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="14"/>
-      <c r="B54" s="18">
+    <row r="61" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="13"/>
+      <c r="B61" s="17">
         <v>78815</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C61" s="18">
         <v>44509</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D61" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E61" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="22" t="s">
+      <c r="F61" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="28" t="s">
+      <c r="G61" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H54" s="23" t="s">
+      <c r="H61" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I54" s="24">
+      <c r="I61" s="23">
         <v>44505</v>
       </c>
-      <c r="J54" s="25"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="26" t="s">
+      <c r="J61" s="24"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M54" s="27" t="s">
+      <c r="M61" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="14"/>
-      <c r="B55" s="18">
+    <row r="62" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="13"/>
+      <c r="B62" s="17">
         <v>78814</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C62" s="18">
         <v>44509</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D62" s="19">
         <v>10</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E62" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="22" t="s">
+      <c r="F62" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G55" s="28" t="s">
+      <c r="G62" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="H55" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I55" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J55" s="25"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="26" t="s">
+      <c r="H62" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I62" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J62" s="24"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M55" s="27"/>
-    </row>
-    <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="14"/>
-      <c r="B56" s="18">
+      <c r="M62" s="26"/>
+    </row>
+    <row r="63" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="13"/>
+      <c r="B63" s="17">
         <v>78813</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C63" s="18">
         <v>44509</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D63" s="19">
         <v>50</v>
       </c>
-      <c r="E56" s="21" t="s">
+      <c r="E63" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="F63" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G56" s="28" t="s">
+      <c r="G63" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="H56" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I56" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J56" s="25"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="26" t="s">
+      <c r="H63" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I63" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J63" s="24"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M56" s="27"/>
-    </row>
-    <row r="57" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="14"/>
-      <c r="B57" s="18">
+      <c r="M63" s="26"/>
+    </row>
+    <row r="64" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="13"/>
+      <c r="B64" s="17">
         <v>78812</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C64" s="18">
         <v>44509</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D64" s="19">
         <v>50</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="E64" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="22" t="s">
+      <c r="F64" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G57" s="28" t="s">
+      <c r="G64" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="H57" s="23" t="s">
+      <c r="H64" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I57" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J57" s="25"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="26" t="s">
+      <c r="I64" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J64" s="24"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M57" s="27"/>
-    </row>
-    <row r="58" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="14"/>
-      <c r="B58" s="18">
+      <c r="M64" s="26"/>
+    </row>
+    <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="13"/>
+      <c r="B65" s="17">
         <v>78811</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C65" s="18">
         <v>44509</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D65" s="19">
         <v>20</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="E65" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="22" t="s">
+      <c r="F65" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G58" s="28" t="s">
+      <c r="G65" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H58" s="23" t="s">
+      <c r="H65" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I58" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J58" s="25" t="s">
+      <c r="I65" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J65" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K58" s="28"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="27" t="s">
+      <c r="K65" s="27"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="14"/>
-      <c r="B59" s="18">
+    <row r="66" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="13"/>
+      <c r="B66" s="17">
         <v>78810</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C66" s="18">
         <v>44509</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D66" s="19">
         <v>20</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="E66" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="F66" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G59" s="28" t="s">
+      <c r="G66" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H59" s="23" t="s">
+      <c r="H66" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I59" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J59" s="25" t="s">
+      <c r="I66" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J66" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K59" s="28"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="27" t="s">
+      <c r="K66" s="27"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="14"/>
-      <c r="B60" s="18">
+    <row r="67" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="13"/>
+      <c r="B67" s="17">
         <v>78809</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C67" s="18">
         <v>44509</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D67" s="19">
         <v>20</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="E67" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F60" s="22" t="s">
+      <c r="F67" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G60" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H60" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I60" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J60" s="25"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="26" t="s">
+      <c r="G67" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H67" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I67" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J67" s="24"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M60" s="27"/>
-    </row>
-    <row r="61" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="14"/>
-      <c r="B61" s="18">
+      <c r="M67" s="26"/>
+    </row>
+    <row r="68" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="13"/>
+      <c r="B68" s="17">
         <v>78808</v>
       </c>
-      <c r="C61" s="19">
+      <c r="C68" s="18">
         <v>44509</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D68" s="19">
         <v>20</v>
       </c>
-      <c r="E61" s="21" t="s">
+      <c r="E68" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="F68" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G61" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H61" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I61" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J61" s="25"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="26" t="s">
+      <c r="G68" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H68" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I68" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J68" s="24"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M61" s="27"/>
-    </row>
-    <row r="62" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="14"/>
-      <c r="B62" s="18">
+      <c r="M68" s="26"/>
+    </row>
+    <row r="69" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="13"/>
+      <c r="B69" s="17">
         <v>78807</v>
       </c>
-      <c r="C62" s="19">
+      <c r="C69" s="18">
         <v>44509</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D69" s="19">
         <v>20</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E69" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="F69" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G62" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H62" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I62" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J62" s="25"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="26" t="s">
+      <c r="G69" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I69" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J69" s="24"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M62" s="27"/>
-    </row>
-    <row r="63" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="14"/>
-      <c r="B63" s="18">
+      <c r="M69" s="26"/>
+    </row>
+    <row r="70" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="13"/>
+      <c r="B70" s="17">
         <v>78806</v>
       </c>
-      <c r="C63" s="19">
+      <c r="C70" s="18">
         <v>44509</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D70" s="19">
         <v>40</v>
       </c>
-      <c r="E63" s="21" t="s">
+      <c r="E70" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="F70" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G63" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H63" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I63" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J63" s="25"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="26" t="s">
+      <c r="G70" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I70" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J70" s="24"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M63" s="27"/>
-    </row>
-    <row r="64" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="14"/>
-      <c r="B64" s="18">
+      <c r="M70" s="26"/>
+    </row>
+    <row r="71" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="13"/>
+      <c r="B71" s="17">
         <v>78805</v>
       </c>
-      <c r="C64" s="19">
+      <c r="C71" s="18">
         <v>44509</v>
       </c>
-      <c r="D64" s="20">
+      <c r="D71" s="19">
         <v>60</v>
       </c>
-      <c r="E64" s="21" t="s">
+      <c r="E71" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F64" s="22" t="s">
+      <c r="F71" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G64" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H64" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I64" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J64" s="25"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="26" t="s">
+      <c r="G71" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H71" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I71" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J71" s="24"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M64" s="27"/>
-    </row>
-    <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="14"/>
-      <c r="B65" s="18">
+      <c r="M71" s="26"/>
+    </row>
+    <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="13"/>
+      <c r="B72" s="17">
         <v>78804</v>
       </c>
-      <c r="C65" s="19">
+      <c r="C72" s="18">
         <v>44509</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D72" s="19">
         <v>10</v>
       </c>
-      <c r="E65" s="21" t="s">
+      <c r="E72" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F65" s="22" t="s">
+      <c r="F72" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G65" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H65" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I65" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J65" s="25"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="26" t="s">
+      <c r="G72" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H72" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I72" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J72" s="24"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M65" s="27"/>
-    </row>
-    <row r="66" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="14"/>
-      <c r="B66" s="18">
+      <c r="M72" s="26"/>
+    </row>
+    <row r="73" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="13"/>
+      <c r="B73" s="17">
         <v>78803</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C73" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D66" s="20"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="26" t="s">
+      <c r="D73" s="19"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="M66" s="27"/>
-    </row>
-    <row r="67" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="14"/>
-      <c r="B67" s="18">
+      <c r="M73" s="26"/>
+    </row>
+    <row r="74" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="13"/>
+      <c r="B74" s="17">
         <v>78802</v>
       </c>
-      <c r="C67" s="19">
+      <c r="C74" s="18">
         <v>44508</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D74" s="19">
         <v>60</v>
       </c>
-      <c r="E67" s="21" t="s">
+      <c r="E74" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F67" s="22" t="s">
+      <c r="F74" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G67" s="28" t="s">
+      <c r="G74" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="H67" s="23" t="s">
+      <c r="H74" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="I67" s="24" t="s">
+      <c r="I74" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="J67" s="25"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="26" t="s">
+      <c r="J74" s="24"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="M67" s="27"/>
-    </row>
-    <row r="68" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="14"/>
-      <c r="B68" s="18">
+      <c r="M74" s="26"/>
+    </row>
+    <row r="75" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="13"/>
+      <c r="B75" s="17">
         <v>78801</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C75" s="18">
         <v>44508</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D75" s="19">
         <v>20</v>
       </c>
-      <c r="E68" s="21" t="s">
+      <c r="E75" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F68" s="22" t="s">
+      <c r="F75" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G68" s="28" t="s">
+      <c r="G75" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="H68" s="23" t="s">
+      <c r="H75" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="I68" s="24" t="s">
+      <c r="I75" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="J68" s="25"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="26" t="s">
+      <c r="J75" s="24"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="M68" s="27"/>
-    </row>
-    <row r="69" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="14"/>
-      <c r="B69" s="18">
+      <c r="M75" s="26"/>
+    </row>
+    <row r="76" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="13"/>
+      <c r="B76" s="17">
         <v>78800</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C76" s="18">
         <v>44508</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D76" s="19">
         <v>50</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E76" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F69" s="22" t="s">
+      <c r="F76" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G69" s="28" t="s">
+      <c r="G76" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="H69" s="23" t="s">
+      <c r="H76" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="I69" s="24" t="s">
+      <c r="I76" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="J69" s="25"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="26" t="s">
+      <c r="J76" s="24"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="M69" s="27"/>
-    </row>
-    <row r="70" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="14"/>
-      <c r="B70" s="18">
+      <c r="M76" s="26"/>
+    </row>
+    <row r="77" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="13"/>
+      <c r="B77" s="17">
         <v>78799</v>
       </c>
-      <c r="C70" s="19">
+      <c r="C77" s="18">
         <v>44508</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D77" s="19">
         <v>80</v>
       </c>
-      <c r="E70" s="21" t="s">
+      <c r="E77" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F70" s="22" t="s">
+      <c r="F77" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G70" s="28" t="s">
+      <c r="G77" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="H70" s="23" t="s">
+      <c r="H77" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="I70" s="24" t="s">
+      <c r="I77" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="J70" s="25"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="26" t="s">
+      <c r="J77" s="24"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="M70" s="27"/>
-    </row>
-    <row r="71" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="14"/>
-      <c r="B71" s="18">
+      <c r="M77" s="26"/>
+    </row>
+    <row r="78" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="13"/>
+      <c r="B78" s="17">
         <v>78798</v>
       </c>
-      <c r="C71" s="19">
+      <c r="C78" s="18">
         <v>44508</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D78" s="19">
         <v>30</v>
       </c>
-      <c r="E71" s="21" t="s">
+      <c r="E78" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F71" s="22" t="s">
+      <c r="F78" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G71" s="28" t="s">
+      <c r="G78" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="H71" s="23" t="s">
+      <c r="H78" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="I71" s="24" t="s">
+      <c r="I78" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="J71" s="25"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="26" t="s">
+      <c r="J78" s="24"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="M71" s="27"/>
-    </row>
-    <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="14"/>
-      <c r="B72" s="18">
+      <c r="M78" s="26"/>
+    </row>
+    <row r="79" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="13"/>
+      <c r="B79" s="17">
         <v>78797</v>
       </c>
-      <c r="C72" s="19">
+      <c r="C79" s="18">
         <v>44507</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D79" s="19">
         <v>10</v>
       </c>
-      <c r="E72" s="21" t="s">
+      <c r="E79" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F72" s="22" t="s">
+      <c r="F79" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G72" s="28" t="s">
+      <c r="G79" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H72" s="23" t="s">
+      <c r="H79" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I72" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J72" s="25" t="s">
+      <c r="I79" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J79" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K72" s="28"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="27" t="s">
+      <c r="K79" s="27"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="14"/>
-      <c r="B73" s="18">
+    <row r="80" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="13"/>
+      <c r="B80" s="17">
         <v>78796</v>
       </c>
-      <c r="C73" s="19">
+      <c r="C80" s="18">
         <v>44507</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D80" s="19">
         <v>50</v>
       </c>
-      <c r="E73" s="21" t="s">
+      <c r="E80" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F73" s="22" t="s">
+      <c r="F80" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G73" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H73" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I73" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J73" s="25"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="26" t="s">
+      <c r="G80" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H80" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I80" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J80" s="24"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M73" s="27"/>
-    </row>
-    <row r="74" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="14"/>
-      <c r="B74" s="18">
+      <c r="M80" s="26"/>
+    </row>
+    <row r="81" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="13"/>
+      <c r="B81" s="17">
         <v>78795</v>
       </c>
-      <c r="C74" s="19">
+      <c r="C81" s="18">
         <v>44506</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D81" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E74" s="21" t="s">
+      <c r="E81" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F74" s="22" t="s">
+      <c r="F81" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G74" s="28" t="s">
+      <c r="G81" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H74" s="23" t="s">
+      <c r="H81" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I74" s="24">
+      <c r="I81" s="23">
         <v>44502</v>
       </c>
-      <c r="J74" s="25"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="26" t="s">
+      <c r="J81" s="24"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M74" s="27" t="s">
+      <c r="M81" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="14"/>
-      <c r="B75" s="18">
+    <row r="82" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="13"/>
+      <c r="B82" s="17">
         <v>78794</v>
       </c>
-      <c r="C75" s="19">
+      <c r="C82" s="18">
         <v>44506</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="D82" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E75" s="21" t="s">
+      <c r="E82" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F75" s="22" t="s">
+      <c r="F82" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G75" s="28" t="s">
+      <c r="G82" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H75" s="23" t="s">
+      <c r="H82" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I75" s="24">
+      <c r="I82" s="23">
         <v>44502</v>
       </c>
-      <c r="J75" s="25" t="s">
+      <c r="J82" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K75" s="28"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="27" t="s">
+      <c r="K82" s="27"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="14"/>
-      <c r="B76" s="18">
+    <row r="83" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="13"/>
+      <c r="B83" s="17">
         <v>78793</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C83" s="18">
         <v>44506</v>
       </c>
-      <c r="D76" s="20" t="s">
+      <c r="D83" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E76" s="21" t="s">
+      <c r="E83" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F76" s="22" t="s">
+      <c r="F83" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G76" s="28" t="s">
+      <c r="G83" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H76" s="23" t="s">
+      <c r="H83" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I76" s="24">
+      <c r="I83" s="23">
         <v>44501</v>
       </c>
-      <c r="J76" s="25" t="s">
+      <c r="J83" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K76" s="28"/>
-      <c r="L76" s="26"/>
-      <c r="M76" s="27" t="s">
+      <c r="K83" s="27"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="14"/>
-      <c r="B77" s="18">
+    <row r="84" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="13"/>
+      <c r="B84" s="17">
         <v>78792</v>
       </c>
-      <c r="C77" s="19">
+      <c r="C84" s="18">
         <v>44506</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="D84" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E77" s="21" t="s">
+      <c r="E84" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="22" t="s">
+      <c r="F84" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G77" s="28" t="s">
+      <c r="G84" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H77" s="23" t="s">
+      <c r="H84" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I77" s="24">
+      <c r="I84" s="23">
         <v>44505</v>
       </c>
-      <c r="J77" s="25" t="s">
+      <c r="J84" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K77" s="28"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="27" t="s">
+      <c r="K84" s="27"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="14"/>
-      <c r="B78" s="18">
+    <row r="85" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="13"/>
+      <c r="B85" s="17">
         <v>78791</v>
       </c>
-      <c r="C78" s="19">
+      <c r="C85" s="18">
         <v>44506</v>
       </c>
-      <c r="D78" s="20" t="s">
+      <c r="D85" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E78" s="21" t="s">
+      <c r="E85" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F78" s="22" t="s">
+      <c r="F85" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="28" t="s">
+      <c r="G85" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H78" s="23" t="s">
+      <c r="H85" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I78" s="24" t="s">
+      <c r="I85" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J78" s="25" t="s">
+      <c r="J85" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K78" s="28"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="27" t="s">
+      <c r="K85" s="27"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="14"/>
-      <c r="B79" s="18">
+    <row r="86" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="13"/>
+      <c r="B86" s="17">
         <v>78790</v>
       </c>
-      <c r="C79" s="19">
+      <c r="C86" s="18">
         <v>44506</v>
       </c>
-      <c r="D79" s="20" t="s">
+      <c r="D86" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E79" s="21" t="s">
+      <c r="E86" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F79" s="22" t="s">
+      <c r="F86" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G79" s="28" t="s">
+      <c r="G86" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H79" s="23" t="s">
+      <c r="H86" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I79" s="24" t="s">
+      <c r="I86" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J79" s="25" t="s">
+      <c r="J86" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K79" s="28"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="27" t="s">
+      <c r="K86" s="27"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="14"/>
-      <c r="B80" s="18">
+    <row r="87" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="13"/>
+      <c r="B87" s="17">
         <v>78789</v>
       </c>
-      <c r="C80" s="19">
+      <c r="C87" s="18">
         <v>44506</v>
       </c>
-      <c r="D80" s="20" t="s">
+      <c r="D87" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E80" s="21" t="s">
+      <c r="E87" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F80" s="22" t="s">
+      <c r="F87" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G80" s="28" t="s">
+      <c r="G87" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H80" s="23" t="s">
+      <c r="H87" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I80" s="24" t="s">
+      <c r="I87" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J80" s="25" t="s">
+      <c r="J87" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K80" s="28"/>
-      <c r="L80" s="26"/>
-      <c r="M80" s="27" t="s">
+      <c r="K87" s="27"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="14"/>
-      <c r="B81" s="18">
+    <row r="88" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="13"/>
+      <c r="B88" s="17">
         <v>78788</v>
       </c>
-      <c r="C81" s="19">
+      <c r="C88" s="18">
         <v>44506</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D88" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E81" s="21" t="s">
+      <c r="E88" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F81" s="22" t="s">
+      <c r="F88" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="28" t="s">
+      <c r="G88" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H81" s="23" t="s">
+      <c r="H88" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I81" s="24">
+      <c r="I88" s="23">
         <v>44502</v>
       </c>
-      <c r="J81" s="25" t="s">
+      <c r="J88" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K81" s="28"/>
-      <c r="L81" s="26"/>
-      <c r="M81" s="27" t="s">
+      <c r="K88" s="27"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="14"/>
-      <c r="B82" s="18">
+    <row r="89" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="13"/>
+      <c r="B89" s="17">
         <v>78787</v>
       </c>
-      <c r="C82" s="19">
+      <c r="C89" s="18">
         <v>44506</v>
       </c>
-      <c r="D82" s="20" t="s">
+      <c r="D89" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E82" s="21" t="s">
+      <c r="E89" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F82" s="22" t="s">
+      <c r="F89" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G82" s="28" t="s">
+      <c r="G89" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H82" s="23" t="s">
+      <c r="H89" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I82" s="24">
+      <c r="I89" s="23">
         <v>44502</v>
       </c>
-      <c r="J82" s="25"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="26" t="s">
+      <c r="J89" s="24"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M82" s="27" t="s">
+      <c r="M89" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="14"/>
-      <c r="B83" s="18">
+    <row r="90" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="13"/>
+      <c r="B90" s="17">
         <v>78786</v>
       </c>
-      <c r="C83" s="19">
+      <c r="C90" s="18">
         <v>44506</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="D90" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E83" s="21" t="s">
+      <c r="E90" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F83" s="22" t="s">
+      <c r="F90" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G83" s="28" t="s">
+      <c r="G90" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H83" s="23" t="s">
+      <c r="H90" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I83" s="24">
+      <c r="I90" s="23">
         <v>44503</v>
       </c>
-      <c r="J83" s="25"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="26" t="s">
+      <c r="J90" s="24"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M83" s="27" t="s">
+      <c r="M90" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="14"/>
-      <c r="B84" s="18">
+    <row r="91" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="13"/>
+      <c r="B91" s="17">
         <v>78785</v>
       </c>
-      <c r="C84" s="19">
+      <c r="C91" s="18">
         <v>44506</v>
       </c>
-      <c r="D84" s="20">
+      <c r="D91" s="19">
         <v>30</v>
       </c>
-      <c r="E84" s="21" t="s">
+      <c r="E91" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F84" s="22" t="s">
+      <c r="F91" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G84" s="28" t="s">
+      <c r="G91" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="H84" s="23" t="s">
+      <c r="H91" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="I84" s="24">
+      <c r="I91" s="23">
         <v>44503</v>
       </c>
-      <c r="J84" s="25"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="26" t="s">
+      <c r="J91" s="24"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M84" s="27"/>
-    </row>
-    <row r="85" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="14"/>
-      <c r="B85" s="18">
+      <c r="M91" s="26"/>
+    </row>
+    <row r="92" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="13"/>
+      <c r="B92" s="17">
         <v>78784</v>
       </c>
-      <c r="C85" s="19">
+      <c r="C92" s="18">
         <v>44506</v>
       </c>
-      <c r="D85" s="20" t="s">
+      <c r="D92" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E85" s="21" t="s">
+      <c r="E92" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F85" s="22" t="s">
+      <c r="F92" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G85" s="28" t="s">
+      <c r="G92" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="H85" s="23" t="s">
+      <c r="H92" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I85" s="24" t="s">
+      <c r="I92" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J85" s="25"/>
-      <c r="K85" s="28"/>
-      <c r="L85" s="26" t="s">
+      <c r="J92" s="24"/>
+      <c r="K92" s="27"/>
+      <c r="L92" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M85" s="27"/>
-    </row>
-    <row r="86" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="14"/>
-      <c r="B86" s="18">
+      <c r="M92" s="26"/>
+    </row>
+    <row r="93" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="13"/>
+      <c r="B93" s="17">
         <v>78783</v>
       </c>
-      <c r="C86" s="19">
+      <c r="C93" s="18">
         <v>44506</v>
       </c>
-      <c r="D86" s="20" t="s">
+      <c r="D93" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E86" s="21" t="s">
+      <c r="E93" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F86" s="22" t="s">
+      <c r="F93" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G86" s="28" t="s">
+      <c r="G93" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="H86" s="23" t="s">
+      <c r="H93" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I86" s="24" t="s">
+      <c r="I93" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J86" s="25" t="s">
+      <c r="J93" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K86" s="28"/>
-      <c r="L86" s="26"/>
-      <c r="M86" s="27" t="s">
+      <c r="K93" s="27"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="14"/>
-      <c r="B87" s="18">
+    <row r="94" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="13"/>
+      <c r="B94" s="17">
         <v>78782</v>
       </c>
-      <c r="C87" s="19">
+      <c r="C94" s="18">
         <v>44506</v>
       </c>
-      <c r="D87" s="20">
+      <c r="D94" s="19">
         <v>10</v>
       </c>
-      <c r="E87" s="21" t="s">
+      <c r="E94" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F87" s="22" t="s">
+      <c r="F94" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G87" s="28" t="s">
+      <c r="G94" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="H87" s="23" t="s">
+      <c r="H94" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I87" s="24" t="s">
+      <c r="I94" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J87" s="25" t="s">
+      <c r="J94" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K87" s="28"/>
-      <c r="L87" s="26"/>
-      <c r="M87" s="27" t="s">
+      <c r="K94" s="27"/>
+      <c r="L94" s="25"/>
+      <c r="M94" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="14"/>
-      <c r="B88" s="18">
+    <row r="95" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="13"/>
+      <c r="B95" s="17">
         <v>78781</v>
       </c>
-      <c r="C88" s="19">
+      <c r="C95" s="18">
         <v>44506</v>
       </c>
-      <c r="D88" s="20" t="s">
+      <c r="D95" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E88" s="21" t="s">
+      <c r="E95" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F88" s="22" t="s">
+      <c r="F95" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G88" s="28" t="s">
+      <c r="G95" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="H88" s="23" t="s">
+      <c r="H95" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I88" s="24" t="s">
+      <c r="I95" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J88" s="25" t="s">
+      <c r="J95" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K88" s="28"/>
-      <c r="L88" s="26"/>
-      <c r="M88" s="27" t="s">
+      <c r="K95" s="27"/>
+      <c r="L95" s="25"/>
+      <c r="M95" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="14"/>
-      <c r="B89" s="18">
+    <row r="96" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="13"/>
+      <c r="B96" s="17">
         <v>78780</v>
       </c>
-      <c r="C89" s="19">
+      <c r="C96" s="18">
         <v>44506</v>
       </c>
-      <c r="D89" s="20">
+      <c r="D96" s="19">
         <v>20</v>
       </c>
-      <c r="E89" s="21" t="s">
+      <c r="E96" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F89" s="22" t="s">
+      <c r="F96" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="G89" s="28" t="s">
+      <c r="G96" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="H89" s="23" t="s">
+      <c r="H96" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="I89" s="24" t="s">
+      <c r="I96" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J89" s="25" t="s">
+      <c r="J96" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K89" s="28"/>
-      <c r="L89" s="26"/>
-      <c r="M89" s="27" t="s">
+      <c r="K96" s="27"/>
+      <c r="L96" s="25"/>
+      <c r="M96" s="26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="14"/>
-      <c r="B90" s="18">
+    <row r="97" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="13"/>
+      <c r="B97" s="17">
         <v>78779</v>
       </c>
-      <c r="C90" s="19">
+      <c r="C97" s="18">
         <v>44506</v>
       </c>
-      <c r="D90" s="20">
+      <c r="D97" s="19">
         <v>80</v>
       </c>
-      <c r="E90" s="21" t="s">
+      <c r="E97" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F90" s="22" t="s">
+      <c r="F97" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G90" s="28" t="s">
+      <c r="G97" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="H90" s="23" t="s">
+      <c r="H97" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I90" s="24" t="s">
+      <c r="I97" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J90" s="25"/>
-      <c r="K90" s="28"/>
-      <c r="L90" s="26" t="s">
+      <c r="J97" s="24"/>
+      <c r="K97" s="27"/>
+      <c r="L97" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M90" s="27"/>
-    </row>
-    <row r="91" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="14"/>
-      <c r="B91" s="18">
+      <c r="M97" s="26"/>
+    </row>
+    <row r="98" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="13"/>
+      <c r="B98" s="17">
         <v>78778</v>
       </c>
-      <c r="C91" s="19">
+      <c r="C98" s="18">
         <v>44506</v>
       </c>
-      <c r="D91" s="20">
+      <c r="D98" s="19">
         <v>20</v>
       </c>
-      <c r="E91" s="21" t="s">
+      <c r="E98" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F91" s="22" t="s">
+      <c r="F98" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G91" s="28" t="s">
+      <c r="G98" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="H91" s="23" t="s">
+      <c r="H98" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I91" s="24" t="s">
+      <c r="I98" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J91" s="25"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="26" t="s">
+      <c r="J98" s="24"/>
+      <c r="K98" s="27"/>
+      <c r="L98" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M91" s="27"/>
-    </row>
-    <row r="92" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="14"/>
-      <c r="B92" s="18">
+      <c r="M98" s="26"/>
+    </row>
+    <row r="99" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="13"/>
+      <c r="B99" s="17">
         <v>78777</v>
       </c>
-      <c r="C92" s="19">
+      <c r="C99" s="18">
         <v>44506</v>
       </c>
-      <c r="D92" s="20" t="s">
+      <c r="D99" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E92" s="21" t="s">
+      <c r="E99" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F92" s="22" t="s">
+      <c r="F99" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G92" s="28" t="s">
+      <c r="G99" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="H92" s="23" t="s">
+      <c r="H99" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I92" s="24" t="s">
+      <c r="I99" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J92" s="25"/>
-      <c r="K92" s="28"/>
-      <c r="L92" s="26" t="s">
+      <c r="J99" s="24"/>
+      <c r="K99" s="27"/>
+      <c r="L99" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M92" s="27"/>
-    </row>
-    <row r="93" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="14"/>
-      <c r="B93" s="18">
+      <c r="M99" s="26"/>
+    </row>
+    <row r="100" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="13"/>
+      <c r="B100" s="17">
         <v>78776</v>
       </c>
-      <c r="C93" s="19">
+      <c r="C100" s="18">
         <v>44506</v>
       </c>
-      <c r="D93" s="20">
+      <c r="D100" s="19">
         <v>30</v>
       </c>
-      <c r="E93" s="21" t="s">
+      <c r="E100" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F93" s="22" t="s">
+      <c r="F100" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G93" s="28" t="s">
+      <c r="G100" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="H93" s="23" t="s">
+      <c r="H100" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I93" s="24" t="s">
+      <c r="I100" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J93" s="25"/>
-      <c r="K93" s="28"/>
-      <c r="L93" s="26" t="s">
+      <c r="J100" s="24"/>
+      <c r="K100" s="27"/>
+      <c r="L100" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M93" s="27"/>
-    </row>
-    <row r="94" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="14"/>
-      <c r="B94" s="18">
+      <c r="M100" s="26"/>
+    </row>
+    <row r="101" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="13"/>
+      <c r="B101" s="17">
         <v>78775</v>
       </c>
-      <c r="C94" s="19">
+      <c r="C101" s="18">
         <v>44506</v>
       </c>
-      <c r="D94" s="20">
+      <c r="D101" s="19">
         <v>60</v>
       </c>
-      <c r="E94" s="21" t="s">
+      <c r="E101" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F94" s="22" t="s">
+      <c r="F101" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G94" s="28" t="s">
+      <c r="G101" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="H94" s="23" t="s">
+      <c r="H101" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I94" s="24" t="s">
+      <c r="I101" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J94" s="25"/>
-      <c r="K94" s="28"/>
-      <c r="L94" s="26" t="s">
+      <c r="J101" s="24"/>
+      <c r="K101" s="27"/>
+      <c r="L101" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M94" s="27"/>
-    </row>
-    <row r="95" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="14"/>
-      <c r="B95" s="18">
+      <c r="M101" s="26"/>
+    </row>
+    <row r="102" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="13"/>
+      <c r="B102" s="17">
         <v>78774</v>
       </c>
-      <c r="C95" s="19">
+      <c r="C102" s="18">
         <v>44506</v>
       </c>
-      <c r="D95" s="20">
+      <c r="D102" s="19">
         <v>30</v>
       </c>
-      <c r="E95" s="21" t="s">
+      <c r="E102" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F95" s="22" t="s">
+      <c r="F102" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G95" s="28" t="s">
+      <c r="G102" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="H95" s="23" t="s">
+      <c r="H102" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I95" s="24" t="s">
+      <c r="I102" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J95" s="25"/>
-      <c r="K95" s="28"/>
-      <c r="L95" s="26" t="s">
+      <c r="J102" s="24"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M95" s="27"/>
-    </row>
-    <row r="96" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="14"/>
-      <c r="B96" s="18">
+      <c r="M102" s="26"/>
+    </row>
+    <row r="103" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="13"/>
+      <c r="B103" s="17">
         <v>78773</v>
       </c>
-      <c r="C96" s="19">
+      <c r="C103" s="18">
         <v>44506</v>
       </c>
-      <c r="D96" s="20">
+      <c r="D103" s="19">
         <v>40</v>
       </c>
-      <c r="E96" s="21" t="s">
+      <c r="E103" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F96" s="22" t="s">
+      <c r="F103" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G96" s="28" t="s">
+      <c r="G103" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="H96" s="23" t="s">
+      <c r="H103" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I96" s="24" t="s">
+      <c r="I103" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J96" s="25"/>
-      <c r="K96" s="28"/>
-      <c r="L96" s="26" t="s">
+      <c r="J103" s="24"/>
+      <c r="K103" s="27"/>
+      <c r="L103" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M96" s="27"/>
-    </row>
-    <row r="97" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="14"/>
-      <c r="B97" s="18">
+      <c r="M103" s="26"/>
+    </row>
+    <row r="104" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="13"/>
+      <c r="B104" s="17">
         <v>78772</v>
       </c>
-      <c r="C97" s="19">
+      <c r="C104" s="18">
         <v>44505</v>
       </c>
-      <c r="D97" s="20" t="s">
+      <c r="D104" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E97" s="21" t="s">
+      <c r="E104" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F97" s="22" t="s">
+      <c r="F104" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G97" s="28" t="s">
+      <c r="G104" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="H97" s="23" t="s">
+      <c r="H104" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I97" s="24" t="s">
+      <c r="I104" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J97" s="25" t="s">
+      <c r="J104" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K97" s="28"/>
-      <c r="L97" s="26"/>
-      <c r="M97" s="27" t="s">
+      <c r="K104" s="27"/>
+      <c r="L104" s="25"/>
+      <c r="M104" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="14"/>
-      <c r="B98" s="18">
+    <row r="105" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="13"/>
+      <c r="B105" s="17">
         <v>78771</v>
       </c>
-      <c r="C98" s="19">
+      <c r="C105" s="18">
         <v>44505</v>
       </c>
-      <c r="D98" s="20" t="s">
+      <c r="D105" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E98" s="21" t="s">
+      <c r="E105" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F98" s="22" t="s">
+      <c r="F105" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G98" s="28" t="s">
+      <c r="G105" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H98" s="23" t="s">
+      <c r="H105" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I98" s="24">
+      <c r="I105" s="23">
         <v>44501</v>
       </c>
-      <c r="J98" s="25"/>
-      <c r="K98" s="28"/>
-      <c r="L98" s="26" t="s">
+      <c r="J105" s="24"/>
+      <c r="K105" s="27"/>
+      <c r="L105" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M98" s="27" t="s">
+      <c r="M105" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="14"/>
-      <c r="B99" s="18">
+    <row r="106" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="13"/>
+      <c r="B106" s="17">
         <v>78770</v>
       </c>
-      <c r="C99" s="19">
+      <c r="C106" s="18">
         <v>44505</v>
       </c>
-      <c r="D99" s="20" t="s">
+      <c r="D106" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E99" s="21" t="s">
+      <c r="E106" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F99" s="22" t="s">
+      <c r="F106" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G99" s="28" t="s">
+      <c r="G106" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H99" s="23" t="s">
+      <c r="H106" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I99" s="24">
+      <c r="I106" s="23">
         <v>44504</v>
       </c>
-      <c r="J99" s="25"/>
-      <c r="K99" s="28"/>
-      <c r="L99" s="26" t="s">
+      <c r="J106" s="24"/>
+      <c r="K106" s="27"/>
+      <c r="L106" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M99" s="27" t="s">
+      <c r="M106" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="14"/>
-      <c r="B100" s="18">
+    <row r="107" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="13"/>
+      <c r="B107" s="17">
         <v>78769</v>
       </c>
-      <c r="C100" s="19">
+      <c r="C107" s="18">
         <v>44505</v>
       </c>
-      <c r="D100" s="20" t="s">
+      <c r="D107" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E100" s="21" t="s">
+      <c r="E107" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F100" s="22" t="s">
+      <c r="F107" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G100" s="28" t="s">
+      <c r="G107" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H100" s="23" t="s">
+      <c r="H107" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I100" s="24">
+      <c r="I107" s="23">
         <v>44500</v>
       </c>
-      <c r="J100" s="25"/>
-      <c r="K100" s="28"/>
-      <c r="L100" s="26" t="s">
+      <c r="J107" s="24"/>
+      <c r="K107" s="27"/>
+      <c r="L107" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M100" s="27" t="s">
+      <c r="M107" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="14"/>
-      <c r="B101" s="18">
+    <row r="108" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="13"/>
+      <c r="B108" s="17">
         <v>78768</v>
       </c>
-      <c r="C101" s="19">
+      <c r="C108" s="18">
         <v>44505</v>
       </c>
-      <c r="D101" s="20" t="s">
+      <c r="D108" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E101" s="21" t="s">
+      <c r="E108" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F101" s="22" t="s">
+      <c r="F108" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G101" s="28" t="s">
+      <c r="G108" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H101" s="23" t="s">
+      <c r="H108" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I101" s="24">
+      <c r="I108" s="23">
         <v>44498</v>
       </c>
-      <c r="J101" s="25" t="s">
+      <c r="J108" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K101" s="28"/>
-      <c r="L101" s="26"/>
-      <c r="M101" s="27" t="s">
+      <c r="K108" s="27"/>
+      <c r="L108" s="25"/>
+      <c r="M108" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="14"/>
-      <c r="B102" s="18">
+    <row r="109" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="13"/>
+      <c r="B109" s="17">
         <v>78767</v>
       </c>
-      <c r="C102" s="19">
+      <c r="C109" s="18">
         <v>44505</v>
       </c>
-      <c r="D102" s="20">
+      <c r="D109" s="19">
         <v>30</v>
       </c>
-      <c r="E102" s="21" t="s">
+      <c r="E109" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F102" s="22" t="s">
+      <c r="F109" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G102" s="28" t="s">
+      <c r="G109" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="H102" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I102" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J102" s="25"/>
-      <c r="K102" s="28"/>
-      <c r="L102" s="26" t="s">
+      <c r="H109" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I109" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J109" s="24"/>
+      <c r="K109" s="27"/>
+      <c r="L109" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M102" s="27"/>
-    </row>
-    <row r="103" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="14"/>
-      <c r="B103" s="18">
+      <c r="M109" s="26"/>
+    </row>
+    <row r="110" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="13"/>
+      <c r="B110" s="17">
         <v>78766</v>
       </c>
-      <c r="C103" s="19">
+      <c r="C110" s="18">
         <v>44505</v>
       </c>
-      <c r="D103" s="20">
+      <c r="D110" s="19">
         <v>10</v>
       </c>
-      <c r="E103" s="21" t="s">
+      <c r="E110" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F103" s="22" t="s">
+      <c r="F110" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G103" s="28" t="s">
+      <c r="G110" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="H103" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I103" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J103" s="25"/>
-      <c r="K103" s="28"/>
-      <c r="L103" s="26" t="s">
+      <c r="H110" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I110" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J110" s="24"/>
+      <c r="K110" s="27"/>
+      <c r="L110" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M103" s="27"/>
-    </row>
-    <row r="104" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="14"/>
-      <c r="B104" s="18">
+      <c r="M110" s="26"/>
+    </row>
+    <row r="111" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="13"/>
+      <c r="B111" s="17">
         <v>78765</v>
       </c>
-      <c r="C104" s="19">
+      <c r="C111" s="18">
         <v>44505</v>
       </c>
-      <c r="D104" s="20">
+      <c r="D111" s="19">
         <v>60</v>
       </c>
-      <c r="E104" s="21" t="s">
+      <c r="E111" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F104" s="22" t="s">
+      <c r="F111" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G104" s="28" t="s">
+      <c r="G111" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H104" s="23" t="s">
+      <c r="H111" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I104" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J104" s="25"/>
-      <c r="K104" s="28"/>
-      <c r="L104" s="26" t="s">
+      <c r="I111" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J111" s="24"/>
+      <c r="K111" s="27"/>
+      <c r="L111" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M104" s="27"/>
-    </row>
-    <row r="105" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="14"/>
-      <c r="B105" s="18">
+      <c r="M111" s="26"/>
+    </row>
+    <row r="112" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="13"/>
+      <c r="B112" s="17">
         <v>78764</v>
       </c>
-      <c r="C105" s="19">
+      <c r="C112" s="18">
         <v>44505</v>
       </c>
-      <c r="D105" s="20">
+      <c r="D112" s="19">
         <v>20</v>
       </c>
-      <c r="E105" s="21" t="s">
+      <c r="E112" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F105" s="22" t="s">
+      <c r="F112" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G105" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H105" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I105" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J105" s="25"/>
-      <c r="K105" s="28"/>
-      <c r="L105" s="26" t="s">
+      <c r="G112" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H112" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I112" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J112" s="24"/>
+      <c r="K112" s="27"/>
+      <c r="L112" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M105" s="27"/>
-    </row>
-    <row r="106" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="14"/>
-      <c r="B106" s="18">
+      <c r="M112" s="26"/>
+    </row>
+    <row r="113" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="13"/>
+      <c r="B113" s="17">
         <v>78763</v>
       </c>
-      <c r="C106" s="19">
+      <c r="C113" s="18">
         <v>44505</v>
       </c>
-      <c r="D106" s="20">
+      <c r="D113" s="19">
         <v>20</v>
       </c>
-      <c r="E106" s="21" t="s">
+      <c r="E113" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F106" s="22" t="s">
+      <c r="F113" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G106" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H106" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I106" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J106" s="25"/>
-      <c r="K106" s="28"/>
-      <c r="L106" s="26" t="s">
+      <c r="G113" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H113" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I113" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J113" s="24"/>
+      <c r="K113" s="27"/>
+      <c r="L113" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M106" s="27"/>
-    </row>
-    <row r="107" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="14"/>
-      <c r="B107" s="18">
+      <c r="M113" s="26"/>
+    </row>
+    <row r="114" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="13"/>
+      <c r="B114" s="17">
         <v>78762</v>
       </c>
-      <c r="C107" s="19">
+      <c r="C114" s="18">
         <v>44505</v>
       </c>
-      <c r="D107" s="20">
+      <c r="D114" s="19">
         <v>20</v>
       </c>
-      <c r="E107" s="21" t="s">
+      <c r="E114" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F107" s="22" t="s">
+      <c r="F114" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G107" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H107" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I107" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J107" s="25"/>
-      <c r="K107" s="28"/>
-      <c r="L107" s="26" t="s">
+      <c r="G114" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H114" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I114" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J114" s="24"/>
+      <c r="K114" s="27"/>
+      <c r="L114" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M107" s="27"/>
-    </row>
-    <row r="108" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="14"/>
-      <c r="B108" s="18">
+      <c r="M114" s="26"/>
+    </row>
+    <row r="115" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="13"/>
+      <c r="B115" s="17">
         <v>78761</v>
       </c>
-      <c r="C108" s="19">
+      <c r="C115" s="18">
         <v>44505</v>
       </c>
-      <c r="D108" s="20">
+      <c r="D115" s="19">
         <v>50</v>
       </c>
-      <c r="E108" s="21" t="s">
+      <c r="E115" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F108" s="22" t="s">
+      <c r="F115" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G108" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H108" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I108" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J108" s="25"/>
-      <c r="K108" s="28"/>
-      <c r="L108" s="26" t="s">
+      <c r="G115" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H115" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I115" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J115" s="24"/>
+      <c r="K115" s="27"/>
+      <c r="L115" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M108" s="27"/>
-    </row>
-    <row r="109" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="14"/>
-      <c r="B109" s="18">
+      <c r="M115" s="26"/>
+    </row>
+    <row r="116" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="13"/>
+      <c r="B116" s="17">
         <v>78760</v>
       </c>
-      <c r="C109" s="19">
+      <c r="C116" s="18">
         <v>44505</v>
       </c>
-      <c r="D109" s="20">
+      <c r="D116" s="19">
         <v>30</v>
       </c>
-      <c r="E109" s="21" t="s">
+      <c r="E116" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F109" s="22" t="s">
+      <c r="F116" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G109" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H109" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I109" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J109" s="25"/>
-      <c r="K109" s="28"/>
-      <c r="L109" s="26" t="s">
+      <c r="G116" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H116" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I116" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J116" s="24"/>
+      <c r="K116" s="27"/>
+      <c r="L116" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M109" s="27"/>
-    </row>
-    <row r="110" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="14"/>
-      <c r="B110" s="18">
+      <c r="M116" s="26"/>
+    </row>
+    <row r="117" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="13"/>
+      <c r="B117" s="17">
         <v>78759</v>
       </c>
-      <c r="C110" s="19">
+      <c r="C117" s="18">
         <v>44505</v>
       </c>
-      <c r="D110" s="20">
+      <c r="D117" s="19">
         <v>20</v>
       </c>
-      <c r="E110" s="21" t="s">
+      <c r="E117" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F110" s="22" t="s">
+      <c r="F117" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G110" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H110" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I110" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J110" s="25"/>
-      <c r="K110" s="28"/>
-      <c r="L110" s="26" t="s">
+      <c r="G117" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H117" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I117" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J117" s="24"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M110" s="27"/>
-    </row>
-    <row r="111" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="14"/>
-      <c r="B111" s="18">
+      <c r="M117" s="26"/>
+    </row>
+    <row r="118" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="13"/>
+      <c r="B118" s="17">
         <v>78758</v>
       </c>
-      <c r="C111" s="19">
+      <c r="C118" s="18">
         <v>44505</v>
       </c>
-      <c r="D111" s="20" t="s">
+      <c r="D118" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E111" s="21" t="s">
+      <c r="E118" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F111" s="22" t="s">
+      <c r="F118" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G111" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H111" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I111" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J111" s="25"/>
-      <c r="K111" s="28"/>
-      <c r="L111" s="26" t="s">
+      <c r="G118" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H118" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I118" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J118" s="24"/>
+      <c r="K118" s="27"/>
+      <c r="L118" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M111" s="27"/>
-    </row>
-    <row r="112" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="14"/>
-      <c r="B112" s="18">
+      <c r="M118" s="26"/>
+    </row>
+    <row r="119" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="13"/>
+      <c r="B119" s="17">
         <v>78757</v>
       </c>
-      <c r="C112" s="19">
+      <c r="C119" s="18">
         <v>44505</v>
       </c>
-      <c r="D112" s="20">
+      <c r="D119" s="19">
         <v>30</v>
       </c>
-      <c r="E112" s="21" t="s">
+      <c r="E119" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F112" s="22" t="s">
+      <c r="F119" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G112" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H112" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I112" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J112" s="25"/>
-      <c r="K112" s="28"/>
-      <c r="L112" s="26" t="s">
+      <c r="G119" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H119" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I119" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J119" s="24"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M112" s="27"/>
-    </row>
-    <row r="113" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="14"/>
-      <c r="B113" s="18">
+      <c r="M119" s="26"/>
+    </row>
+    <row r="120" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="13"/>
+      <c r="B120" s="17">
         <v>78756</v>
       </c>
-      <c r="C113" s="19">
+      <c r="C120" s="18">
         <v>44505</v>
       </c>
-      <c r="D113" s="20">
+      <c r="D120" s="19">
         <v>20</v>
       </c>
-      <c r="E113" s="21" t="s">
+      <c r="E120" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F113" s="22" t="s">
+      <c r="F120" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G113" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H113" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I113" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J113" s="25"/>
-      <c r="K113" s="28"/>
-      <c r="L113" s="26" t="s">
+      <c r="G120" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H120" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I120" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J120" s="24"/>
+      <c r="K120" s="27"/>
+      <c r="L120" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M113" s="27"/>
-    </row>
-    <row r="114" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="14"/>
-      <c r="B114" s="18">
+      <c r="M120" s="26"/>
+    </row>
+    <row r="121" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="13"/>
+      <c r="B121" s="17">
         <v>78755</v>
       </c>
-      <c r="C114" s="19">
+      <c r="C121" s="18">
         <v>44504</v>
       </c>
-      <c r="D114" s="20" t="s">
+      <c r="D121" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E114" s="21" t="s">
+      <c r="E121" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F114" s="22" t="s">
+      <c r="F121" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G114" s="28" t="s">
+      <c r="G121" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H114" s="23" t="s">
+      <c r="H121" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I114" s="24" t="s">
+      <c r="I121" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J114" s="25" t="s">
+      <c r="J121" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K114" s="28"/>
-      <c r="L114" s="26"/>
-      <c r="M114" s="27" t="s">
+      <c r="K121" s="27"/>
+      <c r="L121" s="25"/>
+      <c r="M121" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="14"/>
-      <c r="B115" s="18">
+    <row r="122" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="13"/>
+      <c r="B122" s="17">
         <v>78754</v>
       </c>
-      <c r="C115" s="19">
+      <c r="C122" s="18">
         <v>44504</v>
       </c>
-      <c r="D115" s="20" t="s">
+      <c r="D122" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E115" s="21" t="s">
+      <c r="E122" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F115" s="22" t="s">
+      <c r="F122" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G115" s="28" t="s">
+      <c r="G122" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H115" s="23" t="s">
+      <c r="H122" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I115" s="24">
+      <c r="I122" s="23">
         <v>44502</v>
       </c>
-      <c r="J115" s="25" t="s">
+      <c r="J122" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K115" s="28"/>
-      <c r="L115" s="26"/>
-      <c r="M115" s="27" t="s">
+      <c r="K122" s="27"/>
+      <c r="L122" s="25"/>
+      <c r="M122" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="14"/>
-      <c r="B116" s="18">
+    <row r="123" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="13"/>
+      <c r="B123" s="17">
         <v>78753</v>
       </c>
-      <c r="C116" s="19">
+      <c r="C123" s="18">
         <v>44504</v>
       </c>
-      <c r="D116" s="20" t="s">
+      <c r="D123" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E116" s="21" t="s">
+      <c r="E123" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F116" s="22" t="s">
+      <c r="F123" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G116" s="28" t="s">
+      <c r="G123" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H116" s="23" t="s">
+      <c r="H123" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I116" s="24">
+      <c r="I123" s="23">
         <v>44501</v>
       </c>
-      <c r="J116" s="25" t="s">
+      <c r="J123" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K116" s="28"/>
-      <c r="L116" s="26"/>
-      <c r="M116" s="27" t="s">
+      <c r="K123" s="27"/>
+      <c r="L123" s="25"/>
+      <c r="M123" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="14"/>
-      <c r="B117" s="18">
+    <row r="124" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="13"/>
+      <c r="B124" s="17">
         <v>78752</v>
       </c>
-      <c r="C117" s="19">
+      <c r="C124" s="18">
         <v>44504</v>
       </c>
-      <c r="D117" s="20" t="s">
+      <c r="D124" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E117" s="21" t="s">
+      <c r="E124" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F117" s="22" t="s">
+      <c r="F124" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G117" s="28" t="s">
+      <c r="G124" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H117" s="23" t="s">
+      <c r="H124" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I117" s="24">
+      <c r="I124" s="23">
         <v>44502</v>
       </c>
-      <c r="J117" s="25" t="s">
+      <c r="J124" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K117" s="28"/>
-      <c r="L117" s="26"/>
-      <c r="M117" s="27" t="s">
+      <c r="K124" s="27"/>
+      <c r="L124" s="25"/>
+      <c r="M124" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="14"/>
-      <c r="B118" s="18">
+    <row r="125" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="13"/>
+      <c r="B125" s="17">
         <v>78751</v>
       </c>
-      <c r="C118" s="19">
+      <c r="C125" s="18">
         <v>44504</v>
       </c>
-      <c r="D118" s="20" t="s">
+      <c r="D125" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E118" s="21" t="s">
+      <c r="E125" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F118" s="22" t="s">
+      <c r="F125" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G118" s="28" t="s">
+      <c r="G125" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H118" s="23" t="s">
+      <c r="H125" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I118" s="24">
+      <c r="I125" s="23">
         <v>44502</v>
       </c>
-      <c r="J118" s="25" t="s">
+      <c r="J125" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K118" s="28"/>
-      <c r="L118" s="26"/>
-      <c r="M118" s="27" t="s">
+      <c r="K125" s="27"/>
+      <c r="L125" s="25"/>
+      <c r="M125" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="14"/>
-      <c r="B119" s="18">
+    <row r="126" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="13"/>
+      <c r="B126" s="17">
         <v>78750</v>
       </c>
-      <c r="C119" s="19">
+      <c r="C126" s="18">
         <v>44504</v>
       </c>
-      <c r="D119" s="20">
+      <c r="D126" s="19">
         <v>40</v>
       </c>
-      <c r="E119" s="21" t="s">
+      <c r="E126" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F119" s="22" t="s">
+      <c r="F126" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G119" s="28" t="s">
+      <c r="G126" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H119" s="23" t="s">
+      <c r="H126" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I119" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J119" s="25"/>
-      <c r="K119" s="28"/>
-      <c r="L119" s="26" t="s">
+      <c r="I126" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J126" s="24"/>
+      <c r="K126" s="27"/>
+      <c r="L126" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M119" s="27"/>
-    </row>
-    <row r="120" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="14"/>
-      <c r="B120" s="18">
+      <c r="M126" s="26"/>
+    </row>
+    <row r="127" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="13"/>
+      <c r="B127" s="17">
         <v>78749</v>
       </c>
-      <c r="C120" s="19" t="s">
+      <c r="C127" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D120" s="20"/>
-      <c r="E120" s="21"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="28"/>
-      <c r="H120" s="23"/>
-      <c r="I120" s="24"/>
-      <c r="J120" s="25"/>
-      <c r="K120" s="28"/>
-      <c r="L120" s="26" t="s">
+      <c r="D127" s="19"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="23"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="27"/>
+      <c r="L127" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="M120" s="27"/>
-    </row>
-    <row r="121" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="14"/>
-      <c r="B121" s="18">
+      <c r="M127" s="26"/>
+    </row>
+    <row r="128" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="13"/>
+      <c r="B128" s="17">
         <v>78748</v>
       </c>
-      <c r="C121" s="19">
+      <c r="C128" s="18">
         <v>44504</v>
       </c>
-      <c r="D121" s="20">
+      <c r="D128" s="19">
         <v>40</v>
       </c>
-      <c r="E121" s="21" t="s">
+      <c r="E128" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F121" s="22" t="s">
+      <c r="F128" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G121" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H121" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I121" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J121" s="25"/>
-      <c r="K121" s="28"/>
-      <c r="L121" s="26" t="s">
+      <c r="G128" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H128" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I128" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J128" s="24"/>
+      <c r="K128" s="27"/>
+      <c r="L128" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M121" s="27"/>
-    </row>
-    <row r="122" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="14"/>
-      <c r="B122" s="18">
+      <c r="M128" s="26"/>
+    </row>
+    <row r="129" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="13"/>
+      <c r="B129" s="17">
         <v>78747</v>
       </c>
-      <c r="C122" s="19">
+      <c r="C129" s="18">
         <v>44504</v>
       </c>
-      <c r="D122" s="20">
+      <c r="D129" s="19">
         <v>70</v>
       </c>
-      <c r="E122" s="21" t="s">
+      <c r="E129" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F122" s="22" t="s">
+      <c r="F129" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G122" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H122" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I122" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J122" s="25"/>
-      <c r="K122" s="28"/>
-      <c r="L122" s="26" t="s">
+      <c r="G129" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H129" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I129" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J129" s="24"/>
+      <c r="K129" s="27"/>
+      <c r="L129" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M122" s="27"/>
-    </row>
-    <row r="123" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="14"/>
-      <c r="B123" s="18">
+      <c r="M129" s="26"/>
+    </row>
+    <row r="130" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="13"/>
+      <c r="B130" s="17">
         <v>78746</v>
       </c>
-      <c r="C123" s="19">
+      <c r="C130" s="18">
         <v>44504</v>
       </c>
-      <c r="D123" s="20">
+      <c r="D130" s="19">
         <v>60</v>
       </c>
-      <c r="E123" s="21" t="s">
+      <c r="E130" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F123" s="22" t="s">
+      <c r="F130" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G123" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H123" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I123" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J123" s="25"/>
-      <c r="K123" s="28"/>
-      <c r="L123" s="26" t="s">
+      <c r="G130" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H130" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I130" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J130" s="24"/>
+      <c r="K130" s="27"/>
+      <c r="L130" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M123" s="27"/>
-    </row>
-    <row r="124" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="14"/>
-      <c r="B124" s="18">
+      <c r="M130" s="26"/>
+    </row>
+    <row r="131" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="13"/>
+      <c r="B131" s="17">
         <v>78745</v>
       </c>
-      <c r="C124" s="19">
+      <c r="C131" s="18">
         <v>44504</v>
       </c>
-      <c r="D124" s="20">
+      <c r="D131" s="19">
         <v>10</v>
       </c>
-      <c r="E124" s="21" t="s">
+      <c r="E131" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F124" s="22" t="s">
+      <c r="F131" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G124" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H124" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I124" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J124" s="25"/>
-      <c r="K124" s="28"/>
-      <c r="L124" s="26" t="s">
+      <c r="G131" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H131" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I131" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J131" s="24"/>
+      <c r="K131" s="27"/>
+      <c r="L131" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M124" s="27"/>
-    </row>
-    <row r="125" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="14"/>
-      <c r="B125" s="18">
+      <c r="M131" s="26"/>
+    </row>
+    <row r="132" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="13"/>
+      <c r="B132" s="17">
         <v>78744</v>
       </c>
-      <c r="C125" s="19">
+      <c r="C132" s="18">
         <v>44503</v>
       </c>
-      <c r="D125" s="20" t="s">
+      <c r="D132" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E125" s="21" t="s">
+      <c r="E132" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F125" s="22" t="s">
+      <c r="F132" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G125" s="28" t="s">
+      <c r="G132" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="H125" s="23" t="s">
+      <c r="H132" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I125" s="24">
+      <c r="I132" s="23">
         <v>44497</v>
       </c>
-      <c r="J125" s="25"/>
-      <c r="K125" s="28"/>
-      <c r="L125" s="26" t="s">
+      <c r="J132" s="24"/>
+      <c r="K132" s="27"/>
+      <c r="L132" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M125" s="27" t="s">
+      <c r="M132" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="14"/>
-      <c r="B126" s="18">
+    <row r="133" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="13"/>
+      <c r="B133" s="17">
         <v>78743</v>
       </c>
-      <c r="C126" s="19">
+      <c r="C133" s="18">
         <v>44503</v>
       </c>
-      <c r="D126" s="20" t="s">
+      <c r="D133" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E126" s="21" t="s">
+      <c r="E133" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F126" s="22" t="s">
+      <c r="F133" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G126" s="28" t="s">
+      <c r="G133" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H126" s="23" t="s">
+      <c r="H133" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I126" s="24">
+      <c r="I133" s="23">
         <v>44497</v>
       </c>
-      <c r="J126" s="25" t="s">
+      <c r="J133" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K126" s="28"/>
-      <c r="L126" s="26"/>
-      <c r="M126" s="27" t="s">
+      <c r="K133" s="27"/>
+      <c r="L133" s="25"/>
+      <c r="M133" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="14"/>
-      <c r="B127" s="18">
+    <row r="134" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="13"/>
+      <c r="B134" s="17">
         <v>78742</v>
       </c>
-      <c r="C127" s="19">
+      <c r="C134" s="18">
         <v>44503</v>
       </c>
-      <c r="D127" s="20" t="s">
+      <c r="D134" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E127" s="21" t="s">
+      <c r="E134" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F127" s="22" t="s">
+      <c r="F134" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G127" s="28" t="s">
+      <c r="G134" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H127" s="23" t="s">
+      <c r="H134" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I127" s="24">
+      <c r="I134" s="23">
         <v>44498</v>
       </c>
-      <c r="J127" s="25" t="s">
+      <c r="J134" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K127" s="28"/>
-      <c r="L127" s="26"/>
-      <c r="M127" s="27" t="s">
+      <c r="K134" s="27"/>
+      <c r="L134" s="25"/>
+      <c r="M134" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="14"/>
-      <c r="B128" s="18">
+    <row r="135" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="13"/>
+      <c r="B135" s="17">
         <v>78741</v>
       </c>
-      <c r="C128" s="19">
+      <c r="C135" s="18">
         <v>44503</v>
       </c>
-      <c r="D128" s="20" t="s">
+      <c r="D135" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E128" s="21" t="s">
+      <c r="E135" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F128" s="22" t="s">
+      <c r="F135" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G128" s="28" t="s">
+      <c r="G135" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H128" s="23" t="s">
+      <c r="H135" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I128" s="24">
+      <c r="I135" s="23">
         <v>44501</v>
       </c>
-      <c r="J128" s="25" t="s">
+      <c r="J135" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K128" s="28"/>
-      <c r="L128" s="26"/>
-      <c r="M128" s="27" t="s">
+      <c r="K135" s="27"/>
+      <c r="L135" s="25"/>
+      <c r="M135" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="14"/>
-      <c r="B129" s="18">
+    <row r="136" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="13"/>
+      <c r="B136" s="17">
         <v>78740</v>
       </c>
-      <c r="C129" s="19">
+      <c r="C136" s="18">
         <v>44503</v>
       </c>
-      <c r="D129" s="20" t="s">
+      <c r="D136" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E129" s="21" t="s">
+      <c r="E136" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F129" s="22" t="s">
+      <c r="F136" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G129" s="28" t="s">
+      <c r="G136" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H129" s="23" t="s">
+      <c r="H136" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I129" s="24">
+      <c r="I136" s="23">
         <v>44497</v>
       </c>
-      <c r="J129" s="25" t="s">
+      <c r="J136" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K129" s="28"/>
-      <c r="L129" s="26"/>
-      <c r="M129" s="27" t="s">
+      <c r="K136" s="27"/>
+      <c r="L136" s="25"/>
+      <c r="M136" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="14"/>
-      <c r="B130" s="18">
+    <row r="137" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="13"/>
+      <c r="B137" s="17">
         <v>78739</v>
       </c>
-      <c r="C130" s="19">
+      <c r="C137" s="18">
         <v>44503</v>
       </c>
-      <c r="D130" s="20" t="s">
+      <c r="D137" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E130" s="21" t="s">
+      <c r="E137" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F130" s="22" t="s">
+      <c r="F137" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G130" s="28" t="s">
+      <c r="G137" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H130" s="23" t="s">
+      <c r="H137" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I130" s="24" t="s">
+      <c r="I137" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J130" s="25" t="s">
+      <c r="J137" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K130" s="28"/>
-      <c r="L130" s="26"/>
-      <c r="M130" s="27" t="s">
+      <c r="K137" s="27"/>
+      <c r="L137" s="25"/>
+      <c r="M137" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="14"/>
-      <c r="B131" s="18">
+    <row r="138" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="13"/>
+      <c r="B138" s="17">
         <v>78738</v>
       </c>
-      <c r="C131" s="19">
+      <c r="C138" s="18">
         <v>44503</v>
       </c>
-      <c r="D131" s="20" t="s">
+      <c r="D138" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E131" s="21" t="s">
+      <c r="E138" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F131" s="22" t="s">
+      <c r="F138" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G131" s="28" t="s">
+      <c r="G138" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H131" s="23" t="s">
+      <c r="H138" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I131" s="24">
+      <c r="I138" s="23">
         <v>44500</v>
       </c>
-      <c r="J131" s="25" t="s">
+      <c r="J138" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K131" s="28"/>
-      <c r="L131" s="26"/>
-      <c r="M131" s="27" t="s">
+      <c r="K138" s="27"/>
+      <c r="L138" s="25"/>
+      <c r="M138" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="14"/>
-      <c r="B132" s="18">
+    <row r="139" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="13"/>
+      <c r="B139" s="17">
         <v>78737</v>
       </c>
-      <c r="C132" s="19">
+      <c r="C139" s="18">
         <v>44503</v>
       </c>
-      <c r="D132" s="20" t="s">
+      <c r="D139" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E132" s="21" t="s">
+      <c r="E139" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F132" s="22" t="s">
+      <c r="F139" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G132" s="28" t="s">
+      <c r="G139" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H132" s="23" t="s">
+      <c r="H139" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I132" s="24">
+      <c r="I139" s="23">
         <v>44499</v>
       </c>
-      <c r="J132" s="25"/>
-      <c r="K132" s="28"/>
-      <c r="L132" s="26" t="s">
+      <c r="J139" s="24"/>
+      <c r="K139" s="27"/>
+      <c r="L139" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M132" s="27" t="s">
+      <c r="M139" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="14"/>
-      <c r="B133" s="18">
+    <row r="140" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="13"/>
+      <c r="B140" s="17">
         <v>78736</v>
       </c>
-      <c r="C133" s="19">
+      <c r="C140" s="18">
         <v>44503</v>
       </c>
-      <c r="D133" s="20">
+      <c r="D140" s="19">
         <v>60</v>
       </c>
-      <c r="E133" s="21" t="s">
+      <c r="E140" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F133" s="22" t="s">
+      <c r="F140" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G133" s="28" t="s">
+      <c r="G140" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="H133" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I133" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J133" s="25" t="s">
+      <c r="H140" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I140" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J140" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K133" s="28"/>
-      <c r="L133" s="26"/>
-      <c r="M133" s="27" t="s">
+      <c r="K140" s="27"/>
+      <c r="L140" s="25"/>
+      <c r="M140" s="26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="14"/>
-      <c r="B134" s="18">
+    <row r="141" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="13"/>
+      <c r="B141" s="17">
         <v>78735</v>
       </c>
-      <c r="C134" s="19">
+      <c r="C141" s="18">
         <v>44503</v>
       </c>
-      <c r="D134" s="20">
+      <c r="D141" s="19">
         <v>20</v>
       </c>
-      <c r="E134" s="21" t="s">
+      <c r="E141" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F134" s="22" t="s">
+      <c r="F141" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G134" s="28" t="s">
+      <c r="G141" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="H134" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I134" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J134" s="25"/>
-      <c r="K134" s="28"/>
-      <c r="L134" s="26" t="s">
+      <c r="H141" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I141" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J141" s="24"/>
+      <c r="K141" s="27"/>
+      <c r="L141" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M134" s="27"/>
-    </row>
-    <row r="135" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="14"/>
-      <c r="B135" s="18">
+      <c r="M141" s="26"/>
+    </row>
+    <row r="142" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="13"/>
+      <c r="B142" s="17">
         <v>78734</v>
       </c>
-      <c r="C135" s="19">
+      <c r="C142" s="18">
         <v>44503</v>
       </c>
-      <c r="D135" s="20">
+      <c r="D142" s="19">
         <v>80</v>
       </c>
-      <c r="E135" s="21" t="s">
+      <c r="E142" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F135" s="22" t="s">
+      <c r="F142" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G135" s="28" t="s">
+      <c r="G142" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="H135" s="23" t="s">
+      <c r="H142" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I135" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J135" s="25"/>
-      <c r="K135" s="28"/>
-      <c r="L135" s="26" t="s">
+      <c r="I142" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J142" s="24"/>
+      <c r="K142" s="27"/>
+      <c r="L142" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M135" s="27"/>
-    </row>
-    <row r="136" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="14"/>
-      <c r="B136" s="18">
+      <c r="M142" s="26"/>
+    </row>
+    <row r="143" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="13"/>
+      <c r="B143" s="17">
         <v>78733</v>
       </c>
-      <c r="C136" s="19">
+      <c r="C143" s="18">
         <v>44503</v>
       </c>
-      <c r="D136" s="20">
+      <c r="D143" s="19">
         <v>10</v>
       </c>
-      <c r="E136" s="21" t="s">
+      <c r="E143" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F136" s="22" t="s">
+      <c r="F143" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G136" s="28" t="s">
+      <c r="G143" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="H136" s="23" t="s">
+      <c r="H143" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I136" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J136" s="25"/>
-      <c r="K136" s="28"/>
-      <c r="L136" s="26" t="s">
+      <c r="I143" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J143" s="24"/>
+      <c r="K143" s="27"/>
+      <c r="L143" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M136" s="27"/>
-    </row>
-    <row r="137" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="14"/>
-      <c r="B137" s="18">
+      <c r="M143" s="26"/>
+    </row>
+    <row r="144" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="13"/>
+      <c r="B144" s="17">
         <v>78732</v>
       </c>
-      <c r="C137" s="19">
+      <c r="C144" s="18">
         <v>44503</v>
       </c>
-      <c r="D137" s="20" t="s">
+      <c r="D144" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E137" s="21" t="s">
+      <c r="E144" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F137" s="22" t="s">
+      <c r="F144" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G137" s="28" t="s">
+      <c r="G144" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H137" s="23" t="s">
+      <c r="H144" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I137" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J137" s="25" t="s">
+      <c r="I144" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J144" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K137" s="28"/>
-      <c r="L137" s="26"/>
-      <c r="M137" s="27" t="s">
+      <c r="K144" s="27"/>
+      <c r="L144" s="25"/>
+      <c r="M144" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="14"/>
-      <c r="B138" s="18">
+    <row r="145" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="13"/>
+      <c r="B145" s="17">
         <v>78731</v>
       </c>
-      <c r="C138" s="19">
+      <c r="C145" s="18">
         <v>44503</v>
       </c>
-      <c r="D138" s="20" t="s">
+      <c r="D145" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E138" s="21" t="s">
+      <c r="E145" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F138" s="22" t="s">
+      <c r="F145" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G138" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H138" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I138" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J138" s="25"/>
-      <c r="K138" s="28"/>
-      <c r="L138" s="26" t="s">
+      <c r="G145" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H145" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I145" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J145" s="24"/>
+      <c r="K145" s="27"/>
+      <c r="L145" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M138" s="27"/>
-    </row>
-    <row r="139" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="14"/>
-      <c r="B139" s="18">
+      <c r="M145" s="26"/>
+    </row>
+    <row r="146" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="13"/>
+      <c r="B146" s="17">
         <v>78730</v>
       </c>
-      <c r="C139" s="19">
+      <c r="C146" s="18">
         <v>44503</v>
       </c>
-      <c r="D139" s="20" t="s">
+      <c r="D146" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E139" s="21" t="s">
+      <c r="E146" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F139" s="22" t="s">
+      <c r="F146" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G139" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H139" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I139" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J139" s="25"/>
-      <c r="K139" s="28"/>
-      <c r="L139" s="26" t="s">
+      <c r="G146" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H146" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I146" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J146" s="24"/>
+      <c r="K146" s="27"/>
+      <c r="L146" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M139" s="27"/>
-    </row>
-    <row r="140" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="14"/>
-      <c r="B140" s="18">
+      <c r="M146" s="26"/>
+    </row>
+    <row r="147" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="13"/>
+      <c r="B147" s="17">
         <v>78729</v>
       </c>
-      <c r="C140" s="19">
+      <c r="C147" s="18">
         <v>44503</v>
       </c>
-      <c r="D140" s="20" t="s">
+      <c r="D147" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E140" s="21" t="s">
+      <c r="E147" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F140" s="22" t="s">
+      <c r="F147" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G140" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H140" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I140" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J140" s="25"/>
-      <c r="K140" s="28"/>
-      <c r="L140" s="26" t="s">
+      <c r="G147" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H147" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I147" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J147" s="24"/>
+      <c r="K147" s="27"/>
+      <c r="L147" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M140" s="27"/>
-    </row>
-    <row r="141" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="14"/>
-      <c r="B141" s="18">
+      <c r="M147" s="26"/>
+    </row>
+    <row r="148" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="13"/>
+      <c r="B148" s="17">
         <v>78728</v>
       </c>
-      <c r="C141" s="19">
+      <c r="C148" s="18">
         <v>44503</v>
       </c>
-      <c r="D141" s="20">
+      <c r="D148" s="19">
         <v>30</v>
       </c>
-      <c r="E141" s="21" t="s">
+      <c r="E148" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F141" s="22" t="s">
+      <c r="F148" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G141" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H141" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I141" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J141" s="25"/>
-      <c r="K141" s="28"/>
-      <c r="L141" s="26" t="s">
+      <c r="G148" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H148" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I148" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J148" s="24"/>
+      <c r="K148" s="27"/>
+      <c r="L148" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M141" s="27"/>
-    </row>
-    <row r="142" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="14"/>
-      <c r="B142" s="18">
+      <c r="M148" s="26"/>
+    </row>
+    <row r="149" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="13"/>
+      <c r="B149" s="17">
         <v>78727</v>
       </c>
-      <c r="C142" s="19">
+      <c r="C149" s="18">
         <v>44503</v>
       </c>
-      <c r="D142" s="20">
+      <c r="D149" s="19">
         <v>50</v>
       </c>
-      <c r="E142" s="21" t="s">
+      <c r="E149" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F142" s="22" t="s">
+      <c r="F149" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G142" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H142" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I142" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J142" s="25"/>
-      <c r="K142" s="28"/>
-      <c r="L142" s="26" t="s">
+      <c r="G149" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H149" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I149" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J149" s="24"/>
+      <c r="K149" s="27"/>
+      <c r="L149" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M142" s="27"/>
-    </row>
-    <row r="143" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="14"/>
-      <c r="B143" s="18">
+      <c r="M149" s="26"/>
+    </row>
+    <row r="150" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="13"/>
+      <c r="B150" s="17">
         <v>78726</v>
       </c>
-      <c r="C143" s="19">
+      <c r="C150" s="18">
         <v>44503</v>
       </c>
-      <c r="D143" s="20">
+      <c r="D150" s="19">
         <v>10</v>
       </c>
-      <c r="E143" s="21" t="s">
+      <c r="E150" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F143" s="22" t="s">
+      <c r="F150" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G143" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H143" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I143" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J143" s="25"/>
-      <c r="K143" s="28"/>
-      <c r="L143" s="26" t="s">
+      <c r="G150" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H150" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I150" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J150" s="24"/>
+      <c r="K150" s="27"/>
+      <c r="L150" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M143" s="27"/>
-    </row>
-    <row r="144" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="14"/>
-      <c r="B144" s="18">
+      <c r="M150" s="26"/>
+    </row>
+    <row r="151" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="13"/>
+      <c r="B151" s="17">
         <v>78725</v>
       </c>
-      <c r="C144" s="19">
+      <c r="C151" s="18">
         <v>44503</v>
       </c>
-      <c r="D144" s="20">
+      <c r="D151" s="19">
         <v>10</v>
       </c>
-      <c r="E144" s="21" t="s">
+      <c r="E151" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F144" s="22" t="s">
+      <c r="F151" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G144" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H144" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I144" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J144" s="25"/>
-      <c r="K144" s="28"/>
-      <c r="L144" s="26" t="s">
+      <c r="G151" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H151" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I151" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J151" s="24"/>
+      <c r="K151" s="27"/>
+      <c r="L151" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M144" s="27"/>
-    </row>
-    <row r="145" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="14"/>
-      <c r="B145" s="18">
+      <c r="M151" s="26"/>
+    </row>
+    <row r="152" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="13"/>
+      <c r="B152" s="17">
         <v>78724</v>
       </c>
-      <c r="C145" s="19">
+      <c r="C152" s="18">
         <v>44503</v>
       </c>
-      <c r="D145" s="20">
+      <c r="D152" s="19">
         <v>50</v>
       </c>
-      <c r="E145" s="21" t="s">
+      <c r="E152" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F145" s="22" t="s">
+      <c r="F152" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G145" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H145" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I145" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J145" s="25"/>
-      <c r="K145" s="28"/>
-      <c r="L145" s="26" t="s">
+      <c r="G152" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H152" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I152" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J152" s="24"/>
+      <c r="K152" s="27"/>
+      <c r="L152" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M145" s="27"/>
-    </row>
-    <row r="146" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="14"/>
-      <c r="B146" s="18">
+      <c r="M152" s="26"/>
+    </row>
+    <row r="153" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="13"/>
+      <c r="B153" s="17">
         <v>78723</v>
       </c>
-      <c r="C146" s="19">
+      <c r="C153" s="18">
         <v>44503</v>
       </c>
-      <c r="D146" s="20">
+      <c r="D153" s="19">
         <v>30</v>
       </c>
-      <c r="E146" s="21" t="s">
+      <c r="E153" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F146" s="22" t="s">
+      <c r="F153" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G146" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H146" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I146" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J146" s="25"/>
-      <c r="K146" s="28"/>
-      <c r="L146" s="26" t="s">
+      <c r="G153" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H153" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I153" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J153" s="24"/>
+      <c r="K153" s="27"/>
+      <c r="L153" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M146" s="27"/>
-    </row>
-    <row r="147" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="14"/>
-      <c r="B147" s="18">
+      <c r="M153" s="26"/>
+    </row>
+    <row r="154" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="13"/>
+      <c r="B154" s="17">
         <v>78722</v>
       </c>
-      <c r="C147" s="19">
+      <c r="C154" s="18">
         <v>44503</v>
       </c>
-      <c r="D147" s="20" t="s">
+      <c r="D154" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E147" s="21" t="s">
+      <c r="E154" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F147" s="22" t="s">
+      <c r="F154" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G147" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H147" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I147" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J147" s="25"/>
-      <c r="K147" s="28"/>
-      <c r="L147" s="26" t="s">
+      <c r="G154" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H154" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I154" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J154" s="24"/>
+      <c r="K154" s="27"/>
+      <c r="L154" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M147" s="27"/>
-    </row>
-    <row r="148" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="14"/>
-      <c r="B148" s="18">
+      <c r="M154" s="26"/>
+    </row>
+    <row r="155" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="13"/>
+      <c r="B155" s="17">
         <v>78721</v>
       </c>
-      <c r="C148" s="19">
+      <c r="C155" s="18">
         <v>44503</v>
       </c>
-      <c r="D148" s="20">
+      <c r="D155" s="19">
         <v>50</v>
       </c>
-      <c r="E148" s="21" t="s">
+      <c r="E155" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F148" s="22" t="s">
+      <c r="F155" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G148" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H148" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I148" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J148" s="25"/>
-      <c r="K148" s="28"/>
-      <c r="L148" s="26" t="s">
+      <c r="G155" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H155" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I155" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J155" s="24"/>
+      <c r="K155" s="27"/>
+      <c r="L155" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M148" s="27"/>
-    </row>
-    <row r="149" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="14"/>
-      <c r="B149" s="18">
+      <c r="M155" s="26"/>
+    </row>
+    <row r="156" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="13"/>
+      <c r="B156" s="17">
         <v>78720</v>
       </c>
-      <c r="C149" s="19">
+      <c r="C156" s="18">
         <v>44503</v>
       </c>
-      <c r="D149" s="20">
+      <c r="D156" s="19">
         <v>30</v>
       </c>
-      <c r="E149" s="21" t="s">
+      <c r="E156" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F149" s="22" t="s">
+      <c r="F156" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G149" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H149" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I149" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J149" s="25"/>
-      <c r="K149" s="28"/>
-      <c r="L149" s="26" t="s">
+      <c r="G156" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H156" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I156" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J156" s="24"/>
+      <c r="K156" s="27"/>
+      <c r="L156" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M149" s="27"/>
-    </row>
-    <row r="150" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="14"/>
-      <c r="B150" s="18">
+      <c r="M156" s="26"/>
+    </row>
+    <row r="157" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="13"/>
+      <c r="B157" s="17">
         <v>78719</v>
       </c>
-      <c r="C150" s="19">
+      <c r="C157" s="18">
         <v>44502</v>
       </c>
-      <c r="D150" s="20" t="s">
+      <c r="D157" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E150" s="21" t="s">
+      <c r="E157" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F150" s="22" t="s">
+      <c r="F157" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G150" s="28" t="s">
+      <c r="G157" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H150" s="23" t="s">
+      <c r="H157" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I150" s="24">
+      <c r="I157" s="23">
         <v>44493</v>
       </c>
-      <c r="J150" s="25"/>
-      <c r="K150" s="28"/>
-      <c r="L150" s="26" t="s">
+      <c r="J157" s="24"/>
+      <c r="K157" s="27"/>
+      <c r="L157" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M150" s="27"/>
-    </row>
-    <row r="151" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="14"/>
-      <c r="B151" s="18">
+      <c r="M157" s="26"/>
+    </row>
+    <row r="158" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="13"/>
+      <c r="B158" s="17">
         <v>78718</v>
       </c>
-      <c r="C151" s="19">
+      <c r="C158" s="18">
         <v>44502</v>
       </c>
-      <c r="D151" s="20">
+      <c r="D158" s="19">
         <v>20</v>
       </c>
-      <c r="E151" s="21" t="s">
+      <c r="E158" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F151" s="22" t="s">
+      <c r="F158" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G151" s="28" t="s">
+      <c r="G158" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H151" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I151" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J151" s="25"/>
-      <c r="K151" s="28"/>
-      <c r="L151" s="26" t="s">
+      <c r="H158" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I158" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J158" s="24"/>
+      <c r="K158" s="27"/>
+      <c r="L158" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M151" s="27"/>
-    </row>
-    <row r="152" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="14"/>
-      <c r="B152" s="18">
+      <c r="M158" s="26"/>
+    </row>
+    <row r="159" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="13"/>
+      <c r="B159" s="17">
         <v>78717</v>
       </c>
-      <c r="C152" s="19">
+      <c r="C159" s="18">
         <v>44502</v>
       </c>
-      <c r="D152" s="20">
+      <c r="D159" s="19">
         <v>30</v>
       </c>
-      <c r="E152" s="21" t="s">
+      <c r="E159" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F152" s="22" t="s">
+      <c r="F159" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G152" s="28" t="s">
+      <c r="G159" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H152" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I152" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J152" s="25"/>
-      <c r="K152" s="28"/>
-      <c r="L152" s="26" t="s">
+      <c r="H159" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I159" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J159" s="24"/>
+      <c r="K159" s="27"/>
+      <c r="L159" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M152" s="27"/>
-    </row>
-    <row r="153" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="14"/>
-      <c r="B153" s="18">
+      <c r="M159" s="26"/>
+    </row>
+    <row r="160" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="13"/>
+      <c r="B160" s="17">
         <v>78716</v>
       </c>
-      <c r="C153" s="19">
+      <c r="C160" s="18">
         <v>44502</v>
       </c>
-      <c r="D153" s="20">
+      <c r="D160" s="19">
         <v>30</v>
       </c>
-      <c r="E153" s="21" t="s">
+      <c r="E160" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F153" s="22" t="s">
+      <c r="F160" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G153" s="28" t="s">
+      <c r="G160" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H153" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I153" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J153" s="25"/>
-      <c r="K153" s="28"/>
-      <c r="L153" s="26" t="s">
+      <c r="H160" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I160" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J160" s="24"/>
+      <c r="K160" s="27"/>
+      <c r="L160" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M153" s="27"/>
-    </row>
-    <row r="154" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="14"/>
-      <c r="B154" s="18">
+      <c r="M160" s="26"/>
+    </row>
+    <row r="161" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="13"/>
+      <c r="B161" s="17">
         <v>78715</v>
       </c>
-      <c r="C154" s="19">
+      <c r="C161" s="18">
         <v>44502</v>
       </c>
-      <c r="D154" s="20">
+      <c r="D161" s="19">
         <v>40</v>
       </c>
-      <c r="E154" s="21" t="s">
+      <c r="E161" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F154" s="22" t="s">
+      <c r="F161" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G154" s="28" t="s">
+      <c r="G161" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H154" s="23" t="s">
+      <c r="H161" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I154" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J154" s="25" t="s">
+      <c r="I161" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J161" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="K154" s="28"/>
-      <c r="L154" s="26"/>
-      <c r="M154" s="27" t="s">
+      <c r="K161" s="27"/>
+      <c r="L161" s="25"/>
+      <c r="M161" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="14"/>
-      <c r="B155" s="18">
+    <row r="162" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="13"/>
+      <c r="B162" s="17">
         <v>78714</v>
       </c>
-      <c r="C155" s="19">
+      <c r="C162" s="18">
         <v>44502</v>
       </c>
-      <c r="D155" s="20">
+      <c r="D162" s="19">
         <v>40</v>
       </c>
-      <c r="E155" s="21" t="s">
+      <c r="E162" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F155" s="22" t="s">
+      <c r="F162" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G155" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H155" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I155" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J155" s="25"/>
-      <c r="K155" s="28"/>
-      <c r="L155" s="26" t="s">
+      <c r="G162" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H162" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I162" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J162" s="24"/>
+      <c r="K162" s="27"/>
+      <c r="L162" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M155" s="27"/>
-    </row>
-    <row r="156" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="14"/>
-      <c r="B156" s="18">
+      <c r="M162" s="26"/>
+    </row>
+    <row r="163" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="13"/>
+      <c r="B163" s="17">
         <v>78713</v>
       </c>
-      <c r="C156" s="19">
+      <c r="C163" s="18">
         <v>44502</v>
       </c>
-      <c r="D156" s="20">
+      <c r="D163" s="19">
         <v>70</v>
       </c>
-      <c r="E156" s="21" t="s">
+      <c r="E163" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F156" s="22" t="s">
+      <c r="F163" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G156" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H156" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I156" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J156" s="25"/>
-      <c r="K156" s="28"/>
-      <c r="L156" s="26" t="s">
+      <c r="G163" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H163" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I163" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J163" s="24"/>
+      <c r="K163" s="27"/>
+      <c r="L163" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M156" s="27"/>
-    </row>
-    <row r="157" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="14"/>
-      <c r="B157" s="18">
+      <c r="M163" s="26"/>
+    </row>
+    <row r="164" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="13"/>
+      <c r="B164" s="17">
         <v>78712</v>
       </c>
-      <c r="C157" s="19">
+      <c r="C164" s="18">
         <v>44502</v>
       </c>
-      <c r="D157" s="20">
+      <c r="D164" s="19">
         <v>20</v>
       </c>
-      <c r="E157" s="21" t="s">
+      <c r="E164" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F157" s="22" t="s">
+      <c r="F164" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G157" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H157" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I157" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J157" s="25"/>
-      <c r="K157" s="28"/>
-      <c r="L157" s="26" t="s">
+      <c r="G164" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H164" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I164" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J164" s="24"/>
+      <c r="K164" s="27"/>
+      <c r="L164" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M157" s="27"/>
-    </row>
-    <row r="158" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="14"/>
-      <c r="B158" s="18">
+      <c r="M164" s="26"/>
+    </row>
+    <row r="165" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="13"/>
+      <c r="B165" s="17">
         <v>78711</v>
       </c>
-      <c r="C158" s="19">
+      <c r="C165" s="18">
         <v>44502</v>
       </c>
-      <c r="D158" s="20">
+      <c r="D165" s="19">
         <v>30</v>
       </c>
-      <c r="E158" s="21" t="s">
+      <c r="E165" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F158" s="22" t="s">
+      <c r="F165" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G158" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H158" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I158" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J158" s="25"/>
-      <c r="K158" s="28"/>
-      <c r="L158" s="26" t="s">
+      <c r="G165" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H165" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I165" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J165" s="24"/>
+      <c r="K165" s="27"/>
+      <c r="L165" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M158" s="27"/>
-    </row>
-    <row r="159" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="14"/>
-      <c r="B159" s="18">
+      <c r="M165" s="26"/>
+    </row>
+    <row r="166" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="13"/>
+      <c r="B166" s="17">
         <v>78710</v>
       </c>
-      <c r="C159" s="19">
+      <c r="C166" s="18">
         <v>44502</v>
       </c>
-      <c r="D159" s="20">
+      <c r="D166" s="19">
         <v>70</v>
       </c>
-      <c r="E159" s="21" t="s">
+      <c r="E166" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F159" s="22" t="s">
+      <c r="F166" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G159" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H159" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I159" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J159" s="25"/>
-      <c r="K159" s="28"/>
-      <c r="L159" s="26" t="s">
+      <c r="G166" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H166" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I166" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J166" s="24"/>
+      <c r="K166" s="27"/>
+      <c r="L166" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M159" s="27"/>
-    </row>
-    <row r="160" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="14"/>
-      <c r="B160" s="18">
+      <c r="M166" s="26"/>
+    </row>
+    <row r="167" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="13"/>
+      <c r="B167" s="17">
         <v>78709</v>
       </c>
-      <c r="C160" s="19">
+      <c r="C167" s="18">
         <v>44502</v>
       </c>
-      <c r="D160" s="20">
+      <c r="D167" s="19">
         <v>10</v>
       </c>
-      <c r="E160" s="21" t="s">
+      <c r="E167" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F160" s="22" t="s">
+      <c r="F167" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G160" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H160" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I160" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J160" s="25"/>
-      <c r="K160" s="28"/>
-      <c r="L160" s="26" t="s">
+      <c r="G167" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H167" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I167" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J167" s="24"/>
+      <c r="K167" s="27"/>
+      <c r="L167" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M160" s="27"/>
-    </row>
-    <row r="161" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="14"/>
-      <c r="B161" s="18">
+      <c r="M167" s="26"/>
+    </row>
+    <row r="168" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="13"/>
+      <c r="B168" s="17">
         <v>78708</v>
       </c>
-      <c r="C161" s="19">
+      <c r="C168" s="18">
         <v>44501</v>
       </c>
-      <c r="D161" s="20">
+      <c r="D168" s="19">
         <v>30</v>
       </c>
-      <c r="E161" s="21" t="s">
+      <c r="E168" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F161" s="22" t="s">
+      <c r="F168" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G161" s="28" t="s">
+      <c r="G168" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="H161" s="23" t="s">
+      <c r="H168" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I161" s="24" t="s">
+      <c r="I168" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="J161" s="25"/>
-      <c r="K161" s="28"/>
-      <c r="L161" s="26" t="s">
+      <c r="J168" s="24"/>
+      <c r="K168" s="27"/>
+      <c r="L168" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M161" s="27"/>
-    </row>
-    <row r="162" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="14"/>
-      <c r="B162" s="18">
+      <c r="M168" s="26"/>
+    </row>
+    <row r="169" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="13"/>
+      <c r="B169" s="17">
         <v>78707</v>
       </c>
-      <c r="C162" s="19">
+      <c r="C169" s="18">
         <v>44501</v>
       </c>
-      <c r="D162" s="20">
+      <c r="D169" s="19">
         <v>80</v>
       </c>
-      <c r="E162" s="21" t="s">
+      <c r="E169" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F162" s="22" t="s">
+      <c r="F169" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G162" s="28" t="s">
+      <c r="G169" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="H162" s="23" t="s">
+      <c r="H169" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I162" s="24" t="s">
+      <c r="I169" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="J162" s="25"/>
-      <c r="K162" s="28"/>
-      <c r="L162" s="26" t="s">
+      <c r="J169" s="24"/>
+      <c r="K169" s="27"/>
+      <c r="L169" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M162" s="27"/>
+      <c r="M169" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/corona-kanjajokyou.xlsx
+++ b/corona-kanjajokyou.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Lb16z0190\広報戦略\11Twitter対応について\98 コロナ(毎日の発生状況)\HP作業用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95012ABF-7910-4196-9375-20B103C2A5AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E92F55F-4826-4D3F-A417-28D2628B218F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$169</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$172</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="146">
   <si>
     <t>非公表</t>
   </si>
@@ -142,59 +142,59 @@
   </si>
   <si>
     <t>24時現在</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>番号</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>発表日</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>年代</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>性別</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>管轄</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>居住地</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>職業</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>発症日</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>接触歴</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>備考欄</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>有</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>無</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>調査中</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>10</t>
@@ -497,7 +497,7 @@
   </si>
   <si>
     <t>新型コロナウィルスに感染した患者の状況（令和3年11月1日～）</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>男性</t>
@@ -623,7 +623,7 @@
     <rPh sb="1" eb="2">
       <t>セイ</t>
     </rPh>
-    <phoneticPr fontId="25"/>
+    <phoneticPr fontId="26"/>
   </si>
   <si>
     <t>姫路</t>
@@ -716,13 +716,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>神戸</t>
     <rPh sb="0" eb="2">
       <t>コウベ</t>
@@ -780,7 +773,67 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>令和2年3月1日以降の総数 78,618件 ※欠番252件（医療機関での発生届の取り下げ等）</t>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>西宮</t>
+    <rPh sb="0" eb="2">
+      <t>ニシノミヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>西宮市</t>
+    <rPh sb="0" eb="3">
+      <t>ニシノミヤシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>尼崎</t>
+    <rPh sb="0" eb="2">
+      <t>アマガサキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>神戸</t>
+    <rPh sb="0" eb="2">
+      <t>コウベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>欠番</t>
+    <rPh sb="0" eb="2">
+      <t>ケツバン</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>令和2年3月1日以降の総数 78,619件 ※欠番254件（医療機関での発生届の取り下げ等）</t>
     <phoneticPr fontId="0"/>
   </si>
 </sst>
@@ -791,7 +844,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -826,6 +879,12 @@
       <color theme="1"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1147,6 +1206,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1693,396 +1759,396 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -2112,49 +2178,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2163,7 +2229,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2175,7 +2241,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2190,13 +2256,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2232,6 +2298,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="47" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2271,13 +2343,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2786,13 +2858,13 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M169"/>
+  <dimension ref="A1:M172"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2823,11 +2895,11 @@
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="30">
+      <c r="J1" s="32">
         <f ca="1">TODAY()-1</f>
-        <v>44514</v>
-      </c>
-      <c r="K1" s="30"/>
+        <v>44515</v>
+      </c>
+      <c r="K1" s="32"/>
       <c r="L1" s="4" t="s">
         <v>37</v>
       </c>
@@ -2862,54 +2934,54 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="28" t="s">
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="30" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="40"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="42"/>
       <c r="J5" s="14" t="s">
         <v>48</v>
       </c>
@@ -2919,136 +2991,132 @@
       <c r="L5" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="29"/>
+      <c r="M5" s="31"/>
     </row>
     <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="17">
-        <v>78870</v>
+        <v>78873</v>
       </c>
       <c r="C6" s="18">
-        <v>44514</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>14</v>
+        <v>44515</v>
+      </c>
+      <c r="D6" s="19">
+        <v>50</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>26</v>
+        <v>137</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>138</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="23">
-        <v>44512</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26" t="s">
-        <v>32</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="17">
-        <v>78869</v>
+        <v>78872</v>
       </c>
       <c r="C7" s="18">
-        <v>44514</v>
+        <v>44515</v>
       </c>
       <c r="D7" s="19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>73</v>
+        <v>139</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>31</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>75</v>
+        <v>7</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>142</v>
       </c>
       <c r="J7" s="24"/>
-      <c r="K7" s="27"/>
+      <c r="K7" s="28"/>
       <c r="L7" s="25" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="17">
-        <v>78868</v>
+        <v>78871</v>
       </c>
       <c r="C8" s="18">
-        <v>44514</v>
+        <v>44515</v>
       </c>
       <c r="D8" s="19">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>73</v>
+        <v>140</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>141</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26" t="s">
-        <v>135</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="17">
-        <v>78867</v>
+        <v>78870</v>
       </c>
       <c r="C9" s="18">
         <v>44514</v>
       </c>
-      <c r="D9" s="19">
-        <v>40</v>
+      <c r="D9" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="I9" s="23">
+        <v>44512</v>
       </c>
       <c r="J9" s="24" t="s">
         <v>69</v>
@@ -3056,22 +3124,22 @@
       <c r="K9" s="27"/>
       <c r="L9" s="25"/>
       <c r="M9" s="26" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="17">
-        <v>78866</v>
+        <v>78869</v>
       </c>
       <c r="C10" s="18">
         <v>44514</v>
       </c>
       <c r="D10" s="19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>72</v>
@@ -3080,24 +3148,22 @@
         <v>73</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26" t="s">
-        <v>135</v>
-      </c>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="17">
-        <v>78865</v>
+        <v>78868</v>
       </c>
       <c r="C11" s="18">
         <v>44514</v>
@@ -3120,177 +3186,165 @@
       <c r="I11" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="24"/>
+      <c r="J11" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="K11" s="27"/>
-      <c r="L11" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M11" s="26"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="26" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
       <c r="B12" s="17">
-        <v>78864</v>
+        <v>78867</v>
       </c>
       <c r="C12" s="18">
         <v>44514</v>
       </c>
       <c r="D12" s="19">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="24"/>
+        <v>73</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="K12" s="27"/>
-      <c r="L12" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" s="26"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="26" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="17">
-        <v>78863</v>
+        <v>78866</v>
       </c>
       <c r="C13" s="18">
-        <v>44513</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>57</v>
+        <v>44514</v>
+      </c>
+      <c r="D13" s="19">
+        <v>20</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="23">
-        <v>44511</v>
+        <v>13</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="K13" s="27"/>
       <c r="L13" s="25"/>
       <c r="M13" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="17">
-        <v>78862</v>
-      </c>
-      <c r="C14" s="18">
-        <v>44513</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="23">
-        <v>44508</v>
-      </c>
+        <v>78865</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="24"/>
       <c r="K14" s="27"/>
-      <c r="L14" s="25" t="s">
-        <v>136</v>
-      </c>
+      <c r="L14" s="25"/>
       <c r="M14" s="26"/>
     </row>
     <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="17">
-        <v>78861</v>
+        <v>78864</v>
       </c>
       <c r="C15" s="18">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="D15" s="19">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>136</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="24"/>
       <c r="K15" s="27"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26" t="s">
-        <v>134</v>
-      </c>
+      <c r="L15" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="26"/>
     </row>
     <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="17">
-        <v>78860</v>
+        <v>78863</v>
       </c>
       <c r="C16" s="18">
         <v>44513</v>
       </c>
-      <c r="D16" s="19">
-        <v>30</v>
+      <c r="D16" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>132</v>
+        <v>0</v>
+      </c>
+      <c r="I16" s="23">
+        <v>44511</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K16" s="27"/>
       <c r="L16" s="25"/>
@@ -3301,48 +3355,46 @@
     <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="17">
-        <v>78859</v>
+        <v>78862</v>
       </c>
       <c r="C17" s="18">
         <v>44513</v>
       </c>
-      <c r="D17" s="19">
-        <v>30</v>
+      <c r="D17" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>136</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I17" s="23">
+        <v>44508</v>
+      </c>
+      <c r="J17" s="24"/>
       <c r="K17" s="27"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26" t="s">
-        <v>134</v>
-      </c>
+      <c r="L17" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="M17" s="26"/>
     </row>
     <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="17">
-        <v>78858</v>
+        <v>78861</v>
       </c>
       <c r="C18" s="18">
         <v>44513</v>
       </c>
       <c r="D18" s="19">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>127</v>
@@ -3357,27 +3409,27 @@
         <v>118</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K18" s="27"/>
       <c r="L18" s="25"/>
       <c r="M18" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
       <c r="B19" s="17">
-        <v>78857</v>
+        <v>78860</v>
       </c>
       <c r="C19" s="18">
         <v>44513</v>
       </c>
       <c r="D19" s="19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>127</v>
@@ -3392,27 +3444,27 @@
         <v>118</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K19" s="27"/>
       <c r="L19" s="25"/>
       <c r="M19" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
       <c r="B20" s="17">
-        <v>78856</v>
+        <v>78859</v>
       </c>
       <c r="C20" s="18">
         <v>44513</v>
       </c>
       <c r="D20" s="19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>127</v>
@@ -3427,21 +3479,21 @@
         <v>118</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K20" s="27"/>
       <c r="L20" s="25"/>
       <c r="M20" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="17">
-        <v>78855</v>
+        <v>78858</v>
       </c>
       <c r="C21" s="18">
         <v>44513</v>
@@ -3462,27 +3514,27 @@
         <v>118</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="25"/>
       <c r="M21" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="17">
-        <v>78854</v>
+        <v>78857</v>
       </c>
       <c r="C22" s="18">
         <v>44513</v>
       </c>
       <c r="D22" s="19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>127</v>
@@ -3497,21 +3549,21 @@
         <v>118</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="25"/>
       <c r="M22" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
       <c r="B23" s="17">
-        <v>78853</v>
+        <v>78856</v>
       </c>
       <c r="C23" s="18">
         <v>44513</v>
@@ -3532,21 +3584,21 @@
         <v>118</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="25"/>
       <c r="M23" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="B24" s="17">
-        <v>78852</v>
+        <v>78855</v>
       </c>
       <c r="C24" s="18">
         <v>44513</v>
@@ -3567,27 +3619,27 @@
         <v>118</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K24" s="27"/>
       <c r="L24" s="25"/>
       <c r="M24" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="17">
-        <v>78851</v>
+        <v>78854</v>
       </c>
       <c r="C25" s="18">
         <v>44513</v>
       </c>
       <c r="D25" s="19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>127</v>
@@ -3599,22 +3651,24 @@
         <v>129</v>
       </c>
       <c r="H25" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" s="27"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="I25" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="M25" s="26"/>
     </row>
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="17">
-        <v>78850</v>
+        <v>78853</v>
       </c>
       <c r="C26" s="18">
         <v>44513</v>
@@ -3632,214 +3686,198 @@
         <v>129</v>
       </c>
       <c r="H26" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="27"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="I26" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="J26" s="24"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="M26" s="26"/>
     </row>
     <row r="27" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="17">
-        <v>78849</v>
+        <v>78852</v>
       </c>
       <c r="C27" s="18">
         <v>44513</v>
       </c>
       <c r="D27" s="19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F27" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="G27" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="J27" s="24"/>
+      <c r="J27" s="24" t="s">
+        <v>135</v>
+      </c>
       <c r="K27" s="27"/>
-      <c r="L27" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="M27" s="26"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="26" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="13"/>
       <c r="B28" s="17">
-        <v>78848</v>
+        <v>78851</v>
       </c>
       <c r="C28" s="18">
         <v>44513</v>
       </c>
       <c r="D28" s="19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>127</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>132</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J28" s="24"/>
       <c r="K28" s="27"/>
       <c r="L28" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M28" s="26"/>
     </row>
     <row r="29" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
       <c r="B29" s="17">
-        <v>78847</v>
+        <v>78850</v>
       </c>
       <c r="C29" s="18">
-        <v>44512</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>51</v>
+        <v>44513</v>
+      </c>
+      <c r="D29" s="19">
+        <v>20</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="24" t="s">
-        <v>124</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="J29" s="24"/>
       <c r="K29" s="27"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="26" t="s">
-        <v>32</v>
-      </c>
+      <c r="L29" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="M29" s="26"/>
     </row>
     <row r="30" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
       <c r="B30" s="17">
-        <v>78846</v>
-      </c>
-      <c r="C30" s="18">
-        <v>44512</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="23">
-        <v>44509</v>
-      </c>
+        <v>78849</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
       <c r="J30" s="24"/>
       <c r="K30" s="27"/>
-      <c r="L30" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="M30" s="26" t="s">
-        <v>4</v>
-      </c>
+      <c r="L30" s="25"/>
+      <c r="M30" s="26"/>
     </row>
     <row r="31" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="13"/>
       <c r="B31" s="17">
-        <v>78845</v>
+        <v>78848</v>
       </c>
       <c r="C31" s="18">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="D31" s="19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="J31" s="24" t="s">
-        <v>124</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="J31" s="24"/>
       <c r="K31" s="27"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="26" t="s">
-        <v>120</v>
-      </c>
+      <c r="L31" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="M31" s="26"/>
     </row>
     <row r="32" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13"/>
       <c r="B32" s="17">
-        <v>78844</v>
+        <v>78847</v>
       </c>
       <c r="C32" s="18">
         <v>44512</v>
       </c>
-      <c r="D32" s="19">
-        <v>20</v>
+      <c r="D32" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="J32" s="24" t="s">
         <v>124</v>
@@ -3847,55 +3885,57 @@
       <c r="K32" s="27"/>
       <c r="L32" s="25"/>
       <c r="M32" s="26" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="13"/>
       <c r="B33" s="17">
-        <v>78843</v>
+        <v>78846</v>
       </c>
       <c r="C33" s="18">
         <v>44512</v>
       </c>
-      <c r="D33" s="19">
-        <v>80</v>
+      <c r="D33" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="23" t="s">
-        <v>125</v>
+        <v>7</v>
+      </c>
+      <c r="I33" s="23">
+        <v>44509</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="27"/>
       <c r="L33" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="M33" s="26"/>
+      <c r="M33" s="26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="13"/>
       <c r="B34" s="17">
-        <v>78842</v>
+        <v>78845</v>
       </c>
       <c r="C34" s="18">
         <v>44512</v>
       </c>
       <c r="D34" s="19">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F34" s="21" t="s">
         <v>115</v>
@@ -3904,43 +3944,45 @@
         <v>31</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I34" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J34" s="24"/>
+      <c r="J34" s="24" t="s">
+        <v>124</v>
+      </c>
       <c r="K34" s="27"/>
-      <c r="L34" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="M34" s="26"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="26" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="13"/>
       <c r="B35" s="17">
-        <v>78841</v>
+        <v>78844</v>
       </c>
       <c r="C35" s="18">
         <v>44512</v>
       </c>
       <c r="D35" s="19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J35" s="24" t="s">
         <v>124</v>
@@ -3948,83 +3990,79 @@
       <c r="K35" s="27"/>
       <c r="L35" s="25"/>
       <c r="M35" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="13"/>
       <c r="B36" s="17">
-        <v>78840</v>
+        <v>78843</v>
       </c>
       <c r="C36" s="18">
         <v>44512</v>
       </c>
       <c r="D36" s="19">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="J36" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="K36" s="27"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="26" t="s">
-        <v>123</v>
-      </c>
+      <c r="M36" s="26"/>
     </row>
     <row r="37" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="13"/>
       <c r="B37" s="17">
-        <v>78839</v>
+        <v>78842</v>
       </c>
       <c r="C37" s="18">
         <v>44512</v>
       </c>
       <c r="D37" s="19">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="J37" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="K37" s="27"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="26" t="s">
-        <v>123</v>
-      </c>
+      <c r="M37" s="26"/>
     </row>
     <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="13"/>
       <c r="B38" s="17">
-        <v>78838</v>
+        <v>78841</v>
       </c>
       <c r="C38" s="18">
         <v>44512</v>
@@ -4033,131 +4071,151 @@
         <v>30</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J38" s="24"/>
+        <v>119</v>
+      </c>
+      <c r="J38" s="24" t="s">
+        <v>124</v>
+      </c>
       <c r="K38" s="27"/>
-      <c r="L38" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="M38" s="26"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="26" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="39" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
       <c r="B39" s="17">
-        <v>78837</v>
+        <v>78840</v>
       </c>
       <c r="C39" s="18">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="D39" s="19">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="J39" s="24"/>
+        <v>119</v>
+      </c>
+      <c r="J39" s="24" t="s">
+        <v>124</v>
+      </c>
       <c r="K39" s="27"/>
-      <c r="L39" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M39" s="26"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="26" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="40" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
       <c r="B40" s="17">
-        <v>78836</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="24"/>
+        <v>78839</v>
+      </c>
+      <c r="C40" s="18">
+        <v>44512</v>
+      </c>
+      <c r="D40" s="19">
+        <v>20</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="J40" s="24" t="s">
+        <v>124</v>
+      </c>
       <c r="K40" s="27"/>
       <c r="L40" s="25"/>
-      <c r="M40" s="26"/>
+      <c r="M40" s="26" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="41" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
       <c r="B41" s="17">
-        <v>78835</v>
+        <v>78838</v>
       </c>
       <c r="C41" s="18">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="D41" s="19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="G41" s="27" t="s">
         <v>75</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="J41" s="24"/>
       <c r="K41" s="27"/>
       <c r="L41" s="25" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="M41" s="26"/>
     </row>
     <row r="42" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="17">
-        <v>78834</v>
+        <v>78837</v>
       </c>
       <c r="C42" s="18">
         <v>44511</v>
       </c>
       <c r="D42" s="19">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>109</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="H42" s="22" t="s">
         <v>114</v>
@@ -4175,252 +4233,238 @@
     <row r="43" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="17">
-        <v>78833</v>
-      </c>
-      <c r="C43" s="18">
-        <v>44510</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I43" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="24" t="s">
-        <v>107</v>
-      </c>
+        <v>78836</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="24"/>
       <c r="K43" s="27"/>
       <c r="L43" s="25"/>
-      <c r="M43" s="26" t="s">
-        <v>32</v>
-      </c>
+      <c r="M43" s="26"/>
     </row>
     <row r="44" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
       <c r="B44" s="17">
-        <v>78832</v>
+        <v>78835</v>
       </c>
       <c r="C44" s="18">
-        <v>44510</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>57</v>
+        <v>44511</v>
+      </c>
+      <c r="D44" s="19">
+        <v>20</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I44" s="23">
-        <v>44508</v>
+        <v>114</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="J44" s="24"/>
       <c r="K44" s="27"/>
       <c r="L44" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="M44" s="26" t="s">
-        <v>4</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M44" s="26"/>
     </row>
     <row r="45" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="13"/>
       <c r="B45" s="17">
-        <v>78831</v>
+        <v>78834</v>
       </c>
       <c r="C45" s="18">
-        <v>44510</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>58</v>
+        <v>44511</v>
+      </c>
+      <c r="D45" s="19">
+        <v>50</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I45" s="23">
-        <v>44508</v>
+        <v>114</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="J45" s="24"/>
       <c r="K45" s="27"/>
       <c r="L45" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="M45" s="26" t="s">
-        <v>4</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M45" s="26"/>
     </row>
     <row r="46" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="13"/>
       <c r="B46" s="17">
-        <v>78830</v>
+        <v>78833</v>
       </c>
       <c r="C46" s="18">
         <v>44510</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="23">
-        <v>44508</v>
-      </c>
-      <c r="J46" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="K46" s="27"/>
-      <c r="L46" s="25" t="s">
-        <v>107</v>
-      </c>
+      <c r="L46" s="25"/>
       <c r="M46" s="26" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="13"/>
       <c r="B47" s="17">
-        <v>78829</v>
+        <v>78832</v>
       </c>
       <c r="C47" s="18">
         <v>44510</v>
       </c>
-      <c r="D47" s="19">
-        <v>50</v>
+      <c r="D47" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I47" s="23" t="s">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="I47" s="23">
+        <v>44508</v>
       </c>
       <c r="J47" s="24"/>
       <c r="K47" s="27"/>
       <c r="L47" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M47" s="26"/>
+      <c r="M47" s="26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="13"/>
       <c r="B48" s="17">
-        <v>78828</v>
+        <v>78831</v>
       </c>
       <c r="C48" s="18">
         <v>44510</v>
       </c>
-      <c r="D48" s="19">
-        <v>30</v>
+      <c r="D48" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="I48" s="23" t="s">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="I48" s="23">
+        <v>44508</v>
       </c>
       <c r="J48" s="24"/>
       <c r="K48" s="27"/>
       <c r="L48" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M48" s="26"/>
+      <c r="M48" s="26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="13"/>
       <c r="B49" s="17">
-        <v>78827</v>
+        <v>78830</v>
       </c>
       <c r="C49" s="18">
         <v>44510</v>
       </c>
-      <c r="D49" s="19">
-        <v>30</v>
+      <c r="D49" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I49" s="23" t="s">
-        <v>75</v>
+        <v>7</v>
+      </c>
+      <c r="I49" s="23">
+        <v>44508</v>
       </c>
       <c r="J49" s="24"/>
       <c r="K49" s="27"/>
       <c r="L49" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M49" s="26"/>
+      <c r="M49" s="26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="50" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="13"/>
       <c r="B50" s="17">
-        <v>78826</v>
+        <v>78829</v>
       </c>
       <c r="C50" s="18">
         <v>44510</v>
       </c>
       <c r="D50" s="19">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>28</v>
@@ -4432,30 +4476,28 @@
         <v>80</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I50" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J50" s="24" t="s">
+      <c r="J50" s="24"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="K50" s="27"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="26" t="s">
-        <v>106</v>
-      </c>
+      <c r="M50" s="26"/>
     </row>
     <row r="51" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="13"/>
       <c r="B51" s="17">
-        <v>78825</v>
+        <v>78828</v>
       </c>
       <c r="C51" s="18">
         <v>44510</v>
       </c>
       <c r="D51" s="19">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>28</v>
@@ -4472,34 +4514,32 @@
       <c r="I51" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J51" s="24" t="s">
+      <c r="J51" s="24"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="K51" s="27"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="26" t="s">
-        <v>106</v>
-      </c>
+      <c r="M51" s="26"/>
     </row>
     <row r="52" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="13"/>
       <c r="B52" s="17">
-        <v>78824</v>
+        <v>78827</v>
       </c>
       <c r="C52" s="18">
         <v>44510</v>
       </c>
       <c r="D52" s="19">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H52" s="22" t="s">
         <v>75</v>
@@ -4517,82 +4557,86 @@
     <row r="53" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="13"/>
       <c r="B53" s="17">
-        <v>78823</v>
+        <v>78826</v>
       </c>
       <c r="C53" s="18">
         <v>44510</v>
       </c>
       <c r="D53" s="19">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="I53" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J53" s="24"/>
+      <c r="J53" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="K53" s="27"/>
-      <c r="L53" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="M53" s="26"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="26" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="54" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="13"/>
       <c r="B54" s="17">
-        <v>78822</v>
+        <v>78825</v>
       </c>
       <c r="C54" s="18">
         <v>44510</v>
       </c>
       <c r="D54" s="19">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="I54" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J54" s="24"/>
+      <c r="J54" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="K54" s="27"/>
-      <c r="L54" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="M54" s="26"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="26" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="55" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="13"/>
       <c r="B55" s="17">
-        <v>78821</v>
+        <v>78824</v>
       </c>
       <c r="C55" s="18">
         <v>44510</v>
       </c>
       <c r="D55" s="19">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F55" s="21" t="s">
         <v>70</v>
@@ -4616,16 +4660,16 @@
     <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="13"/>
       <c r="B56" s="17">
-        <v>78820</v>
+        <v>78823</v>
       </c>
       <c r="C56" s="18">
         <v>44510</v>
       </c>
       <c r="D56" s="19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F56" s="21" t="s">
         <v>70</v>
@@ -4649,16 +4693,16 @@
     <row r="57" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="13"/>
       <c r="B57" s="17">
-        <v>78819</v>
+        <v>78822</v>
       </c>
       <c r="C57" s="18">
         <v>44510</v>
       </c>
       <c r="D57" s="19">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F57" s="21" t="s">
         <v>70</v>
@@ -4682,334 +4726,330 @@
     <row r="58" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="13"/>
       <c r="B58" s="17">
-        <v>78818</v>
+        <v>78821</v>
       </c>
       <c r="C58" s="18">
-        <v>44509</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>55</v>
+        <v>44510</v>
+      </c>
+      <c r="D58" s="19">
+        <v>10</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="23">
-        <v>44508</v>
-      </c>
-      <c r="J58" s="24" t="s">
-        <v>69</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J58" s="24"/>
       <c r="K58" s="27"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="26" t="s">
-        <v>32</v>
-      </c>
+      <c r="L58" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="M58" s="26"/>
     </row>
     <row r="59" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="13"/>
       <c r="B59" s="17">
-        <v>78817</v>
+        <v>78820</v>
       </c>
       <c r="C59" s="18">
-        <v>44509</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>52</v>
+        <v>44510</v>
+      </c>
+      <c r="D59" s="19">
+        <v>10</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I59" s="23">
-        <v>44505</v>
+        <v>75</v>
+      </c>
+      <c r="I59" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="J59" s="24"/>
       <c r="K59" s="27"/>
       <c r="L59" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M59" s="26" t="s">
-        <v>4</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="M59" s="26"/>
     </row>
     <row r="60" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="13"/>
       <c r="B60" s="17">
-        <v>78816</v>
+        <v>78819</v>
       </c>
       <c r="C60" s="18">
-        <v>44509</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>14</v>
+        <v>44510</v>
+      </c>
+      <c r="D60" s="19">
+        <v>40</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G60" s="27" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="I60" s="23">
-        <v>44505</v>
-      </c>
-      <c r="J60" s="24" t="s">
-        <v>69</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I60" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J60" s="24"/>
       <c r="K60" s="27"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="26" t="s">
-        <v>32</v>
-      </c>
+      <c r="L60" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="M60" s="26"/>
     </row>
     <row r="61" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="13"/>
       <c r="B61" s="17">
-        <v>78815</v>
+        <v>78818</v>
       </c>
       <c r="C61" s="18">
         <v>44509</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I61" s="23">
-        <v>44505</v>
-      </c>
-      <c r="J61" s="24"/>
+        <v>44508</v>
+      </c>
+      <c r="J61" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="K61" s="27"/>
-      <c r="L61" s="25" t="s">
-        <v>69</v>
-      </c>
+      <c r="L61" s="25"/>
       <c r="M61" s="26" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="13"/>
       <c r="B62" s="17">
-        <v>78814</v>
+        <v>78817</v>
       </c>
       <c r="C62" s="18">
         <v>44509</v>
       </c>
-      <c r="D62" s="19">
-        <v>10</v>
+      <c r="D62" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="G62" s="27" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I62" s="23" t="s">
-        <v>75</v>
+        <v>22</v>
+      </c>
+      <c r="I62" s="23">
+        <v>44505</v>
       </c>
       <c r="J62" s="24"/>
       <c r="K62" s="27"/>
       <c r="L62" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M62" s="26"/>
+      <c r="M62" s="26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="63" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="13"/>
       <c r="B63" s="17">
-        <v>78813</v>
+        <v>78816</v>
       </c>
       <c r="C63" s="18">
         <v>44509</v>
       </c>
-      <c r="D63" s="19">
-        <v>50</v>
+      <c r="D63" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="G63" s="27" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I63" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J63" s="24"/>
+        <v>35</v>
+      </c>
+      <c r="I63" s="23">
+        <v>44505</v>
+      </c>
+      <c r="J63" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="K63" s="27"/>
-      <c r="L63" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M63" s="26"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="26" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="64" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="13"/>
       <c r="B64" s="17">
-        <v>78812</v>
+        <v>78815</v>
       </c>
       <c r="C64" s="18">
         <v>44509</v>
       </c>
-      <c r="D64" s="19">
-        <v>50</v>
+      <c r="D64" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="G64" s="27" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I64" s="23" t="s">
-        <v>75</v>
+        <v>9</v>
+      </c>
+      <c r="I64" s="23">
+        <v>44505</v>
       </c>
       <c r="J64" s="24"/>
       <c r="K64" s="27"/>
       <c r="L64" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M64" s="26"/>
+      <c r="M64" s="26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="13"/>
       <c r="B65" s="17">
-        <v>78811</v>
+        <v>78814</v>
       </c>
       <c r="C65" s="18">
         <v>44509</v>
       </c>
       <c r="D65" s="19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G65" s="27" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I65" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J65" s="24" t="s">
+      <c r="J65" s="24"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="K65" s="27"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="26" t="s">
-        <v>32</v>
-      </c>
+      <c r="M65" s="26"/>
     </row>
     <row r="66" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="13"/>
       <c r="B66" s="17">
-        <v>78810</v>
+        <v>78813</v>
       </c>
       <c r="C66" s="18">
         <v>44509</v>
       </c>
       <c r="D66" s="19">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E66" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G66" s="27" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="I66" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J66" s="24" t="s">
+      <c r="J66" s="24"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="K66" s="27"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="26" t="s">
-        <v>32</v>
-      </c>
+      <c r="M66" s="26"/>
     </row>
     <row r="67" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="13"/>
       <c r="B67" s="17">
-        <v>78809</v>
+        <v>78812</v>
       </c>
       <c r="C67" s="18">
         <v>44509</v>
       </c>
       <c r="D67" s="19">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="I67" s="23" t="s">
         <v>75</v>
@@ -5024,7 +5064,7 @@
     <row r="68" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="13"/>
       <c r="B68" s="17">
-        <v>78808</v>
+        <v>78811</v>
       </c>
       <c r="C68" s="18">
         <v>44509</v>
@@ -5033,31 +5073,33 @@
         <v>20</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G68" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="I68" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J68" s="24"/>
+      <c r="J68" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="K68" s="27"/>
-      <c r="L68" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M68" s="26"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="26" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="69" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="13"/>
       <c r="B69" s="17">
-        <v>78807</v>
+        <v>78810</v>
       </c>
       <c r="C69" s="18">
         <v>44509</v>
@@ -5066,40 +5108,42 @@
         <v>20</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G69" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="I69" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J69" s="24"/>
+      <c r="J69" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="K69" s="27"/>
-      <c r="L69" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M69" s="26"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="26" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="70" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="13"/>
       <c r="B70" s="17">
-        <v>78806</v>
+        <v>78809</v>
       </c>
       <c r="C70" s="18">
         <v>44509</v>
       </c>
       <c r="D70" s="19">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F70" s="21" t="s">
         <v>70</v>
@@ -5123,13 +5167,13 @@
     <row r="71" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="13"/>
       <c r="B71" s="17">
-        <v>78805</v>
+        <v>78808</v>
       </c>
       <c r="C71" s="18">
         <v>44509</v>
       </c>
       <c r="D71" s="19">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>27</v>
@@ -5156,16 +5200,16 @@
     <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="13"/>
       <c r="B72" s="17">
-        <v>78804</v>
+        <v>78807</v>
       </c>
       <c r="C72" s="18">
         <v>44509</v>
       </c>
       <c r="D72" s="19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F72" s="21" t="s">
         <v>70</v>
@@ -5189,133 +5233,133 @@
     <row r="73" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="13"/>
       <c r="B73" s="17">
-        <v>78803</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D73" s="19"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="23"/>
+        <v>78806</v>
+      </c>
+      <c r="C73" s="18">
+        <v>44509</v>
+      </c>
+      <c r="D73" s="19">
+        <v>40</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H73" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I73" s="23" t="s">
+        <v>75</v>
+      </c>
       <c r="J73" s="24"/>
       <c r="K73" s="27"/>
       <c r="L73" s="25" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="M73" s="26"/>
     </row>
     <row r="74" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="13"/>
       <c r="B74" s="17">
-        <v>78802</v>
+        <v>78805</v>
       </c>
       <c r="C74" s="18">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="D74" s="19">
         <v>60</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="G74" s="27" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="I74" s="23" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="J74" s="24"/>
       <c r="K74" s="27"/>
       <c r="L74" s="25" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="M74" s="26"/>
     </row>
     <row r="75" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="13"/>
       <c r="B75" s="17">
-        <v>78801</v>
+        <v>78804</v>
       </c>
       <c r="C75" s="18">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="D75" s="19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="G75" s="27" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="I75" s="23" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="J75" s="24"/>
       <c r="K75" s="27"/>
       <c r="L75" s="25" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="M75" s="26"/>
     </row>
     <row r="76" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="13"/>
       <c r="B76" s="17">
-        <v>78800</v>
-      </c>
-      <c r="C76" s="18">
-        <v>44508</v>
-      </c>
-      <c r="D76" s="19">
-        <v>50</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F76" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G76" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="H76" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="I76" s="23" t="s">
-        <v>102</v>
-      </c>
+        <v>78803</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" s="19"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="23"/>
       <c r="J76" s="24"/>
       <c r="K76" s="27"/>
       <c r="L76" s="25" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="M76" s="26"/>
     </row>
     <row r="77" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="13"/>
       <c r="B77" s="17">
-        <v>78799</v>
+        <v>78802</v>
       </c>
       <c r="C77" s="18">
         <v>44508</v>
       </c>
       <c r="D77" s="19">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E77" s="20" t="s">
         <v>99</v>
@@ -5342,16 +5386,16 @@
     <row r="78" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="13"/>
       <c r="B78" s="17">
-        <v>78798</v>
+        <v>78801</v>
       </c>
       <c r="C78" s="18">
         <v>44508</v>
       </c>
       <c r="D78" s="19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F78" s="21" t="s">
         <v>101</v>
@@ -5375,186 +5419,180 @@
     <row r="79" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="13"/>
       <c r="B79" s="17">
-        <v>78797</v>
+        <v>78800</v>
       </c>
       <c r="C79" s="18">
-        <v>44507</v>
+        <v>44508</v>
       </c>
       <c r="D79" s="19">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="I79" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J79" s="24" t="s">
-        <v>69</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J79" s="24"/>
       <c r="K79" s="27"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="26" t="s">
-        <v>95</v>
-      </c>
+      <c r="L79" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="M79" s="26"/>
     </row>
     <row r="80" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="13"/>
       <c r="B80" s="17">
-        <v>78796</v>
+        <v>78799</v>
       </c>
       <c r="C80" s="18">
-        <v>44507</v>
+        <v>44508</v>
       </c>
       <c r="D80" s="19">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="G80" s="27" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="J80" s="24"/>
       <c r="K80" s="27"/>
       <c r="L80" s="25" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="M80" s="26"/>
     </row>
     <row r="81" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="13"/>
       <c r="B81" s="17">
-        <v>78795</v>
+        <v>78798</v>
       </c>
       <c r="C81" s="18">
-        <v>44506</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>55</v>
+        <v>44508</v>
+      </c>
+      <c r="D81" s="19">
+        <v>30</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G81" s="27" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="23">
-        <v>44502</v>
+        <v>102</v>
+      </c>
+      <c r="I81" s="23" t="s">
+        <v>102</v>
       </c>
       <c r="J81" s="24"/>
       <c r="K81" s="27"/>
       <c r="L81" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="M81" s="26" t="s">
-        <v>4</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="M81" s="26"/>
     </row>
     <row r="82" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="13"/>
       <c r="B82" s="17">
-        <v>78794</v>
+        <v>78797</v>
       </c>
       <c r="C82" s="18">
-        <v>44506</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>14</v>
+        <v>44507</v>
+      </c>
+      <c r="D82" s="19">
+        <v>10</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="G82" s="27" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="I82" s="23">
-        <v>44502</v>
+        <v>64</v>
+      </c>
+      <c r="I82" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="J82" s="24" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="K82" s="27"/>
       <c r="L82" s="25"/>
       <c r="M82" s="26" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="13"/>
       <c r="B83" s="17">
-        <v>78793</v>
+        <v>78796</v>
       </c>
       <c r="C83" s="18">
-        <v>44506</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>14</v>
+        <v>44507</v>
+      </c>
+      <c r="D83" s="19">
+        <v>50</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G83" s="27" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="I83" s="23">
-        <v>44501</v>
-      </c>
-      <c r="J83" s="24" t="s">
-        <v>96</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I83" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J83" s="24"/>
       <c r="K83" s="27"/>
-      <c r="L83" s="25"/>
-      <c r="M83" s="26" t="s">
-        <v>32</v>
-      </c>
+      <c r="L83" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M83" s="26"/>
     </row>
     <row r="84" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="13"/>
       <c r="B84" s="17">
-        <v>78792</v>
+        <v>78795</v>
       </c>
       <c r="C84" s="18">
         <v>44506</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E84" s="20" t="s">
         <v>28</v>
@@ -5566,45 +5604,45 @@
         <v>11</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I84" s="23">
-        <v>44505</v>
-      </c>
-      <c r="J84" s="24" t="s">
+        <v>44502</v>
+      </c>
+      <c r="J84" s="24"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="K84" s="27"/>
-      <c r="L84" s="25"/>
       <c r="M84" s="26" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="13"/>
       <c r="B85" s="17">
-        <v>78791</v>
+        <v>78794</v>
       </c>
       <c r="C85" s="18">
         <v>44506</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I85" s="23" t="s">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="I85" s="23">
+        <v>44502</v>
       </c>
       <c r="J85" s="24" t="s">
         <v>96</v>
@@ -5618,7 +5656,7 @@
     <row r="86" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="13"/>
       <c r="B86" s="17">
-        <v>78790</v>
+        <v>78793</v>
       </c>
       <c r="C86" s="18">
         <v>44506</v>
@@ -5627,19 +5665,19 @@
         <v>14</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G86" s="27" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I86" s="23" t="s">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="I86" s="23">
+        <v>44501</v>
       </c>
       <c r="J86" s="24" t="s">
         <v>96</v>
@@ -5653,28 +5691,28 @@
     <row r="87" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="13"/>
       <c r="B87" s="17">
-        <v>78789</v>
+        <v>78792</v>
       </c>
       <c r="C87" s="18">
         <v>44506</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E87" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G87" s="27" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H87" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I87" s="23" t="s">
-        <v>3</v>
+      <c r="I87" s="23">
+        <v>44505</v>
       </c>
       <c r="J87" s="24" t="s">
         <v>96</v>
@@ -5688,16 +5726,16 @@
     <row r="88" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="13"/>
       <c r="B88" s="17">
-        <v>78788</v>
+        <v>78791</v>
       </c>
       <c r="C88" s="18">
         <v>44506</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F88" s="21" t="s">
         <v>15</v>
@@ -5708,8 +5746,8 @@
       <c r="H88" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I88" s="23">
-        <v>44502</v>
+      <c r="I88" s="23" t="s">
+        <v>3</v>
       </c>
       <c r="J88" s="24" t="s">
         <v>96</v>
@@ -5723,213 +5761,215 @@
     <row r="89" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="13"/>
       <c r="B89" s="17">
-        <v>78787</v>
+        <v>78790</v>
       </c>
       <c r="C89" s="18">
         <v>44506</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="E89" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G89" s="27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I89" s="23">
-        <v>44502</v>
-      </c>
-      <c r="J89" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="K89" s="27"/>
-      <c r="L89" s="25" t="s">
-        <v>96</v>
-      </c>
+      <c r="L89" s="25"/>
       <c r="M89" s="26" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="13"/>
       <c r="B90" s="17">
-        <v>78786</v>
+        <v>78789</v>
       </c>
       <c r="C90" s="18">
         <v>44506</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E90" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G90" s="27" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H90" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I90" s="23">
-        <v>44503</v>
-      </c>
-      <c r="J90" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J90" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="K90" s="27"/>
-      <c r="L90" s="25" t="s">
-        <v>96</v>
-      </c>
+      <c r="L90" s="25"/>
       <c r="M90" s="26" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="13"/>
       <c r="B91" s="17">
-        <v>78785</v>
+        <v>78788</v>
       </c>
       <c r="C91" s="18">
         <v>44506</v>
       </c>
-      <c r="D91" s="19">
-        <v>30</v>
+      <c r="D91" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="G91" s="27" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H91" s="22" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="I91" s="23">
-        <v>44503</v>
-      </c>
-      <c r="J91" s="24"/>
+        <v>44502</v>
+      </c>
+      <c r="J91" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="K91" s="27"/>
-      <c r="L91" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="M91" s="26"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="26" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="92" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="13"/>
       <c r="B92" s="17">
-        <v>78784</v>
+        <v>78787</v>
       </c>
       <c r="C92" s="18">
         <v>44506</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E92" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F92" s="21" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="G92" s="27" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="I92" s="23" t="s">
-        <v>92</v>
+        <v>21</v>
+      </c>
+      <c r="I92" s="23">
+        <v>44502</v>
       </c>
       <c r="J92" s="24"/>
       <c r="K92" s="27"/>
       <c r="L92" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M92" s="26"/>
+      <c r="M92" s="26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="93" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="13"/>
       <c r="B93" s="17">
-        <v>78783</v>
+        <v>78786</v>
       </c>
       <c r="C93" s="18">
         <v>44506</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E93" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F93" s="21" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G93" s="27" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="H93" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="I93" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J93" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="23">
+        <v>44503</v>
+      </c>
+      <c r="J93" s="24"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="K93" s="27"/>
-      <c r="L93" s="25"/>
       <c r="M93" s="26" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="13"/>
       <c r="B94" s="17">
-        <v>78782</v>
+        <v>78785</v>
       </c>
       <c r="C94" s="18">
         <v>44506</v>
       </c>
       <c r="D94" s="19">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E94" s="20" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="F94" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G94" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H94" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="I94" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J94" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I94" s="23">
+        <v>44503</v>
+      </c>
+      <c r="J94" s="24"/>
+      <c r="K94" s="27"/>
+      <c r="L94" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="K94" s="27"/>
-      <c r="L94" s="25"/>
-      <c r="M94" s="26" t="s">
-        <v>94</v>
-      </c>
+      <c r="M94" s="26"/>
     </row>
     <row r="95" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="13"/>
       <c r="B95" s="17">
-        <v>78781</v>
+        <v>78784</v>
       </c>
       <c r="C95" s="18">
         <v>44506</v>
@@ -5938,7 +5978,7 @@
         <v>67</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F95" s="21" t="s">
         <v>86</v>
@@ -5952,37 +5992,35 @@
       <c r="I95" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J95" s="24" t="s">
+      <c r="J95" s="24"/>
+      <c r="K95" s="27"/>
+      <c r="L95" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="K95" s="27"/>
-      <c r="L95" s="25"/>
-      <c r="M95" s="26" t="s">
-        <v>94</v>
-      </c>
+      <c r="M95" s="26"/>
     </row>
     <row r="96" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="13"/>
       <c r="B96" s="17">
-        <v>78780</v>
+        <v>78783</v>
       </c>
       <c r="C96" s="18">
         <v>44506</v>
       </c>
-      <c r="D96" s="19">
-        <v>20</v>
+      <c r="D96" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G96" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I96" s="23" t="s">
         <v>92</v>
@@ -5993,28 +6031,28 @@
       <c r="K96" s="27"/>
       <c r="L96" s="25"/>
       <c r="M96" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="13"/>
       <c r="B97" s="17">
-        <v>78779</v>
+        <v>78782</v>
       </c>
       <c r="C97" s="18">
         <v>44506</v>
       </c>
       <c r="D97" s="19">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G97" s="27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H97" s="22" t="s">
         <v>92</v>
@@ -6022,32 +6060,34 @@
       <c r="I97" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J97" s="24"/>
+      <c r="J97" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="K97" s="27"/>
-      <c r="L97" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="M97" s="26"/>
+      <c r="L97" s="25"/>
+      <c r="M97" s="26" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="98" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="13"/>
       <c r="B98" s="17">
-        <v>78778</v>
+        <v>78781</v>
       </c>
       <c r="C98" s="18">
         <v>44506</v>
       </c>
-      <c r="D98" s="19">
-        <v>20</v>
+      <c r="D98" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="E98" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G98" s="27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H98" s="22" t="s">
         <v>92</v>
@@ -6055,56 +6095,60 @@
       <c r="I98" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J98" s="24"/>
+      <c r="J98" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="K98" s="27"/>
-      <c r="L98" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="M98" s="26"/>
+      <c r="L98" s="25"/>
+      <c r="M98" s="26" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="99" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="13"/>
       <c r="B99" s="17">
-        <v>78777</v>
+        <v>78780</v>
       </c>
       <c r="C99" s="18">
         <v>44506</v>
       </c>
-      <c r="D99" s="19" t="s">
-        <v>14</v>
+      <c r="D99" s="19">
+        <v>20</v>
       </c>
       <c r="E99" s="20" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G99" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H99" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I99" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J99" s="24"/>
+      <c r="J99" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="K99" s="27"/>
-      <c r="L99" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="M99" s="26"/>
+      <c r="L99" s="25"/>
+      <c r="M99" s="26" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="100" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="13"/>
       <c r="B100" s="17">
-        <v>78776</v>
+        <v>78779</v>
       </c>
       <c r="C100" s="18">
         <v>44506</v>
       </c>
       <c r="D100" s="19">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E100" s="20" t="s">
         <v>28</v>
@@ -6131,13 +6175,13 @@
     <row r="101" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="13"/>
       <c r="B101" s="17">
-        <v>78775</v>
+        <v>78778</v>
       </c>
       <c r="C101" s="18">
         <v>44506</v>
       </c>
       <c r="D101" s="19">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E101" s="20" t="s">
         <v>28</v>
@@ -6164,13 +6208,13 @@
     <row r="102" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="13"/>
       <c r="B102" s="17">
-        <v>78774</v>
+        <v>78777</v>
       </c>
       <c r="C102" s="18">
         <v>44506</v>
       </c>
-      <c r="D102" s="19">
-        <v>30</v>
+      <c r="D102" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="E102" s="20" t="s">
         <v>27</v>
@@ -6197,16 +6241,16 @@
     <row r="103" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="13"/>
       <c r="B103" s="17">
-        <v>78773</v>
+        <v>78776</v>
       </c>
       <c r="C103" s="18">
         <v>44506</v>
       </c>
       <c r="D103" s="19">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F103" s="21" t="s">
         <v>91</v>
@@ -6230,147 +6274,141 @@
     <row r="104" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="13"/>
       <c r="B104" s="17">
-        <v>78772</v>
+        <v>78775</v>
       </c>
       <c r="C104" s="18">
-        <v>44505</v>
-      </c>
-      <c r="D104" s="19" t="s">
-        <v>54</v>
+        <v>44506</v>
+      </c>
+      <c r="D104" s="19">
+        <v>60</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="G104" s="27" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I104" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J104" s="24" t="s">
-        <v>69</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="J104" s="24"/>
       <c r="K104" s="27"/>
-      <c r="L104" s="25"/>
-      <c r="M104" s="26" t="s">
-        <v>32</v>
-      </c>
+      <c r="L104" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="M104" s="26"/>
     </row>
     <row r="105" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="13"/>
       <c r="B105" s="17">
-        <v>78771</v>
+        <v>78774</v>
       </c>
       <c r="C105" s="18">
-        <v>44505</v>
-      </c>
-      <c r="D105" s="19" t="s">
-        <v>53</v>
+        <v>44506</v>
+      </c>
+      <c r="D105" s="19">
+        <v>30</v>
       </c>
       <c r="E105" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="G105" s="27" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="H105" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I105" s="23">
-        <v>44501</v>
+        <v>92</v>
+      </c>
+      <c r="I105" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="J105" s="24"/>
       <c r="K105" s="27"/>
       <c r="L105" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M105" s="26" t="s">
-        <v>4</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="M105" s="26"/>
     </row>
     <row r="106" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="13"/>
       <c r="B106" s="17">
-        <v>78770</v>
+        <v>78773</v>
       </c>
       <c r="C106" s="18">
-        <v>44505</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>52</v>
+        <v>44506</v>
+      </c>
+      <c r="D106" s="19">
+        <v>40</v>
       </c>
       <c r="E106" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="G106" s="27" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="H106" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I106" s="23">
-        <v>44504</v>
+        <v>92</v>
+      </c>
+      <c r="I106" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="J106" s="24"/>
       <c r="K106" s="27"/>
       <c r="L106" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M106" s="26" t="s">
-        <v>4</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="M106" s="26"/>
     </row>
     <row r="107" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="13"/>
       <c r="B107" s="17">
-        <v>78769</v>
+        <v>78772</v>
       </c>
       <c r="C107" s="18">
         <v>44505</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E107" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G107" s="27" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="H107" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I107" s="23">
-        <v>44500</v>
-      </c>
-      <c r="J107" s="24"/>
+        <v>12</v>
+      </c>
+      <c r="I107" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J107" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="K107" s="27"/>
-      <c r="L107" s="25" t="s">
-        <v>69</v>
-      </c>
+      <c r="L107" s="25"/>
       <c r="M107" s="26" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="13"/>
       <c r="B108" s="17">
-        <v>78768</v>
+        <v>78771</v>
       </c>
       <c r="C108" s="18">
         <v>44505</v>
@@ -6382,144 +6420,150 @@
         <v>27</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H108" s="22" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I108" s="23">
-        <v>44498</v>
-      </c>
-      <c r="J108" s="24" t="s">
+        <v>44501</v>
+      </c>
+      <c r="J108" s="24"/>
+      <c r="K108" s="27"/>
+      <c r="L108" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="K108" s="27"/>
-      <c r="L108" s="25"/>
       <c r="M108" s="26" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="13"/>
       <c r="B109" s="17">
-        <v>78767</v>
+        <v>78770</v>
       </c>
       <c r="C109" s="18">
         <v>44505</v>
       </c>
-      <c r="D109" s="19">
-        <v>30</v>
+      <c r="D109" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="G109" s="27" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="H109" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I109" s="23" t="s">
-        <v>75</v>
+        <v>12</v>
+      </c>
+      <c r="I109" s="23">
+        <v>44504</v>
       </c>
       <c r="J109" s="24"/>
       <c r="K109" s="27"/>
       <c r="L109" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M109" s="26"/>
+      <c r="M109" s="26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="110" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="13"/>
       <c r="B110" s="17">
-        <v>78766</v>
+        <v>78769</v>
       </c>
       <c r="C110" s="18">
         <v>44505</v>
       </c>
-      <c r="D110" s="19">
-        <v>10</v>
+      <c r="D110" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="E110" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="G110" s="27" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="H110" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I110" s="23" t="s">
-        <v>75</v>
+        <v>9</v>
+      </c>
+      <c r="I110" s="23">
+        <v>44500</v>
       </c>
       <c r="J110" s="24"/>
       <c r="K110" s="27"/>
       <c r="L110" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M110" s="26"/>
+      <c r="M110" s="26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="111" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="13"/>
       <c r="B111" s="17">
-        <v>78765</v>
+        <v>78768</v>
       </c>
       <c r="C111" s="18">
         <v>44505</v>
       </c>
-      <c r="D111" s="19">
-        <v>60</v>
+      <c r="D111" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="E111" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F111" s="21" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="G111" s="27" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="H111" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I111" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J111" s="24"/>
+        <v>21</v>
+      </c>
+      <c r="I111" s="23">
+        <v>44498</v>
+      </c>
+      <c r="J111" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="K111" s="27"/>
-      <c r="L111" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M111" s="26"/>
+      <c r="L111" s="25"/>
+      <c r="M111" s="26" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="112" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="13"/>
       <c r="B112" s="17">
-        <v>78764</v>
+        <v>78767</v>
       </c>
       <c r="C112" s="18">
         <v>44505</v>
       </c>
       <c r="D112" s="19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E112" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F112" s="21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G112" s="27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H112" s="22" t="s">
         <v>75</v>
@@ -6537,22 +6581,22 @@
     <row r="113" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="13"/>
       <c r="B113" s="17">
-        <v>78763</v>
+        <v>78766</v>
       </c>
       <c r="C113" s="18">
         <v>44505</v>
       </c>
       <c r="D113" s="19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E113" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F113" s="21" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G113" s="27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H113" s="22" t="s">
         <v>75</v>
@@ -6570,25 +6614,25 @@
     <row r="114" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="13"/>
       <c r="B114" s="17">
-        <v>78762</v>
+        <v>78765</v>
       </c>
       <c r="C114" s="18">
         <v>44505</v>
       </c>
       <c r="D114" s="19">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E114" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F114" s="21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G114" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H114" s="22" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="I114" s="23" t="s">
         <v>75</v>
@@ -6603,13 +6647,13 @@
     <row r="115" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="13"/>
       <c r="B115" s="17">
-        <v>78761</v>
+        <v>78764</v>
       </c>
       <c r="C115" s="18">
         <v>44505</v>
       </c>
       <c r="D115" s="19">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E115" s="20" t="s">
         <v>28</v>
@@ -6636,16 +6680,16 @@
     <row r="116" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="13"/>
       <c r="B116" s="17">
-        <v>78760</v>
+        <v>78763</v>
       </c>
       <c r="C116" s="18">
         <v>44505</v>
       </c>
       <c r="D116" s="19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E116" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F116" s="21" t="s">
         <v>70</v>
@@ -6669,7 +6713,7 @@
     <row r="117" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="13"/>
       <c r="B117" s="17">
-        <v>78759</v>
+        <v>78762</v>
       </c>
       <c r="C117" s="18">
         <v>44505</v>
@@ -6702,13 +6746,13 @@
     <row r="118" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="13"/>
       <c r="B118" s="17">
-        <v>78758</v>
+        <v>78761</v>
       </c>
       <c r="C118" s="18">
         <v>44505</v>
       </c>
-      <c r="D118" s="19" t="s">
-        <v>14</v>
+      <c r="D118" s="19">
+        <v>50</v>
       </c>
       <c r="E118" s="20" t="s">
         <v>28</v>
@@ -6735,7 +6779,7 @@
     <row r="119" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="13"/>
       <c r="B119" s="17">
-        <v>78757</v>
+        <v>78760</v>
       </c>
       <c r="C119" s="18">
         <v>44505</v>
@@ -6768,7 +6812,7 @@
     <row r="120" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="13"/>
       <c r="B120" s="17">
-        <v>78756</v>
+        <v>78759</v>
       </c>
       <c r="C120" s="18">
         <v>44505</v>
@@ -6777,7 +6821,7 @@
         <v>20</v>
       </c>
       <c r="E120" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F120" s="21" t="s">
         <v>70</v>
@@ -6801,133 +6845,127 @@
     <row r="121" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="13"/>
       <c r="B121" s="17">
-        <v>78755</v>
+        <v>78758</v>
       </c>
       <c r="C121" s="18">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E121" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F121" s="21" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="G121" s="27" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H121" s="22" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I121" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J121" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J121" s="24"/>
+      <c r="K121" s="27"/>
+      <c r="L121" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="K121" s="27"/>
-      <c r="L121" s="25"/>
-      <c r="M121" s="26" t="s">
-        <v>32</v>
-      </c>
+      <c r="M121" s="26"/>
     </row>
     <row r="122" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="13"/>
       <c r="B122" s="17">
-        <v>78754</v>
+        <v>78757</v>
       </c>
       <c r="C122" s="18">
-        <v>44504</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>53</v>
+        <v>44505</v>
+      </c>
+      <c r="D122" s="19">
+        <v>30</v>
       </c>
       <c r="E122" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F122" s="21" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="G122" s="27" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="H122" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I122" s="23">
-        <v>44502</v>
-      </c>
-      <c r="J122" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I122" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J122" s="24"/>
+      <c r="K122" s="27"/>
+      <c r="L122" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="K122" s="27"/>
-      <c r="L122" s="25"/>
-      <c r="M122" s="26" t="s">
-        <v>32</v>
-      </c>
+      <c r="M122" s="26"/>
     </row>
     <row r="123" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="13"/>
       <c r="B123" s="17">
-        <v>78753</v>
+        <v>78756</v>
       </c>
       <c r="C123" s="18">
-        <v>44504</v>
-      </c>
-      <c r="D123" s="19" t="s">
-        <v>56</v>
+        <v>44505</v>
+      </c>
+      <c r="D123" s="19">
+        <v>20</v>
       </c>
       <c r="E123" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F123" s="21" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="G123" s="27" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="H123" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I123" s="23">
-        <v>44501</v>
-      </c>
-      <c r="J123" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I123" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J123" s="24"/>
+      <c r="K123" s="27"/>
+      <c r="L123" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="K123" s="27"/>
-      <c r="L123" s="25"/>
-      <c r="M123" s="26" t="s">
-        <v>32</v>
-      </c>
+      <c r="M123" s="26"/>
     </row>
     <row r="124" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="13"/>
       <c r="B124" s="17">
-        <v>78752</v>
+        <v>78755</v>
       </c>
       <c r="C124" s="18">
         <v>44504</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E124" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F124" s="21" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G124" s="27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H124" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I124" s="23">
-        <v>44502</v>
+      <c r="I124" s="23" t="s">
+        <v>3</v>
       </c>
       <c r="J124" s="24" t="s">
         <v>69</v>
@@ -6941,7 +6979,7 @@
     <row r="125" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="13"/>
       <c r="B125" s="17">
-        <v>78751</v>
+        <v>78754</v>
       </c>
       <c r="C125" s="18">
         <v>44504</v>
@@ -6950,7 +6988,7 @@
         <v>53</v>
       </c>
       <c r="E125" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F125" s="21" t="s">
         <v>25</v>
@@ -6976,112 +7014,130 @@
     <row r="126" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="13"/>
       <c r="B126" s="17">
-        <v>78750</v>
+        <v>78753</v>
       </c>
       <c r="C126" s="18">
         <v>44504</v>
       </c>
-      <c r="D126" s="19">
-        <v>40</v>
+      <c r="D126" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="E126" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F126" s="21" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G126" s="27" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="H126" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I126" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J126" s="24"/>
+        <v>13</v>
+      </c>
+      <c r="I126" s="23">
+        <v>44501</v>
+      </c>
+      <c r="J126" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="K126" s="27"/>
-      <c r="L126" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M126" s="26"/>
+      <c r="L126" s="25"/>
+      <c r="M126" s="26" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="127" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="13"/>
       <c r="B127" s="17">
-        <v>78749</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D127" s="19"/>
-      <c r="E127" s="20"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="27"/>
-      <c r="H127" s="22"/>
-      <c r="I127" s="23"/>
-      <c r="J127" s="24"/>
+        <v>78752</v>
+      </c>
+      <c r="C127" s="18">
+        <v>44504</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E127" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F127" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G127" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H127" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" s="23">
+        <v>44502</v>
+      </c>
+      <c r="J127" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="K127" s="27"/>
-      <c r="L127" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="M127" s="26"/>
+      <c r="L127" s="25"/>
+      <c r="M127" s="26" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="128" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="13"/>
       <c r="B128" s="17">
-        <v>78748</v>
+        <v>78751</v>
       </c>
       <c r="C128" s="18">
         <v>44504</v>
       </c>
-      <c r="D128" s="19">
-        <v>40</v>
+      <c r="D128" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="E128" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F128" s="21" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="G128" s="27" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H128" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I128" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J128" s="24"/>
+        <v>12</v>
+      </c>
+      <c r="I128" s="23">
+        <v>44502</v>
+      </c>
+      <c r="J128" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="K128" s="27"/>
-      <c r="L128" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M128" s="26"/>
+      <c r="L128" s="25"/>
+      <c r="M128" s="26" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="129" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="13"/>
       <c r="B129" s="17">
-        <v>78747</v>
+        <v>78750</v>
       </c>
       <c r="C129" s="18">
         <v>44504</v>
       </c>
       <c r="D129" s="19">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E129" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F129" s="21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G129" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H129" s="22" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="I129" s="23" t="s">
         <v>75</v>
@@ -7096,46 +7152,34 @@
     <row r="130" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="13"/>
       <c r="B130" s="17">
-        <v>78746</v>
-      </c>
-      <c r="C130" s="18">
-        <v>44504</v>
-      </c>
-      <c r="D130" s="19">
-        <v>60</v>
-      </c>
-      <c r="E130" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F130" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G130" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H130" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I130" s="23" t="s">
-        <v>75</v>
-      </c>
+        <v>78749</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D130" s="19"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="22"/>
+      <c r="I130" s="23"/>
       <c r="J130" s="24"/>
       <c r="K130" s="27"/>
       <c r="L130" s="25" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="M130" s="26"/>
     </row>
     <row r="131" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="13"/>
       <c r="B131" s="17">
-        <v>78745</v>
+        <v>78748</v>
       </c>
       <c r="C131" s="18">
         <v>44504</v>
       </c>
       <c r="D131" s="19">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E131" s="20" t="s">
         <v>28</v>
@@ -7162,165 +7206,159 @@
     <row r="132" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="13"/>
       <c r="B132" s="17">
-        <v>78744</v>
+        <v>78747</v>
       </c>
       <c r="C132" s="18">
-        <v>44503</v>
-      </c>
-      <c r="D132" s="19" t="s">
-        <v>54</v>
+        <v>44504</v>
+      </c>
+      <c r="D132" s="19">
+        <v>70</v>
       </c>
       <c r="E132" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F132" s="21" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="G132" s="27" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H132" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I132" s="23">
-        <v>44497</v>
+        <v>75</v>
+      </c>
+      <c r="I132" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="J132" s="24"/>
       <c r="K132" s="27"/>
       <c r="L132" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M132" s="26" t="s">
-        <v>4</v>
-      </c>
+      <c r="M132" s="26"/>
     </row>
     <row r="133" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="13"/>
       <c r="B133" s="17">
-        <v>78743</v>
+        <v>78746</v>
       </c>
       <c r="C133" s="18">
-        <v>44503</v>
-      </c>
-      <c r="D133" s="19" t="s">
-        <v>58</v>
+        <v>44504</v>
+      </c>
+      <c r="D133" s="19">
+        <v>60</v>
       </c>
       <c r="E133" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F133" s="21" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G133" s="27" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H133" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I133" s="23">
-        <v>44497</v>
-      </c>
-      <c r="J133" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I133" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J133" s="24"/>
+      <c r="K133" s="27"/>
+      <c r="L133" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="K133" s="27"/>
-      <c r="L133" s="25"/>
-      <c r="M133" s="26" t="s">
-        <v>32</v>
-      </c>
+      <c r="M133" s="26"/>
     </row>
     <row r="134" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="13"/>
       <c r="B134" s="17">
-        <v>78742</v>
+        <v>78745</v>
       </c>
       <c r="C134" s="18">
-        <v>44503</v>
-      </c>
-      <c r="D134" s="19" t="s">
-        <v>53</v>
+        <v>44504</v>
+      </c>
+      <c r="D134" s="19">
+        <v>10</v>
       </c>
       <c r="E134" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F134" s="21" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G134" s="27" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H134" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I134" s="23">
-        <v>44498</v>
-      </c>
-      <c r="J134" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I134" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J134" s="24"/>
+      <c r="K134" s="27"/>
+      <c r="L134" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="K134" s="27"/>
-      <c r="L134" s="25"/>
-      <c r="M134" s="26" t="s">
-        <v>32</v>
-      </c>
+      <c r="M134" s="26"/>
     </row>
     <row r="135" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="13"/>
       <c r="B135" s="17">
-        <v>78741</v>
+        <v>78744</v>
       </c>
       <c r="C135" s="18">
         <v>44503</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E135" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F135" s="21" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G135" s="27" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="H135" s="22" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="I135" s="23">
-        <v>44501</v>
-      </c>
-      <c r="J135" s="24" t="s">
+        <v>44497</v>
+      </c>
+      <c r="J135" s="24"/>
+      <c r="K135" s="27"/>
+      <c r="L135" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="K135" s="27"/>
-      <c r="L135" s="25"/>
       <c r="M135" s="26" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="13"/>
       <c r="B136" s="17">
-        <v>78740</v>
+        <v>78743</v>
       </c>
       <c r="C136" s="18">
         <v>44503</v>
       </c>
       <c r="D136" s="19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E136" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F136" s="21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G136" s="27" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H136" s="22" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I136" s="23">
         <v>44497</v>
@@ -7337,28 +7375,28 @@
     <row r="137" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="13"/>
       <c r="B137" s="17">
-        <v>78739</v>
+        <v>78742</v>
       </c>
       <c r="C137" s="18">
         <v>44503</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E137" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F137" s="21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G137" s="27" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H137" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I137" s="23" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="I137" s="23">
+        <v>44498</v>
       </c>
       <c r="J137" s="24" t="s">
         <v>69</v>
@@ -7372,28 +7410,28 @@
     <row r="138" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="13"/>
       <c r="B138" s="17">
-        <v>78738</v>
+        <v>78741</v>
       </c>
       <c r="C138" s="18">
         <v>44503</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E138" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F138" s="21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G138" s="27" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H138" s="22" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="I138" s="23">
-        <v>44500</v>
+        <v>44501</v>
       </c>
       <c r="J138" s="24" t="s">
         <v>69</v>
@@ -7407,7 +7445,7 @@
     <row r="139" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="13"/>
       <c r="B139" s="17">
-        <v>78737</v>
+        <v>78740</v>
       </c>
       <c r="C139" s="18">
         <v>44503</v>
@@ -7416,54 +7454,54 @@
         <v>52</v>
       </c>
       <c r="E139" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F139" s="21" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G139" s="27" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H139" s="22" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I139" s="23">
-        <v>44499</v>
-      </c>
-      <c r="J139" s="24"/>
+        <v>44497</v>
+      </c>
+      <c r="J139" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="K139" s="27"/>
-      <c r="L139" s="25" t="s">
-        <v>69</v>
-      </c>
+      <c r="L139" s="25"/>
       <c r="M139" s="26" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="13"/>
       <c r="B140" s="17">
-        <v>78736</v>
+        <v>78739</v>
       </c>
       <c r="C140" s="18">
         <v>44503</v>
       </c>
-      <c r="D140" s="19">
-        <v>60</v>
+      <c r="D140" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="E140" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F140" s="21" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G140" s="27" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="H140" s="22" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I140" s="23" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="J140" s="24" t="s">
         <v>69</v>
@@ -7471,165 +7509,169 @@
       <c r="K140" s="27"/>
       <c r="L140" s="25"/>
       <c r="M140" s="26" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="13"/>
       <c r="B141" s="17">
-        <v>78735</v>
+        <v>78738</v>
       </c>
       <c r="C141" s="18">
         <v>44503</v>
       </c>
-      <c r="D141" s="19">
-        <v>20</v>
+      <c r="D141" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="E141" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F141" s="21" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="G141" s="27" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="H141" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I141" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J141" s="24"/>
+        <v>13</v>
+      </c>
+      <c r="I141" s="23">
+        <v>44500</v>
+      </c>
+      <c r="J141" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="K141" s="27"/>
-      <c r="L141" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M141" s="26"/>
+      <c r="L141" s="25"/>
+      <c r="M141" s="26" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="142" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="13"/>
       <c r="B142" s="17">
-        <v>78734</v>
+        <v>78737</v>
       </c>
       <c r="C142" s="18">
         <v>44503</v>
       </c>
-      <c r="D142" s="19">
-        <v>80</v>
+      <c r="D142" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="E142" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F142" s="21" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="G142" s="27" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="H142" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I142" s="23" t="s">
-        <v>75</v>
+        <v>13</v>
+      </c>
+      <c r="I142" s="23">
+        <v>44499</v>
       </c>
       <c r="J142" s="24"/>
       <c r="K142" s="27"/>
       <c r="L142" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M142" s="26"/>
+      <c r="M142" s="26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="143" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="13"/>
       <c r="B143" s="17">
-        <v>78733</v>
+        <v>78736</v>
       </c>
       <c r="C143" s="18">
         <v>44503</v>
       </c>
       <c r="D143" s="19">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E143" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F143" s="21" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G143" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H143" s="22" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I143" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J143" s="24"/>
+      <c r="J143" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="K143" s="27"/>
-      <c r="L143" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M143" s="26"/>
+      <c r="L143" s="25"/>
+      <c r="M143" s="26" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="144" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="13"/>
       <c r="B144" s="17">
-        <v>78732</v>
+        <v>78735</v>
       </c>
       <c r="C144" s="18">
         <v>44503</v>
       </c>
-      <c r="D144" s="19" t="s">
-        <v>14</v>
+      <c r="D144" s="19">
+        <v>20</v>
       </c>
       <c r="E144" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F144" s="21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G144" s="27" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H144" s="22" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I144" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J144" s="24" t="s">
+      <c r="J144" s="24"/>
+      <c r="K144" s="27"/>
+      <c r="L144" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="K144" s="27"/>
-      <c r="L144" s="25"/>
-      <c r="M144" s="26" t="s">
-        <v>77</v>
-      </c>
+      <c r="M144" s="26"/>
     </row>
     <row r="145" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="13"/>
       <c r="B145" s="17">
-        <v>78731</v>
+        <v>78734</v>
       </c>
       <c r="C145" s="18">
         <v>44503</v>
       </c>
-      <c r="D145" s="19" t="s">
-        <v>14</v>
+      <c r="D145" s="19">
+        <v>80</v>
       </c>
       <c r="E145" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F145" s="21" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G145" s="27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H145" s="22" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="I145" s="23" t="s">
         <v>75</v>
@@ -7644,25 +7686,25 @@
     <row r="146" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="13"/>
       <c r="B146" s="17">
-        <v>78730</v>
+        <v>78733</v>
       </c>
       <c r="C146" s="18">
         <v>44503</v>
       </c>
-      <c r="D146" s="19" t="s">
-        <v>14</v>
+      <c r="D146" s="19">
+        <v>10</v>
       </c>
       <c r="E146" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G146" s="27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H146" s="22" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I146" s="23" t="s">
         <v>75</v>
@@ -7677,7 +7719,7 @@
     <row r="147" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="13"/>
       <c r="B147" s="17">
-        <v>78729</v>
+        <v>78732</v>
       </c>
       <c r="C147" s="18">
         <v>44503</v>
@@ -7686,40 +7728,42 @@
         <v>14</v>
       </c>
       <c r="E147" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F147" s="21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G147" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H147" s="22" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I147" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J147" s="24"/>
+      <c r="J147" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="K147" s="27"/>
-      <c r="L147" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M147" s="26"/>
+      <c r="L147" s="25"/>
+      <c r="M147" s="26" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="148" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="13"/>
       <c r="B148" s="17">
-        <v>78728</v>
+        <v>78731</v>
       </c>
       <c r="C148" s="18">
         <v>44503</v>
       </c>
-      <c r="D148" s="19">
-        <v>30</v>
+      <c r="D148" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="E148" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F148" s="21" t="s">
         <v>70</v>
@@ -7743,13 +7787,13 @@
     <row r="149" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="13"/>
       <c r="B149" s="17">
-        <v>78727</v>
+        <v>78730</v>
       </c>
       <c r="C149" s="18">
         <v>44503</v>
       </c>
-      <c r="D149" s="19">
-        <v>50</v>
+      <c r="D149" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="E149" s="20" t="s">
         <v>27</v>
@@ -7776,16 +7820,16 @@
     <row r="150" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="13"/>
       <c r="B150" s="17">
-        <v>78726</v>
+        <v>78729</v>
       </c>
       <c r="C150" s="18">
         <v>44503</v>
       </c>
-      <c r="D150" s="19">
-        <v>10</v>
+      <c r="D150" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="E150" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F150" s="21" t="s">
         <v>70</v>
@@ -7809,16 +7853,16 @@
     <row r="151" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="13"/>
       <c r="B151" s="17">
-        <v>78725</v>
+        <v>78728</v>
       </c>
       <c r="C151" s="18">
         <v>44503</v>
       </c>
       <c r="D151" s="19">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E151" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F151" s="21" t="s">
         <v>70</v>
@@ -7842,7 +7886,7 @@
     <row r="152" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="13"/>
       <c r="B152" s="17">
-        <v>78724</v>
+        <v>78727</v>
       </c>
       <c r="C152" s="18">
         <v>44503</v>
@@ -7851,7 +7895,7 @@
         <v>50</v>
       </c>
       <c r="E152" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F152" s="21" t="s">
         <v>70</v>
@@ -7875,16 +7919,16 @@
     <row r="153" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="13"/>
       <c r="B153" s="17">
-        <v>78723</v>
+        <v>78726</v>
       </c>
       <c r="C153" s="18">
         <v>44503</v>
       </c>
       <c r="D153" s="19">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E153" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F153" s="21" t="s">
         <v>70</v>
@@ -7908,13 +7952,13 @@
     <row r="154" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="13"/>
       <c r="B154" s="17">
-        <v>78722</v>
+        <v>78725</v>
       </c>
       <c r="C154" s="18">
         <v>44503</v>
       </c>
-      <c r="D154" s="19" t="s">
-        <v>14</v>
+      <c r="D154" s="19">
+        <v>10</v>
       </c>
       <c r="E154" s="20" t="s">
         <v>27</v>
@@ -7941,7 +7985,7 @@
     <row r="155" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="13"/>
       <c r="B155" s="17">
-        <v>78721</v>
+        <v>78724</v>
       </c>
       <c r="C155" s="18">
         <v>44503</v>
@@ -7950,7 +7994,7 @@
         <v>50</v>
       </c>
       <c r="E155" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F155" s="21" t="s">
         <v>70</v>
@@ -7974,7 +8018,7 @@
     <row r="156" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="13"/>
       <c r="B156" s="17">
-        <v>78720</v>
+        <v>78723</v>
       </c>
       <c r="C156" s="18">
         <v>44503</v>
@@ -8007,55 +8051,55 @@
     <row r="157" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="13"/>
       <c r="B157" s="17">
-        <v>78719</v>
+        <v>78722</v>
       </c>
       <c r="C157" s="18">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E157" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F157" s="21" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="G157" s="27" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H157" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I157" s="23">
-        <v>44493</v>
+        <v>75</v>
+      </c>
+      <c r="I157" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="J157" s="24"/>
       <c r="K157" s="27"/>
       <c r="L157" s="25" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M157" s="26"/>
     </row>
     <row r="158" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="13"/>
       <c r="B158" s="17">
-        <v>78718</v>
+        <v>78721</v>
       </c>
       <c r="C158" s="18">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D158" s="19">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E158" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G158" s="27" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="H158" s="22" t="s">
         <v>75</v>
@@ -8066,29 +8110,29 @@
       <c r="J158" s="24"/>
       <c r="K158" s="27"/>
       <c r="L158" s="25" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M158" s="26"/>
     </row>
     <row r="159" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="13"/>
       <c r="B159" s="17">
-        <v>78717</v>
+        <v>78720</v>
       </c>
       <c r="C159" s="18">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D159" s="19">
         <v>30</v>
       </c>
       <c r="E159" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F159" s="21" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G159" s="27" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="H159" s="22" t="s">
         <v>75</v>
@@ -8099,35 +8143,35 @@
       <c r="J159" s="24"/>
       <c r="K159" s="27"/>
       <c r="L159" s="25" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M159" s="26"/>
     </row>
     <row r="160" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="13"/>
       <c r="B160" s="17">
-        <v>78716</v>
+        <v>78719</v>
       </c>
       <c r="C160" s="18">
         <v>44502</v>
       </c>
-      <c r="D160" s="19">
-        <v>30</v>
+      <c r="D160" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="E160" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F160" s="21" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="G160" s="27" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H160" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I160" s="23" t="s">
-        <v>75</v>
+        <v>12</v>
+      </c>
+      <c r="I160" s="23">
+        <v>44493</v>
       </c>
       <c r="J160" s="24"/>
       <c r="K160" s="27"/>
@@ -8139,57 +8183,55 @@
     <row r="161" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="13"/>
       <c r="B161" s="17">
-        <v>78715</v>
+        <v>78718</v>
       </c>
       <c r="C161" s="18">
         <v>44502</v>
       </c>
       <c r="D161" s="19">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E161" s="20" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="F161" s="21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G161" s="27" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="H161" s="22" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="I161" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J161" s="24" t="s">
+      <c r="J161" s="24"/>
+      <c r="K161" s="27"/>
+      <c r="L161" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="K161" s="27"/>
-      <c r="L161" s="25"/>
-      <c r="M161" s="26" t="s">
-        <v>77</v>
-      </c>
+      <c r="M161" s="26"/>
     </row>
     <row r="162" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="13"/>
       <c r="B162" s="17">
-        <v>78714</v>
+        <v>78717</v>
       </c>
       <c r="C162" s="18">
         <v>44502</v>
       </c>
       <c r="D162" s="19">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E162" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F162" s="21" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G162" s="27" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H162" s="22" t="s">
         <v>75</v>
@@ -8207,22 +8249,22 @@
     <row r="163" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="13"/>
       <c r="B163" s="17">
-        <v>78713</v>
+        <v>78716</v>
       </c>
       <c r="C163" s="18">
         <v>44502</v>
       </c>
       <c r="D163" s="19">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E163" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F163" s="21" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G163" s="27" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="H163" s="22" t="s">
         <v>75</v>
@@ -8240,46 +8282,48 @@
     <row r="164" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="13"/>
       <c r="B164" s="17">
-        <v>78712</v>
+        <v>78715</v>
       </c>
       <c r="C164" s="18">
         <v>44502</v>
       </c>
       <c r="D164" s="19">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E164" s="20" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F164" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G164" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H164" s="22" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="I164" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J164" s="24"/>
+      <c r="J164" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="K164" s="27"/>
-      <c r="L164" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M164" s="26"/>
+      <c r="L164" s="25"/>
+      <c r="M164" s="26" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="165" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="13"/>
       <c r="B165" s="17">
-        <v>78711</v>
+        <v>78714</v>
       </c>
       <c r="C165" s="18">
         <v>44502</v>
       </c>
       <c r="D165" s="19">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E165" s="20" t="s">
         <v>27</v>
@@ -8306,7 +8350,7 @@
     <row r="166" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="13"/>
       <c r="B166" s="17">
-        <v>78710</v>
+        <v>78713</v>
       </c>
       <c r="C166" s="18">
         <v>44502</v>
@@ -8339,16 +8383,16 @@
     <row r="167" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="13"/>
       <c r="B167" s="17">
-        <v>78709</v>
+        <v>78712</v>
       </c>
       <c r="C167" s="18">
         <v>44502</v>
       </c>
       <c r="D167" s="19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E167" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F167" s="21" t="s">
         <v>74</v>
@@ -8372,68 +8416,167 @@
     <row r="168" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="13"/>
       <c r="B168" s="17">
-        <v>78708</v>
+        <v>78711</v>
       </c>
       <c r="C168" s="18">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="D168" s="19">
         <v>30</v>
       </c>
       <c r="E168" s="20" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="F168" s="21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G168" s="27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H168" s="22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I168" s="23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J168" s="24"/>
       <c r="K168" s="27"/>
       <c r="L168" s="25" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M168" s="26"/>
     </row>
     <row r="169" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="13"/>
       <c r="B169" s="17">
-        <v>78707</v>
+        <v>78710</v>
       </c>
       <c r="C169" s="18">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="D169" s="19">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E169" s="20" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="F169" s="21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G169" s="27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H169" s="22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I169" s="23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J169" s="24"/>
       <c r="K169" s="27"/>
       <c r="L169" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="M169" s="26"/>
+    </row>
+    <row r="170" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="13"/>
+      <c r="B170" s="17">
+        <v>78709</v>
+      </c>
+      <c r="C170" s="18">
+        <v>44502</v>
+      </c>
+      <c r="D170" s="19">
+        <v>10</v>
+      </c>
+      <c r="E170" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F170" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G170" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H170" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I170" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J170" s="24"/>
+      <c r="K170" s="27"/>
+      <c r="L170" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="M170" s="26"/>
+    </row>
+    <row r="171" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="13"/>
+      <c r="B171" s="17">
+        <v>78708</v>
+      </c>
+      <c r="C171" s="18">
+        <v>44501</v>
+      </c>
+      <c r="D171" s="19">
+        <v>30</v>
+      </c>
+      <c r="E171" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F171" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G171" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H171" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="I171" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J171" s="24"/>
+      <c r="K171" s="27"/>
+      <c r="L171" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M169" s="26"/>
+      <c r="M171" s="26"/>
+    </row>
+    <row r="172" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="13"/>
+      <c r="B172" s="17">
+        <v>78707</v>
+      </c>
+      <c r="C172" s="18">
+        <v>44501</v>
+      </c>
+      <c r="D172" s="19">
+        <v>80</v>
+      </c>
+      <c r="E172" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F172" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G172" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H172" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="I172" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J172" s="24"/>
+      <c r="K172" s="27"/>
+      <c r="L172" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M172" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/corona-kanjajokyou.xlsx
+++ b/corona-kanjajokyou.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Lb16z0190\広報戦略\11Twitter対応について\98 コロナ(毎日の発生状況)\HP作業用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E92F55F-4826-4D3F-A417-28D2628B218F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1A0A8A8-C16E-4A9F-9090-1731E216AF79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$B$6:$M$185</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$185</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="154">
   <si>
     <t>非公表</t>
   </si>
@@ -623,7 +624,7 @@
     <rPh sb="1" eb="2">
       <t>セイ</t>
     </rPh>
-    <phoneticPr fontId="26"/>
+    <phoneticPr fontId="27"/>
   </si>
   <si>
     <t>姫路</t>
@@ -833,7 +834,60 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>令和2年3月1日以降の総数 78,619件 ※欠番254件（医療機関での発生届の取り下げ等）</t>
+    <t>西宮</t>
+    <rPh sb="0" eb="2">
+      <t>ニシノミヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>西宮市</t>
+    <rPh sb="0" eb="3">
+      <t>ニシノミヤシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>姫路</t>
+    <rPh sb="0" eb="2">
+      <t>ヒメジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>姫路市</t>
+    <rPh sb="0" eb="3">
+      <t>ヒメジシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No78882の濃厚接触者</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>令和2年3月1日以降の総数 78,631件 ※欠番254件（医療機関での発生届の取り下げ等）</t>
     <phoneticPr fontId="0"/>
   </si>
 </sst>
@@ -844,7 +898,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1012,6 +1066,13 @@
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1763,190 +1824,323 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1955,10 +2149,10 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1967,10 +2161,10 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1979,10 +2173,10 @@
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1991,10 +2185,10 @@
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2003,10 +2197,10 @@
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2015,140 +2209,7 @@
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -2178,7 +2239,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -2253,6 +2314,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2295,14 +2359,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="48" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="47" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2858,13 +2919,13 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M172"/>
+  <dimension ref="A1:N185"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
+      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2880,10 +2941,11 @@
     <col min="9" max="9" width="10.625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="5" style="6" customWidth="1"/>
     <col min="13" max="13" width="48" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="6"/>
+    <col min="14" max="14" width="13" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>98</v>
@@ -2897,15 +2959,16 @@
       <c r="I1" s="3"/>
       <c r="J1" s="32">
         <f ca="1">TODAY()-1</f>
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="K1" s="32"/>
       <c r="L1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="7"/>
       <c r="C2" s="3"/>
@@ -2919,8 +2982,9 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2934,10 +2998,11 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="33" t="s">
         <v>38</v>
@@ -2971,9 +3036,10 @@
       <c r="M4" s="30" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
       <c r="B5" s="34"/>
       <c r="C5" s="36"/>
       <c r="D5" s="38"/>
@@ -2982,5601 +3048,6020 @@
       <c r="G5" s="40"/>
       <c r="H5" s="39"/>
       <c r="I5" s="42"/>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="17" t="s">
         <v>50</v>
       </c>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="17">
+    <row r="6" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="27"/>
+    </row>
+    <row r="7" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="18">
+        <v>78885</v>
+      </c>
+      <c r="C7" s="19">
+        <v>44516</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="24">
+        <v>44514</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="18">
+        <v>78884</v>
+      </c>
+      <c r="C8" s="19">
+        <v>44516</v>
+      </c>
+      <c r="D8" s="20">
+        <v>20</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="27"/>
+    </row>
+    <row r="9" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="18">
+        <v>78883</v>
+      </c>
+      <c r="C9" s="19">
+        <v>44516</v>
+      </c>
+      <c r="D9" s="20">
+        <v>70</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="18">
+        <v>78882</v>
+      </c>
+      <c r="C10" s="19">
+        <v>44516</v>
+      </c>
+      <c r="D10" s="20">
+        <v>70</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="27"/>
+    </row>
+    <row r="11" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="18">
+        <v>78881</v>
+      </c>
+      <c r="C11" s="19">
+        <v>44516</v>
+      </c>
+      <c r="D11" s="20">
+        <v>20</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="18">
+        <v>78880</v>
+      </c>
+      <c r="C12" s="19">
+        <v>44516</v>
+      </c>
+      <c r="D12" s="20">
+        <v>10</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="18">
+        <v>78879</v>
+      </c>
+      <c r="C13" s="19">
+        <v>44516</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="14"/>
+      <c r="B14" s="18">
+        <v>78878</v>
+      </c>
+      <c r="C14" s="19">
+        <v>44516</v>
+      </c>
+      <c r="D14" s="20">
+        <v>10</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="27"/>
+    </row>
+    <row r="15" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="18">
+        <v>78877</v>
+      </c>
+      <c r="C15" s="19">
+        <v>44516</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="27"/>
+    </row>
+    <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="18">
+        <v>78876</v>
+      </c>
+      <c r="C16" s="19">
+        <v>44516</v>
+      </c>
+      <c r="D16" s="20">
+        <v>50</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="27"/>
+    </row>
+    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="18">
+        <v>78875</v>
+      </c>
+      <c r="C17" s="19">
+        <v>44516</v>
+      </c>
+      <c r="D17" s="20">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="18">
+        <v>78874</v>
+      </c>
+      <c r="C18" s="19">
+        <v>44516</v>
+      </c>
+      <c r="D18" s="20">
+        <v>60</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="18">
         <v>78873</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C19" s="19">
         <v>44515</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D19" s="20">
         <v>50</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E19" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F19" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G19" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H19" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I19" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="25" t="s">
+      <c r="J19" s="25"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="M6" s="26"/>
-    </row>
-    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="17">
+      <c r="M19" s="27"/>
+    </row>
+    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="18">
         <v>78872</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C20" s="19">
         <v>44515</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D20" s="20">
         <v>20</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E20" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F20" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G20" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H20" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I20" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="25" t="s">
+      <c r="J20" s="25"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="M7" s="26"/>
-    </row>
-    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="17">
+      <c r="M20" s="27"/>
+    </row>
+    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="18">
         <v>78871</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C21" s="19">
         <v>44515</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D21" s="20">
         <v>50</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E21" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F21" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G21" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H21" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I21" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="25" t="s">
+      <c r="J21" s="25"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="M8" s="26"/>
-    </row>
-    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="17">
+      <c r="M21" s="27"/>
+    </row>
+    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="18">
         <v>78870</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C22" s="19">
         <v>44514</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D22" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E22" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F22" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G22" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H22" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I22" s="24">
         <v>44512</v>
       </c>
-      <c r="J9" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26" t="s">
+      <c r="J22" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="29"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="17">
+    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="18">
         <v>78869</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C23" s="19">
         <v>44514</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D23" s="20">
         <v>30</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E23" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F23" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G23" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="26"/>
-    </row>
-    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="17">
+      <c r="H23" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="27"/>
+    </row>
+    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="18">
         <v>78868</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C24" s="19">
         <v>44514</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D24" s="20">
         <v>20</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F24" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G24" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H24" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="26" t="s">
+      <c r="I24" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" s="29"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="17">
+    <row r="25" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="18">
         <v>78867</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C25" s="19">
         <v>44514</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D25" s="20">
         <v>40</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E25" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F25" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G25" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="26" t="s">
+      <c r="I25" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" s="29"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="17">
+    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="18">
         <v>78866</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C26" s="19">
         <v>44514</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D26" s="20">
         <v>20</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E26" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F26" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G26" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H26" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26" t="s">
+      <c r="I26" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="29"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="17">
+    <row r="27" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="14"/>
+      <c r="B27" s="18">
         <v>78865</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C27" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="26"/>
-    </row>
-    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="17">
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="27"/>
+    </row>
+    <row r="28" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="14"/>
+      <c r="B28" s="18">
         <v>78864</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C28" s="19">
         <v>44514</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D28" s="20">
         <v>30</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E28" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F28" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M15" s="26"/>
-    </row>
-    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="17">
+      <c r="G28" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" s="27"/>
+    </row>
+    <row r="29" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
+      <c r="B29" s="18">
         <v>78863</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C29" s="19">
         <v>44513</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D29" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E29" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F29" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G29" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H29" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I29" s="24">
         <v>44511</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J29" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="26" t="s">
+      <c r="K29" s="29"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="17">
+    <row r="30" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="14"/>
+      <c r="B30" s="18">
         <v>78862</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C30" s="19">
         <v>44513</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D30" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E30" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F30" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G30" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H30" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I30" s="24">
         <v>44508</v>
       </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="25" t="s">
+      <c r="J30" s="25"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="M17" s="26"/>
-    </row>
-    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="17">
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="B31" s="18">
         <v>78861</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C31" s="19">
         <v>44513</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D31" s="20">
         <v>60</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E31" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F31" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G31" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H31" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I31" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J31" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="K18" s="27"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="26" t="s">
+      <c r="K31" s="29"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="17">
+    <row r="32" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="14"/>
+      <c r="B32" s="18">
         <v>78860</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C32" s="19">
         <v>44513</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D32" s="20">
         <v>30</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E32" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F32" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G32" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H32" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I32" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J32" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="27"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="26" t="s">
+      <c r="K32" s="29"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="17">
+    <row r="33" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="14"/>
+      <c r="B33" s="18">
         <v>78859</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C33" s="19">
         <v>44513</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D33" s="20">
         <v>30</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E33" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F33" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G33" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H33" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I33" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J33" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="26" t="s">
+      <c r="K33" s="29"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="17">
+    <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="14"/>
+      <c r="B34" s="18">
         <v>78858</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C34" s="19">
         <v>44513</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D34" s="20">
         <v>30</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E34" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F34" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G34" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H34" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I34" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J34" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="26" t="s">
+      <c r="K34" s="29"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="17">
+    <row r="35" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="14"/>
+      <c r="B35" s="18">
         <v>78857</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C35" s="19">
         <v>44513</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D35" s="20">
         <v>20</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E35" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F35" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G35" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H35" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I35" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J35" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="K22" s="27"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="26" t="s">
+      <c r="K35" s="29"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="17">
+    <row r="36" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="14"/>
+      <c r="B36" s="18">
         <v>78856</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C36" s="19">
         <v>44513</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D36" s="20">
         <v>20</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E36" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F36" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G36" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H36" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I36" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J36" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="K23" s="27"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="26" t="s">
+      <c r="K36" s="29"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="17">
+    <row r="37" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="14"/>
+      <c r="B37" s="18">
         <v>78855</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C37" s="19">
         <v>44513</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D37" s="20">
         <v>30</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E37" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F37" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G37" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H37" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I37" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="J37" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="K24" s="27"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="26" t="s">
+      <c r="K37" s="29"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="17">
+    <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="14"/>
+      <c r="B38" s="18">
         <v>78854</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C38" s="19">
         <v>44513</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D38" s="20">
         <v>30</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E38" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F38" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G38" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H38" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I38" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J38" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="26" t="s">
+      <c r="K38" s="29"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="17">
+    <row r="39" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="14"/>
+      <c r="B39" s="18">
         <v>78853</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C39" s="19">
         <v>44513</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D39" s="20">
         <v>20</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E39" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F39" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G39" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H39" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="I39" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J39" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="26" t="s">
+      <c r="K39" s="29"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="17">
+    <row r="40" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="14"/>
+      <c r="B40" s="18">
         <v>78852</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C40" s="19">
         <v>44513</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D40" s="20">
         <v>30</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E40" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F40" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G40" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H40" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I40" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J40" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="K27" s="27"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="26" t="s">
+      <c r="K40" s="29"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
-      <c r="B28" s="17">
+    <row r="41" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="14"/>
+      <c r="B41" s="18">
         <v>78851</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C41" s="19">
         <v>44513</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D41" s="20">
         <v>20</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E41" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F41" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G41" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H41" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="I28" s="23" t="s">
+      <c r="I41" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="J28" s="24"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="25" t="s">
+      <c r="J41" s="25"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="M28" s="26"/>
-    </row>
-    <row r="29" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
-      <c r="B29" s="17">
+      <c r="M41" s="27"/>
+    </row>
+    <row r="42" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="14"/>
+      <c r="B42" s="18">
         <v>78850</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C42" s="19">
         <v>44513</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D42" s="20">
         <v>20</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E42" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F42" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G42" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="H42" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I42" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="J29" s="24"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="25" t="s">
+      <c r="J42" s="25"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="M29" s="26"/>
-    </row>
-    <row r="30" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="17">
+      <c r="M42" s="27"/>
+    </row>
+    <row r="43" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="14"/>
+      <c r="B43" s="18">
         <v>78849</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C43" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="26"/>
-    </row>
-    <row r="31" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="17">
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="27"/>
+    </row>
+    <row r="44" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="14"/>
+      <c r="B44" s="18">
         <v>78848</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C44" s="19">
         <v>44513</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D44" s="20">
         <v>30</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E44" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F44" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="G44" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H44" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="I31" s="23" t="s">
+      <c r="I44" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="J31" s="24"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="25" t="s">
+      <c r="J44" s="25"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="M31" s="26"/>
-    </row>
-    <row r="32" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="13"/>
-      <c r="B32" s="17">
+      <c r="M44" s="27"/>
+    </row>
+    <row r="45" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="14"/>
+      <c r="B45" s="18">
         <v>78847</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C45" s="19">
         <v>44512</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D45" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E45" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F45" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G45" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H45" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="I45" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J32" s="24" t="s">
+      <c r="J45" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="K32" s="27"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="26" t="s">
+      <c r="K45" s="29"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
-      <c r="B33" s="17">
+    <row r="46" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="14"/>
+      <c r="B46" s="18">
         <v>78846</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C46" s="19">
         <v>44512</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D46" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E46" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F46" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G46" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="H46" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I46" s="24">
         <v>44509</v>
       </c>
-      <c r="J33" s="24"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="25" t="s">
+      <c r="J46" s="25"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="M33" s="26" t="s">
+      <c r="M46" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="13"/>
-      <c r="B34" s="17">
+    <row r="47" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="14"/>
+      <c r="B47" s="18">
         <v>78845</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C47" s="19">
         <v>44512</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D47" s="20">
         <v>50</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E47" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F47" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G47" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H47" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="23" t="s">
+      <c r="I47" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="J34" s="24" t="s">
+      <c r="J47" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="K34" s="27"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="26" t="s">
+      <c r="K47" s="29"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="27" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="13"/>
-      <c r="B35" s="17">
+    <row r="48" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="14"/>
+      <c r="B48" s="18">
         <v>78844</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C48" s="19">
         <v>44512</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D48" s="20">
         <v>20</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E48" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F48" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G35" s="27" t="s">
+      <c r="G48" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H48" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I35" s="23" t="s">
+      <c r="I48" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="J35" s="24" t="s">
+      <c r="J48" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="K35" s="27"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="26" t="s">
+      <c r="K48" s="29"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="27" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="13"/>
-      <c r="B36" s="17">
+    <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="14"/>
+      <c r="B49" s="18">
         <v>78843</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C49" s="19">
         <v>44512</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D49" s="20">
         <v>80</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E49" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F49" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G49" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="H49" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I49" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="J36" s="24"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="25" t="s">
+      <c r="J49" s="25"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="M36" s="26"/>
-    </row>
-    <row r="37" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="13"/>
-      <c r="B37" s="17">
+      <c r="M49" s="27"/>
+    </row>
+    <row r="50" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="14"/>
+      <c r="B50" s="18">
         <v>78842</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C50" s="19">
         <v>44512</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D50" s="20">
         <v>60</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E50" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F50" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="27" t="s">
+      <c r="G50" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="22" t="s">
+      <c r="H50" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="23" t="s">
+      <c r="I50" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="J37" s="24"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="25" t="s">
+      <c r="J50" s="25"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="M37" s="26"/>
-    </row>
-    <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="13"/>
-      <c r="B38" s="17">
+      <c r="M50" s="27"/>
+    </row>
+    <row r="51" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="14"/>
+      <c r="B51" s="18">
         <v>78841</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C51" s="19">
         <v>44512</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D51" s="20">
         <v>30</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E51" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F51" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="G51" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H51" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I38" s="23" t="s">
+      <c r="I51" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="J38" s="24" t="s">
+      <c r="J51" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="K38" s="27"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="26" t="s">
+      <c r="K51" s="29"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="27" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="13"/>
-      <c r="B39" s="17">
+    <row r="52" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="14"/>
+      <c r="B52" s="18">
         <v>78840</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C52" s="19">
         <v>44512</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D52" s="20">
         <v>20</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E52" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F52" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="G39" s="27" t="s">
+      <c r="G52" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="H52" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I39" s="23" t="s">
+      <c r="I52" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="J39" s="24" t="s">
+      <c r="J52" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="K39" s="27"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="26" t="s">
+      <c r="K52" s="29"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="13"/>
-      <c r="B40" s="17">
+    <row r="53" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="14"/>
+      <c r="B53" s="18">
         <v>78839</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C53" s="19">
         <v>44512</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D53" s="20">
         <v>20</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E53" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F53" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G53" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="H53" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I40" s="23" t="s">
+      <c r="I53" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="J40" s="24" t="s">
+      <c r="J53" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="K40" s="27"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="26" t="s">
+      <c r="K53" s="29"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="13"/>
-      <c r="B41" s="17">
+    <row r="54" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="14"/>
+      <c r="B54" s="18">
         <v>78838</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C54" s="19">
         <v>44512</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D54" s="20">
         <v>30</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E54" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F54" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G41" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I41" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J41" s="24"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="25" t="s">
+      <c r="G54" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I54" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J54" s="25"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="M41" s="26"/>
-    </row>
-    <row r="42" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="13"/>
-      <c r="B42" s="17">
+      <c r="M54" s="27"/>
+    </row>
+    <row r="55" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="14"/>
+      <c r="B55" s="18">
         <v>78837</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C55" s="19">
         <v>44511</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D55" s="20">
         <v>40</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E55" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F55" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="G42" s="27" t="s">
+      <c r="G55" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="H42" s="22" t="s">
+      <c r="H55" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="I42" s="23" t="s">
+      <c r="I55" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="J42" s="24"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M42" s="26"/>
-    </row>
-    <row r="43" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="13"/>
-      <c r="B43" s="17">
+      <c r="J55" s="25"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M55" s="27"/>
+    </row>
+    <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="14"/>
+      <c r="B56" s="18">
         <v>78836</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C56" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="26"/>
-    </row>
-    <row r="44" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="13"/>
-      <c r="B44" s="17">
+      <c r="D56" s="20"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="27"/>
+    </row>
+    <row r="57" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="14"/>
+      <c r="B57" s="18">
         <v>78835</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C57" s="19">
         <v>44511</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D57" s="20">
         <v>20</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E57" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F57" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H44" s="22" t="s">
+      <c r="G57" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="I44" s="23" t="s">
+      <c r="I57" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="J44" s="24"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M44" s="26"/>
-    </row>
-    <row r="45" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="13"/>
-      <c r="B45" s="17">
+      <c r="J57" s="25"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M57" s="27"/>
+    </row>
+    <row r="58" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="14"/>
+      <c r="B58" s="18">
         <v>78834</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C58" s="19">
         <v>44511</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D58" s="20">
         <v>50</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E58" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F58" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="G45" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H45" s="22" t="s">
+      <c r="G58" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="I45" s="23" t="s">
+      <c r="I58" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="J45" s="24"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M45" s="26"/>
-    </row>
-    <row r="46" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="13"/>
-      <c r="B46" s="17">
+      <c r="J58" s="25"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M58" s="27"/>
+    </row>
+    <row r="59" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="14"/>
+      <c r="B59" s="18">
         <v>78833</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C59" s="19">
         <v>44510</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D59" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E59" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F59" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="G59" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H46" s="22" t="s">
+      <c r="H59" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I46" s="23" t="s">
+      <c r="I59" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J46" s="24" t="s">
+      <c r="J59" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="K46" s="27"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="26" t="s">
+      <c r="K59" s="29"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="13"/>
-      <c r="B47" s="17">
+    <row r="60" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="14"/>
+      <c r="B60" s="18">
         <v>78832</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C60" s="19">
         <v>44510</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D60" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E60" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F60" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G47" s="27" t="s">
+      <c r="G60" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H60" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I60" s="24">
         <v>44508</v>
       </c>
-      <c r="J47" s="24"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="25" t="s">
+      <c r="J60" s="25"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="M47" s="26" t="s">
+      <c r="M60" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="13"/>
-      <c r="B48" s="17">
+    <row r="61" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="14"/>
+      <c r="B61" s="18">
         <v>78831</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C61" s="19">
         <v>44510</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D61" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E61" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F61" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G48" s="27" t="s">
+      <c r="G61" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="H48" s="22" t="s">
+      <c r="H61" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I61" s="24">
         <v>44508</v>
       </c>
-      <c r="J48" s="24"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="25" t="s">
+      <c r="J61" s="25"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="M48" s="26" t="s">
+      <c r="M61" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="13"/>
-      <c r="B49" s="17">
+    <row r="62" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="14"/>
+      <c r="B62" s="18">
         <v>78830</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C62" s="19">
         <v>44510</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D62" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E62" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="F62" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="27" t="s">
+      <c r="G62" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="H49" s="22" t="s">
+      <c r="H62" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I62" s="24">
         <v>44508</v>
       </c>
-      <c r="J49" s="24"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="25" t="s">
+      <c r="J62" s="25"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="M49" s="26" t="s">
+      <c r="M62" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="13"/>
-      <c r="B50" s="17">
+    <row r="63" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="14"/>
+      <c r="B63" s="18">
         <v>78829</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C63" s="19">
         <v>44510</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D63" s="20">
         <v>50</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E63" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="F63" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G50" s="27" t="s">
+      <c r="G63" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="H50" s="22" t="s">
+      <c r="H63" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I50" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J50" s="24"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="25" t="s">
+      <c r="I63" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J63" s="25"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="M50" s="26"/>
-    </row>
-    <row r="51" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="13"/>
-      <c r="B51" s="17">
+      <c r="M63" s="27"/>
+    </row>
+    <row r="64" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="14"/>
+      <c r="B64" s="18">
         <v>78828</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C64" s="19">
         <v>44510</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D64" s="20">
         <v>30</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E64" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="21" t="s">
+      <c r="F64" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G51" s="27" t="s">
+      <c r="G64" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="H51" s="22" t="s">
+      <c r="H64" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="I51" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J51" s="24"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="25" t="s">
+      <c r="I64" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J64" s="25"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="M51" s="26"/>
-    </row>
-    <row r="52" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="13"/>
-      <c r="B52" s="17">
+      <c r="M64" s="27"/>
+    </row>
+    <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="14"/>
+      <c r="B65" s="18">
         <v>78827</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C65" s="19">
         <v>44510</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D65" s="20">
         <v>30</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E65" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="F65" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G52" s="27" t="s">
+      <c r="G65" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="H52" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I52" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J52" s="24"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="25" t="s">
+      <c r="H65" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I65" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J65" s="25"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="M52" s="26"/>
-    </row>
-    <row r="53" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="13"/>
-      <c r="B53" s="17">
+      <c r="M65" s="27"/>
+    </row>
+    <row r="66" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="14"/>
+      <c r="B66" s="18">
         <v>78826</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C66" s="19">
         <v>44510</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D66" s="20">
         <v>60</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E66" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="21" t="s">
+      <c r="F66" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G53" s="27" t="s">
+      <c r="G66" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="H53" s="22" t="s">
+      <c r="H66" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I53" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J53" s="24" t="s">
+      <c r="I66" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J66" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="K53" s="27"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="26" t="s">
+      <c r="K66" s="29"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="13"/>
-      <c r="B54" s="17">
+    <row r="67" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="14"/>
+      <c r="B67" s="18">
         <v>78825</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C67" s="19">
         <v>44510</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D67" s="20">
         <v>60</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="E67" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F67" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G54" s="27" t="s">
+      <c r="G67" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="H54" s="22" t="s">
+      <c r="H67" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="I54" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J54" s="24" t="s">
+      <c r="I67" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J67" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="K54" s="27"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="26" t="s">
+      <c r="K67" s="29"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="13"/>
-      <c r="B55" s="17">
+    <row r="68" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="14"/>
+      <c r="B68" s="18">
         <v>78824</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C68" s="19">
         <v>44510</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D68" s="20">
         <v>60</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E68" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F68" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G55" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H55" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I55" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J55" s="24"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="25" t="s">
+      <c r="G68" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I68" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J68" s="25"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="M55" s="26"/>
-    </row>
-    <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="13"/>
-      <c r="B56" s="17">
+      <c r="M68" s="27"/>
+    </row>
+    <row r="69" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="14"/>
+      <c r="B69" s="18">
         <v>78823</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C69" s="19">
         <v>44510</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D69" s="20">
         <v>20</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E69" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="21" t="s">
+      <c r="F69" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G56" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H56" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I56" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J56" s="24"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="25" t="s">
+      <c r="G69" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I69" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J69" s="25"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="M56" s="26"/>
-    </row>
-    <row r="57" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="13"/>
-      <c r="B57" s="17">
+      <c r="M69" s="27"/>
+    </row>
+    <row r="70" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="14"/>
+      <c r="B70" s="18">
         <v>78822</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C70" s="19">
         <v>44510</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D70" s="20">
         <v>20</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E70" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F70" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G57" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H57" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I57" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J57" s="24"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="25" t="s">
+      <c r="G70" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I70" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J70" s="25"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="M57" s="26"/>
-    </row>
-    <row r="58" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="13"/>
-      <c r="B58" s="17">
+      <c r="M70" s="27"/>
+    </row>
+    <row r="71" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="14"/>
+      <c r="B71" s="18">
         <v>78821</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C71" s="19">
         <v>44510</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D71" s="20">
         <v>10</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E71" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F71" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G58" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H58" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I58" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J58" s="24"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="25" t="s">
+      <c r="G71" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I71" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J71" s="25"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="M58" s="26"/>
-    </row>
-    <row r="59" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="13"/>
-      <c r="B59" s="17">
+      <c r="M71" s="27"/>
+    </row>
+    <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="14"/>
+      <c r="B72" s="18">
         <v>78820</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C72" s="19">
         <v>44510</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D72" s="20">
         <v>10</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E72" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F72" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G59" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H59" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I59" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J59" s="24"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="25" t="s">
+      <c r="G72" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I72" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J72" s="25"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="M59" s="26"/>
-    </row>
-    <row r="60" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="13"/>
-      <c r="B60" s="17">
+      <c r="M72" s="27"/>
+    </row>
+    <row r="73" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="14"/>
+      <c r="B73" s="18">
         <v>78819</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C73" s="19">
         <v>44510</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D73" s="20">
         <v>40</v>
       </c>
-      <c r="E60" s="20" t="s">
+      <c r="E73" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F60" s="21" t="s">
+      <c r="F73" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G60" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H60" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I60" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J60" s="24"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="25" t="s">
+      <c r="G73" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H73" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I73" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J73" s="25"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="M60" s="26"/>
-    </row>
-    <row r="61" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="13"/>
-      <c r="B61" s="17">
+      <c r="M73" s="27"/>
+    </row>
+    <row r="74" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="14"/>
+      <c r="B74" s="18">
         <v>78818</v>
       </c>
-      <c r="C61" s="18">
+      <c r="C74" s="19">
         <v>44509</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D74" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E61" s="20" t="s">
+      <c r="E74" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F74" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G61" s="27" t="s">
+      <c r="G74" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="22" t="s">
+      <c r="H74" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I61" s="23">
+      <c r="I74" s="24">
         <v>44508</v>
       </c>
-      <c r="J61" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K61" s="27"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="26" t="s">
+      <c r="J74" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K74" s="29"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="13"/>
-      <c r="B62" s="17">
+    <row r="75" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="14"/>
+      <c r="B75" s="18">
         <v>78817</v>
       </c>
-      <c r="C62" s="18">
+      <c r="C75" s="19">
         <v>44509</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D75" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E75" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F62" s="21" t="s">
+      <c r="F75" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G62" s="27" t="s">
+      <c r="G75" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H62" s="22" t="s">
+      <c r="H75" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I62" s="23">
+      <c r="I75" s="24">
         <v>44505</v>
       </c>
-      <c r="J62" s="24"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M62" s="26" t="s">
+      <c r="J75" s="25"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M75" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="13"/>
-      <c r="B63" s="17">
+    <row r="76" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="14"/>
+      <c r="B76" s="18">
         <v>78816</v>
       </c>
-      <c r="C63" s="18">
+      <c r="C76" s="19">
         <v>44509</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D76" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E76" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F63" s="21" t="s">
+      <c r="F76" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G63" s="27" t="s">
+      <c r="G76" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H63" s="22" t="s">
+      <c r="H76" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I63" s="23">
+      <c r="I76" s="24">
         <v>44505</v>
       </c>
-      <c r="J63" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K63" s="27"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="26" t="s">
+      <c r="J76" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K76" s="29"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="13"/>
-      <c r="B64" s="17">
+    <row r="77" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="14"/>
+      <c r="B77" s="18">
         <v>78815</v>
       </c>
-      <c r="C64" s="18">
+      <c r="C77" s="19">
         <v>44509</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D77" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E64" s="20" t="s">
+      <c r="E77" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F64" s="21" t="s">
+      <c r="F77" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G64" s="27" t="s">
+      <c r="G77" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H64" s="22" t="s">
+      <c r="H77" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I64" s="23">
+      <c r="I77" s="24">
         <v>44505</v>
       </c>
-      <c r="J64" s="24"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M64" s="26" t="s">
+      <c r="J77" s="25"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M77" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="13"/>
-      <c r="B65" s="17">
+    <row r="78" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="14"/>
+      <c r="B78" s="18">
         <v>78814</v>
       </c>
-      <c r="C65" s="18">
+      <c r="C78" s="19">
         <v>44509</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D78" s="20">
         <v>10</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="E78" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F65" s="21" t="s">
+      <c r="F78" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G65" s="27" t="s">
+      <c r="G78" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="H65" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I65" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J65" s="24"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M65" s="26"/>
-    </row>
-    <row r="66" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="13"/>
-      <c r="B66" s="17">
+      <c r="H78" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I78" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J78" s="25"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M78" s="27"/>
+    </row>
+    <row r="79" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="14"/>
+      <c r="B79" s="18">
         <v>78813</v>
       </c>
-      <c r="C66" s="18">
+      <c r="C79" s="19">
         <v>44509</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D79" s="20">
         <v>50</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="E79" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F66" s="21" t="s">
+      <c r="F79" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G66" s="27" t="s">
+      <c r="G79" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="H66" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I66" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J66" s="24"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M66" s="26"/>
-    </row>
-    <row r="67" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="13"/>
-      <c r="B67" s="17">
+      <c r="H79" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I79" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J79" s="25"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M79" s="27"/>
+    </row>
+    <row r="80" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="14"/>
+      <c r="B80" s="18">
         <v>78812</v>
       </c>
-      <c r="C67" s="18">
+      <c r="C80" s="19">
         <v>44509</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D80" s="20">
         <v>50</v>
       </c>
-      <c r="E67" s="20" t="s">
+      <c r="E80" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="21" t="s">
+      <c r="F80" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G67" s="27" t="s">
+      <c r="G80" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="H67" s="22" t="s">
+      <c r="H80" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I67" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J67" s="24"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M67" s="26"/>
-    </row>
-    <row r="68" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="13"/>
-      <c r="B68" s="17">
+      <c r="I80" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J80" s="25"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M80" s="27"/>
+    </row>
+    <row r="81" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="14"/>
+      <c r="B81" s="18">
         <v>78811</v>
       </c>
-      <c r="C68" s="18">
+      <c r="C81" s="19">
         <v>44509</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D81" s="20">
         <v>20</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="E81" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="21" t="s">
+      <c r="F81" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G68" s="27" t="s">
+      <c r="G81" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="H68" s="22" t="s">
+      <c r="H81" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I68" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J68" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K68" s="27"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="26" t="s">
+      <c r="I81" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J81" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K81" s="29"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="13"/>
-      <c r="B69" s="17">
+    <row r="82" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="14"/>
+      <c r="B82" s="18">
         <v>78810</v>
       </c>
-      <c r="C69" s="18">
+      <c r="C82" s="19">
         <v>44509</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D82" s="20">
         <v>20</v>
       </c>
-      <c r="E69" s="20" t="s">
+      <c r="E82" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F69" s="21" t="s">
+      <c r="F82" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="27" t="s">
+      <c r="G82" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="H69" s="22" t="s">
+      <c r="H82" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I69" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J69" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K69" s="27"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="26" t="s">
+      <c r="I82" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J82" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K82" s="29"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="13"/>
-      <c r="B70" s="17">
+    <row r="83" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="14"/>
+      <c r="B83" s="18">
         <v>78809</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C83" s="19">
         <v>44509</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D83" s="20">
         <v>20</v>
       </c>
-      <c r="E70" s="20" t="s">
+      <c r="E83" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F70" s="21" t="s">
+      <c r="F83" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G70" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H70" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I70" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J70" s="24"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M70" s="26"/>
-    </row>
-    <row r="71" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="13"/>
-      <c r="B71" s="17">
+      <c r="G83" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H83" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I83" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J83" s="25"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M83" s="27"/>
+    </row>
+    <row r="84" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="14"/>
+      <c r="B84" s="18">
         <v>78808</v>
       </c>
-      <c r="C71" s="18">
+      <c r="C84" s="19">
         <v>44509</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D84" s="20">
         <v>20</v>
       </c>
-      <c r="E71" s="20" t="s">
+      <c r="E84" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F71" s="21" t="s">
+      <c r="F84" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G71" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H71" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I71" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J71" s="24"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M71" s="26"/>
-    </row>
-    <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="13"/>
-      <c r="B72" s="17">
+      <c r="G84" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I84" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J84" s="25"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M84" s="27"/>
+    </row>
+    <row r="85" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="14"/>
+      <c r="B85" s="18">
         <v>78807</v>
       </c>
-      <c r="C72" s="18">
+      <c r="C85" s="19">
         <v>44509</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D85" s="20">
         <v>20</v>
       </c>
-      <c r="E72" s="20" t="s">
+      <c r="E85" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F72" s="21" t="s">
+      <c r="F85" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G72" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H72" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I72" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J72" s="24"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M72" s="26"/>
-    </row>
-    <row r="73" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="13"/>
-      <c r="B73" s="17">
+      <c r="G85" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H85" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I85" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J85" s="25"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M85" s="27"/>
+    </row>
+    <row r="86" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="14"/>
+      <c r="B86" s="18">
         <v>78806</v>
       </c>
-      <c r="C73" s="18">
+      <c r="C86" s="19">
         <v>44509</v>
       </c>
-      <c r="D73" s="19">
+      <c r="D86" s="20">
         <v>40</v>
       </c>
-      <c r="E73" s="20" t="s">
+      <c r="E86" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F73" s="21" t="s">
+      <c r="F86" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G73" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H73" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I73" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J73" s="24"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M73" s="26"/>
-    </row>
-    <row r="74" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="13"/>
-      <c r="B74" s="17">
+      <c r="G86" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H86" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I86" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J86" s="25"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M86" s="27"/>
+    </row>
+    <row r="87" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="14"/>
+      <c r="B87" s="18">
         <v>78805</v>
       </c>
-      <c r="C74" s="18">
+      <c r="C87" s="19">
         <v>44509</v>
       </c>
-      <c r="D74" s="19">
+      <c r="D87" s="20">
         <v>60</v>
       </c>
-      <c r="E74" s="20" t="s">
+      <c r="E87" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F74" s="21" t="s">
+      <c r="F87" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G74" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H74" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I74" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J74" s="24"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M74" s="26"/>
-    </row>
-    <row r="75" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="13"/>
-      <c r="B75" s="17">
+      <c r="G87" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H87" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I87" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J87" s="25"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M87" s="27"/>
+    </row>
+    <row r="88" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="14"/>
+      <c r="B88" s="18">
         <v>78804</v>
       </c>
-      <c r="C75" s="18">
+      <c r="C88" s="19">
         <v>44509</v>
       </c>
-      <c r="D75" s="19">
+      <c r="D88" s="20">
         <v>10</v>
       </c>
-      <c r="E75" s="20" t="s">
+      <c r="E88" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F75" s="21" t="s">
+      <c r="F88" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G75" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H75" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I75" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J75" s="24"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M75" s="26"/>
-    </row>
-    <row r="76" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="13"/>
-      <c r="B76" s="17">
+      <c r="G88" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H88" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I88" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J88" s="25"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M88" s="27"/>
+    </row>
+    <row r="89" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="14"/>
+      <c r="B89" s="18">
         <v>78803</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C89" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D76" s="19"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="25" t="s">
+      <c r="D89" s="20"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="M76" s="26"/>
-    </row>
-    <row r="77" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="13"/>
-      <c r="B77" s="17">
+      <c r="M89" s="27"/>
+    </row>
+    <row r="90" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="14"/>
+      <c r="B90" s="18">
         <v>78802</v>
       </c>
-      <c r="C77" s="18">
+      <c r="C90" s="19">
         <v>44508</v>
       </c>
-      <c r="D77" s="19">
+      <c r="D90" s="20">
         <v>60</v>
       </c>
-      <c r="E77" s="20" t="s">
+      <c r="E90" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F77" s="21" t="s">
+      <c r="F90" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="G77" s="27" t="s">
+      <c r="G90" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="H77" s="22" t="s">
+      <c r="H90" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="I77" s="23" t="s">
+      <c r="I90" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="J77" s="24"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="25" t="s">
+      <c r="J90" s="25"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="M77" s="26"/>
-    </row>
-    <row r="78" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="13"/>
-      <c r="B78" s="17">
+      <c r="M90" s="27"/>
+    </row>
+    <row r="91" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="14"/>
+      <c r="B91" s="18">
         <v>78801</v>
       </c>
-      <c r="C78" s="18">
+      <c r="C91" s="19">
         <v>44508</v>
       </c>
-      <c r="D78" s="19">
+      <c r="D91" s="20">
         <v>20</v>
       </c>
-      <c r="E78" s="20" t="s">
+      <c r="E91" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F78" s="21" t="s">
+      <c r="F91" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="G78" s="27" t="s">
+      <c r="G91" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="H78" s="22" t="s">
+      <c r="H91" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="I78" s="23" t="s">
+      <c r="I91" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="J78" s="24"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="25" t="s">
+      <c r="J91" s="25"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="M78" s="26"/>
-    </row>
-    <row r="79" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="13"/>
-      <c r="B79" s="17">
+      <c r="M91" s="27"/>
+    </row>
+    <row r="92" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="14"/>
+      <c r="B92" s="18">
         <v>78800</v>
       </c>
-      <c r="C79" s="18">
+      <c r="C92" s="19">
         <v>44508</v>
       </c>
-      <c r="D79" s="19">
+      <c r="D92" s="20">
         <v>50</v>
       </c>
-      <c r="E79" s="20" t="s">
+      <c r="E92" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F79" s="21" t="s">
+      <c r="F92" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="G79" s="27" t="s">
+      <c r="G92" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="H79" s="22" t="s">
+      <c r="H92" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="I79" s="23" t="s">
+      <c r="I92" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="J79" s="24"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="25" t="s">
+      <c r="J92" s="25"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="M79" s="26"/>
-    </row>
-    <row r="80" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="13"/>
-      <c r="B80" s="17">
+      <c r="M92" s="27"/>
+    </row>
+    <row r="93" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="14"/>
+      <c r="B93" s="18">
         <v>78799</v>
       </c>
-      <c r="C80" s="18">
+      <c r="C93" s="19">
         <v>44508</v>
       </c>
-      <c r="D80" s="19">
+      <c r="D93" s="20">
         <v>80</v>
       </c>
-      <c r="E80" s="20" t="s">
+      <c r="E93" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F80" s="21" t="s">
+      <c r="F93" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="G80" s="27" t="s">
+      <c r="G93" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="H80" s="22" t="s">
+      <c r="H93" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="I80" s="23" t="s">
+      <c r="I93" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="J80" s="24"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="25" t="s">
+      <c r="J93" s="25"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="M80" s="26"/>
-    </row>
-    <row r="81" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="13"/>
-      <c r="B81" s="17">
+      <c r="M93" s="27"/>
+    </row>
+    <row r="94" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="14"/>
+      <c r="B94" s="18">
         <v>78798</v>
       </c>
-      <c r="C81" s="18">
+      <c r="C94" s="19">
         <v>44508</v>
       </c>
-      <c r="D81" s="19">
+      <c r="D94" s="20">
         <v>30</v>
       </c>
-      <c r="E81" s="20" t="s">
+      <c r="E94" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F81" s="21" t="s">
+      <c r="F94" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="G81" s="27" t="s">
+      <c r="G94" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="H81" s="22" t="s">
+      <c r="H94" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="I81" s="23" t="s">
+      <c r="I94" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="J81" s="24"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="25" t="s">
+      <c r="J94" s="25"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="M81" s="26"/>
-    </row>
-    <row r="82" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="13"/>
-      <c r="B82" s="17">
+      <c r="M94" s="27"/>
+    </row>
+    <row r="95" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="14"/>
+      <c r="B95" s="18">
         <v>78797</v>
       </c>
-      <c r="C82" s="18">
+      <c r="C95" s="19">
         <v>44507</v>
       </c>
-      <c r="D82" s="19">
+      <c r="D95" s="20">
         <v>10</v>
       </c>
-      <c r="E82" s="20" t="s">
+      <c r="E95" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F82" s="21" t="s">
+      <c r="F95" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G82" s="27" t="s">
+      <c r="G95" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="H82" s="22" t="s">
+      <c r="H95" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="I82" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J82" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K82" s="27"/>
-      <c r="L82" s="25"/>
-      <c r="M82" s="26" t="s">
+      <c r="I95" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J95" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K95" s="29"/>
+      <c r="L95" s="26"/>
+      <c r="M95" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="13"/>
-      <c r="B83" s="17">
+    <row r="96" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="14"/>
+      <c r="B96" s="18">
         <v>78796</v>
       </c>
-      <c r="C83" s="18">
+      <c r="C96" s="19">
         <v>44507</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D96" s="20">
         <v>50</v>
       </c>
-      <c r="E83" s="20" t="s">
+      <c r="E96" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F83" s="21" t="s">
+      <c r="F96" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G83" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H83" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I83" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J83" s="24"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M83" s="26"/>
-    </row>
-    <row r="84" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="13"/>
-      <c r="B84" s="17">
+      <c r="G96" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I96" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J96" s="25"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M96" s="27"/>
+    </row>
+    <row r="97" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="14"/>
+      <c r="B97" s="18">
         <v>78795</v>
       </c>
-      <c r="C84" s="18">
+      <c r="C97" s="19">
         <v>44506</v>
       </c>
-      <c r="D84" s="19" t="s">
+      <c r="D97" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E84" s="20" t="s">
+      <c r="E97" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F84" s="21" t="s">
+      <c r="F97" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G84" s="27" t="s">
+      <c r="G97" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H84" s="22" t="s">
+      <c r="H97" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I84" s="23">
+      <c r="I97" s="24">
         <v>44502</v>
       </c>
-      <c r="J84" s="24"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="25" t="s">
+      <c r="J97" s="25"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="M84" s="26" t="s">
+      <c r="M97" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="13"/>
-      <c r="B85" s="17">
+    <row r="98" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="14"/>
+      <c r="B98" s="18">
         <v>78794</v>
       </c>
-      <c r="C85" s="18">
+      <c r="C98" s="19">
         <v>44506</v>
       </c>
-      <c r="D85" s="19" t="s">
+      <c r="D98" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E85" s="20" t="s">
+      <c r="E98" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F85" s="21" t="s">
+      <c r="F98" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G85" s="27" t="s">
+      <c r="G98" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H85" s="22" t="s">
+      <c r="H98" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I85" s="23">
+      <c r="I98" s="24">
         <v>44502</v>
       </c>
-      <c r="J85" s="24" t="s">
+      <c r="J98" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="K85" s="27"/>
-      <c r="L85" s="25"/>
-      <c r="M85" s="26" t="s">
+      <c r="K98" s="29"/>
+      <c r="L98" s="26"/>
+      <c r="M98" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="13"/>
-      <c r="B86" s="17">
+    <row r="99" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="14"/>
+      <c r="B99" s="18">
         <v>78793</v>
       </c>
-      <c r="C86" s="18">
+      <c r="C99" s="19">
         <v>44506</v>
       </c>
-      <c r="D86" s="19" t="s">
+      <c r="D99" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E86" s="20" t="s">
+      <c r="E99" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F86" s="21" t="s">
+      <c r="F99" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G86" s="27" t="s">
+      <c r="G99" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H86" s="22" t="s">
+      <c r="H99" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I86" s="23">
+      <c r="I99" s="24">
         <v>44501</v>
       </c>
-      <c r="J86" s="24" t="s">
+      <c r="J99" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="K86" s="27"/>
-      <c r="L86" s="25"/>
-      <c r="M86" s="26" t="s">
+      <c r="K99" s="29"/>
+      <c r="L99" s="26"/>
+      <c r="M99" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="13"/>
-      <c r="B87" s="17">
+    <row r="100" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="14"/>
+      <c r="B100" s="18">
         <v>78792</v>
       </c>
-      <c r="C87" s="18">
+      <c r="C100" s="19">
         <v>44506</v>
       </c>
-      <c r="D87" s="19" t="s">
+      <c r="D100" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E87" s="20" t="s">
+      <c r="E100" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F87" s="21" t="s">
+      <c r="F100" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G87" s="27" t="s">
+      <c r="G100" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H87" s="22" t="s">
+      <c r="H100" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I87" s="23">
+      <c r="I100" s="24">
         <v>44505</v>
       </c>
-      <c r="J87" s="24" t="s">
+      <c r="J100" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="K87" s="27"/>
-      <c r="L87" s="25"/>
-      <c r="M87" s="26" t="s">
+      <c r="K100" s="29"/>
+      <c r="L100" s="26"/>
+      <c r="M100" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="13"/>
-      <c r="B88" s="17">
+    <row r="101" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="14"/>
+      <c r="B101" s="18">
         <v>78791</v>
       </c>
-      <c r="C88" s="18">
+      <c r="C101" s="19">
         <v>44506</v>
       </c>
-      <c r="D88" s="19" t="s">
+      <c r="D101" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E88" s="20" t="s">
+      <c r="E101" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F88" s="21" t="s">
+      <c r="F101" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G88" s="27" t="s">
+      <c r="G101" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H88" s="22" t="s">
+      <c r="H101" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I88" s="23" t="s">
+      <c r="I101" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J88" s="24" t="s">
+      <c r="J101" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="K88" s="27"/>
-      <c r="L88" s="25"/>
-      <c r="M88" s="26" t="s">
+      <c r="K101" s="29"/>
+      <c r="L101" s="26"/>
+      <c r="M101" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="13"/>
-      <c r="B89" s="17">
+    <row r="102" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="14"/>
+      <c r="B102" s="18">
         <v>78790</v>
       </c>
-      <c r="C89" s="18">
+      <c r="C102" s="19">
         <v>44506</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="D102" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E89" s="20" t="s">
+      <c r="E102" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F89" s="21" t="s">
+      <c r="F102" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G89" s="27" t="s">
+      <c r="G102" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H89" s="22" t="s">
+      <c r="H102" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I89" s="23" t="s">
+      <c r="I102" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J89" s="24" t="s">
+      <c r="J102" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="K89" s="27"/>
-      <c r="L89" s="25"/>
-      <c r="M89" s="26" t="s">
+      <c r="K102" s="29"/>
+      <c r="L102" s="26"/>
+      <c r="M102" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="13"/>
-      <c r="B90" s="17">
+    <row r="103" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="14"/>
+      <c r="B103" s="18">
         <v>78789</v>
       </c>
-      <c r="C90" s="18">
+      <c r="C103" s="19">
         <v>44506</v>
       </c>
-      <c r="D90" s="19" t="s">
+      <c r="D103" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="20" t="s">
+      <c r="E103" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F90" s="21" t="s">
+      <c r="F103" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G90" s="27" t="s">
+      <c r="G103" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H90" s="22" t="s">
+      <c r="H103" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I90" s="23" t="s">
+      <c r="I103" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J90" s="24" t="s">
+      <c r="J103" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="K90" s="27"/>
-      <c r="L90" s="25"/>
-      <c r="M90" s="26" t="s">
+      <c r="K103" s="29"/>
+      <c r="L103" s="26"/>
+      <c r="M103" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="13"/>
-      <c r="B91" s="17">
+    <row r="104" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="14"/>
+      <c r="B104" s="18">
         <v>78788</v>
       </c>
-      <c r="C91" s="18">
+      <c r="C104" s="19">
         <v>44506</v>
       </c>
-      <c r="D91" s="19" t="s">
+      <c r="D104" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E91" s="20" t="s">
+      <c r="E104" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F91" s="21" t="s">
+      <c r="F104" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G91" s="27" t="s">
+      <c r="G104" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H91" s="22" t="s">
+      <c r="H104" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I91" s="23">
+      <c r="I104" s="24">
         <v>44502</v>
       </c>
-      <c r="J91" s="24" t="s">
+      <c r="J104" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="K91" s="27"/>
-      <c r="L91" s="25"/>
-      <c r="M91" s="26" t="s">
+      <c r="K104" s="29"/>
+      <c r="L104" s="26"/>
+      <c r="M104" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="13"/>
-      <c r="B92" s="17">
+    <row r="105" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="14"/>
+      <c r="B105" s="18">
         <v>78787</v>
       </c>
-      <c r="C92" s="18">
+      <c r="C105" s="19">
         <v>44506</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D105" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E92" s="20" t="s">
+      <c r="E105" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F92" s="21" t="s">
+      <c r="F105" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G92" s="27" t="s">
+      <c r="G105" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H92" s="22" t="s">
+      <c r="H105" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I92" s="23">
+      <c r="I105" s="24">
         <v>44502</v>
       </c>
-      <c r="J92" s="24"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="25" t="s">
+      <c r="J105" s="25"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="M92" s="26" t="s">
+      <c r="M105" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="13"/>
-      <c r="B93" s="17">
+    <row r="106" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="14"/>
+      <c r="B106" s="18">
         <v>78786</v>
       </c>
-      <c r="C93" s="18">
+      <c r="C106" s="19">
         <v>44506</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D106" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E93" s="20" t="s">
+      <c r="E106" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F93" s="21" t="s">
+      <c r="F106" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G93" s="27" t="s">
+      <c r="G106" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H93" s="22" t="s">
+      <c r="H106" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I93" s="23">
+      <c r="I106" s="24">
         <v>44503</v>
       </c>
-      <c r="J93" s="24"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="25" t="s">
+      <c r="J106" s="25"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="M93" s="26" t="s">
+      <c r="M106" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="13"/>
-      <c r="B94" s="17">
+    <row r="107" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="14"/>
+      <c r="B107" s="18">
         <v>78785</v>
       </c>
-      <c r="C94" s="18">
+      <c r="C107" s="19">
         <v>44506</v>
       </c>
-      <c r="D94" s="19">
+      <c r="D107" s="20">
         <v>30</v>
       </c>
-      <c r="E94" s="20" t="s">
+      <c r="E107" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="F94" s="21" t="s">
+      <c r="F107" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="G94" s="27" t="s">
+      <c r="G107" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="H94" s="22" t="s">
+      <c r="H107" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="I94" s="23">
+      <c r="I107" s="24">
         <v>44503</v>
       </c>
-      <c r="J94" s="24"/>
-      <c r="K94" s="27"/>
-      <c r="L94" s="25" t="s">
+      <c r="J107" s="25"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="M94" s="26"/>
-    </row>
-    <row r="95" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="13"/>
-      <c r="B95" s="17">
+      <c r="M107" s="27"/>
+    </row>
+    <row r="108" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="14"/>
+      <c r="B108" s="18">
         <v>78784</v>
       </c>
-      <c r="C95" s="18">
+      <c r="C108" s="19">
         <v>44506</v>
       </c>
-      <c r="D95" s="19" t="s">
+      <c r="D108" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E95" s="20" t="s">
+      <c r="E108" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F95" s="21" t="s">
+      <c r="F108" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="G95" s="27" t="s">
+      <c r="G108" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="H95" s="22" t="s">
+      <c r="H108" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I95" s="23" t="s">
+      <c r="I108" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="J95" s="24"/>
-      <c r="K95" s="27"/>
-      <c r="L95" s="25" t="s">
+      <c r="J108" s="25"/>
+      <c r="K108" s="29"/>
+      <c r="L108" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="M95" s="26"/>
-    </row>
-    <row r="96" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="13"/>
-      <c r="B96" s="17">
+      <c r="M108" s="27"/>
+    </row>
+    <row r="109" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="14"/>
+      <c r="B109" s="18">
         <v>78783</v>
       </c>
-      <c r="C96" s="18">
+      <c r="C109" s="19">
         <v>44506</v>
       </c>
-      <c r="D96" s="19" t="s">
+      <c r="D109" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E96" s="20" t="s">
+      <c r="E109" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F96" s="21" t="s">
+      <c r="F109" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="G96" s="27" t="s">
+      <c r="G109" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="H96" s="22" t="s">
+      <c r="H109" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I96" s="23" t="s">
+      <c r="I109" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="J96" s="24" t="s">
+      <c r="J109" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="K96" s="27"/>
-      <c r="L96" s="25"/>
-      <c r="M96" s="26" t="s">
+      <c r="K109" s="29"/>
+      <c r="L109" s="26"/>
+      <c r="M109" s="27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="13"/>
-      <c r="B97" s="17">
+    <row r="110" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="14"/>
+      <c r="B110" s="18">
         <v>78782</v>
       </c>
-      <c r="C97" s="18">
+      <c r="C110" s="19">
         <v>44506</v>
       </c>
-      <c r="D97" s="19">
+      <c r="D110" s="20">
         <v>10</v>
       </c>
-      <c r="E97" s="20" t="s">
+      <c r="E110" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F97" s="21" t="s">
+      <c r="F110" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="G97" s="27" t="s">
+      <c r="G110" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="H97" s="22" t="s">
+      <c r="H110" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I97" s="23" t="s">
+      <c r="I110" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="J97" s="24" t="s">
+      <c r="J110" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="K97" s="27"/>
-      <c r="L97" s="25"/>
-      <c r="M97" s="26" t="s">
+      <c r="K110" s="29"/>
+      <c r="L110" s="26"/>
+      <c r="M110" s="27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="13"/>
-      <c r="B98" s="17">
+    <row r="111" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="14"/>
+      <c r="B111" s="18">
         <v>78781</v>
       </c>
-      <c r="C98" s="18">
+      <c r="C111" s="19">
         <v>44506</v>
       </c>
-      <c r="D98" s="19" t="s">
+      <c r="D111" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E98" s="20" t="s">
+      <c r="E111" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F98" s="21" t="s">
+      <c r="F111" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="G98" s="27" t="s">
+      <c r="G111" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="H98" s="22" t="s">
+      <c r="H111" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I98" s="23" t="s">
+      <c r="I111" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="J98" s="24" t="s">
+      <c r="J111" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="K98" s="27"/>
-      <c r="L98" s="25"/>
-      <c r="M98" s="26" t="s">
+      <c r="K111" s="29"/>
+      <c r="L111" s="26"/>
+      <c r="M111" s="27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="13"/>
-      <c r="B99" s="17">
+    <row r="112" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="14"/>
+      <c r="B112" s="18">
         <v>78780</v>
       </c>
-      <c r="C99" s="18">
+      <c r="C112" s="19">
         <v>44506</v>
       </c>
-      <c r="D99" s="19">
+      <c r="D112" s="20">
         <v>20</v>
       </c>
-      <c r="E99" s="20" t="s">
+      <c r="E112" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F99" s="21" t="s">
+      <c r="F112" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="G99" s="27" t="s">
+      <c r="G112" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="H99" s="22" t="s">
+      <c r="H112" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="I99" s="23" t="s">
+      <c r="I112" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="J99" s="24" t="s">
+      <c r="J112" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="K99" s="27"/>
-      <c r="L99" s="25"/>
-      <c r="M99" s="26" t="s">
+      <c r="K112" s="29"/>
+      <c r="L112" s="26"/>
+      <c r="M112" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="13"/>
-      <c r="B100" s="17">
+    <row r="113" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="14"/>
+      <c r="B113" s="18">
         <v>78779</v>
       </c>
-      <c r="C100" s="18">
+      <c r="C113" s="19">
         <v>44506</v>
       </c>
-      <c r="D100" s="19">
+      <c r="D113" s="20">
         <v>80</v>
       </c>
-      <c r="E100" s="20" t="s">
+      <c r="E113" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F100" s="21" t="s">
+      <c r="F113" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G100" s="27" t="s">
+      <c r="G113" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="H100" s="22" t="s">
+      <c r="H113" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I100" s="23" t="s">
+      <c r="I113" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="J100" s="24"/>
-      <c r="K100" s="27"/>
-      <c r="L100" s="25" t="s">
+      <c r="J113" s="25"/>
+      <c r="K113" s="29"/>
+      <c r="L113" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="M100" s="26"/>
-    </row>
-    <row r="101" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="13"/>
-      <c r="B101" s="17">
+      <c r="M113" s="27"/>
+    </row>
+    <row r="114" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="14"/>
+      <c r="B114" s="18">
         <v>78778</v>
       </c>
-      <c r="C101" s="18">
+      <c r="C114" s="19">
         <v>44506</v>
       </c>
-      <c r="D101" s="19">
+      <c r="D114" s="20">
         <v>20</v>
       </c>
-      <c r="E101" s="20" t="s">
+      <c r="E114" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F101" s="21" t="s">
+      <c r="F114" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G101" s="27" t="s">
+      <c r="G114" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="H101" s="22" t="s">
+      <c r="H114" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I101" s="23" t="s">
+      <c r="I114" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="J101" s="24"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="25" t="s">
+      <c r="J114" s="25"/>
+      <c r="K114" s="29"/>
+      <c r="L114" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="M101" s="26"/>
-    </row>
-    <row r="102" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="13"/>
-      <c r="B102" s="17">
+      <c r="M114" s="27"/>
+    </row>
+    <row r="115" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="14"/>
+      <c r="B115" s="18">
         <v>78777</v>
       </c>
-      <c r="C102" s="18">
+      <c r="C115" s="19">
         <v>44506</v>
       </c>
-      <c r="D102" s="19" t="s">
+      <c r="D115" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E102" s="20" t="s">
+      <c r="E115" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F102" s="21" t="s">
+      <c r="F115" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G102" s="27" t="s">
+      <c r="G115" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="H102" s="22" t="s">
+      <c r="H115" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I102" s="23" t="s">
+      <c r="I115" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="J102" s="24"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="25" t="s">
+      <c r="J115" s="25"/>
+      <c r="K115" s="29"/>
+      <c r="L115" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="M102" s="26"/>
-    </row>
-    <row r="103" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="13"/>
-      <c r="B103" s="17">
+      <c r="M115" s="27"/>
+    </row>
+    <row r="116" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="14"/>
+      <c r="B116" s="18">
         <v>78776</v>
       </c>
-      <c r="C103" s="18">
+      <c r="C116" s="19">
         <v>44506</v>
       </c>
-      <c r="D103" s="19">
+      <c r="D116" s="20">
         <v>30</v>
       </c>
-      <c r="E103" s="20" t="s">
+      <c r="E116" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F103" s="21" t="s">
+      <c r="F116" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G103" s="27" t="s">
+      <c r="G116" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="H103" s="22" t="s">
+      <c r="H116" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I103" s="23" t="s">
+      <c r="I116" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="J103" s="24"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="25" t="s">
+      <c r="J116" s="25"/>
+      <c r="K116" s="29"/>
+      <c r="L116" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="M103" s="26"/>
-    </row>
-    <row r="104" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="13"/>
-      <c r="B104" s="17">
+      <c r="M116" s="27"/>
+    </row>
+    <row r="117" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="14"/>
+      <c r="B117" s="18">
         <v>78775</v>
       </c>
-      <c r="C104" s="18">
+      <c r="C117" s="19">
         <v>44506</v>
       </c>
-      <c r="D104" s="19">
+      <c r="D117" s="20">
         <v>60</v>
       </c>
-      <c r="E104" s="20" t="s">
+      <c r="E117" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F104" s="21" t="s">
+      <c r="F117" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G104" s="27" t="s">
+      <c r="G117" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="H104" s="22" t="s">
+      <c r="H117" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I104" s="23" t="s">
+      <c r="I117" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="J104" s="24"/>
-      <c r="K104" s="27"/>
-      <c r="L104" s="25" t="s">
+      <c r="J117" s="25"/>
+      <c r="K117" s="29"/>
+      <c r="L117" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="M104" s="26"/>
-    </row>
-    <row r="105" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="13"/>
-      <c r="B105" s="17">
+      <c r="M117" s="27"/>
+    </row>
+    <row r="118" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="14"/>
+      <c r="B118" s="18">
         <v>78774</v>
       </c>
-      <c r="C105" s="18">
+      <c r="C118" s="19">
         <v>44506</v>
       </c>
-      <c r="D105" s="19">
+      <c r="D118" s="20">
         <v>30</v>
       </c>
-      <c r="E105" s="20" t="s">
+      <c r="E118" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F105" s="21" t="s">
+      <c r="F118" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G105" s="27" t="s">
+      <c r="G118" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="H105" s="22" t="s">
+      <c r="H118" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I105" s="23" t="s">
+      <c r="I118" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="J105" s="24"/>
-      <c r="K105" s="27"/>
-      <c r="L105" s="25" t="s">
+      <c r="J118" s="25"/>
+      <c r="K118" s="29"/>
+      <c r="L118" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="M105" s="26"/>
-    </row>
-    <row r="106" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="13"/>
-      <c r="B106" s="17">
+      <c r="M118" s="27"/>
+    </row>
+    <row r="119" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="14"/>
+      <c r="B119" s="18">
         <v>78773</v>
       </c>
-      <c r="C106" s="18">
+      <c r="C119" s="19">
         <v>44506</v>
       </c>
-      <c r="D106" s="19">
+      <c r="D119" s="20">
         <v>40</v>
       </c>
-      <c r="E106" s="20" t="s">
+      <c r="E119" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F106" s="21" t="s">
+      <c r="F119" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G106" s="27" t="s">
+      <c r="G119" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="H106" s="22" t="s">
+      <c r="H119" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I106" s="23" t="s">
+      <c r="I119" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="J106" s="24"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="25" t="s">
+      <c r="J119" s="25"/>
+      <c r="K119" s="29"/>
+      <c r="L119" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="M106" s="26"/>
-    </row>
-    <row r="107" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="13"/>
-      <c r="B107" s="17">
+      <c r="M119" s="27"/>
+    </row>
+    <row r="120" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="14"/>
+      <c r="B120" s="18">
         <v>78772</v>
       </c>
-      <c r="C107" s="18">
+      <c r="C120" s="19">
         <v>44505</v>
       </c>
-      <c r="D107" s="19" t="s">
+      <c r="D120" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E107" s="20" t="s">
+      <c r="E120" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F107" s="21" t="s">
+      <c r="F120" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G107" s="27" t="s">
+      <c r="G120" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="H107" s="22" t="s">
+      <c r="H120" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I107" s="23" t="s">
+      <c r="I120" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J107" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K107" s="27"/>
-      <c r="L107" s="25"/>
-      <c r="M107" s="26" t="s">
+      <c r="J120" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K120" s="29"/>
+      <c r="L120" s="26"/>
+      <c r="M120" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="13"/>
-      <c r="B108" s="17">
+    <row r="121" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="14"/>
+      <c r="B121" s="18">
         <v>78771</v>
       </c>
-      <c r="C108" s="18">
+      <c r="C121" s="19">
         <v>44505</v>
       </c>
-      <c r="D108" s="19" t="s">
+      <c r="D121" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E108" s="20" t="s">
+      <c r="E121" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F108" s="21" t="s">
+      <c r="F121" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G108" s="27" t="s">
+      <c r="G121" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H108" s="22" t="s">
+      <c r="H121" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I108" s="23">
+      <c r="I121" s="24">
         <v>44501</v>
       </c>
-      <c r="J108" s="24"/>
-      <c r="K108" s="27"/>
-      <c r="L108" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M108" s="26" t="s">
+      <c r="J121" s="25"/>
+      <c r="K121" s="29"/>
+      <c r="L121" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M121" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="13"/>
-      <c r="B109" s="17">
+    <row r="122" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="14"/>
+      <c r="B122" s="18">
         <v>78770</v>
       </c>
-      <c r="C109" s="18">
+      <c r="C122" s="19">
         <v>44505</v>
       </c>
-      <c r="D109" s="19" t="s">
+      <c r="D122" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E109" s="20" t="s">
+      <c r="E122" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F109" s="21" t="s">
+      <c r="F122" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G109" s="27" t="s">
+      <c r="G122" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H109" s="22" t="s">
+      <c r="H122" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I109" s="23">
+      <c r="I122" s="24">
         <v>44504</v>
       </c>
-      <c r="J109" s="24"/>
-      <c r="K109" s="27"/>
-      <c r="L109" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M109" s="26" t="s">
+      <c r="J122" s="25"/>
+      <c r="K122" s="29"/>
+      <c r="L122" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M122" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="13"/>
-      <c r="B110" s="17">
+    <row r="123" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="14"/>
+      <c r="B123" s="18">
         <v>78769</v>
       </c>
-      <c r="C110" s="18">
+      <c r="C123" s="19">
         <v>44505</v>
       </c>
-      <c r="D110" s="19" t="s">
+      <c r="D123" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E110" s="20" t="s">
+      <c r="E123" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F110" s="21" t="s">
+      <c r="F123" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G110" s="27" t="s">
+      <c r="G123" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H110" s="22" t="s">
+      <c r="H123" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I110" s="23">
+      <c r="I123" s="24">
         <v>44500</v>
       </c>
-      <c r="J110" s="24"/>
-      <c r="K110" s="27"/>
-      <c r="L110" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M110" s="26" t="s">
+      <c r="J123" s="25"/>
+      <c r="K123" s="29"/>
+      <c r="L123" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M123" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="13"/>
-      <c r="B111" s="17">
+    <row r="124" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="14"/>
+      <c r="B124" s="18">
         <v>78768</v>
       </c>
-      <c r="C111" s="18">
+      <c r="C124" s="19">
         <v>44505</v>
       </c>
-      <c r="D111" s="19" t="s">
+      <c r="D124" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E111" s="20" t="s">
+      <c r="E124" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F111" s="21" t="s">
+      <c r="F124" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G111" s="27" t="s">
+      <c r="G124" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H111" s="22" t="s">
+      <c r="H124" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I111" s="23">
+      <c r="I124" s="24">
         <v>44498</v>
       </c>
-      <c r="J111" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K111" s="27"/>
-      <c r="L111" s="25"/>
-      <c r="M111" s="26" t="s">
+      <c r="J124" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K124" s="29"/>
+      <c r="L124" s="26"/>
+      <c r="M124" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="13"/>
-      <c r="B112" s="17">
+    <row r="125" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="14"/>
+      <c r="B125" s="18">
         <v>78767</v>
       </c>
-      <c r="C112" s="18">
+      <c r="C125" s="19">
         <v>44505</v>
       </c>
-      <c r="D112" s="19">
+      <c r="D125" s="20">
         <v>30</v>
       </c>
-      <c r="E112" s="20" t="s">
+      <c r="E125" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F112" s="21" t="s">
+      <c r="F125" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G112" s="27" t="s">
+      <c r="G125" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="H112" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I112" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J112" s="24"/>
-      <c r="K112" s="27"/>
-      <c r="L112" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M112" s="26"/>
-    </row>
-    <row r="113" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="13"/>
-      <c r="B113" s="17">
+      <c r="H125" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I125" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J125" s="25"/>
+      <c r="K125" s="29"/>
+      <c r="L125" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M125" s="27"/>
+    </row>
+    <row r="126" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="14"/>
+      <c r="B126" s="18">
         <v>78766</v>
       </c>
-      <c r="C113" s="18">
+      <c r="C126" s="19">
         <v>44505</v>
       </c>
-      <c r="D113" s="19">
+      <c r="D126" s="20">
         <v>10</v>
       </c>
-      <c r="E113" s="20" t="s">
+      <c r="E126" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F113" s="21" t="s">
+      <c r="F126" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G113" s="27" t="s">
+      <c r="G126" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="H113" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I113" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J113" s="24"/>
-      <c r="K113" s="27"/>
-      <c r="L113" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M113" s="26"/>
-    </row>
-    <row r="114" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="13"/>
-      <c r="B114" s="17">
+      <c r="H126" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I126" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J126" s="25"/>
+      <c r="K126" s="29"/>
+      <c r="L126" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M126" s="27"/>
+    </row>
+    <row r="127" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="14"/>
+      <c r="B127" s="18">
         <v>78765</v>
       </c>
-      <c r="C114" s="18">
+      <c r="C127" s="19">
         <v>44505</v>
       </c>
-      <c r="D114" s="19">
+      <c r="D127" s="20">
         <v>60</v>
       </c>
-      <c r="E114" s="20" t="s">
+      <c r="E127" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F114" s="21" t="s">
+      <c r="F127" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G114" s="27" t="s">
+      <c r="G127" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="H114" s="22" t="s">
+      <c r="H127" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I114" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J114" s="24"/>
-      <c r="K114" s="27"/>
-      <c r="L114" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M114" s="26"/>
-    </row>
-    <row r="115" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="13"/>
-      <c r="B115" s="17">
+      <c r="I127" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J127" s="25"/>
+      <c r="K127" s="29"/>
+      <c r="L127" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M127" s="27"/>
+    </row>
+    <row r="128" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="14"/>
+      <c r="B128" s="18">
         <v>78764</v>
       </c>
-      <c r="C115" s="18">
+      <c r="C128" s="19">
         <v>44505</v>
       </c>
-      <c r="D115" s="19">
+      <c r="D128" s="20">
         <v>20</v>
       </c>
-      <c r="E115" s="20" t="s">
+      <c r="E128" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F115" s="21" t="s">
+      <c r="F128" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G115" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H115" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I115" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J115" s="24"/>
-      <c r="K115" s="27"/>
-      <c r="L115" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M115" s="26"/>
-    </row>
-    <row r="116" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="13"/>
-      <c r="B116" s="17">
+      <c r="G128" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H128" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I128" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J128" s="25"/>
+      <c r="K128" s="29"/>
+      <c r="L128" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M128" s="27"/>
+    </row>
+    <row r="129" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="14"/>
+      <c r="B129" s="18">
         <v>78763</v>
       </c>
-      <c r="C116" s="18">
+      <c r="C129" s="19">
         <v>44505</v>
       </c>
-      <c r="D116" s="19">
+      <c r="D129" s="20">
         <v>20</v>
       </c>
-      <c r="E116" s="20" t="s">
+      <c r="E129" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F116" s="21" t="s">
+      <c r="F129" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G116" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H116" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I116" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J116" s="24"/>
-      <c r="K116" s="27"/>
-      <c r="L116" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M116" s="26"/>
-    </row>
-    <row r="117" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="13"/>
-      <c r="B117" s="17">
+      <c r="G129" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H129" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I129" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J129" s="25"/>
+      <c r="K129" s="29"/>
+      <c r="L129" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M129" s="27"/>
+    </row>
+    <row r="130" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="14"/>
+      <c r="B130" s="18">
         <v>78762</v>
       </c>
-      <c r="C117" s="18">
+      <c r="C130" s="19">
         <v>44505</v>
       </c>
-      <c r="D117" s="19">
+      <c r="D130" s="20">
         <v>20</v>
       </c>
-      <c r="E117" s="20" t="s">
+      <c r="E130" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F117" s="21" t="s">
+      <c r="F130" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G117" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H117" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I117" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J117" s="24"/>
-      <c r="K117" s="27"/>
-      <c r="L117" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M117" s="26"/>
-    </row>
-    <row r="118" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="13"/>
-      <c r="B118" s="17">
+      <c r="G130" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H130" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I130" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J130" s="25"/>
+      <c r="K130" s="29"/>
+      <c r="L130" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M130" s="27"/>
+    </row>
+    <row r="131" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="14"/>
+      <c r="B131" s="18">
         <v>78761</v>
       </c>
-      <c r="C118" s="18">
+      <c r="C131" s="19">
         <v>44505</v>
       </c>
-      <c r="D118" s="19">
+      <c r="D131" s="20">
         <v>50</v>
       </c>
-      <c r="E118" s="20" t="s">
+      <c r="E131" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F118" s="21" t="s">
+      <c r="F131" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G118" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H118" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I118" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J118" s="24"/>
-      <c r="K118" s="27"/>
-      <c r="L118" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M118" s="26"/>
-    </row>
-    <row r="119" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="13"/>
-      <c r="B119" s="17">
+      <c r="G131" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H131" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I131" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J131" s="25"/>
+      <c r="K131" s="29"/>
+      <c r="L131" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M131" s="27"/>
+    </row>
+    <row r="132" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="14"/>
+      <c r="B132" s="18">
         <v>78760</v>
       </c>
-      <c r="C119" s="18">
+      <c r="C132" s="19">
         <v>44505</v>
       </c>
-      <c r="D119" s="19">
+      <c r="D132" s="20">
         <v>30</v>
       </c>
-      <c r="E119" s="20" t="s">
+      <c r="E132" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F119" s="21" t="s">
+      <c r="F132" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G119" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H119" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I119" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J119" s="24"/>
-      <c r="K119" s="27"/>
-      <c r="L119" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M119" s="26"/>
-    </row>
-    <row r="120" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="13"/>
-      <c r="B120" s="17">
+      <c r="G132" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H132" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I132" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J132" s="25"/>
+      <c r="K132" s="29"/>
+      <c r="L132" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M132" s="27"/>
+    </row>
+    <row r="133" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="14"/>
+      <c r="B133" s="18">
         <v>78759</v>
       </c>
-      <c r="C120" s="18">
+      <c r="C133" s="19">
         <v>44505</v>
       </c>
-      <c r="D120" s="19">
+      <c r="D133" s="20">
         <v>20</v>
       </c>
-      <c r="E120" s="20" t="s">
+      <c r="E133" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F120" s="21" t="s">
+      <c r="F133" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G120" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H120" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I120" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J120" s="24"/>
-      <c r="K120" s="27"/>
-      <c r="L120" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M120" s="26"/>
-    </row>
-    <row r="121" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="13"/>
-      <c r="B121" s="17">
+      <c r="G133" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H133" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I133" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J133" s="25"/>
+      <c r="K133" s="29"/>
+      <c r="L133" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M133" s="27"/>
+    </row>
+    <row r="134" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="14"/>
+      <c r="B134" s="18">
         <v>78758</v>
       </c>
-      <c r="C121" s="18">
+      <c r="C134" s="19">
         <v>44505</v>
       </c>
-      <c r="D121" s="19" t="s">
+      <c r="D134" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E121" s="20" t="s">
+      <c r="E134" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F121" s="21" t="s">
+      <c r="F134" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G121" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H121" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I121" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J121" s="24"/>
-      <c r="K121" s="27"/>
-      <c r="L121" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M121" s="26"/>
-    </row>
-    <row r="122" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="13"/>
-      <c r="B122" s="17">
+      <c r="G134" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H134" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I134" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J134" s="25"/>
+      <c r="K134" s="29"/>
+      <c r="L134" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M134" s="27"/>
+    </row>
+    <row r="135" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="14"/>
+      <c r="B135" s="18">
         <v>78757</v>
       </c>
-      <c r="C122" s="18">
+      <c r="C135" s="19">
         <v>44505</v>
       </c>
-      <c r="D122" s="19">
+      <c r="D135" s="20">
         <v>30</v>
       </c>
-      <c r="E122" s="20" t="s">
+      <c r="E135" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F122" s="21" t="s">
+      <c r="F135" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G122" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H122" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I122" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J122" s="24"/>
-      <c r="K122" s="27"/>
-      <c r="L122" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M122" s="26"/>
-    </row>
-    <row r="123" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="13"/>
-      <c r="B123" s="17">
+      <c r="G135" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H135" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I135" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J135" s="25"/>
+      <c r="K135" s="29"/>
+      <c r="L135" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M135" s="27"/>
+    </row>
+    <row r="136" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="14"/>
+      <c r="B136" s="18">
         <v>78756</v>
       </c>
-      <c r="C123" s="18">
+      <c r="C136" s="19">
         <v>44505</v>
       </c>
-      <c r="D123" s="19">
+      <c r="D136" s="20">
         <v>20</v>
       </c>
-      <c r="E123" s="20" t="s">
+      <c r="E136" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F123" s="21" t="s">
+      <c r="F136" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G123" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H123" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I123" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J123" s="24"/>
-      <c r="K123" s="27"/>
-      <c r="L123" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M123" s="26"/>
-    </row>
-    <row r="124" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="13"/>
-      <c r="B124" s="17">
+      <c r="G136" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H136" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I136" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J136" s="25"/>
+      <c r="K136" s="29"/>
+      <c r="L136" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M136" s="27"/>
+    </row>
+    <row r="137" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="14"/>
+      <c r="B137" s="18">
         <v>78755</v>
       </c>
-      <c r="C124" s="18">
+      <c r="C137" s="19">
         <v>44504</v>
       </c>
-      <c r="D124" s="19" t="s">
+      <c r="D137" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E124" s="20" t="s">
+      <c r="E137" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F124" s="21" t="s">
+      <c r="F137" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G124" s="27" t="s">
+      <c r="G137" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H124" s="22" t="s">
+      <c r="H137" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I124" s="23" t="s">
+      <c r="I137" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J124" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K124" s="27"/>
-      <c r="L124" s="25"/>
-      <c r="M124" s="26" t="s">
+      <c r="J137" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K137" s="29"/>
+      <c r="L137" s="26"/>
+      <c r="M137" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="13"/>
-      <c r="B125" s="17">
+    <row r="138" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="14"/>
+      <c r="B138" s="18">
         <v>78754</v>
       </c>
-      <c r="C125" s="18">
+      <c r="C138" s="19">
         <v>44504</v>
       </c>
-      <c r="D125" s="19" t="s">
+      <c r="D138" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E125" s="20" t="s">
+      <c r="E138" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F125" s="21" t="s">
+      <c r="F138" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G125" s="27" t="s">
+      <c r="G138" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H125" s="22" t="s">
+      <c r="H138" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I125" s="23">
+      <c r="I138" s="24">
         <v>44502</v>
       </c>
-      <c r="J125" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K125" s="27"/>
-      <c r="L125" s="25"/>
-      <c r="M125" s="26" t="s">
+      <c r="J138" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K138" s="29"/>
+      <c r="L138" s="26"/>
+      <c r="M138" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="13"/>
-      <c r="B126" s="17">
+    <row r="139" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="14"/>
+      <c r="B139" s="18">
         <v>78753</v>
       </c>
-      <c r="C126" s="18">
+      <c r="C139" s="19">
         <v>44504</v>
       </c>
-      <c r="D126" s="19" t="s">
+      <c r="D139" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E126" s="20" t="s">
+      <c r="E139" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F126" s="21" t="s">
+      <c r="F139" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G126" s="27" t="s">
+      <c r="G139" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H126" s="22" t="s">
+      <c r="H139" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I126" s="23">
+      <c r="I139" s="24">
         <v>44501</v>
       </c>
-      <c r="J126" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K126" s="27"/>
-      <c r="L126" s="25"/>
-      <c r="M126" s="26" t="s">
+      <c r="J139" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K139" s="29"/>
+      <c r="L139" s="26"/>
+      <c r="M139" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="13"/>
-      <c r="B127" s="17">
+    <row r="140" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="14"/>
+      <c r="B140" s="18">
         <v>78752</v>
       </c>
-      <c r="C127" s="18">
+      <c r="C140" s="19">
         <v>44504</v>
       </c>
-      <c r="D127" s="19" t="s">
+      <c r="D140" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E127" s="20" t="s">
+      <c r="E140" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F127" s="21" t="s">
+      <c r="F140" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G127" s="27" t="s">
+      <c r="G140" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H127" s="22" t="s">
+      <c r="H140" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I127" s="23">
+      <c r="I140" s="24">
         <v>44502</v>
       </c>
-      <c r="J127" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K127" s="27"/>
-      <c r="L127" s="25"/>
-      <c r="M127" s="26" t="s">
+      <c r="J140" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K140" s="29"/>
+      <c r="L140" s="26"/>
+      <c r="M140" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="13"/>
-      <c r="B128" s="17">
+    <row r="141" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="14"/>
+      <c r="B141" s="18">
         <v>78751</v>
       </c>
-      <c r="C128" s="18">
+      <c r="C141" s="19">
         <v>44504</v>
       </c>
-      <c r="D128" s="19" t="s">
+      <c r="D141" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E128" s="20" t="s">
+      <c r="E141" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F128" s="21" t="s">
+      <c r="F141" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G128" s="27" t="s">
+      <c r="G141" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H128" s="22" t="s">
+      <c r="H141" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I128" s="23">
+      <c r="I141" s="24">
         <v>44502</v>
       </c>
-      <c r="J128" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K128" s="27"/>
-      <c r="L128" s="25"/>
-      <c r="M128" s="26" t="s">
+      <c r="J141" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K141" s="29"/>
+      <c r="L141" s="26"/>
+      <c r="M141" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="13"/>
-      <c r="B129" s="17">
+    <row r="142" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="14"/>
+      <c r="B142" s="18">
         <v>78750</v>
       </c>
-      <c r="C129" s="18">
+      <c r="C142" s="19">
         <v>44504</v>
       </c>
-      <c r="D129" s="19">
+      <c r="D142" s="20">
         <v>40</v>
       </c>
-      <c r="E129" s="20" t="s">
+      <c r="E142" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F129" s="21" t="s">
+      <c r="F142" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G129" s="27" t="s">
+      <c r="G142" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="H129" s="22" t="s">
+      <c r="H142" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I129" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J129" s="24"/>
-      <c r="K129" s="27"/>
-      <c r="L129" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M129" s="26"/>
-    </row>
-    <row r="130" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="13"/>
-      <c r="B130" s="17">
+      <c r="I142" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J142" s="25"/>
+      <c r="K142" s="29"/>
+      <c r="L142" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M142" s="27"/>
+    </row>
+    <row r="143" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="14"/>
+      <c r="B143" s="18">
         <v>78749</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C143" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D130" s="19"/>
-      <c r="E130" s="20"/>
-      <c r="F130" s="21"/>
-      <c r="G130" s="27"/>
-      <c r="H130" s="22"/>
-      <c r="I130" s="23"/>
-      <c r="J130" s="24"/>
-      <c r="K130" s="27"/>
-      <c r="L130" s="25" t="s">
+      <c r="D143" s="20"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="29"/>
+      <c r="H143" s="23"/>
+      <c r="I143" s="24"/>
+      <c r="J143" s="25"/>
+      <c r="K143" s="29"/>
+      <c r="L143" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="M130" s="26"/>
-    </row>
-    <row r="131" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="13"/>
-      <c r="B131" s="17">
+      <c r="M143" s="27"/>
+    </row>
+    <row r="144" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="14"/>
+      <c r="B144" s="18">
         <v>78748</v>
       </c>
-      <c r="C131" s="18">
+      <c r="C144" s="19">
         <v>44504</v>
       </c>
-      <c r="D131" s="19">
+      <c r="D144" s="20">
         <v>40</v>
       </c>
-      <c r="E131" s="20" t="s">
+      <c r="E144" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F131" s="21" t="s">
+      <c r="F144" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G131" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H131" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I131" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J131" s="24"/>
-      <c r="K131" s="27"/>
-      <c r="L131" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M131" s="26"/>
-    </row>
-    <row r="132" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="13"/>
-      <c r="B132" s="17">
+      <c r="G144" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H144" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I144" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J144" s="25"/>
+      <c r="K144" s="29"/>
+      <c r="L144" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M144" s="27"/>
+    </row>
+    <row r="145" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="14"/>
+      <c r="B145" s="18">
         <v>78747</v>
       </c>
-      <c r="C132" s="18">
+      <c r="C145" s="19">
         <v>44504</v>
       </c>
-      <c r="D132" s="19">
+      <c r="D145" s="20">
         <v>70</v>
       </c>
-      <c r="E132" s="20" t="s">
+      <c r="E145" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F132" s="21" t="s">
+      <c r="F145" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G132" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H132" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I132" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J132" s="24"/>
-      <c r="K132" s="27"/>
-      <c r="L132" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M132" s="26"/>
-    </row>
-    <row r="133" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="13"/>
-      <c r="B133" s="17">
+      <c r="G145" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H145" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I145" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J145" s="25"/>
+      <c r="K145" s="29"/>
+      <c r="L145" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M145" s="27"/>
+    </row>
+    <row r="146" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="14"/>
+      <c r="B146" s="18">
         <v>78746</v>
       </c>
-      <c r="C133" s="18">
+      <c r="C146" s="19">
         <v>44504</v>
       </c>
-      <c r="D133" s="19">
+      <c r="D146" s="20">
         <v>60</v>
       </c>
-      <c r="E133" s="20" t="s">
+      <c r="E146" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F133" s="21" t="s">
+      <c r="F146" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G133" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H133" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I133" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J133" s="24"/>
-      <c r="K133" s="27"/>
-      <c r="L133" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M133" s="26"/>
-    </row>
-    <row r="134" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="13"/>
-      <c r="B134" s="17">
+      <c r="G146" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H146" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I146" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J146" s="25"/>
+      <c r="K146" s="29"/>
+      <c r="L146" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M146" s="27"/>
+    </row>
+    <row r="147" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="14"/>
+      <c r="B147" s="18">
         <v>78745</v>
       </c>
-      <c r="C134" s="18">
+      <c r="C147" s="19">
         <v>44504</v>
       </c>
-      <c r="D134" s="19">
+      <c r="D147" s="20">
         <v>10</v>
       </c>
-      <c r="E134" s="20" t="s">
+      <c r="E147" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F134" s="21" t="s">
+      <c r="F147" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G134" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H134" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I134" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J134" s="24"/>
-      <c r="K134" s="27"/>
-      <c r="L134" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M134" s="26"/>
-    </row>
-    <row r="135" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="13"/>
-      <c r="B135" s="17">
+      <c r="G147" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H147" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I147" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J147" s="25"/>
+      <c r="K147" s="29"/>
+      <c r="L147" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M147" s="27"/>
+    </row>
+    <row r="148" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="14"/>
+      <c r="B148" s="18">
         <v>78744</v>
       </c>
-      <c r="C135" s="18">
+      <c r="C148" s="19">
         <v>44503</v>
       </c>
-      <c r="D135" s="19" t="s">
+      <c r="D148" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E135" s="20" t="s">
+      <c r="E148" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F135" s="21" t="s">
+      <c r="F148" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G135" s="27" t="s">
+      <c r="G148" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="H135" s="22" t="s">
+      <c r="H148" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I135" s="23">
+      <c r="I148" s="24">
         <v>44497</v>
       </c>
-      <c r="J135" s="24"/>
-      <c r="K135" s="27"/>
-      <c r="L135" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M135" s="26" t="s">
+      <c r="J148" s="25"/>
+      <c r="K148" s="29"/>
+      <c r="L148" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M148" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="13"/>
-      <c r="B136" s="17">
+    <row r="149" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="14"/>
+      <c r="B149" s="18">
         <v>78743</v>
       </c>
-      <c r="C136" s="18">
+      <c r="C149" s="19">
         <v>44503</v>
       </c>
-      <c r="D136" s="19" t="s">
+      <c r="D149" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E136" s="20" t="s">
+      <c r="E149" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F136" s="21" t="s">
+      <c r="F149" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G136" s="27" t="s">
+      <c r="G149" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H136" s="22" t="s">
+      <c r="H149" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I136" s="23">
+      <c r="I149" s="24">
         <v>44497</v>
       </c>
-      <c r="J136" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K136" s="27"/>
-      <c r="L136" s="25"/>
-      <c r="M136" s="26" t="s">
+      <c r="J149" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K149" s="29"/>
+      <c r="L149" s="26"/>
+      <c r="M149" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="13"/>
-      <c r="B137" s="17">
+    <row r="150" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="14"/>
+      <c r="B150" s="18">
         <v>78742</v>
       </c>
-      <c r="C137" s="18">
+      <c r="C150" s="19">
         <v>44503</v>
       </c>
-      <c r="D137" s="19" t="s">
+      <c r="D150" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E137" s="20" t="s">
+      <c r="E150" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F137" s="21" t="s">
+      <c r="F150" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G137" s="27" t="s">
+      <c r="G150" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H137" s="22" t="s">
+      <c r="H150" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I137" s="23">
+      <c r="I150" s="24">
         <v>44498</v>
       </c>
-      <c r="J137" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K137" s="27"/>
-      <c r="L137" s="25"/>
-      <c r="M137" s="26" t="s">
+      <c r="J150" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K150" s="29"/>
+      <c r="L150" s="26"/>
+      <c r="M150" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="13"/>
-      <c r="B138" s="17">
+    <row r="151" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="14"/>
+      <c r="B151" s="18">
         <v>78741</v>
       </c>
-      <c r="C138" s="18">
+      <c r="C151" s="19">
         <v>44503</v>
       </c>
-      <c r="D138" s="19" t="s">
+      <c r="D151" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E138" s="20" t="s">
+      <c r="E151" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F138" s="21" t="s">
+      <c r="F151" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G138" s="27" t="s">
+      <c r="G151" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H138" s="22" t="s">
+      <c r="H151" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I138" s="23">
+      <c r="I151" s="24">
         <v>44501</v>
       </c>
-      <c r="J138" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K138" s="27"/>
-      <c r="L138" s="25"/>
-      <c r="M138" s="26" t="s">
+      <c r="J151" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K151" s="29"/>
+      <c r="L151" s="26"/>
+      <c r="M151" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="13"/>
-      <c r="B139" s="17">
+    <row r="152" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="14"/>
+      <c r="B152" s="18">
         <v>78740</v>
       </c>
-      <c r="C139" s="18">
+      <c r="C152" s="19">
         <v>44503</v>
       </c>
-      <c r="D139" s="19" t="s">
+      <c r="D152" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E139" s="20" t="s">
+      <c r="E152" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F139" s="21" t="s">
+      <c r="F152" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G139" s="27" t="s">
+      <c r="G152" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H139" s="22" t="s">
+      <c r="H152" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I139" s="23">
+      <c r="I152" s="24">
         <v>44497</v>
       </c>
-      <c r="J139" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K139" s="27"/>
-      <c r="L139" s="25"/>
-      <c r="M139" s="26" t="s">
+      <c r="J152" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K152" s="29"/>
+      <c r="L152" s="26"/>
+      <c r="M152" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="13"/>
-      <c r="B140" s="17">
+    <row r="153" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="14"/>
+      <c r="B153" s="18">
         <v>78739</v>
       </c>
-      <c r="C140" s="18">
+      <c r="C153" s="19">
         <v>44503</v>
       </c>
-      <c r="D140" s="19" t="s">
+      <c r="D153" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E140" s="20" t="s">
+      <c r="E153" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F140" s="21" t="s">
+      <c r="F153" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G140" s="27" t="s">
+      <c r="G153" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H140" s="22" t="s">
+      <c r="H153" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I140" s="23" t="s">
+      <c r="I153" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J140" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K140" s="27"/>
-      <c r="L140" s="25"/>
-      <c r="M140" s="26" t="s">
+      <c r="J153" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K153" s="29"/>
+      <c r="L153" s="26"/>
+      <c r="M153" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="13"/>
-      <c r="B141" s="17">
+    <row r="154" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="14"/>
+      <c r="B154" s="18">
         <v>78738</v>
       </c>
-      <c r="C141" s="18">
+      <c r="C154" s="19">
         <v>44503</v>
       </c>
-      <c r="D141" s="19" t="s">
+      <c r="D154" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E141" s="20" t="s">
+      <c r="E154" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F141" s="21" t="s">
+      <c r="F154" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G141" s="27" t="s">
+      <c r="G154" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H141" s="22" t="s">
+      <c r="H154" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I141" s="23">
+      <c r="I154" s="24">
         <v>44500</v>
       </c>
-      <c r="J141" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K141" s="27"/>
-      <c r="L141" s="25"/>
-      <c r="M141" s="26" t="s">
+      <c r="J154" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K154" s="29"/>
+      <c r="L154" s="26"/>
+      <c r="M154" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="13"/>
-      <c r="B142" s="17">
+    <row r="155" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="14"/>
+      <c r="B155" s="18">
         <v>78737</v>
       </c>
-      <c r="C142" s="18">
+      <c r="C155" s="19">
         <v>44503</v>
       </c>
-      <c r="D142" s="19" t="s">
+      <c r="D155" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E142" s="20" t="s">
+      <c r="E155" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F142" s="21" t="s">
+      <c r="F155" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G142" s="27" t="s">
+      <c r="G155" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H142" s="22" t="s">
+      <c r="H155" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I142" s="23">
+      <c r="I155" s="24">
         <v>44499</v>
       </c>
-      <c r="J142" s="24"/>
-      <c r="K142" s="27"/>
-      <c r="L142" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M142" s="26" t="s">
+      <c r="J155" s="25"/>
+      <c r="K155" s="29"/>
+      <c r="L155" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M155" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="13"/>
-      <c r="B143" s="17">
+    <row r="156" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="14"/>
+      <c r="B156" s="18">
         <v>78736</v>
       </c>
-      <c r="C143" s="18">
+      <c r="C156" s="19">
         <v>44503</v>
       </c>
-      <c r="D143" s="19">
+      <c r="D156" s="20">
         <v>60</v>
       </c>
-      <c r="E143" s="20" t="s">
+      <c r="E156" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F143" s="21" t="s">
+      <c r="F156" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G143" s="27" t="s">
+      <c r="G156" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="H143" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I143" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J143" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K143" s="27"/>
-      <c r="L143" s="25"/>
-      <c r="M143" s="26" t="s">
+      <c r="H156" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I156" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J156" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K156" s="29"/>
+      <c r="L156" s="26"/>
+      <c r="M156" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="13"/>
-      <c r="B144" s="17">
+    <row r="157" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="14"/>
+      <c r="B157" s="18">
         <v>78735</v>
       </c>
-      <c r="C144" s="18">
+      <c r="C157" s="19">
         <v>44503</v>
       </c>
-      <c r="D144" s="19">
+      <c r="D157" s="20">
         <v>20</v>
       </c>
-      <c r="E144" s="20" t="s">
+      <c r="E157" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F144" s="21" t="s">
+      <c r="F157" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G144" s="27" t="s">
+      <c r="G157" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="H144" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I144" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J144" s="24"/>
-      <c r="K144" s="27"/>
-      <c r="L144" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M144" s="26"/>
-    </row>
-    <row r="145" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="13"/>
-      <c r="B145" s="17">
+      <c r="H157" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I157" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J157" s="25"/>
+      <c r="K157" s="29"/>
+      <c r="L157" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M157" s="27"/>
+    </row>
+    <row r="158" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="14"/>
+      <c r="B158" s="18">
         <v>78734</v>
       </c>
-      <c r="C145" s="18">
+      <c r="C158" s="19">
         <v>44503</v>
       </c>
-      <c r="D145" s="19">
+      <c r="D158" s="20">
         <v>80</v>
       </c>
-      <c r="E145" s="20" t="s">
+      <c r="E158" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F145" s="21" t="s">
+      <c r="F158" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G145" s="27" t="s">
+      <c r="G158" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="H145" s="22" t="s">
+      <c r="H158" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I145" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J145" s="24"/>
-      <c r="K145" s="27"/>
-      <c r="L145" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M145" s="26"/>
-    </row>
-    <row r="146" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="13"/>
-      <c r="B146" s="17">
+      <c r="I158" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J158" s="25"/>
+      <c r="K158" s="29"/>
+      <c r="L158" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M158" s="27"/>
+    </row>
+    <row r="159" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="14"/>
+      <c r="B159" s="18">
         <v>78733</v>
       </c>
-      <c r="C146" s="18">
+      <c r="C159" s="19">
         <v>44503</v>
       </c>
-      <c r="D146" s="19">
+      <c r="D159" s="20">
         <v>10</v>
       </c>
-      <c r="E146" s="20" t="s">
+      <c r="E159" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F146" s="21" t="s">
+      <c r="F159" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G146" s="27" t="s">
+      <c r="G159" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="H146" s="22" t="s">
+      <c r="H159" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="I146" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J146" s="24"/>
-      <c r="K146" s="27"/>
-      <c r="L146" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M146" s="26"/>
-    </row>
-    <row r="147" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="13"/>
-      <c r="B147" s="17">
+      <c r="I159" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J159" s="25"/>
+      <c r="K159" s="29"/>
+      <c r="L159" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M159" s="27"/>
+    </row>
+    <row r="160" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="14"/>
+      <c r="B160" s="18">
         <v>78732</v>
       </c>
-      <c r="C147" s="18">
+      <c r="C160" s="19">
         <v>44503</v>
       </c>
-      <c r="D147" s="19" t="s">
+      <c r="D160" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E147" s="20" t="s">
+      <c r="E160" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F147" s="21" t="s">
+      <c r="F160" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G147" s="27" t="s">
+      <c r="G160" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="H147" s="22" t="s">
+      <c r="H160" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="I147" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J147" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K147" s="27"/>
-      <c r="L147" s="25"/>
-      <c r="M147" s="26" t="s">
+      <c r="I160" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J160" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K160" s="29"/>
+      <c r="L160" s="26"/>
+      <c r="M160" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="13"/>
-      <c r="B148" s="17">
+    <row r="161" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="14"/>
+      <c r="B161" s="18">
         <v>78731</v>
       </c>
-      <c r="C148" s="18">
+      <c r="C161" s="19">
         <v>44503</v>
       </c>
-      <c r="D148" s="19" t="s">
+      <c r="D161" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E148" s="20" t="s">
+      <c r="E161" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F148" s="21" t="s">
+      <c r="F161" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G148" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H148" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I148" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J148" s="24"/>
-      <c r="K148" s="27"/>
-      <c r="L148" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M148" s="26"/>
-    </row>
-    <row r="149" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="13"/>
-      <c r="B149" s="17">
+      <c r="G161" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H161" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I161" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J161" s="25"/>
+      <c r="K161" s="29"/>
+      <c r="L161" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M161" s="27"/>
+    </row>
+    <row r="162" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="14"/>
+      <c r="B162" s="18">
         <v>78730</v>
       </c>
-      <c r="C149" s="18">
+      <c r="C162" s="19">
         <v>44503</v>
       </c>
-      <c r="D149" s="19" t="s">
+      <c r="D162" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E149" s="20" t="s">
+      <c r="E162" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F149" s="21" t="s">
+      <c r="F162" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G149" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H149" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I149" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J149" s="24"/>
-      <c r="K149" s="27"/>
-      <c r="L149" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M149" s="26"/>
-    </row>
-    <row r="150" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="13"/>
-      <c r="B150" s="17">
+      <c r="G162" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H162" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I162" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J162" s="25"/>
+      <c r="K162" s="29"/>
+      <c r="L162" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M162" s="27"/>
+    </row>
+    <row r="163" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="14"/>
+      <c r="B163" s="18">
         <v>78729</v>
       </c>
-      <c r="C150" s="18">
+      <c r="C163" s="19">
         <v>44503</v>
       </c>
-      <c r="D150" s="19" t="s">
+      <c r="D163" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E150" s="20" t="s">
+      <c r="E163" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F150" s="21" t="s">
+      <c r="F163" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G150" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H150" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I150" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J150" s="24"/>
-      <c r="K150" s="27"/>
-      <c r="L150" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M150" s="26"/>
-    </row>
-    <row r="151" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="13"/>
-      <c r="B151" s="17">
+      <c r="G163" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H163" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I163" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J163" s="25"/>
+      <c r="K163" s="29"/>
+      <c r="L163" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M163" s="27"/>
+    </row>
+    <row r="164" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="14"/>
+      <c r="B164" s="18">
         <v>78728</v>
       </c>
-      <c r="C151" s="18">
+      <c r="C164" s="19">
         <v>44503</v>
       </c>
-      <c r="D151" s="19">
+      <c r="D164" s="20">
         <v>30</v>
       </c>
-      <c r="E151" s="20" t="s">
+      <c r="E164" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F151" s="21" t="s">
+      <c r="F164" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G151" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H151" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I151" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J151" s="24"/>
-      <c r="K151" s="27"/>
-      <c r="L151" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M151" s="26"/>
-    </row>
-    <row r="152" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="13"/>
-      <c r="B152" s="17">
+      <c r="G164" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H164" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I164" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J164" s="25"/>
+      <c r="K164" s="29"/>
+      <c r="L164" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M164" s="27"/>
+    </row>
+    <row r="165" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="14"/>
+      <c r="B165" s="18">
         <v>78727</v>
       </c>
-      <c r="C152" s="18">
+      <c r="C165" s="19">
         <v>44503</v>
       </c>
-      <c r="D152" s="19">
+      <c r="D165" s="20">
         <v>50</v>
       </c>
-      <c r="E152" s="20" t="s">
+      <c r="E165" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F152" s="21" t="s">
+      <c r="F165" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G152" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H152" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I152" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J152" s="24"/>
-      <c r="K152" s="27"/>
-      <c r="L152" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M152" s="26"/>
-    </row>
-    <row r="153" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="13"/>
-      <c r="B153" s="17">
+      <c r="G165" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H165" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I165" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J165" s="25"/>
+      <c r="K165" s="29"/>
+      <c r="L165" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M165" s="27"/>
+    </row>
+    <row r="166" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="14"/>
+      <c r="B166" s="18">
         <v>78726</v>
       </c>
-      <c r="C153" s="18">
+      <c r="C166" s="19">
         <v>44503</v>
       </c>
-      <c r="D153" s="19">
+      <c r="D166" s="20">
         <v>10</v>
       </c>
-      <c r="E153" s="20" t="s">
+      <c r="E166" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F153" s="21" t="s">
+      <c r="F166" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G153" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H153" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I153" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J153" s="24"/>
-      <c r="K153" s="27"/>
-      <c r="L153" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M153" s="26"/>
-    </row>
-    <row r="154" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="13"/>
-      <c r="B154" s="17">
+      <c r="G166" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H166" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I166" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J166" s="25"/>
+      <c r="K166" s="29"/>
+      <c r="L166" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M166" s="27"/>
+    </row>
+    <row r="167" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="14"/>
+      <c r="B167" s="18">
         <v>78725</v>
       </c>
-      <c r="C154" s="18">
+      <c r="C167" s="19">
         <v>44503</v>
       </c>
-      <c r="D154" s="19">
+      <c r="D167" s="20">
         <v>10</v>
       </c>
-      <c r="E154" s="20" t="s">
+      <c r="E167" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F154" s="21" t="s">
+      <c r="F167" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G154" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H154" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I154" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J154" s="24"/>
-      <c r="K154" s="27"/>
-      <c r="L154" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M154" s="26"/>
-    </row>
-    <row r="155" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="13"/>
-      <c r="B155" s="17">
+      <c r="G167" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H167" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I167" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J167" s="25"/>
+      <c r="K167" s="29"/>
+      <c r="L167" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M167" s="27"/>
+    </row>
+    <row r="168" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="14"/>
+      <c r="B168" s="18">
         <v>78724</v>
       </c>
-      <c r="C155" s="18">
+      <c r="C168" s="19">
         <v>44503</v>
       </c>
-      <c r="D155" s="19">
+      <c r="D168" s="20">
         <v>50</v>
       </c>
-      <c r="E155" s="20" t="s">
+      <c r="E168" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F155" s="21" t="s">
+      <c r="F168" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G155" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H155" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I155" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J155" s="24"/>
-      <c r="K155" s="27"/>
-      <c r="L155" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M155" s="26"/>
-    </row>
-    <row r="156" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="13"/>
-      <c r="B156" s="17">
+      <c r="G168" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H168" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I168" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J168" s="25"/>
+      <c r="K168" s="29"/>
+      <c r="L168" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M168" s="27"/>
+    </row>
+    <row r="169" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="14"/>
+      <c r="B169" s="18">
         <v>78723</v>
       </c>
-      <c r="C156" s="18">
+      <c r="C169" s="19">
         <v>44503</v>
       </c>
-      <c r="D156" s="19">
+      <c r="D169" s="20">
         <v>30</v>
       </c>
-      <c r="E156" s="20" t="s">
+      <c r="E169" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F156" s="21" t="s">
+      <c r="F169" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G156" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H156" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I156" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J156" s="24"/>
-      <c r="K156" s="27"/>
-      <c r="L156" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M156" s="26"/>
-    </row>
-    <row r="157" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="13"/>
-      <c r="B157" s="17">
+      <c r="G169" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H169" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I169" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J169" s="25"/>
+      <c r="K169" s="29"/>
+      <c r="L169" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M169" s="27"/>
+    </row>
+    <row r="170" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="14"/>
+      <c r="B170" s="18">
         <v>78722</v>
       </c>
-      <c r="C157" s="18">
+      <c r="C170" s="19">
         <v>44503</v>
       </c>
-      <c r="D157" s="19" t="s">
+      <c r="D170" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E157" s="20" t="s">
+      <c r="E170" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F157" s="21" t="s">
+      <c r="F170" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G157" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H157" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I157" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J157" s="24"/>
-      <c r="K157" s="27"/>
-      <c r="L157" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M157" s="26"/>
-    </row>
-    <row r="158" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="13"/>
-      <c r="B158" s="17">
+      <c r="G170" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H170" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I170" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J170" s="25"/>
+      <c r="K170" s="29"/>
+      <c r="L170" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M170" s="27"/>
+    </row>
+    <row r="171" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="14"/>
+      <c r="B171" s="18">
         <v>78721</v>
       </c>
-      <c r="C158" s="18">
+      <c r="C171" s="19">
         <v>44503</v>
       </c>
-      <c r="D158" s="19">
+      <c r="D171" s="20">
         <v>50</v>
       </c>
-      <c r="E158" s="20" t="s">
+      <c r="E171" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F158" s="21" t="s">
+      <c r="F171" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G158" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H158" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I158" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J158" s="24"/>
-      <c r="K158" s="27"/>
-      <c r="L158" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M158" s="26"/>
-    </row>
-    <row r="159" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="13"/>
-      <c r="B159" s="17">
+      <c r="G171" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H171" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I171" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J171" s="25"/>
+      <c r="K171" s="29"/>
+      <c r="L171" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M171" s="27"/>
+    </row>
+    <row r="172" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="14"/>
+      <c r="B172" s="18">
         <v>78720</v>
       </c>
-      <c r="C159" s="18">
+      <c r="C172" s="19">
         <v>44503</v>
       </c>
-      <c r="D159" s="19">
+      <c r="D172" s="20">
         <v>30</v>
       </c>
-      <c r="E159" s="20" t="s">
+      <c r="E172" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F159" s="21" t="s">
+      <c r="F172" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G159" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H159" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I159" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J159" s="24"/>
-      <c r="K159" s="27"/>
-      <c r="L159" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M159" s="26"/>
-    </row>
-    <row r="160" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="13"/>
-      <c r="B160" s="17">
+      <c r="G172" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H172" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I172" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J172" s="25"/>
+      <c r="K172" s="29"/>
+      <c r="L172" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M172" s="27"/>
+    </row>
+    <row r="173" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="14"/>
+      <c r="B173" s="18">
         <v>78719</v>
       </c>
-      <c r="C160" s="18">
+      <c r="C173" s="19">
         <v>44502</v>
       </c>
-      <c r="D160" s="19" t="s">
+      <c r="D173" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E160" s="20" t="s">
+      <c r="E173" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F160" s="21" t="s">
+      <c r="F173" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G160" s="27" t="s">
+      <c r="G173" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H160" s="22" t="s">
+      <c r="H173" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I160" s="23">
+      <c r="I173" s="24">
         <v>44493</v>
       </c>
-      <c r="J160" s="24"/>
-      <c r="K160" s="27"/>
-      <c r="L160" s="25" t="s">
+      <c r="J173" s="25"/>
+      <c r="K173" s="29"/>
+      <c r="L173" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="M160" s="26"/>
-    </row>
-    <row r="161" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="13"/>
-      <c r="B161" s="17">
+      <c r="M173" s="27"/>
+    </row>
+    <row r="174" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="14"/>
+      <c r="B174" s="18">
         <v>78718</v>
       </c>
-      <c r="C161" s="18">
+      <c r="C174" s="19">
         <v>44502</v>
       </c>
-      <c r="D161" s="19">
+      <c r="D174" s="20">
         <v>20</v>
       </c>
-      <c r="E161" s="20" t="s">
+      <c r="E174" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F161" s="21" t="s">
+      <c r="F174" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G161" s="27" t="s">
+      <c r="G174" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="H161" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I161" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J161" s="24"/>
-      <c r="K161" s="27"/>
-      <c r="L161" s="25" t="s">
+      <c r="H174" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I174" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J174" s="25"/>
+      <c r="K174" s="29"/>
+      <c r="L174" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="M161" s="26"/>
-    </row>
-    <row r="162" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="13"/>
-      <c r="B162" s="17">
+      <c r="M174" s="27"/>
+    </row>
+    <row r="175" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="14"/>
+      <c r="B175" s="18">
         <v>78717</v>
       </c>
-      <c r="C162" s="18">
+      <c r="C175" s="19">
         <v>44502</v>
       </c>
-      <c r="D162" s="19">
+      <c r="D175" s="20">
         <v>30</v>
       </c>
-      <c r="E162" s="20" t="s">
+      <c r="E175" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F162" s="21" t="s">
+      <c r="F175" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G162" s="27" t="s">
+      <c r="G175" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H162" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I162" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J162" s="24"/>
-      <c r="K162" s="27"/>
-      <c r="L162" s="25" t="s">
+      <c r="H175" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I175" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J175" s="25"/>
+      <c r="K175" s="29"/>
+      <c r="L175" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="M162" s="26"/>
-    </row>
-    <row r="163" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="13"/>
-      <c r="B163" s="17">
+      <c r="M175" s="27"/>
+    </row>
+    <row r="176" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="14"/>
+      <c r="B176" s="18">
         <v>78716</v>
       </c>
-      <c r="C163" s="18">
+      <c r="C176" s="19">
         <v>44502</v>
       </c>
-      <c r="D163" s="19">
+      <c r="D176" s="20">
         <v>30</v>
       </c>
-      <c r="E163" s="20" t="s">
+      <c r="E176" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F163" s="21" t="s">
+      <c r="F176" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G163" s="27" t="s">
+      <c r="G176" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="H163" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I163" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J163" s="24"/>
-      <c r="K163" s="27"/>
-      <c r="L163" s="25" t="s">
+      <c r="H176" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I176" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J176" s="25"/>
+      <c r="K176" s="29"/>
+      <c r="L176" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="M163" s="26"/>
-    </row>
-    <row r="164" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="13"/>
-      <c r="B164" s="17">
+      <c r="M176" s="27"/>
+    </row>
+    <row r="177" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="14"/>
+      <c r="B177" s="18">
         <v>78715</v>
       </c>
-      <c r="C164" s="18">
+      <c r="C177" s="19">
         <v>44502</v>
       </c>
-      <c r="D164" s="19">
+      <c r="D177" s="20">
         <v>40</v>
       </c>
-      <c r="E164" s="20" t="s">
+      <c r="E177" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F164" s="21" t="s">
+      <c r="F177" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G164" s="27" t="s">
+      <c r="G177" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="H164" s="22" t="s">
+      <c r="H177" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I164" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J164" s="24" t="s">
+      <c r="I177" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J177" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="K164" s="27"/>
-      <c r="L164" s="25"/>
-      <c r="M164" s="26" t="s">
+      <c r="K177" s="29"/>
+      <c r="L177" s="26"/>
+      <c r="M177" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="13"/>
-      <c r="B165" s="17">
+    <row r="178" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="14"/>
+      <c r="B178" s="18">
         <v>78714</v>
       </c>
-      <c r="C165" s="18">
+      <c r="C178" s="19">
         <v>44502</v>
       </c>
-      <c r="D165" s="19">
+      <c r="D178" s="20">
         <v>40</v>
       </c>
-      <c r="E165" s="20" t="s">
+      <c r="E178" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F165" s="21" t="s">
+      <c r="F178" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G165" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H165" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I165" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J165" s="24"/>
-      <c r="K165" s="27"/>
-      <c r="L165" s="25" t="s">
+      <c r="G178" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H178" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I178" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J178" s="25"/>
+      <c r="K178" s="29"/>
+      <c r="L178" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="M165" s="26"/>
-    </row>
-    <row r="166" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="13"/>
-      <c r="B166" s="17">
+      <c r="M178" s="27"/>
+    </row>
+    <row r="179" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="14"/>
+      <c r="B179" s="18">
         <v>78713</v>
       </c>
-      <c r="C166" s="18">
+      <c r="C179" s="19">
         <v>44502</v>
       </c>
-      <c r="D166" s="19">
+      <c r="D179" s="20">
         <v>70</v>
       </c>
-      <c r="E166" s="20" t="s">
+      <c r="E179" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F166" s="21" t="s">
+      <c r="F179" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G166" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H166" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I166" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J166" s="24"/>
-      <c r="K166" s="27"/>
-      <c r="L166" s="25" t="s">
+      <c r="G179" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H179" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I179" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J179" s="25"/>
+      <c r="K179" s="29"/>
+      <c r="L179" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="M166" s="26"/>
-    </row>
-    <row r="167" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="13"/>
-      <c r="B167" s="17">
+      <c r="M179" s="27"/>
+    </row>
+    <row r="180" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="14"/>
+      <c r="B180" s="18">
         <v>78712</v>
       </c>
-      <c r="C167" s="18">
+      <c r="C180" s="19">
         <v>44502</v>
       </c>
-      <c r="D167" s="19">
+      <c r="D180" s="20">
         <v>20</v>
       </c>
-      <c r="E167" s="20" t="s">
+      <c r="E180" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F167" s="21" t="s">
+      <c r="F180" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G167" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H167" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I167" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J167" s="24"/>
-      <c r="K167" s="27"/>
-      <c r="L167" s="25" t="s">
+      <c r="G180" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H180" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I180" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J180" s="25"/>
+      <c r="K180" s="29"/>
+      <c r="L180" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="M167" s="26"/>
-    </row>
-    <row r="168" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="13"/>
-      <c r="B168" s="17">
+      <c r="M180" s="27"/>
+    </row>
+    <row r="181" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="14"/>
+      <c r="B181" s="18">
         <v>78711</v>
       </c>
-      <c r="C168" s="18">
+      <c r="C181" s="19">
         <v>44502</v>
       </c>
-      <c r="D168" s="19">
+      <c r="D181" s="20">
         <v>30</v>
       </c>
-      <c r="E168" s="20" t="s">
+      <c r="E181" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F168" s="21" t="s">
+      <c r="F181" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G168" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H168" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I168" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J168" s="24"/>
-      <c r="K168" s="27"/>
-      <c r="L168" s="25" t="s">
+      <c r="G181" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H181" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I181" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J181" s="25"/>
+      <c r="K181" s="29"/>
+      <c r="L181" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="M168" s="26"/>
-    </row>
-    <row r="169" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="13"/>
-      <c r="B169" s="17">
+      <c r="M181" s="27"/>
+    </row>
+    <row r="182" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="14"/>
+      <c r="B182" s="18">
         <v>78710</v>
       </c>
-      <c r="C169" s="18">
+      <c r="C182" s="19">
         <v>44502</v>
       </c>
-      <c r="D169" s="19">
+      <c r="D182" s="20">
         <v>70</v>
       </c>
-      <c r="E169" s="20" t="s">
+      <c r="E182" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F169" s="21" t="s">
+      <c r="F182" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G169" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H169" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I169" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J169" s="24"/>
-      <c r="K169" s="27"/>
-      <c r="L169" s="25" t="s">
+      <c r="G182" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H182" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I182" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J182" s="25"/>
+      <c r="K182" s="29"/>
+      <c r="L182" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="M169" s="26"/>
-    </row>
-    <row r="170" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="13"/>
-      <c r="B170" s="17">
+      <c r="M182" s="27"/>
+    </row>
+    <row r="183" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="14"/>
+      <c r="B183" s="18">
         <v>78709</v>
       </c>
-      <c r="C170" s="18">
+      <c r="C183" s="19">
         <v>44502</v>
       </c>
-      <c r="D170" s="19">
+      <c r="D183" s="20">
         <v>10</v>
       </c>
-      <c r="E170" s="20" t="s">
+      <c r="E183" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F170" s="21" t="s">
+      <c r="F183" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G170" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H170" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I170" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J170" s="24"/>
-      <c r="K170" s="27"/>
-      <c r="L170" s="25" t="s">
+      <c r="G183" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H183" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I183" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J183" s="25"/>
+      <c r="K183" s="29"/>
+      <c r="L183" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="M170" s="26"/>
-    </row>
-    <row r="171" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="13"/>
-      <c r="B171" s="17">
+      <c r="M183" s="27"/>
+    </row>
+    <row r="184" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="14"/>
+      <c r="B184" s="18">
         <v>78708</v>
       </c>
-      <c r="C171" s="18">
+      <c r="C184" s="19">
         <v>44501</v>
       </c>
-      <c r="D171" s="19">
+      <c r="D184" s="20">
         <v>30</v>
       </c>
-      <c r="E171" s="20" t="s">
+      <c r="E184" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F171" s="21" t="s">
+      <c r="F184" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G171" s="27" t="s">
+      <c r="G184" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="H171" s="22" t="s">
+      <c r="H184" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="I171" s="23" t="s">
+      <c r="I184" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="J171" s="24"/>
-      <c r="K171" s="27"/>
-      <c r="L171" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M171" s="26"/>
-    </row>
-    <row r="172" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="13"/>
-      <c r="B172" s="17">
+      <c r="J184" s="25"/>
+      <c r="K184" s="29"/>
+      <c r="L184" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M184" s="27"/>
+    </row>
+    <row r="185" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="14"/>
+      <c r="B185" s="18">
         <v>78707</v>
       </c>
-      <c r="C172" s="18">
+      <c r="C185" s="19">
         <v>44501</v>
       </c>
-      <c r="D172" s="19">
+      <c r="D185" s="20">
         <v>80</v>
       </c>
-      <c r="E172" s="20" t="s">
+      <c r="E185" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F172" s="21" t="s">
+      <c r="F185" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G172" s="27" t="s">
+      <c r="G185" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="H172" s="22" t="s">
+      <c r="H185" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="I172" s="23" t="s">
+      <c r="I185" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="J172" s="24"/>
-      <c r="K172" s="27"/>
-      <c r="L172" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M172" s="26"/>
+      <c r="J185" s="25"/>
+      <c r="K185" s="29"/>
+      <c r="L185" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M185" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/corona-kanjajokyou.xlsx
+++ b/corona-kanjajokyou.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Lb16z0190\広報戦略\11Twitter対応について\98 コロナ(毎日の発生状況)\HP作業用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1A0A8A8-C16E-4A9F-9090-1731E216AF79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AFE41FD-EB07-49A8-A8A1-65ED5EC67190}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,7 @@
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$B$6:$M$185</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$185</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$189</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="154">
   <si>
     <t>非公表</t>
   </si>
@@ -624,7 +623,7 @@
     <rPh sb="1" eb="2">
       <t>セイ</t>
     </rPh>
-    <phoneticPr fontId="27"/>
+    <phoneticPr fontId="26"/>
   </si>
   <si>
     <t>姫路</t>
@@ -887,7 +886,7 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>令和2年3月1日以降の総数 78,631件 ※欠番254件（医療機関での発生届の取り下げ等）</t>
+    <t>令和2年3月1日以降の総数 78,636件 ※欠番254件（医療機関での発生届の取り下げ等）</t>
     <phoneticPr fontId="0"/>
   </si>
 </sst>
@@ -898,7 +897,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1066,13 +1065,6 @@
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1824,7 +1816,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -1839,7 +1831,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1848,28 +1840,28 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1956,46 +1948,46 @@
     <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -2004,10 +1996,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2016,10 +2008,10 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2028,10 +2020,10 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2040,10 +2032,10 @@
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2052,10 +2044,10 @@
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2064,10 +2056,10 @@
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2076,7 +2068,7 @@
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
@@ -2086,61 +2078,61 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2149,10 +2141,10 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2161,10 +2153,10 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2173,10 +2165,10 @@
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2185,10 +2177,10 @@
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2197,10 +2189,10 @@
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2209,7 +2201,7 @@
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -2239,7 +2231,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -2314,9 +2306,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2359,8 +2348,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="48" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="47" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -2919,13 +2911,13 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N185"/>
+  <dimension ref="A1:M189"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomRight" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2941,11 +2933,10 @@
     <col min="9" max="9" width="10.625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="5" style="6" customWidth="1"/>
     <col min="13" max="13" width="48" style="6" customWidth="1"/>
-    <col min="14" max="14" width="13" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="6"/>
+    <col min="14" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>98</v>
@@ -2959,16 +2950,15 @@
       <c r="I1" s="3"/>
       <c r="J1" s="32">
         <f ca="1">TODAY()-1</f>
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="K1" s="32"/>
       <c r="L1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="M1" s="5"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="7"/>
       <c r="C2" s="3"/>
@@ -2982,9 +2972,8 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3000,9 +2989,8 @@
       <c r="M3" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="33" t="s">
         <v>38</v>
@@ -3036,10 +3024,9 @@
       <c r="M4" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="13"/>
-    </row>
-    <row r="5" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
+    </row>
+    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
       <c r="B5" s="34"/>
       <c r="C5" s="36"/>
       <c r="D5" s="38"/>
@@ -3048,6020 +3035,6170 @@
       <c r="G5" s="40"/>
       <c r="H5" s="39"/>
       <c r="I5" s="42"/>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="16" t="s">
         <v>50</v>
       </c>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25"/>
+    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="17">
+        <v>78890</v>
+      </c>
+      <c r="C6" s="18">
+        <v>44517</v>
+      </c>
+      <c r="D6" s="19">
+        <v>70</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="23">
+        <v>44513</v>
+      </c>
+      <c r="J6" s="24"/>
       <c r="K6" s="29"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="27"/>
-    </row>
-    <row r="7" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="18">
+      <c r="L6" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="26"/>
+    </row>
+    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="17">
+        <v>78889</v>
+      </c>
+      <c r="C7" s="18">
+        <v>44517</v>
+      </c>
+      <c r="D7" s="19">
+        <v>70</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="26"/>
+    </row>
+    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="17">
+        <v>78888</v>
+      </c>
+      <c r="C8" s="18">
+        <v>44517</v>
+      </c>
+      <c r="D8" s="19">
+        <v>10</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="17">
+        <v>78887</v>
+      </c>
+      <c r="C9" s="18">
+        <v>44517</v>
+      </c>
+      <c r="D9" s="19">
+        <v>40</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="17">
+        <v>78886</v>
+      </c>
+      <c r="C10" s="18">
+        <v>44517</v>
+      </c>
+      <c r="D10" s="19">
+        <v>30</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="17">
         <v>78885</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C11" s="18">
         <v>44516</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H11" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I11" s="23">
         <v>44514</v>
       </c>
-      <c r="J7" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27" t="s">
+      <c r="J11" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="28"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="18">
+    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="17">
         <v>78884</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C12" s="18">
         <v>44516</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D12" s="19">
         <v>20</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F12" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G12" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H12" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I12" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="27"/>
-    </row>
-    <row r="9" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="18">
+      <c r="J12" s="24"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="17">
         <v>78883</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C13" s="18">
         <v>44516</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D13" s="19">
         <v>70</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G13" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H13" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I13" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="J9" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="27" t="s">
+      <c r="J13" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="28"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="26" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="18">
+    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="17">
         <v>78882</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C14" s="18">
         <v>44516</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D14" s="19">
         <v>70</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G14" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H14" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I14" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="27"/>
-    </row>
-    <row r="11" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="18">
+      <c r="J14" s="24"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="26"/>
+    </row>
+    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="17">
         <v>78881</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C15" s="18">
         <v>44516</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D15" s="19">
         <v>20</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G15" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I15" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="J11" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27" t="s">
+      <c r="J15" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="28"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="18">
+    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="17">
         <v>78880</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C16" s="18">
         <v>44516</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D16" s="19">
         <v>10</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E16" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F16" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G16" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H16" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I16" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="J12" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="27" t="s">
+      <c r="J16" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="28"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="18">
+    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="17">
         <v>78879</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C17" s="18">
         <v>44516</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F17" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G17" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H17" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I17" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13" s="27"/>
-    </row>
-    <row r="14" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="18">
+      <c r="J17" s="24"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="26"/>
+    </row>
+    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="17">
         <v>78878</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C18" s="18">
         <v>44516</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D18" s="19">
         <v>10</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F18" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G18" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H18" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I18" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" s="27"/>
-    </row>
-    <row r="15" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="18">
+      <c r="J18" s="24"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="26"/>
+    </row>
+    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="17">
         <v>78877</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C19" s="18">
         <v>44516</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G19" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H19" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I19" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M15" s="27"/>
-    </row>
-    <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="18">
+      <c r="J19" s="24"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="26"/>
+    </row>
+    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="17">
         <v>78876</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C20" s="18">
         <v>44516</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D20" s="19">
         <v>50</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E20" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F20" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G20" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H20" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I20" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="27"/>
-    </row>
-    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="18">
+      <c r="J20" s="24"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="26"/>
+    </row>
+    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="13"/>
+      <c r="B21" s="17">
         <v>78875</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C21" s="18">
         <v>44516</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D21" s="19">
         <v>30</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G21" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H21" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I21" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M17" s="27"/>
-    </row>
-    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="18">
+      <c r="J21" s="24"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="26"/>
+    </row>
+    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="17">
         <v>78874</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C22" s="18">
         <v>44516</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D22" s="19">
         <v>60</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E22" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F22" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G22" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H22" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I22" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M18" s="27"/>
-    </row>
-    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="18">
+      <c r="J22" s="24"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="26"/>
+    </row>
+    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="17">
         <v>78873</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C23" s="18">
         <v>44515</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D23" s="19">
         <v>50</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E23" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F23" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G23" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H23" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="I19" s="28" t="s">
+      <c r="I23" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="26" t="s">
+      <c r="J23" s="24"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="M19" s="27"/>
-    </row>
-    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="18">
+      <c r="M23" s="26"/>
+    </row>
+    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="17">
         <v>78872</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C24" s="18">
         <v>44515</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D24" s="19">
         <v>20</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E24" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F24" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G24" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H24" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I24" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="26" t="s">
+      <c r="J24" s="24"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="M20" s="27"/>
-    </row>
-    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="18">
+      <c r="M24" s="26"/>
+    </row>
+    <row r="25" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="17">
         <v>78871</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C25" s="18">
         <v>44515</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D25" s="19">
         <v>50</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F25" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G25" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H25" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="I25" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="26" t="s">
+      <c r="J25" s="24"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="M21" s="27"/>
-    </row>
-    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="18">
+      <c r="M25" s="26"/>
+    </row>
+    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="13"/>
+      <c r="B26" s="17">
         <v>78870</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C26" s="18">
         <v>44514</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D26" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E26" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G26" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H26" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I26" s="23">
         <v>44512</v>
       </c>
-      <c r="J22" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="27" t="s">
+      <c r="J26" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="28"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="18">
+    <row r="27" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="13"/>
+      <c r="B27" s="17">
         <v>78869</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C27" s="18">
         <v>44514</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D27" s="19">
         <v>30</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E27" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F27" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G27" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M23" s="27"/>
-    </row>
-    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="18">
+      <c r="H27" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="24"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M27" s="26"/>
+    </row>
+    <row r="28" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="13"/>
+      <c r="B28" s="17">
         <v>78868</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C28" s="18">
         <v>44514</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D28" s="19">
         <v>20</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E28" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F28" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G28" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H28" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="27" t="s">
+      <c r="I28" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" s="28"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="18">
+    <row r="29" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="13"/>
+      <c r="B29" s="17">
         <v>78867</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C29" s="18">
         <v>44514</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D29" s="19">
         <v>40</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E29" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F29" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G29" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H29" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I25" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="27" t="s">
+      <c r="I29" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" s="28"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="18">
+    <row r="30" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="13"/>
+      <c r="B30" s="17">
         <v>78866</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C30" s="18">
         <v>44514</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D30" s="19">
         <v>20</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E30" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F30" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G30" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H30" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="27" t="s">
+      <c r="I30" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" s="28"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="18">
+    <row r="31" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="13"/>
+      <c r="B31" s="17">
         <v>78865</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="27"/>
-    </row>
-    <row r="28" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="18">
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="26"/>
+    </row>
+    <row r="32" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="13"/>
+      <c r="B32" s="17">
         <v>78864</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C32" s="18">
         <v>44514</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D32" s="19">
         <v>30</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E32" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F32" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M28" s="27"/>
-    </row>
-    <row r="29" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="18">
+      <c r="G32" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J32" s="24"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M32" s="26"/>
+    </row>
+    <row r="33" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="13"/>
+      <c r="B33" s="17">
         <v>78863</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C33" s="18">
         <v>44513</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D33" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E33" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F33" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G33" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H33" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I33" s="23">
         <v>44511</v>
       </c>
-      <c r="J29" s="25" t="s">
+      <c r="J33" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="27" t="s">
+      <c r="K33" s="28"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="18">
+    <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="13"/>
+      <c r="B34" s="17">
         <v>78862</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C34" s="18">
         <v>44513</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D34" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E34" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F34" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G34" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H34" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I34" s="23">
         <v>44508</v>
       </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="26" t="s">
+      <c r="J34" s="24"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="M30" s="27"/>
-    </row>
-    <row r="31" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="18">
+      <c r="M34" s="26"/>
+    </row>
+    <row r="35" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="13"/>
+      <c r="B35" s="17">
         <v>78861</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C35" s="18">
         <v>44513</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D35" s="19">
         <v>60</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E35" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F35" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G35" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H35" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I35" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="J31" s="25" t="s">
+      <c r="J35" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="27" t="s">
+      <c r="K35" s="28"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="18">
+    <row r="36" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="13"/>
+      <c r="B36" s="17">
         <v>78860</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C36" s="18">
         <v>44513</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D36" s="19">
         <v>30</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E36" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F36" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G36" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H36" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I36" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="J32" s="25" t="s">
+      <c r="J36" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="27" t="s">
+      <c r="K36" s="28"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="18">
+    <row r="37" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="13"/>
+      <c r="B37" s="17">
         <v>78859</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C37" s="18">
         <v>44513</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D37" s="19">
         <v>30</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E37" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F37" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G37" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H37" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I33" s="24" t="s">
+      <c r="I37" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="J33" s="25" t="s">
+      <c r="J37" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="27" t="s">
+      <c r="K37" s="28"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="18">
+    <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="13"/>
+      <c r="B38" s="17">
         <v>78858</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C38" s="18">
         <v>44513</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D38" s="19">
         <v>30</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E38" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F38" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G38" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H38" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I34" s="24" t="s">
+      <c r="I38" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="J34" s="25" t="s">
+      <c r="J38" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="27" t="s">
+      <c r="K38" s="28"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
-      <c r="B35" s="18">
+    <row r="39" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="13"/>
+      <c r="B39" s="17">
         <v>78857</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C39" s="18">
         <v>44513</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D39" s="19">
         <v>20</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E39" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F39" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G39" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H39" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I39" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="J35" s="25" t="s">
+      <c r="J39" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="K35" s="29"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="27" t="s">
+      <c r="K39" s="28"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="14"/>
-      <c r="B36" s="18">
+    <row r="40" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="13"/>
+      <c r="B40" s="17">
         <v>78856</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C40" s="18">
         <v>44513</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D40" s="19">
         <v>20</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E40" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F40" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G40" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H36" s="23" t="s">
+      <c r="H40" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I40" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="J36" s="25" t="s">
+      <c r="J40" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="K36" s="29"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="27" t="s">
+      <c r="K40" s="28"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="14"/>
-      <c r="B37" s="18">
+    <row r="41" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="13"/>
+      <c r="B41" s="17">
         <v>78855</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C41" s="18">
         <v>44513</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D41" s="19">
         <v>30</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E41" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F41" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G37" s="29" t="s">
+      <c r="G41" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H41" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I37" s="24" t="s">
+      <c r="I41" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="J37" s="25" t="s">
+      <c r="J41" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="K37" s="29"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="27" t="s">
+      <c r="K41" s="28"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="14"/>
-      <c r="B38" s="18">
+    <row r="42" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="13"/>
+      <c r="B42" s="17">
         <v>78854</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C42" s="18">
         <v>44513</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D42" s="19">
         <v>30</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E42" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F42" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G42" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="H42" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I38" s="24" t="s">
+      <c r="I42" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="J38" s="25" t="s">
+      <c r="J42" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="K38" s="29"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="27" t="s">
+      <c r="K42" s="28"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="14"/>
-      <c r="B39" s="18">
+    <row r="43" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="13"/>
+      <c r="B43" s="17">
         <v>78853</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C43" s="18">
         <v>44513</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D43" s="19">
         <v>20</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E43" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F43" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G43" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="H43" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I39" s="24" t="s">
+      <c r="I43" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="J39" s="25" t="s">
+      <c r="J43" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="K39" s="29"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="27" t="s">
+      <c r="K43" s="28"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="14"/>
-      <c r="B40" s="18">
+    <row r="44" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="13"/>
+      <c r="B44" s="17">
         <v>78852</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C44" s="18">
         <v>44513</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D44" s="19">
         <v>30</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E44" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F44" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G40" s="29" t="s">
+      <c r="G44" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H40" s="23" t="s">
+      <c r="H44" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="I44" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="J40" s="25" t="s">
+      <c r="J44" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="K40" s="29"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="27" t="s">
+      <c r="K44" s="28"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="14"/>
-      <c r="B41" s="18">
+    <row r="45" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="13"/>
+      <c r="B45" s="17">
         <v>78851</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C45" s="18">
         <v>44513</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D45" s="19">
         <v>20</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E45" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F45" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="G45" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="H45" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="I41" s="24" t="s">
+      <c r="I45" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="J41" s="25"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="26" t="s">
+      <c r="J45" s="24"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="M41" s="27"/>
-    </row>
-    <row r="42" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="14"/>
-      <c r="B42" s="18">
+      <c r="M45" s="26"/>
+    </row>
+    <row r="46" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="13"/>
+      <c r="B46" s="17">
         <v>78850</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C46" s="18">
         <v>44513</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D46" s="19">
         <v>20</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E46" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F46" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="G46" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="H46" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="I42" s="24" t="s">
+      <c r="I46" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="J42" s="25"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="26" t="s">
+      <c r="J46" s="24"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="M42" s="27"/>
-    </row>
-    <row r="43" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="14"/>
-      <c r="B43" s="18">
+      <c r="M46" s="26"/>
+    </row>
+    <row r="47" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="13"/>
+      <c r="B47" s="17">
         <v>78849</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C47" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="27"/>
-    </row>
-    <row r="44" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="14"/>
-      <c r="B44" s="18">
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="26"/>
+    </row>
+    <row r="48" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="13"/>
+      <c r="B48" s="17">
         <v>78848</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C48" s="18">
         <v>44513</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D48" s="19">
         <v>30</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E48" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F48" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G48" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="H44" s="23" t="s">
+      <c r="H48" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I48" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="J44" s="25"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="26" t="s">
+      <c r="J48" s="24"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="M44" s="27"/>
-    </row>
-    <row r="45" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="14"/>
-      <c r="B45" s="18">
+      <c r="M48" s="26"/>
+    </row>
+    <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="13"/>
+      <c r="B49" s="17">
         <v>78847</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C49" s="18">
         <v>44512</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D49" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E49" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F49" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G45" s="29" t="s">
+      <c r="G49" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="23" t="s">
+      <c r="H49" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I45" s="24" t="s">
+      <c r="I49" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J45" s="25" t="s">
+      <c r="J49" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="K45" s="29"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="27" t="s">
+      <c r="K49" s="28"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="14"/>
-      <c r="B46" s="18">
+    <row r="50" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="13"/>
+      <c r="B50" s="17">
         <v>78846</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C50" s="18">
         <v>44512</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D50" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E50" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F50" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="G50" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="H50" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="24">
+      <c r="I50" s="23">
         <v>44509</v>
       </c>
-      <c r="J46" s="25"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="26" t="s">
+      <c r="J50" s="24"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="M46" s="27" t="s">
+      <c r="M50" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="14"/>
-      <c r="B47" s="18">
+    <row r="51" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="13"/>
+      <c r="B51" s="17">
         <v>78845</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C51" s="18">
         <v>44512</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D51" s="19">
         <v>50</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E51" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F51" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G47" s="29" t="s">
+      <c r="G51" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="H51" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I47" s="24" t="s">
+      <c r="I51" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J47" s="25" t="s">
+      <c r="J51" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="K47" s="29"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="27" t="s">
+      <c r="K51" s="28"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="26" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="14"/>
-      <c r="B48" s="18">
+    <row r="52" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="13"/>
+      <c r="B52" s="17">
         <v>78844</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C52" s="18">
         <v>44512</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D52" s="19">
         <v>20</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E52" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="F52" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G48" s="29" t="s">
+      <c r="G52" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="23" t="s">
+      <c r="H52" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="24" t="s">
+      <c r="I52" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J48" s="25" t="s">
+      <c r="J52" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="K48" s="29"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="27" t="s">
+      <c r="K52" s="28"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="26" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="14"/>
-      <c r="B49" s="18">
+    <row r="53" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="13"/>
+      <c r="B53" s="17">
         <v>78843</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C53" s="18">
         <v>44512</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D53" s="19">
         <v>80</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="E53" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F53" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G49" s="29" t="s">
+      <c r="G53" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="23" t="s">
+      <c r="H53" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="24" t="s">
+      <c r="I53" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J49" s="25"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="26" t="s">
+      <c r="J53" s="24"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="M49" s="27"/>
-    </row>
-    <row r="50" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="14"/>
-      <c r="B50" s="18">
+      <c r="M53" s="26"/>
+    </row>
+    <row r="54" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="13"/>
+      <c r="B54" s="17">
         <v>78842</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C54" s="18">
         <v>44512</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D54" s="19">
         <v>60</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="E54" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="22" t="s">
+      <c r="F54" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G50" s="29" t="s">
+      <c r="G54" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="H50" s="23" t="s">
+      <c r="H54" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="24" t="s">
+      <c r="I54" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J50" s="25"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="26" t="s">
+      <c r="J54" s="24"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="M50" s="27"/>
-    </row>
-    <row r="51" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="14"/>
-      <c r="B51" s="18">
+      <c r="M54" s="26"/>
+    </row>
+    <row r="55" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="13"/>
+      <c r="B55" s="17">
         <v>78841</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C55" s="18">
         <v>44512</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D55" s="19">
         <v>30</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="E55" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F55" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="G51" s="29" t="s">
+      <c r="G55" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="23" t="s">
+      <c r="H55" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I51" s="24" t="s">
+      <c r="I55" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="J51" s="25" t="s">
+      <c r="J55" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="K51" s="29"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="27" t="s">
+      <c r="K55" s="28"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="14"/>
-      <c r="B52" s="18">
+    <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="13"/>
+      <c r="B56" s="17">
         <v>78840</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C56" s="18">
         <v>44512</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D56" s="19">
         <v>20</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E56" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F56" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="G52" s="29" t="s">
+      <c r="G56" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="23" t="s">
+      <c r="H56" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I52" s="24" t="s">
+      <c r="I56" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="J52" s="25" t="s">
+      <c r="J56" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="K52" s="29"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="27" t="s">
+      <c r="K56" s="28"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="26" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="14"/>
-      <c r="B53" s="18">
+    <row r="57" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="13"/>
+      <c r="B57" s="17">
         <v>78839</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C57" s="18">
         <v>44512</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D57" s="19">
         <v>20</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="E57" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F57" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="G53" s="29" t="s">
+      <c r="G57" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H53" s="23" t="s">
+      <c r="H57" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I53" s="24" t="s">
+      <c r="I57" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="J53" s="25" t="s">
+      <c r="J57" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="K53" s="29"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="27" t="s">
+      <c r="K57" s="28"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="26" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="14"/>
-      <c r="B54" s="18">
+    <row r="58" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="13"/>
+      <c r="B58" s="17">
         <v>78838</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C58" s="18">
         <v>44512</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D58" s="19">
         <v>30</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E58" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F54" s="22" t="s">
+      <c r="F58" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G54" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H54" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I54" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J54" s="25"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="26" t="s">
+      <c r="G58" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J58" s="24"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="M54" s="27"/>
-    </row>
-    <row r="55" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="14"/>
-      <c r="B55" s="18">
+      <c r="M58" s="26"/>
+    </row>
+    <row r="59" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="13"/>
+      <c r="B59" s="17">
         <v>78837</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C59" s="18">
         <v>44511</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D59" s="19">
         <v>40</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E59" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="F55" s="22" t="s">
+      <c r="F59" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="G55" s="29" t="s">
+      <c r="G59" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="H55" s="23" t="s">
+      <c r="H59" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="I55" s="24" t="s">
+      <c r="I59" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="J55" s="25"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M55" s="27"/>
-    </row>
-    <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="14"/>
-      <c r="B56" s="18">
+      <c r="J59" s="24"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M59" s="26"/>
+    </row>
+    <row r="60" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="13"/>
+      <c r="B60" s="17">
         <v>78836</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C60" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="27"/>
-    </row>
-    <row r="57" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="14"/>
-      <c r="B57" s="18">
+      <c r="D60" s="19"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="26"/>
+    </row>
+    <row r="61" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="13"/>
+      <c r="B61" s="17">
         <v>78835</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C61" s="18">
         <v>44511</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D61" s="19">
         <v>20</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="E61" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F57" s="22" t="s">
+      <c r="F61" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="G57" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H57" s="23" t="s">
+      <c r="G61" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H61" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="I57" s="24" t="s">
+      <c r="I61" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="J57" s="25"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M57" s="27"/>
-    </row>
-    <row r="58" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="14"/>
-      <c r="B58" s="18">
+      <c r="J61" s="24"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M61" s="26"/>
+    </row>
+    <row r="62" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="13"/>
+      <c r="B62" s="17">
         <v>78834</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C62" s="18">
         <v>44511</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D62" s="19">
         <v>50</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="E62" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="F58" s="22" t="s">
+      <c r="F62" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="G58" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H58" s="23" t="s">
+      <c r="G62" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H62" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="I58" s="24" t="s">
+      <c r="I62" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="J58" s="25"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M58" s="27"/>
-    </row>
-    <row r="59" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="14"/>
-      <c r="B59" s="18">
+      <c r="J62" s="24"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M62" s="26"/>
+    </row>
+    <row r="63" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="13"/>
+      <c r="B63" s="17">
         <v>78833</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C63" s="18">
         <v>44510</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D63" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="E63" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="F63" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G59" s="29" t="s">
+      <c r="G63" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H59" s="23" t="s">
+      <c r="H63" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I59" s="24" t="s">
+      <c r="I63" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J59" s="25" t="s">
+      <c r="J63" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="K59" s="29"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="27" t="s">
+      <c r="K63" s="28"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="14"/>
-      <c r="B60" s="18">
+    <row r="64" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="13"/>
+      <c r="B64" s="17">
         <v>78832</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C64" s="18">
         <v>44510</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="D64" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="E64" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F60" s="22" t="s">
+      <c r="F64" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G60" s="29" t="s">
+      <c r="G64" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H60" s="23" t="s">
+      <c r="H64" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I60" s="24">
+      <c r="I64" s="23">
         <v>44508</v>
       </c>
-      <c r="J60" s="25"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="26" t="s">
+      <c r="J64" s="24"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M60" s="27" t="s">
+      <c r="M64" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="14"/>
-      <c r="B61" s="18">
+    <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="13"/>
+      <c r="B65" s="17">
         <v>78831</v>
       </c>
-      <c r="C61" s="19">
+      <c r="C65" s="18">
         <v>44510</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D65" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E61" s="21" t="s">
+      <c r="E65" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="F65" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G61" s="29" t="s">
+      <c r="G65" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H61" s="23" t="s">
+      <c r="H65" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I61" s="24">
+      <c r="I65" s="23">
         <v>44508</v>
       </c>
-      <c r="J61" s="25"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="26" t="s">
+      <c r="J65" s="24"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M61" s="27" t="s">
+      <c r="M65" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="14"/>
-      <c r="B62" s="18">
+    <row r="66" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="13"/>
+      <c r="B66" s="17">
         <v>78830</v>
       </c>
-      <c r="C62" s="19">
+      <c r="C66" s="18">
         <v>44510</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D66" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E66" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="F66" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G62" s="29" t="s">
+      <c r="G66" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="H62" s="23" t="s">
+      <c r="H66" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I62" s="24">
+      <c r="I66" s="23">
         <v>44508</v>
       </c>
-      <c r="J62" s="25"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="26" t="s">
+      <c r="J66" s="24"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M62" s="27" t="s">
+      <c r="M66" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="14"/>
-      <c r="B63" s="18">
+    <row r="67" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="13"/>
+      <c r="B67" s="17">
         <v>78829</v>
       </c>
-      <c r="C63" s="19">
+      <c r="C67" s="18">
         <v>44510</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D67" s="19">
         <v>50</v>
       </c>
-      <c r="E63" s="21" t="s">
+      <c r="E67" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="F67" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G63" s="29" t="s">
+      <c r="G67" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H63" s="23" t="s">
+      <c r="H67" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I63" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J63" s="25"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="26" t="s">
+      <c r="I67" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J67" s="24"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M63" s="27"/>
-    </row>
-    <row r="64" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="14"/>
-      <c r="B64" s="18">
+      <c r="M67" s="26"/>
+    </row>
+    <row r="68" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="13"/>
+      <c r="B68" s="17">
         <v>78828</v>
       </c>
-      <c r="C64" s="19">
+      <c r="C68" s="18">
         <v>44510</v>
       </c>
-      <c r="D64" s="20">
+      <c r="D68" s="19">
         <v>30</v>
       </c>
-      <c r="E64" s="21" t="s">
+      <c r="E68" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F64" s="22" t="s">
+      <c r="F68" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G64" s="29" t="s">
+      <c r="G68" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H64" s="23" t="s">
+      <c r="H68" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I64" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J64" s="25"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="26" t="s">
+      <c r="I68" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J68" s="24"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M64" s="27"/>
-    </row>
-    <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="14"/>
-      <c r="B65" s="18">
+      <c r="M68" s="26"/>
+    </row>
+    <row r="69" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="13"/>
+      <c r="B69" s="17">
         <v>78827</v>
       </c>
-      <c r="C65" s="19">
+      <c r="C69" s="18">
         <v>44510</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D69" s="19">
         <v>30</v>
       </c>
-      <c r="E65" s="21" t="s">
+      <c r="E69" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="22" t="s">
+      <c r="F69" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G65" s="29" t="s">
+      <c r="G69" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="H65" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I65" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J65" s="25"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="26" t="s">
+      <c r="H69" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I69" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J69" s="24"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M65" s="27"/>
-    </row>
-    <row r="66" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="14"/>
-      <c r="B66" s="18">
+      <c r="M69" s="26"/>
+    </row>
+    <row r="70" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="13"/>
+      <c r="B70" s="17">
         <v>78826</v>
       </c>
-      <c r="C66" s="19">
+      <c r="C70" s="18">
         <v>44510</v>
       </c>
-      <c r="D66" s="20">
+      <c r="D70" s="19">
         <v>60</v>
       </c>
-      <c r="E66" s="21" t="s">
+      <c r="E70" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F66" s="22" t="s">
+      <c r="F70" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G66" s="29" t="s">
+      <c r="G70" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H66" s="23" t="s">
+      <c r="H70" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I66" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J66" s="25" t="s">
+      <c r="I70" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J70" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="K66" s="29"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="27" t="s">
+      <c r="K70" s="28"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="14"/>
-      <c r="B67" s="18">
+    <row r="71" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="13"/>
+      <c r="B71" s="17">
         <v>78825</v>
       </c>
-      <c r="C67" s="19">
+      <c r="C71" s="18">
         <v>44510</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D71" s="19">
         <v>60</v>
       </c>
-      <c r="E67" s="21" t="s">
+      <c r="E71" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="22" t="s">
+      <c r="F71" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G67" s="29" t="s">
+      <c r="G71" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H67" s="23" t="s">
+      <c r="H71" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I67" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J67" s="25" t="s">
+      <c r="I71" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J71" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="K67" s="29"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="27" t="s">
+      <c r="K71" s="28"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="14"/>
-      <c r="B68" s="18">
+    <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="13"/>
+      <c r="B72" s="17">
         <v>78824</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C72" s="18">
         <v>44510</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D72" s="19">
         <v>60</v>
       </c>
-      <c r="E68" s="21" t="s">
+      <c r="E72" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="22" t="s">
+      <c r="F72" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G68" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H68" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I68" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J68" s="25"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="26" t="s">
+      <c r="G72" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H72" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I72" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J72" s="24"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M68" s="27"/>
-    </row>
-    <row r="69" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="14"/>
-      <c r="B69" s="18">
+      <c r="M72" s="26"/>
+    </row>
+    <row r="73" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="13"/>
+      <c r="B73" s="17">
         <v>78823</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C73" s="18">
         <v>44510</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D73" s="19">
         <v>20</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E73" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F69" s="22" t="s">
+      <c r="F73" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G69" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H69" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I69" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J69" s="25"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="26" t="s">
+      <c r="G73" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H73" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I73" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J73" s="24"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M69" s="27"/>
-    </row>
-    <row r="70" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="14"/>
-      <c r="B70" s="18">
+      <c r="M73" s="26"/>
+    </row>
+    <row r="74" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="13"/>
+      <c r="B74" s="17">
         <v>78822</v>
       </c>
-      <c r="C70" s="19">
+      <c r="C74" s="18">
         <v>44510</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D74" s="19">
         <v>20</v>
       </c>
-      <c r="E70" s="21" t="s">
+      <c r="E74" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F70" s="22" t="s">
+      <c r="F74" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G70" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H70" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I70" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J70" s="25"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="26" t="s">
+      <c r="G74" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H74" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I74" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J74" s="24"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M70" s="27"/>
-    </row>
-    <row r="71" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="14"/>
-      <c r="B71" s="18">
+      <c r="M74" s="26"/>
+    </row>
+    <row r="75" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="13"/>
+      <c r="B75" s="17">
         <v>78821</v>
       </c>
-      <c r="C71" s="19">
+      <c r="C75" s="18">
         <v>44510</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D75" s="19">
         <v>10</v>
       </c>
-      <c r="E71" s="21" t="s">
+      <c r="E75" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F71" s="22" t="s">
+      <c r="F75" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G71" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H71" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I71" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J71" s="25"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="26" t="s">
+      <c r="G75" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H75" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I75" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J75" s="24"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M71" s="27"/>
-    </row>
-    <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="14"/>
-      <c r="B72" s="18">
+      <c r="M75" s="26"/>
+    </row>
+    <row r="76" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="13"/>
+      <c r="B76" s="17">
         <v>78820</v>
       </c>
-      <c r="C72" s="19">
+      <c r="C76" s="18">
         <v>44510</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D76" s="19">
         <v>10</v>
       </c>
-      <c r="E72" s="21" t="s">
+      <c r="E76" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F72" s="22" t="s">
+      <c r="F76" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G72" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H72" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I72" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J72" s="25"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="26" t="s">
+      <c r="G76" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H76" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I76" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J76" s="24"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M72" s="27"/>
-    </row>
-    <row r="73" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="14"/>
-      <c r="B73" s="18">
+      <c r="M76" s="26"/>
+    </row>
+    <row r="77" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="13"/>
+      <c r="B77" s="17">
         <v>78819</v>
       </c>
-      <c r="C73" s="19">
+      <c r="C77" s="18">
         <v>44510</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D77" s="19">
         <v>40</v>
       </c>
-      <c r="E73" s="21" t="s">
+      <c r="E77" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F73" s="22" t="s">
+      <c r="F77" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G73" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H73" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I73" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J73" s="25"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="26" t="s">
+      <c r="G77" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H77" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J77" s="24"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M73" s="27"/>
-    </row>
-    <row r="74" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="14"/>
-      <c r="B74" s="18">
+      <c r="M77" s="26"/>
+    </row>
+    <row r="78" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="13"/>
+      <c r="B78" s="17">
         <v>78818</v>
       </c>
-      <c r="C74" s="19">
+      <c r="C78" s="18">
         <v>44509</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D78" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E74" s="21" t="s">
+      <c r="E78" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F74" s="22" t="s">
+      <c r="F78" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G74" s="29" t="s">
+      <c r="G78" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H74" s="23" t="s">
+      <c r="H78" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I74" s="24">
+      <c r="I78" s="23">
         <v>44508</v>
       </c>
-      <c r="J74" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K74" s="29"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="27" t="s">
+      <c r="J78" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K78" s="28"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="14"/>
-      <c r="B75" s="18">
+    <row r="79" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="13"/>
+      <c r="B79" s="17">
         <v>78817</v>
       </c>
-      <c r="C75" s="19">
+      <c r="C79" s="18">
         <v>44509</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="D79" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E75" s="21" t="s">
+      <c r="E79" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F75" s="22" t="s">
+      <c r="F79" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G75" s="29" t="s">
+      <c r="G79" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H75" s="23" t="s">
+      <c r="H79" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I75" s="24">
+      <c r="I79" s="23">
         <v>44505</v>
       </c>
-      <c r="J75" s="25"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M75" s="27" t="s">
+      <c r="J79" s="24"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M79" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="14"/>
-      <c r="B76" s="18">
+    <row r="80" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="13"/>
+      <c r="B80" s="17">
         <v>78816</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C80" s="18">
         <v>44509</v>
       </c>
-      <c r="D76" s="20" t="s">
+      <c r="D80" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E76" s="21" t="s">
+      <c r="E80" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F76" s="22" t="s">
+      <c r="F80" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G76" s="29" t="s">
+      <c r="G80" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H76" s="23" t="s">
+      <c r="H80" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I76" s="24">
+      <c r="I80" s="23">
         <v>44505</v>
       </c>
-      <c r="J76" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K76" s="29"/>
-      <c r="L76" s="26"/>
-      <c r="M76" s="27" t="s">
+      <c r="J80" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K80" s="28"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="14"/>
-      <c r="B77" s="18">
+    <row r="81" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="13"/>
+      <c r="B81" s="17">
         <v>78815</v>
       </c>
-      <c r="C77" s="19">
+      <c r="C81" s="18">
         <v>44509</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="D81" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E77" s="21" t="s">
+      <c r="E81" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="22" t="s">
+      <c r="F81" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G77" s="29" t="s">
+      <c r="G81" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H77" s="23" t="s">
+      <c r="H81" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I77" s="24">
+      <c r="I81" s="23">
         <v>44505</v>
       </c>
-      <c r="J77" s="25"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M77" s="27" t="s">
+      <c r="J81" s="24"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M81" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="14"/>
-      <c r="B78" s="18">
+    <row r="82" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="13"/>
+      <c r="B82" s="17">
         <v>78814</v>
       </c>
-      <c r="C78" s="19">
+      <c r="C82" s="18">
         <v>44509</v>
       </c>
-      <c r="D78" s="20">
+      <c r="D82" s="19">
         <v>10</v>
       </c>
-      <c r="E78" s="21" t="s">
+      <c r="E82" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F78" s="22" t="s">
+      <c r="F82" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G78" s="29" t="s">
+      <c r="G82" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="H78" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I78" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J78" s="25"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M78" s="27"/>
-    </row>
-    <row r="79" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="14"/>
-      <c r="B79" s="18">
+      <c r="H82" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I82" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J82" s="24"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M82" s="26"/>
+    </row>
+    <row r="83" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="13"/>
+      <c r="B83" s="17">
         <v>78813</v>
       </c>
-      <c r="C79" s="19">
+      <c r="C83" s="18">
         <v>44509</v>
       </c>
-      <c r="D79" s="20">
+      <c r="D83" s="19">
         <v>50</v>
       </c>
-      <c r="E79" s="21" t="s">
+      <c r="E83" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F79" s="22" t="s">
+      <c r="F83" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G79" s="29" t="s">
+      <c r="G83" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="H79" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I79" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J79" s="25"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M79" s="27"/>
-    </row>
-    <row r="80" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="14"/>
-      <c r="B80" s="18">
+      <c r="H83" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I83" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J83" s="24"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M83" s="26"/>
+    </row>
+    <row r="84" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="13"/>
+      <c r="B84" s="17">
         <v>78812</v>
       </c>
-      <c r="C80" s="19">
+      <c r="C84" s="18">
         <v>44509</v>
       </c>
-      <c r="D80" s="20">
+      <c r="D84" s="19">
         <v>50</v>
       </c>
-      <c r="E80" s="21" t="s">
+      <c r="E84" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F80" s="22" t="s">
+      <c r="F84" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G80" s="29" t="s">
+      <c r="G84" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H80" s="23" t="s">
+      <c r="H84" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I80" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J80" s="25"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M80" s="27"/>
-    </row>
-    <row r="81" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="14"/>
-      <c r="B81" s="18">
+      <c r="I84" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J84" s="24"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M84" s="26"/>
+    </row>
+    <row r="85" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="13"/>
+      <c r="B85" s="17">
         <v>78811</v>
       </c>
-      <c r="C81" s="19">
+      <c r="C85" s="18">
         <v>44509</v>
       </c>
-      <c r="D81" s="20">
+      <c r="D85" s="19">
         <v>20</v>
       </c>
-      <c r="E81" s="21" t="s">
+      <c r="E85" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F81" s="22" t="s">
+      <c r="F85" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G81" s="29" t="s">
+      <c r="G85" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H81" s="23" t="s">
+      <c r="H85" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I81" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J81" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K81" s="29"/>
-      <c r="L81" s="26"/>
-      <c r="M81" s="27" t="s">
+      <c r="I85" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J85" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K85" s="28"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="14"/>
-      <c r="B82" s="18">
+    <row r="86" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="13"/>
+      <c r="B86" s="17">
         <v>78810</v>
       </c>
-      <c r="C82" s="19">
+      <c r="C86" s="18">
         <v>44509</v>
       </c>
-      <c r="D82" s="20">
+      <c r="D86" s="19">
         <v>20</v>
       </c>
-      <c r="E82" s="21" t="s">
+      <c r="E86" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F82" s="22" t="s">
+      <c r="F86" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G82" s="29" t="s">
+      <c r="G86" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H82" s="23" t="s">
+      <c r="H86" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I82" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J82" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K82" s="29"/>
-      <c r="L82" s="26"/>
-      <c r="M82" s="27" t="s">
+      <c r="I86" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J86" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K86" s="28"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="14"/>
-      <c r="B83" s="18">
+    <row r="87" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="13"/>
+      <c r="B87" s="17">
         <v>78809</v>
       </c>
-      <c r="C83" s="19">
+      <c r="C87" s="18">
         <v>44509</v>
       </c>
-      <c r="D83" s="20">
+      <c r="D87" s="19">
         <v>20</v>
       </c>
-      <c r="E83" s="21" t="s">
+      <c r="E87" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F83" s="22" t="s">
+      <c r="F87" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G83" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H83" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I83" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J83" s="25"/>
-      <c r="K83" s="29"/>
-      <c r="L83" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M83" s="27"/>
-    </row>
-    <row r="84" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="14"/>
-      <c r="B84" s="18">
+      <c r="G87" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H87" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I87" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J87" s="24"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M87" s="26"/>
+    </row>
+    <row r="88" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="13"/>
+      <c r="B88" s="17">
         <v>78808</v>
       </c>
-      <c r="C84" s="19">
+      <c r="C88" s="18">
         <v>44509</v>
       </c>
-      <c r="D84" s="20">
+      <c r="D88" s="19">
         <v>20</v>
       </c>
-      <c r="E84" s="21" t="s">
+      <c r="E88" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F84" s="22" t="s">
+      <c r="F88" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G84" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H84" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I84" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J84" s="25"/>
-      <c r="K84" s="29"/>
-      <c r="L84" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M84" s="27"/>
-    </row>
-    <row r="85" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="14"/>
-      <c r="B85" s="18">
+      <c r="G88" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H88" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I88" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J88" s="24"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M88" s="26"/>
+    </row>
+    <row r="89" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="13"/>
+      <c r="B89" s="17">
         <v>78807</v>
       </c>
-      <c r="C85" s="19">
+      <c r="C89" s="18">
         <v>44509</v>
       </c>
-      <c r="D85" s="20">
+      <c r="D89" s="19">
         <v>20</v>
       </c>
-      <c r="E85" s="21" t="s">
+      <c r="E89" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F85" s="22" t="s">
+      <c r="F89" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G85" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H85" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I85" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J85" s="25"/>
-      <c r="K85" s="29"/>
-      <c r="L85" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M85" s="27"/>
-    </row>
-    <row r="86" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="14"/>
-      <c r="B86" s="18">
+      <c r="G89" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H89" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I89" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J89" s="24"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M89" s="26"/>
+    </row>
+    <row r="90" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="13"/>
+      <c r="B90" s="17">
         <v>78806</v>
       </c>
-      <c r="C86" s="19">
+      <c r="C90" s="18">
         <v>44509</v>
       </c>
-      <c r="D86" s="20">
+      <c r="D90" s="19">
         <v>40</v>
       </c>
-      <c r="E86" s="21" t="s">
+      <c r="E90" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F86" s="22" t="s">
+      <c r="F90" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G86" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H86" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I86" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J86" s="25"/>
-      <c r="K86" s="29"/>
-      <c r="L86" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M86" s="27"/>
-    </row>
-    <row r="87" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="14"/>
-      <c r="B87" s="18">
+      <c r="G90" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H90" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I90" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J90" s="24"/>
+      <c r="K90" s="28"/>
+      <c r="L90" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M90" s="26"/>
+    </row>
+    <row r="91" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="13"/>
+      <c r="B91" s="17">
         <v>78805</v>
       </c>
-      <c r="C87" s="19">
+      <c r="C91" s="18">
         <v>44509</v>
       </c>
-      <c r="D87" s="20">
+      <c r="D91" s="19">
         <v>60</v>
       </c>
-      <c r="E87" s="21" t="s">
+      <c r="E91" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F87" s="22" t="s">
+      <c r="F91" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G87" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H87" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I87" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J87" s="25"/>
-      <c r="K87" s="29"/>
-      <c r="L87" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M87" s="27"/>
-    </row>
-    <row r="88" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="14"/>
-      <c r="B88" s="18">
+      <c r="G91" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H91" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I91" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J91" s="24"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M91" s="26"/>
+    </row>
+    <row r="92" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="13"/>
+      <c r="B92" s="17">
         <v>78804</v>
       </c>
-      <c r="C88" s="19">
+      <c r="C92" s="18">
         <v>44509</v>
       </c>
-      <c r="D88" s="20">
+      <c r="D92" s="19">
         <v>10</v>
       </c>
-      <c r="E88" s="21" t="s">
+      <c r="E92" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F88" s="22" t="s">
+      <c r="F92" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G88" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H88" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I88" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J88" s="25"/>
-      <c r="K88" s="29"/>
-      <c r="L88" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M88" s="27"/>
-    </row>
-    <row r="89" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="14"/>
-      <c r="B89" s="18">
+      <c r="G92" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H92" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I92" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J92" s="24"/>
+      <c r="K92" s="28"/>
+      <c r="L92" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M92" s="26"/>
+    </row>
+    <row r="93" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="13"/>
+      <c r="B93" s="17">
         <v>78803</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C93" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D89" s="20"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="25"/>
-      <c r="K89" s="29"/>
-      <c r="L89" s="26" t="s">
+      <c r="D93" s="19"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="M89" s="27"/>
-    </row>
-    <row r="90" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="14"/>
-      <c r="B90" s="18">
+      <c r="M93" s="26"/>
+    </row>
+    <row r="94" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="13"/>
+      <c r="B94" s="17">
         <v>78802</v>
       </c>
-      <c r="C90" s="19">
+      <c r="C94" s="18">
         <v>44508</v>
       </c>
-      <c r="D90" s="20">
+      <c r="D94" s="19">
         <v>60</v>
       </c>
-      <c r="E90" s="21" t="s">
+      <c r="E94" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F90" s="22" t="s">
+      <c r="F94" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G90" s="29" t="s">
+      <c r="G94" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="H90" s="23" t="s">
+      <c r="H94" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="I90" s="24" t="s">
+      <c r="I94" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="J90" s="25"/>
-      <c r="K90" s="29"/>
-      <c r="L90" s="26" t="s">
+      <c r="J94" s="24"/>
+      <c r="K94" s="28"/>
+      <c r="L94" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="M90" s="27"/>
-    </row>
-    <row r="91" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="14"/>
-      <c r="B91" s="18">
+      <c r="M94" s="26"/>
+    </row>
+    <row r="95" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="13"/>
+      <c r="B95" s="17">
         <v>78801</v>
       </c>
-      <c r="C91" s="19">
+      <c r="C95" s="18">
         <v>44508</v>
       </c>
-      <c r="D91" s="20">
+      <c r="D95" s="19">
         <v>20</v>
       </c>
-      <c r="E91" s="21" t="s">
+      <c r="E95" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F91" s="22" t="s">
+      <c r="F95" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G91" s="29" t="s">
+      <c r="G95" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="H91" s="23" t="s">
+      <c r="H95" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="I91" s="24" t="s">
+      <c r="I95" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="J91" s="25"/>
-      <c r="K91" s="29"/>
-      <c r="L91" s="26" t="s">
+      <c r="J95" s="24"/>
+      <c r="K95" s="28"/>
+      <c r="L95" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="M91" s="27"/>
-    </row>
-    <row r="92" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="14"/>
-      <c r="B92" s="18">
+      <c r="M95" s="26"/>
+    </row>
+    <row r="96" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="13"/>
+      <c r="B96" s="17">
         <v>78800</v>
       </c>
-      <c r="C92" s="19">
+      <c r="C96" s="18">
         <v>44508</v>
       </c>
-      <c r="D92" s="20">
+      <c r="D96" s="19">
         <v>50</v>
       </c>
-      <c r="E92" s="21" t="s">
+      <c r="E96" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F92" s="22" t="s">
+      <c r="F96" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G92" s="29" t="s">
+      <c r="G96" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="H92" s="23" t="s">
+      <c r="H96" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="I92" s="24" t="s">
+      <c r="I96" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="J92" s="25"/>
-      <c r="K92" s="29"/>
-      <c r="L92" s="26" t="s">
+      <c r="J96" s="24"/>
+      <c r="K96" s="28"/>
+      <c r="L96" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="M92" s="27"/>
-    </row>
-    <row r="93" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="14"/>
-      <c r="B93" s="18">
+      <c r="M96" s="26"/>
+    </row>
+    <row r="97" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="13"/>
+      <c r="B97" s="17">
         <v>78799</v>
       </c>
-      <c r="C93" s="19">
+      <c r="C97" s="18">
         <v>44508</v>
       </c>
-      <c r="D93" s="20">
+      <c r="D97" s="19">
         <v>80</v>
       </c>
-      <c r="E93" s="21" t="s">
+      <c r="E97" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F93" s="22" t="s">
+      <c r="F97" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G93" s="29" t="s">
+      <c r="G97" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="H93" s="23" t="s">
+      <c r="H97" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="I93" s="24" t="s">
+      <c r="I97" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="J93" s="25"/>
-      <c r="K93" s="29"/>
-      <c r="L93" s="26" t="s">
+      <c r="J97" s="24"/>
+      <c r="K97" s="28"/>
+      <c r="L97" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="M93" s="27"/>
-    </row>
-    <row r="94" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="14"/>
-      <c r="B94" s="18">
+      <c r="M97" s="26"/>
+    </row>
+    <row r="98" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="13"/>
+      <c r="B98" s="17">
         <v>78798</v>
       </c>
-      <c r="C94" s="19">
+      <c r="C98" s="18">
         <v>44508</v>
       </c>
-      <c r="D94" s="20">
+      <c r="D98" s="19">
         <v>30</v>
       </c>
-      <c r="E94" s="21" t="s">
+      <c r="E98" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F94" s="22" t="s">
+      <c r="F98" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G94" s="29" t="s">
+      <c r="G98" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="H94" s="23" t="s">
+      <c r="H98" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="I94" s="24" t="s">
+      <c r="I98" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="J94" s="25"/>
-      <c r="K94" s="29"/>
-      <c r="L94" s="26" t="s">
+      <c r="J98" s="24"/>
+      <c r="K98" s="28"/>
+      <c r="L98" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="M94" s="27"/>
-    </row>
-    <row r="95" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="14"/>
-      <c r="B95" s="18">
+      <c r="M98" s="26"/>
+    </row>
+    <row r="99" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="13"/>
+      <c r="B99" s="17">
         <v>78797</v>
       </c>
-      <c r="C95" s="19">
+      <c r="C99" s="18">
         <v>44507</v>
       </c>
-      <c r="D95" s="20">
+      <c r="D99" s="19">
         <v>10</v>
       </c>
-      <c r="E95" s="21" t="s">
+      <c r="E99" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F95" s="22" t="s">
+      <c r="F99" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G95" s="29" t="s">
+      <c r="G99" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H95" s="23" t="s">
+      <c r="H99" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I95" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J95" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K95" s="29"/>
-      <c r="L95" s="26"/>
-      <c r="M95" s="27" t="s">
+      <c r="I99" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J99" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K99" s="28"/>
+      <c r="L99" s="25"/>
+      <c r="M99" s="26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="14"/>
-      <c r="B96" s="18">
+    <row r="100" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="13"/>
+      <c r="B100" s="17">
         <v>78796</v>
       </c>
-      <c r="C96" s="19">
+      <c r="C100" s="18">
         <v>44507</v>
       </c>
-      <c r="D96" s="20">
+      <c r="D100" s="19">
         <v>50</v>
       </c>
-      <c r="E96" s="21" t="s">
+      <c r="E100" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F96" s="22" t="s">
+      <c r="F100" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G96" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H96" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I96" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J96" s="25"/>
-      <c r="K96" s="29"/>
-      <c r="L96" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M96" s="27"/>
-    </row>
-    <row r="97" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="14"/>
-      <c r="B97" s="18">
+      <c r="G100" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H100" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I100" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J100" s="24"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M100" s="26"/>
+    </row>
+    <row r="101" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="13"/>
+      <c r="B101" s="17">
         <v>78795</v>
       </c>
-      <c r="C97" s="19">
+      <c r="C101" s="18">
         <v>44506</v>
       </c>
-      <c r="D97" s="20" t="s">
+      <c r="D101" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E97" s="21" t="s">
+      <c r="E101" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F97" s="22" t="s">
+      <c r="F101" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G97" s="29" t="s">
+      <c r="G101" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H97" s="23" t="s">
+      <c r="H101" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I97" s="24">
+      <c r="I101" s="23">
         <v>44502</v>
       </c>
-      <c r="J97" s="25"/>
-      <c r="K97" s="29"/>
-      <c r="L97" s="26" t="s">
+      <c r="J101" s="24"/>
+      <c r="K101" s="28"/>
+      <c r="L101" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M97" s="27" t="s">
+      <c r="M101" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="14"/>
-      <c r="B98" s="18">
+    <row r="102" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="13"/>
+      <c r="B102" s="17">
         <v>78794</v>
       </c>
-      <c r="C98" s="19">
+      <c r="C102" s="18">
         <v>44506</v>
       </c>
-      <c r="D98" s="20" t="s">
+      <c r="D102" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E98" s="21" t="s">
+      <c r="E102" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F98" s="22" t="s">
+      <c r="F102" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G98" s="29" t="s">
+      <c r="G102" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H98" s="23" t="s">
+      <c r="H102" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I98" s="24">
+      <c r="I102" s="23">
         <v>44502</v>
       </c>
-      <c r="J98" s="25" t="s">
+      <c r="J102" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K98" s="29"/>
-      <c r="L98" s="26"/>
-      <c r="M98" s="27" t="s">
+      <c r="K102" s="28"/>
+      <c r="L102" s="25"/>
+      <c r="M102" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="14"/>
-      <c r="B99" s="18">
+    <row r="103" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="13"/>
+      <c r="B103" s="17">
         <v>78793</v>
       </c>
-      <c r="C99" s="19">
+      <c r="C103" s="18">
         <v>44506</v>
       </c>
-      <c r="D99" s="20" t="s">
+      <c r="D103" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="21" t="s">
+      <c r="E103" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F99" s="22" t="s">
+      <c r="F103" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G99" s="29" t="s">
+      <c r="G103" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H99" s="23" t="s">
+      <c r="H103" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I99" s="24">
+      <c r="I103" s="23">
         <v>44501</v>
       </c>
-      <c r="J99" s="25" t="s">
+      <c r="J103" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K99" s="29"/>
-      <c r="L99" s="26"/>
-      <c r="M99" s="27" t="s">
+      <c r="K103" s="28"/>
+      <c r="L103" s="25"/>
+      <c r="M103" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="14"/>
-      <c r="B100" s="18">
+    <row r="104" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="13"/>
+      <c r="B104" s="17">
         <v>78792</v>
       </c>
-      <c r="C100" s="19">
+      <c r="C104" s="18">
         <v>44506</v>
       </c>
-      <c r="D100" s="20" t="s">
+      <c r="D104" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E100" s="21" t="s">
+      <c r="E104" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F100" s="22" t="s">
+      <c r="F104" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G100" s="29" t="s">
+      <c r="G104" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H100" s="23" t="s">
+      <c r="H104" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I100" s="24">
+      <c r="I104" s="23">
         <v>44505</v>
       </c>
-      <c r="J100" s="25" t="s">
+      <c r="J104" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K100" s="29"/>
-      <c r="L100" s="26"/>
-      <c r="M100" s="27" t="s">
+      <c r="K104" s="28"/>
+      <c r="L104" s="25"/>
+      <c r="M104" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="14"/>
-      <c r="B101" s="18">
+    <row r="105" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="13"/>
+      <c r="B105" s="17">
         <v>78791</v>
       </c>
-      <c r="C101" s="19">
+      <c r="C105" s="18">
         <v>44506</v>
       </c>
-      <c r="D101" s="20" t="s">
+      <c r="D105" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E101" s="21" t="s">
+      <c r="E105" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F101" s="22" t="s">
+      <c r="F105" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G101" s="29" t="s">
+      <c r="G105" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H101" s="23" t="s">
+      <c r="H105" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I101" s="24" t="s">
+      <c r="I105" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J101" s="25" t="s">
+      <c r="J105" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K101" s="29"/>
-      <c r="L101" s="26"/>
-      <c r="M101" s="27" t="s">
+      <c r="K105" s="28"/>
+      <c r="L105" s="25"/>
+      <c r="M105" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="14"/>
-      <c r="B102" s="18">
+    <row r="106" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="13"/>
+      <c r="B106" s="17">
         <v>78790</v>
       </c>
-      <c r="C102" s="19">
+      <c r="C106" s="18">
         <v>44506</v>
       </c>
-      <c r="D102" s="20" t="s">
+      <c r="D106" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E102" s="21" t="s">
+      <c r="E106" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F102" s="22" t="s">
+      <c r="F106" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G102" s="29" t="s">
+      <c r="G106" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H102" s="23" t="s">
+      <c r="H106" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I102" s="24" t="s">
+      <c r="I106" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J102" s="25" t="s">
+      <c r="J106" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K102" s="29"/>
-      <c r="L102" s="26"/>
-      <c r="M102" s="27" t="s">
+      <c r="K106" s="28"/>
+      <c r="L106" s="25"/>
+      <c r="M106" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="14"/>
-      <c r="B103" s="18">
+    <row r="107" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="13"/>
+      <c r="B107" s="17">
         <v>78789</v>
       </c>
-      <c r="C103" s="19">
+      <c r="C107" s="18">
         <v>44506</v>
       </c>
-      <c r="D103" s="20" t="s">
+      <c r="D107" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E103" s="21" t="s">
+      <c r="E107" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F103" s="22" t="s">
+      <c r="F107" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G103" s="29" t="s">
+      <c r="G107" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H103" s="23" t="s">
+      <c r="H107" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I103" s="24" t="s">
+      <c r="I107" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J103" s="25" t="s">
+      <c r="J107" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K103" s="29"/>
-      <c r="L103" s="26"/>
-      <c r="M103" s="27" t="s">
+      <c r="K107" s="28"/>
+      <c r="L107" s="25"/>
+      <c r="M107" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="14"/>
-      <c r="B104" s="18">
+    <row r="108" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="13"/>
+      <c r="B108" s="17">
         <v>78788</v>
       </c>
-      <c r="C104" s="19">
+      <c r="C108" s="18">
         <v>44506</v>
       </c>
-      <c r="D104" s="20" t="s">
+      <c r="D108" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E104" s="21" t="s">
+      <c r="E108" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F104" s="22" t="s">
+      <c r="F108" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G104" s="29" t="s">
+      <c r="G108" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H104" s="23" t="s">
+      <c r="H108" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I104" s="24">
+      <c r="I108" s="23">
         <v>44502</v>
       </c>
-      <c r="J104" s="25" t="s">
+      <c r="J108" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K104" s="29"/>
-      <c r="L104" s="26"/>
-      <c r="M104" s="27" t="s">
+      <c r="K108" s="28"/>
+      <c r="L108" s="25"/>
+      <c r="M108" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="14"/>
-      <c r="B105" s="18">
+    <row r="109" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="13"/>
+      <c r="B109" s="17">
         <v>78787</v>
       </c>
-      <c r="C105" s="19">
+      <c r="C109" s="18">
         <v>44506</v>
       </c>
-      <c r="D105" s="20" t="s">
+      <c r="D109" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E105" s="21" t="s">
+      <c r="E109" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F105" s="22" t="s">
+      <c r="F109" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G105" s="29" t="s">
+      <c r="G109" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H105" s="23" t="s">
+      <c r="H109" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I105" s="24">
+      <c r="I109" s="23">
         <v>44502</v>
       </c>
-      <c r="J105" s="25"/>
-      <c r="K105" s="29"/>
-      <c r="L105" s="26" t="s">
+      <c r="J109" s="24"/>
+      <c r="K109" s="28"/>
+      <c r="L109" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M105" s="27" t="s">
+      <c r="M109" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="14"/>
-      <c r="B106" s="18">
+    <row r="110" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="13"/>
+      <c r="B110" s="17">
         <v>78786</v>
       </c>
-      <c r="C106" s="19">
+      <c r="C110" s="18">
         <v>44506</v>
       </c>
-      <c r="D106" s="20" t="s">
+      <c r="D110" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E106" s="21" t="s">
+      <c r="E110" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F106" s="22" t="s">
+      <c r="F110" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G106" s="29" t="s">
+      <c r="G110" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H106" s="23" t="s">
+      <c r="H110" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I106" s="24">
+      <c r="I110" s="23">
         <v>44503</v>
       </c>
-      <c r="J106" s="25"/>
-      <c r="K106" s="29"/>
-      <c r="L106" s="26" t="s">
+      <c r="J110" s="24"/>
+      <c r="K110" s="28"/>
+      <c r="L110" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M106" s="27" t="s">
+      <c r="M110" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="14"/>
-      <c r="B107" s="18">
+    <row r="111" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="13"/>
+      <c r="B111" s="17">
         <v>78785</v>
       </c>
-      <c r="C107" s="19">
+      <c r="C111" s="18">
         <v>44506</v>
       </c>
-      <c r="D107" s="20">
+      <c r="D111" s="19">
         <v>30</v>
       </c>
-      <c r="E107" s="21" t="s">
+      <c r="E111" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F107" s="22" t="s">
+      <c r="F111" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G107" s="29" t="s">
+      <c r="G111" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="H107" s="23" t="s">
+      <c r="H111" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="I107" s="24">
+      <c r="I111" s="23">
         <v>44503</v>
       </c>
-      <c r="J107" s="25"/>
-      <c r="K107" s="29"/>
-      <c r="L107" s="26" t="s">
+      <c r="J111" s="24"/>
+      <c r="K111" s="28"/>
+      <c r="L111" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M107" s="27"/>
-    </row>
-    <row r="108" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="14"/>
-      <c r="B108" s="18">
+      <c r="M111" s="26"/>
+    </row>
+    <row r="112" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="13"/>
+      <c r="B112" s="17">
         <v>78784</v>
       </c>
-      <c r="C108" s="19">
+      <c r="C112" s="18">
         <v>44506</v>
       </c>
-      <c r="D108" s="20" t="s">
+      <c r="D112" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E108" s="21" t="s">
+      <c r="E112" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F108" s="22" t="s">
+      <c r="F112" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G108" s="29" t="s">
+      <c r="G112" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="H108" s="23" t="s">
+      <c r="H112" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I108" s="24" t="s">
+      <c r="I112" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J108" s="25"/>
-      <c r="K108" s="29"/>
-      <c r="L108" s="26" t="s">
+      <c r="J112" s="24"/>
+      <c r="K112" s="28"/>
+      <c r="L112" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M108" s="27"/>
-    </row>
-    <row r="109" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="14"/>
-      <c r="B109" s="18">
+      <c r="M112" s="26"/>
+    </row>
+    <row r="113" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="13"/>
+      <c r="B113" s="17">
         <v>78783</v>
       </c>
-      <c r="C109" s="19">
+      <c r="C113" s="18">
         <v>44506</v>
       </c>
-      <c r="D109" s="20" t="s">
+      <c r="D113" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E109" s="21" t="s">
+      <c r="E113" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F109" s="22" t="s">
+      <c r="F113" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G109" s="29" t="s">
+      <c r="G113" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="H109" s="23" t="s">
+      <c r="H113" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I109" s="24" t="s">
+      <c r="I113" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J109" s="25" t="s">
+      <c r="J113" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K109" s="29"/>
-      <c r="L109" s="26"/>
-      <c r="M109" s="27" t="s">
+      <c r="K113" s="28"/>
+      <c r="L113" s="25"/>
+      <c r="M113" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="14"/>
-      <c r="B110" s="18">
+    <row r="114" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="13"/>
+      <c r="B114" s="17">
         <v>78782</v>
       </c>
-      <c r="C110" s="19">
+      <c r="C114" s="18">
         <v>44506</v>
       </c>
-      <c r="D110" s="20">
+      <c r="D114" s="19">
         <v>10</v>
       </c>
-      <c r="E110" s="21" t="s">
+      <c r="E114" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F110" s="22" t="s">
+      <c r="F114" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G110" s="29" t="s">
+      <c r="G114" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="H110" s="23" t="s">
+      <c r="H114" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I110" s="24" t="s">
+      <c r="I114" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J110" s="25" t="s">
+      <c r="J114" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K110" s="29"/>
-      <c r="L110" s="26"/>
-      <c r="M110" s="27" t="s">
+      <c r="K114" s="28"/>
+      <c r="L114" s="25"/>
+      <c r="M114" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="14"/>
-      <c r="B111" s="18">
+    <row r="115" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="13"/>
+      <c r="B115" s="17">
         <v>78781</v>
       </c>
-      <c r="C111" s="19">
+      <c r="C115" s="18">
         <v>44506</v>
       </c>
-      <c r="D111" s="20" t="s">
+      <c r="D115" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E111" s="21" t="s">
+      <c r="E115" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F111" s="22" t="s">
+      <c r="F115" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G111" s="29" t="s">
+      <c r="G115" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="H111" s="23" t="s">
+      <c r="H115" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I111" s="24" t="s">
+      <c r="I115" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J111" s="25" t="s">
+      <c r="J115" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K111" s="29"/>
-      <c r="L111" s="26"/>
-      <c r="M111" s="27" t="s">
+      <c r="K115" s="28"/>
+      <c r="L115" s="25"/>
+      <c r="M115" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="14"/>
-      <c r="B112" s="18">
+    <row r="116" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="13"/>
+      <c r="B116" s="17">
         <v>78780</v>
       </c>
-      <c r="C112" s="19">
+      <c r="C116" s="18">
         <v>44506</v>
       </c>
-      <c r="D112" s="20">
+      <c r="D116" s="19">
         <v>20</v>
       </c>
-      <c r="E112" s="21" t="s">
+      <c r="E116" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F112" s="22" t="s">
+      <c r="F116" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="G112" s="29" t="s">
+      <c r="G116" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="H112" s="23" t="s">
+      <c r="H116" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="I112" s="24" t="s">
+      <c r="I116" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J112" s="25" t="s">
+      <c r="J116" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K112" s="29"/>
-      <c r="L112" s="26"/>
-      <c r="M112" s="27" t="s">
+      <c r="K116" s="28"/>
+      <c r="L116" s="25"/>
+      <c r="M116" s="26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="14"/>
-      <c r="B113" s="18">
+    <row r="117" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="13"/>
+      <c r="B117" s="17">
         <v>78779</v>
       </c>
-      <c r="C113" s="19">
+      <c r="C117" s="18">
         <v>44506</v>
       </c>
-      <c r="D113" s="20">
+      <c r="D117" s="19">
         <v>80</v>
       </c>
-      <c r="E113" s="21" t="s">
+      <c r="E117" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F113" s="22" t="s">
+      <c r="F117" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G113" s="29" t="s">
+      <c r="G117" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="H113" s="23" t="s">
+      <c r="H117" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I113" s="24" t="s">
+      <c r="I117" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J113" s="25"/>
-      <c r="K113" s="29"/>
-      <c r="L113" s="26" t="s">
+      <c r="J117" s="24"/>
+      <c r="K117" s="28"/>
+      <c r="L117" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M113" s="27"/>
-    </row>
-    <row r="114" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="14"/>
-      <c r="B114" s="18">
+      <c r="M117" s="26"/>
+    </row>
+    <row r="118" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="13"/>
+      <c r="B118" s="17">
         <v>78778</v>
       </c>
-      <c r="C114" s="19">
+      <c r="C118" s="18">
         <v>44506</v>
       </c>
-      <c r="D114" s="20">
+      <c r="D118" s="19">
         <v>20</v>
       </c>
-      <c r="E114" s="21" t="s">
+      <c r="E118" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F114" s="22" t="s">
+      <c r="F118" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G114" s="29" t="s">
+      <c r="G118" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="H114" s="23" t="s">
+      <c r="H118" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I114" s="24" t="s">
+      <c r="I118" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J114" s="25"/>
-      <c r="K114" s="29"/>
-      <c r="L114" s="26" t="s">
+      <c r="J118" s="24"/>
+      <c r="K118" s="28"/>
+      <c r="L118" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M114" s="27"/>
-    </row>
-    <row r="115" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="14"/>
-      <c r="B115" s="18">
+      <c r="M118" s="26"/>
+    </row>
+    <row r="119" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="13"/>
+      <c r="B119" s="17">
         <v>78777</v>
       </c>
-      <c r="C115" s="19">
+      <c r="C119" s="18">
         <v>44506</v>
       </c>
-      <c r="D115" s="20" t="s">
+      <c r="D119" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E115" s="21" t="s">
+      <c r="E119" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F115" s="22" t="s">
+      <c r="F119" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G115" s="29" t="s">
+      <c r="G119" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="H115" s="23" t="s">
+      <c r="H119" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I115" s="24" t="s">
+      <c r="I119" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J115" s="25"/>
-      <c r="K115" s="29"/>
-      <c r="L115" s="26" t="s">
+      <c r="J119" s="24"/>
+      <c r="K119" s="28"/>
+      <c r="L119" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M115" s="27"/>
-    </row>
-    <row r="116" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="14"/>
-      <c r="B116" s="18">
+      <c r="M119" s="26"/>
+    </row>
+    <row r="120" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="13"/>
+      <c r="B120" s="17">
         <v>78776</v>
       </c>
-      <c r="C116" s="19">
+      <c r="C120" s="18">
         <v>44506</v>
       </c>
-      <c r="D116" s="20">
+      <c r="D120" s="19">
         <v>30</v>
       </c>
-      <c r="E116" s="21" t="s">
+      <c r="E120" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F116" s="22" t="s">
+      <c r="F120" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G116" s="29" t="s">
+      <c r="G120" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="H116" s="23" t="s">
+      <c r="H120" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I116" s="24" t="s">
+      <c r="I120" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J116" s="25"/>
-      <c r="K116" s="29"/>
-      <c r="L116" s="26" t="s">
+      <c r="J120" s="24"/>
+      <c r="K120" s="28"/>
+      <c r="L120" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M116" s="27"/>
-    </row>
-    <row r="117" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="14"/>
-      <c r="B117" s="18">
+      <c r="M120" s="26"/>
+    </row>
+    <row r="121" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="13"/>
+      <c r="B121" s="17">
         <v>78775</v>
       </c>
-      <c r="C117" s="19">
+      <c r="C121" s="18">
         <v>44506</v>
       </c>
-      <c r="D117" s="20">
+      <c r="D121" s="19">
         <v>60</v>
       </c>
-      <c r="E117" s="21" t="s">
+      <c r="E121" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F117" s="22" t="s">
+      <c r="F121" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G117" s="29" t="s">
+      <c r="G121" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="H117" s="23" t="s">
+      <c r="H121" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I117" s="24" t="s">
+      <c r="I121" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J117" s="25"/>
-      <c r="K117" s="29"/>
-      <c r="L117" s="26" t="s">
+      <c r="J121" s="24"/>
+      <c r="K121" s="28"/>
+      <c r="L121" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M117" s="27"/>
-    </row>
-    <row r="118" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="14"/>
-      <c r="B118" s="18">
+      <c r="M121" s="26"/>
+    </row>
+    <row r="122" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="13"/>
+      <c r="B122" s="17">
         <v>78774</v>
       </c>
-      <c r="C118" s="19">
+      <c r="C122" s="18">
         <v>44506</v>
       </c>
-      <c r="D118" s="20">
+      <c r="D122" s="19">
         <v>30</v>
       </c>
-      <c r="E118" s="21" t="s">
+      <c r="E122" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F118" s="22" t="s">
+      <c r="F122" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G118" s="29" t="s">
+      <c r="G122" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="H118" s="23" t="s">
+      <c r="H122" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I118" s="24" t="s">
+      <c r="I122" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J118" s="25"/>
-      <c r="K118" s="29"/>
-      <c r="L118" s="26" t="s">
+      <c r="J122" s="24"/>
+      <c r="K122" s="28"/>
+      <c r="L122" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M118" s="27"/>
-    </row>
-    <row r="119" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="14"/>
-      <c r="B119" s="18">
+      <c r="M122" s="26"/>
+    </row>
+    <row r="123" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="13"/>
+      <c r="B123" s="17">
         <v>78773</v>
       </c>
-      <c r="C119" s="19">
+      <c r="C123" s="18">
         <v>44506</v>
       </c>
-      <c r="D119" s="20">
+      <c r="D123" s="19">
         <v>40</v>
       </c>
-      <c r="E119" s="21" t="s">
+      <c r="E123" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F119" s="22" t="s">
+      <c r="F123" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G119" s="29" t="s">
+      <c r="G123" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="H119" s="23" t="s">
+      <c r="H123" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I119" s="24" t="s">
+      <c r="I123" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J119" s="25"/>
-      <c r="K119" s="29"/>
-      <c r="L119" s="26" t="s">
+      <c r="J123" s="24"/>
+      <c r="K123" s="28"/>
+      <c r="L123" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M119" s="27"/>
-    </row>
-    <row r="120" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="14"/>
-      <c r="B120" s="18">
+      <c r="M123" s="26"/>
+    </row>
+    <row r="124" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="13"/>
+      <c r="B124" s="17">
         <v>78772</v>
       </c>
-      <c r="C120" s="19">
+      <c r="C124" s="18">
         <v>44505</v>
       </c>
-      <c r="D120" s="20" t="s">
+      <c r="D124" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E120" s="21" t="s">
+      <c r="E124" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F120" s="22" t="s">
+      <c r="F124" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G120" s="29" t="s">
+      <c r="G124" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="H120" s="23" t="s">
+      <c r="H124" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I120" s="24" t="s">
+      <c r="I124" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J120" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K120" s="29"/>
-      <c r="L120" s="26"/>
-      <c r="M120" s="27" t="s">
+      <c r="J124" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K124" s="28"/>
+      <c r="L124" s="25"/>
+      <c r="M124" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="14"/>
-      <c r="B121" s="18">
+    <row r="125" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="13"/>
+      <c r="B125" s="17">
         <v>78771</v>
       </c>
-      <c r="C121" s="19">
+      <c r="C125" s="18">
         <v>44505</v>
       </c>
-      <c r="D121" s="20" t="s">
+      <c r="D125" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E121" s="21" t="s">
+      <c r="E125" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F121" s="22" t="s">
+      <c r="F125" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G121" s="29" t="s">
+      <c r="G125" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H121" s="23" t="s">
+      <c r="H125" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I121" s="24">
+      <c r="I125" s="23">
         <v>44501</v>
       </c>
-      <c r="J121" s="25"/>
-      <c r="K121" s="29"/>
-      <c r="L121" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M121" s="27" t="s">
+      <c r="J125" s="24"/>
+      <c r="K125" s="28"/>
+      <c r="L125" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M125" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="14"/>
-      <c r="B122" s="18">
+    <row r="126" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="13"/>
+      <c r="B126" s="17">
         <v>78770</v>
       </c>
-      <c r="C122" s="19">
+      <c r="C126" s="18">
         <v>44505</v>
       </c>
-      <c r="D122" s="20" t="s">
+      <c r="D126" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E122" s="21" t="s">
+      <c r="E126" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F122" s="22" t="s">
+      <c r="F126" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G122" s="29" t="s">
+      <c r="G126" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H122" s="23" t="s">
+      <c r="H126" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I122" s="24">
+      <c r="I126" s="23">
         <v>44504</v>
       </c>
-      <c r="J122" s="25"/>
-      <c r="K122" s="29"/>
-      <c r="L122" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M122" s="27" t="s">
+      <c r="J126" s="24"/>
+      <c r="K126" s="28"/>
+      <c r="L126" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M126" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="14"/>
-      <c r="B123" s="18">
+    <row r="127" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="13"/>
+      <c r="B127" s="17">
         <v>78769</v>
       </c>
-      <c r="C123" s="19">
+      <c r="C127" s="18">
         <v>44505</v>
       </c>
-      <c r="D123" s="20" t="s">
+      <c r="D127" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E123" s="21" t="s">
+      <c r="E127" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F123" s="22" t="s">
+      <c r="F127" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G123" s="29" t="s">
+      <c r="G127" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H123" s="23" t="s">
+      <c r="H127" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I123" s="24">
+      <c r="I127" s="23">
         <v>44500</v>
       </c>
-      <c r="J123" s="25"/>
-      <c r="K123" s="29"/>
-      <c r="L123" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M123" s="27" t="s">
+      <c r="J127" s="24"/>
+      <c r="K127" s="28"/>
+      <c r="L127" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M127" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="14"/>
-      <c r="B124" s="18">
+    <row r="128" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="13"/>
+      <c r="B128" s="17">
         <v>78768</v>
       </c>
-      <c r="C124" s="19">
+      <c r="C128" s="18">
         <v>44505</v>
       </c>
-      <c r="D124" s="20" t="s">
+      <c r="D128" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E124" s="21" t="s">
+      <c r="E128" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F124" s="22" t="s">
+      <c r="F128" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G124" s="29" t="s">
+      <c r="G128" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H124" s="23" t="s">
+      <c r="H128" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I124" s="24">
+      <c r="I128" s="23">
         <v>44498</v>
       </c>
-      <c r="J124" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K124" s="29"/>
-      <c r="L124" s="26"/>
-      <c r="M124" s="27" t="s">
+      <c r="J128" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K128" s="28"/>
+      <c r="L128" s="25"/>
+      <c r="M128" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="14"/>
-      <c r="B125" s="18">
+    <row r="129" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="13"/>
+      <c r="B129" s="17">
         <v>78767</v>
       </c>
-      <c r="C125" s="19">
+      <c r="C129" s="18">
         <v>44505</v>
       </c>
-      <c r="D125" s="20">
+      <c r="D129" s="19">
         <v>30</v>
       </c>
-      <c r="E125" s="21" t="s">
+      <c r="E129" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F125" s="22" t="s">
+      <c r="F129" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G125" s="29" t="s">
+      <c r="G129" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="H125" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I125" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J125" s="25"/>
-      <c r="K125" s="29"/>
-      <c r="L125" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M125" s="27"/>
-    </row>
-    <row r="126" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="14"/>
-      <c r="B126" s="18">
+      <c r="H129" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I129" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J129" s="24"/>
+      <c r="K129" s="28"/>
+      <c r="L129" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M129" s="26"/>
+    </row>
+    <row r="130" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="13"/>
+      <c r="B130" s="17">
         <v>78766</v>
       </c>
-      <c r="C126" s="19">
+      <c r="C130" s="18">
         <v>44505</v>
       </c>
-      <c r="D126" s="20">
+      <c r="D130" s="19">
         <v>10</v>
       </c>
-      <c r="E126" s="21" t="s">
+      <c r="E130" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F126" s="22" t="s">
+      <c r="F130" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G126" s="29" t="s">
+      <c r="G130" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H126" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I126" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J126" s="25"/>
-      <c r="K126" s="29"/>
-      <c r="L126" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M126" s="27"/>
-    </row>
-    <row r="127" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="14"/>
-      <c r="B127" s="18">
+      <c r="H130" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I130" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J130" s="24"/>
+      <c r="K130" s="28"/>
+      <c r="L130" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M130" s="26"/>
+    </row>
+    <row r="131" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="13"/>
+      <c r="B131" s="17">
         <v>78765</v>
       </c>
-      <c r="C127" s="19">
+      <c r="C131" s="18">
         <v>44505</v>
       </c>
-      <c r="D127" s="20">
+      <c r="D131" s="19">
         <v>60</v>
       </c>
-      <c r="E127" s="21" t="s">
+      <c r="E131" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F127" s="22" t="s">
+      <c r="F131" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G127" s="29" t="s">
+      <c r="G131" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H127" s="23" t="s">
+      <c r="H131" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I127" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J127" s="25"/>
-      <c r="K127" s="29"/>
-      <c r="L127" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M127" s="27"/>
-    </row>
-    <row r="128" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="14"/>
-      <c r="B128" s="18">
+      <c r="I131" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J131" s="24"/>
+      <c r="K131" s="28"/>
+      <c r="L131" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M131" s="26"/>
+    </row>
+    <row r="132" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="13"/>
+      <c r="B132" s="17">
         <v>78764</v>
       </c>
-      <c r="C128" s="19">
+      <c r="C132" s="18">
         <v>44505</v>
       </c>
-      <c r="D128" s="20">
+      <c r="D132" s="19">
         <v>20</v>
       </c>
-      <c r="E128" s="21" t="s">
+      <c r="E132" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F128" s="22" t="s">
+      <c r="F132" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G128" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H128" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I128" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J128" s="25"/>
-      <c r="K128" s="29"/>
-      <c r="L128" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M128" s="27"/>
-    </row>
-    <row r="129" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="14"/>
-      <c r="B129" s="18">
+      <c r="G132" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H132" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I132" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J132" s="24"/>
+      <c r="K132" s="28"/>
+      <c r="L132" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M132" s="26"/>
+    </row>
+    <row r="133" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="13"/>
+      <c r="B133" s="17">
         <v>78763</v>
       </c>
-      <c r="C129" s="19">
+      <c r="C133" s="18">
         <v>44505</v>
       </c>
-      <c r="D129" s="20">
+      <c r="D133" s="19">
         <v>20</v>
       </c>
-      <c r="E129" s="21" t="s">
+      <c r="E133" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F129" s="22" t="s">
+      <c r="F133" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G129" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H129" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I129" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J129" s="25"/>
-      <c r="K129" s="29"/>
-      <c r="L129" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M129" s="27"/>
-    </row>
-    <row r="130" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="14"/>
-      <c r="B130" s="18">
+      <c r="G133" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H133" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I133" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J133" s="24"/>
+      <c r="K133" s="28"/>
+      <c r="L133" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M133" s="26"/>
+    </row>
+    <row r="134" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="13"/>
+      <c r="B134" s="17">
         <v>78762</v>
       </c>
-      <c r="C130" s="19">
+      <c r="C134" s="18">
         <v>44505</v>
       </c>
-      <c r="D130" s="20">
+      <c r="D134" s="19">
         <v>20</v>
       </c>
-      <c r="E130" s="21" t="s">
+      <c r="E134" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F130" s="22" t="s">
+      <c r="F134" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G130" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H130" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I130" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J130" s="25"/>
-      <c r="K130" s="29"/>
-      <c r="L130" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M130" s="27"/>
-    </row>
-    <row r="131" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="14"/>
-      <c r="B131" s="18">
+      <c r="G134" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H134" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I134" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J134" s="24"/>
+      <c r="K134" s="28"/>
+      <c r="L134" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M134" s="26"/>
+    </row>
+    <row r="135" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="13"/>
+      <c r="B135" s="17">
         <v>78761</v>
       </c>
-      <c r="C131" s="19">
+      <c r="C135" s="18">
         <v>44505</v>
       </c>
-      <c r="D131" s="20">
+      <c r="D135" s="19">
         <v>50</v>
       </c>
-      <c r="E131" s="21" t="s">
+      <c r="E135" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F131" s="22" t="s">
+      <c r="F135" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G131" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H131" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I131" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J131" s="25"/>
-      <c r="K131" s="29"/>
-      <c r="L131" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M131" s="27"/>
-    </row>
-    <row r="132" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="14"/>
-      <c r="B132" s="18">
+      <c r="G135" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H135" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I135" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J135" s="24"/>
+      <c r="K135" s="28"/>
+      <c r="L135" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M135" s="26"/>
+    </row>
+    <row r="136" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="13"/>
+      <c r="B136" s="17">
         <v>78760</v>
       </c>
-      <c r="C132" s="19">
+      <c r="C136" s="18">
         <v>44505</v>
       </c>
-      <c r="D132" s="20">
+      <c r="D136" s="19">
         <v>30</v>
       </c>
-      <c r="E132" s="21" t="s">
+      <c r="E136" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F132" s="22" t="s">
+      <c r="F136" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G132" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H132" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I132" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J132" s="25"/>
-      <c r="K132" s="29"/>
-      <c r="L132" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M132" s="27"/>
-    </row>
-    <row r="133" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="14"/>
-      <c r="B133" s="18">
+      <c r="G136" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H136" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I136" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J136" s="24"/>
+      <c r="K136" s="28"/>
+      <c r="L136" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M136" s="26"/>
+    </row>
+    <row r="137" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="13"/>
+      <c r="B137" s="17">
         <v>78759</v>
       </c>
-      <c r="C133" s="19">
+      <c r="C137" s="18">
         <v>44505</v>
       </c>
-      <c r="D133" s="20">
+      <c r="D137" s="19">
         <v>20</v>
       </c>
-      <c r="E133" s="21" t="s">
+      <c r="E137" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F133" s="22" t="s">
+      <c r="F137" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G133" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H133" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I133" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J133" s="25"/>
-      <c r="K133" s="29"/>
-      <c r="L133" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M133" s="27"/>
-    </row>
-    <row r="134" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="14"/>
-      <c r="B134" s="18">
+      <c r="G137" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H137" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I137" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J137" s="24"/>
+      <c r="K137" s="28"/>
+      <c r="L137" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M137" s="26"/>
+    </row>
+    <row r="138" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="13"/>
+      <c r="B138" s="17">
         <v>78758</v>
       </c>
-      <c r="C134" s="19">
+      <c r="C138" s="18">
         <v>44505</v>
       </c>
-      <c r="D134" s="20" t="s">
+      <c r="D138" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E134" s="21" t="s">
+      <c r="E138" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F134" s="22" t="s">
+      <c r="F138" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G134" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H134" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I134" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J134" s="25"/>
-      <c r="K134" s="29"/>
-      <c r="L134" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M134" s="27"/>
-    </row>
-    <row r="135" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="14"/>
-      <c r="B135" s="18">
+      <c r="G138" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H138" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I138" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J138" s="24"/>
+      <c r="K138" s="28"/>
+      <c r="L138" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M138" s="26"/>
+    </row>
+    <row r="139" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="13"/>
+      <c r="B139" s="17">
         <v>78757</v>
       </c>
-      <c r="C135" s="19">
+      <c r="C139" s="18">
         <v>44505</v>
       </c>
-      <c r="D135" s="20">
+      <c r="D139" s="19">
         <v>30</v>
       </c>
-      <c r="E135" s="21" t="s">
+      <c r="E139" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F135" s="22" t="s">
+      <c r="F139" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G135" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H135" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I135" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J135" s="25"/>
-      <c r="K135" s="29"/>
-      <c r="L135" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M135" s="27"/>
-    </row>
-    <row r="136" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="14"/>
-      <c r="B136" s="18">
+      <c r="G139" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H139" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I139" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J139" s="24"/>
+      <c r="K139" s="28"/>
+      <c r="L139" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M139" s="26"/>
+    </row>
+    <row r="140" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="13"/>
+      <c r="B140" s="17">
         <v>78756</v>
       </c>
-      <c r="C136" s="19">
+      <c r="C140" s="18">
         <v>44505</v>
       </c>
-      <c r="D136" s="20">
+      <c r="D140" s="19">
         <v>20</v>
       </c>
-      <c r="E136" s="21" t="s">
+      <c r="E140" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F136" s="22" t="s">
+      <c r="F140" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G136" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H136" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I136" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J136" s="25"/>
-      <c r="K136" s="29"/>
-      <c r="L136" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M136" s="27"/>
-    </row>
-    <row r="137" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="14"/>
-      <c r="B137" s="18">
+      <c r="G140" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H140" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I140" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J140" s="24"/>
+      <c r="K140" s="28"/>
+      <c r="L140" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M140" s="26"/>
+    </row>
+    <row r="141" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="13"/>
+      <c r="B141" s="17">
         <v>78755</v>
       </c>
-      <c r="C137" s="19">
+      <c r="C141" s="18">
         <v>44504</v>
       </c>
-      <c r="D137" s="20" t="s">
+      <c r="D141" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E137" s="21" t="s">
+      <c r="E141" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F137" s="22" t="s">
+      <c r="F141" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G137" s="29" t="s">
+      <c r="G141" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H137" s="23" t="s">
+      <c r="H141" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I137" s="24" t="s">
+      <c r="I141" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J137" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K137" s="29"/>
-      <c r="L137" s="26"/>
-      <c r="M137" s="27" t="s">
+      <c r="J141" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K141" s="28"/>
+      <c r="L141" s="25"/>
+      <c r="M141" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="14"/>
-      <c r="B138" s="18">
+    <row r="142" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="13"/>
+      <c r="B142" s="17">
         <v>78754</v>
       </c>
-      <c r="C138" s="19">
+      <c r="C142" s="18">
         <v>44504</v>
       </c>
-      <c r="D138" s="20" t="s">
+      <c r="D142" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E138" s="21" t="s">
+      <c r="E142" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F138" s="22" t="s">
+      <c r="F142" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G138" s="29" t="s">
+      <c r="G142" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H138" s="23" t="s">
+      <c r="H142" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I138" s="24">
+      <c r="I142" s="23">
         <v>44502</v>
       </c>
-      <c r="J138" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K138" s="29"/>
-      <c r="L138" s="26"/>
-      <c r="M138" s="27" t="s">
+      <c r="J142" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K142" s="28"/>
+      <c r="L142" s="25"/>
+      <c r="M142" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="14"/>
-      <c r="B139" s="18">
+    <row r="143" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="13"/>
+      <c r="B143" s="17">
         <v>78753</v>
       </c>
-      <c r="C139" s="19">
+      <c r="C143" s="18">
         <v>44504</v>
       </c>
-      <c r="D139" s="20" t="s">
+      <c r="D143" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E139" s="21" t="s">
+      <c r="E143" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F139" s="22" t="s">
+      <c r="F143" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G139" s="29" t="s">
+      <c r="G143" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H139" s="23" t="s">
+      <c r="H143" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I139" s="24">
+      <c r="I143" s="23">
         <v>44501</v>
       </c>
-      <c r="J139" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K139" s="29"/>
-      <c r="L139" s="26"/>
-      <c r="M139" s="27" t="s">
+      <c r="J143" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K143" s="28"/>
+      <c r="L143" s="25"/>
+      <c r="M143" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="14"/>
-      <c r="B140" s="18">
+    <row r="144" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="13"/>
+      <c r="B144" s="17">
         <v>78752</v>
       </c>
-      <c r="C140" s="19">
+      <c r="C144" s="18">
         <v>44504</v>
       </c>
-      <c r="D140" s="20" t="s">
+      <c r="D144" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E140" s="21" t="s">
+      <c r="E144" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F140" s="22" t="s">
+      <c r="F144" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G140" s="29" t="s">
+      <c r="G144" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H140" s="23" t="s">
+      <c r="H144" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I140" s="24">
+      <c r="I144" s="23">
         <v>44502</v>
       </c>
-      <c r="J140" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K140" s="29"/>
-      <c r="L140" s="26"/>
-      <c r="M140" s="27" t="s">
+      <c r="J144" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K144" s="28"/>
+      <c r="L144" s="25"/>
+      <c r="M144" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="14"/>
-      <c r="B141" s="18">
+    <row r="145" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="13"/>
+      <c r="B145" s="17">
         <v>78751</v>
       </c>
-      <c r="C141" s="19">
+      <c r="C145" s="18">
         <v>44504</v>
       </c>
-      <c r="D141" s="20" t="s">
+      <c r="D145" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E141" s="21" t="s">
+      <c r="E145" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F141" s="22" t="s">
+      <c r="F145" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G141" s="29" t="s">
+      <c r="G145" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H141" s="23" t="s">
+      <c r="H145" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I141" s="24">
+      <c r="I145" s="23">
         <v>44502</v>
       </c>
-      <c r="J141" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K141" s="29"/>
-      <c r="L141" s="26"/>
-      <c r="M141" s="27" t="s">
+      <c r="J145" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K145" s="28"/>
+      <c r="L145" s="25"/>
+      <c r="M145" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="14"/>
-      <c r="B142" s="18">
+    <row r="146" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="13"/>
+      <c r="B146" s="17">
         <v>78750</v>
       </c>
-      <c r="C142" s="19">
+      <c r="C146" s="18">
         <v>44504</v>
       </c>
-      <c r="D142" s="20">
+      <c r="D146" s="19">
         <v>40</v>
       </c>
-      <c r="E142" s="21" t="s">
+      <c r="E146" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F142" s="22" t="s">
+      <c r="F146" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G142" s="29" t="s">
+      <c r="G146" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H142" s="23" t="s">
+      <c r="H146" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I142" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J142" s="25"/>
-      <c r="K142" s="29"/>
-      <c r="L142" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M142" s="27"/>
-    </row>
-    <row r="143" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="14"/>
-      <c r="B143" s="18">
+      <c r="I146" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J146" s="24"/>
+      <c r="K146" s="28"/>
+      <c r="L146" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M146" s="26"/>
+    </row>
+    <row r="147" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="13"/>
+      <c r="B147" s="17">
         <v>78749</v>
       </c>
-      <c r="C143" s="19" t="s">
+      <c r="C147" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D143" s="20"/>
-      <c r="E143" s="21"/>
-      <c r="F143" s="22"/>
-      <c r="G143" s="29"/>
-      <c r="H143" s="23"/>
-      <c r="I143" s="24"/>
-      <c r="J143" s="25"/>
-      <c r="K143" s="29"/>
-      <c r="L143" s="26" t="s">
+      <c r="D147" s="19"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="28"/>
+      <c r="H147" s="22"/>
+      <c r="I147" s="23"/>
+      <c r="J147" s="24"/>
+      <c r="K147" s="28"/>
+      <c r="L147" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="M143" s="27"/>
-    </row>
-    <row r="144" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="14"/>
-      <c r="B144" s="18">
+      <c r="M147" s="26"/>
+    </row>
+    <row r="148" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="13"/>
+      <c r="B148" s="17">
         <v>78748</v>
       </c>
-      <c r="C144" s="19">
+      <c r="C148" s="18">
         <v>44504</v>
       </c>
-      <c r="D144" s="20">
+      <c r="D148" s="19">
         <v>40</v>
       </c>
-      <c r="E144" s="21" t="s">
+      <c r="E148" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F144" s="22" t="s">
+      <c r="F148" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G144" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H144" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I144" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J144" s="25"/>
-      <c r="K144" s="29"/>
-      <c r="L144" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M144" s="27"/>
-    </row>
-    <row r="145" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="14"/>
-      <c r="B145" s="18">
+      <c r="G148" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H148" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I148" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J148" s="24"/>
+      <c r="K148" s="28"/>
+      <c r="L148" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M148" s="26"/>
+    </row>
+    <row r="149" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="13"/>
+      <c r="B149" s="17">
         <v>78747</v>
       </c>
-      <c r="C145" s="19">
+      <c r="C149" s="18">
         <v>44504</v>
       </c>
-      <c r="D145" s="20">
+      <c r="D149" s="19">
         <v>70</v>
       </c>
-      <c r="E145" s="21" t="s">
+      <c r="E149" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F145" s="22" t="s">
+      <c r="F149" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G145" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H145" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I145" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J145" s="25"/>
-      <c r="K145" s="29"/>
-      <c r="L145" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M145" s="27"/>
-    </row>
-    <row r="146" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="14"/>
-      <c r="B146" s="18">
+      <c r="G149" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H149" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I149" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J149" s="24"/>
+      <c r="K149" s="28"/>
+      <c r="L149" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M149" s="26"/>
+    </row>
+    <row r="150" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="13"/>
+      <c r="B150" s="17">
         <v>78746</v>
       </c>
-      <c r="C146" s="19">
+      <c r="C150" s="18">
         <v>44504</v>
       </c>
-      <c r="D146" s="20">
+      <c r="D150" s="19">
         <v>60</v>
       </c>
-      <c r="E146" s="21" t="s">
+      <c r="E150" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F146" s="22" t="s">
+      <c r="F150" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G146" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H146" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I146" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J146" s="25"/>
-      <c r="K146" s="29"/>
-      <c r="L146" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M146" s="27"/>
-    </row>
-    <row r="147" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="14"/>
-      <c r="B147" s="18">
+      <c r="G150" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H150" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I150" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J150" s="24"/>
+      <c r="K150" s="28"/>
+      <c r="L150" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M150" s="26"/>
+    </row>
+    <row r="151" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="13"/>
+      <c r="B151" s="17">
         <v>78745</v>
       </c>
-      <c r="C147" s="19">
+      <c r="C151" s="18">
         <v>44504</v>
       </c>
-      <c r="D147" s="20">
+      <c r="D151" s="19">
         <v>10</v>
       </c>
-      <c r="E147" s="21" t="s">
+      <c r="E151" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F147" s="22" t="s">
+      <c r="F151" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G147" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H147" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I147" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J147" s="25"/>
-      <c r="K147" s="29"/>
-      <c r="L147" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M147" s="27"/>
-    </row>
-    <row r="148" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="14"/>
-      <c r="B148" s="18">
+      <c r="G151" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H151" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I151" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J151" s="24"/>
+      <c r="K151" s="28"/>
+      <c r="L151" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M151" s="26"/>
+    </row>
+    <row r="152" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="13"/>
+      <c r="B152" s="17">
         <v>78744</v>
       </c>
-      <c r="C148" s="19">
+      <c r="C152" s="18">
         <v>44503</v>
       </c>
-      <c r="D148" s="20" t="s">
+      <c r="D152" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E148" s="21" t="s">
+      <c r="E152" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F148" s="22" t="s">
+      <c r="F152" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G148" s="29" t="s">
+      <c r="G152" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="H148" s="23" t="s">
+      <c r="H152" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I148" s="24">
+      <c r="I152" s="23">
         <v>44497</v>
       </c>
-      <c r="J148" s="25"/>
-      <c r="K148" s="29"/>
-      <c r="L148" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M148" s="27" t="s">
+      <c r="J152" s="24"/>
+      <c r="K152" s="28"/>
+      <c r="L152" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M152" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="14"/>
-      <c r="B149" s="18">
+    <row r="153" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="13"/>
+      <c r="B153" s="17">
         <v>78743</v>
       </c>
-      <c r="C149" s="19">
+      <c r="C153" s="18">
         <v>44503</v>
       </c>
-      <c r="D149" s="20" t="s">
+      <c r="D153" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E149" s="21" t="s">
+      <c r="E153" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F149" s="22" t="s">
+      <c r="F153" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G149" s="29" t="s">
+      <c r="G153" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H149" s="23" t="s">
+      <c r="H153" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I149" s="24">
+      <c r="I153" s="23">
         <v>44497</v>
       </c>
-      <c r="J149" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K149" s="29"/>
-      <c r="L149" s="26"/>
-      <c r="M149" s="27" t="s">
+      <c r="J153" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K153" s="28"/>
+      <c r="L153" s="25"/>
+      <c r="M153" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="14"/>
-      <c r="B150" s="18">
+    <row r="154" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="13"/>
+      <c r="B154" s="17">
         <v>78742</v>
       </c>
-      <c r="C150" s="19">
+      <c r="C154" s="18">
         <v>44503</v>
       </c>
-      <c r="D150" s="20" t="s">
+      <c r="D154" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E150" s="21" t="s">
+      <c r="E154" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F150" s="22" t="s">
+      <c r="F154" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G150" s="29" t="s">
+      <c r="G154" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H150" s="23" t="s">
+      <c r="H154" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I150" s="24">
+      <c r="I154" s="23">
         <v>44498</v>
       </c>
-      <c r="J150" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K150" s="29"/>
-      <c r="L150" s="26"/>
-      <c r="M150" s="27" t="s">
+      <c r="J154" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K154" s="28"/>
+      <c r="L154" s="25"/>
+      <c r="M154" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="14"/>
-      <c r="B151" s="18">
+    <row r="155" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="13"/>
+      <c r="B155" s="17">
         <v>78741</v>
       </c>
-      <c r="C151" s="19">
+      <c r="C155" s="18">
         <v>44503</v>
       </c>
-      <c r="D151" s="20" t="s">
+      <c r="D155" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E151" s="21" t="s">
+      <c r="E155" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F151" s="22" t="s">
+      <c r="F155" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G151" s="29" t="s">
+      <c r="G155" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H151" s="23" t="s">
+      <c r="H155" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I151" s="24">
+      <c r="I155" s="23">
         <v>44501</v>
       </c>
-      <c r="J151" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K151" s="29"/>
-      <c r="L151" s="26"/>
-      <c r="M151" s="27" t="s">
+      <c r="J155" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K155" s="28"/>
+      <c r="L155" s="25"/>
+      <c r="M155" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="14"/>
-      <c r="B152" s="18">
+    <row r="156" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="13"/>
+      <c r="B156" s="17">
         <v>78740</v>
       </c>
-      <c r="C152" s="19">
+      <c r="C156" s="18">
         <v>44503</v>
       </c>
-      <c r="D152" s="20" t="s">
+      <c r="D156" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E152" s="21" t="s">
+      <c r="E156" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F152" s="22" t="s">
+      <c r="F156" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G152" s="29" t="s">
+      <c r="G156" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H152" s="23" t="s">
+      <c r="H156" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I152" s="24">
+      <c r="I156" s="23">
         <v>44497</v>
       </c>
-      <c r="J152" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K152" s="29"/>
-      <c r="L152" s="26"/>
-      <c r="M152" s="27" t="s">
+      <c r="J156" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K156" s="28"/>
+      <c r="L156" s="25"/>
+      <c r="M156" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="14"/>
-      <c r="B153" s="18">
+    <row r="157" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="13"/>
+      <c r="B157" s="17">
         <v>78739</v>
       </c>
-      <c r="C153" s="19">
+      <c r="C157" s="18">
         <v>44503</v>
       </c>
-      <c r="D153" s="20" t="s">
+      <c r="D157" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E153" s="21" t="s">
+      <c r="E157" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F153" s="22" t="s">
+      <c r="F157" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G153" s="29" t="s">
+      <c r="G157" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H153" s="23" t="s">
+      <c r="H157" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I153" s="24" t="s">
+      <c r="I157" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J153" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K153" s="29"/>
-      <c r="L153" s="26"/>
-      <c r="M153" s="27" t="s">
+      <c r="J157" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K157" s="28"/>
+      <c r="L157" s="25"/>
+      <c r="M157" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="14"/>
-      <c r="B154" s="18">
+    <row r="158" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="13"/>
+      <c r="B158" s="17">
         <v>78738</v>
       </c>
-      <c r="C154" s="19">
+      <c r="C158" s="18">
         <v>44503</v>
       </c>
-      <c r="D154" s="20" t="s">
+      <c r="D158" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E154" s="21" t="s">
+      <c r="E158" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F154" s="22" t="s">
+      <c r="F158" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G154" s="29" t="s">
+      <c r="G158" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H154" s="23" t="s">
+      <c r="H158" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I154" s="24">
+      <c r="I158" s="23">
         <v>44500</v>
       </c>
-      <c r="J154" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K154" s="29"/>
-      <c r="L154" s="26"/>
-      <c r="M154" s="27" t="s">
+      <c r="J158" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K158" s="28"/>
+      <c r="L158" s="25"/>
+      <c r="M158" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="14"/>
-      <c r="B155" s="18">
+    <row r="159" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="13"/>
+      <c r="B159" s="17">
         <v>78737</v>
       </c>
-      <c r="C155" s="19">
+      <c r="C159" s="18">
         <v>44503</v>
       </c>
-      <c r="D155" s="20" t="s">
+      <c r="D159" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E155" s="21" t="s">
+      <c r="E159" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F155" s="22" t="s">
+      <c r="F159" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G155" s="29" t="s">
+      <c r="G159" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H155" s="23" t="s">
+      <c r="H159" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I155" s="24">
+      <c r="I159" s="23">
         <v>44499</v>
       </c>
-      <c r="J155" s="25"/>
-      <c r="K155" s="29"/>
-      <c r="L155" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M155" s="27" t="s">
+      <c r="J159" s="24"/>
+      <c r="K159" s="28"/>
+      <c r="L159" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M159" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="14"/>
-      <c r="B156" s="18">
+    <row r="160" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="13"/>
+      <c r="B160" s="17">
         <v>78736</v>
       </c>
-      <c r="C156" s="19">
+      <c r="C160" s="18">
         <v>44503</v>
       </c>
-      <c r="D156" s="20">
+      <c r="D160" s="19">
         <v>60</v>
       </c>
-      <c r="E156" s="21" t="s">
+      <c r="E160" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F156" s="22" t="s">
+      <c r="F160" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G156" s="29" t="s">
+      <c r="G160" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="H156" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I156" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J156" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K156" s="29"/>
-      <c r="L156" s="26"/>
-      <c r="M156" s="27" t="s">
+      <c r="H160" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I160" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J160" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K160" s="28"/>
+      <c r="L160" s="25"/>
+      <c r="M160" s="26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="14"/>
-      <c r="B157" s="18">
+    <row r="161" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="13"/>
+      <c r="B161" s="17">
         <v>78735</v>
       </c>
-      <c r="C157" s="19">
+      <c r="C161" s="18">
         <v>44503</v>
       </c>
-      <c r="D157" s="20">
+      <c r="D161" s="19">
         <v>20</v>
       </c>
-      <c r="E157" s="21" t="s">
+      <c r="E161" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F157" s="22" t="s">
+      <c r="F161" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G157" s="29" t="s">
+      <c r="G161" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="H157" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I157" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J157" s="25"/>
-      <c r="K157" s="29"/>
-      <c r="L157" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M157" s="27"/>
-    </row>
-    <row r="158" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="14"/>
-      <c r="B158" s="18">
+      <c r="H161" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I161" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J161" s="24"/>
+      <c r="K161" s="28"/>
+      <c r="L161" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M161" s="26"/>
+    </row>
+    <row r="162" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="13"/>
+      <c r="B162" s="17">
         <v>78734</v>
       </c>
-      <c r="C158" s="19">
+      <c r="C162" s="18">
         <v>44503</v>
       </c>
-      <c r="D158" s="20">
+      <c r="D162" s="19">
         <v>80</v>
       </c>
-      <c r="E158" s="21" t="s">
+      <c r="E162" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F158" s="22" t="s">
+      <c r="F162" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G158" s="29" t="s">
+      <c r="G162" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H158" s="23" t="s">
+      <c r="H162" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I158" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J158" s="25"/>
-      <c r="K158" s="29"/>
-      <c r="L158" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M158" s="27"/>
-    </row>
-    <row r="159" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="14"/>
-      <c r="B159" s="18">
+      <c r="I162" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J162" s="24"/>
+      <c r="K162" s="28"/>
+      <c r="L162" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M162" s="26"/>
+    </row>
+    <row r="163" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="13"/>
+      <c r="B163" s="17">
         <v>78733</v>
       </c>
-      <c r="C159" s="19">
+      <c r="C163" s="18">
         <v>44503</v>
       </c>
-      <c r="D159" s="20">
+      <c r="D163" s="19">
         <v>10</v>
       </c>
-      <c r="E159" s="21" t="s">
+      <c r="E163" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F159" s="22" t="s">
+      <c r="F163" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G159" s="29" t="s">
+      <c r="G163" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H159" s="23" t="s">
+      <c r="H163" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I159" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J159" s="25"/>
-      <c r="K159" s="29"/>
-      <c r="L159" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M159" s="27"/>
-    </row>
-    <row r="160" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="14"/>
-      <c r="B160" s="18">
+      <c r="I163" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J163" s="24"/>
+      <c r="K163" s="28"/>
+      <c r="L163" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M163" s="26"/>
+    </row>
+    <row r="164" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="13"/>
+      <c r="B164" s="17">
         <v>78732</v>
       </c>
-      <c r="C160" s="19">
+      <c r="C164" s="18">
         <v>44503</v>
       </c>
-      <c r="D160" s="20" t="s">
+      <c r="D164" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E160" s="21" t="s">
+      <c r="E164" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F160" s="22" t="s">
+      <c r="F164" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G160" s="29" t="s">
+      <c r="G164" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H160" s="23" t="s">
+      <c r="H164" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I160" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J160" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K160" s="29"/>
-      <c r="L160" s="26"/>
-      <c r="M160" s="27" t="s">
+      <c r="I164" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J164" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K164" s="28"/>
+      <c r="L164" s="25"/>
+      <c r="M164" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="14"/>
-      <c r="B161" s="18">
+    <row r="165" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="13"/>
+      <c r="B165" s="17">
         <v>78731</v>
       </c>
-      <c r="C161" s="19">
+      <c r="C165" s="18">
         <v>44503</v>
       </c>
-      <c r="D161" s="20" t="s">
+      <c r="D165" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E161" s="21" t="s">
+      <c r="E165" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F161" s="22" t="s">
+      <c r="F165" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G161" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H161" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I161" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J161" s="25"/>
-      <c r="K161" s="29"/>
-      <c r="L161" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M161" s="27"/>
-    </row>
-    <row r="162" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="14"/>
-      <c r="B162" s="18">
+      <c r="G165" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H165" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I165" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J165" s="24"/>
+      <c r="K165" s="28"/>
+      <c r="L165" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M165" s="26"/>
+    </row>
+    <row r="166" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="13"/>
+      <c r="B166" s="17">
         <v>78730</v>
       </c>
-      <c r="C162" s="19">
+      <c r="C166" s="18">
         <v>44503</v>
       </c>
-      <c r="D162" s="20" t="s">
+      <c r="D166" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E162" s="21" t="s">
+      <c r="E166" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F162" s="22" t="s">
+      <c r="F166" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G162" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H162" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I162" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J162" s="25"/>
-      <c r="K162" s="29"/>
-      <c r="L162" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M162" s="27"/>
-    </row>
-    <row r="163" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="14"/>
-      <c r="B163" s="18">
+      <c r="G166" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H166" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I166" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J166" s="24"/>
+      <c r="K166" s="28"/>
+      <c r="L166" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M166" s="26"/>
+    </row>
+    <row r="167" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="13"/>
+      <c r="B167" s="17">
         <v>78729</v>
       </c>
-      <c r="C163" s="19">
+      <c r="C167" s="18">
         <v>44503</v>
       </c>
-      <c r="D163" s="20" t="s">
+      <c r="D167" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E163" s="21" t="s">
+      <c r="E167" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F163" s="22" t="s">
+      <c r="F167" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G163" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H163" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I163" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J163" s="25"/>
-      <c r="K163" s="29"/>
-      <c r="L163" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M163" s="27"/>
-    </row>
-    <row r="164" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="14"/>
-      <c r="B164" s="18">
+      <c r="G167" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H167" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I167" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J167" s="24"/>
+      <c r="K167" s="28"/>
+      <c r="L167" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M167" s="26"/>
+    </row>
+    <row r="168" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="13"/>
+      <c r="B168" s="17">
         <v>78728</v>
       </c>
-      <c r="C164" s="19">
+      <c r="C168" s="18">
         <v>44503</v>
       </c>
-      <c r="D164" s="20">
+      <c r="D168" s="19">
         <v>30</v>
       </c>
-      <c r="E164" s="21" t="s">
+      <c r="E168" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F164" s="22" t="s">
+      <c r="F168" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G164" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H164" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I164" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J164" s="25"/>
-      <c r="K164" s="29"/>
-      <c r="L164" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M164" s="27"/>
-    </row>
-    <row r="165" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="14"/>
-      <c r="B165" s="18">
+      <c r="G168" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H168" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I168" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J168" s="24"/>
+      <c r="K168" s="28"/>
+      <c r="L168" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M168" s="26"/>
+    </row>
+    <row r="169" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="13"/>
+      <c r="B169" s="17">
         <v>78727</v>
       </c>
-      <c r="C165" s="19">
+      <c r="C169" s="18">
         <v>44503</v>
       </c>
-      <c r="D165" s="20">
+      <c r="D169" s="19">
         <v>50</v>
       </c>
-      <c r="E165" s="21" t="s">
+      <c r="E169" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F165" s="22" t="s">
+      <c r="F169" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G165" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H165" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I165" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J165" s="25"/>
-      <c r="K165" s="29"/>
-      <c r="L165" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M165" s="27"/>
-    </row>
-    <row r="166" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="14"/>
-      <c r="B166" s="18">
+      <c r="G169" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H169" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I169" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J169" s="24"/>
+      <c r="K169" s="28"/>
+      <c r="L169" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M169" s="26"/>
+    </row>
+    <row r="170" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="13"/>
+      <c r="B170" s="17">
         <v>78726</v>
       </c>
-      <c r="C166" s="19">
+      <c r="C170" s="18">
         <v>44503</v>
       </c>
-      <c r="D166" s="20">
+      <c r="D170" s="19">
         <v>10</v>
       </c>
-      <c r="E166" s="21" t="s">
+      <c r="E170" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F166" s="22" t="s">
+      <c r="F170" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G166" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H166" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I166" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J166" s="25"/>
-      <c r="K166" s="29"/>
-      <c r="L166" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M166" s="27"/>
-    </row>
-    <row r="167" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="14"/>
-      <c r="B167" s="18">
+      <c r="G170" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H170" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I170" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J170" s="24"/>
+      <c r="K170" s="28"/>
+      <c r="L170" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M170" s="26"/>
+    </row>
+    <row r="171" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="13"/>
+      <c r="B171" s="17">
         <v>78725</v>
       </c>
-      <c r="C167" s="19">
+      <c r="C171" s="18">
         <v>44503</v>
       </c>
-      <c r="D167" s="20">
+      <c r="D171" s="19">
         <v>10</v>
       </c>
-      <c r="E167" s="21" t="s">
+      <c r="E171" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F167" s="22" t="s">
+      <c r="F171" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G167" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H167" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I167" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J167" s="25"/>
-      <c r="K167" s="29"/>
-      <c r="L167" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M167" s="27"/>
-    </row>
-    <row r="168" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="14"/>
-      <c r="B168" s="18">
+      <c r="G171" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H171" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I171" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J171" s="24"/>
+      <c r="K171" s="28"/>
+      <c r="L171" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M171" s="26"/>
+    </row>
+    <row r="172" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="13"/>
+      <c r="B172" s="17">
         <v>78724</v>
       </c>
-      <c r="C168" s="19">
+      <c r="C172" s="18">
         <v>44503</v>
       </c>
-      <c r="D168" s="20">
+      <c r="D172" s="19">
         <v>50</v>
       </c>
-      <c r="E168" s="21" t="s">
+      <c r="E172" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F168" s="22" t="s">
+      <c r="F172" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G168" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H168" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I168" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J168" s="25"/>
-      <c r="K168" s="29"/>
-      <c r="L168" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M168" s="27"/>
-    </row>
-    <row r="169" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="14"/>
-      <c r="B169" s="18">
+      <c r="G172" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H172" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I172" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J172" s="24"/>
+      <c r="K172" s="28"/>
+      <c r="L172" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M172" s="26"/>
+    </row>
+    <row r="173" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="13"/>
+      <c r="B173" s="17">
         <v>78723</v>
       </c>
-      <c r="C169" s="19">
+      <c r="C173" s="18">
         <v>44503</v>
       </c>
-      <c r="D169" s="20">
+      <c r="D173" s="19">
         <v>30</v>
       </c>
-      <c r="E169" s="21" t="s">
+      <c r="E173" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F169" s="22" t="s">
+      <c r="F173" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G169" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H169" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I169" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J169" s="25"/>
-      <c r="K169" s="29"/>
-      <c r="L169" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M169" s="27"/>
-    </row>
-    <row r="170" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="14"/>
-      <c r="B170" s="18">
+      <c r="G173" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H173" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I173" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J173" s="24"/>
+      <c r="K173" s="28"/>
+      <c r="L173" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M173" s="26"/>
+    </row>
+    <row r="174" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="13"/>
+      <c r="B174" s="17">
         <v>78722</v>
       </c>
-      <c r="C170" s="19">
+      <c r="C174" s="18">
         <v>44503</v>
       </c>
-      <c r="D170" s="20" t="s">
+      <c r="D174" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E170" s="21" t="s">
+      <c r="E174" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F170" s="22" t="s">
+      <c r="F174" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G170" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H170" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I170" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J170" s="25"/>
-      <c r="K170" s="29"/>
-      <c r="L170" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M170" s="27"/>
-    </row>
-    <row r="171" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="14"/>
-      <c r="B171" s="18">
+      <c r="G174" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H174" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I174" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J174" s="24"/>
+      <c r="K174" s="28"/>
+      <c r="L174" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M174" s="26"/>
+    </row>
+    <row r="175" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="13"/>
+      <c r="B175" s="17">
         <v>78721</v>
       </c>
-      <c r="C171" s="19">
+      <c r="C175" s="18">
         <v>44503</v>
       </c>
-      <c r="D171" s="20">
+      <c r="D175" s="19">
         <v>50</v>
       </c>
-      <c r="E171" s="21" t="s">
+      <c r="E175" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F171" s="22" t="s">
+      <c r="F175" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G171" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H171" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I171" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J171" s="25"/>
-      <c r="K171" s="29"/>
-      <c r="L171" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M171" s="27"/>
-    </row>
-    <row r="172" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="14"/>
-      <c r="B172" s="18">
+      <c r="G175" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H175" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I175" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J175" s="24"/>
+      <c r="K175" s="28"/>
+      <c r="L175" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M175" s="26"/>
+    </row>
+    <row r="176" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="13"/>
+      <c r="B176" s="17">
         <v>78720</v>
       </c>
-      <c r="C172" s="19">
+      <c r="C176" s="18">
         <v>44503</v>
       </c>
-      <c r="D172" s="20">
+      <c r="D176" s="19">
         <v>30</v>
       </c>
-      <c r="E172" s="21" t="s">
+      <c r="E176" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F172" s="22" t="s">
+      <c r="F176" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G172" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H172" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I172" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J172" s="25"/>
-      <c r="K172" s="29"/>
-      <c r="L172" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M172" s="27"/>
-    </row>
-    <row r="173" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="14"/>
-      <c r="B173" s="18">
+      <c r="G176" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H176" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I176" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J176" s="24"/>
+      <c r="K176" s="28"/>
+      <c r="L176" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M176" s="26"/>
+    </row>
+    <row r="177" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="13"/>
+      <c r="B177" s="17">
         <v>78719</v>
       </c>
-      <c r="C173" s="19">
+      <c r="C177" s="18">
         <v>44502</v>
       </c>
-      <c r="D173" s="20" t="s">
+      <c r="D177" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E173" s="21" t="s">
+      <c r="E177" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F173" s="22" t="s">
+      <c r="F177" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G173" s="29" t="s">
+      <c r="G177" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H173" s="23" t="s">
+      <c r="H177" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I173" s="24">
+      <c r="I177" s="23">
         <v>44493</v>
       </c>
-      <c r="J173" s="25"/>
-      <c r="K173" s="29"/>
-      <c r="L173" s="26" t="s">
+      <c r="J177" s="24"/>
+      <c r="K177" s="28"/>
+      <c r="L177" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M173" s="27"/>
-    </row>
-    <row r="174" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="14"/>
-      <c r="B174" s="18">
+      <c r="M177" s="26"/>
+    </row>
+    <row r="178" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="13"/>
+      <c r="B178" s="17">
         <v>78718</v>
       </c>
-      <c r="C174" s="19">
+      <c r="C178" s="18">
         <v>44502</v>
       </c>
-      <c r="D174" s="20">
+      <c r="D178" s="19">
         <v>20</v>
       </c>
-      <c r="E174" s="21" t="s">
+      <c r="E178" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F174" s="22" t="s">
+      <c r="F178" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G174" s="29" t="s">
+      <c r="G178" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H174" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I174" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J174" s="25"/>
-      <c r="K174" s="29"/>
-      <c r="L174" s="26" t="s">
+      <c r="H178" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I178" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J178" s="24"/>
+      <c r="K178" s="28"/>
+      <c r="L178" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M174" s="27"/>
-    </row>
-    <row r="175" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="14"/>
-      <c r="B175" s="18">
+      <c r="M178" s="26"/>
+    </row>
+    <row r="179" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="13"/>
+      <c r="B179" s="17">
         <v>78717</v>
       </c>
-      <c r="C175" s="19">
+      <c r="C179" s="18">
         <v>44502</v>
       </c>
-      <c r="D175" s="20">
+      <c r="D179" s="19">
         <v>30</v>
       </c>
-      <c r="E175" s="21" t="s">
+      <c r="E179" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F175" s="22" t="s">
+      <c r="F179" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G175" s="29" t="s">
+      <c r="G179" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H175" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I175" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J175" s="25"/>
-      <c r="K175" s="29"/>
-      <c r="L175" s="26" t="s">
+      <c r="H179" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I179" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J179" s="24"/>
+      <c r="K179" s="28"/>
+      <c r="L179" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M175" s="27"/>
-    </row>
-    <row r="176" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="14"/>
-      <c r="B176" s="18">
+      <c r="M179" s="26"/>
+    </row>
+    <row r="180" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="13"/>
+      <c r="B180" s="17">
         <v>78716</v>
       </c>
-      <c r="C176" s="19">
+      <c r="C180" s="18">
         <v>44502</v>
       </c>
-      <c r="D176" s="20">
+      <c r="D180" s="19">
         <v>30</v>
       </c>
-      <c r="E176" s="21" t="s">
+      <c r="E180" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F176" s="22" t="s">
+      <c r="F180" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G176" s="29" t="s">
+      <c r="G180" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H176" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I176" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J176" s="25"/>
-      <c r="K176" s="29"/>
-      <c r="L176" s="26" t="s">
+      <c r="H180" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I180" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J180" s="24"/>
+      <c r="K180" s="28"/>
+      <c r="L180" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M176" s="27"/>
-    </row>
-    <row r="177" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="14"/>
-      <c r="B177" s="18">
+      <c r="M180" s="26"/>
+    </row>
+    <row r="181" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="13"/>
+      <c r="B181" s="17">
         <v>78715</v>
       </c>
-      <c r="C177" s="19">
+      <c r="C181" s="18">
         <v>44502</v>
       </c>
-      <c r="D177" s="20">
+      <c r="D181" s="19">
         <v>40</v>
       </c>
-      <c r="E177" s="21" t="s">
+      <c r="E181" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F177" s="22" t="s">
+      <c r="F181" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G177" s="29" t="s">
+      <c r="G181" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H177" s="23" t="s">
+      <c r="H181" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I177" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J177" s="25" t="s">
+      <c r="I181" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J181" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="K177" s="29"/>
-      <c r="L177" s="26"/>
-      <c r="M177" s="27" t="s">
+      <c r="K181" s="28"/>
+      <c r="L181" s="25"/>
+      <c r="M181" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="14"/>
-      <c r="B178" s="18">
+    <row r="182" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="13"/>
+      <c r="B182" s="17">
         <v>78714</v>
       </c>
-      <c r="C178" s="19">
+      <c r="C182" s="18">
         <v>44502</v>
       </c>
-      <c r="D178" s="20">
+      <c r="D182" s="19">
         <v>40</v>
       </c>
-      <c r="E178" s="21" t="s">
+      <c r="E182" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F178" s="22" t="s">
+      <c r="F182" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G178" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H178" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I178" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J178" s="25"/>
-      <c r="K178" s="29"/>
-      <c r="L178" s="26" t="s">
+      <c r="G182" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H182" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I182" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J182" s="24"/>
+      <c r="K182" s="28"/>
+      <c r="L182" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M178" s="27"/>
-    </row>
-    <row r="179" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="14"/>
-      <c r="B179" s="18">
+      <c r="M182" s="26"/>
+    </row>
+    <row r="183" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="13"/>
+      <c r="B183" s="17">
         <v>78713</v>
       </c>
-      <c r="C179" s="19">
+      <c r="C183" s="18">
         <v>44502</v>
       </c>
-      <c r="D179" s="20">
+      <c r="D183" s="19">
         <v>70</v>
       </c>
-      <c r="E179" s="21" t="s">
+      <c r="E183" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F179" s="22" t="s">
+      <c r="F183" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G179" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H179" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I179" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J179" s="25"/>
-      <c r="K179" s="29"/>
-      <c r="L179" s="26" t="s">
+      <c r="G183" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H183" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I183" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J183" s="24"/>
+      <c r="K183" s="28"/>
+      <c r="L183" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M179" s="27"/>
-    </row>
-    <row r="180" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="14"/>
-      <c r="B180" s="18">
+      <c r="M183" s="26"/>
+    </row>
+    <row r="184" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="13"/>
+      <c r="B184" s="17">
         <v>78712</v>
       </c>
-      <c r="C180" s="19">
+      <c r="C184" s="18">
         <v>44502</v>
       </c>
-      <c r="D180" s="20">
+      <c r="D184" s="19">
         <v>20</v>
       </c>
-      <c r="E180" s="21" t="s">
+      <c r="E184" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F180" s="22" t="s">
+      <c r="F184" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G180" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H180" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I180" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J180" s="25"/>
-      <c r="K180" s="29"/>
-      <c r="L180" s="26" t="s">
+      <c r="G184" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H184" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I184" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J184" s="24"/>
+      <c r="K184" s="28"/>
+      <c r="L184" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M180" s="27"/>
-    </row>
-    <row r="181" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="14"/>
-      <c r="B181" s="18">
+      <c r="M184" s="26"/>
+    </row>
+    <row r="185" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="13"/>
+      <c r="B185" s="17">
         <v>78711</v>
       </c>
-      <c r="C181" s="19">
+      <c r="C185" s="18">
         <v>44502</v>
       </c>
-      <c r="D181" s="20">
+      <c r="D185" s="19">
         <v>30</v>
       </c>
-      <c r="E181" s="21" t="s">
+      <c r="E185" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F181" s="22" t="s">
+      <c r="F185" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G181" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H181" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I181" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J181" s="25"/>
-      <c r="K181" s="29"/>
-      <c r="L181" s="26" t="s">
+      <c r="G185" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H185" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I185" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J185" s="24"/>
+      <c r="K185" s="28"/>
+      <c r="L185" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M181" s="27"/>
-    </row>
-    <row r="182" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="14"/>
-      <c r="B182" s="18">
+      <c r="M185" s="26"/>
+    </row>
+    <row r="186" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="13"/>
+      <c r="B186" s="17">
         <v>78710</v>
       </c>
-      <c r="C182" s="19">
+      <c r="C186" s="18">
         <v>44502</v>
       </c>
-      <c r="D182" s="20">
+      <c r="D186" s="19">
         <v>70</v>
       </c>
-      <c r="E182" s="21" t="s">
+      <c r="E186" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F182" s="22" t="s">
+      <c r="F186" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G182" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H182" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I182" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J182" s="25"/>
-      <c r="K182" s="29"/>
-      <c r="L182" s="26" t="s">
+      <c r="G186" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H186" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I186" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J186" s="24"/>
+      <c r="K186" s="28"/>
+      <c r="L186" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M182" s="27"/>
-    </row>
-    <row r="183" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="14"/>
-      <c r="B183" s="18">
+      <c r="M186" s="26"/>
+    </row>
+    <row r="187" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="13"/>
+      <c r="B187" s="17">
         <v>78709</v>
       </c>
-      <c r="C183" s="19">
+      <c r="C187" s="18">
         <v>44502</v>
       </c>
-      <c r="D183" s="20">
+      <c r="D187" s="19">
         <v>10</v>
       </c>
-      <c r="E183" s="21" t="s">
+      <c r="E187" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F183" s="22" t="s">
+      <c r="F187" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G183" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H183" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I183" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J183" s="25"/>
-      <c r="K183" s="29"/>
-      <c r="L183" s="26" t="s">
+      <c r="G187" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H187" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I187" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J187" s="24"/>
+      <c r="K187" s="28"/>
+      <c r="L187" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M183" s="27"/>
-    </row>
-    <row r="184" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="14"/>
-      <c r="B184" s="18">
+      <c r="M187" s="26"/>
+    </row>
+    <row r="188" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="13"/>
+      <c r="B188" s="17">
         <v>78708</v>
       </c>
-      <c r="C184" s="19">
+      <c r="C188" s="18">
         <v>44501</v>
       </c>
-      <c r="D184" s="20">
+      <c r="D188" s="19">
         <v>30</v>
       </c>
-      <c r="E184" s="21" t="s">
+      <c r="E188" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F184" s="22" t="s">
+      <c r="F188" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G184" s="29" t="s">
+      <c r="G188" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="H184" s="23" t="s">
+      <c r="H188" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I184" s="24" t="s">
+      <c r="I188" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="J184" s="25"/>
-      <c r="K184" s="29"/>
-      <c r="L184" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M184" s="27"/>
-    </row>
-    <row r="185" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="14"/>
-      <c r="B185" s="18">
+      <c r="J188" s="24"/>
+      <c r="K188" s="28"/>
+      <c r="L188" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M188" s="26"/>
+    </row>
+    <row r="189" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="13"/>
+      <c r="B189" s="17">
         <v>78707</v>
       </c>
-      <c r="C185" s="19">
+      <c r="C189" s="18">
         <v>44501</v>
       </c>
-      <c r="D185" s="20">
+      <c r="D189" s="19">
         <v>80</v>
       </c>
-      <c r="E185" s="21" t="s">
+      <c r="E189" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F185" s="22" t="s">
+      <c r="F189" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G185" s="29" t="s">
+      <c r="G189" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="H185" s="23" t="s">
+      <c r="H189" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I185" s="24" t="s">
+      <c r="I189" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="J185" s="25"/>
-      <c r="K185" s="29"/>
-      <c r="L185" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M185" s="27"/>
+      <c r="J189" s="24"/>
+      <c r="K189" s="28"/>
+      <c r="L189" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M189" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/corona-kanjajokyou.xlsx
+++ b/corona-kanjajokyou.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Lb16z0190\広報戦略\11Twitter対応について\98 コロナ(毎日の発生状況)\HP作業用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m021161\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A76956C5-3304-40A5-BDBC-070E475143A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61B5E341-BB4A-4EDB-89A9-8D34BEB71148}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$192</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$197</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="163">
   <si>
     <t>非公表</t>
   </si>
@@ -90,6 +90,9 @@
     <t>伊丹</t>
   </si>
   <si>
+    <t>伊丹健康福祉事務所管内</t>
+  </si>
+  <si>
     <t>伊丹市</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
   </si>
   <si>
     <t>丹波健康福祉事務所管内</t>
+  </si>
+  <si>
+    <t>神戸市</t>
   </si>
   <si>
     <t>児童</t>
@@ -945,7 +951,21 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>令和2年3月1日以降の総数 78,639件 ※欠番254件（医療機関での発生届の取り下げ等）</t>
+    <t>90歳以上</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>令和2年3月1日以降の総数 78,644件 ※欠番254件（医療機関での発生届の取り下げ等）</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1353,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1511,12 +1531,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2337,7 +2351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2427,39 +2441,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3015,13 +2996,13 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N192"/>
+  <dimension ref="A1:N197"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3044,7 +3025,7 @@
     <row r="1" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3053,13 +3034,13 @@
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="43">
+      <c r="J1" s="32">
         <f ca="1">TODAY()-1</f>
-        <v>44518</v>
-      </c>
-      <c r="K1" s="43"/>
+        <v>44519</v>
+      </c>
+      <c r="K1" s="32"/>
       <c r="L1" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="3"/>
@@ -3094,1034 +3075,1042 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="48" t="s">
+      <c r="B4" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="C4" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="D4" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="E4" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="F4" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="G4" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="H4" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="41" t="s">
+      <c r="I4" s="41" t="s">
         <v>47</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="53"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="42"/>
       <c r="J5" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="42"/>
+        <v>52</v>
+      </c>
+      <c r="M5" s="31"/>
     </row>
     <row r="6" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="30">
-        <v>78893</v>
-      </c>
-      <c r="C6" s="31">
-        <v>44518</v>
-      </c>
-      <c r="D6" s="32">
-        <v>70</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="I6" s="37">
-        <v>44516</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="40" t="s">
-        <v>155</v>
-      </c>
+      <c r="B6" s="18">
+        <v>78898</v>
+      </c>
+      <c r="C6" s="19">
+        <v>44519</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="24">
+        <v>44509</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="30">
-        <v>78892</v>
-      </c>
-      <c r="C7" s="31">
-        <v>44518</v>
-      </c>
-      <c r="D7" s="32">
-        <v>20</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="40" t="s">
-        <v>156</v>
-      </c>
+      <c r="B7" s="18">
+        <v>78897</v>
+      </c>
+      <c r="C7" s="19">
+        <v>44519</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
-      <c r="B8" s="30">
-        <v>78891</v>
-      </c>
-      <c r="C8" s="31">
-        <v>44518</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="M8" s="40"/>
+      <c r="B8" s="18">
+        <v>78896</v>
+      </c>
+      <c r="C8" s="19">
+        <v>44519</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="24">
+        <v>44500</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="18">
-        <v>78890</v>
+        <v>78895</v>
       </c>
       <c r="C9" s="19">
-        <v>44517</v>
+        <v>44519</v>
       </c>
       <c r="D9" s="20">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="24">
-        <v>44513</v>
+        <v>77</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J9" s="25"/>
       <c r="K9" s="29"/>
       <c r="L9" s="26" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="18">
-        <v>78889</v>
+        <v>78894</v>
       </c>
       <c r="C10" s="19">
-        <v>44517</v>
-      </c>
-      <c r="D10" s="20">
-        <v>70</v>
+        <v>44519</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>160</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J10" s="25"/>
       <c r="K10" s="29"/>
       <c r="L10" s="26" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="18">
-        <v>78888</v>
+        <v>78893</v>
       </c>
       <c r="C11" s="19">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="D11" s="20">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="25"/>
+        <v>156</v>
+      </c>
+      <c r="I11" s="24">
+        <v>44516</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>159</v>
+      </c>
       <c r="K11" s="29"/>
-      <c r="L11" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M11" s="27"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="18">
-        <v>78887</v>
+        <v>78892</v>
       </c>
       <c r="C12" s="19">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="D12" s="20">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="25"/>
+        <v>77</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>159</v>
+      </c>
       <c r="K12" s="29"/>
-      <c r="L12" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" s="27"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="27" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="18">
-        <v>78886</v>
+        <v>78891</v>
       </c>
       <c r="C13" s="19">
-        <v>44517</v>
-      </c>
-      <c r="D13" s="20">
-        <v>30</v>
+        <v>44518</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J13" s="25"/>
       <c r="K13" s="29"/>
       <c r="L13" s="26" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="M13" s="27"/>
     </row>
     <row r="14" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="18">
-        <v>78885</v>
+        <v>78890</v>
       </c>
       <c r="C14" s="19">
-        <v>44516</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>14</v>
+        <v>44517</v>
+      </c>
+      <c r="D14" s="20">
+        <v>70</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="I14" s="24">
-        <v>44514</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>44513</v>
+      </c>
+      <c r="J14" s="25"/>
       <c r="K14" s="29"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L14" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="18">
-        <v>78884</v>
+        <v>78889</v>
       </c>
       <c r="C15" s="19">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="D15" s="20">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="J15" s="25"/>
       <c r="K15" s="29"/>
       <c r="L15" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="18">
-        <v>78883</v>
+        <v>78888</v>
       </c>
       <c r="C16" s="19">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="D16" s="20">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J16" s="25"/>
       <c r="K16" s="29"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="27" t="s">
-        <v>152</v>
-      </c>
+      <c r="L16" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="18">
-        <v>78882</v>
+        <v>78887</v>
       </c>
       <c r="C17" s="19">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="D17" s="20">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="J17" s="25"/>
       <c r="K17" s="29"/>
       <c r="L17" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M17" s="27"/>
     </row>
     <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="18">
-        <v>78881</v>
+        <v>78886</v>
       </c>
       <c r="C18" s="19">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="D18" s="20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J18" s="25"/>
       <c r="K18" s="29"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L18" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="18">
-        <v>78880</v>
+        <v>78885</v>
       </c>
       <c r="C19" s="19">
         <v>44516</v>
       </c>
-      <c r="D19" s="20">
-        <v>10</v>
+      <c r="D19" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>147</v>
+        <v>1</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>149</v>
+        <v>0</v>
+      </c>
+      <c r="I19" s="24">
+        <v>44514</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K19" s="29"/>
       <c r="L19" s="26"/>
       <c r="M19" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="18">
-        <v>78879</v>
+        <v>78884</v>
       </c>
       <c r="C20" s="19">
         <v>44516</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>14</v>
+      <c r="D20" s="20">
+        <v>20</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J20" s="25"/>
       <c r="K20" s="29"/>
       <c r="L20" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="18">
-        <v>78878</v>
+        <v>78883</v>
       </c>
       <c r="C21" s="19">
         <v>44516</v>
       </c>
       <c r="D21" s="20">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="J21" s="25"/>
+        <v>151</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K21" s="29"/>
-      <c r="L21" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M21" s="27"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="27" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="18">
-        <v>78877</v>
+        <v>78882</v>
       </c>
       <c r="C22" s="19">
         <v>44516</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>14</v>
+      <c r="D22" s="20">
+        <v>70</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J22" s="25"/>
       <c r="K22" s="29"/>
       <c r="L22" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M22" s="27"/>
     </row>
     <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="18">
-        <v>78876</v>
+        <v>78881</v>
       </c>
       <c r="C23" s="19">
         <v>44516</v>
       </c>
       <c r="D23" s="20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="J23" s="25"/>
+        <v>151</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K23" s="29"/>
-      <c r="L23" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M23" s="27"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="18">
-        <v>78875</v>
+        <v>78880</v>
       </c>
       <c r="C24" s="19">
         <v>44516</v>
       </c>
       <c r="D24" s="20">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="J24" s="25"/>
+        <v>151</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K24" s="29"/>
-      <c r="L24" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M24" s="27"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="18">
-        <v>78874</v>
+        <v>78879</v>
       </c>
       <c r="C25" s="19">
         <v>44516</v>
       </c>
-      <c r="D25" s="20">
-        <v>60</v>
+      <c r="D25" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J25" s="25"/>
       <c r="K25" s="29"/>
       <c r="L25" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M25" s="27"/>
     </row>
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="18">
-        <v>78873</v>
+        <v>78878</v>
       </c>
       <c r="C26" s="19">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="D26" s="20">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>142</v>
+        <v>151</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="J26" s="25"/>
       <c r="K26" s="29"/>
       <c r="L26" s="26" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="M26" s="27"/>
     </row>
     <row r="27" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="18">
-        <v>78872</v>
+        <v>78877</v>
       </c>
       <c r="C27" s="19">
-        <v>44515</v>
-      </c>
-      <c r="D27" s="20">
-        <v>20</v>
+        <v>44516</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>142</v>
+        <v>151</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="J27" s="25"/>
       <c r="K27" s="29"/>
       <c r="L27" s="26" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="18">
-        <v>78871</v>
+        <v>78876</v>
       </c>
       <c r="C28" s="19">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="D28" s="20">
         <v>50</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>142</v>
+        <v>151</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="J28" s="25"/>
       <c r="K28" s="29"/>
       <c r="L28" s="26" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="M28" s="27"/>
     </row>
     <row r="29" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="18">
-        <v>78870</v>
+        <v>78875</v>
       </c>
       <c r="C29" s="19">
-        <v>44514</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>14</v>
+        <v>44516</v>
+      </c>
+      <c r="D29" s="20">
+        <v>30</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="24">
-        <v>44512</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="J29" s="25"/>
       <c r="K29" s="29"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L29" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M29" s="27"/>
     </row>
     <row r="30" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
       <c r="B30" s="18">
-        <v>78869</v>
+        <v>78874</v>
       </c>
       <c r="C30" s="19">
-        <v>44514</v>
+        <v>44516</v>
       </c>
       <c r="D30" s="20">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="F30" s="22" t="s">
         <v>72</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="J30" s="25"/>
       <c r="K30" s="29"/>
       <c r="L30" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M30" s="27"/>
     </row>
     <row r="31" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
       <c r="B31" s="18">
-        <v>78868</v>
+        <v>78873</v>
       </c>
       <c r="C31" s="19">
-        <v>44514</v>
+        <v>44515</v>
       </c>
       <c r="D31" s="20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J31" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" s="25"/>
       <c r="K31" s="29"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="27" t="s">
-        <v>134</v>
-      </c>
+      <c r="L31" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="M31" s="27"/>
     </row>
     <row r="32" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="18">
-        <v>78867</v>
+        <v>78872</v>
       </c>
       <c r="C32" s="19">
-        <v>44514</v>
+        <v>44515</v>
       </c>
       <c r="D32" s="20">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J32" s="25"/>
       <c r="K32" s="29"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="27" t="s">
-        <v>134</v>
-      </c>
+      <c r="L32" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="M32" s="27"/>
     </row>
     <row r="33" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="18">
-        <v>78866</v>
+        <v>78871</v>
       </c>
       <c r="C33" s="19">
-        <v>44514</v>
+        <v>44515</v>
       </c>
       <c r="D33" s="20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J33" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J33" s="25"/>
       <c r="K33" s="29"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="27" t="s">
-        <v>134</v>
-      </c>
+      <c r="L33" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="M33" s="27"/>
     </row>
     <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="18">
-        <v>78865</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="25"/>
+        <v>78870</v>
+      </c>
+      <c r="C34" s="19">
+        <v>44514</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="24">
+        <v>44512</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K34" s="29"/>
       <c r="L34" s="26"/>
-      <c r="M34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="18">
-        <v>78864</v>
+        <v>78869</v>
       </c>
       <c r="C35" s="19">
         <v>44514</v>
@@ -4130,309 +4119,291 @@
         <v>30</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="H35" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I35" s="29" t="s">
-        <v>75</v>
+      <c r="H35" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J35" s="25"/>
       <c r="K35" s="29"/>
       <c r="L35" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M35" s="27"/>
     </row>
     <row r="36" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
       <c r="B36" s="18">
-        <v>78863</v>
+        <v>78868</v>
       </c>
       <c r="C36" s="19">
-        <v>44513</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>57</v>
+        <v>44514</v>
+      </c>
+      <c r="D36" s="20">
+        <v>20</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="24">
-        <v>44511</v>
+        <v>13</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="K36" s="29"/>
       <c r="L36" s="26"/>
       <c r="M36" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="14"/>
       <c r="B37" s="18">
-        <v>78862</v>
+        <v>78867</v>
       </c>
       <c r="C37" s="19">
-        <v>44513</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>52</v>
+        <v>44514</v>
+      </c>
+      <c r="D37" s="20">
+        <v>40</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="24">
-        <v>44508</v>
-      </c>
-      <c r="J37" s="25"/>
+        <v>65</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K37" s="29"/>
-      <c r="L37" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="M37" s="27"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="27" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="14"/>
       <c r="B38" s="18">
-        <v>78861</v>
+        <v>78866</v>
       </c>
       <c r="C38" s="19">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="D38" s="20">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="K38" s="29"/>
       <c r="L38" s="26"/>
       <c r="M38" s="27" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="14"/>
       <c r="B39" s="18">
-        <v>78860</v>
-      </c>
-      <c r="C39" s="19">
-        <v>44513</v>
-      </c>
-      <c r="D39" s="20">
-        <v>30</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="I39" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="J39" s="25" t="s">
-        <v>135</v>
-      </c>
+        <v>78865</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="25"/>
       <c r="K39" s="29"/>
       <c r="L39" s="26"/>
-      <c r="M39" s="27" t="s">
-        <v>133</v>
-      </c>
+      <c r="M39" s="27"/>
     </row>
     <row r="40" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
       <c r="B40" s="18">
-        <v>78859</v>
+        <v>78864</v>
       </c>
       <c r="C40" s="19">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="D40" s="20">
         <v>30</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="H40" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="I40" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>135</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40" s="25"/>
       <c r="K40" s="29"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="27" t="s">
-        <v>133</v>
-      </c>
+      <c r="L40" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M40" s="27"/>
     </row>
     <row r="41" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="14"/>
       <c r="B41" s="18">
-        <v>78858</v>
+        <v>78863</v>
       </c>
       <c r="C41" s="19">
         <v>44513</v>
       </c>
-      <c r="D41" s="20">
-        <v>30</v>
+      <c r="D41" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="I41" s="24" t="s">
-        <v>131</v>
+        <v>0</v>
+      </c>
+      <c r="I41" s="24">
+        <v>44511</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K41" s="29"/>
       <c r="L41" s="26"/>
       <c r="M41" s="27" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="14"/>
       <c r="B42" s="18">
-        <v>78857</v>
+        <v>78862</v>
       </c>
       <c r="C42" s="19">
         <v>44513</v>
       </c>
-      <c r="D42" s="20">
-        <v>20</v>
+      <c r="D42" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="I42" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="J42" s="25" t="s">
-        <v>135</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I42" s="24">
+        <v>44508</v>
+      </c>
+      <c r="J42" s="25"/>
       <c r="K42" s="29"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="27" t="s">
-        <v>133</v>
-      </c>
+      <c r="L42" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="M42" s="27"/>
     </row>
     <row r="43" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="14"/>
       <c r="B43" s="18">
-        <v>78856</v>
+        <v>78861</v>
       </c>
       <c r="C43" s="19">
         <v>44513</v>
       </c>
       <c r="D43" s="20">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K43" s="29"/>
       <c r="L43" s="26"/>
       <c r="M43" s="27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="14"/>
       <c r="B44" s="18">
-        <v>78855</v>
+        <v>78860</v>
       </c>
       <c r="C44" s="19">
         <v>44513</v>
@@ -4441,33 +4412,33 @@
         <v>30</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K44" s="29"/>
       <c r="L44" s="26"/>
       <c r="M44" s="27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="14"/>
       <c r="B45" s="18">
-        <v>78854</v>
+        <v>78859</v>
       </c>
       <c r="C45" s="19">
         <v>44513</v>
@@ -4476,103 +4447,103 @@
         <v>30</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K45" s="29"/>
       <c r="L45" s="26"/>
       <c r="M45" s="27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="14"/>
       <c r="B46" s="18">
-        <v>78853</v>
+        <v>78858</v>
       </c>
       <c r="C46" s="19">
         <v>44513</v>
       </c>
       <c r="D46" s="20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K46" s="29"/>
       <c r="L46" s="26"/>
       <c r="M46" s="27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="14"/>
       <c r="B47" s="18">
-        <v>78852</v>
+        <v>78857</v>
       </c>
       <c r="C47" s="19">
         <v>44513</v>
       </c>
       <c r="D47" s="20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K47" s="29"/>
       <c r="L47" s="26"/>
       <c r="M47" s="27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
       <c r="B48" s="18">
-        <v>78851</v>
+        <v>78856</v>
       </c>
       <c r="C48" s="19">
         <v>44513</v>
@@ -4581,92 +4552,112 @@
         <v>20</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="J48" s="25"/>
+        <v>133</v>
+      </c>
+      <c r="J48" s="25" t="s">
+        <v>137</v>
+      </c>
       <c r="K48" s="29"/>
-      <c r="L48" s="26" t="s">
+      <c r="L48" s="26"/>
+      <c r="M48" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="M48" s="27"/>
     </row>
     <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="14"/>
       <c r="B49" s="18">
-        <v>78850</v>
+        <v>78855</v>
       </c>
       <c r="C49" s="19">
         <v>44513</v>
       </c>
       <c r="D49" s="20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="J49" s="25"/>
+        <v>133</v>
+      </c>
+      <c r="J49" s="25" t="s">
+        <v>137</v>
+      </c>
       <c r="K49" s="29"/>
-      <c r="L49" s="26" t="s">
+      <c r="L49" s="26"/>
+      <c r="M49" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="M49" s="27"/>
     </row>
     <row r="50" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="14"/>
       <c r="B50" s="18">
-        <v>78849</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="25"/>
+        <v>78854</v>
+      </c>
+      <c r="C50" s="19">
+        <v>44513</v>
+      </c>
+      <c r="D50" s="20">
+        <v>30</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="J50" s="25" t="s">
+        <v>137</v>
+      </c>
       <c r="K50" s="29"/>
       <c r="L50" s="26"/>
-      <c r="M50" s="27"/>
+      <c r="M50" s="27" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="51" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="14"/>
       <c r="B51" s="18">
-        <v>78848</v>
+        <v>78853</v>
       </c>
       <c r="C51" s="19">
         <v>44513</v>
       </c>
       <c r="D51" s="20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F51" s="22" t="s">
         <v>130</v>
@@ -4675,298 +4666,282 @@
         <v>131</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="J51" s="25"/>
+        <v>133</v>
+      </c>
+      <c r="J51" s="25" t="s">
+        <v>137</v>
+      </c>
       <c r="K51" s="29"/>
-      <c r="L51" s="26" t="s">
+      <c r="L51" s="26"/>
+      <c r="M51" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="M51" s="27"/>
     </row>
     <row r="52" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="14"/>
       <c r="B52" s="18">
-        <v>78847</v>
+        <v>78852</v>
       </c>
       <c r="C52" s="19">
-        <v>44512</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>51</v>
+        <v>44513</v>
+      </c>
+      <c r="D52" s="20">
+        <v>30</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="J52" s="25" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K52" s="29"/>
       <c r="L52" s="26"/>
       <c r="M52" s="27" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="14"/>
       <c r="B53" s="18">
-        <v>78846</v>
+        <v>78851</v>
       </c>
       <c r="C53" s="19">
-        <v>44512</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>52</v>
+        <v>44513</v>
+      </c>
+      <c r="D53" s="20">
+        <v>20</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" s="24">
-        <v>44509</v>
+        <v>134</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="J53" s="25"/>
       <c r="K53" s="29"/>
       <c r="L53" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="M53" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M53" s="27"/>
     </row>
     <row r="54" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="14"/>
       <c r="B54" s="18">
-        <v>78845</v>
+        <v>78850</v>
       </c>
       <c r="C54" s="19">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="D54" s="20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="J54" s="25" t="s">
-        <v>124</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="J54" s="25"/>
       <c r="K54" s="29"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="27" t="s">
-        <v>120</v>
-      </c>
+      <c r="L54" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="M54" s="27"/>
     </row>
     <row r="55" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="14"/>
       <c r="B55" s="18">
-        <v>78844</v>
-      </c>
-      <c r="C55" s="19">
-        <v>44512</v>
-      </c>
-      <c r="D55" s="20">
-        <v>20</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="G55" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I55" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="J55" s="25" t="s">
-        <v>124</v>
-      </c>
+        <v>78849</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="20"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="25"/>
       <c r="K55" s="29"/>
       <c r="L55" s="26"/>
-      <c r="M55" s="27" t="s">
-        <v>121</v>
-      </c>
+      <c r="M55" s="27"/>
     </row>
     <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="14"/>
       <c r="B56" s="18">
-        <v>78843</v>
+        <v>78848</v>
       </c>
       <c r="C56" s="19">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="D56" s="20">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="J56" s="25"/>
       <c r="K56" s="29"/>
       <c r="L56" s="26" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="M56" s="27"/>
     </row>
     <row r="57" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="14"/>
       <c r="B57" s="18">
-        <v>78842</v>
+        <v>78847</v>
       </c>
       <c r="C57" s="19">
         <v>44512</v>
       </c>
-      <c r="D57" s="20">
-        <v>60</v>
+      <c r="D57" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="J57" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="J57" s="25" t="s">
+        <v>126</v>
+      </c>
       <c r="K57" s="29"/>
-      <c r="L57" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="M57" s="27"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="58" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="14"/>
       <c r="B58" s="18">
-        <v>78841</v>
+        <v>78846</v>
       </c>
       <c r="C58" s="19">
         <v>44512</v>
       </c>
-      <c r="D58" s="20">
-        <v>30</v>
+      <c r="D58" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="I58" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="J58" s="25" t="s">
-        <v>124</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I58" s="24">
+        <v>44509</v>
+      </c>
+      <c r="J58" s="25"/>
       <c r="K58" s="29"/>
-      <c r="L58" s="26"/>
+      <c r="L58" s="26" t="s">
+        <v>126</v>
+      </c>
       <c r="M58" s="27" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="14"/>
       <c r="B59" s="18">
-        <v>78840</v>
+        <v>78845</v>
       </c>
       <c r="C59" s="19">
         <v>44512</v>
       </c>
       <c r="D59" s="20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="F59" s="22" t="s">
         <v>117</v>
       </c>
       <c r="G59" s="29" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="I59" s="24" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="J59" s="25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K59" s="29"/>
       <c r="L59" s="26"/>
       <c r="M59" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="14"/>
       <c r="B60" s="18">
-        <v>78839</v>
+        <v>78844</v>
       </c>
       <c r="C60" s="19">
         <v>44512</v>
@@ -4975,22 +4950,22 @@
         <v>20</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="F60" s="22" t="s">
         <v>117</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="J60" s="25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K60" s="29"/>
       <c r="L60" s="26"/>
@@ -5001,1636 +4976,1632 @@
     <row r="61" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="14"/>
       <c r="B61" s="18">
-        <v>78838</v>
+        <v>78843</v>
       </c>
       <c r="C61" s="19">
         <v>44512</v>
       </c>
       <c r="D61" s="20">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="I61" s="24" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="J61" s="25"/>
       <c r="K61" s="29"/>
       <c r="L61" s="26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M61" s="27"/>
     </row>
     <row r="62" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="14"/>
       <c r="B62" s="18">
-        <v>78837</v>
+        <v>78842</v>
       </c>
       <c r="C62" s="19">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="D62" s="20">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="I62" s="24" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="J62" s="25"/>
       <c r="K62" s="29"/>
       <c r="L62" s="26" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="M62" s="27"/>
     </row>
     <row r="63" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="14"/>
       <c r="B63" s="18">
-        <v>78836</v>
-      </c>
-      <c r="C63" s="19" t="s">
+        <v>78841</v>
+      </c>
+      <c r="C63" s="19">
+        <v>44512</v>
+      </c>
+      <c r="D63" s="20">
+        <v>30</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G63" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="J63" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="25"/>
       <c r="K63" s="29"/>
       <c r="L63" s="26"/>
-      <c r="M63" s="27"/>
+      <c r="M63" s="27" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="64" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="14"/>
       <c r="B64" s="18">
-        <v>78835</v>
+        <v>78840</v>
       </c>
       <c r="C64" s="19">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="D64" s="20">
         <v>20</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G64" s="29" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="I64" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="J64" s="25"/>
+        <v>121</v>
+      </c>
+      <c r="J64" s="25" t="s">
+        <v>126</v>
+      </c>
       <c r="K64" s="29"/>
-      <c r="L64" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M64" s="27"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="27" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="14"/>
       <c r="B65" s="18">
-        <v>78834</v>
+        <v>78839</v>
       </c>
       <c r="C65" s="19">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="D65" s="20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="J65" s="25"/>
+        <v>121</v>
+      </c>
+      <c r="J65" s="25" t="s">
+        <v>126</v>
+      </c>
       <c r="K65" s="29"/>
-      <c r="L65" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M65" s="27"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="27" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="66" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="14"/>
       <c r="B66" s="18">
-        <v>78833</v>
+        <v>78838</v>
       </c>
       <c r="C66" s="19">
-        <v>44510</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>53</v>
+        <v>44512</v>
+      </c>
+      <c r="D66" s="20">
+        <v>30</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="G66" s="29" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="25" t="s">
-        <v>107</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J66" s="25"/>
       <c r="K66" s="29"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L66" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="M66" s="27"/>
     </row>
     <row r="67" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="14"/>
       <c r="B67" s="18">
-        <v>78832</v>
+        <v>78837</v>
       </c>
       <c r="C67" s="19">
-        <v>44510</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>57</v>
+        <v>44511</v>
+      </c>
+      <c r="D67" s="20">
+        <v>40</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="G67" s="29" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="H67" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I67" s="24">
-        <v>44508</v>
+        <v>116</v>
+      </c>
+      <c r="I67" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="J67" s="25"/>
       <c r="K67" s="29"/>
       <c r="L67" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="M67" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M67" s="27"/>
     </row>
     <row r="68" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="14"/>
       <c r="B68" s="18">
-        <v>78831</v>
-      </c>
-      <c r="C68" s="19">
-        <v>44510</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G68" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H68" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I68" s="24">
-        <v>44508</v>
-      </c>
+        <v>78836</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" s="20"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="24"/>
       <c r="J68" s="25"/>
       <c r="K68" s="29"/>
-      <c r="L68" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="M68" s="27" t="s">
-        <v>4</v>
-      </c>
+      <c r="L68" s="26"/>
+      <c r="M68" s="27"/>
     </row>
     <row r="69" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="14"/>
       <c r="B69" s="18">
-        <v>78830</v>
+        <v>78835</v>
       </c>
       <c r="C69" s="19">
-        <v>44510</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>51</v>
+        <v>44511</v>
+      </c>
+      <c r="D69" s="20">
+        <v>20</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="G69" s="29" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H69" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I69" s="24">
-        <v>44508</v>
+        <v>116</v>
+      </c>
+      <c r="I69" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="J69" s="25"/>
       <c r="K69" s="29"/>
       <c r="L69" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="M69" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M69" s="27"/>
     </row>
     <row r="70" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="14"/>
       <c r="B70" s="18">
-        <v>78829</v>
+        <v>78834</v>
       </c>
       <c r="C70" s="19">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="D70" s="20">
         <v>50</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="G70" s="29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="J70" s="25"/>
       <c r="K70" s="29"/>
       <c r="L70" s="26" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="M70" s="27"/>
     </row>
     <row r="71" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="14"/>
       <c r="B71" s="18">
-        <v>78828</v>
+        <v>78833</v>
       </c>
       <c r="C71" s="19">
         <v>44510</v>
       </c>
-      <c r="D71" s="20">
-        <v>30</v>
+      <c r="D71" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G71" s="29" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="I71" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J71" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="J71" s="25" t="s">
+        <v>109</v>
+      </c>
       <c r="K71" s="29"/>
-      <c r="L71" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="M71" s="27"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="14"/>
       <c r="B72" s="18">
-        <v>78827</v>
+        <v>78832</v>
       </c>
       <c r="C72" s="19">
         <v>44510</v>
       </c>
-      <c r="D72" s="20">
-        <v>30</v>
+      <c r="D72" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="E72" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I72" s="24" t="s">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="I72" s="24">
+        <v>44508</v>
       </c>
       <c r="J72" s="25"/>
       <c r="K72" s="29"/>
       <c r="L72" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="M72" s="27"/>
+        <v>109</v>
+      </c>
+      <c r="M72" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="73" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="14"/>
       <c r="B73" s="18">
-        <v>78826</v>
+        <v>78831</v>
       </c>
       <c r="C73" s="19">
         <v>44510</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D73" s="20" t="s">
         <v>60</v>
       </c>
       <c r="E73" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="G73" s="29" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="H73" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J73" s="25" t="s">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" s="24">
+        <v>44508</v>
+      </c>
+      <c r="J73" s="25"/>
       <c r="K73" s="29"/>
-      <c r="L73" s="26"/>
+      <c r="L73" s="26" t="s">
+        <v>109</v>
+      </c>
       <c r="M73" s="27" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="14"/>
       <c r="B74" s="18">
-        <v>78825</v>
+        <v>78830</v>
       </c>
       <c r="C74" s="19">
         <v>44510</v>
       </c>
-      <c r="D74" s="20">
-        <v>60</v>
+      <c r="D74" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="G74" s="29" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H74" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="I74" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J74" s="25" t="s">
-        <v>107</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I74" s="24">
+        <v>44508</v>
+      </c>
+      <c r="J74" s="25"/>
       <c r="K74" s="29"/>
-      <c r="L74" s="26"/>
+      <c r="L74" s="26" t="s">
+        <v>109</v>
+      </c>
       <c r="M74" s="27" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="14"/>
       <c r="B75" s="18">
-        <v>78824</v>
+        <v>78829</v>
       </c>
       <c r="C75" s="19">
         <v>44510</v>
       </c>
       <c r="D75" s="20">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H75" s="23" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J75" s="25"/>
       <c r="K75" s="29"/>
       <c r="L75" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M75" s="27"/>
     </row>
     <row r="76" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="14"/>
       <c r="B76" s="18">
-        <v>78823</v>
+        <v>78828</v>
       </c>
       <c r="C76" s="19">
         <v>44510</v>
       </c>
       <c r="D76" s="20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G76" s="29" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H76" s="23" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="I76" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J76" s="25"/>
       <c r="K76" s="29"/>
       <c r="L76" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M76" s="27"/>
     </row>
     <row r="77" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="14"/>
       <c r="B77" s="18">
-        <v>78822</v>
+        <v>78827</v>
       </c>
       <c r="C77" s="19">
         <v>44510</v>
       </c>
       <c r="D77" s="20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="H77" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J77" s="25"/>
       <c r="K77" s="29"/>
       <c r="L77" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M77" s="27"/>
     </row>
     <row r="78" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="14"/>
       <c r="B78" s="18">
-        <v>78821</v>
+        <v>78826</v>
       </c>
       <c r="C78" s="19">
         <v>44510</v>
       </c>
       <c r="D78" s="20">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G78" s="29" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H78" s="23" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="I78" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J78" s="25"/>
+        <v>77</v>
+      </c>
+      <c r="J78" s="25" t="s">
+        <v>109</v>
+      </c>
       <c r="K78" s="29"/>
-      <c r="L78" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="M78" s="27"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="27" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="79" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="14"/>
       <c r="B79" s="18">
-        <v>78820</v>
+        <v>78825</v>
       </c>
       <c r="C79" s="19">
         <v>44510</v>
       </c>
       <c r="D79" s="20">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G79" s="29" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H79" s="23" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="I79" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J79" s="25"/>
+        <v>77</v>
+      </c>
+      <c r="J79" s="25" t="s">
+        <v>109</v>
+      </c>
       <c r="K79" s="29"/>
-      <c r="L79" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="M79" s="27"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="27" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="80" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="14"/>
       <c r="B80" s="18">
-        <v>78819</v>
+        <v>78824</v>
       </c>
       <c r="C80" s="19">
         <v>44510</v>
       </c>
       <c r="D80" s="20">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G80" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H80" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J80" s="25"/>
       <c r="K80" s="29"/>
       <c r="L80" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M80" s="27"/>
     </row>
     <row r="81" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="14"/>
       <c r="B81" s="18">
-        <v>78818</v>
+        <v>78823</v>
       </c>
       <c r="C81" s="19">
-        <v>44509</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>55</v>
+        <v>44510</v>
+      </c>
+      <c r="D81" s="20">
+        <v>20</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="24">
-        <v>44508</v>
-      </c>
-      <c r="J81" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I81" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J81" s="25"/>
       <c r="K81" s="29"/>
-      <c r="L81" s="26"/>
-      <c r="M81" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L81" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="M81" s="27"/>
     </row>
     <row r="82" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="14"/>
       <c r="B82" s="18">
-        <v>78817</v>
+        <v>78822</v>
       </c>
       <c r="C82" s="19">
-        <v>44509</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>52</v>
+        <v>44510</v>
+      </c>
+      <c r="D82" s="20">
+        <v>20</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="G82" s="29" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I82" s="24">
-        <v>44505</v>
+        <v>77</v>
+      </c>
+      <c r="I82" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J82" s="25"/>
       <c r="K82" s="29"/>
       <c r="L82" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M82" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M82" s="27"/>
     </row>
     <row r="83" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="14"/>
       <c r="B83" s="18">
-        <v>78816</v>
+        <v>78821</v>
       </c>
       <c r="C83" s="19">
-        <v>44509</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>14</v>
+        <v>44510</v>
+      </c>
+      <c r="D83" s="20">
+        <v>10</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="G83" s="29" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I83" s="24">
-        <v>44505</v>
-      </c>
-      <c r="J83" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I83" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J83" s="25"/>
       <c r="K83" s="29"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L83" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="M83" s="27"/>
     </row>
     <row r="84" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="14"/>
       <c r="B84" s="18">
-        <v>78815</v>
+        <v>78820</v>
       </c>
       <c r="C84" s="19">
-        <v>44509</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>58</v>
+        <v>44510</v>
+      </c>
+      <c r="D84" s="20">
+        <v>10</v>
       </c>
       <c r="E84" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="G84" s="29" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="H84" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I84" s="24">
-        <v>44505</v>
+        <v>77</v>
+      </c>
+      <c r="I84" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J84" s="25"/>
       <c r="K84" s="29"/>
       <c r="L84" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M84" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M84" s="27"/>
     </row>
     <row r="85" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="14"/>
       <c r="B85" s="18">
-        <v>78814</v>
+        <v>78819</v>
       </c>
       <c r="C85" s="19">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D85" s="20">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G85" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H85" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I85" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J85" s="25"/>
       <c r="K85" s="29"/>
       <c r="L85" s="26" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="M85" s="27"/>
     </row>
     <row r="86" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="14"/>
       <c r="B86" s="18">
-        <v>78813</v>
+        <v>78818</v>
       </c>
       <c r="C86" s="19">
         <v>44509</v>
       </c>
-      <c r="D86" s="20">
-        <v>50</v>
+      <c r="D86" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="G86" s="29" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="H86" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I86" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J86" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="I86" s="24">
+        <v>44508</v>
+      </c>
+      <c r="J86" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K86" s="29"/>
-      <c r="L86" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M86" s="27"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="87" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="14"/>
       <c r="B87" s="18">
-        <v>78812</v>
+        <v>78817</v>
       </c>
       <c r="C87" s="19">
         <v>44509</v>
       </c>
-      <c r="D87" s="20">
-        <v>50</v>
+      <c r="D87" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E87" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F87" s="22" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="G87" s="29" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="H87" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="I87" s="24" t="s">
-        <v>75</v>
+        <v>23</v>
+      </c>
+      <c r="I87" s="24">
+        <v>44505</v>
       </c>
       <c r="J87" s="25"/>
       <c r="K87" s="29"/>
       <c r="L87" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M87" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="M87" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="88" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="14"/>
       <c r="B88" s="18">
-        <v>78811</v>
+        <v>78816</v>
       </c>
       <c r="C88" s="19">
         <v>44509</v>
       </c>
-      <c r="D88" s="20">
-        <v>20</v>
+      <c r="D88" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E88" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="G88" s="29" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="H88" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="I88" s="24" t="s">
-        <v>75</v>
+        <v>37</v>
+      </c>
+      <c r="I88" s="24">
+        <v>44505</v>
       </c>
       <c r="J88" s="25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K88" s="29"/>
       <c r="L88" s="26"/>
       <c r="M88" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="14"/>
       <c r="B89" s="18">
-        <v>78810</v>
+        <v>78815</v>
       </c>
       <c r="C89" s="19">
         <v>44509</v>
       </c>
-      <c r="D89" s="20">
-        <v>20</v>
+      <c r="D89" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F89" s="22" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="G89" s="29" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="H89" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="I89" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J89" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I89" s="24">
+        <v>44505</v>
+      </c>
+      <c r="J89" s="25"/>
       <c r="K89" s="29"/>
-      <c r="L89" s="26"/>
+      <c r="L89" s="26" t="s">
+        <v>71</v>
+      </c>
       <c r="M89" s="27" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="14"/>
       <c r="B90" s="18">
-        <v>78809</v>
+        <v>78814</v>
       </c>
       <c r="C90" s="19">
         <v>44509</v>
       </c>
       <c r="D90" s="20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F90" s="22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G90" s="29" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H90" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I90" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J90" s="25"/>
       <c r="K90" s="29"/>
       <c r="L90" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M90" s="27"/>
     </row>
     <row r="91" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="14"/>
       <c r="B91" s="18">
-        <v>78808</v>
+        <v>78813</v>
       </c>
       <c r="C91" s="19">
         <v>44509</v>
       </c>
       <c r="D91" s="20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G91" s="29" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H91" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I91" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J91" s="25"/>
       <c r="K91" s="29"/>
       <c r="L91" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M91" s="27"/>
     </row>
     <row r="92" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="14"/>
       <c r="B92" s="18">
-        <v>78807</v>
+        <v>78812</v>
       </c>
       <c r="C92" s="19">
         <v>44509</v>
       </c>
       <c r="D92" s="20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G92" s="29" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H92" s="23" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I92" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J92" s="25"/>
       <c r="K92" s="29"/>
       <c r="L92" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M92" s="27"/>
     </row>
     <row r="93" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="14"/>
       <c r="B93" s="18">
-        <v>78806</v>
+        <v>78811</v>
       </c>
       <c r="C93" s="19">
         <v>44509</v>
       </c>
       <c r="D93" s="20">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F93" s="22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G93" s="29" t="s">
         <v>75</v>
       </c>
       <c r="H93" s="23" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I93" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J93" s="25"/>
+        <v>77</v>
+      </c>
+      <c r="J93" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K93" s="29"/>
-      <c r="L93" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M93" s="27"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="94" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="14"/>
       <c r="B94" s="18">
-        <v>78805</v>
+        <v>78810</v>
       </c>
       <c r="C94" s="19">
         <v>44509</v>
       </c>
       <c r="D94" s="20">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F94" s="22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G94" s="29" t="s">
         <v>75</v>
       </c>
       <c r="H94" s="23" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I94" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J94" s="25"/>
+        <v>77</v>
+      </c>
+      <c r="J94" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K94" s="29"/>
-      <c r="L94" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M94" s="27"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="95" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="14"/>
       <c r="B95" s="18">
-        <v>78804</v>
+        <v>78809</v>
       </c>
       <c r="C95" s="19">
         <v>44509</v>
       </c>
       <c r="D95" s="20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G95" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H95" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I95" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J95" s="25"/>
       <c r="K95" s="29"/>
       <c r="L95" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M95" s="27"/>
     </row>
     <row r="96" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="14"/>
       <c r="B96" s="18">
-        <v>78803</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D96" s="20"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="24"/>
+        <v>78808</v>
+      </c>
+      <c r="C96" s="19">
+        <v>44509</v>
+      </c>
+      <c r="D96" s="20">
+        <v>20</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F96" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G96" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I96" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="J96" s="25"/>
       <c r="K96" s="29"/>
       <c r="L96" s="26" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="M96" s="27"/>
     </row>
     <row r="97" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="14"/>
       <c r="B97" s="18">
-        <v>78802</v>
+        <v>78807</v>
       </c>
       <c r="C97" s="19">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="D97" s="20">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="G97" s="29" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="H97" s="23" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="I97" s="24" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="J97" s="25"/>
       <c r="K97" s="29"/>
       <c r="L97" s="26" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="M97" s="27"/>
     </row>
     <row r="98" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="14"/>
       <c r="B98" s="18">
-        <v>78801</v>
+        <v>78806</v>
       </c>
       <c r="C98" s="19">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="D98" s="20">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="F98" s="22" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="G98" s="29" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="H98" s="23" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="I98" s="24" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="J98" s="25"/>
       <c r="K98" s="29"/>
       <c r="L98" s="26" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="M98" s="27"/>
     </row>
     <row r="99" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="14"/>
       <c r="B99" s="18">
-        <v>78800</v>
+        <v>78805</v>
       </c>
       <c r="C99" s="19">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="D99" s="20">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="F99" s="22" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="G99" s="29" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="H99" s="23" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="I99" s="24" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="J99" s="25"/>
       <c r="K99" s="29"/>
       <c r="L99" s="26" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="M99" s="27"/>
     </row>
     <row r="100" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="14"/>
       <c r="B100" s="18">
-        <v>78799</v>
+        <v>78804</v>
       </c>
       <c r="C100" s="19">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="D100" s="20">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="F100" s="22" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="G100" s="29" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="H100" s="23" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="I100" s="24" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="J100" s="25"/>
       <c r="K100" s="29"/>
       <c r="L100" s="26" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="M100" s="27"/>
     </row>
     <row r="101" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="14"/>
       <c r="B101" s="18">
-        <v>78798</v>
-      </c>
-      <c r="C101" s="19">
-        <v>44508</v>
-      </c>
-      <c r="D101" s="20">
-        <v>30</v>
-      </c>
-      <c r="E101" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F101" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="G101" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H101" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="I101" s="24" t="s">
-        <v>102</v>
-      </c>
+        <v>78803</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D101" s="20"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="24"/>
       <c r="J101" s="25"/>
       <c r="K101" s="29"/>
       <c r="L101" s="26" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="M101" s="27"/>
     </row>
     <row r="102" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="14"/>
       <c r="B102" s="18">
-        <v>78797</v>
+        <v>78802</v>
       </c>
       <c r="C102" s="19">
-        <v>44507</v>
+        <v>44508</v>
       </c>
       <c r="D102" s="20">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="F102" s="22" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="G102" s="29" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="H102" s="23" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="I102" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J102" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="J102" s="25"/>
       <c r="K102" s="29"/>
-      <c r="L102" s="26"/>
-      <c r="M102" s="27" t="s">
-        <v>95</v>
-      </c>
+      <c r="L102" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="M102" s="27"/>
     </row>
     <row r="103" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="14"/>
       <c r="B103" s="18">
-        <v>78796</v>
+        <v>78801</v>
       </c>
       <c r="C103" s="19">
-        <v>44507</v>
+        <v>44508</v>
       </c>
       <c r="D103" s="20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="G103" s="29" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H103" s="23" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="I103" s="24" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="J103" s="25"/>
       <c r="K103" s="29"/>
       <c r="L103" s="26" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="M103" s="27"/>
     </row>
     <row r="104" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="14"/>
       <c r="B104" s="18">
-        <v>78795</v>
+        <v>78800</v>
       </c>
       <c r="C104" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D104" s="20" t="s">
-        <v>55</v>
+        <v>44508</v>
+      </c>
+      <c r="D104" s="20">
+        <v>50</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="F104" s="22" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="G104" s="29" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H104" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I104" s="24">
-        <v>44502</v>
+        <v>104</v>
+      </c>
+      <c r="I104" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="J104" s="25"/>
       <c r="K104" s="29"/>
       <c r="L104" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="M104" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="M104" s="27"/>
     </row>
     <row r="105" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="14"/>
       <c r="B105" s="18">
-        <v>78794</v>
+        <v>78799</v>
       </c>
       <c r="C105" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D105" s="20" t="s">
-        <v>14</v>
+        <v>44508</v>
+      </c>
+      <c r="D105" s="20">
+        <v>80</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="F105" s="22" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="G105" s="29" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H105" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="I105" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J105" s="25" t="s">
-        <v>96</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="I105" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J105" s="25"/>
       <c r="K105" s="29"/>
-      <c r="L105" s="26"/>
-      <c r="M105" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L105" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="M105" s="27"/>
     </row>
     <row r="106" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="14"/>
       <c r="B106" s="18">
-        <v>78793</v>
+        <v>78798</v>
       </c>
       <c r="C106" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D106" s="20" t="s">
-        <v>14</v>
+        <v>44508</v>
+      </c>
+      <c r="D106" s="20">
+        <v>30</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="F106" s="22" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="G106" s="29" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H106" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I106" s="24">
-        <v>44501</v>
-      </c>
-      <c r="J106" s="25" t="s">
-        <v>96</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="I106" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J106" s="25"/>
       <c r="K106" s="29"/>
-      <c r="L106" s="26"/>
-      <c r="M106" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L106" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="M106" s="27"/>
     </row>
     <row r="107" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="14"/>
       <c r="B107" s="18">
-        <v>78792</v>
+        <v>78797</v>
       </c>
       <c r="C107" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D107" s="20" t="s">
-        <v>58</v>
+        <v>44507</v>
+      </c>
+      <c r="D107" s="20">
+        <v>10</v>
       </c>
       <c r="E107" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F107" s="22" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="G107" s="29" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H107" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I107" s="24">
-        <v>44505</v>
+        <v>66</v>
+      </c>
+      <c r="I107" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J107" s="25" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K107" s="29"/>
       <c r="L107" s="26"/>
       <c r="M107" s="27" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="14"/>
       <c r="B108" s="18">
-        <v>78791</v>
+        <v>78796</v>
       </c>
       <c r="C108" s="19">
-        <v>44506</v>
-      </c>
-      <c r="D108" s="20" t="s">
-        <v>58</v>
+        <v>44507</v>
+      </c>
+      <c r="D108" s="20">
+        <v>50</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F108" s="22" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="G108" s="29" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="H108" s="23" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I108" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J108" s="25" t="s">
-        <v>96</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J108" s="25"/>
       <c r="K108" s="29"/>
-      <c r="L108" s="26"/>
-      <c r="M108" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L108" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M108" s="27"/>
     </row>
     <row r="109" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="14"/>
       <c r="B109" s="18">
-        <v>78790</v>
+        <v>78795</v>
       </c>
       <c r="C109" s="19">
         <v>44506</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F109" s="22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G109" s="29" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H109" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I109" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J109" s="25" t="s">
-        <v>96</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I109" s="24">
+        <v>44502</v>
+      </c>
+      <c r="J109" s="25"/>
       <c r="K109" s="29"/>
-      <c r="L109" s="26"/>
+      <c r="L109" s="26" t="s">
+        <v>98</v>
+      </c>
       <c r="M109" s="27" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="14"/>
       <c r="B110" s="18">
-        <v>78789</v>
+        <v>78794</v>
       </c>
       <c r="C110" s="19">
         <v>44506</v>
@@ -6639,485 +6610,493 @@
         <v>14</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G110" s="29" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H110" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I110" s="24" t="s">
-        <v>3</v>
+        <v>70</v>
+      </c>
+      <c r="I110" s="24">
+        <v>44502</v>
       </c>
       <c r="J110" s="25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K110" s="29"/>
       <c r="L110" s="26"/>
       <c r="M110" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="14"/>
       <c r="B111" s="18">
-        <v>78788</v>
+        <v>78793</v>
       </c>
       <c r="C111" s="19">
         <v>44506</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G111" s="29" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H111" s="23" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I111" s="24">
-        <v>44502</v>
+        <v>44501</v>
       </c>
       <c r="J111" s="25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K111" s="29"/>
       <c r="L111" s="26"/>
       <c r="M111" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="14"/>
       <c r="B112" s="18">
-        <v>78787</v>
+        <v>78792</v>
       </c>
       <c r="C112" s="19">
         <v>44506</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F112" s="22" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G112" s="29" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H112" s="23" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I112" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J112" s="25"/>
+        <v>44505</v>
+      </c>
+      <c r="J112" s="25" t="s">
+        <v>98</v>
+      </c>
       <c r="K112" s="29"/>
-      <c r="L112" s="26" t="s">
-        <v>96</v>
-      </c>
+      <c r="L112" s="26"/>
       <c r="M112" s="27" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="14"/>
       <c r="B113" s="18">
-        <v>78786</v>
+        <v>78791</v>
       </c>
       <c r="C113" s="19">
         <v>44506</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E113" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F113" s="22" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G113" s="29" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H113" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I113" s="24">
-        <v>44503</v>
-      </c>
-      <c r="J113" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="I113" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J113" s="25" t="s">
+        <v>98</v>
+      </c>
       <c r="K113" s="29"/>
-      <c r="L113" s="26" t="s">
-        <v>96</v>
-      </c>
+      <c r="L113" s="26"/>
       <c r="M113" s="27" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="14"/>
       <c r="B114" s="18">
-        <v>78785</v>
+        <v>78790</v>
       </c>
       <c r="C114" s="19">
         <v>44506</v>
       </c>
-      <c r="D114" s="20">
-        <v>30</v>
+      <c r="D114" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="G114" s="29" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H114" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="I114" s="24">
-        <v>44503</v>
-      </c>
-      <c r="J114" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J114" s="25" t="s">
+        <v>98</v>
+      </c>
       <c r="K114" s="29"/>
-      <c r="L114" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="M114" s="27"/>
+      <c r="L114" s="26"/>
+      <c r="M114" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="115" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="14"/>
       <c r="B115" s="18">
-        <v>78784</v>
+        <v>78789</v>
       </c>
       <c r="C115" s="19">
         <v>44506</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F115" s="22" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="G115" s="29" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="H115" s="23" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="I115" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J115" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="J115" s="25" t="s">
+        <v>98</v>
+      </c>
       <c r="K115" s="29"/>
-      <c r="L115" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="M115" s="27"/>
+      <c r="L115" s="26"/>
+      <c r="M115" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="116" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="14"/>
       <c r="B116" s="18">
-        <v>78783</v>
+        <v>78788</v>
       </c>
       <c r="C116" s="19">
         <v>44506</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E116" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F116" s="22" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="G116" s="29" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="H116" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I116" s="24" t="s">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="I116" s="24">
+        <v>44502</v>
       </c>
       <c r="J116" s="25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K116" s="29"/>
       <c r="L116" s="26"/>
       <c r="M116" s="27" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="14"/>
       <c r="B117" s="18">
-        <v>78782</v>
+        <v>78787</v>
       </c>
       <c r="C117" s="19">
         <v>44506</v>
       </c>
-      <c r="D117" s="20">
-        <v>10</v>
+      <c r="D117" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F117" s="22" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="G117" s="29" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="H117" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I117" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J117" s="25" t="s">
-        <v>96</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I117" s="24">
+        <v>44502</v>
+      </c>
+      <c r="J117" s="25"/>
       <c r="K117" s="29"/>
-      <c r="L117" s="26"/>
+      <c r="L117" s="26" t="s">
+        <v>98</v>
+      </c>
       <c r="M117" s="27" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="14"/>
       <c r="B118" s="18">
-        <v>78781</v>
+        <v>78786</v>
       </c>
       <c r="C118" s="19">
         <v>44506</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E118" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F118" s="22" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="G118" s="29" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="H118" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I118" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J118" s="25" t="s">
-        <v>96</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I118" s="24">
+        <v>44503</v>
+      </c>
+      <c r="J118" s="25"/>
       <c r="K118" s="29"/>
-      <c r="L118" s="26"/>
+      <c r="L118" s="26" t="s">
+        <v>98</v>
+      </c>
       <c r="M118" s="27" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="14"/>
       <c r="B119" s="18">
-        <v>78780</v>
+        <v>78785</v>
       </c>
       <c r="C119" s="19">
         <v>44506</v>
       </c>
       <c r="D119" s="20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E119" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F119" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G119" s="29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H119" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="I119" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J119" s="25" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="I119" s="24">
+        <v>44503</v>
+      </c>
+      <c r="J119" s="25"/>
       <c r="K119" s="29"/>
-      <c r="L119" s="26"/>
-      <c r="M119" s="27" t="s">
-        <v>95</v>
-      </c>
+      <c r="L119" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M119" s="27"/>
     </row>
     <row r="120" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="14"/>
       <c r="B120" s="18">
-        <v>78779</v>
+        <v>78784</v>
       </c>
       <c r="C120" s="19">
         <v>44506</v>
       </c>
-      <c r="D120" s="20">
-        <v>80</v>
+      <c r="D120" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="E120" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F120" s="22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G120" s="29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H120" s="23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I120" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J120" s="25"/>
       <c r="K120" s="29"/>
       <c r="L120" s="26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M120" s="27"/>
     </row>
     <row r="121" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="14"/>
       <c r="B121" s="18">
-        <v>78778</v>
+        <v>78783</v>
       </c>
       <c r="C121" s="19">
         <v>44506</v>
       </c>
-      <c r="D121" s="20">
-        <v>20</v>
+      <c r="D121" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="E121" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F121" s="22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G121" s="29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H121" s="23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I121" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J121" s="25"/>
+        <v>94</v>
+      </c>
+      <c r="J121" s="25" t="s">
+        <v>98</v>
+      </c>
       <c r="K121" s="29"/>
-      <c r="L121" s="26" t="s">
+      <c r="L121" s="26"/>
+      <c r="M121" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="M121" s="27"/>
     </row>
     <row r="122" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="14"/>
       <c r="B122" s="18">
-        <v>78777</v>
+        <v>78782</v>
       </c>
       <c r="C122" s="19">
         <v>44506</v>
       </c>
-      <c r="D122" s="20" t="s">
-        <v>14</v>
+      <c r="D122" s="20">
+        <v>10</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F122" s="22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G122" s="29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H122" s="23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I122" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J122" s="25"/>
+        <v>94</v>
+      </c>
+      <c r="J122" s="25" t="s">
+        <v>98</v>
+      </c>
       <c r="K122" s="29"/>
-      <c r="L122" s="26" t="s">
+      <c r="L122" s="26"/>
+      <c r="M122" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="M122" s="27"/>
     </row>
     <row r="123" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="14"/>
       <c r="B123" s="18">
-        <v>78776</v>
+        <v>78781</v>
       </c>
       <c r="C123" s="19">
         <v>44506</v>
       </c>
-      <c r="D123" s="20">
-        <v>30</v>
+      <c r="D123" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="E123" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F123" s="22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G123" s="29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H123" s="23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I123" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J123" s="25"/>
+        <v>94</v>
+      </c>
+      <c r="J123" s="25" t="s">
+        <v>98</v>
+      </c>
       <c r="K123" s="29"/>
-      <c r="L123" s="26" t="s">
+      <c r="L123" s="26"/>
+      <c r="M123" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="M123" s="27"/>
     </row>
     <row r="124" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="14"/>
       <c r="B124" s="18">
-        <v>78775</v>
+        <v>78780</v>
       </c>
       <c r="C124" s="19">
         <v>44506</v>
       </c>
       <c r="D124" s="20">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E124" s="21" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="F124" s="22" t="s">
         <v>91</v>
@@ -7126,527 +7105,529 @@
         <v>92</v>
       </c>
       <c r="H124" s="23" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I124" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J124" s="25"/>
+        <v>94</v>
+      </c>
+      <c r="J124" s="25" t="s">
+        <v>98</v>
+      </c>
       <c r="K124" s="29"/>
-      <c r="L124" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="M124" s="27"/>
+      <c r="L124" s="26"/>
+      <c r="M124" s="27" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="125" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="14"/>
       <c r="B125" s="18">
-        <v>78774</v>
+        <v>78779</v>
       </c>
       <c r="C125" s="19">
         <v>44506</v>
       </c>
       <c r="D125" s="20">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F125" s="22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G125" s="29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H125" s="23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I125" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J125" s="25"/>
       <c r="K125" s="29"/>
       <c r="L125" s="26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M125" s="27"/>
     </row>
     <row r="126" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="14"/>
       <c r="B126" s="18">
-        <v>78773</v>
+        <v>78778</v>
       </c>
       <c r="C126" s="19">
         <v>44506</v>
       </c>
       <c r="D126" s="20">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E126" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F126" s="22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G126" s="29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H126" s="23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I126" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J126" s="25"/>
       <c r="K126" s="29"/>
       <c r="L126" s="26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M126" s="27"/>
     </row>
     <row r="127" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="14"/>
       <c r="B127" s="18">
-        <v>78772</v>
+        <v>78777</v>
       </c>
       <c r="C127" s="19">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F127" s="22" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="G127" s="29" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="H127" s="23" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I127" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J127" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="J127" s="25"/>
       <c r="K127" s="29"/>
-      <c r="L127" s="26"/>
-      <c r="M127" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L127" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M127" s="27"/>
     </row>
     <row r="128" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="14"/>
       <c r="B128" s="18">
-        <v>78771</v>
+        <v>78776</v>
       </c>
       <c r="C128" s="19">
-        <v>44505</v>
-      </c>
-      <c r="D128" s="20" t="s">
-        <v>53</v>
+        <v>44506</v>
+      </c>
+      <c r="D128" s="20">
+        <v>30</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F128" s="22" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="G128" s="29" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="H128" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I128" s="24">
-        <v>44501</v>
+        <v>94</v>
+      </c>
+      <c r="I128" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="J128" s="25"/>
       <c r="K128" s="29"/>
       <c r="L128" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M128" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M128" s="27"/>
     </row>
     <row r="129" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="14"/>
       <c r="B129" s="18">
-        <v>78770</v>
+        <v>78775</v>
       </c>
       <c r="C129" s="19">
-        <v>44505</v>
-      </c>
-      <c r="D129" s="20" t="s">
-        <v>52</v>
+        <v>44506</v>
+      </c>
+      <c r="D129" s="20">
+        <v>60</v>
       </c>
       <c r="E129" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F129" s="22" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="G129" s="29" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="H129" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I129" s="24">
-        <v>44504</v>
+        <v>94</v>
+      </c>
+      <c r="I129" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="J129" s="25"/>
       <c r="K129" s="29"/>
       <c r="L129" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M129" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M129" s="27"/>
     </row>
     <row r="130" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="14"/>
       <c r="B130" s="18">
-        <v>78769</v>
+        <v>78774</v>
       </c>
       <c r="C130" s="19">
-        <v>44505</v>
-      </c>
-      <c r="D130" s="20" t="s">
-        <v>58</v>
+        <v>44506</v>
+      </c>
+      <c r="D130" s="20">
+        <v>30</v>
       </c>
       <c r="E130" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F130" s="22" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="G130" s="29" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="H130" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I130" s="24">
-        <v>44500</v>
+        <v>94</v>
+      </c>
+      <c r="I130" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="J130" s="25"/>
       <c r="K130" s="29"/>
       <c r="L130" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M130" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M130" s="27"/>
     </row>
     <row r="131" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="14"/>
       <c r="B131" s="18">
-        <v>78768</v>
+        <v>78773</v>
       </c>
       <c r="C131" s="19">
-        <v>44505</v>
-      </c>
-      <c r="D131" s="20" t="s">
-        <v>53</v>
+        <v>44506</v>
+      </c>
+      <c r="D131" s="20">
+        <v>40</v>
       </c>
       <c r="E131" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F131" s="22" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="G131" s="29" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="H131" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I131" s="24">
-        <v>44498</v>
-      </c>
-      <c r="J131" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="I131" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J131" s="25"/>
       <c r="K131" s="29"/>
-      <c r="L131" s="26"/>
-      <c r="M131" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L131" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M131" s="27"/>
     </row>
     <row r="132" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="14"/>
       <c r="B132" s="18">
-        <v>78767</v>
+        <v>78772</v>
       </c>
       <c r="C132" s="19">
         <v>44505</v>
       </c>
-      <c r="D132" s="20">
-        <v>30</v>
+      <c r="D132" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="E132" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F132" s="22" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="G132" s="29" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="H132" s="23" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I132" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J132" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="J132" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K132" s="29"/>
-      <c r="L132" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M132" s="27"/>
+      <c r="L132" s="26"/>
+      <c r="M132" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="133" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="14"/>
       <c r="B133" s="18">
-        <v>78766</v>
+        <v>78771</v>
       </c>
       <c r="C133" s="19">
         <v>44505</v>
       </c>
-      <c r="D133" s="20">
-        <v>10</v>
+      <c r="D133" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="E133" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F133" s="22" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="G133" s="29" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="H133" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I133" s="24" t="s">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="I133" s="24">
+        <v>44501</v>
       </c>
       <c r="J133" s="25"/>
       <c r="K133" s="29"/>
       <c r="L133" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M133" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="M133" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="134" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="14"/>
       <c r="B134" s="18">
-        <v>78765</v>
+        <v>78770</v>
       </c>
       <c r="C134" s="19">
         <v>44505</v>
       </c>
-      <c r="D134" s="20">
-        <v>60</v>
+      <c r="D134" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E134" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F134" s="22" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="G134" s="29" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="H134" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="I134" s="24" t="s">
-        <v>75</v>
+        <v>12</v>
+      </c>
+      <c r="I134" s="24">
+        <v>44504</v>
       </c>
       <c r="J134" s="25"/>
       <c r="K134" s="29"/>
       <c r="L134" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M134" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="M134" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="135" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="14"/>
       <c r="B135" s="18">
-        <v>78764</v>
+        <v>78769</v>
       </c>
       <c r="C135" s="19">
         <v>44505</v>
       </c>
-      <c r="D135" s="20">
-        <v>20</v>
+      <c r="D135" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="E135" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F135" s="22" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G135" s="29" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="H135" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I135" s="24" t="s">
-        <v>75</v>
+        <v>9</v>
+      </c>
+      <c r="I135" s="24">
+        <v>44500</v>
       </c>
       <c r="J135" s="25"/>
       <c r="K135" s="29"/>
       <c r="L135" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M135" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="M135" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="136" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="14"/>
       <c r="B136" s="18">
-        <v>78763</v>
+        <v>78768</v>
       </c>
       <c r="C136" s="19">
         <v>44505</v>
       </c>
-      <c r="D136" s="20">
-        <v>20</v>
+      <c r="D136" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="E136" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F136" s="22" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="G136" s="29" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="H136" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I136" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J136" s="25"/>
+        <v>22</v>
+      </c>
+      <c r="I136" s="24">
+        <v>44498</v>
+      </c>
+      <c r="J136" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K136" s="29"/>
-      <c r="L136" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M136" s="27"/>
+      <c r="L136" s="26"/>
+      <c r="M136" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="137" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="14"/>
       <c r="B137" s="18">
-        <v>78762</v>
+        <v>78767</v>
       </c>
       <c r="C137" s="19">
         <v>44505</v>
       </c>
       <c r="D137" s="20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E137" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F137" s="22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G137" s="29" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H137" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I137" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J137" s="25"/>
       <c r="K137" s="29"/>
       <c r="L137" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M137" s="27"/>
     </row>
     <row r="138" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="14"/>
       <c r="B138" s="18">
-        <v>78761</v>
+        <v>78766</v>
       </c>
       <c r="C138" s="19">
         <v>44505</v>
       </c>
       <c r="D138" s="20">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E138" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F138" s="22" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G138" s="29" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H138" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I138" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J138" s="25"/>
       <c r="K138" s="29"/>
       <c r="L138" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M138" s="27"/>
     </row>
     <row r="139" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="14"/>
       <c r="B139" s="18">
-        <v>78760</v>
+        <v>78765</v>
       </c>
       <c r="C139" s="19">
         <v>44505</v>
       </c>
       <c r="D139" s="20">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E139" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F139" s="22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G139" s="29" t="s">
         <v>75</v>
       </c>
       <c r="H139" s="23" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I139" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J139" s="25"/>
       <c r="K139" s="29"/>
       <c r="L139" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M139" s="27"/>
     </row>
     <row r="140" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="14"/>
       <c r="B140" s="18">
-        <v>78759</v>
+        <v>78764</v>
       </c>
       <c r="C140" s="19">
         <v>44505</v>
@@ -7655,1204 +7636,1204 @@
         <v>20</v>
       </c>
       <c r="E140" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F140" s="22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G140" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H140" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I140" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J140" s="25"/>
       <c r="K140" s="29"/>
       <c r="L140" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M140" s="27"/>
     </row>
     <row r="141" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="14"/>
       <c r="B141" s="18">
-        <v>78758</v>
+        <v>78763</v>
       </c>
       <c r="C141" s="19">
         <v>44505</v>
       </c>
-      <c r="D141" s="20" t="s">
-        <v>14</v>
+      <c r="D141" s="20">
+        <v>20</v>
       </c>
       <c r="E141" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F141" s="22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G141" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H141" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I141" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J141" s="25"/>
       <c r="K141" s="29"/>
       <c r="L141" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M141" s="27"/>
     </row>
     <row r="142" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="14"/>
       <c r="B142" s="18">
-        <v>78757</v>
+        <v>78762</v>
       </c>
       <c r="C142" s="19">
         <v>44505</v>
       </c>
       <c r="D142" s="20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E142" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F142" s="22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G142" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H142" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I142" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J142" s="25"/>
       <c r="K142" s="29"/>
       <c r="L142" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M142" s="27"/>
     </row>
     <row r="143" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="14"/>
       <c r="B143" s="18">
-        <v>78756</v>
+        <v>78761</v>
       </c>
       <c r="C143" s="19">
         <v>44505</v>
       </c>
       <c r="D143" s="20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E143" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F143" s="22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G143" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H143" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I143" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J143" s="25"/>
       <c r="K143" s="29"/>
       <c r="L143" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M143" s="27"/>
     </row>
     <row r="144" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="14"/>
       <c r="B144" s="18">
-        <v>78755</v>
+        <v>78760</v>
       </c>
       <c r="C144" s="19">
-        <v>44504</v>
-      </c>
-      <c r="D144" s="20" t="s">
-        <v>58</v>
+        <v>44505</v>
+      </c>
+      <c r="D144" s="20">
+        <v>30</v>
       </c>
       <c r="E144" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F144" s="22" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="G144" s="29" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="H144" s="23" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I144" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J144" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J144" s="25"/>
       <c r="K144" s="29"/>
-      <c r="L144" s="26"/>
-      <c r="M144" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L144" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M144" s="27"/>
     </row>
     <row r="145" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="14"/>
       <c r="B145" s="18">
-        <v>78754</v>
+        <v>78759</v>
       </c>
       <c r="C145" s="19">
-        <v>44504</v>
-      </c>
-      <c r="D145" s="20" t="s">
-        <v>53</v>
+        <v>44505</v>
+      </c>
+      <c r="D145" s="20">
+        <v>20</v>
       </c>
       <c r="E145" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F145" s="22" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="G145" s="29" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="H145" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I145" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J145" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I145" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J145" s="25"/>
       <c r="K145" s="29"/>
-      <c r="L145" s="26"/>
-      <c r="M145" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L145" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M145" s="27"/>
     </row>
     <row r="146" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="14"/>
       <c r="B146" s="18">
-        <v>78753</v>
+        <v>78758</v>
       </c>
       <c r="C146" s="19">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E146" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F146" s="22" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="G146" s="29" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="H146" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I146" s="24">
-        <v>44501</v>
-      </c>
-      <c r="J146" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I146" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J146" s="25"/>
       <c r="K146" s="29"/>
-      <c r="L146" s="26"/>
-      <c r="M146" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L146" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M146" s="27"/>
     </row>
     <row r="147" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="14"/>
       <c r="B147" s="18">
-        <v>78752</v>
+        <v>78757</v>
       </c>
       <c r="C147" s="19">
-        <v>44504</v>
-      </c>
-      <c r="D147" s="20" t="s">
-        <v>52</v>
+        <v>44505</v>
+      </c>
+      <c r="D147" s="20">
+        <v>30</v>
       </c>
       <c r="E147" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F147" s="22" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="G147" s="29" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="H147" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I147" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J147" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I147" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J147" s="25"/>
       <c r="K147" s="29"/>
-      <c r="L147" s="26"/>
-      <c r="M147" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L147" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M147" s="27"/>
     </row>
     <row r="148" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="14"/>
       <c r="B148" s="18">
-        <v>78751</v>
+        <v>78756</v>
       </c>
       <c r="C148" s="19">
-        <v>44504</v>
-      </c>
-      <c r="D148" s="20" t="s">
-        <v>53</v>
+        <v>44505</v>
+      </c>
+      <c r="D148" s="20">
+        <v>20</v>
       </c>
       <c r="E148" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F148" s="22" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="G148" s="29" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="H148" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I148" s="24">
-        <v>44502</v>
-      </c>
-      <c r="J148" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I148" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J148" s="25"/>
       <c r="K148" s="29"/>
-      <c r="L148" s="26"/>
-      <c r="M148" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L148" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M148" s="27"/>
     </row>
     <row r="149" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="14"/>
       <c r="B149" s="18">
-        <v>78750</v>
+        <v>78755</v>
       </c>
       <c r="C149" s="19">
         <v>44504</v>
       </c>
-      <c r="D149" s="20">
-        <v>40</v>
+      <c r="D149" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="E149" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F149" s="22" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="G149" s="29" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="H149" s="23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I149" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J149" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="J149" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K149" s="29"/>
-      <c r="L149" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M149" s="27"/>
+      <c r="L149" s="26"/>
+      <c r="M149" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="150" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="14"/>
       <c r="B150" s="18">
-        <v>78749</v>
-      </c>
-      <c r="C150" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D150" s="20"/>
-      <c r="E150" s="21"/>
-      <c r="F150" s="22"/>
-      <c r="G150" s="29"/>
-      <c r="H150" s="23"/>
-      <c r="I150" s="24"/>
-      <c r="J150" s="25"/>
+        <v>78754</v>
+      </c>
+      <c r="C150" s="19">
+        <v>44504</v>
+      </c>
+      <c r="D150" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E150" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F150" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G150" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H150" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I150" s="24">
+        <v>44502</v>
+      </c>
+      <c r="J150" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K150" s="29"/>
-      <c r="L150" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="M150" s="27"/>
+      <c r="L150" s="26"/>
+      <c r="M150" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="151" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="14"/>
       <c r="B151" s="18">
-        <v>78748</v>
+        <v>78753</v>
       </c>
       <c r="C151" s="19">
         <v>44504</v>
       </c>
-      <c r="D151" s="20">
-        <v>40</v>
+      <c r="D151" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="E151" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F151" s="22" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="G151" s="29" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="H151" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I151" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J151" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="I151" s="24">
+        <v>44501</v>
+      </c>
+      <c r="J151" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K151" s="29"/>
-      <c r="L151" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M151" s="27"/>
+      <c r="L151" s="26"/>
+      <c r="M151" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="152" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="14"/>
       <c r="B152" s="18">
-        <v>78747</v>
+        <v>78752</v>
       </c>
       <c r="C152" s="19">
         <v>44504</v>
       </c>
-      <c r="D152" s="20">
-        <v>70</v>
+      <c r="D152" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E152" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F152" s="22" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="G152" s="29" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="H152" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I152" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J152" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="I152" s="24">
+        <v>44502</v>
+      </c>
+      <c r="J152" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K152" s="29"/>
-      <c r="L152" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M152" s="27"/>
+      <c r="L152" s="26"/>
+      <c r="M152" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="153" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="14"/>
       <c r="B153" s="18">
-        <v>78746</v>
+        <v>78751</v>
       </c>
       <c r="C153" s="19">
         <v>44504</v>
       </c>
-      <c r="D153" s="20">
-        <v>60</v>
+      <c r="D153" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="E153" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F153" s="22" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="G153" s="29" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="H153" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I153" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J153" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="I153" s="24">
+        <v>44502</v>
+      </c>
+      <c r="J153" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K153" s="29"/>
-      <c r="L153" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M153" s="27"/>
+      <c r="L153" s="26"/>
+      <c r="M153" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="154" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="14"/>
       <c r="B154" s="18">
-        <v>78745</v>
+        <v>78750</v>
       </c>
       <c r="C154" s="19">
         <v>44504</v>
       </c>
       <c r="D154" s="20">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E154" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F154" s="22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G154" s="29" t="s">
         <v>75</v>
       </c>
       <c r="H154" s="23" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="I154" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J154" s="25"/>
       <c r="K154" s="29"/>
       <c r="L154" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M154" s="27"/>
     </row>
     <row r="155" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="14"/>
       <c r="B155" s="18">
-        <v>78744</v>
-      </c>
-      <c r="C155" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D155" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E155" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F155" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G155" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="H155" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I155" s="24">
-        <v>44497</v>
-      </c>
+        <v>78749</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D155" s="20"/>
+      <c r="E155" s="21"/>
+      <c r="F155" s="22"/>
+      <c r="G155" s="29"/>
+      <c r="H155" s="23"/>
+      <c r="I155" s="24"/>
       <c r="J155" s="25"/>
       <c r="K155" s="29"/>
       <c r="L155" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M155" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M155" s="27"/>
     </row>
     <row r="156" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="14"/>
       <c r="B156" s="18">
-        <v>78743</v>
+        <v>78748</v>
       </c>
       <c r="C156" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D156" s="20" t="s">
-        <v>58</v>
+        <v>44504</v>
+      </c>
+      <c r="D156" s="20">
+        <v>40</v>
       </c>
       <c r="E156" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F156" s="22" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="G156" s="29" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="H156" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I156" s="24">
-        <v>44497</v>
-      </c>
-      <c r="J156" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I156" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J156" s="25"/>
       <c r="K156" s="29"/>
-      <c r="L156" s="26"/>
-      <c r="M156" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L156" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M156" s="27"/>
     </row>
     <row r="157" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="14"/>
       <c r="B157" s="18">
-        <v>78742</v>
+        <v>78747</v>
       </c>
       <c r="C157" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D157" s="20" t="s">
-        <v>53</v>
+        <v>44504</v>
+      </c>
+      <c r="D157" s="20">
+        <v>70</v>
       </c>
       <c r="E157" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F157" s="22" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="G157" s="29" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="H157" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I157" s="24">
-        <v>44498</v>
-      </c>
-      <c r="J157" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I157" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J157" s="25"/>
       <c r="K157" s="29"/>
-      <c r="L157" s="26"/>
-      <c r="M157" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L157" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M157" s="27"/>
     </row>
     <row r="158" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="14"/>
       <c r="B158" s="18">
-        <v>78741</v>
+        <v>78746</v>
       </c>
       <c r="C158" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D158" s="20" t="s">
-        <v>51</v>
+        <v>44504</v>
+      </c>
+      <c r="D158" s="20">
+        <v>60</v>
       </c>
       <c r="E158" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F158" s="22" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="G158" s="29" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="H158" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I158" s="24">
-        <v>44501</v>
-      </c>
-      <c r="J158" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I158" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J158" s="25"/>
       <c r="K158" s="29"/>
-      <c r="L158" s="26"/>
-      <c r="M158" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L158" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M158" s="27"/>
     </row>
     <row r="159" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="14"/>
       <c r="B159" s="18">
-        <v>78740</v>
+        <v>78745</v>
       </c>
       <c r="C159" s="19">
-        <v>44503</v>
-      </c>
-      <c r="D159" s="20" t="s">
-        <v>52</v>
+        <v>44504</v>
+      </c>
+      <c r="D159" s="20">
+        <v>10</v>
       </c>
       <c r="E159" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F159" s="22" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="G159" s="29" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="H159" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I159" s="24">
-        <v>44497</v>
-      </c>
-      <c r="J159" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I159" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J159" s="25"/>
       <c r="K159" s="29"/>
-      <c r="L159" s="26"/>
-      <c r="M159" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="L159" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M159" s="27"/>
     </row>
     <row r="160" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="14"/>
       <c r="B160" s="18">
-        <v>78739</v>
+        <v>78744</v>
       </c>
       <c r="C160" s="19">
         <v>44503</v>
       </c>
       <c r="D160" s="20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E160" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F160" s="22" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="G160" s="29" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="H160" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I160" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J160" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I160" s="24">
+        <v>44497</v>
+      </c>
+      <c r="J160" s="25"/>
       <c r="K160" s="29"/>
-      <c r="L160" s="26"/>
+      <c r="L160" s="26" t="s">
+        <v>71</v>
+      </c>
       <c r="M160" s="27" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="14"/>
       <c r="B161" s="18">
-        <v>78738</v>
+        <v>78743</v>
       </c>
       <c r="C161" s="19">
         <v>44503</v>
       </c>
       <c r="D161" s="20" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E161" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F161" s="22" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G161" s="29" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H161" s="23" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I161" s="24">
-        <v>44500</v>
+        <v>44497</v>
       </c>
       <c r="J161" s="25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K161" s="29"/>
       <c r="L161" s="26"/>
       <c r="M161" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="14"/>
       <c r="B162" s="18">
-        <v>78737</v>
+        <v>78742</v>
       </c>
       <c r="C162" s="19">
         <v>44503</v>
       </c>
       <c r="D162" s="20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E162" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F162" s="22" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G162" s="29" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H162" s="23" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I162" s="24">
-        <v>44499</v>
-      </c>
-      <c r="J162" s="25"/>
+        <v>44498</v>
+      </c>
+      <c r="J162" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K162" s="29"/>
-      <c r="L162" s="26" t="s">
-        <v>69</v>
-      </c>
+      <c r="L162" s="26"/>
       <c r="M162" s="27" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="14"/>
       <c r="B163" s="18">
-        <v>78736</v>
+        <v>78741</v>
       </c>
       <c r="C163" s="19">
         <v>44503</v>
       </c>
-      <c r="D163" s="20">
-        <v>60</v>
+      <c r="D163" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="E163" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F163" s="22" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G163" s="29" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="H163" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I163" s="24" t="s">
-        <v>75</v>
+        <v>37</v>
+      </c>
+      <c r="I163" s="24">
+        <v>44501</v>
       </c>
       <c r="J163" s="25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K163" s="29"/>
       <c r="L163" s="26"/>
       <c r="M163" s="27" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="164" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="14"/>
       <c r="B164" s="18">
-        <v>78735</v>
+        <v>78740</v>
       </c>
       <c r="C164" s="19">
         <v>44503</v>
       </c>
-      <c r="D164" s="20">
-        <v>20</v>
+      <c r="D164" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E164" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F164" s="22" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G164" s="29" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="H164" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I164" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J164" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="I164" s="24">
+        <v>44497</v>
+      </c>
+      <c r="J164" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K164" s="29"/>
-      <c r="L164" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M164" s="27"/>
+      <c r="L164" s="26"/>
+      <c r="M164" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="165" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="14"/>
       <c r="B165" s="18">
-        <v>78734</v>
+        <v>78739</v>
       </c>
       <c r="C165" s="19">
         <v>44503</v>
       </c>
-      <c r="D165" s="20">
-        <v>80</v>
+      <c r="D165" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="E165" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F165" s="22" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="G165" s="29" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="H165" s="23" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="I165" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J165" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="J165" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K165" s="29"/>
-      <c r="L165" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M165" s="27"/>
+      <c r="L165" s="26"/>
+      <c r="M165" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="166" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="14"/>
       <c r="B166" s="18">
-        <v>78733</v>
+        <v>78738</v>
       </c>
       <c r="C166" s="19">
         <v>44503</v>
       </c>
-      <c r="D166" s="20">
-        <v>10</v>
+      <c r="D166" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="E166" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F166" s="22" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="G166" s="29" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="H166" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="I166" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J166" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="I166" s="24">
+        <v>44500</v>
+      </c>
+      <c r="J166" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K166" s="29"/>
-      <c r="L166" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M166" s="27"/>
+      <c r="L166" s="26"/>
+      <c r="M166" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="167" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="14"/>
       <c r="B167" s="18">
-        <v>78732</v>
+        <v>78737</v>
       </c>
       <c r="C167" s="19">
         <v>44503</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E167" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F167" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G167" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F167" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G167" s="29" t="s">
-        <v>73</v>
-      </c>
       <c r="H167" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I167" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J167" s="25" t="s">
-        <v>69</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I167" s="24">
+        <v>44499</v>
+      </c>
+      <c r="J167" s="25"/>
       <c r="K167" s="29"/>
-      <c r="L167" s="26"/>
+      <c r="L167" s="26" t="s">
+        <v>71</v>
+      </c>
       <c r="M167" s="27" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="14"/>
       <c r="B168" s="18">
-        <v>78731</v>
+        <v>78736</v>
       </c>
       <c r="C168" s="19">
         <v>44503</v>
       </c>
-      <c r="D168" s="20" t="s">
-        <v>14</v>
+      <c r="D168" s="20">
+        <v>60</v>
       </c>
       <c r="E168" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F168" s="22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G168" s="29" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H168" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I168" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J168" s="25"/>
+        <v>77</v>
+      </c>
+      <c r="J168" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K168" s="29"/>
-      <c r="L168" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M168" s="27"/>
+      <c r="L168" s="26"/>
+      <c r="M168" s="27" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="169" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="14"/>
       <c r="B169" s="18">
-        <v>78730</v>
+        <v>78735</v>
       </c>
       <c r="C169" s="19">
         <v>44503</v>
       </c>
-      <c r="D169" s="20" t="s">
-        <v>14</v>
+      <c r="D169" s="20">
+        <v>20</v>
       </c>
       <c r="E169" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F169" s="22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G169" s="29" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H169" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I169" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J169" s="25"/>
       <c r="K169" s="29"/>
       <c r="L169" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M169" s="27"/>
     </row>
     <row r="170" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="14"/>
       <c r="B170" s="18">
-        <v>78729</v>
+        <v>78734</v>
       </c>
       <c r="C170" s="19">
         <v>44503</v>
       </c>
-      <c r="D170" s="20" t="s">
-        <v>14</v>
+      <c r="D170" s="20">
+        <v>80</v>
       </c>
       <c r="E170" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F170" s="22" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G170" s="29" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H170" s="23" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I170" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J170" s="25"/>
       <c r="K170" s="29"/>
       <c r="L170" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M170" s="27"/>
     </row>
     <row r="171" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="14"/>
       <c r="B171" s="18">
-        <v>78728</v>
+        <v>78733</v>
       </c>
       <c r="C171" s="19">
         <v>44503</v>
       </c>
       <c r="D171" s="20">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E171" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F171" s="22" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G171" s="29" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H171" s="23" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I171" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J171" s="25"/>
       <c r="K171" s="29"/>
       <c r="L171" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M171" s="27"/>
     </row>
     <row r="172" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="14"/>
       <c r="B172" s="18">
-        <v>78727</v>
+        <v>78732</v>
       </c>
       <c r="C172" s="19">
         <v>44503</v>
       </c>
-      <c r="D172" s="20">
-        <v>50</v>
+      <c r="D172" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E172" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F172" s="22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G172" s="29" t="s">
         <v>75</v>
       </c>
       <c r="H172" s="23" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I172" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J172" s="25"/>
+        <v>77</v>
+      </c>
+      <c r="J172" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K172" s="29"/>
-      <c r="L172" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M172" s="27"/>
+      <c r="L172" s="26"/>
+      <c r="M172" s="27" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="173" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="14"/>
       <c r="B173" s="18">
-        <v>78726</v>
+        <v>78731</v>
       </c>
       <c r="C173" s="19">
         <v>44503</v>
       </c>
-      <c r="D173" s="20">
-        <v>10</v>
+      <c r="D173" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E173" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F173" s="22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G173" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H173" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I173" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J173" s="25"/>
       <c r="K173" s="29"/>
       <c r="L173" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M173" s="27"/>
     </row>
     <row r="174" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="14"/>
       <c r="B174" s="18">
-        <v>78725</v>
+        <v>78730</v>
       </c>
       <c r="C174" s="19">
         <v>44503</v>
       </c>
-      <c r="D174" s="20">
-        <v>10</v>
+      <c r="D174" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E174" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F174" s="22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G174" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H174" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I174" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J174" s="25"/>
       <c r="K174" s="29"/>
       <c r="L174" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M174" s="27"/>
     </row>
     <row r="175" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="14"/>
       <c r="B175" s="18">
-        <v>78724</v>
+        <v>78729</v>
       </c>
       <c r="C175" s="19">
         <v>44503</v>
       </c>
-      <c r="D175" s="20">
-        <v>50</v>
+      <c r="D175" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E175" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F175" s="22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G175" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H175" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I175" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J175" s="25"/>
       <c r="K175" s="29"/>
       <c r="L175" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M175" s="27"/>
     </row>
     <row r="176" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="14"/>
       <c r="B176" s="18">
-        <v>78723</v>
+        <v>78728</v>
       </c>
       <c r="C176" s="19">
         <v>44503</v>
@@ -8861,396 +8842,394 @@
         <v>30</v>
       </c>
       <c r="E176" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F176" s="22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G176" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H176" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I176" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J176" s="25"/>
       <c r="K176" s="29"/>
       <c r="L176" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M176" s="27"/>
     </row>
     <row r="177" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="14"/>
       <c r="B177" s="18">
-        <v>78722</v>
+        <v>78727</v>
       </c>
       <c r="C177" s="19">
         <v>44503</v>
       </c>
-      <c r="D177" s="20" t="s">
-        <v>14</v>
+      <c r="D177" s="20">
+        <v>50</v>
       </c>
       <c r="E177" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F177" s="22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G177" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H177" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I177" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J177" s="25"/>
       <c r="K177" s="29"/>
       <c r="L177" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M177" s="27"/>
     </row>
     <row r="178" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="14"/>
       <c r="B178" s="18">
-        <v>78721</v>
+        <v>78726</v>
       </c>
       <c r="C178" s="19">
         <v>44503</v>
       </c>
       <c r="D178" s="20">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E178" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F178" s="22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G178" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H178" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I178" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J178" s="25"/>
       <c r="K178" s="29"/>
       <c r="L178" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M178" s="27"/>
     </row>
     <row r="179" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="14"/>
       <c r="B179" s="18">
-        <v>78720</v>
+        <v>78725</v>
       </c>
       <c r="C179" s="19">
         <v>44503</v>
       </c>
       <c r="D179" s="20">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E179" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F179" s="22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G179" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H179" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I179" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J179" s="25"/>
       <c r="K179" s="29"/>
       <c r="L179" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M179" s="27"/>
     </row>
     <row r="180" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="14"/>
       <c r="B180" s="18">
-        <v>78719</v>
+        <v>78724</v>
       </c>
       <c r="C180" s="19">
-        <v>44502</v>
-      </c>
-      <c r="D180" s="20" t="s">
-        <v>52</v>
+        <v>44503</v>
+      </c>
+      <c r="D180" s="20">
+        <v>50</v>
       </c>
       <c r="E180" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F180" s="22" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="G180" s="29" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="H180" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I180" s="24">
-        <v>44493</v>
+        <v>77</v>
+      </c>
+      <c r="I180" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J180" s="25"/>
       <c r="K180" s="29"/>
       <c r="L180" s="26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M180" s="27"/>
     </row>
     <row r="181" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="14"/>
       <c r="B181" s="18">
-        <v>78718</v>
+        <v>78723</v>
       </c>
       <c r="C181" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D181" s="20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E181" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F181" s="22" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G181" s="29" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="H181" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I181" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J181" s="25"/>
       <c r="K181" s="29"/>
       <c r="L181" s="26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M181" s="27"/>
     </row>
     <row r="182" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="14"/>
       <c r="B182" s="18">
-        <v>78717</v>
+        <v>78722</v>
       </c>
       <c r="C182" s="19">
-        <v>44502</v>
-      </c>
-      <c r="D182" s="20">
-        <v>30</v>
+        <v>44503</v>
+      </c>
+      <c r="D182" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="E182" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F182" s="22" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G182" s="29" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="H182" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I182" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J182" s="25"/>
       <c r="K182" s="29"/>
       <c r="L182" s="26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M182" s="27"/>
     </row>
     <row r="183" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="14"/>
       <c r="B183" s="18">
-        <v>78716</v>
+        <v>78721</v>
       </c>
       <c r="C183" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D183" s="20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E183" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F183" s="22" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G183" s="29" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="H183" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I183" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J183" s="25"/>
       <c r="K183" s="29"/>
       <c r="L183" s="26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M183" s="27"/>
     </row>
     <row r="184" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="14"/>
       <c r="B184" s="18">
-        <v>78715</v>
+        <v>78720</v>
       </c>
       <c r="C184" s="19">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D184" s="20">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E184" s="21" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F184" s="22" t="s">
         <v>72</v>
       </c>
       <c r="G184" s="29" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H184" s="23" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I184" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J184" s="25" t="s">
-        <v>76</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J184" s="25"/>
       <c r="K184" s="29"/>
-      <c r="L184" s="26"/>
-      <c r="M184" s="27" t="s">
-        <v>77</v>
-      </c>
+      <c r="L184" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M184" s="27"/>
     </row>
     <row r="185" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="14"/>
       <c r="B185" s="18">
-        <v>78714</v>
+        <v>78719</v>
       </c>
       <c r="C185" s="19">
         <v>44502</v>
       </c>
-      <c r="D185" s="20">
-        <v>40</v>
+      <c r="D185" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E185" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F185" s="22" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="G185" s="29" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="H185" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I185" s="24" t="s">
-        <v>75</v>
+        <v>12</v>
+      </c>
+      <c r="I185" s="24">
+        <v>44493</v>
       </c>
       <c r="J185" s="25"/>
       <c r="K185" s="29"/>
       <c r="L185" s="26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M185" s="27"/>
     </row>
     <row r="186" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="14"/>
       <c r="B186" s="18">
-        <v>78713</v>
+        <v>78718</v>
       </c>
       <c r="C186" s="19">
         <v>44502</v>
       </c>
       <c r="D186" s="20">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E186" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F186" s="22" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G186" s="29" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H186" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I186" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J186" s="25"/>
       <c r="K186" s="29"/>
       <c r="L186" s="26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M186" s="27"/>
     </row>
     <row r="187" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="14"/>
       <c r="B187" s="18">
-        <v>78712</v>
+        <v>78717</v>
       </c>
       <c r="C187" s="19">
         <v>44502</v>
       </c>
       <c r="D187" s="20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E187" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F187" s="22" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G187" s="29" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="H187" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I187" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J187" s="25"/>
       <c r="K187" s="29"/>
       <c r="L187" s="26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M187" s="27"/>
     </row>
     <row r="188" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="14"/>
       <c r="B188" s="18">
-        <v>78711</v>
+        <v>78716</v>
       </c>
       <c r="C188" s="19">
         <v>44502</v>
@@ -9259,40 +9238,40 @@
         <v>30</v>
       </c>
       <c r="E188" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F188" s="22" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G188" s="29" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H188" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I188" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J188" s="25"/>
       <c r="K188" s="29"/>
       <c r="L188" s="26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M188" s="27"/>
     </row>
     <row r="189" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="14"/>
       <c r="B189" s="18">
-        <v>78710</v>
+        <v>78715</v>
       </c>
       <c r="C189" s="19">
         <v>44502</v>
       </c>
       <c r="D189" s="20">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E189" s="21" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="F189" s="22" t="s">
         <v>74</v>
@@ -9301,116 +9280,283 @@
         <v>75</v>
       </c>
       <c r="H189" s="23" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I189" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J189" s="25"/>
+        <v>77</v>
+      </c>
+      <c r="J189" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="K189" s="29"/>
-      <c r="L189" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="M189" s="27"/>
+      <c r="L189" s="26"/>
+      <c r="M189" s="27" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="190" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="14"/>
       <c r="B190" s="18">
-        <v>78709</v>
+        <v>78714</v>
       </c>
       <c r="C190" s="19">
         <v>44502</v>
       </c>
       <c r="D190" s="20">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E190" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F190" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G190" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H190" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I190" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J190" s="25"/>
       <c r="K190" s="29"/>
       <c r="L190" s="26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M190" s="27"/>
     </row>
     <row r="191" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="14"/>
       <c r="B191" s="18">
-        <v>78708</v>
+        <v>78713</v>
       </c>
       <c r="C191" s="19">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="D191" s="20">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E191" s="21" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F191" s="22" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G191" s="29" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H191" s="23" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I191" s="24" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J191" s="25"/>
       <c r="K191" s="29"/>
       <c r="L191" s="26" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M191" s="27"/>
     </row>
     <row r="192" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="14"/>
       <c r="B192" s="18">
-        <v>78707</v>
+        <v>78712</v>
       </c>
       <c r="C192" s="19">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="D192" s="20">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E192" s="21" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F192" s="22" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G192" s="29" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H192" s="23" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I192" s="24" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J192" s="25"/>
       <c r="K192" s="29"/>
       <c r="L192" s="26" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M192" s="27"/>
+    </row>
+    <row r="193" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="14"/>
+      <c r="B193" s="18">
+        <v>78711</v>
+      </c>
+      <c r="C193" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D193" s="20">
+        <v>30</v>
+      </c>
+      <c r="E193" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F193" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G193" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H193" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I193" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J193" s="25"/>
+      <c r="K193" s="29"/>
+      <c r="L193" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="M193" s="27"/>
+    </row>
+    <row r="194" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="14"/>
+      <c r="B194" s="18">
+        <v>78710</v>
+      </c>
+      <c r="C194" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D194" s="20">
+        <v>70</v>
+      </c>
+      <c r="E194" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F194" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G194" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H194" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I194" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J194" s="25"/>
+      <c r="K194" s="29"/>
+      <c r="L194" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="M194" s="27"/>
+    </row>
+    <row r="195" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="14"/>
+      <c r="B195" s="18">
+        <v>78709</v>
+      </c>
+      <c r="C195" s="19">
+        <v>44502</v>
+      </c>
+      <c r="D195" s="20">
+        <v>10</v>
+      </c>
+      <c r="E195" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F195" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G195" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H195" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I195" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J195" s="25"/>
+      <c r="K195" s="29"/>
+      <c r="L195" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="M195" s="27"/>
+    </row>
+    <row r="196" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="14"/>
+      <c r="B196" s="18">
+        <v>78708</v>
+      </c>
+      <c r="C196" s="19">
+        <v>44501</v>
+      </c>
+      <c r="D196" s="20">
+        <v>30</v>
+      </c>
+      <c r="E196" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F196" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G196" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H196" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I196" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J196" s="25"/>
+      <c r="K196" s="29"/>
+      <c r="L196" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M196" s="27"/>
+    </row>
+    <row r="197" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="14"/>
+      <c r="B197" s="18">
+        <v>78707</v>
+      </c>
+      <c r="C197" s="19">
+        <v>44501</v>
+      </c>
+      <c r="D197" s="20">
+        <v>80</v>
+      </c>
+      <c r="E197" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F197" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G197" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H197" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I197" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J197" s="25"/>
+      <c r="K197" s="29"/>
+      <c r="L197" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M197" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/corona-kanjajokyou.xlsx
+++ b/corona-kanjajokyou.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m002411\Desktop\緊急避難（コロナ）\★HP・Twitter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Lb16z0190\広報戦略\11Twitter対応について\98 コロナ(毎日の発生状況)\HP作業用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1850575-7268-49E4-B6FE-3EB020831DBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEE2FE0E-5DE0-40F0-8CBD-A76350986473}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$200</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$208</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="172">
   <si>
     <t>非公表</t>
   </si>
@@ -1007,7 +1007,25 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>令和2年3月1日以降の総数 78,645件 ※欠番256件（医療機関での発生届の取り下げ等）</t>
+    <t>神戸</t>
+    <rPh sb="0" eb="2">
+      <t>コウベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>令和2年3月1日以降の総数 78,653件 ※欠番256件（医療機関での発生届の取り下げ等）</t>
   </si>
 </sst>
 </file>
@@ -2386,7 +2404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2470,6 +2488,12 @@
     </xf>
     <xf numFmtId="176" fontId="47" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -3028,13 +3052,13 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M200"/>
+  <dimension ref="A1:M208"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3065,11 +3089,11 @@
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="31">
+      <c r="J1" s="33">
         <f ca="1">TODAY()-1</f>
-        <v>44520</v>
-      </c>
-      <c r="K1" s="31"/>
+        <v>44521</v>
+      </c>
+      <c r="K1" s="33"/>
       <c r="L1" s="4" t="s">
         <v>39</v>
       </c>
@@ -3104,54 +3128,54 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="29" t="s">
+      <c r="K4" s="45"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="31" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="41"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="14" t="s">
         <v>50</v>
       </c>
@@ -3161,305 +3185,317 @@
       <c r="L5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="M5" s="30"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="17">
-        <v>78901</v>
+        <v>78909</v>
       </c>
       <c r="C6" s="18">
-        <v>44520</v>
-      </c>
-      <c r="D6" s="19">
-        <v>50</v>
+        <v>44521</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>80</v>
+        <v>168</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>169</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26" t="s">
-        <v>165</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="17">
-        <v>78900</v>
+        <v>78908</v>
       </c>
       <c r="C7" s="18">
-        <v>44520</v>
+        <v>44521</v>
       </c>
       <c r="D7" s="19">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>82</v>
+        <v>168</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>169</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="J7" s="24"/>
-      <c r="K7" s="28"/>
+      <c r="K7" s="30"/>
       <c r="L7" s="25" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="17">
-        <v>78899</v>
+        <v>78907</v>
       </c>
       <c r="C8" s="18">
-        <v>44520</v>
+        <v>44521</v>
       </c>
       <c r="D8" s="19">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>164</v>
+        <v>168</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>169</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="J8" s="24"/>
-      <c r="K8" s="28"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="25" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="17">
-        <v>78898</v>
+        <v>78906</v>
       </c>
       <c r="C9" s="18">
-        <v>44519</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>56</v>
+        <v>44521</v>
+      </c>
+      <c r="D9" s="19">
+        <v>60</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>11</v>
+        <v>168</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>169</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="23">
-        <v>44509</v>
+        <v>169</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="J9" s="24"/>
-      <c r="K9" s="28"/>
+      <c r="K9" s="30"/>
       <c r="L9" s="25" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="17">
-        <v>78897</v>
+        <v>78905</v>
       </c>
       <c r="C10" s="18">
-        <v>44519</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>58</v>
+        <v>44521</v>
+      </c>
+      <c r="D10" s="19">
+        <v>30</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>36</v>
+        <v>168</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>169</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>8</v>
+        <v>169</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="J10" s="24"/>
-      <c r="K10" s="28"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="25" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="M10" s="26"/>
     </row>
     <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="17">
-        <v>78896</v>
+        <v>78904</v>
       </c>
       <c r="C11" s="18">
-        <v>44519</v>
+        <v>44521</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>20</v>
+        <v>168</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>169</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="23">
-        <v>44500</v>
+        <v>169</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="J11" s="24"/>
-      <c r="K11" s="28"/>
+      <c r="K11" s="30"/>
       <c r="L11" s="25" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
       <c r="B12" s="17">
-        <v>78895</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
+        <v>78903</v>
+      </c>
+      <c r="C12" s="18">
+        <v>44521</v>
+      </c>
+      <c r="D12" s="19">
+        <v>30</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>169</v>
+      </c>
       <c r="J12" s="24"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="25"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="25" t="s">
+        <v>170</v>
+      </c>
       <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="17">
-        <v>78894</v>
+        <v>78902</v>
       </c>
       <c r="C13" s="18">
-        <v>44519</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>160</v>
+        <v>44521</v>
+      </c>
+      <c r="D13" s="19">
+        <v>20</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>77</v>
+        <v>168</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>169</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="J13" s="24"/>
-      <c r="K13" s="28"/>
+      <c r="K13" s="30"/>
       <c r="L13" s="25" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="M13" s="26"/>
     </row>
     <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="17">
-        <v>78893</v>
+        <v>78901</v>
       </c>
       <c r="C14" s="18">
-        <v>44518</v>
+        <v>44520</v>
       </c>
       <c r="D14" s="19">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>155</v>
+        <v>67</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>80</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="I14" s="23">
-        <v>44516</v>
+        <v>77</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="K14" s="28"/>
+        <v>166</v>
+      </c>
+      <c r="K14" s="29"/>
       <c r="L14" s="25"/>
       <c r="M14" s="26" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="17">
-        <v>78892</v>
+        <v>78900</v>
       </c>
       <c r="C15" s="18">
-        <v>44518</v>
+        <v>44520</v>
       </c>
       <c r="D15" s="19">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>63</v>
@@ -3467,188 +3503,186 @@
       <c r="F15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="29" t="s">
         <v>82</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I15" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="J15" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26" t="s">
-        <v>158</v>
-      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15" s="26"/>
     </row>
     <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="17">
-        <v>78891</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
+        <v>78899</v>
+      </c>
+      <c r="C16" s="18">
+        <v>44520</v>
+      </c>
+      <c r="D16" s="19">
+        <v>20</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>164</v>
+      </c>
       <c r="J16" s="24"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="25"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="25" t="s">
+        <v>166</v>
+      </c>
       <c r="M16" s="26"/>
     </row>
     <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="17">
-        <v>78890</v>
+        <v>78898</v>
       </c>
       <c r="C17" s="18">
-        <v>44517</v>
-      </c>
-      <c r="D17" s="19">
-        <v>70</v>
+        <v>44519</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="I17" s="23">
-        <v>44513</v>
+        <v>44509</v>
       </c>
       <c r="J17" s="24"/>
       <c r="K17" s="28"/>
       <c r="L17" s="25" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="M17" s="26"/>
     </row>
     <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="17">
-        <v>78889</v>
+        <v>78897</v>
       </c>
       <c r="C18" s="18">
-        <v>44517</v>
-      </c>
-      <c r="D18" s="19">
-        <v>70</v>
+        <v>44519</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="J18" s="24"/>
       <c r="K18" s="28"/>
       <c r="L18" s="25" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="M18" s="26"/>
     </row>
     <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
       <c r="B19" s="17">
-        <v>78888</v>
+        <v>78896</v>
       </c>
       <c r="C19" s="18">
-        <v>44517</v>
-      </c>
-      <c r="D19" s="19">
-        <v>10</v>
+        <v>44519</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>77</v>
+        <v>0</v>
+      </c>
+      <c r="I19" s="23">
+        <v>44500</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="28"/>
       <c r="L19" s="25" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="M19" s="26"/>
     </row>
     <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
       <c r="B20" s="17">
-        <v>78887</v>
-      </c>
-      <c r="C20" s="18">
-        <v>44517</v>
-      </c>
-      <c r="D20" s="19">
-        <v>40</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>77</v>
-      </c>
+        <v>78895</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="24"/>
       <c r="K20" s="28"/>
-      <c r="L20" s="25" t="s">
-        <v>71</v>
-      </c>
+      <c r="L20" s="25"/>
       <c r="M20" s="26"/>
     </row>
     <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="17">
-        <v>78886</v>
+        <v>78894</v>
       </c>
       <c r="C21" s="18">
-        <v>44517</v>
-      </c>
-      <c r="D21" s="19">
-        <v>30</v>
+        <v>44519</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>72</v>
@@ -3665,52 +3699,52 @@
       <c r="J21" s="24"/>
       <c r="K21" s="28"/>
       <c r="L21" s="25" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="M21" s="26"/>
     </row>
     <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="17">
-        <v>78885</v>
+        <v>78893</v>
       </c>
       <c r="C22" s="18">
+        <v>44518</v>
+      </c>
+      <c r="D22" s="19">
+        <v>70</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" s="23">
         <v>44516</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="23">
-        <v>44514</v>
-      </c>
       <c r="J22" s="24" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="K22" s="28"/>
       <c r="L22" s="25"/>
       <c r="M22" s="26" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
       <c r="B23" s="17">
-        <v>78884</v>
+        <v>78892</v>
       </c>
       <c r="C23" s="18">
-        <v>44516</v>
+        <v>44518</v>
       </c>
       <c r="D23" s="19">
         <v>20</v>
@@ -3719,84 +3753,70 @@
         <v>63</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="J23" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>159</v>
+      </c>
       <c r="K23" s="28"/>
-      <c r="L23" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="M23" s="26"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="26" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="B24" s="17">
-        <v>78883</v>
-      </c>
-      <c r="C24" s="18">
-        <v>44516</v>
-      </c>
-      <c r="D24" s="19">
-        <v>70</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>71</v>
-      </c>
+        <v>78891</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="28"/>
       <c r="L24" s="25"/>
-      <c r="M24" s="26" t="s">
-        <v>154</v>
-      </c>
+      <c r="M24" s="26"/>
     </row>
     <row r="25" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="17">
-        <v>78882</v>
+        <v>78890</v>
       </c>
       <c r="C25" s="18">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="D25" s="19">
         <v>70</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>151</v>
+        <v>107</v>
+      </c>
+      <c r="I25" s="23">
+        <v>44513</v>
       </c>
       <c r="J25" s="24"/>
       <c r="K25" s="28"/>
@@ -3808,98 +3828,94 @@
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="17">
-        <v>78881</v>
+        <v>78889</v>
       </c>
       <c r="C26" s="18">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="D26" s="19">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="J26" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="24"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K26" s="28"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="M26" s="26"/>
     </row>
     <row r="27" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="17">
-        <v>78880</v>
+        <v>78888</v>
       </c>
       <c r="C27" s="18">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="D27" s="19">
         <v>10</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="J27" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="24"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K27" s="28"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="13"/>
       <c r="B28" s="17">
-        <v>78879</v>
+        <v>78887</v>
       </c>
       <c r="C28" s="18">
-        <v>44516</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>14</v>
+        <v>44517</v>
+      </c>
+      <c r="D28" s="19">
+        <v>40</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>72</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="J28" s="24"/>
       <c r="K28" s="28"/>
@@ -3911,13 +3927,13 @@
     <row r="29" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
       <c r="B29" s="17">
-        <v>78878</v>
+        <v>78886</v>
       </c>
       <c r="C29" s="18">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="D29" s="19">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>28</v>
@@ -3926,13 +3942,13 @@
         <v>72</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="J29" s="24"/>
       <c r="K29" s="28"/>
@@ -3944,7 +3960,7 @@
     <row r="30" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
       <c r="B30" s="17">
-        <v>78877</v>
+        <v>78885</v>
       </c>
       <c r="C30" s="18">
         <v>44516</v>
@@ -3953,46 +3969,48 @@
         <v>14</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="J30" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="23">
+        <v>44514</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="K30" s="28"/>
-      <c r="L30" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="M30" s="26"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="26" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="13"/>
       <c r="B31" s="17">
-        <v>78876</v>
+        <v>78884</v>
       </c>
       <c r="C31" s="18">
         <v>44516</v>
       </c>
       <c r="D31" s="19">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H31" s="22" t="s">
         <v>151</v>
@@ -4010,22 +4028,22 @@
     <row r="32" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13"/>
       <c r="B32" s="17">
-        <v>78875</v>
+        <v>78883</v>
       </c>
       <c r="C32" s="18">
         <v>44516</v>
       </c>
       <c r="D32" s="19">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H32" s="22" t="s">
         <v>151</v>
@@ -4033,32 +4051,34 @@
       <c r="I32" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="J32" s="24"/>
+      <c r="J32" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="K32" s="28"/>
-      <c r="L32" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="M32" s="26"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="26" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="33" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="13"/>
       <c r="B33" s="17">
-        <v>78874</v>
+        <v>78882</v>
       </c>
       <c r="C33" s="18">
         <v>44516</v>
       </c>
       <c r="D33" s="19">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H33" s="22" t="s">
         <v>151</v>
@@ -4076,162 +4096,164 @@
     <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="13"/>
       <c r="B34" s="17">
-        <v>78873</v>
+        <v>78881</v>
       </c>
       <c r="C34" s="18">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="D34" s="19">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="I34" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J34" s="24"/>
+        <v>152</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="K34" s="28"/>
-      <c r="L34" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="M34" s="26"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="26" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="13"/>
       <c r="B35" s="17">
-        <v>78872</v>
+        <v>78880</v>
       </c>
       <c r="C35" s="18">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="D35" s="19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J35" s="24"/>
+        <v>153</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="K35" s="28"/>
-      <c r="L35" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="M35" s="26"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="26" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="36" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="13"/>
       <c r="B36" s="17">
-        <v>78871</v>
+        <v>78879</v>
       </c>
       <c r="C36" s="18">
-        <v>44515</v>
-      </c>
-      <c r="D36" s="19">
-        <v>50</v>
+        <v>44516</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>144</v>
+        <v>151</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="J36" s="24"/>
       <c r="K36" s="28"/>
       <c r="L36" s="25" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="M36" s="26"/>
     </row>
     <row r="37" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="13"/>
       <c r="B37" s="17">
-        <v>78870</v>
+        <v>78878</v>
       </c>
       <c r="C37" s="18">
-        <v>44514</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>14</v>
+        <v>44516</v>
+      </c>
+      <c r="D37" s="19">
+        <v>10</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="23">
-        <v>44512</v>
-      </c>
-      <c r="J37" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="28"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="M37" s="26"/>
     </row>
     <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="13"/>
       <c r="B38" s="17">
-        <v>78869</v>
+        <v>78877</v>
       </c>
       <c r="C38" s="18">
-        <v>44514</v>
-      </c>
-      <c r="D38" s="19">
-        <v>30</v>
+        <v>44516</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="J38" s="24"/>
       <c r="K38" s="28"/>
@@ -4243,205 +4265,211 @@
     <row r="39" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
       <c r="B39" s="17">
-        <v>78868</v>
+        <v>78876</v>
       </c>
       <c r="C39" s="18">
-        <v>44514</v>
+        <v>44516</v>
       </c>
       <c r="D39" s="19">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="J39" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="J39" s="24"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="28"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="26" t="s">
-        <v>136</v>
-      </c>
+      <c r="M39" s="26"/>
     </row>
     <row r="40" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
       <c r="B40" s="17">
-        <v>78867</v>
+        <v>78875</v>
       </c>
       <c r="C40" s="18">
-        <v>44514</v>
+        <v>44516</v>
       </c>
       <c r="D40" s="19">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="I40" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="J40" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="J40" s="24"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K40" s="28"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="26" t="s">
-        <v>136</v>
-      </c>
+      <c r="M40" s="26"/>
     </row>
     <row r="41" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
       <c r="B41" s="17">
-        <v>78866</v>
+        <v>78874</v>
       </c>
       <c r="C41" s="18">
-        <v>44514</v>
+        <v>44516</v>
       </c>
       <c r="D41" s="19">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="J41" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="J41" s="24"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K41" s="28"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="26" t="s">
-        <v>136</v>
-      </c>
+      <c r="M41" s="26"/>
     </row>
     <row r="42" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="17">
-        <v>78865</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23"/>
+        <v>78873</v>
+      </c>
+      <c r="C42" s="18">
+        <v>44515</v>
+      </c>
+      <c r="D42" s="19">
+        <v>50</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="I42" s="27" t="s">
+        <v>144</v>
+      </c>
       <c r="J42" s="24"/>
       <c r="K42" s="28"/>
-      <c r="L42" s="25"/>
+      <c r="L42" s="25" t="s">
+        <v>145</v>
+      </c>
       <c r="M42" s="26"/>
     </row>
     <row r="43" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="17">
-        <v>78864</v>
+        <v>78872</v>
       </c>
       <c r="C43" s="18">
-        <v>44514</v>
+        <v>44515</v>
       </c>
       <c r="D43" s="19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="H43" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I43" s="28" t="s">
-        <v>77</v>
+        <v>32</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="27" t="s">
+        <v>144</v>
       </c>
       <c r="J43" s="24"/>
       <c r="K43" s="28"/>
       <c r="L43" s="25" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="M43" s="26"/>
     </row>
     <row r="44" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
       <c r="B44" s="17">
-        <v>78863</v>
+        <v>78871</v>
       </c>
       <c r="C44" s="18">
-        <v>44513</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>59</v>
+        <v>44515</v>
+      </c>
+      <c r="D44" s="19">
+        <v>50</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I44" s="23">
-        <v>44511</v>
-      </c>
-      <c r="J44" s="24" t="s">
-        <v>137</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J44" s="24"/>
       <c r="K44" s="28"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="26" t="s">
-        <v>136</v>
-      </c>
+      <c r="L44" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="M44" s="26"/>
     </row>
     <row r="45" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="13"/>
       <c r="B45" s="17">
-        <v>78862</v>
+        <v>78870</v>
       </c>
       <c r="C45" s="18">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>29</v>
@@ -4453,253 +4481,235 @@
         <v>27</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I45" s="23">
-        <v>44508</v>
-      </c>
-      <c r="J45" s="24"/>
+        <v>44512</v>
+      </c>
+      <c r="J45" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="K45" s="28"/>
-      <c r="L45" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="M45" s="26"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="26" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="46" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="13"/>
       <c r="B46" s="17">
-        <v>78861</v>
+        <v>78869</v>
       </c>
       <c r="C46" s="18">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="D46" s="19">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="J46" s="24" t="s">
-        <v>137</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J46" s="24"/>
       <c r="K46" s="28"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="26" t="s">
-        <v>135</v>
-      </c>
+      <c r="L46" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M46" s="26"/>
     </row>
     <row r="47" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="13"/>
       <c r="B47" s="17">
-        <v>78860</v>
+        <v>78868</v>
       </c>
       <c r="C47" s="18">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="D47" s="19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="K47" s="28"/>
       <c r="L47" s="25"/>
       <c r="M47" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="13"/>
       <c r="B48" s="17">
-        <v>78859</v>
+        <v>78867</v>
       </c>
       <c r="C48" s="18">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="D48" s="19">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="K48" s="28"/>
       <c r="L48" s="25"/>
       <c r="M48" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="13"/>
       <c r="B49" s="17">
-        <v>78858</v>
+        <v>78866</v>
       </c>
       <c r="C49" s="18">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="D49" s="19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="K49" s="28"/>
       <c r="L49" s="25"/>
       <c r="M49" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="13"/>
       <c r="B50" s="17">
-        <v>78857</v>
-      </c>
-      <c r="C50" s="18">
-        <v>44513</v>
-      </c>
-      <c r="D50" s="19">
-        <v>20</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="I50" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="J50" s="24" t="s">
-        <v>137</v>
-      </c>
+        <v>78865</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="24"/>
       <c r="K50" s="28"/>
       <c r="L50" s="25"/>
-      <c r="M50" s="26" t="s">
-        <v>135</v>
-      </c>
+      <c r="M50" s="26"/>
     </row>
     <row r="51" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="13"/>
       <c r="B51" s="17">
-        <v>78856</v>
+        <v>78864</v>
       </c>
       <c r="C51" s="18">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="D51" s="19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="H51" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="I51" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="J51" s="24" t="s">
-        <v>137</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J51" s="24"/>
       <c r="K51" s="28"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="26" t="s">
-        <v>135</v>
-      </c>
+      <c r="L51" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M51" s="26"/>
     </row>
     <row r="52" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="13"/>
       <c r="B52" s="17">
-        <v>78855</v>
+        <v>78863</v>
       </c>
       <c r="C52" s="18">
         <v>44513</v>
       </c>
-      <c r="D52" s="19">
-        <v>30</v>
+      <c r="D52" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="I52" s="23" t="s">
-        <v>133</v>
+        <v>0</v>
+      </c>
+      <c r="I52" s="23">
+        <v>44511</v>
       </c>
       <c r="J52" s="24" t="s">
         <v>137</v>
@@ -4707,54 +4717,52 @@
       <c r="K52" s="28"/>
       <c r="L52" s="25"/>
       <c r="M52" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="13"/>
       <c r="B53" s="17">
-        <v>78854</v>
+        <v>78862</v>
       </c>
       <c r="C53" s="18">
         <v>44513</v>
       </c>
-      <c r="D53" s="19">
-        <v>30</v>
+      <c r="D53" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="I53" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="J53" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="23">
+        <v>44508</v>
+      </c>
+      <c r="J53" s="24"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="K53" s="28"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="26" t="s">
-        <v>135</v>
-      </c>
+      <c r="M53" s="26"/>
     </row>
     <row r="54" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="13"/>
       <c r="B54" s="17">
-        <v>78853</v>
+        <v>78861</v>
       </c>
       <c r="C54" s="18">
         <v>44513</v>
       </c>
       <c r="D54" s="19">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>129</v>
@@ -4783,7 +4791,7 @@
     <row r="55" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="13"/>
       <c r="B55" s="17">
-        <v>78852</v>
+        <v>78860</v>
       </c>
       <c r="C55" s="18">
         <v>44513</v>
@@ -4818,13 +4826,13 @@
     <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="13"/>
       <c r="B56" s="17">
-        <v>78851</v>
+        <v>78859</v>
       </c>
       <c r="C56" s="18">
         <v>44513</v>
       </c>
       <c r="D56" s="19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>129</v>
@@ -4836,28 +4844,30 @@
         <v>131</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="I56" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="J56" s="24"/>
+      <c r="J56" s="24" t="s">
+        <v>137</v>
+      </c>
       <c r="K56" s="28"/>
-      <c r="L56" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="M56" s="26"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="26" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="57" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="13"/>
       <c r="B57" s="17">
-        <v>78850</v>
+        <v>78858</v>
       </c>
       <c r="C57" s="18">
         <v>44513</v>
       </c>
       <c r="D57" s="19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>129</v>
@@ -4869,371 +4879,373 @@
         <v>131</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="I57" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="J57" s="24"/>
+      <c r="J57" s="24" t="s">
+        <v>137</v>
+      </c>
       <c r="K57" s="28"/>
-      <c r="L57" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="M57" s="26"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="26" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="58" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="13"/>
       <c r="B58" s="17">
-        <v>78849</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="24"/>
+        <v>78857</v>
+      </c>
+      <c r="C58" s="18">
+        <v>44513</v>
+      </c>
+      <c r="D58" s="19">
+        <v>20</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J58" s="24" t="s">
+        <v>137</v>
+      </c>
       <c r="K58" s="28"/>
       <c r="L58" s="25"/>
-      <c r="M58" s="26"/>
+      <c r="M58" s="26" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="59" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="13"/>
       <c r="B59" s="17">
-        <v>78848</v>
+        <v>78856</v>
       </c>
       <c r="C59" s="18">
         <v>44513</v>
       </c>
       <c r="D59" s="19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>129</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="I59" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="J59" s="24"/>
+      <c r="J59" s="24" t="s">
+        <v>137</v>
+      </c>
       <c r="K59" s="28"/>
-      <c r="L59" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="M59" s="26"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="26" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="60" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="13"/>
       <c r="B60" s="17">
-        <v>78847</v>
+        <v>78855</v>
       </c>
       <c r="C60" s="18">
-        <v>44512</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>53</v>
+        <v>44513</v>
+      </c>
+      <c r="D60" s="19">
+        <v>30</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K60" s="28"/>
       <c r="L60" s="25"/>
       <c r="M60" s="26" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="13"/>
       <c r="B61" s="17">
-        <v>78846</v>
+        <v>78854</v>
       </c>
       <c r="C61" s="18">
-        <v>44512</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>54</v>
+        <v>44513</v>
+      </c>
+      <c r="D61" s="19">
+        <v>30</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I61" s="23">
-        <v>44509</v>
-      </c>
-      <c r="J61" s="24"/>
+        <v>120</v>
+      </c>
+      <c r="I61" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J61" s="24" t="s">
+        <v>137</v>
+      </c>
       <c r="K61" s="28"/>
-      <c r="L61" s="25" t="s">
-        <v>126</v>
-      </c>
+      <c r="L61" s="25"/>
       <c r="M61" s="26" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="13"/>
       <c r="B62" s="17">
-        <v>78845</v>
+        <v>78853</v>
       </c>
       <c r="C62" s="18">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="D62" s="19">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="I62" s="23" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J62" s="24" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K62" s="28"/>
       <c r="L62" s="25"/>
       <c r="M62" s="26" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="13"/>
       <c r="B63" s="17">
-        <v>78844</v>
+        <v>78852</v>
       </c>
       <c r="C63" s="18">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="D63" s="19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K63" s="28"/>
       <c r="L63" s="25"/>
       <c r="M63" s="26" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="13"/>
       <c r="B64" s="17">
-        <v>78843</v>
+        <v>78851</v>
       </c>
       <c r="C64" s="18">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="D64" s="19">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J64" s="24"/>
       <c r="K64" s="28"/>
       <c r="L64" s="25" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M64" s="26"/>
     </row>
     <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="13"/>
       <c r="B65" s="17">
-        <v>78842</v>
+        <v>78850</v>
       </c>
       <c r="C65" s="18">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="D65" s="19">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J65" s="24"/>
       <c r="K65" s="28"/>
       <c r="L65" s="25" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M65" s="26"/>
     </row>
     <row r="66" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="13"/>
       <c r="B66" s="17">
-        <v>78841</v>
-      </c>
-      <c r="C66" s="18">
-        <v>44512</v>
-      </c>
-      <c r="D66" s="19">
-        <v>30</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="G66" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="I66" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="J66" s="24" t="s">
-        <v>126</v>
-      </c>
+        <v>78849</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="19"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="24"/>
       <c r="K66" s="28"/>
       <c r="L66" s="25"/>
-      <c r="M66" s="26" t="s">
-        <v>124</v>
-      </c>
+      <c r="M66" s="26"/>
     </row>
     <row r="67" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="13"/>
       <c r="B67" s="17">
-        <v>78840</v>
+        <v>78848</v>
       </c>
       <c r="C67" s="18">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="D67" s="19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="I67" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="J67" s="24" t="s">
-        <v>126</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="J67" s="24"/>
       <c r="K67" s="28"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="26" t="s">
-        <v>125</v>
-      </c>
+      <c r="L67" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="M67" s="26"/>
     </row>
     <row r="68" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="13"/>
       <c r="B68" s="17">
-        <v>78839</v>
+        <v>78847</v>
       </c>
       <c r="C68" s="18">
         <v>44512</v>
       </c>
-      <c r="D68" s="19">
-        <v>20</v>
+      <c r="D68" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="J68" s="24" t="s">
         <v>126</v>
@@ -5241,459 +5253,461 @@
       <c r="K68" s="28"/>
       <c r="L68" s="25"/>
       <c r="M68" s="26" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="13"/>
       <c r="B69" s="17">
-        <v>78838</v>
+        <v>78846</v>
       </c>
       <c r="C69" s="18">
         <v>44512</v>
       </c>
-      <c r="D69" s="19">
-        <v>30</v>
+      <c r="D69" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I69" s="23" t="s">
-        <v>77</v>
+        <v>7</v>
+      </c>
+      <c r="I69" s="23">
+        <v>44509</v>
       </c>
       <c r="J69" s="24"/>
       <c r="K69" s="28"/>
       <c r="L69" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="M69" s="26"/>
+      <c r="M69" s="26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="70" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="13"/>
       <c r="B70" s="17">
-        <v>78837</v>
+        <v>78845</v>
       </c>
       <c r="C70" s="18">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="D70" s="19">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="I70" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="J70" s="24"/>
+        <v>127</v>
+      </c>
+      <c r="J70" s="24" t="s">
+        <v>126</v>
+      </c>
       <c r="K70" s="28"/>
-      <c r="L70" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="M70" s="26"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="26" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="71" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="13"/>
       <c r="B71" s="17">
-        <v>78836</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="24"/>
+        <v>78844</v>
+      </c>
+      <c r="C71" s="18">
+        <v>44512</v>
+      </c>
+      <c r="D71" s="19">
+        <v>20</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="J71" s="24" t="s">
+        <v>126</v>
+      </c>
       <c r="K71" s="28"/>
       <c r="L71" s="25"/>
-      <c r="M71" s="26"/>
+      <c r="M71" s="26" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="13"/>
       <c r="B72" s="17">
-        <v>78835</v>
+        <v>78843</v>
       </c>
       <c r="C72" s="18">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="D72" s="19">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G72" s="28" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="I72" s="23" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J72" s="24"/>
       <c r="K72" s="28"/>
       <c r="L72" s="25" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="M72" s="26"/>
     </row>
     <row r="73" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="13"/>
       <c r="B73" s="17">
-        <v>78834</v>
+        <v>78842</v>
       </c>
       <c r="C73" s="18">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="D73" s="19">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="I73" s="23" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J73" s="24"/>
       <c r="K73" s="28"/>
       <c r="L73" s="25" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="M73" s="26"/>
     </row>
     <row r="74" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="13"/>
       <c r="B74" s="17">
-        <v>78833</v>
+        <v>78841</v>
       </c>
       <c r="C74" s="18">
-        <v>44510</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>55</v>
+        <v>44512</v>
+      </c>
+      <c r="D74" s="19">
+        <v>30</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I74" s="23" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="J74" s="24" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K74" s="28"/>
       <c r="L74" s="25"/>
       <c r="M74" s="26" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="13"/>
       <c r="B75" s="17">
-        <v>78832</v>
+        <v>78840</v>
       </c>
       <c r="C75" s="18">
-        <v>44510</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>59</v>
+        <v>44512</v>
+      </c>
+      <c r="D75" s="19">
+        <v>20</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="G75" s="28" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I75" s="23">
-        <v>44508</v>
-      </c>
-      <c r="J75" s="24"/>
+        <v>120</v>
+      </c>
+      <c r="I75" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="J75" s="24" t="s">
+        <v>126</v>
+      </c>
       <c r="K75" s="28"/>
-      <c r="L75" s="25" t="s">
-        <v>109</v>
-      </c>
+      <c r="L75" s="25"/>
       <c r="M75" s="26" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="13"/>
       <c r="B76" s="17">
-        <v>78831</v>
+        <v>78839</v>
       </c>
       <c r="C76" s="18">
-        <v>44510</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>60</v>
+        <v>44512</v>
+      </c>
+      <c r="D76" s="19">
+        <v>20</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="G76" s="28" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I76" s="23">
-        <v>44508</v>
-      </c>
-      <c r="J76" s="24"/>
+        <v>120</v>
+      </c>
+      <c r="I76" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="J76" s="24" t="s">
+        <v>126</v>
+      </c>
       <c r="K76" s="28"/>
-      <c r="L76" s="25" t="s">
-        <v>109</v>
-      </c>
+      <c r="L76" s="25"/>
       <c r="M76" s="26" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="13"/>
       <c r="B77" s="17">
-        <v>78830</v>
+        <v>78838</v>
       </c>
       <c r="C77" s="18">
-        <v>44510</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>53</v>
+        <v>44512</v>
+      </c>
+      <c r="D77" s="19">
+        <v>30</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="G77" s="28" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I77" s="23">
-        <v>44508</v>
+        <v>77</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="J77" s="24"/>
       <c r="K77" s="28"/>
       <c r="L77" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="M77" s="26" t="s">
-        <v>4</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M77" s="26"/>
     </row>
     <row r="78" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="13"/>
       <c r="B78" s="17">
-        <v>78829</v>
+        <v>78837</v>
       </c>
       <c r="C78" s="18">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="D78" s="19">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="G78" s="28" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="I78" s="23" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="J78" s="24"/>
       <c r="K78" s="28"/>
       <c r="L78" s="25" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="M78" s="26"/>
     </row>
     <row r="79" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="13"/>
       <c r="B79" s="17">
-        <v>78828</v>
-      </c>
-      <c r="C79" s="18">
-        <v>44510</v>
-      </c>
-      <c r="D79" s="19">
-        <v>30</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F79" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G79" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="H79" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="I79" s="23" t="s">
-        <v>77</v>
-      </c>
+        <v>78836</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" s="19"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="23"/>
       <c r="J79" s="24"/>
       <c r="K79" s="28"/>
-      <c r="L79" s="25" t="s">
-        <v>109</v>
-      </c>
+      <c r="L79" s="25"/>
       <c r="M79" s="26"/>
     </row>
     <row r="80" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="13"/>
       <c r="B80" s="17">
-        <v>78827</v>
+        <v>78835</v>
       </c>
       <c r="C80" s="18">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="D80" s="19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="G80" s="28" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="J80" s="24"/>
       <c r="K80" s="28"/>
       <c r="L80" s="25" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="M80" s="26"/>
     </row>
     <row r="81" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="13"/>
       <c r="B81" s="17">
-        <v>78826</v>
+        <v>78834</v>
       </c>
       <c r="C81" s="18">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="D81" s="19">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="G81" s="28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="I81" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="J81" s="24" t="s">
-        <v>109</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="J81" s="24"/>
       <c r="K81" s="28"/>
-      <c r="L81" s="25"/>
-      <c r="M81" s="26" t="s">
-        <v>108</v>
-      </c>
+      <c r="L81" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M81" s="26"/>
     </row>
     <row r="82" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="13"/>
       <c r="B82" s="17">
-        <v>78825</v>
+        <v>78833</v>
       </c>
       <c r="C82" s="18">
         <v>44510</v>
       </c>
-      <c r="D82" s="19">
-        <v>60</v>
+      <c r="D82" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="E82" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="G82" s="28" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="I82" s="23" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="J82" s="24" t="s">
         <v>109</v>
@@ -5701,130 +5715,136 @@
       <c r="K82" s="28"/>
       <c r="L82" s="25"/>
       <c r="M82" s="26" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="13"/>
       <c r="B83" s="17">
-        <v>78824</v>
+        <v>78832</v>
       </c>
       <c r="C83" s="18">
         <v>44510</v>
       </c>
-      <c r="D83" s="19">
-        <v>60</v>
+      <c r="D83" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="G83" s="28" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I83" s="23" t="s">
-        <v>77</v>
+        <v>0</v>
+      </c>
+      <c r="I83" s="23">
+        <v>44508</v>
       </c>
       <c r="J83" s="24"/>
       <c r="K83" s="28"/>
       <c r="L83" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="M83" s="26"/>
+      <c r="M83" s="26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="84" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="13"/>
       <c r="B84" s="17">
-        <v>78823</v>
+        <v>78831</v>
       </c>
       <c r="C84" s="18">
         <v>44510</v>
       </c>
-      <c r="D84" s="19">
-        <v>20</v>
+      <c r="D84" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F84" s="21" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="G84" s="28" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I84" s="23" t="s">
-        <v>77</v>
+        <v>0</v>
+      </c>
+      <c r="I84" s="23">
+        <v>44508</v>
       </c>
       <c r="J84" s="24"/>
       <c r="K84" s="28"/>
       <c r="L84" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="M84" s="26"/>
+      <c r="M84" s="26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="85" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="13"/>
       <c r="B85" s="17">
-        <v>78822</v>
+        <v>78830</v>
       </c>
       <c r="C85" s="18">
         <v>44510</v>
       </c>
-      <c r="D85" s="19">
-        <v>20</v>
+      <c r="D85" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="G85" s="28" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I85" s="23" t="s">
-        <v>77</v>
+        <v>7</v>
+      </c>
+      <c r="I85" s="23">
+        <v>44508</v>
       </c>
       <c r="J85" s="24"/>
       <c r="K85" s="28"/>
       <c r="L85" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="M85" s="26"/>
+      <c r="M85" s="26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="86" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="13"/>
       <c r="B86" s="17">
-        <v>78821</v>
+        <v>78829</v>
       </c>
       <c r="C86" s="18">
         <v>44510</v>
       </c>
       <c r="D86" s="19">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="I86" s="23" t="s">
         <v>77</v>
@@ -5839,25 +5859,25 @@
     <row r="87" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="13"/>
       <c r="B87" s="17">
-        <v>78820</v>
+        <v>78828</v>
       </c>
       <c r="C87" s="18">
         <v>44510</v>
       </c>
       <c r="D87" s="19">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G87" s="28" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="I87" s="23" t="s">
         <v>77</v>
@@ -5872,22 +5892,22 @@
     <row r="88" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="13"/>
       <c r="B88" s="17">
-        <v>78819</v>
+        <v>78827</v>
       </c>
       <c r="C88" s="18">
         <v>44510</v>
       </c>
       <c r="D88" s="19">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E88" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G88" s="28" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="H88" s="22" t="s">
         <v>77</v>
@@ -5905,162 +5925,158 @@
     <row r="89" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="13"/>
       <c r="B89" s="17">
-        <v>78818</v>
+        <v>78826</v>
       </c>
       <c r="C89" s="18">
-        <v>44509</v>
-      </c>
-      <c r="D89" s="19" t="s">
-        <v>57</v>
+        <v>44510</v>
+      </c>
+      <c r="D89" s="19">
+        <v>60</v>
       </c>
       <c r="E89" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="G89" s="28" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I89" s="23">
-        <v>44508</v>
+        <v>13</v>
+      </c>
+      <c r="I89" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="J89" s="24" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="K89" s="28"/>
       <c r="L89" s="25"/>
       <c r="M89" s="26" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="13"/>
       <c r="B90" s="17">
-        <v>78817</v>
+        <v>78825</v>
       </c>
       <c r="C90" s="18">
-        <v>44509</v>
-      </c>
-      <c r="D90" s="19" t="s">
-        <v>54</v>
+        <v>44510</v>
+      </c>
+      <c r="D90" s="19">
+        <v>60</v>
       </c>
       <c r="E90" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="G90" s="28" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="H90" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I90" s="23">
-        <v>44505</v>
-      </c>
-      <c r="J90" s="24"/>
+        <v>107</v>
+      </c>
+      <c r="I90" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J90" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="K90" s="28"/>
-      <c r="L90" s="25" t="s">
-        <v>71</v>
-      </c>
+      <c r="L90" s="25"/>
       <c r="M90" s="26" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="13"/>
       <c r="B91" s="17">
-        <v>78816</v>
+        <v>78824</v>
       </c>
       <c r="C91" s="18">
-        <v>44509</v>
-      </c>
-      <c r="D91" s="19" t="s">
-        <v>14</v>
+        <v>44510</v>
+      </c>
+      <c r="D91" s="19">
+        <v>60</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="G91" s="28" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="H91" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="I91" s="23">
-        <v>44505</v>
-      </c>
-      <c r="J91" s="24" t="s">
-        <v>71</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I91" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J91" s="24"/>
       <c r="K91" s="28"/>
-      <c r="L91" s="25"/>
-      <c r="M91" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="L91" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="M91" s="26"/>
     </row>
     <row r="92" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="13"/>
       <c r="B92" s="17">
-        <v>78815</v>
+        <v>78823</v>
       </c>
       <c r="C92" s="18">
-        <v>44509</v>
-      </c>
-      <c r="D92" s="19" t="s">
-        <v>60</v>
+        <v>44510</v>
+      </c>
+      <c r="D92" s="19">
+        <v>20</v>
       </c>
       <c r="E92" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F92" s="21" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="G92" s="28" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I92" s="23">
-        <v>44505</v>
+        <v>77</v>
+      </c>
+      <c r="I92" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="J92" s="24"/>
       <c r="K92" s="28"/>
       <c r="L92" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="M92" s="26" t="s">
-        <v>4</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M92" s="26"/>
     </row>
     <row r="93" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="13"/>
       <c r="B93" s="17">
-        <v>78814</v>
+        <v>78822</v>
       </c>
       <c r="C93" s="18">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D93" s="19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E93" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F93" s="21" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G93" s="28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H93" s="22" t="s">
         <v>77</v>
@@ -6071,29 +6087,29 @@
       <c r="J93" s="24"/>
       <c r="K93" s="28"/>
       <c r="L93" s="25" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="M93" s="26"/>
     </row>
     <row r="94" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="13"/>
       <c r="B94" s="17">
-        <v>78813</v>
+        <v>78821</v>
       </c>
       <c r="C94" s="18">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D94" s="19">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E94" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F94" s="21" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G94" s="28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H94" s="22" t="s">
         <v>77</v>
@@ -6104,32 +6120,32 @@
       <c r="J94" s="24"/>
       <c r="K94" s="28"/>
       <c r="L94" s="25" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="M94" s="26"/>
     </row>
     <row r="95" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="13"/>
       <c r="B95" s="17">
-        <v>78812</v>
+        <v>78820</v>
       </c>
       <c r="C95" s="18">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D95" s="19">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F95" s="21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G95" s="28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H95" s="22" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="I95" s="23" t="s">
         <v>77</v>
@@ -6137,70 +6153,68 @@
       <c r="J95" s="24"/>
       <c r="K95" s="28"/>
       <c r="L95" s="25" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="M95" s="26"/>
     </row>
     <row r="96" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="13"/>
       <c r="B96" s="17">
-        <v>78811</v>
+        <v>78819</v>
       </c>
       <c r="C96" s="18">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D96" s="19">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E96" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G96" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="I96" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="J96" s="24" t="s">
-        <v>71</v>
-      </c>
+      <c r="J96" s="24"/>
       <c r="K96" s="28"/>
-      <c r="L96" s="25"/>
-      <c r="M96" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="L96" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="M96" s="26"/>
     </row>
     <row r="97" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="13"/>
       <c r="B97" s="17">
-        <v>78810</v>
+        <v>78818</v>
       </c>
       <c r="C97" s="18">
         <v>44509</v>
       </c>
-      <c r="D97" s="19">
-        <v>20</v>
+      <c r="D97" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="G97" s="28" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="H97" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I97" s="23" t="s">
-        <v>77</v>
+        <v>12</v>
+      </c>
+      <c r="I97" s="23">
+        <v>44508</v>
       </c>
       <c r="J97" s="24" t="s">
         <v>71</v>
@@ -6214,121 +6228,127 @@
     <row r="98" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="13"/>
       <c r="B98" s="17">
-        <v>78809</v>
+        <v>78817</v>
       </c>
       <c r="C98" s="18">
         <v>44509</v>
       </c>
-      <c r="D98" s="19">
-        <v>20</v>
+      <c r="D98" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="E98" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="H98" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I98" s="23" t="s">
-        <v>77</v>
+        <v>23</v>
+      </c>
+      <c r="I98" s="23">
+        <v>44505</v>
       </c>
       <c r="J98" s="24"/>
       <c r="K98" s="28"/>
       <c r="L98" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="M98" s="26"/>
+      <c r="M98" s="26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="99" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="13"/>
       <c r="B99" s="17">
-        <v>78808</v>
+        <v>78816</v>
       </c>
       <c r="C99" s="18">
         <v>44509</v>
       </c>
-      <c r="D99" s="19">
-        <v>20</v>
+      <c r="D99" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="E99" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="H99" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I99" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="J99" s="24"/>
+        <v>37</v>
+      </c>
+      <c r="I99" s="23">
+        <v>44505</v>
+      </c>
+      <c r="J99" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="K99" s="28"/>
-      <c r="L99" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="M99" s="26"/>
+      <c r="L99" s="25"/>
+      <c r="M99" s="26" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="100" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="13"/>
       <c r="B100" s="17">
-        <v>78807</v>
+        <v>78815</v>
       </c>
       <c r="C100" s="18">
         <v>44509</v>
       </c>
-      <c r="D100" s="19">
-        <v>20</v>
+      <c r="D100" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="E100" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F100" s="21" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="G100" s="28" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="H100" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I100" s="23" t="s">
-        <v>77</v>
+        <v>9</v>
+      </c>
+      <c r="I100" s="23">
+        <v>44505</v>
       </c>
       <c r="J100" s="24"/>
       <c r="K100" s="28"/>
       <c r="L100" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="M100" s="26"/>
+      <c r="M100" s="26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="101" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="13"/>
       <c r="B101" s="17">
-        <v>78806</v>
+        <v>78814</v>
       </c>
       <c r="C101" s="18">
         <v>44509</v>
       </c>
       <c r="D101" s="19">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E101" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G101" s="28" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H101" s="22" t="s">
         <v>77</v>
@@ -6346,22 +6366,22 @@
     <row r="102" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="13"/>
       <c r="B102" s="17">
-        <v>78805</v>
+        <v>78813</v>
       </c>
       <c r="C102" s="18">
         <v>44509</v>
       </c>
       <c r="D102" s="19">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E102" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H102" s="22" t="s">
         <v>77</v>
@@ -6379,25 +6399,25 @@
     <row r="103" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="13"/>
       <c r="B103" s="17">
-        <v>78804</v>
+        <v>78812</v>
       </c>
       <c r="C103" s="18">
         <v>44509</v>
       </c>
       <c r="D103" s="19">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G103" s="28" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H103" s="22" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="I103" s="23" t="s">
         <v>77</v>
@@ -6412,232 +6432,248 @@
     <row r="104" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="13"/>
       <c r="B104" s="17">
-        <v>78803</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D104" s="19"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="22"/>
-      <c r="I104" s="23"/>
-      <c r="J104" s="24"/>
+        <v>78811</v>
+      </c>
+      <c r="C104" s="18">
+        <v>44509</v>
+      </c>
+      <c r="D104" s="19">
+        <v>20</v>
+      </c>
+      <c r="E104" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G104" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H104" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I104" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J104" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="K104" s="28"/>
       <c r="L104" s="25"/>
-      <c r="M104" s="26"/>
+      <c r="M104" s="26" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="105" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="13"/>
       <c r="B105" s="17">
-        <v>78802</v>
+        <v>78810</v>
       </c>
       <c r="C105" s="18">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="D105" s="19">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E105" s="20" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="G105" s="28" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="H105" s="22" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="I105" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="J105" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="J105" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="K105" s="28"/>
-      <c r="L105" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="M105" s="26"/>
+      <c r="L105" s="25"/>
+      <c r="M105" s="26" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="106" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="13"/>
       <c r="B106" s="17">
-        <v>78801</v>
+        <v>78809</v>
       </c>
       <c r="C106" s="18">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="D106" s="19">
         <v>20</v>
       </c>
       <c r="E106" s="20" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="G106" s="28" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="H106" s="22" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="I106" s="23" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="J106" s="24"/>
       <c r="K106" s="28"/>
       <c r="L106" s="25" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="M106" s="26"/>
     </row>
     <row r="107" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="13"/>
       <c r="B107" s="17">
-        <v>78800</v>
+        <v>78808</v>
       </c>
       <c r="C107" s="18">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="D107" s="19">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="G107" s="28" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="H107" s="22" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="I107" s="23" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="J107" s="24"/>
       <c r="K107" s="28"/>
       <c r="L107" s="25" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="M107" s="26"/>
     </row>
     <row r="108" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="13"/>
       <c r="B108" s="17">
-        <v>78799</v>
+        <v>78807</v>
       </c>
       <c r="C108" s="18">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="D108" s="19">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E108" s="20" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="G108" s="28" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="H108" s="22" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="I108" s="23" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="J108" s="24"/>
       <c r="K108" s="28"/>
       <c r="L108" s="25" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="M108" s="26"/>
     </row>
     <row r="109" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="13"/>
       <c r="B109" s="17">
-        <v>78798</v>
+        <v>78806</v>
       </c>
       <c r="C109" s="18">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="D109" s="19">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="G109" s="28" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="H109" s="22" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="I109" s="23" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="J109" s="24"/>
       <c r="K109" s="28"/>
       <c r="L109" s="25" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="M109" s="26"/>
     </row>
     <row r="110" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="13"/>
       <c r="B110" s="17">
-        <v>78797</v>
+        <v>78805</v>
       </c>
       <c r="C110" s="18">
-        <v>44507</v>
+        <v>44509</v>
       </c>
       <c r="D110" s="19">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E110" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G110" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H110" s="22" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I110" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="J110" s="24" t="s">
+      <c r="J110" s="24"/>
+      <c r="K110" s="28"/>
+      <c r="L110" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K110" s="28"/>
-      <c r="L110" s="25"/>
-      <c r="M110" s="26" t="s">
-        <v>97</v>
-      </c>
+      <c r="M110" s="26"/>
     </row>
     <row r="111" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="13"/>
       <c r="B111" s="17">
-        <v>78796</v>
+        <v>78804</v>
       </c>
       <c r="C111" s="18">
-        <v>44507</v>
+        <v>44509</v>
       </c>
       <c r="D111" s="19">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E111" s="20" t="s">
         <v>28</v>
@@ -6664,287 +6700,259 @@
     <row r="112" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="13"/>
       <c r="B112" s="17">
-        <v>78795</v>
-      </c>
-      <c r="C112" s="18">
-        <v>44506</v>
-      </c>
-      <c r="D112" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E112" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F112" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H112" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I112" s="23">
-        <v>44502</v>
-      </c>
+        <v>78803</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D112" s="19"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="23"/>
       <c r="J112" s="24"/>
       <c r="K112" s="28"/>
-      <c r="L112" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="M112" s="26" t="s">
-        <v>4</v>
-      </c>
+      <c r="L112" s="25"/>
+      <c r="M112" s="26"/>
     </row>
     <row r="113" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="13"/>
       <c r="B113" s="17">
-        <v>78794</v>
+        <v>78802</v>
       </c>
       <c r="C113" s="18">
-        <v>44506</v>
-      </c>
-      <c r="D113" s="19" t="s">
-        <v>14</v>
+        <v>44508</v>
+      </c>
+      <c r="D113" s="19">
+        <v>60</v>
       </c>
       <c r="E113" s="20" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="F113" s="21" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="G113" s="28" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H113" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="I113" s="23">
-        <v>44502</v>
-      </c>
-      <c r="J113" s="24" t="s">
-        <v>98</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="I113" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J113" s="24"/>
       <c r="K113" s="28"/>
-      <c r="L113" s="25"/>
-      <c r="M113" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="L113" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="M113" s="26"/>
     </row>
     <row r="114" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="13"/>
       <c r="B114" s="17">
-        <v>78793</v>
+        <v>78801</v>
       </c>
       <c r="C114" s="18">
-        <v>44506</v>
-      </c>
-      <c r="D114" s="19" t="s">
-        <v>14</v>
+        <v>44508</v>
+      </c>
+      <c r="D114" s="19">
+        <v>20</v>
       </c>
       <c r="E114" s="20" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="F114" s="21" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="G114" s="28" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H114" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="I114" s="23">
-        <v>44501</v>
-      </c>
-      <c r="J114" s="24" t="s">
-        <v>98</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="I114" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J114" s="24"/>
       <c r="K114" s="28"/>
-      <c r="L114" s="25"/>
-      <c r="M114" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="L114" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="M114" s="26"/>
     </row>
     <row r="115" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="13"/>
       <c r="B115" s="17">
-        <v>78792</v>
+        <v>78800</v>
       </c>
       <c r="C115" s="18">
-        <v>44506</v>
-      </c>
-      <c r="D115" s="19" t="s">
-        <v>60</v>
+        <v>44508</v>
+      </c>
+      <c r="D115" s="19">
+        <v>50</v>
       </c>
       <c r="E115" s="20" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="F115" s="21" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="G115" s="28" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H115" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I115" s="23">
-        <v>44505</v>
-      </c>
-      <c r="J115" s="24" t="s">
-        <v>98</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="I115" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J115" s="24"/>
       <c r="K115" s="28"/>
-      <c r="L115" s="25"/>
-      <c r="M115" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="L115" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="M115" s="26"/>
     </row>
     <row r="116" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="13"/>
       <c r="B116" s="17">
-        <v>78791</v>
+        <v>78799</v>
       </c>
       <c r="C116" s="18">
-        <v>44506</v>
-      </c>
-      <c r="D116" s="19" t="s">
-        <v>60</v>
+        <v>44508</v>
+      </c>
+      <c r="D116" s="19">
+        <v>80</v>
       </c>
       <c r="E116" s="20" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="F116" s="21" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="G116" s="28" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="H116" s="22" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="I116" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J116" s="24" t="s">
-        <v>98</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="J116" s="24"/>
       <c r="K116" s="28"/>
-      <c r="L116" s="25"/>
-      <c r="M116" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="L116" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="M116" s="26"/>
     </row>
     <row r="117" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="13"/>
       <c r="B117" s="17">
-        <v>78790</v>
+        <v>78798</v>
       </c>
       <c r="C117" s="18">
-        <v>44506</v>
-      </c>
-      <c r="D117" s="19" t="s">
-        <v>14</v>
+        <v>44508</v>
+      </c>
+      <c r="D117" s="19">
+        <v>30</v>
       </c>
       <c r="E117" s="20" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="F117" s="21" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="G117" s="28" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="H117" s="22" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="I117" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J117" s="24" t="s">
-        <v>98</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="J117" s="24"/>
       <c r="K117" s="28"/>
-      <c r="L117" s="25"/>
-      <c r="M117" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="L117" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="M117" s="26"/>
     </row>
     <row r="118" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="13"/>
       <c r="B118" s="17">
-        <v>78789</v>
+        <v>78797</v>
       </c>
       <c r="C118" s="18">
-        <v>44506</v>
-      </c>
-      <c r="D118" s="19" t="s">
-        <v>14</v>
+        <v>44507</v>
+      </c>
+      <c r="D118" s="19">
+        <v>10</v>
       </c>
       <c r="E118" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F118" s="21" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="G118" s="28" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="H118" s="22" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I118" s="23" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="J118" s="24" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="K118" s="28"/>
       <c r="L118" s="25"/>
       <c r="M118" s="26" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="13"/>
       <c r="B119" s="17">
-        <v>78788</v>
+        <v>78796</v>
       </c>
       <c r="C119" s="18">
-        <v>44506</v>
-      </c>
-      <c r="D119" s="19" t="s">
-        <v>57</v>
+        <v>44507</v>
+      </c>
+      <c r="D119" s="19">
+        <v>50</v>
       </c>
       <c r="E119" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F119" s="21" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="G119" s="28" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I119" s="23">
-        <v>44502</v>
-      </c>
-      <c r="J119" s="24" t="s">
-        <v>98</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I119" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J119" s="24"/>
       <c r="K119" s="28"/>
-      <c r="L119" s="25"/>
-      <c r="M119" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="L119" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M119" s="26"/>
     </row>
     <row r="120" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="13"/>
       <c r="B120" s="17">
-        <v>78787</v>
+        <v>78795</v>
       </c>
       <c r="C120" s="18">
         <v>44506</v>
@@ -6953,16 +6961,16 @@
         <v>57</v>
       </c>
       <c r="E120" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F120" s="21" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G120" s="28" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I120" s="23">
         <v>44502</v>
@@ -6979,129 +6987,133 @@
     <row r="121" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="13"/>
       <c r="B121" s="17">
-        <v>78786</v>
+        <v>78794</v>
       </c>
       <c r="C121" s="18">
         <v>44506</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E121" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F121" s="21" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G121" s="28" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H121" s="22" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I121" s="23">
-        <v>44503</v>
-      </c>
-      <c r="J121" s="24"/>
+        <v>44502</v>
+      </c>
+      <c r="J121" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="K121" s="28"/>
-      <c r="L121" s="25" t="s">
-        <v>98</v>
-      </c>
+      <c r="L121" s="25"/>
       <c r="M121" s="26" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="13"/>
       <c r="B122" s="17">
-        <v>78785</v>
+        <v>78793</v>
       </c>
       <c r="C122" s="18">
         <v>44506</v>
       </c>
-      <c r="D122" s="19">
-        <v>30</v>
+      <c r="D122" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="E122" s="20" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="F122" s="21" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="G122" s="28" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="H122" s="22" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="I122" s="23">
-        <v>44503</v>
-      </c>
-      <c r="J122" s="24"/>
+        <v>44501</v>
+      </c>
+      <c r="J122" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="K122" s="28"/>
-      <c r="L122" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="M122" s="26"/>
+      <c r="L122" s="25"/>
+      <c r="M122" s="26" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="123" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="13"/>
       <c r="B123" s="17">
-        <v>78784</v>
+        <v>78792</v>
       </c>
       <c r="C123" s="18">
         <v>44506</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E123" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F123" s="21" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="G123" s="28" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="H123" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="I123" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="J123" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="I123" s="23">
+        <v>44505</v>
+      </c>
+      <c r="J123" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="K123" s="28"/>
-      <c r="L123" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="M123" s="26"/>
+      <c r="L123" s="25"/>
+      <c r="M123" s="26" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="124" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="13"/>
       <c r="B124" s="17">
-        <v>78783</v>
+        <v>78791</v>
       </c>
       <c r="C124" s="18">
         <v>44506</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E124" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F124" s="21" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="G124" s="28" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="H124" s="22" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="I124" s="23" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="J124" s="24" t="s">
         <v>98</v>
@@ -7109,34 +7121,34 @@
       <c r="K124" s="28"/>
       <c r="L124" s="25"/>
       <c r="M124" s="26" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="13"/>
       <c r="B125" s="17">
-        <v>78782</v>
+        <v>78790</v>
       </c>
       <c r="C125" s="18">
         <v>44506</v>
       </c>
-      <c r="D125" s="19">
-        <v>10</v>
+      <c r="D125" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="E125" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F125" s="21" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="G125" s="28" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="H125" s="22" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="I125" s="23" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="J125" s="24" t="s">
         <v>98</v>
@@ -7144,34 +7156,34 @@
       <c r="K125" s="28"/>
       <c r="L125" s="25"/>
       <c r="M125" s="26" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="13"/>
       <c r="B126" s="17">
-        <v>78781</v>
+        <v>78789</v>
       </c>
       <c r="C126" s="18">
         <v>44506</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="E126" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F126" s="21" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="G126" s="28" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="H126" s="22" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="I126" s="23" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="J126" s="24" t="s">
         <v>98</v>
@@ -7179,34 +7191,34 @@
       <c r="K126" s="28"/>
       <c r="L126" s="25"/>
       <c r="M126" s="26" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="13"/>
       <c r="B127" s="17">
-        <v>78780</v>
+        <v>78788</v>
       </c>
       <c r="C127" s="18">
         <v>44506</v>
       </c>
-      <c r="D127" s="19">
-        <v>20</v>
+      <c r="D127" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="E127" s="20" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="F127" s="21" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="G127" s="28" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="H127" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="I127" s="23" t="s">
-        <v>94</v>
+        <v>0</v>
+      </c>
+      <c r="I127" s="23">
+        <v>44502</v>
       </c>
       <c r="J127" s="24" t="s">
         <v>98</v>
@@ -7214,100 +7226,104 @@
       <c r="K127" s="28"/>
       <c r="L127" s="25"/>
       <c r="M127" s="26" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="13"/>
       <c r="B128" s="17">
-        <v>78779</v>
+        <v>78787</v>
       </c>
       <c r="C128" s="18">
         <v>44506</v>
       </c>
-      <c r="D128" s="19">
-        <v>80</v>
+      <c r="D128" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="E128" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F128" s="21" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="G128" s="28" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="H128" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="I128" s="23" t="s">
-        <v>94</v>
+        <v>22</v>
+      </c>
+      <c r="I128" s="23">
+        <v>44502</v>
       </c>
       <c r="J128" s="24"/>
       <c r="K128" s="28"/>
       <c r="L128" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="M128" s="26"/>
+      <c r="M128" s="26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="129" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="13"/>
       <c r="B129" s="17">
-        <v>78778</v>
+        <v>78786</v>
       </c>
       <c r="C129" s="18">
         <v>44506</v>
       </c>
-      <c r="D129" s="19">
-        <v>20</v>
+      <c r="D129" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="E129" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F129" s="21" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="G129" s="28" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="H129" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="I129" s="23" t="s">
-        <v>94</v>
+        <v>12</v>
+      </c>
+      <c r="I129" s="23">
+        <v>44503</v>
       </c>
       <c r="J129" s="24"/>
       <c r="K129" s="28"/>
       <c r="L129" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="M129" s="26"/>
+      <c r="M129" s="26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="130" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="13"/>
       <c r="B130" s="17">
-        <v>78777</v>
+        <v>78785</v>
       </c>
       <c r="C130" s="18">
         <v>44506</v>
       </c>
-      <c r="D130" s="19" t="s">
-        <v>14</v>
+      <c r="D130" s="19">
+        <v>30</v>
       </c>
       <c r="E130" s="20" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="F130" s="21" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G130" s="28" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H130" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="I130" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="I130" s="23">
+        <v>44503</v>
       </c>
       <c r="J130" s="24"/>
       <c r="K130" s="28"/>
@@ -7319,22 +7335,22 @@
     <row r="131" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="13"/>
       <c r="B131" s="17">
-        <v>78776</v>
+        <v>78784</v>
       </c>
       <c r="C131" s="18">
         <v>44506</v>
       </c>
-      <c r="D131" s="19">
-        <v>30</v>
+      <c r="D131" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="E131" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F131" s="21" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G131" s="28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H131" s="22" t="s">
         <v>94</v>
@@ -7352,22 +7368,22 @@
     <row r="132" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="13"/>
       <c r="B132" s="17">
-        <v>78775</v>
+        <v>78783</v>
       </c>
       <c r="C132" s="18">
         <v>44506</v>
       </c>
-      <c r="D132" s="19">
-        <v>60</v>
+      <c r="D132" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="E132" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F132" s="21" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G132" s="28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H132" s="22" t="s">
         <v>94</v>
@@ -7375,32 +7391,34 @@
       <c r="I132" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="J132" s="24"/>
+      <c r="J132" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="K132" s="28"/>
-      <c r="L132" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="M132" s="26"/>
+      <c r="L132" s="25"/>
+      <c r="M132" s="26" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="133" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="13"/>
       <c r="B133" s="17">
-        <v>78774</v>
+        <v>78782</v>
       </c>
       <c r="C133" s="18">
         <v>44506</v>
       </c>
       <c r="D133" s="19">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E133" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F133" s="21" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G133" s="28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H133" s="22" t="s">
         <v>94</v>
@@ -7408,32 +7426,34 @@
       <c r="I133" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="J133" s="24"/>
+      <c r="J133" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="K133" s="28"/>
-      <c r="L133" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="M133" s="26"/>
+      <c r="L133" s="25"/>
+      <c r="M133" s="26" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="134" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="13"/>
       <c r="B134" s="17">
-        <v>78773</v>
+        <v>78781</v>
       </c>
       <c r="C134" s="18">
         <